--- a/packages/leemons-plugin-mvp-template/src/bulk/data.xlsx
+++ b/packages/leemons-plugin-mvp-template/src/bulk/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" state="visible" r:id="rId1"/>
@@ -14,8 +14,10 @@
     <sheet name="families" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="ap_profiles" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="ap_programs" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="ap_subjects" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="rules" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="ap_subject_types" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="ap_knowledges" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="ap_subjects" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="rules" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="SUBSTAGES_FRECUENCY" hidden="0">DB!$A$2:$A$8</definedName>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="243">
   <si>
     <t xml:space="preserve">Substages frecuency</t>
   </si>
@@ -424,6 +426,12 @@
     <t>substagesFrequency</t>
   </si>
   <si>
+    <t>maxSubstageAbbreviation</t>
+  </si>
+  <si>
+    <t>maxSubstageAbbreviationIsOnlyNumbers</t>
+  </si>
+  <si>
     <t>haveKnowledge</t>
   </si>
   <si>
@@ -493,15 +501,15 @@
     <t xml:space="preserve">Substage Frequency</t>
   </si>
   <si>
+    <t xml:space="preserve">Max acronym length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is acronym only numbers?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Have knowlegde areas?</t>
   </si>
   <si>
-    <t xml:space="preserve">Max acronym length</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is acronym only numbers?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Only one group per course?</t>
   </si>
   <si>
@@ -533,13 +541,229 @@
   </si>
   <si>
     <t xml:space="preserve">Semester 1|S01, Semester 2|S02</t>
+  </si>
+  <si>
+    <t>program</t>
+  </si>
+  <si>
+    <t>credits_program</t>
+  </si>
+  <si>
+    <t>groupVisibility</t>
+  </si>
+  <si>
+    <t>Program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is visible in tree?</t>
+  </si>
+  <si>
+    <t>type01</t>
+  </si>
+  <si>
+    <t>Core</t>
+  </si>
+  <si>
+    <t>type02</t>
+  </si>
+  <si>
+    <t>type03</t>
+  </si>
+  <si>
+    <t>Specific</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>knowArea01</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>SCNC</t>
+  </si>
+  <si>
+    <t>#1B72E8</t>
+  </si>
+  <si>
+    <t>https://s3.eu-west-1.amazonaws.com/global-assets.leemons.io/biology_icon_3f80619648.svg</t>
+  </si>
+  <si>
+    <t>knowArea02</t>
+  </si>
+  <si>
+    <t>Maths</t>
+  </si>
+  <si>
+    <t>MATH</t>
+  </si>
+  <si>
+    <t>#E81B4A</t>
+  </si>
+  <si>
+    <t>https://s3.eu-west-1.amazonaws.com/global-assets.leemons.io/computer_icon_56ca0c26bc.svg</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>internalId</t>
+  </si>
+  <si>
+    <t>groups</t>
+  </si>
+  <si>
+    <t>knowledge</t>
+  </si>
+  <si>
+    <t>subjectType</t>
+  </si>
+  <si>
+    <t>teachers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class config</t>
+  </si>
+  <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>Credits</t>
+  </si>
+  <si>
+    <t>InternalID</t>
+  </si>
+  <si>
+    <t>Groups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knowledge Area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subject Type</t>
+  </si>
+  <si>
+    <t>Teachers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Language I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group A|G1A, Group B|G1B</t>
+  </si>
+  <si>
+    <t>#FFEB9C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teacher01|main@G1A, teacher01|main@G1B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Math I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social sciences I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sports I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Language II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group A|G2A, Group B|G2B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teacher01|main@G2A, teacher01|main@G2B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Math II</t>
+  </si>
+  <si>
+    <t>#FFC7CE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social sciences II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sports II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Language III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group A|G3A, Group B|G3B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teacher01|main@G3A, teacher01|main@G3B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Math III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social sciences III</t>
+  </si>
+  <si>
+    <t>#C6EFCD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sports III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Language IV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group A|G4A, Group B|G4B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teacher01|main@G4A, teacher01|main@G4B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Math IV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social sciences IV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sports IV</t>
+  </si>
+  <si>
+    <t>#FFCC99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Language V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group A|G5A, Group B|G5B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teacher01|main@G5A, teacher01|main@G5B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Math V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social sciences V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sports V</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <name val="Calibri"/>
       <color theme="1"/>
@@ -623,6 +847,18 @@
     <font>
       <name val="Calibri"/>
       <b/>
+      <color theme="1"/>
+      <sz val="10.000000"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color theme="10"/>
+      <sz val="10.500000"/>
+      <u/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <color theme="1"/>
       <sz val="10.000000"/>
       <scheme val="minor"/>
@@ -1003,7 +1239,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="125">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1029,14 +1265,20 @@
     <xf fontId="4" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf fontId="1" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1157,17 +1399,20 @@
     <xf fontId="4" fillId="15" borderId="18" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf fontId="0" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="19" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="19" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="4" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1175,27 +1420,52 @@
     <xf fontId="1" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="11" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1">
+    <xf fontId="0" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="11" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf fontId="0" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="11" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1">
+    <xf fontId="11" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
+    <xf fontId="4" fillId="16" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf fontId="1" fillId="2" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="4" fillId="4" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="4" fillId="16" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
@@ -1231,56 +1501,113 @@
     <xf fontId="1" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="4" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="4" fillId="16" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf fontId="12" fillId="4" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="12" fillId="4" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="12" fillId="12" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="12" fillId="12" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="12" fillId="12" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="12" fillId="13" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="12" fillId="13" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="12" fillId="13" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="12" fillId="18" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="12" fillId="18" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="12" fillId="14" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="12" fillId="14" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="12" fillId="14" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="4" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="2" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="4" fillId="4" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="4" fillId="16" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="4" fillId="4" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="13" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="4" fillId="16" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="7" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="7" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="4" fillId="16" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="14" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="14" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf fontId="14" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1788,6 +2115,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="1" tint="0"/>
+    <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0" zoomScale="100">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1863,6 +2195,1086 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="7" tint="0"/>
+    <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0" zoomScale="100">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="14.57421875"/>
+    <col customWidth="1" min="3" max="3" width="10.8515625"/>
+    <col customWidth="1" min="5" max="5" width="13.8515625"/>
+    <col customWidth="1" min="6" max="6" width="10.421875"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" ht="28.5">
+      <c r="A2" s="107" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="108" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="108" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="108" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" s="108" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="109" t="s">
+        <v>174</v>
+      </c>
+      <c r="G2" s="110" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" ht="19.5" customHeight="1">
+      <c r="A3" s="64" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3" s="111" t="s">
+        <v>189</v>
+      </c>
+      <c r="F3" s="75" t="str">
+        <f>ap_programs!$A$5</f>
+        <v>programB</v>
+      </c>
+      <c r="G3" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" ht="19.5" customHeight="1">
+      <c r="A4" s="64" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>194</v>
+      </c>
+      <c r="F4" s="75" t="str">
+        <f>ap_programs!$A$5</f>
+        <v>programB</v>
+      </c>
+      <c r="G4" s="58">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="E3"/>
+    <hyperlink r:id="rId2" ref="E4"/>
+  </hyperlinks>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="7" tint="0"/>
+    <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0" zoomScale="100">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="12.8515625"/>
+    <col customWidth="1" min="2" max="2" width="18.421875"/>
+    <col customWidth="1" min="3" max="3" width="12.8515625"/>
+    <col customWidth="1" min="6" max="6" width="10.421875"/>
+    <col customWidth="1" min="7" max="7" width="13.00390625"/>
+    <col customWidth="1" min="8" max="8" width="10.8515625"/>
+    <col customWidth="1" min="9" max="9" width="11.8515625"/>
+    <col customWidth="1" min="10" max="10" width="10.140625"/>
+    <col customWidth="1" min="11" max="11" width="23.28125"/>
+    <col customWidth="1" min="12" max="12" width="3.57421875"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25">
+      <c r="A1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="112" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" s="112" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" s="112" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="112" t="s">
+        <v>196</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="K1" s="113" t="s">
+        <v>200</v>
+      </c>
+      <c r="L1" s="72"/>
+    </row>
+    <row r="2" ht="28.850000000000001" customHeight="1">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="114" t="s">
+        <v>201</v>
+      </c>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="72"/>
+    </row>
+    <row r="3" ht="31.850000000000001" customHeight="1">
+      <c r="A3" s="107" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="108" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="115" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="90" t="s">
+        <v>202</v>
+      </c>
+      <c r="E3" s="90" t="s">
+        <v>203</v>
+      </c>
+      <c r="F3" s="90" t="s">
+        <v>204</v>
+      </c>
+      <c r="G3" s="116" t="s">
+        <v>205</v>
+      </c>
+      <c r="H3" s="117" t="s">
+        <v>183</v>
+      </c>
+      <c r="I3" s="117" t="s">
+        <v>206</v>
+      </c>
+      <c r="J3" s="118" t="s">
+        <v>207</v>
+      </c>
+      <c r="K3" s="109" t="s">
+        <v>208</v>
+      </c>
+      <c r="L3" s="119"/>
+    </row>
+    <row r="4" s="9" customFormat="1" ht="30" customHeight="1">
+      <c r="A4" s="10" t="str">
+        <f>_xlfn.CONCAT("subject",IF(L4&lt;10,"0",""),L4)</f>
+        <v>subject01</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="75" t="str">
+        <f>ap_programs!A4</f>
+        <v>programA</v>
+      </c>
+      <c r="D4" s="58">
+        <v>1</v>
+      </c>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58" t="str">
+        <f>_xlfn.CONCAT("0",IF(L4&lt;10,"0",""),L4)</f>
+        <v>001</v>
+      </c>
+      <c r="G4" s="120" t="s">
+        <v>210</v>
+      </c>
+      <c r="H4" s="121" t="s">
+        <v>211</v>
+      </c>
+      <c r="I4" s="58"/>
+      <c r="J4" s="122" t="str">
+        <f>ap_subject_types!$A$3</f>
+        <v>type01</v>
+      </c>
+      <c r="K4" s="123" t="s">
+        <v>212</v>
+      </c>
+      <c r="L4" s="124">
+        <v>1</v>
+      </c>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" s="9" customFormat="1" ht="30" customHeight="1">
+      <c r="A5" s="10" t="str">
+        <f>_xlfn.CONCAT("subject",IF(L5&lt;10,"0",""),L5)</f>
+        <v>subject02</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" s="75" t="str">
+        <f>C4</f>
+        <v>programA</v>
+      </c>
+      <c r="D5" s="58">
+        <v>1</v>
+      </c>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58" t="str">
+        <f>_xlfn.CONCAT("0",IF(L5&lt;10,"0",""),L5)</f>
+        <v>002</v>
+      </c>
+      <c r="G5" s="120" t="str">
+        <f>G4</f>
+        <v xml:space="preserve">Group A|G1A, Group B|G1B</v>
+      </c>
+      <c r="H5" s="121" t="str">
+        <f>H4</f>
+        <v>#FFEB9C</v>
+      </c>
+      <c r="I5" s="58"/>
+      <c r="J5" s="122" t="str">
+        <f>ap_subject_types!$A$3</f>
+        <v>type01</v>
+      </c>
+      <c r="K5" s="123" t="str">
+        <f>K4</f>
+        <v xml:space="preserve">teacher01|main@G1A, teacher01|main@G1B</v>
+      </c>
+      <c r="L5" s="124">
+        <f>L4+1</f>
+        <v>2</v>
+      </c>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" s="9" customFormat="1" ht="30" customHeight="1">
+      <c r="A6" s="10" t="str">
+        <f>_xlfn.CONCAT("subject",IF(L6&lt;10,"0",""),L6)</f>
+        <v>subject03</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C6" s="75" t="str">
+        <f>C5</f>
+        <v>programA</v>
+      </c>
+      <c r="D6" s="58">
+        <v>1</v>
+      </c>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58" t="str">
+        <f>_xlfn.CONCAT("0",IF(L6&lt;10,"0",""),L6)</f>
+        <v>003</v>
+      </c>
+      <c r="G6" s="120" t="str">
+        <f>G5</f>
+        <v xml:space="preserve">Group A|G1A, Group B|G1B</v>
+      </c>
+      <c r="H6" s="121" t="str">
+        <f>H5</f>
+        <v>#FFEB9C</v>
+      </c>
+      <c r="I6" s="58"/>
+      <c r="J6" s="122" t="str">
+        <f>ap_subject_types!$A$3</f>
+        <v>type01</v>
+      </c>
+      <c r="K6" s="123" t="str">
+        <f>K5</f>
+        <v xml:space="preserve">teacher01|main@G1A, teacher01|main@G1B</v>
+      </c>
+      <c r="L6" s="124">
+        <f>L5+1</f>
+        <v>3</v>
+      </c>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" s="9" customFormat="1" ht="30" customHeight="1">
+      <c r="A7" s="10" t="str">
+        <f>_xlfn.CONCAT("subject",IF(L7&lt;10,"0",""),L7)</f>
+        <v>subject04</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="C7" s="75" t="str">
+        <f>C6</f>
+        <v>programA</v>
+      </c>
+      <c r="D7" s="58">
+        <v>1</v>
+      </c>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58" t="str">
+        <f>_xlfn.CONCAT("0",IF(L7&lt;10,"0",""),L7)</f>
+        <v>004</v>
+      </c>
+      <c r="G7" s="120" t="str">
+        <f>G6</f>
+        <v xml:space="preserve">Group A|G1A, Group B|G1B</v>
+      </c>
+      <c r="H7" s="121" t="str">
+        <f>H6</f>
+        <v>#FFEB9C</v>
+      </c>
+      <c r="I7" s="58"/>
+      <c r="J7" s="122" t="str">
+        <f>ap_subject_types!$A$5</f>
+        <v>type03</v>
+      </c>
+      <c r="K7" s="123" t="str">
+        <f>K6</f>
+        <v xml:space="preserve">teacher01|main@G1A, teacher01|main@G1B</v>
+      </c>
+      <c r="L7" s="124">
+        <f>L6+1</f>
+        <v>4</v>
+      </c>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" ht="30" customHeight="1">
+      <c r="A8" s="10" t="str">
+        <f>_xlfn.CONCAT("subject",IF(L8&lt;10,"0",""),L8)</f>
+        <v>subject05</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="C8" s="75" t="str">
+        <f>C7</f>
+        <v>programA</v>
+      </c>
+      <c r="D8" s="58">
+        <v>2</v>
+      </c>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58" t="str">
+        <f>_xlfn.CONCAT("0",IF(L8&lt;10,"0",""),L8)</f>
+        <v>005</v>
+      </c>
+      <c r="G8" s="120" t="s">
+        <v>217</v>
+      </c>
+      <c r="H8" s="121" t="str">
+        <f>H7</f>
+        <v>#FFEB9C</v>
+      </c>
+      <c r="I8" s="58"/>
+      <c r="J8" s="122" t="str">
+        <f>ap_subject_types!$A$3</f>
+        <v>type01</v>
+      </c>
+      <c r="K8" s="123" t="s">
+        <v>218</v>
+      </c>
+      <c r="L8" s="124">
+        <f>L7+1</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" ht="30" customHeight="1">
+      <c r="A9" s="10" t="str">
+        <f>_xlfn.CONCAT("subject",IF(L9&lt;10,"0",""),L9)</f>
+        <v>subject06</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C9" s="75" t="str">
+        <f>C8</f>
+        <v>programA</v>
+      </c>
+      <c r="D9" s="58">
+        <v>2</v>
+      </c>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58" t="str">
+        <f>_xlfn.CONCAT("0",IF(L9&lt;10,"0",""),L9)</f>
+        <v>006</v>
+      </c>
+      <c r="G9" s="120" t="str">
+        <f>G8</f>
+        <v xml:space="preserve">Group A|G2A, Group B|G2B</v>
+      </c>
+      <c r="H9" s="121" t="s">
+        <v>220</v>
+      </c>
+      <c r="I9" s="58"/>
+      <c r="J9" s="122" t="str">
+        <f>ap_subject_types!$A$3</f>
+        <v>type01</v>
+      </c>
+      <c r="K9" s="123" t="str">
+        <f>K8</f>
+        <v xml:space="preserve">teacher01|main@G2A, teacher01|main@G2B</v>
+      </c>
+      <c r="L9" s="124">
+        <f>L8+1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" ht="30" customHeight="1">
+      <c r="A10" s="10" t="str">
+        <f>_xlfn.CONCAT("subject",IF(L10&lt;10,"0",""),L10)</f>
+        <v>subject07</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C10" s="75" t="str">
+        <f>C9</f>
+        <v>programA</v>
+      </c>
+      <c r="D10" s="58">
+        <v>2</v>
+      </c>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58" t="str">
+        <f>_xlfn.CONCAT("0",IF(L10&lt;10,"0",""),L10)</f>
+        <v>007</v>
+      </c>
+      <c r="G10" s="120" t="str">
+        <f>G9</f>
+        <v xml:space="preserve">Group A|G2A, Group B|G2B</v>
+      </c>
+      <c r="H10" s="121" t="str">
+        <f>H9</f>
+        <v>#FFC7CE</v>
+      </c>
+      <c r="I10" s="58"/>
+      <c r="J10" s="122" t="str">
+        <f>ap_subject_types!$A$3</f>
+        <v>type01</v>
+      </c>
+      <c r="K10" s="123" t="str">
+        <f>K9</f>
+        <v xml:space="preserve">teacher01|main@G2A, teacher01|main@G2B</v>
+      </c>
+      <c r="L10" s="124">
+        <f>L9+1</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" ht="30" customHeight="1">
+      <c r="A11" s="10" t="str">
+        <f>_xlfn.CONCAT("subject",IF(L11&lt;10,"0",""),L11)</f>
+        <v>subject08</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" s="75" t="str">
+        <f>C10</f>
+        <v>programA</v>
+      </c>
+      <c r="D11" s="58">
+        <v>2</v>
+      </c>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58" t="str">
+        <f>_xlfn.CONCAT("0",IF(L11&lt;10,"0",""),L11)</f>
+        <v>008</v>
+      </c>
+      <c r="G11" s="120" t="str">
+        <f>G10</f>
+        <v xml:space="preserve">Group A|G2A, Group B|G2B</v>
+      </c>
+      <c r="H11" s="121" t="str">
+        <f>H10</f>
+        <v>#FFC7CE</v>
+      </c>
+      <c r="I11" s="58"/>
+      <c r="J11" s="122" t="str">
+        <f>ap_subject_types!$A$5</f>
+        <v>type03</v>
+      </c>
+      <c r="K11" s="123" t="str">
+        <f>K10</f>
+        <v xml:space="preserve">teacher01|main@G2A, teacher01|main@G2B</v>
+      </c>
+      <c r="L11" s="124">
+        <f>L10+1</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" ht="30" customHeight="1">
+      <c r="A12" s="10" t="str">
+        <f>_xlfn.CONCAT("subject",IF(L12&lt;10,"0",""),L12)</f>
+        <v>subject09</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="C12" s="75" t="str">
+        <f>C11</f>
+        <v>programA</v>
+      </c>
+      <c r="D12" s="58">
+        <v>3</v>
+      </c>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58" t="str">
+        <f>_xlfn.CONCAT("0",IF(L12&lt;10,"0",""),L12)</f>
+        <v>009</v>
+      </c>
+      <c r="G12" s="120" t="s">
+        <v>224</v>
+      </c>
+      <c r="H12" s="121" t="str">
+        <f>H11</f>
+        <v>#FFC7CE</v>
+      </c>
+      <c r="I12" s="58"/>
+      <c r="J12" s="122" t="str">
+        <f>ap_subject_types!$A$3</f>
+        <v>type01</v>
+      </c>
+      <c r="K12" s="123" t="s">
+        <v>225</v>
+      </c>
+      <c r="L12" s="124">
+        <f>L11+1</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" ht="30" customHeight="1">
+      <c r="A13" s="10" t="str">
+        <f>_xlfn.CONCAT("subject",IF(L13&lt;10,"0",""),L13)</f>
+        <v>subject10</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="75" t="str">
+        <f>C12</f>
+        <v>programA</v>
+      </c>
+      <c r="D13" s="58">
+        <v>3</v>
+      </c>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58" t="str">
+        <f>_xlfn.CONCAT("0",IF(L13&lt;10,"0",""),L13)</f>
+        <v>010</v>
+      </c>
+      <c r="G13" s="120" t="str">
+        <f>G12</f>
+        <v xml:space="preserve">Group A|G3A, Group B|G3B</v>
+      </c>
+      <c r="H13" s="121" t="str">
+        <f>H12</f>
+        <v>#FFC7CE</v>
+      </c>
+      <c r="I13" s="58"/>
+      <c r="J13" s="122" t="str">
+        <f>ap_subject_types!$A$3</f>
+        <v>type01</v>
+      </c>
+      <c r="K13" s="123" t="str">
+        <f>K12</f>
+        <v xml:space="preserve">teacher01|main@G3A, teacher01|main@G3B</v>
+      </c>
+      <c r="L13" s="124">
+        <f>L12+1</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" ht="30" customHeight="1">
+      <c r="A14" s="10" t="str">
+        <f>_xlfn.CONCAT("subject",IF(L14&lt;10,"0",""),L14)</f>
+        <v>subject11</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="C14" s="75" t="str">
+        <f>C13</f>
+        <v>programA</v>
+      </c>
+      <c r="D14" s="58">
+        <v>3</v>
+      </c>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58" t="str">
+        <f>_xlfn.CONCAT("0",IF(L14&lt;10,"0",""),L14)</f>
+        <v>011</v>
+      </c>
+      <c r="G14" s="120" t="str">
+        <f>G13</f>
+        <v xml:space="preserve">Group A|G3A, Group B|G3B</v>
+      </c>
+      <c r="H14" s="121" t="s">
+        <v>228</v>
+      </c>
+      <c r="I14" s="58"/>
+      <c r="J14" s="122" t="str">
+        <f>ap_subject_types!$A$3</f>
+        <v>type01</v>
+      </c>
+      <c r="K14" s="123" t="str">
+        <f>K13</f>
+        <v xml:space="preserve">teacher01|main@G3A, teacher01|main@G3B</v>
+      </c>
+      <c r="L14" s="124">
+        <f>L13+1</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" ht="30" customHeight="1">
+      <c r="A15" s="10" t="str">
+        <f>_xlfn.CONCAT("subject",IF(L15&lt;10,"0",""),L15)</f>
+        <v>subject12</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C15" s="75" t="str">
+        <f>C14</f>
+        <v>programA</v>
+      </c>
+      <c r="D15" s="58">
+        <v>3</v>
+      </c>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58" t="str">
+        <f>_xlfn.CONCAT("0",IF(L15&lt;10,"0",""),L15)</f>
+        <v>012</v>
+      </c>
+      <c r="G15" s="120" t="str">
+        <f>G14</f>
+        <v xml:space="preserve">Group A|G3A, Group B|G3B</v>
+      </c>
+      <c r="H15" s="121" t="str">
+        <f>H14</f>
+        <v>#C6EFCD</v>
+      </c>
+      <c r="I15" s="58"/>
+      <c r="J15" s="122" t="str">
+        <f>ap_subject_types!$A$5</f>
+        <v>type03</v>
+      </c>
+      <c r="K15" s="123" t="str">
+        <f>K14</f>
+        <v xml:space="preserve">teacher01|main@G3A, teacher01|main@G3B</v>
+      </c>
+      <c r="L15" s="124">
+        <f>L14+1</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" ht="30" customHeight="1">
+      <c r="A16" s="10" t="str">
+        <f>_xlfn.CONCAT("subject",IF(L16&lt;10,"0",""),L16)</f>
+        <v>subject13</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="C16" s="75" t="str">
+        <f>C15</f>
+        <v>programA</v>
+      </c>
+      <c r="D16" s="58">
+        <v>4</v>
+      </c>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58" t="str">
+        <f>_xlfn.CONCAT("0",IF(L16&lt;10,"0",""),L16)</f>
+        <v>013</v>
+      </c>
+      <c r="G16" s="120" t="s">
+        <v>231</v>
+      </c>
+      <c r="H16" s="121" t="str">
+        <f>H15</f>
+        <v>#C6EFCD</v>
+      </c>
+      <c r="I16" s="58"/>
+      <c r="J16" s="122" t="str">
+        <f>ap_subject_types!$A$3</f>
+        <v>type01</v>
+      </c>
+      <c r="K16" s="123" t="s">
+        <v>232</v>
+      </c>
+      <c r="L16" s="124">
+        <f>L15+1</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" ht="30" customHeight="1">
+      <c r="A17" s="10" t="str">
+        <f>_xlfn.CONCAT("subject",IF(L17&lt;10,"0",""),L17)</f>
+        <v>subject14</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="C17" s="75" t="str">
+        <f>C16</f>
+        <v>programA</v>
+      </c>
+      <c r="D17" s="58">
+        <v>4</v>
+      </c>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58" t="str">
+        <f>_xlfn.CONCAT("0",IF(L17&lt;10,"0",""),L17)</f>
+        <v>014</v>
+      </c>
+      <c r="G17" s="120" t="str">
+        <f>G16</f>
+        <v xml:space="preserve">Group A|G4A, Group B|G4B</v>
+      </c>
+      <c r="H17" s="121" t="str">
+        <f>H16</f>
+        <v>#C6EFCD</v>
+      </c>
+      <c r="I17" s="58"/>
+      <c r="J17" s="122" t="str">
+        <f>ap_subject_types!$A$3</f>
+        <v>type01</v>
+      </c>
+      <c r="K17" s="123" t="str">
+        <f>K16</f>
+        <v xml:space="preserve">teacher01|main@G4A, teacher01|main@G4B</v>
+      </c>
+      <c r="L17" s="124">
+        <f>L16+1</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" ht="30" customHeight="1">
+      <c r="A18" s="10" t="str">
+        <f>_xlfn.CONCAT("subject",IF(L18&lt;10,"0",""),L18)</f>
+        <v>subject15</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C18" s="75" t="str">
+        <f>C17</f>
+        <v>programA</v>
+      </c>
+      <c r="D18" s="58">
+        <v>4</v>
+      </c>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58" t="str">
+        <f>_xlfn.CONCAT("0",IF(L18&lt;10,"0",""),L18)</f>
+        <v>015</v>
+      </c>
+      <c r="G18" s="120" t="str">
+        <f>G17</f>
+        <v xml:space="preserve">Group A|G4A, Group B|G4B</v>
+      </c>
+      <c r="H18" s="121" t="str">
+        <f>H17</f>
+        <v>#C6EFCD</v>
+      </c>
+      <c r="I18" s="58"/>
+      <c r="J18" s="122" t="str">
+        <f>ap_subject_types!$A$3</f>
+        <v>type01</v>
+      </c>
+      <c r="K18" s="123" t="str">
+        <f>K17</f>
+        <v xml:space="preserve">teacher01|main@G4A, teacher01|main@G4B</v>
+      </c>
+      <c r="L18" s="124">
+        <f>L17+1</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" ht="30" customHeight="1">
+      <c r="A19" s="10" t="str">
+        <f>_xlfn.CONCAT("subject",IF(L19&lt;10,"0",""),L19)</f>
+        <v>subject16</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C19" s="75" t="str">
+        <f>C18</f>
+        <v>programA</v>
+      </c>
+      <c r="D19" s="58">
+        <v>4</v>
+      </c>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58" t="str">
+        <f>_xlfn.CONCAT("0",IF(L19&lt;10,"0",""),L19)</f>
+        <v>016</v>
+      </c>
+      <c r="G19" s="120" t="str">
+        <f>G18</f>
+        <v xml:space="preserve">Group A|G4A, Group B|G4B</v>
+      </c>
+      <c r="H19" s="121" t="s">
+        <v>236</v>
+      </c>
+      <c r="I19" s="58"/>
+      <c r="J19" s="122" t="str">
+        <f>ap_subject_types!$A$5</f>
+        <v>type03</v>
+      </c>
+      <c r="K19" s="123" t="str">
+        <f>K18</f>
+        <v xml:space="preserve">teacher01|main@G4A, teacher01|main@G4B</v>
+      </c>
+      <c r="L19" s="124">
+        <f>L18+1</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" ht="30" customHeight="1">
+      <c r="A20" s="10" t="str">
+        <f>_xlfn.CONCAT("subject",IF(L20&lt;10,"0",""),L20)</f>
+        <v>subject17</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C20" s="75" t="str">
+        <f>C19</f>
+        <v>programA</v>
+      </c>
+      <c r="D20" s="58">
+        <v>5</v>
+      </c>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58" t="str">
+        <f>_xlfn.CONCAT("0",IF(L20&lt;10,"0",""),L20)</f>
+        <v>017</v>
+      </c>
+      <c r="G20" s="120" t="s">
+        <v>238</v>
+      </c>
+      <c r="H20" s="121" t="s">
+        <v>236</v>
+      </c>
+      <c r="I20" s="58"/>
+      <c r="J20" s="122" t="str">
+        <f>ap_subject_types!$A$3</f>
+        <v>type01</v>
+      </c>
+      <c r="K20" s="123" t="s">
+        <v>239</v>
+      </c>
+      <c r="L20" s="124">
+        <f>L19+1</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" ht="30" customHeight="1">
+      <c r="A21" s="10" t="str">
+        <f>_xlfn.CONCAT("subject",IF(L21&lt;10,"0",""),L21)</f>
+        <v>subject18</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="C21" s="75" t="str">
+        <f>C20</f>
+        <v>programA</v>
+      </c>
+      <c r="D21" s="58">
+        <v>5</v>
+      </c>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58" t="str">
+        <f>_xlfn.CONCAT("0",IF(L21&lt;10,"0",""),L21)</f>
+        <v>018</v>
+      </c>
+      <c r="G21" s="120" t="str">
+        <f>G20</f>
+        <v xml:space="preserve">Group A|G5A, Group B|G5B</v>
+      </c>
+      <c r="H21" s="121" t="s">
+        <v>236</v>
+      </c>
+      <c r="I21" s="58"/>
+      <c r="J21" s="122" t="str">
+        <f>ap_subject_types!$A$3</f>
+        <v>type01</v>
+      </c>
+      <c r="K21" s="123" t="str">
+        <f>K20</f>
+        <v xml:space="preserve">teacher01|main@G5A, teacher01|main@G5B</v>
+      </c>
+      <c r="L21" s="124">
+        <f>L20+1</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" ht="30" customHeight="1">
+      <c r="A22" s="10" t="str">
+        <f>_xlfn.CONCAT("subject",IF(L22&lt;10,"0",""),L22)</f>
+        <v>subject19</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="C22" s="75" t="str">
+        <f>C21</f>
+        <v>programA</v>
+      </c>
+      <c r="D22" s="58">
+        <v>5</v>
+      </c>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58" t="str">
+        <f>_xlfn.CONCAT("0",IF(L22&lt;10,"0",""),L22)</f>
+        <v>019</v>
+      </c>
+      <c r="G22" s="120" t="str">
+        <f>G21</f>
+        <v xml:space="preserve">Group A|G5A, Group B|G5B</v>
+      </c>
+      <c r="H22" s="121" t="s">
+        <v>236</v>
+      </c>
+      <c r="I22" s="58"/>
+      <c r="J22" s="122" t="str">
+        <f>ap_subject_types!$A$3</f>
+        <v>type01</v>
+      </c>
+      <c r="K22" s="123" t="str">
+        <f>K21</f>
+        <v xml:space="preserve">teacher01|main@G5A, teacher01|main@G5B</v>
+      </c>
+      <c r="L22" s="124">
+        <f>L21+1</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" ht="30" customHeight="1">
+      <c r="A23" s="10" t="str">
+        <f>_xlfn.CONCAT("subject",IF(L23&lt;10,"0",""),L23)</f>
+        <v>subject20</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C23" s="75" t="str">
+        <f>C22</f>
+        <v>programA</v>
+      </c>
+      <c r="D23" s="58">
+        <v>5</v>
+      </c>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58" t="str">
+        <f>_xlfn.CONCAT("0",IF(L23&lt;10,"0",""),L23)</f>
+        <v>020</v>
+      </c>
+      <c r="G23" s="120" t="str">
+        <f>G22</f>
+        <v xml:space="preserve">Group A|G5A, Group B|G5B</v>
+      </c>
+      <c r="H23" s="121" t="s">
+        <v>236</v>
+      </c>
+      <c r="I23" s="58"/>
+      <c r="J23" s="122" t="str">
+        <f>ap_subject_types!$A$5</f>
+        <v>type03</v>
+      </c>
+      <c r="K23" s="123" t="str">
+        <f>K22</f>
+        <v xml:space="preserve">teacher01|main@G5A, teacher01|main@G5B</v>
+      </c>
+      <c r="L23" s="124">
+        <f>L22+1</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25">
+      <c r="L24" s="72"/>
+    </row>
+    <row r="25" ht="14.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G2:K2"/>
+  </mergeCells>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100">
@@ -1910,7 +3322,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" ht="19.850000000000001" customHeight="1">
+    <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
@@ -1924,31 +3336,31 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" ht="14.25">
-      <c r="A3" s="9" t="s">
+    <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" ht="14.25">
-      <c r="A4" s="9" t="s">
+    <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1968,7 +3380,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="G2" workbookViewId="0" zoomScale="100">
+    <sheetView showGridLines="0" workbookViewId="0" zoomScale="100">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1987,93 +3399,93 @@
     <col customWidth="1" min="22" max="22" width="14.421875"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="1" ht="14.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" s="13" customFormat="1" ht="14.25">
+      <c r="A1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="12" t="str">
+      <c r="E1" s="13" t="str">
         <f>_xlfn.CONCAT($E$3,".",E5)</f>
         <v>plugins.users.users</v>
       </c>
-      <c r="F1" s="12" t="str">
+      <c r="F1" s="13" t="str">
         <f>_xlfn.CONCAT($E$3,".",F5)</f>
         <v>plugins.users.user-data</v>
       </c>
-      <c r="G1" s="12" t="str">
+      <c r="G1" s="13" t="str">
         <f>_xlfn.CONCAT($E$3,".",G5)</f>
         <v>plugins.users.centers</v>
       </c>
-      <c r="H1" s="12" t="str">
+      <c r="H1" s="13" t="str">
         <f>_xlfn.CONCAT($E$3,".",H5)</f>
         <v>plugins.users.profiles</v>
       </c>
-      <c r="I1" s="12" t="str">
+      <c r="I1" s="13" t="str">
         <f>_xlfn.CONCAT($I$3,".",I5)</f>
         <v>plugins.dataset.dataset</v>
       </c>
-      <c r="J1" s="12" t="str">
+      <c r="J1" s="13" t="str">
         <f>_xlfn.CONCAT($J$3,".",J5)</f>
         <v>plugins.calendar.calendar</v>
       </c>
-      <c r="K1" s="12" t="str">
+      <c r="K1" s="13" t="str">
         <f>_xlfn.CONCAT($K$3,".",K5)</f>
         <v>plugins.academic-portfolio.portfolio</v>
       </c>
-      <c r="L1" s="12" t="str">
+      <c r="L1" s="13" t="str">
         <f>_xlfn.CONCAT($K$3,".",L5)</f>
         <v>plugins.academic-portfolio.programs</v>
       </c>
-      <c r="M1" s="12" t="str">
+      <c r="M1" s="13" t="str">
         <f>_xlfn.CONCAT($K$3,".",M5)</f>
         <v>plugins.academic-portfolio.profiles</v>
       </c>
-      <c r="N1" s="12" t="str">
+      <c r="N1" s="13" t="str">
         <f>_xlfn.CONCAT($K$3,".",N5)</f>
         <v>plugins.academic-portfolio.subjects</v>
       </c>
-      <c r="O1" s="12" t="str">
+      <c r="O1" s="13" t="str">
         <f>_xlfn.CONCAT($K$3,".",O5)</f>
         <v>plugins.academic-portfolio.tree</v>
       </c>
-      <c r="P1" s="12" t="str">
+      <c r="P1" s="13" t="str">
         <f>_xlfn.CONCAT($P$3,".",P5)</f>
         <v>plugins.families.families</v>
       </c>
-      <c r="Q1" s="13" t="str">
+      <c r="Q1" s="14" t="str">
         <f>_xlfn.CONCAT($P$3,".",Q5)</f>
         <v>plugins.families.config</v>
       </c>
-      <c r="R1" s="13" t="str">
+      <c r="R1" s="14" t="str">
         <f>_xlfn.CONCAT($P$3,".",R5)</f>
         <v>plugins.families.families-basic-info</v>
       </c>
-      <c r="S1" s="13" t="str">
+      <c r="S1" s="14" t="str">
         <f>_xlfn.CONCAT($P$3,".",S5)</f>
         <v>plugins.families.families-custom-info</v>
       </c>
-      <c r="T1" s="13" t="str">
+      <c r="T1" s="14" t="str">
         <f>_xlfn.CONCAT($P$3,".",T5)</f>
         <v>plugins.families.families-guardians-info</v>
       </c>
-      <c r="U1" s="13" t="str">
+      <c r="U1" s="14" t="str">
         <f>_xlfn.CONCAT($P$3,".",U5)</f>
         <v>plugins.families.families-students-info</v>
       </c>
     </row>
-    <row r="2" s="14" customFormat="1" ht="21.350000000000001" customHeight="1">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
+    <row r="2" s="9" customFormat="1" ht="21.350000000000001" customHeight="1">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
       <c r="E2" s="15" t="s">
         <v>27</v>
       </c>
@@ -2214,7 +3626,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" s="46" customFormat="1" ht="19.100000000000001" customHeight="1">
+    <row r="6" s="46" customFormat="1" ht="19.5" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
@@ -2279,232 +3691,232 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" ht="14.25">
-      <c r="A7" s="9" t="s">
+    <row r="7" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A7" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="12" t="s">
         <v>69</v>
       </c>
       <c r="D7" s="57"/>
-      <c r="E7" s="57" t="s">
+      <c r="E7" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="57" t="s">
+      <c r="F7" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="G7" s="57" t="s">
+      <c r="G7" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="57" t="s">
+      <c r="H7" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="I7" s="57" t="s">
+      <c r="I7" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="J7" s="57" t="s">
+      <c r="J7" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="K7" s="57" t="s">
+      <c r="K7" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="L7" s="57" t="s">
+      <c r="L7" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="M7" s="57" t="s">
+      <c r="M7" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="N7" s="57" t="s">
+      <c r="N7" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="O7" s="57" t="s">
+      <c r="O7" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="P7" s="58" t="s">
+      <c r="P7" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="Q7" s="58" t="s">
+      <c r="Q7" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="R7" s="58"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59"/>
-      <c r="U7" s="59"/>
-    </row>
-    <row r="8" ht="14.25">
-      <c r="A8" s="9" t="s">
+      <c r="R7" s="59"/>
+      <c r="S7" s="60"/>
+      <c r="T7" s="60"/>
+      <c r="U7" s="60"/>
+    </row>
+    <row r="8" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A8" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="12" t="s">
         <v>72</v>
       </c>
       <c r="D8" s="57"/>
-      <c r="E8" s="57" t="s">
+      <c r="E8" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="57" t="s">
+      <c r="F8" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="57" t="s">
+      <c r="G8" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="57" t="s">
+      <c r="H8" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="I8" s="57" t="s">
+      <c r="I8" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="J8" s="57" t="s">
+      <c r="J8" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="K8" s="57" t="s">
+      <c r="K8" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="L8" s="57" t="s">
+      <c r="L8" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57" t="s">
+      <c r="M8" s="58"/>
+      <c r="N8" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="O8" s="57" t="s">
+      <c r="O8" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="P8" s="57" t="s">
+      <c r="P8" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="Q8" s="57" t="s">
+      <c r="Q8" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="R8" s="58"/>
-      <c r="S8" s="57"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="57"/>
-    </row>
-    <row r="9" ht="14.25">
-      <c r="A9" s="9" t="s">
+      <c r="R8" s="59"/>
+      <c r="S8" s="58"/>
+      <c r="T8" s="58"/>
+      <c r="U8" s="58"/>
+    </row>
+    <row r="9" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A9" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="12" t="s">
         <v>77</v>
       </c>
       <c r="D9" s="57"/>
-      <c r="E9" s="57" t="s">
+      <c r="E9" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="57" t="s">
+      <c r="F9" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="57" t="s">
+      <c r="G9" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="H9" s="57" t="s">
+      <c r="H9" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="I9" s="57" t="s">
+      <c r="I9" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="J9" s="57" t="s">
+      <c r="J9" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="K9" s="57" t="s">
+      <c r="K9" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="L9" s="57" t="s">
+      <c r="L9" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57" t="s">
+      <c r="M9" s="58"/>
+      <c r="N9" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57" t="s">
+      <c r="O9" s="58"/>
+      <c r="P9" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="Q9" s="57" t="s">
+      <c r="Q9" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="R9" s="60" t="s">
+      <c r="R9" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="S9" s="57" t="s">
+      <c r="S9" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="T9" s="57" t="s">
+      <c r="T9" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="U9" s="57" t="s">
+      <c r="U9" s="58" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="10" ht="14.25">
-      <c r="A10" s="9" t="s">
+    <row r="10" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A10" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="12" t="s">
         <v>81</v>
       </c>
       <c r="D10" s="57" t="str">
         <f>A9</f>
         <v>student</v>
       </c>
-      <c r="E10" s="57" t="s">
+      <c r="E10" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="57" t="s">
+      <c r="F10" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="G10" s="57" t="s">
+      <c r="G10" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="H10" s="57" t="s">
+      <c r="H10" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="I10" s="57" t="s">
+      <c r="I10" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="J10" s="57" t="s">
+      <c r="J10" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="K10" s="57" t="s">
+      <c r="K10" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="L10" s="57" t="s">
+      <c r="L10" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57" t="s">
+      <c r="M10" s="58"/>
+      <c r="N10" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57" t="s">
+      <c r="O10" s="58"/>
+      <c r="P10" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="Q10" s="57" t="s">
+      <c r="Q10" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="R10" s="57" t="s">
+      <c r="R10" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="S10" s="57" t="s">
+      <c r="S10" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="T10" s="57" t="s">
+      <c r="T10" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="U10" s="57" t="s">
+      <c r="U10" s="58" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2570,7 +3982,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" ht="22.100000000000001" customHeight="1">
+    <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
@@ -2586,191 +3998,191 @@
       <c r="E2" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="61" t="s">
+      <c r="F2" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="62" t="s">
+      <c r="G2" s="63" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" ht="14.25">
-      <c r="A3" s="63" t="s">
+    <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A3" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="64" t="s">
+      <c r="D3" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="65" t="s">
+      <c r="G3" s="66" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="4" ht="14.25">
-      <c r="A4" s="63" t="s">
+    <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A4" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="65" t="s">
+      <c r="G4" s="66" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="5" ht="14.25">
-      <c r="A5" s="66" t="s">
+    <row r="5" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A5" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="67" t="s">
+      <c r="D5" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="65" t="s">
+      <c r="G5" s="66" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="6" ht="14.25">
-      <c r="A6" s="66" t="s">
+    <row r="6" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A6" s="67" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="68" t="s">
+      <c r="G6" s="70" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="7" ht="14.25">
-      <c r="A7" s="66" t="s">
+    <row r="7" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A7" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="67" t="s">
+      <c r="D7" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="65" t="s">
+      <c r="G7" s="66" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="8" ht="14.25">
-      <c r="A8" s="66" t="s">
+    <row r="8" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A8" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="67" t="s">
+      <c r="D8" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="68" t="s">
+      <c r="G8" s="70" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="9" ht="14.25">
-      <c r="A9" s="66" t="s">
+    <row r="9" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A9" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="68" t="s">
+      <c r="B9" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="D9" s="67" t="s">
+      <c r="D9" s="69" t="s">
         <v>116</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="65" t="s">
+      <c r="G9" s="66" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" s="69"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
+      <c r="A10" s="72"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" s="69"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
+      <c r="A11" s="72"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2817,25 +4229,37 @@
       <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="73" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="3" ht="14.25">
-      <c r="A3" s="63" t="s">
+    <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A3" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25">
-      <c r="A4" s="9" t="s">
+      <c r="B3" s="74" t="str">
+        <f>profiles!$A$10</f>
+        <v>guardian</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A4" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>75</v>
-      </c>
+      <c r="B4" s="75" t="str">
+        <f>profiles!$A$9</f>
+        <v>student</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" ht="14.25"/>
     <row r="6" ht="14.25"/>
@@ -2864,7 +4288,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="2" max="2" width="58.78125"/>
+    <col customWidth="1" min="2" max="2" width="67.57421875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2876,20 +4300,21 @@
       </c>
     </row>
     <row r="2" ht="24.350000000000001" customHeight="1">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="77" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="9" t="s">
+    <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A3" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="74" t="s">
         <v>123</v>
       </c>
+      <c r="C3" s="9"/>
     </row>
     <row r="4"/>
   </sheetData>
@@ -2926,27 +4351,29 @@
       </c>
     </row>
     <row r="2" ht="22.100000000000001" customHeight="1">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="77" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="9" t="s">
+    <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A3" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="74" t="str">
+        <f>profiles!$A$8</f>
+        <v>teacher</v>
+      </c>
+    </row>
+    <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A4" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>75</v>
+      <c r="B4" s="75" t="str">
+        <f>profiles!$A$9</f>
+        <v>student</v>
       </c>
     </row>
   </sheetData>
@@ -2965,7 +4392,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="Q1" workbookViewId="0" zoomScale="100">
+    <sheetView showGridLines="0" topLeftCell="O1" workbookViewId="0" zoomScale="100">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2974,18 +4401,22 @@
     <col customWidth="1" min="1" max="1" width="11.00390625"/>
     <col customWidth="1" min="2" max="2" width="19.140625"/>
     <col customWidth="1" min="3" max="3" width="12.00390625"/>
-    <col customWidth="1" min="5" max="5" width="17.7109375"/>
-    <col customWidth="1" min="6" max="6" width="12.28125"/>
-    <col customWidth="1" min="7" max="7" width="13.00390625"/>
-    <col customWidth="1" min="8" max="11" width="17.00390625"/>
-    <col bestFit="1" min="12" max="12" width="20.8515625"/>
-    <col min="13" max="13" width="20.8515625"/>
-    <col bestFit="1" min="14" max="14" width="22.78125"/>
-    <col customWidth="1" min="15" max="15" width="23.7109375"/>
-    <col customWidth="1" min="16" max="18" width="26.7109375"/>
-    <col customWidth="1" min="19" max="19" width="18.7109375"/>
-    <col bestFit="1" min="20" max="20" width="23.78125"/>
-    <col customWidth="1" min="21" max="21" width="29.8515625"/>
+    <col customWidth="1" min="5" max="5" width="11.140625"/>
+    <col customWidth="1" min="6" max="6" width="9.57421875"/>
+    <col customWidth="1" min="7" max="7" width="9.00390625"/>
+    <col customWidth="1" min="8" max="8" width="11.8515625"/>
+    <col customWidth="1" min="9" max="10" width="17.00390625"/>
+    <col customWidth="1" min="11" max="11" width="12.421875"/>
+    <col customWidth="1" min="12" max="12" width="12.140625"/>
+    <col customWidth="1" min="13" max="13" width="17.00390625"/>
+    <col customWidth="1" min="14" max="14" width="14.8515625"/>
+    <col customWidth="1" min="15" max="15" width="13.00390625"/>
+    <col customWidth="1" min="16" max="18" width="14.7109375"/>
+    <col customWidth="1" min="19" max="19" width="15.8515625"/>
+    <col customWidth="1" min="20" max="20" width="15.28125"/>
+    <col customWidth="1" min="21" max="21" width="12.8515625"/>
+    <col customWidth="1" min="22" max="22" width="14.140625"/>
+    <col customWidth="1" min="23" max="23" width="18.140625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3052,8 +4483,12 @@
       <c r="U1" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
+      <c r="V1" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>143</v>
+      </c>
       <c r="X1" s="5"/>
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
@@ -3068,231 +4503,253 @@
       <c r="AI1" s="5"/>
       <c r="AJ1" s="5"/>
       <c r="AK1" s="5"/>
-    </row>
-    <row r="2" s="14" customFormat="1" ht="23.600000000000001" customHeight="1">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="E2" s="73" t="s">
-        <v>142</v>
-      </c>
-      <c r="F2" s="73"/>
-      <c r="G2" s="74" t="s">
-        <v>143</v>
-      </c>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="77" t="s">
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="5"/>
+    </row>
+    <row r="2" s="9" customFormat="1" ht="23.600000000000001" customHeight="1">
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>144</v>
       </c>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="78" t="s">
+      <c r="F2" s="79"/>
+      <c r="G2" s="80" t="s">
         <v>145</v>
       </c>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="81" t="s">
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="83" t="s">
         <v>146</v>
       </c>
-      <c r="T2" s="82"/>
-      <c r="U2" s="82"/>
-    </row>
-    <row r="3" ht="24.350000000000001" customHeight="1">
-      <c r="A3" s="6" t="s">
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="84" t="s">
+        <v>147</v>
+      </c>
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="86"/>
+      <c r="U2" s="87" t="s">
+        <v>148</v>
+      </c>
+      <c r="V2" s="88"/>
+      <c r="W2" s="88"/>
+    </row>
+    <row r="3" ht="34.100000000000001" customHeight="1">
+      <c r="A3" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="90" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="83" t="s">
-        <v>148</v>
-      </c>
-      <c r="F3" s="84" t="s">
-        <v>149</v>
-      </c>
-      <c r="G3" s="85" t="s">
+      <c r="E3" s="92" t="s">
         <v>150</v>
       </c>
-      <c r="H3" s="86" t="s">
+      <c r="F3" s="93" t="s">
         <v>151</v>
       </c>
-      <c r="I3" s="87" t="s">
+      <c r="G3" s="94" t="s">
         <v>152</v>
       </c>
-      <c r="J3" s="87" t="s">
+      <c r="H3" s="95" t="s">
         <v>153</v>
       </c>
-      <c r="K3" s="87" t="s">
+      <c r="I3" s="96" t="s">
         <v>154</v>
       </c>
-      <c r="L3" s="88" t="s">
+      <c r="J3" s="96" t="s">
         <v>155</v>
       </c>
-      <c r="M3" s="89" t="s">
+      <c r="K3" s="96" t="s">
         <v>156</v>
       </c>
-      <c r="N3" s="90" t="s">
+      <c r="L3" s="96" t="s">
         <v>157</v>
       </c>
-      <c r="O3" s="91" t="s">
+      <c r="M3" s="96" t="s">
         <v>158</v>
       </c>
-      <c r="P3" s="92" t="s">
+      <c r="N3" s="97" t="s">
         <v>159</v>
       </c>
-      <c r="Q3" s="92" t="s">
-        <v>156</v>
-      </c>
-      <c r="R3" s="92" t="s">
+      <c r="O3" s="98" t="s">
         <v>157</v>
       </c>
-      <c r="S3" s="93" t="s">
-        <v>156</v>
-      </c>
-      <c r="T3" s="94" t="s">
+      <c r="P3" s="99" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q3" s="100" t="s">
         <v>160</v>
       </c>
-      <c r="U3" s="95" t="s">
+      <c r="R3" s="101" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="4" s="14" customFormat="1">
-      <c r="A4" s="96" t="s">
+      <c r="S3" s="101" t="s">
+        <v>157</v>
+      </c>
+      <c r="T3" s="101" t="s">
+        <v>158</v>
+      </c>
+      <c r="U3" s="102" t="s">
+        <v>157</v>
+      </c>
+      <c r="V3" s="103" t="s">
         <v>162</v>
       </c>
-      <c r="B4" s="97" t="s">
+      <c r="W3" s="104" t="s">
         <v>163</v>
       </c>
-      <c r="C4" s="98" t="s">
+    </row>
+    <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A4" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="D4" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="98" t="s">
+      <c r="B4" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" s="74" t="str">
+        <f>centers!$A$3</f>
+        <v>centerA</v>
+      </c>
+      <c r="E4" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97">
+      <c r="F4" s="58">
+        <v>0</v>
+      </c>
+      <c r="G4" s="58">
         <v>5</v>
       </c>
-      <c r="H4" s="97"/>
-      <c r="I4" s="98" t="s">
+      <c r="H4" s="58"/>
+      <c r="I4" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="99"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98" t="s">
+      <c r="J4" s="105"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="97"/>
-      <c r="N4" s="98" t="s">
+      <c r="O4" s="58"/>
+      <c r="P4" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="98" t="s">
+      <c r="Q4" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="97" t="s">
+      <c r="R4" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" s="97">
+      <c r="S4" s="58">
         <v>3</v>
       </c>
-      <c r="R4" s="97" t="s">
+      <c r="T4" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="S4" s="97">
+      <c r="U4" s="58">
+        <v>3</v>
+      </c>
+      <c r="V4" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="W4" s="58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" s="9" customFormat="1" ht="28.5">
+      <c r="A5" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" s="74" t="str">
+        <f>centers!$A$4</f>
+        <v>centerB</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="58">
+        <v>240</v>
+      </c>
+      <c r="G5" s="58">
         <v>4</v>
       </c>
-      <c r="T4" s="97" t="s">
+      <c r="H5" s="58">
+        <v>60</v>
+      </c>
+      <c r="I5" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="U4" s="97" t="s">
+      <c r="J5" s="105" t="s">
+        <v>170</v>
+      </c>
+      <c r="K5" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="58">
+        <v>4</v>
+      </c>
+      <c r="M5" s="61" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" s="14" customFormat="1" ht="28.5">
-      <c r="A5" s="96" t="s">
-        <v>165</v>
-      </c>
-      <c r="B5" s="97" t="s">
-        <v>166</v>
-      </c>
-      <c r="C5" s="98" t="s">
-        <v>167</v>
-      </c>
-      <c r="D5" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="97" t="s">
+      <c r="N5" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="97">
-        <v>240</v>
-      </c>
-      <c r="G5" s="97">
+      <c r="O5" s="58">
         <v>4</v>
       </c>
-      <c r="H5" s="97">
-        <v>60</v>
-      </c>
-      <c r="I5" s="97" t="s">
+      <c r="P5" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="R5" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="S5" s="58">
+        <v>3</v>
+      </c>
+      <c r="T5" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="U5" s="58">
+        <v>3</v>
+      </c>
+      <c r="V5" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="99" t="s">
-        <v>168</v>
-      </c>
-      <c r="K5" s="97" t="s">
-        <v>2</v>
-      </c>
-      <c r="L5" s="98" t="s">
-        <v>9</v>
-      </c>
-      <c r="M5" s="97">
-        <v>4</v>
-      </c>
-      <c r="N5" s="98" t="s">
-        <v>10</v>
-      </c>
-      <c r="O5" s="98" t="s">
-        <v>10</v>
-      </c>
-      <c r="P5" s="98" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q5" s="97">
-        <v>3</v>
-      </c>
-      <c r="R5" s="97" t="s">
-        <v>10</v>
-      </c>
-      <c r="S5" s="97">
-        <v>4</v>
-      </c>
-      <c r="T5" s="97" t="s">
-        <v>9</v>
-      </c>
-      <c r="U5" s="97" t="s">
+      <c r="W5" s="58" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="U2:W2"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -3301,79 +4758,79 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="13" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00280057-00EE-4C32-AFB3-006400E5004F}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00C20012-0087-4370-A086-00AF00320063}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
-          <xm:sqref>U4</xm:sqref>
+          <xm:sqref>W4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00CC009C-0074-4F64-984D-00E100CF0084}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00900010-0065-4553-ABE7-00C5008700D8}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
-          <xm:sqref>U5</xm:sqref>
+          <xm:sqref>W5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{009E000A-0083-491D-8E68-008200F30034}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00B80059-0069-4640-9FFB-007D00C800EF}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>BOOLEAN_ANSWER</xm:f>
+          </x14:formula1>
+          <xm:sqref>V4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{00CD0065-0061-4059-A05F-008700490055}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>BOOLEAN_ANSWER</xm:f>
+          </x14:formula1>
+          <xm:sqref>V5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{00750008-00EA-4FA0-8869-005E00520075}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>T4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00D1008E-0042-45DB-BED4-0038009A009A}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00800098-0094-40AC-AB32-003D00040072}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>T5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{003000A3-004B-429E-832B-009700AE009E}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00F3006A-00AD-4F2C-993A-00B500FC0009}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>R4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00540040-0075-4ED1-8F54-00A700B90004}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>BOOLEAN_ANSWER</xm:f>
-          </x14:formula1>
-          <xm:sqref>R5</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0014006F-0053-4809-B438-000400F100C9}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>BOOLEAN_ANSWER</xm:f>
-          </x14:formula1>
-          <xm:sqref>P4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00CA0082-00F7-4107-9D9A-009300790080}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00350060-001F-4262-A2FB-00CA005F0067}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>E4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00DC00DC-0057-410A-8D23-009800920095}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00280060-006F-4D11-A880-00FA003D0046}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>E5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00F90096-0040-4EC1-BA5A-002900D7001B}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{000D0037-0028-4FED-BF71-00D400710068}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>I4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{001B0035-00B9-48DD-BD61-00EF004400F7}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{003A00BB-0004-490E-B403-009700BE008F}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>I5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{004E0056-006B-447E-B646-001400C70086}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00B00026-00C5-4B2E-A29D-005100EB0096}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>SUBSTAGES_FRECUENCY</xm:f>
           </x14:formula1>
           <xm:sqref>K4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00FA00D4-0093-4F38-A778-00BE00ED000B}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00EB00D7-00D5-4E2C-87E7-0062006300C9}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>SUBSTAGES_FRECUENCY</xm:f>
           </x14:formula1>
@@ -3393,15 +4850,133 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100">
+    <sheetView showGridLines="0" workbookViewId="0" zoomScale="100">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col customWidth="1" min="3" max="3" width="11.421875"/>
+    <col customWidth="1" min="4" max="4" width="10.421875"/>
+    <col customWidth="1" min="5" max="5" width="12.421875"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" ht="28.5">
+      <c r="A2" s="89" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="91" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" s="106" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="106" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A3" s="64" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="75" t="str">
+        <f>ap_programs!$A$4</f>
+        <v>programA</v>
+      </c>
+      <c r="D3" s="58">
+        <v>0</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A4" s="64" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="75" t="str">
+        <f>ap_programs!$A$5</f>
+        <v>programB</v>
+      </c>
+      <c r="D4" s="58">
+        <v>0</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" ht="19.5" customHeight="1">
+      <c r="A5" s="64" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="75" t="str">
+        <f>ap_programs!$A$4</f>
+        <v>programA</v>
+      </c>
+      <c r="D5" s="58">
+        <v>0</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3" disablePrompts="0">
+        <x14:dataValidation xr:uid="{0046008B-0027-4D50-B669-00BD0023004C}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>BOOLEAN_ANSWER</xm:f>
+          </x14:formula1>
+          <xm:sqref>E3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{00D10051-0023-454F-B6CA-00E2008600EF}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>BOOLEAN_ANSWER</xm:f>
+          </x14:formula1>
+          <xm:sqref>E4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{00A800BD-004C-404B-9ABE-001B00E700FC}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>BOOLEAN_ANSWER</xm:f>
+          </x14:formula1>
+          <xm:sqref>E5</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/packages/leemons-plugin-mvp-template/src/bulk/data.xlsx
+++ b/packages/leemons-plugin-mvp-template/src/bulk/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="10"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" state="visible" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="259">
   <si>
     <t xml:space="preserve">Substages frecuency</t>
   </si>
@@ -129,6 +129,15 @@
     <t>plugins.families</t>
   </si>
   <si>
+    <t>plugins.timetable</t>
+  </si>
+  <si>
+    <t>plugins.tasks</t>
+  </si>
+  <si>
+    <t>plugins.curriculum</t>
+  </si>
+  <si>
     <t>Users</t>
   </si>
   <si>
@@ -144,6 +153,15 @@
     <t>Families</t>
   </si>
   <si>
+    <t>Timetable</t>
+  </si>
+  <si>
+    <t>Tasks</t>
+  </si>
+  <si>
+    <t>Curriculum</t>
+  </si>
+  <si>
     <t>users</t>
   </si>
   <si>
@@ -192,6 +210,24 @@
     <t>families-students-info</t>
   </si>
   <si>
+    <t>timetable</t>
+  </si>
+  <si>
+    <t>tasks</t>
+  </si>
+  <si>
+    <t>library</t>
+  </si>
+  <si>
+    <t>ongoing</t>
+  </si>
+  <si>
+    <t>history</t>
+  </si>
+  <si>
+    <t>curriculum</t>
+  </si>
+  <si>
     <t xml:space="preserve">Can access to</t>
   </si>
   <si>
@@ -229,6 +265,18 @@
   </si>
   <si>
     <t xml:space="preserve">Students info</t>
+  </si>
+  <si>
+    <t>Schedule</t>
+  </si>
+  <si>
+    <t>Library</t>
+  </si>
+  <si>
+    <t>Ongoing</t>
+  </si>
+  <si>
+    <t>History</t>
   </si>
   <si>
     <t>admin</t>
@@ -974,7 +1022,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1172,6 +1220,19 @@
     </border>
     <border>
       <left style="thin">
+        <color theme="0" tint="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </left>
       <right style="thin">
@@ -1239,7 +1300,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="129">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1306,6 +1367,12 @@
     <xf fontId="9" fillId="11" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf fontId="6" fillId="8" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="6" fillId="8" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1336,6 +1403,9 @@
     <xf fontId="1" fillId="11" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf fontId="1" fillId="8" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf fontId="5" fillId="4" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1399,16 +1469,19 @@
     <xf fontId="4" fillId="15" borderId="18" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf fontId="4" fillId="13" borderId="19" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf fontId="0" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="19" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="20" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="19" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="20" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1471,10 +1544,7 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="7" borderId="20" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="8" borderId="21" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="7" borderId="21" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="1" fillId="8" borderId="22" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1483,16 +1553,19 @@
     <xf fontId="1" fillId="8" borderId="23" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="9" borderId="20" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="8" borderId="24" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="17" borderId="21" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="9" borderId="21" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="1" fillId="17" borderId="22" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="1" fillId="17" borderId="23" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="17" borderId="24" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="1" fillId="10" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2222,89 +2295,89 @@
         <v>12</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" ht="28.5">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="108" t="s">
-        <v>149</v>
-      </c>
-      <c r="D2" s="108" t="s">
-        <v>183</v>
-      </c>
-      <c r="E2" s="108" t="s">
-        <v>184</v>
-      </c>
-      <c r="F2" s="109" t="s">
-        <v>174</v>
-      </c>
-      <c r="G2" s="110" t="s">
-        <v>151</v>
+      <c r="C2" s="112" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" s="112" t="s">
+        <v>199</v>
+      </c>
+      <c r="E2" s="112" t="s">
+        <v>200</v>
+      </c>
+      <c r="F2" s="113" t="s">
+        <v>190</v>
+      </c>
+      <c r="G2" s="114" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1">
-      <c r="A3" s="64" t="s">
-        <v>185</v>
+      <c r="A3" s="68" t="s">
+        <v>201</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="E3" s="111" t="s">
-        <v>189</v>
-      </c>
-      <c r="F3" s="75" t="str">
+        <v>204</v>
+      </c>
+      <c r="E3" s="115" t="s">
+        <v>205</v>
+      </c>
+      <c r="F3" s="79" t="str">
         <f>ap_programs!$A$5</f>
         <v>programB</v>
       </c>
-      <c r="G3" s="58">
+      <c r="G3" s="62">
         <v>0</v>
       </c>
     </row>
     <row r="4" ht="19.5" customHeight="1">
-      <c r="A4" s="64" t="s">
-        <v>190</v>
+      <c r="A4" s="68" t="s">
+        <v>206</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="E4" s="65" t="s">
-        <v>194</v>
-      </c>
-      <c r="F4" s="75" t="str">
+        <v>209</v>
+      </c>
+      <c r="E4" s="69" t="s">
+        <v>210</v>
+      </c>
+      <c r="F4" s="79" t="str">
         <f>ap_programs!$A$5</f>
         <v>programB</v>
       </c>
-      <c r="G4" s="58">
+      <c r="G4" s="62">
         <v>0</v>
       </c>
     </row>
@@ -2329,6 +2402,7 @@
   </sheetPr>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A4" ySplit="3"/>
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2353,86 +2427,86 @@
       <c r="B1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="112" t="s">
-        <v>171</v>
-      </c>
-      <c r="D1" s="112" t="s">
-        <v>195</v>
-      </c>
-      <c r="E1" s="112" t="s">
-        <v>126</v>
-      </c>
-      <c r="F1" s="112" t="s">
-        <v>196</v>
+      <c r="C1" s="116" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1" s="116" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" s="116" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" s="116" t="s">
+        <v>212</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>181</v>
-      </c>
       <c r="I1" s="5" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="K1" s="113" t="s">
-        <v>200</v>
-      </c>
-      <c r="L1" s="72"/>
+        <v>215</v>
+      </c>
+      <c r="K1" s="117" t="s">
+        <v>216</v>
+      </c>
+      <c r="L1" s="76"/>
     </row>
     <row r="2" ht="28.850000000000001" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="114" t="s">
-        <v>201</v>
-      </c>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="72"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="118" t="s">
+        <v>217</v>
+      </c>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="76"/>
     </row>
     <row r="3" ht="31.850000000000001" customHeight="1">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="115" t="s">
-        <v>174</v>
-      </c>
-      <c r="D3" s="90" t="s">
-        <v>202</v>
-      </c>
-      <c r="E3" s="90" t="s">
-        <v>203</v>
-      </c>
-      <c r="F3" s="90" t="s">
-        <v>204</v>
-      </c>
-      <c r="G3" s="116" t="s">
-        <v>205</v>
-      </c>
-      <c r="H3" s="117" t="s">
-        <v>183</v>
-      </c>
-      <c r="I3" s="117" t="s">
-        <v>206</v>
-      </c>
-      <c r="J3" s="118" t="s">
-        <v>207</v>
-      </c>
-      <c r="K3" s="109" t="s">
-        <v>208</v>
-      </c>
-      <c r="L3" s="119"/>
+      <c r="C3" s="119" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" s="94" t="s">
+        <v>218</v>
+      </c>
+      <c r="E3" s="94" t="s">
+        <v>219</v>
+      </c>
+      <c r="F3" s="94" t="s">
+        <v>220</v>
+      </c>
+      <c r="G3" s="120" t="s">
+        <v>221</v>
+      </c>
+      <c r="H3" s="121" t="s">
+        <v>199</v>
+      </c>
+      <c r="I3" s="121" t="s">
+        <v>222</v>
+      </c>
+      <c r="J3" s="122" t="s">
+        <v>223</v>
+      </c>
+      <c r="K3" s="113" t="s">
+        <v>224</v>
+      </c>
+      <c r="L3" s="123"/>
     </row>
     <row r="4" s="9" customFormat="1" ht="30" customHeight="1">
       <c r="A4" s="10" t="str">
@@ -2440,35 +2514,35 @@
         <v>subject01</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C4" s="75" t="str">
+        <v>225</v>
+      </c>
+      <c r="C4" s="79" t="str">
         <f>ap_programs!A4</f>
         <v>programA</v>
       </c>
-      <c r="D4" s="58">
+      <c r="D4" s="62">
         <v>1</v>
       </c>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58" t="str">
+      <c r="E4" s="62"/>
+      <c r="F4" s="62" t="str">
         <f>_xlfn.CONCAT("0",IF(L4&lt;10,"0",""),L4)</f>
         <v>001</v>
       </c>
-      <c r="G4" s="120" t="s">
-        <v>210</v>
-      </c>
-      <c r="H4" s="121" t="s">
-        <v>211</v>
-      </c>
-      <c r="I4" s="58"/>
-      <c r="J4" s="122" t="str">
+      <c r="G4" s="124" t="s">
+        <v>226</v>
+      </c>
+      <c r="H4" s="125" t="s">
+        <v>227</v>
+      </c>
+      <c r="I4" s="62"/>
+      <c r="J4" s="126" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K4" s="123" t="s">
-        <v>212</v>
-      </c>
-      <c r="L4" s="124">
+      <c r="K4" s="127" t="s">
+        <v>228</v>
+      </c>
+      <c r="L4" s="128">
         <v>1</v>
       </c>
       <c r="M4" s="9"/>
@@ -2479,38 +2553,38 @@
         <v>subject02</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="C5" s="75" t="str">
+        <v>229</v>
+      </c>
+      <c r="C5" s="79" t="str">
         <f>C4</f>
         <v>programA</v>
       </c>
-      <c r="D5" s="58">
+      <c r="D5" s="62">
         <v>1</v>
       </c>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58" t="str">
+      <c r="E5" s="62"/>
+      <c r="F5" s="62" t="str">
         <f>_xlfn.CONCAT("0",IF(L5&lt;10,"0",""),L5)</f>
         <v>002</v>
       </c>
-      <c r="G5" s="120" t="str">
+      <c r="G5" s="124" t="str">
         <f>G4</f>
         <v xml:space="preserve">Group A|G1A, Group B|G1B</v>
       </c>
-      <c r="H5" s="121" t="str">
+      <c r="H5" s="125" t="str">
         <f>H4</f>
         <v>#FFEB9C</v>
       </c>
-      <c r="I5" s="58"/>
-      <c r="J5" s="122" t="str">
+      <c r="I5" s="62"/>
+      <c r="J5" s="126" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K5" s="123" t="str">
+      <c r="K5" s="127" t="str">
         <f>K4</f>
         <v xml:space="preserve">teacher01|main@G1A, teacher01|main@G1B</v>
       </c>
-      <c r="L5" s="124">
+      <c r="L5" s="128">
         <f>L4+1</f>
         <v>2</v>
       </c>
@@ -2522,38 +2596,38 @@
         <v>subject03</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="C6" s="75" t="str">
+        <v>230</v>
+      </c>
+      <c r="C6" s="79" t="str">
         <f>C5</f>
         <v>programA</v>
       </c>
-      <c r="D6" s="58">
+      <c r="D6" s="62">
         <v>1</v>
       </c>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58" t="str">
+      <c r="E6" s="62"/>
+      <c r="F6" s="62" t="str">
         <f>_xlfn.CONCAT("0",IF(L6&lt;10,"0",""),L6)</f>
         <v>003</v>
       </c>
-      <c r="G6" s="120" t="str">
+      <c r="G6" s="124" t="str">
         <f>G5</f>
         <v xml:space="preserve">Group A|G1A, Group B|G1B</v>
       </c>
-      <c r="H6" s="121" t="str">
+      <c r="H6" s="125" t="str">
         <f>H5</f>
         <v>#FFEB9C</v>
       </c>
-      <c r="I6" s="58"/>
-      <c r="J6" s="122" t="str">
+      <c r="I6" s="62"/>
+      <c r="J6" s="126" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K6" s="123" t="str">
+      <c r="K6" s="127" t="str">
         <f>K5</f>
         <v xml:space="preserve">teacher01|main@G1A, teacher01|main@G1B</v>
       </c>
-      <c r="L6" s="124">
+      <c r="L6" s="128">
         <f>L5+1</f>
         <v>3</v>
       </c>
@@ -2565,38 +2639,38 @@
         <v>subject04</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="C7" s="75" t="str">
+        <v>231</v>
+      </c>
+      <c r="C7" s="79" t="str">
         <f>C6</f>
         <v>programA</v>
       </c>
-      <c r="D7" s="58">
+      <c r="D7" s="62">
         <v>1</v>
       </c>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58" t="str">
+      <c r="E7" s="62"/>
+      <c r="F7" s="62" t="str">
         <f>_xlfn.CONCAT("0",IF(L7&lt;10,"0",""),L7)</f>
         <v>004</v>
       </c>
-      <c r="G7" s="120" t="str">
+      <c r="G7" s="124" t="str">
         <f>G6</f>
         <v xml:space="preserve">Group A|G1A, Group B|G1B</v>
       </c>
-      <c r="H7" s="121" t="str">
+      <c r="H7" s="125" t="str">
         <f>H6</f>
         <v>#FFEB9C</v>
       </c>
-      <c r="I7" s="58"/>
-      <c r="J7" s="122" t="str">
+      <c r="I7" s="62"/>
+      <c r="J7" s="126" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="K7" s="123" t="str">
+      <c r="K7" s="127" t="str">
         <f>K6</f>
         <v xml:space="preserve">teacher01|main@G1A, teacher01|main@G1B</v>
       </c>
-      <c r="L7" s="124">
+      <c r="L7" s="128">
         <f>L6+1</f>
         <v>4</v>
       </c>
@@ -2608,36 +2682,36 @@
         <v>subject05</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="C8" s="75" t="str">
+        <v>232</v>
+      </c>
+      <c r="C8" s="79" t="str">
         <f>C7</f>
         <v>programA</v>
       </c>
-      <c r="D8" s="58">
+      <c r="D8" s="62">
         <v>2</v>
       </c>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58" t="str">
+      <c r="E8" s="62"/>
+      <c r="F8" s="62" t="str">
         <f>_xlfn.CONCAT("0",IF(L8&lt;10,"0",""),L8)</f>
         <v>005</v>
       </c>
-      <c r="G8" s="120" t="s">
-        <v>217</v>
-      </c>
-      <c r="H8" s="121" t="str">
+      <c r="G8" s="124" t="s">
+        <v>233</v>
+      </c>
+      <c r="H8" s="125" t="str">
         <f>H7</f>
         <v>#FFEB9C</v>
       </c>
-      <c r="I8" s="58"/>
-      <c r="J8" s="122" t="str">
+      <c r="I8" s="62"/>
+      <c r="J8" s="126" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K8" s="123" t="s">
-        <v>218</v>
-      </c>
-      <c r="L8" s="124">
+      <c r="K8" s="127" t="s">
+        <v>234</v>
+      </c>
+      <c r="L8" s="128">
         <f>L7+1</f>
         <v>5</v>
       </c>
@@ -2648,37 +2722,37 @@
         <v>subject06</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="C9" s="75" t="str">
+        <v>235</v>
+      </c>
+      <c r="C9" s="79" t="str">
         <f>C8</f>
         <v>programA</v>
       </c>
-      <c r="D9" s="58">
+      <c r="D9" s="62">
         <v>2</v>
       </c>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58" t="str">
+      <c r="E9" s="62"/>
+      <c r="F9" s="62" t="str">
         <f>_xlfn.CONCAT("0",IF(L9&lt;10,"0",""),L9)</f>
         <v>006</v>
       </c>
-      <c r="G9" s="120" t="str">
+      <c r="G9" s="124" t="str">
         <f>G8</f>
         <v xml:space="preserve">Group A|G2A, Group B|G2B</v>
       </c>
-      <c r="H9" s="121" t="s">
-        <v>220</v>
-      </c>
-      <c r="I9" s="58"/>
-      <c r="J9" s="122" t="str">
+      <c r="H9" s="125" t="s">
+        <v>236</v>
+      </c>
+      <c r="I9" s="62"/>
+      <c r="J9" s="126" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K9" s="123" t="str">
+      <c r="K9" s="127" t="str">
         <f>K8</f>
         <v xml:space="preserve">teacher01|main@G2A, teacher01|main@G2B</v>
       </c>
-      <c r="L9" s="124">
+      <c r="L9" s="128">
         <f>L8+1</f>
         <v>6</v>
       </c>
@@ -2689,38 +2763,38 @@
         <v>subject07</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="C10" s="75" t="str">
+        <v>237</v>
+      </c>
+      <c r="C10" s="79" t="str">
         <f>C9</f>
         <v>programA</v>
       </c>
-      <c r="D10" s="58">
+      <c r="D10" s="62">
         <v>2</v>
       </c>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58" t="str">
+      <c r="E10" s="62"/>
+      <c r="F10" s="62" t="str">
         <f>_xlfn.CONCAT("0",IF(L10&lt;10,"0",""),L10)</f>
         <v>007</v>
       </c>
-      <c r="G10" s="120" t="str">
+      <c r="G10" s="124" t="str">
         <f>G9</f>
         <v xml:space="preserve">Group A|G2A, Group B|G2B</v>
       </c>
-      <c r="H10" s="121" t="str">
+      <c r="H10" s="125" t="str">
         <f>H9</f>
         <v>#FFC7CE</v>
       </c>
-      <c r="I10" s="58"/>
-      <c r="J10" s="122" t="str">
+      <c r="I10" s="62"/>
+      <c r="J10" s="126" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K10" s="123" t="str">
+      <c r="K10" s="127" t="str">
         <f>K9</f>
         <v xml:space="preserve">teacher01|main@G2A, teacher01|main@G2B</v>
       </c>
-      <c r="L10" s="124">
+      <c r="L10" s="128">
         <f>L9+1</f>
         <v>7</v>
       </c>
@@ -2731,38 +2805,38 @@
         <v>subject08</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="C11" s="75" t="str">
+        <v>238</v>
+      </c>
+      <c r="C11" s="79" t="str">
         <f>C10</f>
         <v>programA</v>
       </c>
-      <c r="D11" s="58">
+      <c r="D11" s="62">
         <v>2</v>
       </c>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58" t="str">
+      <c r="E11" s="62"/>
+      <c r="F11" s="62" t="str">
         <f>_xlfn.CONCAT("0",IF(L11&lt;10,"0",""),L11)</f>
         <v>008</v>
       </c>
-      <c r="G11" s="120" t="str">
+      <c r="G11" s="124" t="str">
         <f>G10</f>
         <v xml:space="preserve">Group A|G2A, Group B|G2B</v>
       </c>
-      <c r="H11" s="121" t="str">
+      <c r="H11" s="125" t="str">
         <f>H10</f>
         <v>#FFC7CE</v>
       </c>
-      <c r="I11" s="58"/>
-      <c r="J11" s="122" t="str">
+      <c r="I11" s="62"/>
+      <c r="J11" s="126" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="K11" s="123" t="str">
+      <c r="K11" s="127" t="str">
         <f>K10</f>
         <v xml:space="preserve">teacher01|main@G2A, teacher01|main@G2B</v>
       </c>
-      <c r="L11" s="124">
+      <c r="L11" s="128">
         <f>L10+1</f>
         <v>8</v>
       </c>
@@ -2773,36 +2847,36 @@
         <v>subject09</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="C12" s="75" t="str">
+        <v>239</v>
+      </c>
+      <c r="C12" s="79" t="str">
         <f>C11</f>
         <v>programA</v>
       </c>
-      <c r="D12" s="58">
+      <c r="D12" s="62">
         <v>3</v>
       </c>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58" t="str">
+      <c r="E12" s="62"/>
+      <c r="F12" s="62" t="str">
         <f>_xlfn.CONCAT("0",IF(L12&lt;10,"0",""),L12)</f>
         <v>009</v>
       </c>
-      <c r="G12" s="120" t="s">
-        <v>224</v>
-      </c>
-      <c r="H12" s="121" t="str">
+      <c r="G12" s="124" t="s">
+        <v>240</v>
+      </c>
+      <c r="H12" s="125" t="str">
         <f>H11</f>
         <v>#FFC7CE</v>
       </c>
-      <c r="I12" s="58"/>
-      <c r="J12" s="122" t="str">
+      <c r="I12" s="62"/>
+      <c r="J12" s="126" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K12" s="123" t="s">
-        <v>225</v>
-      </c>
-      <c r="L12" s="124">
+      <c r="K12" s="127" t="s">
+        <v>241</v>
+      </c>
+      <c r="L12" s="128">
         <f>L11+1</f>
         <v>9</v>
       </c>
@@ -2813,38 +2887,38 @@
         <v>subject10</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="C13" s="75" t="str">
+        <v>242</v>
+      </c>
+      <c r="C13" s="79" t="str">
         <f>C12</f>
         <v>programA</v>
       </c>
-      <c r="D13" s="58">
+      <c r="D13" s="62">
         <v>3</v>
       </c>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58" t="str">
+      <c r="E13" s="62"/>
+      <c r="F13" s="62" t="str">
         <f>_xlfn.CONCAT("0",IF(L13&lt;10,"0",""),L13)</f>
         <v>010</v>
       </c>
-      <c r="G13" s="120" t="str">
+      <c r="G13" s="124" t="str">
         <f>G12</f>
         <v xml:space="preserve">Group A|G3A, Group B|G3B</v>
       </c>
-      <c r="H13" s="121" t="str">
+      <c r="H13" s="125" t="str">
         <f>H12</f>
         <v>#FFC7CE</v>
       </c>
-      <c r="I13" s="58"/>
-      <c r="J13" s="122" t="str">
+      <c r="I13" s="62"/>
+      <c r="J13" s="126" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K13" s="123" t="str">
+      <c r="K13" s="127" t="str">
         <f>K12</f>
         <v xml:space="preserve">teacher01|main@G3A, teacher01|main@G3B</v>
       </c>
-      <c r="L13" s="124">
+      <c r="L13" s="128">
         <f>L12+1</f>
         <v>10</v>
       </c>
@@ -2855,37 +2929,37 @@
         <v>subject11</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="C14" s="75" t="str">
+        <v>243</v>
+      </c>
+      <c r="C14" s="79" t="str">
         <f>C13</f>
         <v>programA</v>
       </c>
-      <c r="D14" s="58">
+      <c r="D14" s="62">
         <v>3</v>
       </c>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58" t="str">
+      <c r="E14" s="62"/>
+      <c r="F14" s="62" t="str">
         <f>_xlfn.CONCAT("0",IF(L14&lt;10,"0",""),L14)</f>
         <v>011</v>
       </c>
-      <c r="G14" s="120" t="str">
+      <c r="G14" s="124" t="str">
         <f>G13</f>
         <v xml:space="preserve">Group A|G3A, Group B|G3B</v>
       </c>
-      <c r="H14" s="121" t="s">
-        <v>228</v>
-      </c>
-      <c r="I14" s="58"/>
-      <c r="J14" s="122" t="str">
+      <c r="H14" s="125" t="s">
+        <v>244</v>
+      </c>
+      <c r="I14" s="62"/>
+      <c r="J14" s="126" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K14" s="123" t="str">
+      <c r="K14" s="127" t="str">
         <f>K13</f>
         <v xml:space="preserve">teacher01|main@G3A, teacher01|main@G3B</v>
       </c>
-      <c r="L14" s="124">
+      <c r="L14" s="128">
         <f>L13+1</f>
         <v>11</v>
       </c>
@@ -2896,38 +2970,38 @@
         <v>subject12</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="C15" s="75" t="str">
+        <v>245</v>
+      </c>
+      <c r="C15" s="79" t="str">
         <f>C14</f>
         <v>programA</v>
       </c>
-      <c r="D15" s="58">
+      <c r="D15" s="62">
         <v>3</v>
       </c>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58" t="str">
+      <c r="E15" s="62"/>
+      <c r="F15" s="62" t="str">
         <f>_xlfn.CONCAT("0",IF(L15&lt;10,"0",""),L15)</f>
         <v>012</v>
       </c>
-      <c r="G15" s="120" t="str">
+      <c r="G15" s="124" t="str">
         <f>G14</f>
         <v xml:space="preserve">Group A|G3A, Group B|G3B</v>
       </c>
-      <c r="H15" s="121" t="str">
+      <c r="H15" s="125" t="str">
         <f>H14</f>
         <v>#C6EFCD</v>
       </c>
-      <c r="I15" s="58"/>
-      <c r="J15" s="122" t="str">
+      <c r="I15" s="62"/>
+      <c r="J15" s="126" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="K15" s="123" t="str">
+      <c r="K15" s="127" t="str">
         <f>K14</f>
         <v xml:space="preserve">teacher01|main@G3A, teacher01|main@G3B</v>
       </c>
-      <c r="L15" s="124">
+      <c r="L15" s="128">
         <f>L14+1</f>
         <v>12</v>
       </c>
@@ -2938,36 +3012,36 @@
         <v>subject13</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="C16" s="75" t="str">
+        <v>246</v>
+      </c>
+      <c r="C16" s="79" t="str">
         <f>C15</f>
         <v>programA</v>
       </c>
-      <c r="D16" s="58">
+      <c r="D16" s="62">
         <v>4</v>
       </c>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58" t="str">
+      <c r="E16" s="62"/>
+      <c r="F16" s="62" t="str">
         <f>_xlfn.CONCAT("0",IF(L16&lt;10,"0",""),L16)</f>
         <v>013</v>
       </c>
-      <c r="G16" s="120" t="s">
-        <v>231</v>
-      </c>
-      <c r="H16" s="121" t="str">
+      <c r="G16" s="124" t="s">
+        <v>247</v>
+      </c>
+      <c r="H16" s="125" t="str">
         <f>H15</f>
         <v>#C6EFCD</v>
       </c>
-      <c r="I16" s="58"/>
-      <c r="J16" s="122" t="str">
+      <c r="I16" s="62"/>
+      <c r="J16" s="126" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K16" s="123" t="s">
-        <v>232</v>
-      </c>
-      <c r="L16" s="124">
+      <c r="K16" s="127" t="s">
+        <v>248</v>
+      </c>
+      <c r="L16" s="128">
         <f>L15+1</f>
         <v>13</v>
       </c>
@@ -2978,38 +3052,38 @@
         <v>subject14</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="C17" s="75" t="str">
+        <v>249</v>
+      </c>
+      <c r="C17" s="79" t="str">
         <f>C16</f>
         <v>programA</v>
       </c>
-      <c r="D17" s="58">
+      <c r="D17" s="62">
         <v>4</v>
       </c>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58" t="str">
+      <c r="E17" s="62"/>
+      <c r="F17" s="62" t="str">
         <f>_xlfn.CONCAT("0",IF(L17&lt;10,"0",""),L17)</f>
         <v>014</v>
       </c>
-      <c r="G17" s="120" t="str">
+      <c r="G17" s="124" t="str">
         <f>G16</f>
         <v xml:space="preserve">Group A|G4A, Group B|G4B</v>
       </c>
-      <c r="H17" s="121" t="str">
+      <c r="H17" s="125" t="str">
         <f>H16</f>
         <v>#C6EFCD</v>
       </c>
-      <c r="I17" s="58"/>
-      <c r="J17" s="122" t="str">
+      <c r="I17" s="62"/>
+      <c r="J17" s="126" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K17" s="123" t="str">
+      <c r="K17" s="127" t="str">
         <f>K16</f>
         <v xml:space="preserve">teacher01|main@G4A, teacher01|main@G4B</v>
       </c>
-      <c r="L17" s="124">
+      <c r="L17" s="128">
         <f>L16+1</f>
         <v>14</v>
       </c>
@@ -3020,38 +3094,38 @@
         <v>subject15</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="C18" s="75" t="str">
+        <v>250</v>
+      </c>
+      <c r="C18" s="79" t="str">
         <f>C17</f>
         <v>programA</v>
       </c>
-      <c r="D18" s="58">
+      <c r="D18" s="62">
         <v>4</v>
       </c>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58" t="str">
+      <c r="E18" s="62"/>
+      <c r="F18" s="62" t="str">
         <f>_xlfn.CONCAT("0",IF(L18&lt;10,"0",""),L18)</f>
         <v>015</v>
       </c>
-      <c r="G18" s="120" t="str">
+      <c r="G18" s="124" t="str">
         <f>G17</f>
         <v xml:space="preserve">Group A|G4A, Group B|G4B</v>
       </c>
-      <c r="H18" s="121" t="str">
+      <c r="H18" s="125" t="str">
         <f>H17</f>
         <v>#C6EFCD</v>
       </c>
-      <c r="I18" s="58"/>
-      <c r="J18" s="122" t="str">
+      <c r="I18" s="62"/>
+      <c r="J18" s="126" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K18" s="123" t="str">
+      <c r="K18" s="127" t="str">
         <f>K17</f>
         <v xml:space="preserve">teacher01|main@G4A, teacher01|main@G4B</v>
       </c>
-      <c r="L18" s="124">
+      <c r="L18" s="128">
         <f>L17+1</f>
         <v>15</v>
       </c>
@@ -3062,37 +3136,37 @@
         <v>subject16</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="C19" s="75" t="str">
+        <v>251</v>
+      </c>
+      <c r="C19" s="79" t="str">
         <f>C18</f>
         <v>programA</v>
       </c>
-      <c r="D19" s="58">
+      <c r="D19" s="62">
         <v>4</v>
       </c>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58" t="str">
+      <c r="E19" s="62"/>
+      <c r="F19" s="62" t="str">
         <f>_xlfn.CONCAT("0",IF(L19&lt;10,"0",""),L19)</f>
         <v>016</v>
       </c>
-      <c r="G19" s="120" t="str">
+      <c r="G19" s="124" t="str">
         <f>G18</f>
         <v xml:space="preserve">Group A|G4A, Group B|G4B</v>
       </c>
-      <c r="H19" s="121" t="s">
-        <v>236</v>
-      </c>
-      <c r="I19" s="58"/>
-      <c r="J19" s="122" t="str">
+      <c r="H19" s="125" t="s">
+        <v>252</v>
+      </c>
+      <c r="I19" s="62"/>
+      <c r="J19" s="126" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="K19" s="123" t="str">
+      <c r="K19" s="127" t="str">
         <f>K18</f>
         <v xml:space="preserve">teacher01|main@G4A, teacher01|main@G4B</v>
       </c>
-      <c r="L19" s="124">
+      <c r="L19" s="128">
         <f>L18+1</f>
         <v>16</v>
       </c>
@@ -3103,35 +3177,35 @@
         <v>subject17</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="C20" s="75" t="str">
+        <v>253</v>
+      </c>
+      <c r="C20" s="79" t="str">
         <f>C19</f>
         <v>programA</v>
       </c>
-      <c r="D20" s="58">
+      <c r="D20" s="62">
         <v>5</v>
       </c>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58" t="str">
+      <c r="E20" s="62"/>
+      <c r="F20" s="62" t="str">
         <f>_xlfn.CONCAT("0",IF(L20&lt;10,"0",""),L20)</f>
         <v>017</v>
       </c>
-      <c r="G20" s="120" t="s">
-        <v>238</v>
-      </c>
-      <c r="H20" s="121" t="s">
-        <v>236</v>
-      </c>
-      <c r="I20" s="58"/>
-      <c r="J20" s="122" t="str">
+      <c r="G20" s="124" t="s">
+        <v>254</v>
+      </c>
+      <c r="H20" s="125" t="s">
+        <v>252</v>
+      </c>
+      <c r="I20" s="62"/>
+      <c r="J20" s="126" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K20" s="123" t="s">
-        <v>239</v>
-      </c>
-      <c r="L20" s="124">
+      <c r="K20" s="127" t="s">
+        <v>255</v>
+      </c>
+      <c r="L20" s="128">
         <f>L19+1</f>
         <v>17</v>
       </c>
@@ -3142,37 +3216,37 @@
         <v>subject18</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="C21" s="75" t="str">
+        <v>256</v>
+      </c>
+      <c r="C21" s="79" t="str">
         <f>C20</f>
         <v>programA</v>
       </c>
-      <c r="D21" s="58">
+      <c r="D21" s="62">
         <v>5</v>
       </c>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58" t="str">
+      <c r="E21" s="62"/>
+      <c r="F21" s="62" t="str">
         <f>_xlfn.CONCAT("0",IF(L21&lt;10,"0",""),L21)</f>
         <v>018</v>
       </c>
-      <c r="G21" s="120" t="str">
+      <c r="G21" s="124" t="str">
         <f>G20</f>
         <v xml:space="preserve">Group A|G5A, Group B|G5B</v>
       </c>
-      <c r="H21" s="121" t="s">
-        <v>236</v>
-      </c>
-      <c r="I21" s="58"/>
-      <c r="J21" s="122" t="str">
+      <c r="H21" s="125" t="s">
+        <v>252</v>
+      </c>
+      <c r="I21" s="62"/>
+      <c r="J21" s="126" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K21" s="123" t="str">
+      <c r="K21" s="127" t="str">
         <f>K20</f>
         <v xml:space="preserve">teacher01|main@G5A, teacher01|main@G5B</v>
       </c>
-      <c r="L21" s="124">
+      <c r="L21" s="128">
         <f>L20+1</f>
         <v>18</v>
       </c>
@@ -3183,37 +3257,37 @@
         <v>subject19</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="C22" s="75" t="str">
+        <v>257</v>
+      </c>
+      <c r="C22" s="79" t="str">
         <f>C21</f>
         <v>programA</v>
       </c>
-      <c r="D22" s="58">
+      <c r="D22" s="62">
         <v>5</v>
       </c>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58" t="str">
+      <c r="E22" s="62"/>
+      <c r="F22" s="62" t="str">
         <f>_xlfn.CONCAT("0",IF(L22&lt;10,"0",""),L22)</f>
         <v>019</v>
       </c>
-      <c r="G22" s="120" t="str">
+      <c r="G22" s="124" t="str">
         <f>G21</f>
         <v xml:space="preserve">Group A|G5A, Group B|G5B</v>
       </c>
-      <c r="H22" s="121" t="s">
-        <v>236</v>
-      </c>
-      <c r="I22" s="58"/>
-      <c r="J22" s="122" t="str">
+      <c r="H22" s="125" t="s">
+        <v>252</v>
+      </c>
+      <c r="I22" s="62"/>
+      <c r="J22" s="126" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K22" s="123" t="str">
+      <c r="K22" s="127" t="str">
         <f>K21</f>
         <v xml:space="preserve">teacher01|main@G5A, teacher01|main@G5B</v>
       </c>
-      <c r="L22" s="124">
+      <c r="L22" s="128">
         <f>L21+1</f>
         <v>19</v>
       </c>
@@ -3224,43 +3298,43 @@
         <v>subject20</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="C23" s="75" t="str">
+        <v>258</v>
+      </c>
+      <c r="C23" s="79" t="str">
         <f>C22</f>
         <v>programA</v>
       </c>
-      <c r="D23" s="58">
+      <c r="D23" s="62">
         <v>5</v>
       </c>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58" t="str">
+      <c r="E23" s="62"/>
+      <c r="F23" s="62" t="str">
         <f>_xlfn.CONCAT("0",IF(L23&lt;10,"0",""),L23)</f>
         <v>020</v>
       </c>
-      <c r="G23" s="120" t="str">
+      <c r="G23" s="124" t="str">
         <f>G22</f>
         <v xml:space="preserve">Group A|G5A, Group B|G5B</v>
       </c>
-      <c r="H23" s="121" t="s">
-        <v>236</v>
-      </c>
-      <c r="I23" s="58"/>
-      <c r="J23" s="122" t="str">
+      <c r="H23" s="125" t="s">
+        <v>252</v>
+      </c>
+      <c r="I23" s="62"/>
+      <c r="J23" s="126" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="K23" s="123" t="str">
+      <c r="K23" s="127" t="str">
         <f>K22</f>
         <v xml:space="preserve">teacher01|main@G5A, teacher01|main@G5B</v>
       </c>
-      <c r="L23" s="124">
+      <c r="L23" s="128">
         <f>L22+1</f>
         <v>20</v>
       </c>
     </row>
     <row r="24" ht="14.25">
-      <c r="L24" s="72"/>
+      <c r="L24" s="76"/>
     </row>
     <row r="25" ht="14.25"/>
   </sheetData>
@@ -3381,6 +3455,7 @@
   </sheetPr>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B7" xSplit="1" ySplit="6"/>
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -3397,6 +3472,7 @@
     <col customWidth="1" min="19" max="19" width="12.140625"/>
     <col customWidth="1" min="20" max="21" width="14.7109375"/>
     <col customWidth="1" min="22" max="22" width="14.421875"/>
+    <col customWidth="1" min="28" max="28" width="15.00390625"/>
   </cols>
   <sheetData>
     <row r="1" s="13" customFormat="1" ht="14.25">
@@ -3479,6 +3555,34 @@
       <c r="U1" s="14" t="str">
         <f>_xlfn.CONCAT($P$3,".",U5)</f>
         <v>plugins.families.families-students-info</v>
+      </c>
+      <c r="V1" s="13" t="str">
+        <f>_xlfn.CONCAT($V$3,".",V5)</f>
+        <v>plugins.timetable.config</v>
+      </c>
+      <c r="W1" s="13" t="str">
+        <f>_xlfn.CONCAT($V$3,".",W5)</f>
+        <v>plugins.timetable.timetable</v>
+      </c>
+      <c r="X1" s="13" t="str">
+        <f>_xlfn.CONCAT($X$3,".",X5)</f>
+        <v>plugins.tasks.tasks</v>
+      </c>
+      <c r="Y1" s="13" t="str">
+        <f>_xlfn.CONCAT($X$3,".",Y5)</f>
+        <v>plugins.tasks.library</v>
+      </c>
+      <c r="Z1" s="13" t="str">
+        <f>_xlfn.CONCAT($X$3,".",Z5)</f>
+        <v>plugins.tasks.ongoing</v>
+      </c>
+      <c r="AA1" s="13" t="str">
+        <f>_xlfn.CONCAT($X$3,".",AA5)</f>
+        <v>plugins.tasks.history</v>
+      </c>
+      <c r="AB1" s="13" t="str">
+        <f>_xlfn.CONCAT($AB$3,".",AB5)</f>
+        <v>plugins.curriculum.curriculum</v>
       </c>
     </row>
     <row r="2" s="9" customFormat="1" ht="21.350000000000001" customHeight="1">
@@ -3505,6 +3609,13 @@
       <c r="S2" s="15"/>
       <c r="T2" s="15"/>
       <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
     </row>
     <row r="3" ht="14.25">
       <c r="B3" s="16"/>
@@ -3537,96 +3648,143 @@
       <c r="S3" s="24"/>
       <c r="T3" s="24"/>
       <c r="U3" s="25"/>
-    </row>
-    <row r="4" s="26" customFormat="1" ht="19.850000000000001" customHeight="1">
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27" t="s">
+      <c r="V3" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="29" t="s">
+      <c r="W3" s="18"/>
+      <c r="X3" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="31" t="s">
+    </row>
+    <row r="4" s="28" customFormat="1" ht="19.850000000000001" customHeight="1">
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="33" t="s">
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="35"/>
+      <c r="J4" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="W4" s="30"/>
+      <c r="X4" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="32" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="5" ht="14.25">
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
-      <c r="E5" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" s="41" t="s">
+      <c r="E5" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="42" t="s">
+      <c r="F5" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="N5" s="42" t="s">
+      <c r="G5" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="O5" s="42" t="s">
+      <c r="H5" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="P5" s="43" t="s">
+      <c r="I5" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="Q5" s="44" t="s">
+      <c r="J5" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="R5" s="44" t="s">
+      <c r="K5" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="S5" s="44" t="s">
+      <c r="L5" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="T5" s="44" t="s">
+      <c r="M5" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="U5" s="45" t="s">
+      <c r="O5" s="45" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="6" s="46" customFormat="1" ht="19.5" customHeight="1">
+      <c r="P5" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q5" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="R5" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="S5" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="T5" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="U5" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="V5" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="W5" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="X5" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y5" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z5" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA5" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB5" s="43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" s="49" customFormat="1" ht="19.5" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
@@ -3636,299 +3794,394 @@
       <c r="C6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="48" t="s">
-        <v>33</v>
+      <c r="D6" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="51" t="s">
+        <v>36</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="L6" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="M6" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="N6" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="O6" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="P6" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="Q6" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="R6" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="S6" s="55" t="s">
-        <v>64</v>
-      </c>
-      <c r="T6" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="U6" s="56" t="s">
-        <v>66</v>
+      <c r="J6" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="M6" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="N6" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="P6" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q6" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="R6" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="S6" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="T6" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="U6" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="V6" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="W6" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="X6" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y6" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z6" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA6" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB6" s="60" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="7" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A7" s="10" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="I7" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="J7" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="K7" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="L7" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="M7" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="N7" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="O7" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="P7" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q7" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="R7" s="59"/>
-      <c r="S7" s="60"/>
-      <c r="T7" s="60"/>
-      <c r="U7" s="60"/>
+        <v>85</v>
+      </c>
+      <c r="D7" s="61"/>
+      <c r="E7" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="N7" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="P7" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q7" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="R7" s="63"/>
+      <c r="S7" s="64"/>
+      <c r="T7" s="64"/>
+      <c r="U7" s="64"/>
+      <c r="V7" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="W7" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="X7" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y7" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z7" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA7" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB7" s="62" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="8" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A8" s="10" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="H8" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="I8" s="58" t="s">
-        <v>74</v>
-      </c>
-      <c r="J8" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="K8" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="L8" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="O8" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="P8" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q8" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="R8" s="59"/>
-      <c r="S8" s="58"/>
-      <c r="T8" s="58"/>
-      <c r="U8" s="58"/>
+        <v>88</v>
+      </c>
+      <c r="D8" s="61"/>
+      <c r="E8" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="I8" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="L8" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="O8" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="P8" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q8" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="R8" s="63"/>
+      <c r="S8" s="62"/>
+      <c r="T8" s="62"/>
+      <c r="U8" s="62"/>
+      <c r="V8" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="W8" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="X8" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y8" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z8" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA8" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB8" s="62" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="9" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A9" s="10" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="I9" s="58" t="s">
-        <v>74</v>
-      </c>
-      <c r="J9" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="K9" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="L9" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q9" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="R9" s="61" t="s">
-        <v>78</v>
-      </c>
-      <c r="S9" s="58" t="s">
-        <v>78</v>
-      </c>
-      <c r="T9" s="58" t="s">
-        <v>78</v>
-      </c>
-      <c r="U9" s="58" t="s">
-        <v>78</v>
+        <v>93</v>
+      </c>
+      <c r="D9" s="61"/>
+      <c r="E9" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="K9" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="L9" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q9" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="R9" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="S9" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="T9" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="U9" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="V9" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="W9" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="X9" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y9" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z9" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA9" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB9" s="65" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="10" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A10" s="10" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="57" t="str">
+        <v>97</v>
+      </c>
+      <c r="D10" s="61" t="str">
         <f>A9</f>
         <v>student</v>
       </c>
-      <c r="E10" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="I10" s="58" t="s">
-        <v>74</v>
-      </c>
-      <c r="J10" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="K10" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="L10" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="O10" s="58"/>
-      <c r="P10" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q10" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="R10" s="58" t="s">
-        <v>78</v>
-      </c>
-      <c r="S10" s="58" t="s">
-        <v>78</v>
-      </c>
-      <c r="T10" s="58" t="s">
-        <v>78</v>
-      </c>
-      <c r="U10" s="58" t="s">
-        <v>78</v>
-      </c>
+      <c r="E10" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="I10" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="J10" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="L10" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="O10" s="62"/>
+      <c r="P10" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q10" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="R10" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="S10" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="T10" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="U10" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="V10" s="62"/>
+      <c r="W10" s="62"/>
+      <c r="X10" s="62"/>
+      <c r="Y10" s="62"/>
+      <c r="Z10" s="62"/>
+      <c r="AA10" s="62"/>
+      <c r="AB10" s="62"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="E2:U2"/>
+  <mergeCells count="11">
+    <mergeCell ref="E2:AB2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="K3:O3"/>
     <mergeCell ref="P3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:AA3"/>
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="K4:O4"/>
     <mergeCell ref="P4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:AA4"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -3967,19 +4220,19 @@
         <v>12</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1">
@@ -3990,199 +4243,199 @@
         <v>16</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="67" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A3" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="69" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="70" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A4" s="68" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="63" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A3" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="65" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" s="11" t="s">
+      <c r="D4" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="70" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A5" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="72" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="58" t="s">
+      <c r="D5" s="73" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="66" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A4" s="64" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="65" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4" s="12" t="s">
+      <c r="G5" s="70" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A6" s="71" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="74" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A7" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="58" t="s">
+      <c r="D7" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="66" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A5" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" s="68" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="68" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="69" t="s">
-        <v>100</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="F5" s="58" t="s">
+      <c r="G7" s="70" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A8" s="71" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="72" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="73" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="66" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A6" s="67" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6" s="68" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" s="68" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" s="69" t="s">
-        <v>105</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="F6" s="58" t="s">
+      <c r="G8" s="74" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A9" s="71" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="75" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="72" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="73" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="70" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A7" s="67" t="s">
-        <v>106</v>
-      </c>
-      <c r="B7" s="68" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" s="68" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="69" t="s">
-        <v>108</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="F7" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="66" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A8" s="67" t="s">
-        <v>110</v>
-      </c>
-      <c r="B8" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="C8" s="68" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" s="69" t="s">
-        <v>112</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="F8" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="70" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A9" s="67" t="s">
-        <v>113</v>
-      </c>
-      <c r="B9" s="71" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" s="68" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" s="69" t="s">
-        <v>116</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="66" t="s">
-        <v>117</v>
+      <c r="G9" s="70" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" s="72"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
+      <c r="A10" s="76"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" s="72"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
+      <c r="A11" s="76"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4222,22 +4475,22 @@
         <v>11</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" ht="22.100000000000001" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="73" t="s">
-        <v>119</v>
+      <c r="B2" s="77" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A3" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="74" t="str">
+      <c r="A3" s="68" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="78" t="str">
         <f>profiles!$A$10</f>
         <v>guardian</v>
       </c>
@@ -4249,9 +4502,9 @@
     </row>
     <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="75" t="str">
+        <v>91</v>
+      </c>
+      <c r="B4" s="79" t="str">
         <f>profiles!$A$9</f>
         <v>student</v>
       </c>
@@ -4296,23 +4549,23 @@
         <v>11</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" ht="24.350000000000001" customHeight="1">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="77" t="s">
-        <v>121</v>
+      <c r="B2" s="81" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="B3" s="74" t="s">
-        <v>123</v>
+        <v>138</v>
+      </c>
+      <c r="B3" s="78" t="s">
+        <v>139</v>
       </c>
       <c r="C3" s="9"/>
     </row>
@@ -4347,31 +4600,31 @@
         <v>11</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" ht="22.100000000000001" customHeight="1">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="77" t="s">
-        <v>119</v>
+      <c r="B2" s="81" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A3" s="64" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="74" t="str">
+      <c r="A3" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="78" t="str">
         <f>profiles!$A$8</f>
         <v>teacher</v>
       </c>
     </row>
     <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="75" t="str">
+        <v>91</v>
+      </c>
+      <c r="B4" s="79" t="str">
         <f>profiles!$A$9</f>
         <v>student</v>
       </c>
@@ -4393,6 +4646,7 @@
   </sheetPr>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="O1" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B4" xSplit="1" ySplit="3"/>
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -4427,67 +4681,67 @@
         <v>12</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="X1" s="5"/>
       <c r="Y1" s="5"/>
@@ -4507,239 +4761,239 @@
       <c r="AM1" s="5"/>
     </row>
     <row r="2" s="9" customFormat="1" ht="23.600000000000001" customHeight="1">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="E2" s="79" t="s">
-        <v>144</v>
-      </c>
-      <c r="F2" s="79"/>
-      <c r="G2" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="83" t="s">
-        <v>146</v>
-      </c>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="84" t="s">
-        <v>147</v>
-      </c>
-      <c r="R2" s="85"/>
-      <c r="S2" s="85"/>
-      <c r="T2" s="86"/>
-      <c r="U2" s="87" t="s">
-        <v>148</v>
-      </c>
-      <c r="V2" s="88"/>
-      <c r="W2" s="88"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="E2" s="83" t="s">
+        <v>160</v>
+      </c>
+      <c r="F2" s="83"/>
+      <c r="G2" s="84" t="s">
+        <v>161</v>
+      </c>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="87" t="s">
+        <v>162</v>
+      </c>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="88" t="s">
+        <v>163</v>
+      </c>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="90"/>
+      <c r="U2" s="91" t="s">
+        <v>164</v>
+      </c>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
     </row>
     <row r="3" ht="34.100000000000001" customHeight="1">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="90" t="s">
-        <v>149</v>
-      </c>
-      <c r="D3" s="91" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="92" t="s">
-        <v>150</v>
-      </c>
-      <c r="F3" s="93" t="s">
-        <v>151</v>
-      </c>
-      <c r="G3" s="94" t="s">
-        <v>152</v>
-      </c>
-      <c r="H3" s="95" t="s">
-        <v>153</v>
-      </c>
-      <c r="I3" s="96" t="s">
-        <v>154</v>
-      </c>
-      <c r="J3" s="96" t="s">
-        <v>155</v>
-      </c>
-      <c r="K3" s="96" t="s">
-        <v>156</v>
-      </c>
-      <c r="L3" s="96" t="s">
-        <v>157</v>
-      </c>
-      <c r="M3" s="96" t="s">
-        <v>158</v>
-      </c>
-      <c r="N3" s="97" t="s">
-        <v>159</v>
-      </c>
-      <c r="O3" s="98" t="s">
-        <v>157</v>
-      </c>
-      <c r="P3" s="99" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q3" s="100" t="s">
-        <v>160</v>
-      </c>
-      <c r="R3" s="101" t="s">
-        <v>161</v>
-      </c>
-      <c r="S3" s="101" t="s">
-        <v>157</v>
-      </c>
-      <c r="T3" s="101" t="s">
-        <v>158</v>
-      </c>
-      <c r="U3" s="102" t="s">
-        <v>157</v>
-      </c>
-      <c r="V3" s="103" t="s">
-        <v>162</v>
-      </c>
-      <c r="W3" s="104" t="s">
-        <v>163</v>
+      <c r="C3" s="94" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" s="95" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="96" t="s">
+        <v>166</v>
+      </c>
+      <c r="F3" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="G3" s="98" t="s">
+        <v>168</v>
+      </c>
+      <c r="H3" s="99" t="s">
+        <v>169</v>
+      </c>
+      <c r="I3" s="100" t="s">
+        <v>170</v>
+      </c>
+      <c r="J3" s="100" t="s">
+        <v>171</v>
+      </c>
+      <c r="K3" s="100" t="s">
+        <v>172</v>
+      </c>
+      <c r="L3" s="100" t="s">
+        <v>173</v>
+      </c>
+      <c r="M3" s="100" t="s">
+        <v>174</v>
+      </c>
+      <c r="N3" s="101" t="s">
+        <v>175</v>
+      </c>
+      <c r="O3" s="102" t="s">
+        <v>173</v>
+      </c>
+      <c r="P3" s="103" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q3" s="104" t="s">
+        <v>176</v>
+      </c>
+      <c r="R3" s="105" t="s">
+        <v>177</v>
+      </c>
+      <c r="S3" s="105" t="s">
+        <v>173</v>
+      </c>
+      <c r="T3" s="105" t="s">
+        <v>174</v>
+      </c>
+      <c r="U3" s="106" t="s">
+        <v>173</v>
+      </c>
+      <c r="V3" s="107" t="s">
+        <v>178</v>
+      </c>
+      <c r="W3" s="108" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="D4" s="74" t="str">
+        <v>182</v>
+      </c>
+      <c r="D4" s="78" t="str">
         <f>centers!$A$3</f>
         <v>centerA</v>
       </c>
-      <c r="E4" s="61" t="s">
+      <c r="E4" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="58">
+      <c r="F4" s="62">
         <v>0</v>
       </c>
-      <c r="G4" s="58">
+      <c r="G4" s="62">
         <v>5</v>
       </c>
-      <c r="H4" s="58"/>
-      <c r="I4" s="61" t="s">
+      <c r="H4" s="62"/>
+      <c r="I4" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="105"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61" t="s">
+      <c r="J4" s="109"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="58"/>
-      <c r="P4" s="61" t="s">
+      <c r="O4" s="62"/>
+      <c r="P4" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="Q4" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="58" t="s">
+      <c r="R4" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="S4" s="58">
+      <c r="S4" s="62">
         <v>3</v>
       </c>
-      <c r="T4" s="58" t="s">
+      <c r="T4" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="58">
+      <c r="U4" s="62">
         <v>3</v>
       </c>
-      <c r="V4" s="58" t="s">
+      <c r="V4" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="W4" s="58" t="s">
+      <c r="W4" s="62" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" s="9" customFormat="1" ht="28.5">
       <c r="A5" s="10" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D5" s="74" t="str">
+        <v>185</v>
+      </c>
+      <c r="D5" s="78" t="str">
         <f>centers!$A$4</f>
         <v>centerB</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="58">
+      <c r="F5" s="62">
         <v>240</v>
       </c>
-      <c r="G5" s="58">
+      <c r="G5" s="62">
         <v>4</v>
       </c>
-      <c r="H5" s="58">
+      <c r="H5" s="62">
         <v>60</v>
       </c>
-      <c r="I5" s="58" t="s">
+      <c r="I5" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="105" t="s">
-        <v>170</v>
-      </c>
-      <c r="K5" s="58" t="s">
+      <c r="J5" s="109" t="s">
+        <v>186</v>
+      </c>
+      <c r="K5" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="58">
+      <c r="L5" s="62">
         <v>4</v>
       </c>
-      <c r="M5" s="61" t="s">
+      <c r="M5" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="61" t="s">
+      <c r="N5" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="58">
+      <c r="O5" s="62">
         <v>4</v>
       </c>
-      <c r="P5" s="61" t="s">
+      <c r="P5" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="61" t="s">
+      <c r="Q5" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="R5" s="61" t="s">
+      <c r="R5" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="S5" s="58">
+      <c r="S5" s="62">
         <v>3</v>
       </c>
-      <c r="T5" s="58" t="s">
+      <c r="T5" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="U5" s="58">
+      <c r="U5" s="62">
         <v>3</v>
       </c>
-      <c r="V5" s="58" t="s">
+      <c r="V5" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="W5" s="58" t="s">
+      <c r="W5" s="62" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4758,79 +5012,79 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="13" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00C20012-0087-4370-A086-00AF00320063}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{0004009D-0093-4F2B-BDF5-00C400E60061}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>W4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00900010-0065-4553-ABE7-00C5008700D8}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00B60057-00F7-402E-8925-008800F400E1}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>W5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00B80059-0069-4640-9FFB-007D00C800EF}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00CE004C-00FB-4B9C-ABBE-004B00C40032}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>V4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00CD0065-0061-4059-A05F-008700490055}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00A20025-0099-45AE-B651-004F00C2007F}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>V5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00750008-00EA-4FA0-8869-005E00520075}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{005D0058-00F6-4C45-BCBD-00C6009F0045}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>T4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00800098-0094-40AC-AB32-003D00040072}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{007F00D1-0090-4CDF-887D-00CC002100EC}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>T5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00F3006A-00AD-4F2C-993A-00B500FC0009}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00F900F3-002D-4225-9AF7-00F9006100CC}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>R4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00350060-001F-4262-A2FB-00CA005F0067}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{007300B6-0001-4D4A-9CFB-0023000B0061}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>E4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00280060-006F-4D11-A880-00FA003D0046}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{007300E0-0087-4E68-A7D2-00E600030071}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>E5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{000D0037-0028-4FED-BF71-00D400710068}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00660019-002D-4F6C-912F-0077008900A3}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>I4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{003A00BB-0004-490E-B403-009700BE008F}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{000F003E-00A7-4F7C-A198-006C006C0042}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>I5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00B00026-00C5-4B2E-A29D-005100EB0096}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00360064-0097-4245-BEBF-002400DB005E}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>SUBSTAGES_FRECUENCY</xm:f>
           </x14:formula1>
           <xm:sqref>K4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00EB00D7-00D5-4E2C-87E7-0062006300C9}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00DF00F3-0082-4759-AE3C-006C00E40081}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>SUBSTAGES_FRECUENCY</xm:f>
           </x14:formula1>
@@ -4869,83 +5123,83 @@
         <v>12</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" ht="28.5">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="91" t="s">
-        <v>174</v>
-      </c>
-      <c r="D2" s="106" t="s">
-        <v>151</v>
-      </c>
-      <c r="E2" s="106" t="s">
-        <v>175</v>
+      <c r="C2" s="95" t="s">
+        <v>190</v>
+      </c>
+      <c r="D2" s="110" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" s="110" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A3" s="64" t="s">
-        <v>176</v>
+      <c r="A3" s="68" t="s">
+        <v>192</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="C3" s="75" t="str">
+        <v>193</v>
+      </c>
+      <c r="C3" s="79" t="str">
         <f>ap_programs!$A$4</f>
         <v>programA</v>
       </c>
-      <c r="D3" s="58">
+      <c r="D3" s="62">
         <v>0</v>
       </c>
-      <c r="E3" s="58" t="s">
+      <c r="E3" s="62" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A4" s="64" t="s">
-        <v>178</v>
+      <c r="A4" s="68" t="s">
+        <v>194</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="C4" s="75" t="str">
+        <v>193</v>
+      </c>
+      <c r="C4" s="79" t="str">
         <f>ap_programs!$A$5</f>
         <v>programB</v>
       </c>
-      <c r="D4" s="58">
+      <c r="D4" s="62">
         <v>0</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="62" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" ht="19.5" customHeight="1">
-      <c r="A5" s="64" t="s">
-        <v>179</v>
+      <c r="A5" s="68" t="s">
+        <v>195</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="C5" s="75" t="str">
+        <v>196</v>
+      </c>
+      <c r="C5" s="79" t="str">
         <f>ap_programs!$A$4</f>
         <v>programA</v>
       </c>
-      <c r="D5" s="58">
+      <c r="D5" s="62">
         <v>0</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="62" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4957,19 +5211,19 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3" disablePrompts="0">
-        <x14:dataValidation xr:uid="{0046008B-0027-4D50-B669-00BD0023004C}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00DD0041-0095-4F26-8E06-008C00D70099}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>E3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00D10051-0023-454F-B6CA-00E2008600EF}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{003F001F-0041-472C-B338-00DB008E004F}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>E4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00A800BD-004C-404B-9ABE-001B00E700FC}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{009900F6-00C7-4413-8066-00EB00860002}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>

--- a/packages/leemons-plugin-mvp-template/src/bulk/data.xlsx
+++ b/packages/leemons-plugin-mvp-template/src/bulk/data.xlsx
@@ -22,13 +22,14 @@
   <definedNames>
     <definedName name="SUBSTAGES_FRECUENCY" hidden="0">DB!$A$2:$A$8</definedName>
     <definedName name="BOOLEAN_ANSWER" hidden="0">DB!$A$11:$A$12</definedName>
+    <definedName name="GENRE_ANSWER" hidden="0">DB!$A$15:$A$16</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="265">
   <si>
     <t xml:space="preserve">Substages frecuency</t>
   </si>
@@ -63,6 +64,15 @@
     <t>No</t>
   </si>
   <si>
+    <t xml:space="preserve">Genre answer</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
     <t>root</t>
   </si>
   <si>
@@ -138,6 +148,9 @@
     <t>plugins.curriculum</t>
   </si>
   <si>
+    <t>plugins.leebrary</t>
+  </si>
+  <si>
     <t>Users</t>
   </si>
   <si>
@@ -162,6 +175,9 @@
     <t>Curriculum</t>
   </si>
   <si>
+    <t>Library</t>
+  </si>
+  <si>
     <t>users</t>
   </si>
   <si>
@@ -270,9 +286,6 @@
     <t>Schedule</t>
   </si>
   <si>
-    <t>Library</t>
-  </si>
-  <si>
     <t>Ongoing</t>
   </si>
   <si>
@@ -303,6 +316,9 @@
     <t>create</t>
   </si>
   <si>
+    <t>update</t>
+  </si>
+  <si>
     <t>student</t>
   </si>
   <si>
@@ -312,9 +328,6 @@
     <t xml:space="preserve">Profile for students</t>
   </si>
   <si>
-    <t>update</t>
-  </si>
-  <si>
     <t>guardian</t>
   </si>
   <si>
@@ -327,6 +340,9 @@
     <t>surnames</t>
   </si>
   <si>
+    <t>genre</t>
+  </si>
+  <si>
     <t>email</t>
   </si>
   <si>
@@ -334,6 +350,9 @@
   </si>
   <si>
     <t>Surnames</t>
+  </si>
+  <si>
+    <t>Genre</t>
   </si>
   <si>
     <t>Email</t>
@@ -1046,6 +1065,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color theme="0" tint="0"/>
       </left>
@@ -1200,15 +1228,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </right>
@@ -1300,7 +1319,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="123">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1311,6 +1330,9 @@
     <xf fontId="0" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf fontId="1" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf fontId="0" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1335,30 +1357,23 @@
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="1" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="5" fillId="7" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf fontId="5" fillId="7" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="6" fillId="8" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="7" fillId="9" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="8" fillId="10" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="5" fillId="7" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf fontId="6" fillId="8" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="7" fillId="9" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="8" fillId="10" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="9" fillId="11" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="8" fillId="10" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="9" fillId="11" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1367,67 +1382,70 @@
     <xf fontId="9" fillId="11" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="6" fillId="8" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="9" fillId="11" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="6" fillId="8" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf fontId="6" fillId="8" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="7" fillId="9" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="7" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf fontId="1" fillId="7" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="8" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="7" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="9" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="8" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="10" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="9" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="1" fillId="10" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="11" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="10" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="11" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="1" fillId="11" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="11" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="11" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="8" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="8" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="5" fillId="4" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf fontId="5" fillId="4" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="5" fillId="4" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="5" fillId="4" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="6" fillId="12" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="5" fillId="4" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="7" fillId="13" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="6" fillId="12" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="8" fillId="14" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="7" fillId="13" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="8" fillId="14" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="9" fillId="15" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="8" fillId="14" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="9" fillId="15" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1436,42 +1454,51 @@
     <xf fontId="9" fillId="15" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf fontId="9" fillId="15" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="8" fillId="14" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf fontId="10" fillId="16" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="4" fillId="4" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf fontId="4" fillId="4" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="4" fillId="12" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="4" fillId="4" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="4" fillId="13" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="4" fillId="12" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="4" fillId="14" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="4" fillId="13" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="4" fillId="14" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="4" fillId="14" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="4" fillId="15" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf fontId="4" fillId="15" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf fontId="4" fillId="15" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf fontId="4" fillId="15" borderId="18" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="4" fillId="13" borderId="19" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf fontId="4" fillId="14" borderId="19" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf fontId="0" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1481,9 +1508,6 @@
     <xf fontId="0" fillId="0" borderId="20" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="20" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1493,7 +1517,7 @@
     <xf fontId="1" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf fontId="11" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1515,33 +1539,19 @@
       <alignment vertical="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="4" fillId="16" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf fontId="0" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf fontId="1" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="4" fillId="16" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="2" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="16" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    </xf>
+    <xf fontId="4" fillId="16" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf fontId="1" fillId="7" borderId="21" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1568,7 +1578,7 @@
     <xf fontId="1" fillId="17" borderId="24" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="10" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="10" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="1" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1583,40 +1593,40 @@
     <xf fontId="4" fillId="16" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="12" fillId="4" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="12" fillId="4" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="12" fillId="4" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="12" fillId="12" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="12" fillId="12" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="12" fillId="4" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="12" fillId="12" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="12" fillId="13" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="12" fillId="12" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="12" fillId="12" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="12" fillId="13" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="12" fillId="13" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="12" fillId="13" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="12" fillId="18" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="12" fillId="13" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="12" fillId="18" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="12" fillId="14" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="12" fillId="18" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="12" fillId="14" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="12" fillId="14" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="12" fillId="14" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="12" fillId="14" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1628,40 +1638,31 @@
     <xf fontId="4" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="2" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="4" fillId="4" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="4" fillId="4" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="4" fillId="16" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="4" fillId="16" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="4" fillId="4" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="4" fillId="4" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="13" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="16" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="1" fillId="7" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="7" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="7" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="7" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="4" fillId="16" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="4" fillId="16" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="14" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2198,7 +2199,7 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="20.28125"/>
   </cols>
@@ -2215,32 +2216,32 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2250,19 +2251,34 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="14" ht="22.100000000000001" customHeight="1">
+      <c r="A14" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="A15" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="A16" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2279,7 +2295,7 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="14.57421875"/>
     <col customWidth="1" min="3" max="3" width="10.8515625"/>
@@ -2288,96 +2304,96 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>188</v>
+      <c r="A1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="2" ht="28.5">
-      <c r="A2" s="111" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="112" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="D2" s="112" t="s">
-        <v>199</v>
-      </c>
-      <c r="E2" s="112" t="s">
-        <v>200</v>
-      </c>
-      <c r="F2" s="113" t="s">
-        <v>190</v>
-      </c>
-      <c r="G2" s="114" t="s">
-        <v>167</v>
+      <c r="A2" s="108" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="109" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="109" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="109" t="s">
+        <v>205</v>
+      </c>
+      <c r="E2" s="109" t="s">
+        <v>206</v>
+      </c>
+      <c r="F2" s="110" t="s">
+        <v>196</v>
+      </c>
+      <c r="G2" s="111" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1">
-      <c r="A3" s="68" t="s">
-        <v>201</v>
+      <c r="A3" s="11" t="s">
+        <v>207</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="E3" s="115" t="s">
-        <v>205</v>
-      </c>
-      <c r="F3" s="79" t="str">
+        <v>210</v>
+      </c>
+      <c r="E3" s="112" t="s">
+        <v>211</v>
+      </c>
+      <c r="F3" s="77" t="str">
         <f>ap_programs!$A$5</f>
         <v>programB</v>
       </c>
-      <c r="G3" s="62">
+      <c r="G3" s="64">
         <v>0</v>
       </c>
     </row>
     <row r="4" ht="19.5" customHeight="1">
-      <c r="A4" s="68" t="s">
-        <v>206</v>
+      <c r="A4" s="11" t="s">
+        <v>212</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>208</v>
+        <v>213</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>214</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="E4" s="69" t="s">
-        <v>210</v>
-      </c>
-      <c r="F4" s="79" t="str">
+        <v>215</v>
+      </c>
+      <c r="E4" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="F4" s="77" t="str">
         <f>ap_programs!$A$5</f>
         <v>programB</v>
       </c>
-      <c r="G4" s="62">
+      <c r="G4" s="64">
         <v>0</v>
       </c>
     </row>
@@ -2388,7 +2404,7 @@
   </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2421,920 +2437,920 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
-      <c r="A1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="116" t="s">
-        <v>187</v>
-      </c>
-      <c r="D1" s="116" t="s">
-        <v>211</v>
-      </c>
-      <c r="E1" s="116" t="s">
-        <v>142</v>
-      </c>
-      <c r="F1" s="116" t="s">
-        <v>212</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="K1" s="117" t="s">
-        <v>216</v>
-      </c>
-      <c r="L1" s="76"/>
+      <c r="A1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="K1" s="113" t="s">
+        <v>222</v>
+      </c>
+      <c r="L1" s="75"/>
     </row>
     <row r="2" ht="28.850000000000001" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="118" t="s">
-        <v>217</v>
-      </c>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="118"/>
-      <c r="L2" s="76"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="75"/>
     </row>
     <row r="3" ht="31.850000000000001" customHeight="1">
-      <c r="A3" s="111" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="112" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="119" t="s">
-        <v>190</v>
-      </c>
-      <c r="D3" s="94" t="s">
-        <v>218</v>
-      </c>
-      <c r="E3" s="94" t="s">
-        <v>219</v>
-      </c>
-      <c r="F3" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="G3" s="120" t="s">
-        <v>221</v>
-      </c>
-      <c r="H3" s="121" t="s">
-        <v>199</v>
-      </c>
-      <c r="I3" s="121" t="s">
-        <v>222</v>
-      </c>
-      <c r="J3" s="122" t="s">
-        <v>223</v>
-      </c>
-      <c r="K3" s="113" t="s">
+      <c r="A3" s="108" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="109" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="92" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" s="91" t="s">
         <v>224</v>
       </c>
-      <c r="L3" s="123"/>
-    </row>
-    <row r="4" s="9" customFormat="1" ht="30" customHeight="1">
-      <c r="A4" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(L4&lt;10,"0",""),L4)</f>
+      <c r="E3" s="91" t="s">
+        <v>225</v>
+      </c>
+      <c r="F3" s="91" t="s">
+        <v>226</v>
+      </c>
+      <c r="G3" s="114" t="s">
+        <v>227</v>
+      </c>
+      <c r="H3" s="115" t="s">
+        <v>205</v>
+      </c>
+      <c r="I3" s="115" t="s">
+        <v>228</v>
+      </c>
+      <c r="J3" s="116" t="s">
+        <v>229</v>
+      </c>
+      <c r="K3" s="110" t="s">
+        <v>230</v>
+      </c>
+      <c r="L3" s="117"/>
+    </row>
+    <row r="4" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A4" s="11" t="str">
+        <f t="shared" ref="A4:A9" si="0">_xlfn.CONCAT("subject",IF(L4&lt;10,"0",""),L4)</f>
         <v>subject01</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="C4" s="79" t="str">
+      <c r="B4" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4" s="77" t="str">
         <f>ap_programs!A4</f>
         <v>programA</v>
       </c>
-      <c r="D4" s="62">
+      <c r="D4" s="64">
         <v>1</v>
       </c>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62" t="str">
-        <f>_xlfn.CONCAT("0",IF(L4&lt;10,"0",""),L4)</f>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64" t="str">
+        <f t="shared" ref="F4:F9" si="1">_xlfn.CONCAT("0",IF(L4&lt;10,"0",""),L4)</f>
         <v>001</v>
       </c>
-      <c r="G4" s="124" t="s">
-        <v>226</v>
-      </c>
-      <c r="H4" s="125" t="s">
-        <v>227</v>
-      </c>
-      <c r="I4" s="62"/>
-      <c r="J4" s="126" t="str">
+      <c r="G4" s="118" t="s">
+        <v>232</v>
+      </c>
+      <c r="H4" s="119" t="s">
+        <v>233</v>
+      </c>
+      <c r="I4" s="64"/>
+      <c r="J4" s="120" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K4" s="127" t="s">
-        <v>228</v>
-      </c>
-      <c r="L4" s="128">
+      <c r="K4" s="121" t="s">
+        <v>234</v>
+      </c>
+      <c r="L4" s="122">
         <v>1</v>
       </c>
-      <c r="M4" s="9"/>
-    </row>
-    <row r="5" s="9" customFormat="1" ht="30" customHeight="1">
-      <c r="A5" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(L5&lt;10,"0",""),L5)</f>
+      <c r="M4" s="10"/>
+    </row>
+    <row r="5" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A5" s="11" t="str">
+        <f t="shared" si="0"/>
         <v>subject02</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="C5" s="79" t="str">
-        <f>C4</f>
+      <c r="B5" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="C5" s="77" t="str">
+        <f t="shared" ref="C5:C10" si="2">C4</f>
         <v>programA</v>
       </c>
-      <c r="D5" s="62">
+      <c r="D5" s="64">
         <v>1</v>
       </c>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62" t="str">
-        <f>_xlfn.CONCAT("0",IF(L5&lt;10,"0",""),L5)</f>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64" t="str">
+        <f t="shared" si="1"/>
         <v>002</v>
       </c>
-      <c r="G5" s="124" t="str">
-        <f>G4</f>
+      <c r="G5" s="118" t="str">
+        <f t="shared" ref="G5:G10" si="3">G4</f>
         <v xml:space="preserve">Group A|G1A, Group B|G1B</v>
       </c>
-      <c r="H5" s="125" t="str">
-        <f>H4</f>
+      <c r="H5" s="119" t="str">
+        <f t="shared" ref="H5:H10" si="4">H4</f>
         <v>#FFEB9C</v>
       </c>
-      <c r="I5" s="62"/>
-      <c r="J5" s="126" t="str">
+      <c r="I5" s="64"/>
+      <c r="J5" s="120" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K5" s="127" t="str">
-        <f>K4</f>
+      <c r="K5" s="121" t="str">
+        <f t="shared" ref="K5:K10" si="5">K4</f>
         <v xml:space="preserve">teacher01|main@G1A, teacher01|main@G1B</v>
       </c>
-      <c r="L5" s="128">
-        <f>L4+1</f>
+      <c r="L5" s="122">
+        <f t="shared" ref="L5:L10" si="6">L4+1</f>
         <v>2</v>
       </c>
-      <c r="M5" s="9"/>
-    </row>
-    <row r="6" s="9" customFormat="1" ht="30" customHeight="1">
-      <c r="A6" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(L6&lt;10,"0",""),L6)</f>
+      <c r="M5" s="10"/>
+    </row>
+    <row r="6" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A6" s="11" t="str">
+        <f t="shared" si="0"/>
         <v>subject03</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="C6" s="79" t="str">
-        <f>C5</f>
+      <c r="B6" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" s="77" t="str">
+        <f t="shared" si="2"/>
         <v>programA</v>
       </c>
-      <c r="D6" s="62">
+      <c r="D6" s="64">
         <v>1</v>
       </c>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62" t="str">
-        <f>_xlfn.CONCAT("0",IF(L6&lt;10,"0",""),L6)</f>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64" t="str">
+        <f t="shared" si="1"/>
         <v>003</v>
       </c>
-      <c r="G6" s="124" t="str">
-        <f>G5</f>
+      <c r="G6" s="118" t="str">
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Group A|G1A, Group B|G1B</v>
       </c>
-      <c r="H6" s="125" t="str">
-        <f>H5</f>
+      <c r="H6" s="119" t="str">
+        <f t="shared" si="4"/>
         <v>#FFEB9C</v>
       </c>
-      <c r="I6" s="62"/>
-      <c r="J6" s="126" t="str">
+      <c r="I6" s="64"/>
+      <c r="J6" s="120" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K6" s="127" t="str">
-        <f>K5</f>
+      <c r="K6" s="121" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">teacher01|main@G1A, teacher01|main@G1B</v>
       </c>
-      <c r="L6" s="128">
-        <f>L5+1</f>
+      <c r="L6" s="122">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="M6" s="9"/>
-    </row>
-    <row r="7" s="9" customFormat="1" ht="30" customHeight="1">
-      <c r="A7" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(L7&lt;10,"0",""),L7)</f>
+      <c r="M6" s="10"/>
+    </row>
+    <row r="7" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A7" s="11" t="str">
+        <f t="shared" si="0"/>
         <v>subject04</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="C7" s="79" t="str">
-        <f>C6</f>
+      <c r="B7" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C7" s="77" t="str">
+        <f t="shared" si="2"/>
         <v>programA</v>
       </c>
-      <c r="D7" s="62">
+      <c r="D7" s="64">
         <v>1</v>
       </c>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62" t="str">
-        <f>_xlfn.CONCAT("0",IF(L7&lt;10,"0",""),L7)</f>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64" t="str">
+        <f t="shared" si="1"/>
         <v>004</v>
       </c>
-      <c r="G7" s="124" t="str">
-        <f>G6</f>
+      <c r="G7" s="118" t="str">
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Group A|G1A, Group B|G1B</v>
       </c>
-      <c r="H7" s="125" t="str">
-        <f>H6</f>
+      <c r="H7" s="119" t="str">
+        <f t="shared" si="4"/>
         <v>#FFEB9C</v>
       </c>
-      <c r="I7" s="62"/>
-      <c r="J7" s="126" t="str">
+      <c r="I7" s="64"/>
+      <c r="J7" s="120" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="K7" s="127" t="str">
-        <f>K6</f>
+      <c r="K7" s="121" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">teacher01|main@G1A, teacher01|main@G1B</v>
       </c>
-      <c r="L7" s="128">
-        <f>L6+1</f>
+      <c r="L7" s="122">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="M7" s="9"/>
+      <c r="M7" s="10"/>
     </row>
     <row r="8" ht="30" customHeight="1">
-      <c r="A8" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(L8&lt;10,"0",""),L8)</f>
+      <c r="A8" s="11" t="str">
+        <f t="shared" si="0"/>
         <v>subject05</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="C8" s="79" t="str">
-        <f>C7</f>
+      <c r="B8" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C8" s="77" t="str">
+        <f t="shared" si="2"/>
         <v>programA</v>
       </c>
-      <c r="D8" s="62">
+      <c r="D8" s="64">
         <v>2</v>
       </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62" t="str">
-        <f>_xlfn.CONCAT("0",IF(L8&lt;10,"0",""),L8)</f>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64" t="str">
+        <f t="shared" si="1"/>
         <v>005</v>
       </c>
-      <c r="G8" s="124" t="s">
-        <v>233</v>
-      </c>
-      <c r="H8" s="125" t="str">
-        <f>H7</f>
+      <c r="G8" s="118" t="s">
+        <v>239</v>
+      </c>
+      <c r="H8" s="119" t="str">
+        <f t="shared" si="4"/>
         <v>#FFEB9C</v>
       </c>
-      <c r="I8" s="62"/>
-      <c r="J8" s="126" t="str">
+      <c r="I8" s="64"/>
+      <c r="J8" s="120" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K8" s="127" t="s">
-        <v>234</v>
-      </c>
-      <c r="L8" s="128">
-        <f>L7+1</f>
+      <c r="K8" s="121" t="s">
+        <v>240</v>
+      </c>
+      <c r="L8" s="122">
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
     <row r="9" ht="30" customHeight="1">
-      <c r="A9" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(L9&lt;10,"0",""),L9)</f>
+      <c r="A9" s="11" t="str">
+        <f t="shared" si="0"/>
         <v>subject06</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="C9" s="79" t="str">
-        <f>C8</f>
+      <c r="B9" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="C9" s="77" t="str">
+        <f t="shared" si="2"/>
         <v>programA</v>
       </c>
-      <c r="D9" s="62">
+      <c r="D9" s="64">
         <v>2</v>
       </c>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62" t="str">
-        <f>_xlfn.CONCAT("0",IF(L9&lt;10,"0",""),L9)</f>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64" t="str">
+        <f t="shared" si="1"/>
         <v>006</v>
       </c>
-      <c r="G9" s="124" t="str">
-        <f>G8</f>
+      <c r="G9" s="118" t="str">
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Group A|G2A, Group B|G2B</v>
       </c>
-      <c r="H9" s="125" t="s">
-        <v>236</v>
-      </c>
-      <c r="I9" s="62"/>
-      <c r="J9" s="126" t="str">
+      <c r="H9" s="119" t="s">
+        <v>242</v>
+      </c>
+      <c r="I9" s="64"/>
+      <c r="J9" s="120" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K9" s="127" t="str">
-        <f>K8</f>
+      <c r="K9" s="121" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">teacher01|main@G2A, teacher01|main@G2B</v>
       </c>
-      <c r="L9" s="128">
-        <f>L8+1</f>
+      <c r="L9" s="122">
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
     <row r="10" ht="30" customHeight="1">
-      <c r="A10" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(L10&lt;10,"0",""),L10)</f>
+      <c r="A10" s="11" t="str">
+        <f t="shared" ref="A10:A23" si="7">_xlfn.CONCAT("subject",IF(L10&lt;10,"0",""),L10)</f>
         <v>subject07</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="C10" s="79" t="str">
-        <f>C9</f>
+      <c r="B10" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C10" s="77" t="str">
+        <f t="shared" si="2"/>
         <v>programA</v>
       </c>
-      <c r="D10" s="62">
+      <c r="D10" s="64">
         <v>2</v>
       </c>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62" t="str">
-        <f>_xlfn.CONCAT("0",IF(L10&lt;10,"0",""),L10)</f>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64" t="str">
+        <f t="shared" ref="F10:F23" si="8">_xlfn.CONCAT("0",IF(L10&lt;10,"0",""),L10)</f>
         <v>007</v>
       </c>
-      <c r="G10" s="124" t="str">
-        <f>G9</f>
+      <c r="G10" s="118" t="str">
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Group A|G2A, Group B|G2B</v>
       </c>
-      <c r="H10" s="125" t="str">
-        <f>H9</f>
+      <c r="H10" s="119" t="str">
+        <f t="shared" si="4"/>
         <v>#FFC7CE</v>
       </c>
-      <c r="I10" s="62"/>
-      <c r="J10" s="126" t="str">
+      <c r="I10" s="64"/>
+      <c r="J10" s="120" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K10" s="127" t="str">
-        <f>K9</f>
+      <c r="K10" s="121" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">teacher01|main@G2A, teacher01|main@G2B</v>
       </c>
-      <c r="L10" s="128">
-        <f>L9+1</f>
+      <c r="L10" s="122">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
     </row>
     <row r="11" ht="30" customHeight="1">
-      <c r="A11" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(L11&lt;10,"0",""),L11)</f>
+      <c r="A11" s="11" t="str">
+        <f t="shared" si="7"/>
         <v>subject08</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="C11" s="79" t="str">
-        <f>C10</f>
+      <c r="B11" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="C11" s="77" t="str">
+        <f t="shared" ref="C11:C23" si="9">C10</f>
         <v>programA</v>
       </c>
-      <c r="D11" s="62">
+      <c r="D11" s="64">
         <v>2</v>
       </c>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62" t="str">
-        <f>_xlfn.CONCAT("0",IF(L11&lt;10,"0",""),L11)</f>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64" t="str">
+        <f t="shared" si="8"/>
         <v>008</v>
       </c>
-      <c r="G11" s="124" t="str">
+      <c r="G11" s="118" t="str">
         <f>G10</f>
         <v xml:space="preserve">Group A|G2A, Group B|G2B</v>
       </c>
-      <c r="H11" s="125" t="str">
-        <f>H10</f>
+      <c r="H11" s="119" t="str">
+        <f t="shared" ref="H11:H18" si="10">H10</f>
         <v>#FFC7CE</v>
       </c>
-      <c r="I11" s="62"/>
-      <c r="J11" s="126" t="str">
+      <c r="I11" s="64"/>
+      <c r="J11" s="120" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="K11" s="127" t="str">
+      <c r="K11" s="121" t="str">
         <f>K10</f>
         <v xml:space="preserve">teacher01|main@G2A, teacher01|main@G2B</v>
       </c>
-      <c r="L11" s="128">
-        <f>L10+1</f>
+      <c r="L11" s="122">
+        <f t="shared" ref="L11:L23" si="11">L10+1</f>
         <v>8</v>
       </c>
     </row>
     <row r="12" ht="30" customHeight="1">
-      <c r="A12" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(L12&lt;10,"0",""),L12)</f>
+      <c r="A12" s="11" t="str">
+        <f t="shared" si="7"/>
         <v>subject09</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="C12" s="79" t="str">
-        <f>C11</f>
+      <c r="B12" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="C12" s="77" t="str">
+        <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D12" s="62">
+      <c r="D12" s="64">
         <v>3</v>
       </c>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62" t="str">
-        <f>_xlfn.CONCAT("0",IF(L12&lt;10,"0",""),L12)</f>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64" t="str">
+        <f t="shared" si="8"/>
         <v>009</v>
       </c>
-      <c r="G12" s="124" t="s">
-        <v>240</v>
-      </c>
-      <c r="H12" s="125" t="str">
-        <f>H11</f>
+      <c r="G12" s="118" t="s">
+        <v>246</v>
+      </c>
+      <c r="H12" s="119" t="str">
+        <f t="shared" si="10"/>
         <v>#FFC7CE</v>
       </c>
-      <c r="I12" s="62"/>
-      <c r="J12" s="126" t="str">
+      <c r="I12" s="64"/>
+      <c r="J12" s="120" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K12" s="127" t="s">
-        <v>241</v>
-      </c>
-      <c r="L12" s="128">
-        <f>L11+1</f>
+      <c r="K12" s="121" t="s">
+        <v>247</v>
+      </c>
+      <c r="L12" s="122">
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
     </row>
     <row r="13" ht="30" customHeight="1">
-      <c r="A13" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(L13&lt;10,"0",""),L13)</f>
+      <c r="A13" s="11" t="str">
+        <f t="shared" si="7"/>
         <v>subject10</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="C13" s="79" t="str">
-        <f>C12</f>
+      <c r="B13" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="C13" s="77" t="str">
+        <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D13" s="62">
+      <c r="D13" s="64">
         <v>3</v>
       </c>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62" t="str">
-        <f>_xlfn.CONCAT("0",IF(L13&lt;10,"0",""),L13)</f>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64" t="str">
+        <f t="shared" si="8"/>
         <v>010</v>
       </c>
-      <c r="G13" s="124" t="str">
-        <f>G12</f>
+      <c r="G13" s="118" t="str">
+        <f t="shared" ref="G13:G23" si="12">G12</f>
         <v xml:space="preserve">Group A|G3A, Group B|G3B</v>
       </c>
-      <c r="H13" s="125" t="str">
-        <f>H12</f>
+      <c r="H13" s="119" t="str">
+        <f t="shared" si="10"/>
         <v>#FFC7CE</v>
       </c>
-      <c r="I13" s="62"/>
-      <c r="J13" s="126" t="str">
+      <c r="I13" s="64"/>
+      <c r="J13" s="120" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K13" s="127" t="str">
-        <f>K12</f>
+      <c r="K13" s="121" t="str">
+        <f t="shared" ref="K13:K23" si="13">K12</f>
         <v xml:space="preserve">teacher01|main@G3A, teacher01|main@G3B</v>
       </c>
-      <c r="L13" s="128">
-        <f>L12+1</f>
+      <c r="L13" s="122">
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
     </row>
     <row r="14" ht="30" customHeight="1">
-      <c r="A14" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(L14&lt;10,"0",""),L14)</f>
+      <c r="A14" s="11" t="str">
+        <f t="shared" si="7"/>
         <v>subject11</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C14" s="79" t="str">
-        <f>C13</f>
+      <c r="B14" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="C14" s="77" t="str">
+        <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D14" s="62">
+      <c r="D14" s="64">
         <v>3</v>
       </c>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62" t="str">
-        <f>_xlfn.CONCAT("0",IF(L14&lt;10,"0",""),L14)</f>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64" t="str">
+        <f t="shared" si="8"/>
         <v>011</v>
       </c>
-      <c r="G14" s="124" t="str">
-        <f>G13</f>
+      <c r="G14" s="118" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve">Group A|G3A, Group B|G3B</v>
       </c>
-      <c r="H14" s="125" t="s">
-        <v>244</v>
-      </c>
-      <c r="I14" s="62"/>
-      <c r="J14" s="126" t="str">
+      <c r="H14" s="119" t="s">
+        <v>250</v>
+      </c>
+      <c r="I14" s="64"/>
+      <c r="J14" s="120" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K14" s="127" t="str">
-        <f>K13</f>
+      <c r="K14" s="121" t="str">
+        <f t="shared" si="13"/>
         <v xml:space="preserve">teacher01|main@G3A, teacher01|main@G3B</v>
       </c>
-      <c r="L14" s="128">
-        <f>L13+1</f>
+      <c r="L14" s="122">
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
     </row>
     <row r="15" ht="30" customHeight="1">
-      <c r="A15" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(L15&lt;10,"0",""),L15)</f>
+      <c r="A15" s="11" t="str">
+        <f t="shared" si="7"/>
         <v>subject12</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="C15" s="79" t="str">
-        <f>C14</f>
+      <c r="B15" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="C15" s="77" t="str">
+        <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D15" s="62">
+      <c r="D15" s="64">
         <v>3</v>
       </c>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62" t="str">
-        <f>_xlfn.CONCAT("0",IF(L15&lt;10,"0",""),L15)</f>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64" t="str">
+        <f t="shared" si="8"/>
         <v>012</v>
       </c>
-      <c r="G15" s="124" t="str">
-        <f>G14</f>
+      <c r="G15" s="118" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve">Group A|G3A, Group B|G3B</v>
       </c>
-      <c r="H15" s="125" t="str">
-        <f>H14</f>
+      <c r="H15" s="119" t="str">
+        <f t="shared" si="10"/>
         <v>#C6EFCD</v>
       </c>
-      <c r="I15" s="62"/>
-      <c r="J15" s="126" t="str">
+      <c r="I15" s="64"/>
+      <c r="J15" s="120" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="K15" s="127" t="str">
-        <f>K14</f>
+      <c r="K15" s="121" t="str">
+        <f t="shared" si="13"/>
         <v xml:space="preserve">teacher01|main@G3A, teacher01|main@G3B</v>
       </c>
-      <c r="L15" s="128">
-        <f>L14+1</f>
+      <c r="L15" s="122">
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
     </row>
     <row r="16" ht="30" customHeight="1">
-      <c r="A16" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(L16&lt;10,"0",""),L16)</f>
+      <c r="A16" s="11" t="str">
+        <f t="shared" si="7"/>
         <v>subject13</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="C16" s="79" t="str">
-        <f>C15</f>
+      <c r="B16" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="C16" s="77" t="str">
+        <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D16" s="62">
+      <c r="D16" s="64">
         <v>4</v>
       </c>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62" t="str">
-        <f>_xlfn.CONCAT("0",IF(L16&lt;10,"0",""),L16)</f>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64" t="str">
+        <f t="shared" si="8"/>
         <v>013</v>
       </c>
-      <c r="G16" s="124" t="s">
-        <v>247</v>
-      </c>
-      <c r="H16" s="125" t="str">
-        <f>H15</f>
+      <c r="G16" s="118" t="s">
+        <v>253</v>
+      </c>
+      <c r="H16" s="119" t="str">
+        <f t="shared" si="10"/>
         <v>#C6EFCD</v>
       </c>
-      <c r="I16" s="62"/>
-      <c r="J16" s="126" t="str">
+      <c r="I16" s="64"/>
+      <c r="J16" s="120" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K16" s="127" t="s">
-        <v>248</v>
-      </c>
-      <c r="L16" s="128">
-        <f>L15+1</f>
+      <c r="K16" s="121" t="s">
+        <v>254</v>
+      </c>
+      <c r="L16" s="122">
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
     </row>
     <row r="17" ht="30" customHeight="1">
-      <c r="A17" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(L17&lt;10,"0",""),L17)</f>
+      <c r="A17" s="11" t="str">
+        <f t="shared" si="7"/>
         <v>subject14</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="C17" s="79" t="str">
-        <f>C16</f>
+      <c r="B17" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C17" s="77" t="str">
+        <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D17" s="62">
+      <c r="D17" s="64">
         <v>4</v>
       </c>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62" t="str">
-        <f>_xlfn.CONCAT("0",IF(L17&lt;10,"0",""),L17)</f>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64" t="str">
+        <f t="shared" si="8"/>
         <v>014</v>
       </c>
-      <c r="G17" s="124" t="str">
-        <f>G16</f>
+      <c r="G17" s="118" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve">Group A|G4A, Group B|G4B</v>
       </c>
-      <c r="H17" s="125" t="str">
-        <f>H16</f>
+      <c r="H17" s="119" t="str">
+        <f t="shared" si="10"/>
         <v>#C6EFCD</v>
       </c>
-      <c r="I17" s="62"/>
-      <c r="J17" s="126" t="str">
+      <c r="I17" s="64"/>
+      <c r="J17" s="120" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K17" s="127" t="str">
-        <f>K16</f>
+      <c r="K17" s="121" t="str">
+        <f t="shared" si="13"/>
         <v xml:space="preserve">teacher01|main@G4A, teacher01|main@G4B</v>
       </c>
-      <c r="L17" s="128">
-        <f>L16+1</f>
+      <c r="L17" s="122">
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
     </row>
     <row r="18" ht="30" customHeight="1">
-      <c r="A18" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(L18&lt;10,"0",""),L18)</f>
+      <c r="A18" s="11" t="str">
+        <f t="shared" si="7"/>
         <v>subject15</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="C18" s="79" t="str">
-        <f>C17</f>
+      <c r="B18" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="C18" s="77" t="str">
+        <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D18" s="62">
+      <c r="D18" s="64">
         <v>4</v>
       </c>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62" t="str">
-        <f>_xlfn.CONCAT("0",IF(L18&lt;10,"0",""),L18)</f>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64" t="str">
+        <f t="shared" si="8"/>
         <v>015</v>
       </c>
-      <c r="G18" s="124" t="str">
-        <f>G17</f>
+      <c r="G18" s="118" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve">Group A|G4A, Group B|G4B</v>
       </c>
-      <c r="H18" s="125" t="str">
-        <f>H17</f>
+      <c r="H18" s="119" t="str">
+        <f t="shared" si="10"/>
         <v>#C6EFCD</v>
       </c>
-      <c r="I18" s="62"/>
-      <c r="J18" s="126" t="str">
+      <c r="I18" s="64"/>
+      <c r="J18" s="120" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K18" s="127" t="str">
-        <f>K17</f>
+      <c r="K18" s="121" t="str">
+        <f t="shared" si="13"/>
         <v xml:space="preserve">teacher01|main@G4A, teacher01|main@G4B</v>
       </c>
-      <c r="L18" s="128">
-        <f>L17+1</f>
+      <c r="L18" s="122">
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
     </row>
     <row r="19" ht="30" customHeight="1">
-      <c r="A19" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(L19&lt;10,"0",""),L19)</f>
+      <c r="A19" s="11" t="str">
+        <f t="shared" si="7"/>
         <v>subject16</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="C19" s="79" t="str">
-        <f>C18</f>
+      <c r="B19" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C19" s="77" t="str">
+        <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D19" s="62">
+      <c r="D19" s="64">
         <v>4</v>
       </c>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62" t="str">
-        <f>_xlfn.CONCAT("0",IF(L19&lt;10,"0",""),L19)</f>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64" t="str">
+        <f t="shared" si="8"/>
         <v>016</v>
       </c>
-      <c r="G19" s="124" t="str">
-        <f>G18</f>
+      <c r="G19" s="118" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve">Group A|G4A, Group B|G4B</v>
       </c>
-      <c r="H19" s="125" t="s">
-        <v>252</v>
-      </c>
-      <c r="I19" s="62"/>
-      <c r="J19" s="126" t="str">
+      <c r="H19" s="119" t="s">
+        <v>258</v>
+      </c>
+      <c r="I19" s="64"/>
+      <c r="J19" s="120" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="K19" s="127" t="str">
-        <f>K18</f>
+      <c r="K19" s="121" t="str">
+        <f t="shared" si="13"/>
         <v xml:space="preserve">teacher01|main@G4A, teacher01|main@G4B</v>
       </c>
-      <c r="L19" s="128">
-        <f>L18+1</f>
+      <c r="L19" s="122">
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
     </row>
     <row r="20" ht="30" customHeight="1">
-      <c r="A20" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(L20&lt;10,"0",""),L20)</f>
+      <c r="A20" s="11" t="str">
+        <f t="shared" si="7"/>
         <v>subject17</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="C20" s="79" t="str">
-        <f>C19</f>
+      <c r="B20" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C20" s="77" t="str">
+        <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D20" s="62">
+      <c r="D20" s="64">
         <v>5</v>
       </c>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62" t="str">
-        <f>_xlfn.CONCAT("0",IF(L20&lt;10,"0",""),L20)</f>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64" t="str">
+        <f t="shared" si="8"/>
         <v>017</v>
       </c>
-      <c r="G20" s="124" t="s">
-        <v>254</v>
-      </c>
-      <c r="H20" s="125" t="s">
-        <v>252</v>
-      </c>
-      <c r="I20" s="62"/>
-      <c r="J20" s="126" t="str">
+      <c r="G20" s="118" t="s">
+        <v>260</v>
+      </c>
+      <c r="H20" s="119" t="s">
+        <v>258</v>
+      </c>
+      <c r="I20" s="64"/>
+      <c r="J20" s="120" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K20" s="127" t="s">
-        <v>255</v>
-      </c>
-      <c r="L20" s="128">
-        <f>L19+1</f>
+      <c r="K20" s="121" t="s">
+        <v>261</v>
+      </c>
+      <c r="L20" s="122">
+        <f t="shared" si="11"/>
         <v>17</v>
       </c>
     </row>
     <row r="21" ht="30" customHeight="1">
-      <c r="A21" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(L21&lt;10,"0",""),L21)</f>
+      <c r="A21" s="11" t="str">
+        <f t="shared" si="7"/>
         <v>subject18</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="C21" s="79" t="str">
-        <f>C20</f>
+      <c r="B21" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="C21" s="77" t="str">
+        <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D21" s="62">
+      <c r="D21" s="64">
         <v>5</v>
       </c>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62" t="str">
-        <f>_xlfn.CONCAT("0",IF(L21&lt;10,"0",""),L21)</f>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64" t="str">
+        <f t="shared" si="8"/>
         <v>018</v>
       </c>
-      <c r="G21" s="124" t="str">
-        <f>G20</f>
+      <c r="G21" s="118" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve">Group A|G5A, Group B|G5B</v>
       </c>
-      <c r="H21" s="125" t="s">
-        <v>252</v>
-      </c>
-      <c r="I21" s="62"/>
-      <c r="J21" s="126" t="str">
+      <c r="H21" s="119" t="s">
+        <v>258</v>
+      </c>
+      <c r="I21" s="64"/>
+      <c r="J21" s="120" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K21" s="127" t="str">
-        <f>K20</f>
+      <c r="K21" s="121" t="str">
+        <f t="shared" si="13"/>
         <v xml:space="preserve">teacher01|main@G5A, teacher01|main@G5B</v>
       </c>
-      <c r="L21" s="128">
-        <f>L20+1</f>
+      <c r="L21" s="122">
+        <f t="shared" si="11"/>
         <v>18</v>
       </c>
     </row>
     <row r="22" ht="30" customHeight="1">
-      <c r="A22" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(L22&lt;10,"0",""),L22)</f>
+      <c r="A22" s="11" t="str">
+        <f t="shared" si="7"/>
         <v>subject19</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="C22" s="79" t="str">
-        <f>C21</f>
+      <c r="B22" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="C22" s="77" t="str">
+        <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D22" s="62">
+      <c r="D22" s="64">
         <v>5</v>
       </c>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62" t="str">
-        <f>_xlfn.CONCAT("0",IF(L22&lt;10,"0",""),L22)</f>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64" t="str">
+        <f t="shared" si="8"/>
         <v>019</v>
       </c>
-      <c r="G22" s="124" t="str">
-        <f>G21</f>
+      <c r="G22" s="118" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve">Group A|G5A, Group B|G5B</v>
       </c>
-      <c r="H22" s="125" t="s">
-        <v>252</v>
-      </c>
-      <c r="I22" s="62"/>
-      <c r="J22" s="126" t="str">
+      <c r="H22" s="119" t="s">
+        <v>258</v>
+      </c>
+      <c r="I22" s="64"/>
+      <c r="J22" s="120" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K22" s="127" t="str">
-        <f>K21</f>
+      <c r="K22" s="121" t="str">
+        <f t="shared" si="13"/>
         <v xml:space="preserve">teacher01|main@G5A, teacher01|main@G5B</v>
       </c>
-      <c r="L22" s="128">
-        <f>L21+1</f>
+      <c r="L22" s="122">
+        <f t="shared" si="11"/>
         <v>19</v>
       </c>
     </row>
     <row r="23" ht="30" customHeight="1">
-      <c r="A23" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(L23&lt;10,"0",""),L23)</f>
+      <c r="A23" s="11" t="str">
+        <f t="shared" si="7"/>
         <v>subject20</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C23" s="77" t="str">
+        <f t="shared" si="9"/>
+        <v>programA</v>
+      </c>
+      <c r="D23" s="64">
+        <v>5</v>
+      </c>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64" t="str">
+        <f t="shared" si="8"/>
+        <v>020</v>
+      </c>
+      <c r="G23" s="118" t="str">
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">Group A|G5A, Group B|G5B</v>
+      </c>
+      <c r="H23" s="119" t="s">
         <v>258</v>
       </c>
-      <c r="C23" s="79" t="str">
-        <f>C22</f>
-        <v>programA</v>
-      </c>
-      <c r="D23" s="62">
-        <v>5</v>
-      </c>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62" t="str">
-        <f>_xlfn.CONCAT("0",IF(L23&lt;10,"0",""),L23)</f>
-        <v>020</v>
-      </c>
-      <c r="G23" s="124" t="str">
-        <f>G22</f>
-        <v xml:space="preserve">Group A|G5A, Group B|G5B</v>
-      </c>
-      <c r="H23" s="125" t="s">
-        <v>252</v>
-      </c>
-      <c r="I23" s="62"/>
-      <c r="J23" s="126" t="str">
+      <c r="I23" s="64"/>
+      <c r="J23" s="120" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="K23" s="127" t="str">
-        <f>K22</f>
+      <c r="K23" s="121" t="str">
+        <f t="shared" si="13"/>
         <v xml:space="preserve">teacher01|main@G5A, teacher01|main@G5B</v>
       </c>
-      <c r="L23" s="128">
-        <f>L22+1</f>
+      <c r="L23" s="122">
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
     </row>
     <row r="24" ht="14.25">
-      <c r="L24" s="76"/>
+      <c r="L24" s="75"/>
     </row>
     <row r="25" ht="14.25"/>
   </sheetData>
@@ -3343,7 +3359,7 @@
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -3355,11 +3371,11 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -3383,59 +3399,59 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
-      <c r="A1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="B1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2" ht="19.5" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A3" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C2" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="D2" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>23</v>
+      </c>
       <c r="C3" s="12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A4" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A4" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>25</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -3473,20 +3489,21 @@
     <col customWidth="1" min="20" max="21" width="14.7109375"/>
     <col customWidth="1" min="22" max="22" width="14.421875"/>
     <col customWidth="1" min="28" max="28" width="15.00390625"/>
+    <col customWidth="1" min="29" max="29" width="17.140625"/>
   </cols>
   <sheetData>
     <row r="1" s="13" customFormat="1" ht="14.25">
       <c r="A1" s="13" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E1" s="13" t="str">
         <f>_xlfn.CONCAT($E$3,".",E5)</f>
@@ -3536,23 +3553,23 @@
         <f>_xlfn.CONCAT($P$3,".",P5)</f>
         <v>plugins.families.families</v>
       </c>
-      <c r="Q1" s="14" t="str">
+      <c r="Q1" s="13" t="str">
         <f>_xlfn.CONCAT($P$3,".",Q5)</f>
         <v>plugins.families.config</v>
       </c>
-      <c r="R1" s="14" t="str">
+      <c r="R1" s="13" t="str">
         <f>_xlfn.CONCAT($P$3,".",R5)</f>
         <v>plugins.families.families-basic-info</v>
       </c>
-      <c r="S1" s="14" t="str">
+      <c r="S1" s="13" t="str">
         <f>_xlfn.CONCAT($P$3,".",S5)</f>
         <v>plugins.families.families-custom-info</v>
       </c>
-      <c r="T1" s="14" t="str">
+      <c r="T1" s="13" t="str">
         <f>_xlfn.CONCAT($P$3,".",T5)</f>
         <v>plugins.families.families-guardians-info</v>
       </c>
-      <c r="U1" s="14" t="str">
+      <c r="U1" s="13" t="str">
         <f>_xlfn.CONCAT($P$3,".",U5)</f>
         <v>plugins.families.families-students-info</v>
       </c>
@@ -3584,82 +3601,90 @@
         <f>_xlfn.CONCAT($AB$3,".",AB5)</f>
         <v>plugins.curriculum.curriculum</v>
       </c>
-    </row>
-    <row r="2" s="9" customFormat="1" ht="21.350000000000001" customHeight="1">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
+      <c r="AC1" s="13" t="str">
+        <f>_xlfn.CONCAT($AC$3,".",AC5)</f>
+        <v>plugins.leebrary.library</v>
+      </c>
+    </row>
+    <row r="2" s="10" customFormat="1" ht="21.350000000000001" customHeight="1">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
     </row>
     <row r="3" ht="14.25">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="21" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="23" t="s">
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="17" t="s">
+      <c r="J3" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="W3" s="18"/>
-      <c r="X3" s="26" t="s">
+      <c r="K3" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="20" t="s">
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="22" t="s">
         <v>35</v>
+      </c>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="W3" s="17"/>
+      <c r="X3" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC3" s="20" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" s="28" customFormat="1" ht="19.850000000000001" customHeight="1">
@@ -3667,26 +3692,26 @@
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="29" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F4" s="30"/>
       <c r="G4" s="30"/>
       <c r="H4" s="30"/>
       <c r="I4" s="31" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J4" s="32" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K4" s="33" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L4" s="34"/>
       <c r="M4" s="34"/>
       <c r="N4" s="34"/>
       <c r="O4" s="34"/>
       <c r="P4" s="35" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="Q4" s="36"/>
       <c r="R4" s="36"/>
@@ -3694,484 +3719,505 @@
       <c r="T4" s="36"/>
       <c r="U4" s="37"/>
       <c r="V4" s="29" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="W4" s="30"/>
       <c r="X4" s="31" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="Y4" s="38"/>
       <c r="Z4" s="38"/>
       <c r="AA4" s="38"/>
       <c r="AB4" s="32" t="s">
-        <v>43</v>
+        <v>47</v>
+      </c>
+      <c r="AC4" s="33" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5" ht="14.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
       <c r="E5" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="O5" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="P5" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q5" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="R5" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="S5" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="T5" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="U5" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="V5" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="W5" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="X5" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y5" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z5" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA5" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB5" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC5" s="49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" s="50" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="N6" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="40" t="s">
+      <c r="Q6" s="59" t="s">
+        <v>79</v>
+      </c>
+      <c r="R6" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="S6" s="59" t="s">
+        <v>81</v>
+      </c>
+      <c r="T6" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="U6" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="V6" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="W6" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="X6" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" s="42" t="s">
+      <c r="Y6" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="J5" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="L5" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="M5" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="O5" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="P5" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q5" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="R5" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="S5" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="T5" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="U5" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="V5" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="W5" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="X5" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y5" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z5" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA5" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB5" s="43" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" s="49" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H6" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="I6" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="L6" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="M6" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="N6" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="O6" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="P6" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q6" s="58" t="s">
-        <v>74</v>
-      </c>
-      <c r="R6" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="S6" s="58" t="s">
-        <v>76</v>
-      </c>
-      <c r="T6" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="U6" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="V6" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="W6" s="8" t="s">
+      <c r="Z6" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA6" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB6" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="X6" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y6" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z6" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA6" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB6" s="60" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A7" s="10" t="s">
-        <v>83</v>
+      <c r="AC6" s="62" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A7" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="61"/>
-      <c r="E7" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="H7" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="I7" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="J7" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="K7" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="L7" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="M7" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="N7" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="O7" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="P7" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q7" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="R7" s="63"/>
-      <c r="S7" s="64"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="64"/>
-      <c r="V7" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="W7" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="X7" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y7" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z7" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA7" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB7" s="62" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A8" s="10" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="D7" s="63"/>
+      <c r="E7" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="I7" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="N7" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="O7" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="P7" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q7" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="R7" s="65"/>
+      <c r="S7" s="65"/>
+      <c r="T7" s="65"/>
+      <c r="U7" s="65"/>
+      <c r="V7" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="W7" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="X7" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y7" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z7" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA7" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB7" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC7" s="64" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A8" s="11" t="s">
+        <v>90</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="63"/>
+      <c r="E8" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="61"/>
-      <c r="E8" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="H8" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="I8" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="J8" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="K8" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="L8" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="O8" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="P8" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q8" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="R8" s="63"/>
-      <c r="S8" s="62"/>
-      <c r="T8" s="62"/>
-      <c r="U8" s="62"/>
-      <c r="V8" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="W8" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="X8" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y8" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z8" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA8" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB8" s="62" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A9" s="10" t="s">
-        <v>91</v>
+      <c r="F8" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="I8" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="M8" s="64"/>
+      <c r="N8" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="O8" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="P8" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q8" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="R8" s="65"/>
+      <c r="S8" s="64"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="64"/>
+      <c r="V8" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="W8" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="X8" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y8" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z8" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA8" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB8" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC8" s="66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A9" s="11" t="s">
+        <v>96</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C9" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="63"/>
+      <c r="E9" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="61"/>
-      <c r="E9" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="F9" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="G9" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="H9" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="I9" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="J9" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="K9" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="L9" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="O9" s="62"/>
-      <c r="P9" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q9" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="R9" s="65" t="s">
+      <c r="H9" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="I9" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="S9" s="62" t="s">
-        <v>94</v>
-      </c>
-      <c r="T9" s="62" t="s">
-        <v>94</v>
-      </c>
-      <c r="U9" s="62" t="s">
-        <v>94</v>
-      </c>
-      <c r="V9" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="W9" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="X9" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y9" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z9" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA9" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB9" s="65" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A10" s="10" t="s">
+      <c r="J9" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="K9" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="L9" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="O9" s="64"/>
+      <c r="P9" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q9" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="R9" s="64" t="s">
         <v>95</v>
       </c>
+      <c r="S9" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="T9" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="U9" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="V9" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="W9" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="X9" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y9" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z9" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA9" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB9" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC9" s="66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A10" s="11" t="s">
+        <v>99</v>
+      </c>
       <c r="B10" s="12" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="61" t="str">
+        <v>101</v>
+      </c>
+      <c r="D10" s="63" t="str">
         <f>A9</f>
         <v>student</v>
       </c>
-      <c r="E10" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="F10" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="G10" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="H10" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="I10" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="J10" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="K10" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="L10" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="O10" s="62"/>
-      <c r="P10" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q10" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="R10" s="62" t="s">
+      <c r="E10" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="I10" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="S10" s="62" t="s">
-        <v>94</v>
-      </c>
-      <c r="T10" s="62" t="s">
-        <v>94</v>
-      </c>
-      <c r="U10" s="62" t="s">
-        <v>94</v>
-      </c>
-      <c r="V10" s="62"/>
-      <c r="W10" s="62"/>
-      <c r="X10" s="62"/>
-      <c r="Y10" s="62"/>
-      <c r="Z10" s="62"/>
-      <c r="AA10" s="62"/>
-      <c r="AB10" s="62"/>
+      <c r="J10" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="K10" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="L10" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="O10" s="64"/>
+      <c r="P10" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q10" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="R10" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="S10" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="T10" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="U10" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="V10" s="64"/>
+      <c r="W10" s="64"/>
+      <c r="X10" s="64"/>
+      <c r="Y10" s="64"/>
+      <c r="Z10" s="64"/>
+      <c r="AA10" s="64"/>
+      <c r="AB10" s="64"/>
+      <c r="AC10" s="66" t="s">
+        <v>95</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="E2:AB2"/>
+    <mergeCell ref="E2:AC2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="K3:O3"/>
     <mergeCell ref="P3:U3"/>
@@ -4207,248 +4253,326 @@
     <col customWidth="1" min="1" max="1" width="12.421875"/>
     <col customWidth="1" min="2" max="2" width="13.140625"/>
     <col customWidth="1" min="3" max="3" width="19.8515625"/>
-    <col bestFit="1" customWidth="1" min="4" max="4" width="24.78125"/>
-    <col bestFit="1" min="5" max="5" width="9.140625"/>
-    <col customWidth="1" min="7" max="7" width="36.57421875"/>
+    <col customWidth="1" min="4" max="4" width="11.00390625"/>
+    <col bestFit="1" customWidth="1" min="5" max="5" width="24.78125"/>
+    <col bestFit="1" min="6" max="6" width="9.140625"/>
+    <col customWidth="1" min="8" max="8" width="36.57421875"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
-      <c r="A1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" ht="19.5" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="68" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A3" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" ht="19.5" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="67" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A3" s="68" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" s="69" t="s">
-        <v>107</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="F3" s="62" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="70" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A4" s="68" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="69" t="s">
-        <v>112</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="F4" s="62" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="70" t="s">
+      <c r="E3" s="70" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="5" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A5" s="71" t="s">
+      <c r="F3" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="G3" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" s="73" t="s">
+    </row>
+    <row r="4" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A4" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="F5" s="62" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="70" t="s">
+      <c r="B4" s="12" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="6" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A6" s="71" t="s">
+      <c r="C4" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="F4" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="72" t="s">
+    </row>
+    <row r="5" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A5" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="73" t="s">
+      <c r="B5" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="F6" s="62" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="74" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A7" s="71" t="s">
+      <c r="C5" s="73" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="F5" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="73" t="s">
+    </row>
+    <row r="6" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A6" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="F7" s="62" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="70" t="s">
+      <c r="B6" s="73" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="8" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A8" s="71" t="s">
+      <c r="C6" s="73" t="s">
         <v>126</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="D6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="72" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8" s="73" t="s">
+      <c r="F6" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="71" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A7" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="F8" s="62" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="74" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A9" s="71" t="s">
+      <c r="B7" s="73" t="s">
         <v>129</v>
       </c>
-      <c r="B9" s="75" t="s">
+      <c r="C7" s="73" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="74" t="s">
         <v>130</v>
       </c>
-      <c r="C9" s="72" t="s">
+      <c r="F7" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="71" t="s">
         <v>131</v>
       </c>
-      <c r="D9" s="73" t="s">
+    </row>
+    <row r="8" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A8" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="F9" s="62" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="70" t="s">
+      <c r="B8" s="73" t="s">
         <v>133</v>
       </c>
+      <c r="C8" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="74" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="71" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A9" s="72" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="73" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="73" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="74" t="s">
+        <v>138</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="71" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" s="76"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" s="76"/>
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
+      <c r="A11" s="75"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D3"/>
-    <hyperlink r:id="rId2" ref="D4"/>
-    <hyperlink r:id="rId3" ref="D5"/>
-    <hyperlink r:id="rId4" ref="D7"/>
-    <hyperlink r:id="rId5" ref="D9"/>
+    <hyperlink r:id="rId1" ref="E3"/>
+    <hyperlink r:id="rId2" ref="E4"/>
+    <hyperlink r:id="rId3" ref="E5"/>
+    <hyperlink r:id="rId4" ref="E7"/>
+    <hyperlink r:id="rId5" ref="E9"/>
   </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7" disablePrompts="0">
+        <x14:dataValidation xr:uid="{00B600FA-0097-463C-B503-00FD00A500D7}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>GENRE_ANSWER</xm:f>
+          </x14:formula1>
+          <xm:sqref>D3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{008C00E7-00C8-4EA1-9F02-00E600100080}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>GENRE_ANSWER</xm:f>
+          </x14:formula1>
+          <xm:sqref>D4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{00B800BD-00C5-48A6-9F45-000E001B00A0}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>GENRE_ANSWER</xm:f>
+          </x14:formula1>
+          <xm:sqref>D5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{00F60005-003F-443D-B0A7-00FB003F003E}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>GENRE_ANSWER</xm:f>
+          </x14:formula1>
+          <xm:sqref>D6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{00F40051-0044-4C7F-9722-00EE00A8009C}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>GENRE_ANSWER</xm:f>
+          </x14:formula1>
+          <xm:sqref>D7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{00A30045-005E-48EF-88BF-002900550009}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>GENRE_ANSWER</xm:f>
+          </x14:formula1>
+          <xm:sqref>D8</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{003300DF-00CA-48EC-9435-00070079006B}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>GENRE_ANSWER</xm:f>
+          </x14:formula1>
+          <xm:sqref>D9</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4471,48 +4595,48 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
-      <c r="A1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>134</v>
+      <c r="A1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="2" ht="22.100000000000001" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="77" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A3" s="68" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" s="78" t="str">
+      <c r="A2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="76" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A3" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="77" t="str">
         <f>profiles!$A$10</f>
         <v>guardian</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A4" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" s="79" t="str">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A4" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="77" t="str">
         <f>profiles!$A$9</f>
         <v>student</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" ht="14.25"/>
     <row r="6" ht="14.25"/>
@@ -4522,7 +4646,7 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -4539,41 +4663,41 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="67.57421875"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>136</v>
+      <c r="A1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="2" ht="24.350000000000001" customHeight="1">
-      <c r="A2" s="80" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="81" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A3" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="78" t="s">
-        <v>139</v>
-      </c>
-      <c r="C3" s="9"/>
+      <c r="A2" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="79" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A3" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="77" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="10"/>
     </row>
     <row r="4"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -4590,41 +4714,41 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="14.8515625"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>134</v>
+      <c r="A1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="2" ht="22.100000000000001" customHeight="1">
-      <c r="A2" s="80" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="81" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A3" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" s="78" t="str">
+      <c r="A2" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="79" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A3" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="77" t="str">
         <f>profiles!$A$8</f>
         <v>teacher</v>
       </c>
     </row>
-    <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A4" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" s="79" t="str">
+    <row r="4" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A4" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="77" t="str">
         <f>profiles!$A$9</f>
         <v>student</v>
       </c>
@@ -4632,7 +4756,7 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -4650,7 +4774,7 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="11.00390625"/>
     <col customWidth="1" min="2" max="2" width="19.140625"/>
@@ -4674,326 +4798,326 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="J1" s="5" t="s">
+      <c r="A1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="D1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="L1" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="M1" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="N1" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="O1" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="P1" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="Q1" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="5"/>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="5"/>
-      <c r="AI1" s="5"/>
-      <c r="AJ1" s="5"/>
-      <c r="AK1" s="5"/>
-      <c r="AL1" s="5"/>
-      <c r="AM1" s="5"/>
-    </row>
-    <row r="2" s="9" customFormat="1" ht="23.600000000000001" customHeight="1">
-      <c r="A2" s="82"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="E2" s="83" t="s">
+      <c r="R1" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="83"/>
-      <c r="G2" s="84" t="s">
+      <c r="S1" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="87" t="s">
+      <c r="T1" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="88" t="s">
+      <c r="U1" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="R2" s="89"/>
-      <c r="S2" s="89"/>
-      <c r="T2" s="90"/>
-      <c r="U2" s="91" t="s">
+      <c r="V1" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
+      <c r="W1" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="6"/>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="6"/>
+    </row>
+    <row r="2" s="10" customFormat="1" ht="23.600000000000001" customHeight="1">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="E2" s="80" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" s="80"/>
+      <c r="G2" s="81" t="s">
+        <v>167</v>
+      </c>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="84" t="s">
+        <v>168</v>
+      </c>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="85" t="s">
+        <v>169</v>
+      </c>
+      <c r="R2" s="86"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="87"/>
+      <c r="U2" s="88" t="s">
+        <v>170</v>
+      </c>
+      <c r="V2" s="89"/>
+      <c r="W2" s="89"/>
     </row>
     <row r="3" ht="34.100000000000001" customHeight="1">
-      <c r="A3" s="93" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="94" t="s">
-        <v>165</v>
-      </c>
-      <c r="D3" s="95" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="96" t="s">
-        <v>166</v>
-      </c>
-      <c r="F3" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="G3" s="98" t="s">
-        <v>168</v>
-      </c>
-      <c r="H3" s="99" t="s">
-        <v>169</v>
-      </c>
-      <c r="I3" s="100" t="s">
-        <v>170</v>
-      </c>
-      <c r="J3" s="100" t="s">
+      <c r="A3" s="90" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="91" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="91" t="s">
         <v>171</v>
       </c>
-      <c r="K3" s="100" t="s">
+      <c r="D3" s="92" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="93" t="s">
         <v>172</v>
       </c>
-      <c r="L3" s="100" t="s">
+      <c r="F3" s="94" t="s">
         <v>173</v>
       </c>
-      <c r="M3" s="100" t="s">
+      <c r="G3" s="95" t="s">
         <v>174</v>
       </c>
-      <c r="N3" s="101" t="s">
+      <c r="H3" s="96" t="s">
         <v>175</v>
       </c>
-      <c r="O3" s="102" t="s">
-        <v>173</v>
-      </c>
-      <c r="P3" s="103" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q3" s="104" t="s">
+      <c r="I3" s="97" t="s">
         <v>176</v>
       </c>
-      <c r="R3" s="105" t="s">
+      <c r="J3" s="97" t="s">
         <v>177</v>
       </c>
-      <c r="S3" s="105" t="s">
-        <v>173</v>
-      </c>
-      <c r="T3" s="105" t="s">
-        <v>174</v>
-      </c>
-      <c r="U3" s="106" t="s">
-        <v>173</v>
-      </c>
-      <c r="V3" s="107" t="s">
+      <c r="K3" s="97" t="s">
         <v>178</v>
       </c>
-      <c r="W3" s="108" t="s">
+      <c r="L3" s="97" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A4" s="10" t="s">
+      <c r="M3" s="97" t="s">
         <v>180</v>
       </c>
+      <c r="N3" s="98" t="s">
+        <v>181</v>
+      </c>
+      <c r="O3" s="99" t="s">
+        <v>179</v>
+      </c>
+      <c r="P3" s="100" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q3" s="101" t="s">
+        <v>182</v>
+      </c>
+      <c r="R3" s="102" t="s">
+        <v>183</v>
+      </c>
+      <c r="S3" s="102" t="s">
+        <v>179</v>
+      </c>
+      <c r="T3" s="102" t="s">
+        <v>180</v>
+      </c>
+      <c r="U3" s="103" t="s">
+        <v>179</v>
+      </c>
+      <c r="V3" s="104" t="s">
+        <v>184</v>
+      </c>
+      <c r="W3" s="105" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A4" s="11" t="s">
+        <v>186</v>
+      </c>
       <c r="B4" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="D4" s="78" t="str">
+        <v>187</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" s="77" t="str">
         <f>centers!$A$3</f>
         <v>centerA</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="E4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="62">
+      <c r="F4" s="64">
         <v>0</v>
       </c>
-      <c r="G4" s="62">
+      <c r="G4" s="64">
         <v>5</v>
       </c>
-      <c r="H4" s="62"/>
-      <c r="I4" s="65" t="s">
+      <c r="H4" s="64"/>
+      <c r="I4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="109"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65" t="s">
+      <c r="J4" s="106"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="62"/>
-      <c r="P4" s="65" t="s">
+      <c r="O4" s="64"/>
+      <c r="P4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="65" t="s">
+      <c r="Q4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="62" t="s">
+      <c r="R4" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="S4" s="62">
+      <c r="S4" s="64">
         <v>3</v>
       </c>
-      <c r="T4" s="62" t="s">
+      <c r="T4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="62">
+      <c r="U4" s="64">
         <v>3</v>
       </c>
-      <c r="V4" s="62" t="s">
+      <c r="V4" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="W4" s="62" t="s">
+      <c r="W4" s="64" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" s="9" customFormat="1" ht="28.5">
-      <c r="A5" s="10" t="s">
-        <v>183</v>
+    <row r="5" s="10" customFormat="1" ht="28.5">
+      <c r="A5" s="11" t="s">
+        <v>189</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="D5" s="78" t="str">
+        <v>190</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" s="77" t="str">
         <f>centers!$A$4</f>
         <v>centerB</v>
       </c>
-      <c r="E5" s="62" t="s">
+      <c r="E5" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="62">
+      <c r="F5" s="64">
         <v>240</v>
       </c>
-      <c r="G5" s="62">
+      <c r="G5" s="64">
         <v>4</v>
       </c>
-      <c r="H5" s="62">
+      <c r="H5" s="64">
         <v>60</v>
       </c>
-      <c r="I5" s="62" t="s">
+      <c r="I5" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="109" t="s">
-        <v>186</v>
-      </c>
-      <c r="K5" s="62" t="s">
+      <c r="J5" s="106" t="s">
+        <v>192</v>
+      </c>
+      <c r="K5" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="62">
+      <c r="L5" s="64">
         <v>4</v>
       </c>
-      <c r="M5" s="65" t="s">
+      <c r="M5" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="65" t="s">
+      <c r="N5" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="62">
+      <c r="O5" s="64">
         <v>4</v>
       </c>
-      <c r="P5" s="65" t="s">
+      <c r="P5" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="65" t="s">
+      <c r="Q5" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="R5" s="65" t="s">
+      <c r="R5" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="S5" s="62">
+      <c r="S5" s="64">
         <v>3</v>
       </c>
-      <c r="T5" s="62" t="s">
+      <c r="T5" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="U5" s="62">
+      <c r="U5" s="64">
         <v>3</v>
       </c>
-      <c r="V5" s="62" t="s">
+      <c r="V5" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="W5" s="62" t="s">
+      <c r="W5" s="64" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5007,84 +5131,84 @@
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="13" disablePrompts="0">
-        <x14:dataValidation xr:uid="{0004009D-0093-4F2B-BDF5-00C400E60061}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00FC001B-0057-48C2-9CA0-001800930069}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>W4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00B60057-00F7-402E-8925-008800F400E1}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00F40072-009F-43FB-8410-00F9002E00EA}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>W5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00CE004C-00FB-4B9C-ABBE-004B00C40032}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00E100F6-002D-4F26-8F4C-007A00A20057}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>V4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00A20025-0099-45AE-B651-004F00C2007F}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{005E00A6-00D6-4B41-9999-007E002600F6}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>V5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{005D0058-00F6-4C45-BCBD-00C6009F0045}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00140079-00AF-40D2-8382-0025000C003F}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>T4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{007F00D1-0090-4CDF-887D-00CC002100EC}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{002900A0-006B-4BDD-A90C-00A5005F0018}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>T5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00F900F3-002D-4225-9AF7-00F9006100CC}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00170054-001E-4277-B077-00C600CF00F0}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>R4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{007300B6-0001-4D4A-9CFB-0023000B0061}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00FE003E-00BC-4D4D-BC29-007300D9009B}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>E4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{007300E0-0087-4E68-A7D2-00E600030071}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00CA0098-00AE-429B-A513-00D100D90019}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>E5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00660019-002D-4F6C-912F-0077008900A3}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{008B0094-0077-43CD-B6D5-00C400A300C8}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>I4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{000F003E-00A7-4F7C-A198-006C006C0042}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00AE0094-0000-4C4C-B5E5-003A00D60016}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>I5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00360064-0097-4245-BEBF-002400DB005E}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{002100F0-00FD-4A2B-9136-00DE007700C7}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>SUBSTAGES_FRECUENCY</xm:f>
           </x14:formula1>
           <xm:sqref>K4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00DF00F3-0082-4759-AE3C-006C00E40081}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00C20049-008A-48F3-96E0-004C003E0072}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>SUBSTAGES_FRECUENCY</xm:f>
           </x14:formula1>
@@ -5108,7 +5232,7 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="3" max="3" width="11.421875"/>
     <col customWidth="1" min="4" max="4" width="10.421875"/>
@@ -5116,114 +5240,114 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>189</v>
+      <c r="A1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="2" ht="28.5">
-      <c r="A2" s="93" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="95" t="s">
-        <v>190</v>
-      </c>
-      <c r="D2" s="110" t="s">
-        <v>167</v>
-      </c>
-      <c r="E2" s="110" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A3" s="68" t="s">
-        <v>192</v>
+      <c r="A2" s="90" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="91" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="92" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="107" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2" s="107" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A3" s="11" t="s">
+        <v>198</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="C3" s="79" t="str">
+        <v>199</v>
+      </c>
+      <c r="C3" s="77" t="str">
         <f>ap_programs!$A$4</f>
         <v>programA</v>
       </c>
-      <c r="D3" s="62">
+      <c r="D3" s="64">
         <v>0</v>
       </c>
-      <c r="E3" s="62" t="s">
+      <c r="E3" s="64" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A4" s="68" t="s">
-        <v>194</v>
+    <row r="4" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A4" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="C4" s="79" t="str">
+        <v>199</v>
+      </c>
+      <c r="C4" s="77" t="str">
         <f>ap_programs!$A$5</f>
         <v>programB</v>
       </c>
-      <c r="D4" s="62">
+      <c r="D4" s="64">
         <v>0</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="64" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" ht="19.5" customHeight="1">
-      <c r="A5" s="68" t="s">
-        <v>195</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="C5" s="79" t="str">
+      <c r="A5" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="77" t="str">
         <f>ap_programs!$A$4</f>
         <v>programA</v>
       </c>
-      <c r="D5" s="62">
+      <c r="D5" s="64">
         <v>0</v>
       </c>
-      <c r="E5" s="62" t="s">
+      <c r="E5" s="64" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00DD0041-0095-4F26-8E06-008C00D70099}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{0055009D-00BD-4911-9A9F-00AA00DA00C6}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>E3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{003F001F-0041-472C-B338-00DB008E004F}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00B400BB-005E-4060-908F-006D00610045}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>E4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{009900F6-00C7-4413-8066-00EB00860002}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00A40053-00D1-4348-87B0-006B007D002A}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>

--- a/packages/leemons-plugin-mvp-template/src/bulk/data.xlsx
+++ b/packages/leemons-plugin-mvp-template/src/bulk/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" state="visible" r:id="rId1"/>
@@ -22,13 +22,14 @@
   <definedNames>
     <definedName name="SUBSTAGES_FRECUENCY" hidden="0">DB!$A$2:$A$8</definedName>
     <definedName name="BOOLEAN_ANSWER" hidden="0">DB!$A$11:$A$12</definedName>
+    <definedName name="GENRE_ANSWER" hidden="0">DB!$A$15:$A$16</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="267">
   <si>
     <t xml:space="preserve">Substages frecuency</t>
   </si>
@@ -63,6 +64,15 @@
     <t>No</t>
   </si>
   <si>
+    <t xml:space="preserve">Genre answer</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
     <t>root</t>
   </si>
   <si>
@@ -138,6 +148,9 @@
     <t>plugins.curriculum</t>
   </si>
   <si>
+    <t>plugins.leebrary</t>
+  </si>
+  <si>
     <t>Users</t>
   </si>
   <si>
@@ -162,6 +175,9 @@
     <t>Curriculum</t>
   </si>
   <si>
+    <t>Library</t>
+  </si>
+  <si>
     <t>users</t>
   </si>
   <si>
@@ -270,9 +286,6 @@
     <t>Schedule</t>
   </si>
   <si>
-    <t>Library</t>
-  </si>
-  <si>
     <t>Ongoing</t>
   </si>
   <si>
@@ -303,6 +316,9 @@
     <t>create</t>
   </si>
   <si>
+    <t>update</t>
+  </si>
+  <si>
     <t>student</t>
   </si>
   <si>
@@ -312,9 +328,6 @@
     <t xml:space="preserve">Profile for students</t>
   </si>
   <si>
-    <t>update</t>
-  </si>
-  <si>
     <t>guardian</t>
   </si>
   <si>
@@ -327,6 +340,12 @@
     <t>surnames</t>
   </si>
   <si>
+    <t>genre</t>
+  </si>
+  <si>
+    <t>birthdate</t>
+  </si>
+  <si>
     <t>email</t>
   </si>
   <si>
@@ -336,6 +355,12 @@
     <t>Surnames</t>
   </si>
   <si>
+    <t>Genre</t>
+  </si>
+  <si>
+    <t>Birthdate</t>
+  </si>
+  <si>
     <t>Email</t>
   </si>
   <si>
@@ -381,31 +406,31 @@
     <t>student@leemons.io</t>
   </si>
   <si>
+    <t>student@centerB</t>
+  </si>
+  <si>
+    <t>studentA02</t>
+  </si>
+  <si>
+    <t>Emma</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>student+emma@leemons.io</t>
+  </si>
+  <si>
+    <t>studentB01</t>
+  </si>
+  <si>
+    <t>Lisa</t>
+  </si>
+  <si>
+    <t>student+lisa@leemons.io</t>
+  </si>
+  <si>
     <t>student@centerA</t>
-  </si>
-  <si>
-    <t>studentA02</t>
-  </si>
-  <si>
-    <t>Emma</t>
-  </si>
-  <si>
-    <t>School</t>
-  </si>
-  <si>
-    <t>student+emma@leemons.io</t>
-  </si>
-  <si>
-    <t>studentB01</t>
-  </si>
-  <si>
-    <t>Lisa</t>
-  </si>
-  <si>
-    <t>student+lisa@leemons.io</t>
-  </si>
-  <si>
-    <t>student@centerB</t>
   </si>
   <si>
     <t>studentB02</t>
@@ -811,6 +836,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="160" formatCode="dd/mm/yyyy"/>
+  </numFmts>
   <fonts count="15">
     <font>
       <name val="Calibri"/>
@@ -1046,6 +1074,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color theme="0" tint="0"/>
       </left>
@@ -1200,15 +1237,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </right>
@@ -1300,7 +1328,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="122">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1311,8 +1339,8 @@
     <xf fontId="0" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf fontId="1" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1335,30 +1363,23 @@
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="1" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="5" fillId="7" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf fontId="5" fillId="7" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="6" fillId="8" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="7" fillId="9" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="8" fillId="10" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="5" fillId="7" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf fontId="6" fillId="8" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="7" fillId="9" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="8" fillId="10" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="9" fillId="11" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="8" fillId="10" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="9" fillId="11" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1367,67 +1388,70 @@
     <xf fontId="9" fillId="11" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="6" fillId="8" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="9" fillId="11" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="6" fillId="8" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf fontId="6" fillId="8" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="7" fillId="9" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="7" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf fontId="1" fillId="7" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="8" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="7" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="9" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="8" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="10" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="9" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="1" fillId="10" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="11" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="10" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="11" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="1" fillId="11" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="11" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="11" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="8" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="8" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="5" fillId="4" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf fontId="5" fillId="4" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="5" fillId="4" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="5" fillId="4" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="6" fillId="12" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="5" fillId="4" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="7" fillId="13" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="6" fillId="12" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="8" fillId="14" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="7" fillId="13" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="8" fillId="14" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="9" fillId="15" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="8" fillId="14" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="9" fillId="15" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1436,42 +1460,51 @@
     <xf fontId="9" fillId="15" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf fontId="9" fillId="15" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="8" fillId="14" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf fontId="10" fillId="16" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="4" fillId="4" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf fontId="4" fillId="4" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="4" fillId="12" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="4" fillId="4" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="4" fillId="13" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="4" fillId="12" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="4" fillId="14" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="4" fillId="13" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="4" fillId="14" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="4" fillId="14" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="4" fillId="15" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf fontId="4" fillId="15" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf fontId="4" fillId="15" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf fontId="4" fillId="15" borderId="18" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="4" fillId="13" borderId="19" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf fontId="4" fillId="14" borderId="19" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf fontId="0" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1481,19 +1514,13 @@
     <xf fontId="0" fillId="0" borderId="20" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="20" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf fontId="4" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf fontId="1" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf fontId="11" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1519,10 +1546,6 @@
       <alignment vertical="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
     </xf>
@@ -1532,16 +1555,10 @@
     <xf fontId="0" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="2" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="16" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf fontId="4" fillId="16" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf fontId="1" fillId="7" borderId="21" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1568,7 +1585,7 @@
     <xf fontId="1" fillId="17" borderId="24" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="10" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="10" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="1" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1583,40 +1600,40 @@
     <xf fontId="4" fillId="16" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="12" fillId="4" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="12" fillId="4" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="12" fillId="4" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="12" fillId="12" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="12" fillId="12" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="12" fillId="4" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="12" fillId="12" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="12" fillId="13" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="12" fillId="12" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="12" fillId="12" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="12" fillId="13" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="12" fillId="13" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="12" fillId="13" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="12" fillId="18" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="12" fillId="13" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="12" fillId="18" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="12" fillId="14" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="12" fillId="18" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="12" fillId="14" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="12" fillId="14" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="12" fillId="14" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="12" fillId="14" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1628,40 +1645,31 @@
     <xf fontId="4" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="2" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="4" fillId="4" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="4" fillId="4" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="4" fillId="16" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="4" fillId="16" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="4" fillId="4" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="4" fillId="4" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="13" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="16" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="1" fillId="7" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="7" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="7" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="7" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="4" fillId="16" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="4" fillId="16" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="14" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2198,7 +2206,7 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="20.28125"/>
   </cols>
@@ -2215,32 +2223,32 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2250,19 +2258,34 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="14" ht="22.100000000000001" customHeight="1">
+      <c r="A14" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="A15" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="A16" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2279,7 +2302,7 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="14.57421875"/>
     <col customWidth="1" min="3" max="3" width="10.8515625"/>
@@ -2289,95 +2312,95 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" ht="28.5">
+      <c r="A2" s="107" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="108" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="108" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" s="108" t="s">
+        <v>207</v>
+      </c>
+      <c r="E2" s="108" t="s">
+        <v>208</v>
+      </c>
+      <c r="F2" s="109" t="s">
         <v>198</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="2" ht="28.5">
-      <c r="A2" s="111" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="112" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="D2" s="112" t="s">
-        <v>199</v>
-      </c>
-      <c r="E2" s="112" t="s">
-        <v>200</v>
-      </c>
-      <c r="F2" s="113" t="s">
-        <v>190</v>
-      </c>
-      <c r="G2" s="114" t="s">
-        <v>167</v>
+      <c r="G2" s="110" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1">
-      <c r="A3" s="68" t="s">
-        <v>201</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="E3" s="115" t="s">
-        <v>205</v>
-      </c>
-      <c r="F3" s="79" t="str">
+      <c r="A3" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="E3" s="111" t="s">
+        <v>213</v>
+      </c>
+      <c r="F3" s="76" t="str">
         <f>ap_programs!$A$5</f>
         <v>programB</v>
       </c>
-      <c r="G3" s="62">
+      <c r="G3" s="63">
         <v>0</v>
       </c>
     </row>
     <row r="4" ht="19.5" customHeight="1">
-      <c r="A4" s="68" t="s">
-        <v>206</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>207</v>
+      <c r="A4" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>215</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="E4" s="69" t="s">
-        <v>210</v>
-      </c>
-      <c r="F4" s="79" t="str">
+        <v>216</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="E4" s="68" t="s">
+        <v>218</v>
+      </c>
+      <c r="F4" s="76" t="str">
         <f>ap_programs!$A$5</f>
         <v>programB</v>
       </c>
-      <c r="G4" s="62">
+      <c r="G4" s="63">
         <v>0</v>
       </c>
     </row>
@@ -2388,7 +2411,7 @@
   </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2422,919 +2445,919 @@
   <sheetData>
     <row r="1" ht="14.25">
       <c r="A1" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="116" t="s">
-        <v>187</v>
-      </c>
-      <c r="D1" s="116" t="s">
-        <v>211</v>
-      </c>
-      <c r="E1" s="116" t="s">
-        <v>142</v>
-      </c>
-      <c r="F1" s="116" t="s">
-        <v>212</v>
+        <v>15</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>220</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="K1" s="117" t="s">
-        <v>216</v>
-      </c>
-      <c r="L1" s="76"/>
+        <v>223</v>
+      </c>
+      <c r="K1" s="112" t="s">
+        <v>224</v>
+      </c>
+      <c r="L1" s="74"/>
     </row>
     <row r="2" ht="28.850000000000001" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="118" t="s">
-        <v>217</v>
-      </c>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="118"/>
-      <c r="L2" s="76"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="74"/>
     </row>
     <row r="3" ht="31.850000000000001" customHeight="1">
-      <c r="A3" s="111" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="112" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="119" t="s">
-        <v>190</v>
-      </c>
-      <c r="D3" s="94" t="s">
-        <v>218</v>
-      </c>
-      <c r="E3" s="94" t="s">
-        <v>219</v>
-      </c>
-      <c r="F3" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="G3" s="120" t="s">
-        <v>221</v>
-      </c>
-      <c r="H3" s="121" t="s">
-        <v>199</v>
-      </c>
-      <c r="I3" s="121" t="s">
-        <v>222</v>
-      </c>
-      <c r="J3" s="122" t="s">
-        <v>223</v>
-      </c>
-      <c r="K3" s="113" t="s">
-        <v>224</v>
-      </c>
-      <c r="L3" s="123"/>
+      <c r="A3" s="107" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="108" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="91" t="s">
+        <v>198</v>
+      </c>
+      <c r="D3" s="90" t="s">
+        <v>226</v>
+      </c>
+      <c r="E3" s="90" t="s">
+        <v>227</v>
+      </c>
+      <c r="F3" s="90" t="s">
+        <v>228</v>
+      </c>
+      <c r="G3" s="113" t="s">
+        <v>229</v>
+      </c>
+      <c r="H3" s="114" t="s">
+        <v>207</v>
+      </c>
+      <c r="I3" s="114" t="s">
+        <v>230</v>
+      </c>
+      <c r="J3" s="115" t="s">
+        <v>231</v>
+      </c>
+      <c r="K3" s="109" t="s">
+        <v>232</v>
+      </c>
+      <c r="L3" s="116"/>
     </row>
     <row r="4" s="9" customFormat="1" ht="30" customHeight="1">
       <c r="A4" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(L4&lt;10,"0",""),L4)</f>
+        <f t="shared" ref="A4:A9" si="0">_xlfn.CONCAT("subject",IF(L4&lt;10,"0",""),L4)</f>
         <v>subject01</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="C4" s="79" t="str">
+        <v>233</v>
+      </c>
+      <c r="C4" s="76" t="str">
         <f>ap_programs!A4</f>
         <v>programA</v>
       </c>
-      <c r="D4" s="62">
+      <c r="D4" s="63">
         <v>1</v>
       </c>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62" t="str">
-        <f>_xlfn.CONCAT("0",IF(L4&lt;10,"0",""),L4)</f>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63" t="str">
+        <f t="shared" ref="F4:F9" si="1">_xlfn.CONCAT("0",IF(L4&lt;10,"0",""),L4)</f>
         <v>001</v>
       </c>
-      <c r="G4" s="124" t="s">
-        <v>226</v>
-      </c>
-      <c r="H4" s="125" t="s">
-        <v>227</v>
-      </c>
-      <c r="I4" s="62"/>
-      <c r="J4" s="126" t="str">
+      <c r="G4" s="117" t="s">
+        <v>234</v>
+      </c>
+      <c r="H4" s="118" t="s">
+        <v>235</v>
+      </c>
+      <c r="I4" s="63"/>
+      <c r="J4" s="119" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K4" s="127" t="s">
-        <v>228</v>
-      </c>
-      <c r="L4" s="128">
+      <c r="K4" s="120" t="s">
+        <v>236</v>
+      </c>
+      <c r="L4" s="121">
         <v>1</v>
       </c>
       <c r="M4" s="9"/>
     </row>
     <row r="5" s="9" customFormat="1" ht="30" customHeight="1">
       <c r="A5" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(L5&lt;10,"0",""),L5)</f>
+        <f t="shared" si="0"/>
         <v>subject02</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="C5" s="79" t="str">
-        <f>C4</f>
+        <v>237</v>
+      </c>
+      <c r="C5" s="76" t="str">
+        <f t="shared" ref="C5:C10" si="2">C4</f>
         <v>programA</v>
       </c>
-      <c r="D5" s="62">
+      <c r="D5" s="63">
         <v>1</v>
       </c>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62" t="str">
-        <f>_xlfn.CONCAT("0",IF(L5&lt;10,"0",""),L5)</f>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63" t="str">
+        <f t="shared" si="1"/>
         <v>002</v>
       </c>
-      <c r="G5" s="124" t="str">
-        <f>G4</f>
+      <c r="G5" s="117" t="str">
+        <f t="shared" ref="G5:G10" si="3">G4</f>
         <v xml:space="preserve">Group A|G1A, Group B|G1B</v>
       </c>
-      <c r="H5" s="125" t="str">
-        <f>H4</f>
+      <c r="H5" s="118" t="str">
+        <f t="shared" ref="H5:H10" si="4">H4</f>
         <v>#FFEB9C</v>
       </c>
-      <c r="I5" s="62"/>
-      <c r="J5" s="126" t="str">
+      <c r="I5" s="63"/>
+      <c r="J5" s="119" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K5" s="127" t="str">
-        <f>K4</f>
+      <c r="K5" s="120" t="str">
+        <f t="shared" ref="K5:K10" si="5">K4</f>
         <v xml:space="preserve">teacher01|main@G1A, teacher01|main@G1B</v>
       </c>
-      <c r="L5" s="128">
-        <f>L4+1</f>
+      <c r="L5" s="121">
+        <f t="shared" ref="L5:L10" si="6">L4+1</f>
         <v>2</v>
       </c>
       <c r="M5" s="9"/>
     </row>
     <row r="6" s="9" customFormat="1" ht="30" customHeight="1">
       <c r="A6" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(L6&lt;10,"0",""),L6)</f>
+        <f t="shared" si="0"/>
         <v>subject03</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="C6" s="79" t="str">
-        <f>C5</f>
+        <v>238</v>
+      </c>
+      <c r="C6" s="76" t="str">
+        <f t="shared" si="2"/>
         <v>programA</v>
       </c>
-      <c r="D6" s="62">
+      <c r="D6" s="63">
         <v>1</v>
       </c>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62" t="str">
-        <f>_xlfn.CONCAT("0",IF(L6&lt;10,"0",""),L6)</f>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63" t="str">
+        <f t="shared" si="1"/>
         <v>003</v>
       </c>
-      <c r="G6" s="124" t="str">
-        <f>G5</f>
+      <c r="G6" s="117" t="str">
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Group A|G1A, Group B|G1B</v>
       </c>
-      <c r="H6" s="125" t="str">
-        <f>H5</f>
+      <c r="H6" s="118" t="str">
+        <f t="shared" si="4"/>
         <v>#FFEB9C</v>
       </c>
-      <c r="I6" s="62"/>
-      <c r="J6" s="126" t="str">
+      <c r="I6" s="63"/>
+      <c r="J6" s="119" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K6" s="127" t="str">
-        <f>K5</f>
+      <c r="K6" s="120" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">teacher01|main@G1A, teacher01|main@G1B</v>
       </c>
-      <c r="L6" s="128">
-        <f>L5+1</f>
+      <c r="L6" s="121">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="M6" s="9"/>
     </row>
     <row r="7" s="9" customFormat="1" ht="30" customHeight="1">
       <c r="A7" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(L7&lt;10,"0",""),L7)</f>
+        <f t="shared" si="0"/>
         <v>subject04</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="C7" s="79" t="str">
-        <f>C6</f>
+        <v>239</v>
+      </c>
+      <c r="C7" s="76" t="str">
+        <f t="shared" si="2"/>
         <v>programA</v>
       </c>
-      <c r="D7" s="62">
+      <c r="D7" s="63">
         <v>1</v>
       </c>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62" t="str">
-        <f>_xlfn.CONCAT("0",IF(L7&lt;10,"0",""),L7)</f>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63" t="str">
+        <f t="shared" si="1"/>
         <v>004</v>
       </c>
-      <c r="G7" s="124" t="str">
-        <f>G6</f>
+      <c r="G7" s="117" t="str">
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Group A|G1A, Group B|G1B</v>
       </c>
-      <c r="H7" s="125" t="str">
-        <f>H6</f>
+      <c r="H7" s="118" t="str">
+        <f t="shared" si="4"/>
         <v>#FFEB9C</v>
       </c>
-      <c r="I7" s="62"/>
-      <c r="J7" s="126" t="str">
+      <c r="I7" s="63"/>
+      <c r="J7" s="119" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="K7" s="127" t="str">
-        <f>K6</f>
+      <c r="K7" s="120" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">teacher01|main@G1A, teacher01|main@G1B</v>
       </c>
-      <c r="L7" s="128">
-        <f>L6+1</f>
+      <c r="L7" s="121">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="M7" s="9"/>
     </row>
     <row r="8" ht="30" customHeight="1">
       <c r="A8" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(L8&lt;10,"0",""),L8)</f>
+        <f t="shared" si="0"/>
         <v>subject05</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="C8" s="79" t="str">
-        <f>C7</f>
+        <v>240</v>
+      </c>
+      <c r="C8" s="76" t="str">
+        <f t="shared" si="2"/>
         <v>programA</v>
       </c>
-      <c r="D8" s="62">
+      <c r="D8" s="63">
         <v>2</v>
       </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62" t="str">
-        <f>_xlfn.CONCAT("0",IF(L8&lt;10,"0",""),L8)</f>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63" t="str">
+        <f t="shared" si="1"/>
         <v>005</v>
       </c>
-      <c r="G8" s="124" t="s">
-        <v>233</v>
-      </c>
-      <c r="H8" s="125" t="str">
-        <f>H7</f>
+      <c r="G8" s="117" t="s">
+        <v>241</v>
+      </c>
+      <c r="H8" s="118" t="str">
+        <f t="shared" si="4"/>
         <v>#FFEB9C</v>
       </c>
-      <c r="I8" s="62"/>
-      <c r="J8" s="126" t="str">
+      <c r="I8" s="63"/>
+      <c r="J8" s="119" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K8" s="127" t="s">
-        <v>234</v>
-      </c>
-      <c r="L8" s="128">
-        <f>L7+1</f>
+      <c r="K8" s="120" t="s">
+        <v>242</v>
+      </c>
+      <c r="L8" s="121">
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
     <row r="9" ht="30" customHeight="1">
       <c r="A9" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(L9&lt;10,"0",""),L9)</f>
+        <f t="shared" si="0"/>
         <v>subject06</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="C9" s="79" t="str">
-        <f>C8</f>
+        <v>243</v>
+      </c>
+      <c r="C9" s="76" t="str">
+        <f t="shared" si="2"/>
         <v>programA</v>
       </c>
-      <c r="D9" s="62">
+      <c r="D9" s="63">
         <v>2</v>
       </c>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62" t="str">
-        <f>_xlfn.CONCAT("0",IF(L9&lt;10,"0",""),L9)</f>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63" t="str">
+        <f t="shared" si="1"/>
         <v>006</v>
       </c>
-      <c r="G9" s="124" t="str">
-        <f>G8</f>
+      <c r="G9" s="117" t="str">
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Group A|G2A, Group B|G2B</v>
       </c>
-      <c r="H9" s="125" t="s">
-        <v>236</v>
-      </c>
-      <c r="I9" s="62"/>
-      <c r="J9" s="126" t="str">
+      <c r="H9" s="118" t="s">
+        <v>244</v>
+      </c>
+      <c r="I9" s="63"/>
+      <c r="J9" s="119" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K9" s="127" t="str">
-        <f>K8</f>
+      <c r="K9" s="120" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">teacher01|main@G2A, teacher01|main@G2B</v>
       </c>
-      <c r="L9" s="128">
-        <f>L8+1</f>
+      <c r="L9" s="121">
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
     <row r="10" ht="30" customHeight="1">
       <c r="A10" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(L10&lt;10,"0",""),L10)</f>
+        <f t="shared" ref="A10:A23" si="7">_xlfn.CONCAT("subject",IF(L10&lt;10,"0",""),L10)</f>
         <v>subject07</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="C10" s="79" t="str">
-        <f>C9</f>
+        <v>245</v>
+      </c>
+      <c r="C10" s="76" t="str">
+        <f t="shared" si="2"/>
         <v>programA</v>
       </c>
-      <c r="D10" s="62">
+      <c r="D10" s="63">
         <v>2</v>
       </c>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62" t="str">
-        <f>_xlfn.CONCAT("0",IF(L10&lt;10,"0",""),L10)</f>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63" t="str">
+        <f t="shared" ref="F10:F23" si="8">_xlfn.CONCAT("0",IF(L10&lt;10,"0",""),L10)</f>
         <v>007</v>
       </c>
-      <c r="G10" s="124" t="str">
-        <f>G9</f>
+      <c r="G10" s="117" t="str">
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Group A|G2A, Group B|G2B</v>
       </c>
-      <c r="H10" s="125" t="str">
-        <f>H9</f>
+      <c r="H10" s="118" t="str">
+        <f t="shared" si="4"/>
         <v>#FFC7CE</v>
       </c>
-      <c r="I10" s="62"/>
-      <c r="J10" s="126" t="str">
+      <c r="I10" s="63"/>
+      <c r="J10" s="119" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K10" s="127" t="str">
-        <f>K9</f>
+      <c r="K10" s="120" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">teacher01|main@G2A, teacher01|main@G2B</v>
       </c>
-      <c r="L10" s="128">
-        <f>L9+1</f>
+      <c r="L10" s="121">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
     </row>
     <row r="11" ht="30" customHeight="1">
       <c r="A11" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(L11&lt;10,"0",""),L11)</f>
+        <f t="shared" si="7"/>
         <v>subject08</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="C11" s="79" t="str">
-        <f>C10</f>
+        <v>246</v>
+      </c>
+      <c r="C11" s="76" t="str">
+        <f t="shared" ref="C11:C23" si="9">C10</f>
         <v>programA</v>
       </c>
-      <c r="D11" s="62">
+      <c r="D11" s="63">
         <v>2</v>
       </c>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62" t="str">
-        <f>_xlfn.CONCAT("0",IF(L11&lt;10,"0",""),L11)</f>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63" t="str">
+        <f t="shared" si="8"/>
         <v>008</v>
       </c>
-      <c r="G11" s="124" t="str">
+      <c r="G11" s="117" t="str">
         <f>G10</f>
         <v xml:space="preserve">Group A|G2A, Group B|G2B</v>
       </c>
-      <c r="H11" s="125" t="str">
-        <f>H10</f>
+      <c r="H11" s="118" t="str">
+        <f t="shared" ref="H11:H18" si="10">H10</f>
         <v>#FFC7CE</v>
       </c>
-      <c r="I11" s="62"/>
-      <c r="J11" s="126" t="str">
+      <c r="I11" s="63"/>
+      <c r="J11" s="119" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="K11" s="127" t="str">
+      <c r="K11" s="120" t="str">
         <f>K10</f>
         <v xml:space="preserve">teacher01|main@G2A, teacher01|main@G2B</v>
       </c>
-      <c r="L11" s="128">
-        <f>L10+1</f>
+      <c r="L11" s="121">
+        <f t="shared" ref="L11:L23" si="11">L10+1</f>
         <v>8</v>
       </c>
     </row>
     <row r="12" ht="30" customHeight="1">
       <c r="A12" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(L12&lt;10,"0",""),L12)</f>
+        <f t="shared" si="7"/>
         <v>subject09</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="C12" s="79" t="str">
-        <f>C11</f>
+        <v>247</v>
+      </c>
+      <c r="C12" s="76" t="str">
+        <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D12" s="62">
+      <c r="D12" s="63">
         <v>3</v>
       </c>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62" t="str">
-        <f>_xlfn.CONCAT("0",IF(L12&lt;10,"0",""),L12)</f>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63" t="str">
+        <f t="shared" si="8"/>
         <v>009</v>
       </c>
-      <c r="G12" s="124" t="s">
-        <v>240</v>
-      </c>
-      <c r="H12" s="125" t="str">
-        <f>H11</f>
+      <c r="G12" s="117" t="s">
+        <v>248</v>
+      </c>
+      <c r="H12" s="118" t="str">
+        <f t="shared" si="10"/>
         <v>#FFC7CE</v>
       </c>
-      <c r="I12" s="62"/>
-      <c r="J12" s="126" t="str">
+      <c r="I12" s="63"/>
+      <c r="J12" s="119" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K12" s="127" t="s">
-        <v>241</v>
-      </c>
-      <c r="L12" s="128">
-        <f>L11+1</f>
+      <c r="K12" s="120" t="s">
+        <v>249</v>
+      </c>
+      <c r="L12" s="121">
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
     </row>
     <row r="13" ht="30" customHeight="1">
       <c r="A13" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(L13&lt;10,"0",""),L13)</f>
+        <f t="shared" si="7"/>
         <v>subject10</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="C13" s="79" t="str">
-        <f>C12</f>
+        <v>250</v>
+      </c>
+      <c r="C13" s="76" t="str">
+        <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D13" s="62">
+      <c r="D13" s="63">
         <v>3</v>
       </c>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62" t="str">
-        <f>_xlfn.CONCAT("0",IF(L13&lt;10,"0",""),L13)</f>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63" t="str">
+        <f t="shared" si="8"/>
         <v>010</v>
       </c>
-      <c r="G13" s="124" t="str">
-        <f>G12</f>
+      <c r="G13" s="117" t="str">
+        <f t="shared" ref="G13:G23" si="12">G12</f>
         <v xml:space="preserve">Group A|G3A, Group B|G3B</v>
       </c>
-      <c r="H13" s="125" t="str">
-        <f>H12</f>
+      <c r="H13" s="118" t="str">
+        <f t="shared" si="10"/>
         <v>#FFC7CE</v>
       </c>
-      <c r="I13" s="62"/>
-      <c r="J13" s="126" t="str">
+      <c r="I13" s="63"/>
+      <c r="J13" s="119" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K13" s="127" t="str">
-        <f>K12</f>
+      <c r="K13" s="120" t="str">
+        <f t="shared" ref="K13:K23" si="13">K12</f>
         <v xml:space="preserve">teacher01|main@G3A, teacher01|main@G3B</v>
       </c>
-      <c r="L13" s="128">
-        <f>L12+1</f>
+      <c r="L13" s="121">
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
     </row>
     <row r="14" ht="30" customHeight="1">
       <c r="A14" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(L14&lt;10,"0",""),L14)</f>
+        <f t="shared" si="7"/>
         <v>subject11</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C14" s="79" t="str">
-        <f>C13</f>
+        <v>251</v>
+      </c>
+      <c r="C14" s="76" t="str">
+        <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D14" s="62">
+      <c r="D14" s="63">
         <v>3</v>
       </c>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62" t="str">
-        <f>_xlfn.CONCAT("0",IF(L14&lt;10,"0",""),L14)</f>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63" t="str">
+        <f t="shared" si="8"/>
         <v>011</v>
       </c>
-      <c r="G14" s="124" t="str">
-        <f>G13</f>
+      <c r="G14" s="117" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve">Group A|G3A, Group B|G3B</v>
       </c>
-      <c r="H14" s="125" t="s">
-        <v>244</v>
-      </c>
-      <c r="I14" s="62"/>
-      <c r="J14" s="126" t="str">
+      <c r="H14" s="118" t="s">
+        <v>252</v>
+      </c>
+      <c r="I14" s="63"/>
+      <c r="J14" s="119" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K14" s="127" t="str">
-        <f>K13</f>
+      <c r="K14" s="120" t="str">
+        <f t="shared" si="13"/>
         <v xml:space="preserve">teacher01|main@G3A, teacher01|main@G3B</v>
       </c>
-      <c r="L14" s="128">
-        <f>L13+1</f>
+      <c r="L14" s="121">
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
     </row>
     <row r="15" ht="30" customHeight="1">
       <c r="A15" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(L15&lt;10,"0",""),L15)</f>
+        <f t="shared" si="7"/>
         <v>subject12</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="C15" s="79" t="str">
-        <f>C14</f>
+        <v>253</v>
+      </c>
+      <c r="C15" s="76" t="str">
+        <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D15" s="62">
+      <c r="D15" s="63">
         <v>3</v>
       </c>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62" t="str">
-        <f>_xlfn.CONCAT("0",IF(L15&lt;10,"0",""),L15)</f>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63" t="str">
+        <f t="shared" si="8"/>
         <v>012</v>
       </c>
-      <c r="G15" s="124" t="str">
-        <f>G14</f>
+      <c r="G15" s="117" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve">Group A|G3A, Group B|G3B</v>
       </c>
-      <c r="H15" s="125" t="str">
-        <f>H14</f>
+      <c r="H15" s="118" t="str">
+        <f t="shared" si="10"/>
         <v>#C6EFCD</v>
       </c>
-      <c r="I15" s="62"/>
-      <c r="J15" s="126" t="str">
+      <c r="I15" s="63"/>
+      <c r="J15" s="119" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="K15" s="127" t="str">
-        <f>K14</f>
+      <c r="K15" s="120" t="str">
+        <f t="shared" si="13"/>
         <v xml:space="preserve">teacher01|main@G3A, teacher01|main@G3B</v>
       </c>
-      <c r="L15" s="128">
-        <f>L14+1</f>
+      <c r="L15" s="121">
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
     </row>
     <row r="16" ht="30" customHeight="1">
       <c r="A16" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(L16&lt;10,"0",""),L16)</f>
+        <f t="shared" si="7"/>
         <v>subject13</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="C16" s="79" t="str">
-        <f>C15</f>
+        <v>254</v>
+      </c>
+      <c r="C16" s="76" t="str">
+        <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D16" s="62">
+      <c r="D16" s="63">
         <v>4</v>
       </c>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62" t="str">
-        <f>_xlfn.CONCAT("0",IF(L16&lt;10,"0",""),L16)</f>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63" t="str">
+        <f t="shared" si="8"/>
         <v>013</v>
       </c>
-      <c r="G16" s="124" t="s">
-        <v>247</v>
-      </c>
-      <c r="H16" s="125" t="str">
-        <f>H15</f>
+      <c r="G16" s="117" t="s">
+        <v>255</v>
+      </c>
+      <c r="H16" s="118" t="str">
+        <f t="shared" si="10"/>
         <v>#C6EFCD</v>
       </c>
-      <c r="I16" s="62"/>
-      <c r="J16" s="126" t="str">
+      <c r="I16" s="63"/>
+      <c r="J16" s="119" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K16" s="127" t="s">
-        <v>248</v>
-      </c>
-      <c r="L16" s="128">
-        <f>L15+1</f>
+      <c r="K16" s="120" t="s">
+        <v>256</v>
+      </c>
+      <c r="L16" s="121">
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
     </row>
     <row r="17" ht="30" customHeight="1">
       <c r="A17" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(L17&lt;10,"0",""),L17)</f>
+        <f t="shared" si="7"/>
         <v>subject14</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="C17" s="79" t="str">
-        <f>C16</f>
+        <v>257</v>
+      </c>
+      <c r="C17" s="76" t="str">
+        <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D17" s="62">
+      <c r="D17" s="63">
         <v>4</v>
       </c>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62" t="str">
-        <f>_xlfn.CONCAT("0",IF(L17&lt;10,"0",""),L17)</f>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63" t="str">
+        <f t="shared" si="8"/>
         <v>014</v>
       </c>
-      <c r="G17" s="124" t="str">
-        <f>G16</f>
+      <c r="G17" s="117" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve">Group A|G4A, Group B|G4B</v>
       </c>
-      <c r="H17" s="125" t="str">
-        <f>H16</f>
+      <c r="H17" s="118" t="str">
+        <f t="shared" si="10"/>
         <v>#C6EFCD</v>
       </c>
-      <c r="I17" s="62"/>
-      <c r="J17" s="126" t="str">
+      <c r="I17" s="63"/>
+      <c r="J17" s="119" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K17" s="127" t="str">
-        <f>K16</f>
+      <c r="K17" s="120" t="str">
+        <f t="shared" si="13"/>
         <v xml:space="preserve">teacher01|main@G4A, teacher01|main@G4B</v>
       </c>
-      <c r="L17" s="128">
-        <f>L16+1</f>
+      <c r="L17" s="121">
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
     </row>
     <row r="18" ht="30" customHeight="1">
       <c r="A18" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(L18&lt;10,"0",""),L18)</f>
+        <f t="shared" si="7"/>
         <v>subject15</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="C18" s="79" t="str">
-        <f>C17</f>
+        <v>258</v>
+      </c>
+      <c r="C18" s="76" t="str">
+        <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D18" s="62">
+      <c r="D18" s="63">
         <v>4</v>
       </c>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62" t="str">
-        <f>_xlfn.CONCAT("0",IF(L18&lt;10,"0",""),L18)</f>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63" t="str">
+        <f t="shared" si="8"/>
         <v>015</v>
       </c>
-      <c r="G18" s="124" t="str">
-        <f>G17</f>
+      <c r="G18" s="117" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve">Group A|G4A, Group B|G4B</v>
       </c>
-      <c r="H18" s="125" t="str">
-        <f>H17</f>
+      <c r="H18" s="118" t="str">
+        <f t="shared" si="10"/>
         <v>#C6EFCD</v>
       </c>
-      <c r="I18" s="62"/>
-      <c r="J18" s="126" t="str">
+      <c r="I18" s="63"/>
+      <c r="J18" s="119" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K18" s="127" t="str">
-        <f>K17</f>
+      <c r="K18" s="120" t="str">
+        <f t="shared" si="13"/>
         <v xml:space="preserve">teacher01|main@G4A, teacher01|main@G4B</v>
       </c>
-      <c r="L18" s="128">
-        <f>L17+1</f>
+      <c r="L18" s="121">
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
     </row>
     <row r="19" ht="30" customHeight="1">
       <c r="A19" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(L19&lt;10,"0",""),L19)</f>
+        <f t="shared" si="7"/>
         <v>subject16</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="C19" s="79" t="str">
-        <f>C18</f>
+        <v>259</v>
+      </c>
+      <c r="C19" s="76" t="str">
+        <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D19" s="62">
+      <c r="D19" s="63">
         <v>4</v>
       </c>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62" t="str">
-        <f>_xlfn.CONCAT("0",IF(L19&lt;10,"0",""),L19)</f>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63" t="str">
+        <f t="shared" si="8"/>
         <v>016</v>
       </c>
-      <c r="G19" s="124" t="str">
-        <f>G18</f>
+      <c r="G19" s="117" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve">Group A|G4A, Group B|G4B</v>
       </c>
-      <c r="H19" s="125" t="s">
-        <v>252</v>
-      </c>
-      <c r="I19" s="62"/>
-      <c r="J19" s="126" t="str">
+      <c r="H19" s="118" t="s">
+        <v>260</v>
+      </c>
+      <c r="I19" s="63"/>
+      <c r="J19" s="119" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="K19" s="127" t="str">
-        <f>K18</f>
+      <c r="K19" s="120" t="str">
+        <f t="shared" si="13"/>
         <v xml:space="preserve">teacher01|main@G4A, teacher01|main@G4B</v>
       </c>
-      <c r="L19" s="128">
-        <f>L18+1</f>
+      <c r="L19" s="121">
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
     </row>
     <row r="20" ht="30" customHeight="1">
       <c r="A20" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(L20&lt;10,"0",""),L20)</f>
+        <f t="shared" si="7"/>
         <v>subject17</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="C20" s="79" t="str">
-        <f>C19</f>
+        <v>261</v>
+      </c>
+      <c r="C20" s="76" t="str">
+        <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D20" s="62">
+      <c r="D20" s="63">
         <v>5</v>
       </c>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62" t="str">
-        <f>_xlfn.CONCAT("0",IF(L20&lt;10,"0",""),L20)</f>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63" t="str">
+        <f t="shared" si="8"/>
         <v>017</v>
       </c>
-      <c r="G20" s="124" t="s">
-        <v>254</v>
-      </c>
-      <c r="H20" s="125" t="s">
-        <v>252</v>
-      </c>
-      <c r="I20" s="62"/>
-      <c r="J20" s="126" t="str">
+      <c r="G20" s="117" t="s">
+        <v>262</v>
+      </c>
+      <c r="H20" s="118" t="s">
+        <v>260</v>
+      </c>
+      <c r="I20" s="63"/>
+      <c r="J20" s="119" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K20" s="127" t="s">
-        <v>255</v>
-      </c>
-      <c r="L20" s="128">
-        <f>L19+1</f>
+      <c r="K20" s="120" t="s">
+        <v>263</v>
+      </c>
+      <c r="L20" s="121">
+        <f t="shared" si="11"/>
         <v>17</v>
       </c>
     </row>
     <row r="21" ht="30" customHeight="1">
       <c r="A21" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(L21&lt;10,"0",""),L21)</f>
+        <f t="shared" si="7"/>
         <v>subject18</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="C21" s="79" t="str">
-        <f>C20</f>
+        <v>264</v>
+      </c>
+      <c r="C21" s="76" t="str">
+        <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D21" s="62">
+      <c r="D21" s="63">
         <v>5</v>
       </c>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62" t="str">
-        <f>_xlfn.CONCAT("0",IF(L21&lt;10,"0",""),L21)</f>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63" t="str">
+        <f t="shared" si="8"/>
         <v>018</v>
       </c>
-      <c r="G21" s="124" t="str">
-        <f>G20</f>
+      <c r="G21" s="117" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve">Group A|G5A, Group B|G5B</v>
       </c>
-      <c r="H21" s="125" t="s">
-        <v>252</v>
-      </c>
-      <c r="I21" s="62"/>
-      <c r="J21" s="126" t="str">
+      <c r="H21" s="118" t="s">
+        <v>260</v>
+      </c>
+      <c r="I21" s="63"/>
+      <c r="J21" s="119" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K21" s="127" t="str">
-        <f>K20</f>
+      <c r="K21" s="120" t="str">
+        <f t="shared" si="13"/>
         <v xml:space="preserve">teacher01|main@G5A, teacher01|main@G5B</v>
       </c>
-      <c r="L21" s="128">
-        <f>L20+1</f>
+      <c r="L21" s="121">
+        <f t="shared" si="11"/>
         <v>18</v>
       </c>
     </row>
     <row r="22" ht="30" customHeight="1">
       <c r="A22" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(L22&lt;10,"0",""),L22)</f>
+        <f t="shared" si="7"/>
         <v>subject19</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="C22" s="79" t="str">
-        <f>C21</f>
+        <v>265</v>
+      </c>
+      <c r="C22" s="76" t="str">
+        <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D22" s="62">
+      <c r="D22" s="63">
         <v>5</v>
       </c>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62" t="str">
-        <f>_xlfn.CONCAT("0",IF(L22&lt;10,"0",""),L22)</f>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63" t="str">
+        <f t="shared" si="8"/>
         <v>019</v>
       </c>
-      <c r="G22" s="124" t="str">
-        <f>G21</f>
+      <c r="G22" s="117" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve">Group A|G5A, Group B|G5B</v>
       </c>
-      <c r="H22" s="125" t="s">
-        <v>252</v>
-      </c>
-      <c r="I22" s="62"/>
-      <c r="J22" s="126" t="str">
+      <c r="H22" s="118" t="s">
+        <v>260</v>
+      </c>
+      <c r="I22" s="63"/>
+      <c r="J22" s="119" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K22" s="127" t="str">
-        <f>K21</f>
+      <c r="K22" s="120" t="str">
+        <f t="shared" si="13"/>
         <v xml:space="preserve">teacher01|main@G5A, teacher01|main@G5B</v>
       </c>
-      <c r="L22" s="128">
-        <f>L21+1</f>
+      <c r="L22" s="121">
+        <f t="shared" si="11"/>
         <v>19</v>
       </c>
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="A23" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(L23&lt;10,"0",""),L23)</f>
+        <f t="shared" si="7"/>
         <v>subject20</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="C23" s="79" t="str">
-        <f>C22</f>
+        <v>266</v>
+      </c>
+      <c r="C23" s="76" t="str">
+        <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D23" s="62">
+      <c r="D23" s="63">
         <v>5</v>
       </c>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62" t="str">
-        <f>_xlfn.CONCAT("0",IF(L23&lt;10,"0",""),L23)</f>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63" t="str">
+        <f t="shared" si="8"/>
         <v>020</v>
       </c>
-      <c r="G23" s="124" t="str">
-        <f>G22</f>
+      <c r="G23" s="117" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve">Group A|G5A, Group B|G5B</v>
       </c>
-      <c r="H23" s="125" t="s">
-        <v>252</v>
-      </c>
-      <c r="I23" s="62"/>
-      <c r="J23" s="126" t="str">
+      <c r="H23" s="118" t="s">
+        <v>260</v>
+      </c>
+      <c r="I23" s="63"/>
+      <c r="J23" s="119" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="K23" s="127" t="str">
-        <f>K22</f>
+      <c r="K23" s="120" t="str">
+        <f t="shared" si="13"/>
         <v xml:space="preserve">teacher01|main@G5A, teacher01|main@G5B</v>
       </c>
-      <c r="L23" s="128">
-        <f>L22+1</f>
+      <c r="L23" s="121">
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
     </row>
     <row r="24" ht="14.25">
-      <c r="L24" s="76"/>
+      <c r="L24" s="74"/>
     </row>
     <row r="25" ht="14.25"/>
   </sheetData>
@@ -3343,7 +3366,7 @@
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -3355,11 +3378,11 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -3384,58 +3407,58 @@
   <sheetData>
     <row r="1" ht="14.25">
       <c r="A1" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>25</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -3473,116 +3496,121 @@
     <col customWidth="1" min="20" max="21" width="14.7109375"/>
     <col customWidth="1" min="22" max="22" width="14.421875"/>
     <col customWidth="1" min="28" max="28" width="15.00390625"/>
+    <col customWidth="1" min="29" max="29" width="17.140625"/>
   </cols>
   <sheetData>
-    <row r="1" s="13" customFormat="1" ht="14.25">
-      <c r="A1" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="13" t="str">
+    <row r="1" s="12" customFormat="1" ht="14.25">
+      <c r="A1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="12" t="str">
         <f>_xlfn.CONCAT($E$3,".",E5)</f>
         <v>plugins.users.users</v>
       </c>
-      <c r="F1" s="13" t="str">
+      <c r="F1" s="12" t="str">
         <f>_xlfn.CONCAT($E$3,".",F5)</f>
         <v>plugins.users.user-data</v>
       </c>
-      <c r="G1" s="13" t="str">
+      <c r="G1" s="12" t="str">
         <f>_xlfn.CONCAT($E$3,".",G5)</f>
         <v>plugins.users.centers</v>
       </c>
-      <c r="H1" s="13" t="str">
+      <c r="H1" s="12" t="str">
         <f>_xlfn.CONCAT($E$3,".",H5)</f>
         <v>plugins.users.profiles</v>
       </c>
-      <c r="I1" s="13" t="str">
+      <c r="I1" s="12" t="str">
         <f>_xlfn.CONCAT($I$3,".",I5)</f>
         <v>plugins.dataset.dataset</v>
       </c>
-      <c r="J1" s="13" t="str">
+      <c r="J1" s="12" t="str">
         <f>_xlfn.CONCAT($J$3,".",J5)</f>
         <v>plugins.calendar.calendar</v>
       </c>
-      <c r="K1" s="13" t="str">
+      <c r="K1" s="12" t="str">
         <f>_xlfn.CONCAT($K$3,".",K5)</f>
         <v>plugins.academic-portfolio.portfolio</v>
       </c>
-      <c r="L1" s="13" t="str">
+      <c r="L1" s="12" t="str">
         <f>_xlfn.CONCAT($K$3,".",L5)</f>
         <v>plugins.academic-portfolio.programs</v>
       </c>
-      <c r="M1" s="13" t="str">
+      <c r="M1" s="12" t="str">
         <f>_xlfn.CONCAT($K$3,".",M5)</f>
         <v>plugins.academic-portfolio.profiles</v>
       </c>
-      <c r="N1" s="13" t="str">
+      <c r="N1" s="12" t="str">
         <f>_xlfn.CONCAT($K$3,".",N5)</f>
         <v>plugins.academic-portfolio.subjects</v>
       </c>
-      <c r="O1" s="13" t="str">
+      <c r="O1" s="12" t="str">
         <f>_xlfn.CONCAT($K$3,".",O5)</f>
         <v>plugins.academic-portfolio.tree</v>
       </c>
-      <c r="P1" s="13" t="str">
+      <c r="P1" s="12" t="str">
         <f>_xlfn.CONCAT($P$3,".",P5)</f>
         <v>plugins.families.families</v>
       </c>
-      <c r="Q1" s="14" t="str">
+      <c r="Q1" s="12" t="str">
         <f>_xlfn.CONCAT($P$3,".",Q5)</f>
         <v>plugins.families.config</v>
       </c>
-      <c r="R1" s="14" t="str">
+      <c r="R1" s="12" t="str">
         <f>_xlfn.CONCAT($P$3,".",R5)</f>
         <v>plugins.families.families-basic-info</v>
       </c>
-      <c r="S1" s="14" t="str">
+      <c r="S1" s="12" t="str">
         <f>_xlfn.CONCAT($P$3,".",S5)</f>
         <v>plugins.families.families-custom-info</v>
       </c>
-      <c r="T1" s="14" t="str">
+      <c r="T1" s="12" t="str">
         <f>_xlfn.CONCAT($P$3,".",T5)</f>
         <v>plugins.families.families-guardians-info</v>
       </c>
-      <c r="U1" s="14" t="str">
+      <c r="U1" s="12" t="str">
         <f>_xlfn.CONCAT($P$3,".",U5)</f>
         <v>plugins.families.families-students-info</v>
       </c>
-      <c r="V1" s="13" t="str">
+      <c r="V1" s="12" t="str">
         <f>_xlfn.CONCAT($V$3,".",V5)</f>
         <v>plugins.timetable.config</v>
       </c>
-      <c r="W1" s="13" t="str">
+      <c r="W1" s="12" t="str">
         <f>_xlfn.CONCAT($V$3,".",W5)</f>
         <v>plugins.timetable.timetable</v>
       </c>
-      <c r="X1" s="13" t="str">
+      <c r="X1" s="12" t="str">
         <f>_xlfn.CONCAT($X$3,".",X5)</f>
         <v>plugins.tasks.tasks</v>
       </c>
-      <c r="Y1" s="13" t="str">
+      <c r="Y1" s="12" t="str">
         <f>_xlfn.CONCAT($X$3,".",Y5)</f>
         <v>plugins.tasks.library</v>
       </c>
-      <c r="Z1" s="13" t="str">
+      <c r="Z1" s="12" t="str">
         <f>_xlfn.CONCAT($X$3,".",Z5)</f>
         <v>plugins.tasks.ongoing</v>
       </c>
-      <c r="AA1" s="13" t="str">
+      <c r="AA1" s="12" t="str">
         <f>_xlfn.CONCAT($X$3,".",AA5)</f>
         <v>plugins.tasks.history</v>
       </c>
-      <c r="AB1" s="13" t="str">
+      <c r="AB1" s="12" t="str">
         <f>_xlfn.CONCAT($AB$3,".",AB5)</f>
         <v>plugins.curriculum.curriculum</v>
+      </c>
+      <c r="AC1" s="12" t="str">
+        <f>_xlfn.CONCAT($AC$3,".",AC5)</f>
+        <v>plugins.leebrary.library</v>
       </c>
     </row>
     <row r="2" s="9" customFormat="1" ht="21.350000000000001" customHeight="1">
@@ -3590,588 +3618,613 @@
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
+      <c r="E2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
     </row>
     <row r="3" ht="14.25">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="21" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="23" t="s">
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="17" t="s">
+      <c r="J3" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="W3" s="18"/>
-      <c r="X3" s="26" t="s">
+      <c r="K3" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="20" t="s">
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="21" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" s="28" customFormat="1" ht="19.850000000000001" customHeight="1">
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29" t="s">
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="31" t="s">
+      <c r="W3" s="16"/>
+      <c r="X3" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="33" t="s">
+      <c r="AC3" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="35" t="s">
+    </row>
+    <row r="4" s="27" customFormat="1" ht="19.850000000000001" customHeight="1">
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="29" t="s">
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="W4" s="30"/>
-      <c r="X4" s="31" t="s">
+      <c r="J4" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="32" t="s">
+      <c r="K4" s="32" t="s">
         <v>43</v>
       </c>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="W4" s="29"/>
+      <c r="X4" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="37"/>
+      <c r="AB4" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC4" s="32" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="5" ht="14.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" s="43" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="K5" s="44" t="s">
+      <c r="F5" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="L5" s="45" t="s">
+      <c r="G5" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="M5" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5" s="45" t="s">
+      <c r="H5" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="O5" s="45" t="s">
+      <c r="I5" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="P5" s="46" t="s">
+      <c r="J5" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="Q5" s="47" t="s">
+      <c r="K5" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="R5" s="47" t="s">
+      <c r="L5" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="S5" s="47" t="s">
+      <c r="M5" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="T5" s="47" t="s">
+      <c r="O5" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="U5" s="48" t="s">
+      <c r="P5" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="V5" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="W5" s="40" t="s">
+      <c r="Q5" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="X5" s="42" t="s">
+      <c r="R5" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="Y5" s="42" t="s">
+      <c r="S5" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="Z5" s="42" t="s">
+      <c r="T5" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="AA5" s="42" t="s">
+      <c r="U5" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="AB5" s="43" t="s">
+      <c r="V5" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="W5" s="39" t="s">
         <v>65</v>
+      </c>
+      <c r="X5" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y5" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z5" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA5" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB5" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC5" s="48" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="6" s="49" customFormat="1" ht="19.5" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E6" s="51" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H6" s="52" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="I6" s="53" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J6" s="54" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K6" s="55" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="L6" s="56" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="M6" s="56" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="N6" s="56" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="O6" s="56" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="P6" s="57" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="Q6" s="58" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="R6" s="58" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="S6" s="58" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="T6" s="58" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="U6" s="59" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="V6" s="51" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="W6" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="X6" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y6" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z6" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA6" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB6" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="X6" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y6" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z6" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA6" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB6" s="60" t="s">
-        <v>74</v>
+      <c r="AC6" s="61" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="7" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A7" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="61"/>
-      <c r="E7" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="H7" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="I7" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="J7" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="K7" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="L7" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="M7" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="N7" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="O7" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="P7" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q7" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="R7" s="63"/>
+        <v>87</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="62"/>
+      <c r="E7" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="I7" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="N7" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="O7" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="P7" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q7" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="R7" s="64"/>
       <c r="S7" s="64"/>
       <c r="T7" s="64"/>
       <c r="U7" s="64"/>
       <c r="V7" s="64" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="W7" s="64" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="X7" s="64" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Y7" s="64" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Z7" s="64" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AA7" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB7" s="62" t="s">
-        <v>83</v>
+        <v>87</v>
+      </c>
+      <c r="AB7" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC7" s="63" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="8" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A8" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B8" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="62"/>
+      <c r="E8" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="61"/>
-      <c r="E8" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="H8" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="I8" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="J8" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="K8" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="L8" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="O8" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="P8" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q8" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="R8" s="63"/>
-      <c r="S8" s="62"/>
-      <c r="T8" s="62"/>
-      <c r="U8" s="62"/>
-      <c r="V8" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="W8" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="X8" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y8" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z8" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA8" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB8" s="62" t="s">
-        <v>83</v>
+      <c r="F8" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="I8" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="O8" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="P8" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q8" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="R8" s="64"/>
+      <c r="S8" s="63"/>
+      <c r="T8" s="63"/>
+      <c r="U8" s="63"/>
+      <c r="V8" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="W8" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="X8" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y8" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z8" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA8" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB8" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC8" s="63" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="9" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A9" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="62"/>
+      <c r="E9" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="61"/>
-      <c r="E9" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="F9" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="G9" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="H9" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="I9" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="J9" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="K9" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="L9" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="O9" s="62"/>
-      <c r="P9" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q9" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="R9" s="65" t="s">
+      <c r="H9" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="I9" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="S9" s="62" t="s">
-        <v>94</v>
-      </c>
-      <c r="T9" s="62" t="s">
-        <v>94</v>
-      </c>
-      <c r="U9" s="62" t="s">
-        <v>94</v>
-      </c>
-      <c r="V9" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="W9" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="X9" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y9" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z9" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA9" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB9" s="65" t="s">
-        <v>89</v>
+      <c r="J9" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="K9" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="L9" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="O9" s="63"/>
+      <c r="P9" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q9" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="R9" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="S9" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="T9" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="U9" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="V9" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="W9" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="X9" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y9" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z9" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA9" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB9" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC9" s="63" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="10" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A10" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="61" t="str">
+        <v>99</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="62" t="str">
         <f>A9</f>
         <v>student</v>
       </c>
-      <c r="E10" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="F10" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="G10" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="H10" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="I10" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="J10" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="K10" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="L10" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="O10" s="62"/>
-      <c r="P10" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q10" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="R10" s="62" t="s">
+      <c r="E10" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="I10" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="S10" s="62" t="s">
-        <v>94</v>
-      </c>
-      <c r="T10" s="62" t="s">
-        <v>94</v>
-      </c>
-      <c r="U10" s="62" t="s">
-        <v>94</v>
-      </c>
-      <c r="V10" s="62"/>
-      <c r="W10" s="62"/>
-      <c r="X10" s="62"/>
-      <c r="Y10" s="62"/>
-      <c r="Z10" s="62"/>
-      <c r="AA10" s="62"/>
-      <c r="AB10" s="62"/>
+      <c r="J10" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="K10" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="L10" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="M10" s="63"/>
+      <c r="N10" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="O10" s="63"/>
+      <c r="P10" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q10" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="R10" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="S10" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="T10" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="U10" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="V10" s="63"/>
+      <c r="W10" s="63"/>
+      <c r="X10" s="63"/>
+      <c r="Y10" s="63"/>
+      <c r="Z10" s="63"/>
+      <c r="AA10" s="63"/>
+      <c r="AB10" s="63"/>
+      <c r="AC10" s="63" t="s">
+        <v>95</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="E2:AB2"/>
+    <mergeCell ref="E2:AC2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="K3:O3"/>
     <mergeCell ref="P3:U3"/>
@@ -4207,248 +4260,356 @@
     <col customWidth="1" min="1" max="1" width="12.421875"/>
     <col customWidth="1" min="2" max="2" width="13.140625"/>
     <col customWidth="1" min="3" max="3" width="19.8515625"/>
-    <col bestFit="1" customWidth="1" min="4" max="4" width="24.78125"/>
-    <col bestFit="1" min="5" max="5" width="9.140625"/>
-    <col customWidth="1" min="7" max="7" width="36.57421875"/>
+    <col customWidth="1" min="4" max="4" width="11.00390625"/>
+    <col customWidth="1" min="5" max="5" width="12.421875"/>
+    <col bestFit="1" customWidth="1" min="6" max="6" width="24.78125"/>
+    <col bestFit="1" min="7" max="7" width="9.140625"/>
+    <col customWidth="1" min="9" max="9" width="36.57421875"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
       <c r="A1" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>47</v>
+        <v>106</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="67" t="s">
-        <v>69</v>
+        <v>109</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="66" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A3" s="68" t="s">
-        <v>104</v>
+      <c r="A3" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" s="69" t="s">
-        <v>107</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="F3" s="62" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="70" t="s">
-        <v>109</v>
+        <v>113</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="67">
+        <v>36526</v>
+      </c>
+      <c r="F3" s="68" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="H3" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="69" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A4" s="68" t="s">
-        <v>110</v>
+      <c r="A4" s="10" t="s">
+        <v>118</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="69" t="s">
-        <v>112</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="F4" s="62" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="70" t="s">
-        <v>113</v>
+        <v>91</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="67">
+        <v>34781</v>
+      </c>
+      <c r="F4" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="H4" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="69" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="5" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A5" s="71" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" s="72" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" s="73" t="s">
+      <c r="A5" s="70" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="71" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="67">
+        <v>39205</v>
+      </c>
+      <c r="F5" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="F5" s="62" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="70" t="s">
-        <v>117</v>
+      <c r="H5" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="73" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="6" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A6" s="71" t="s">
-        <v>118</v>
-      </c>
-      <c r="B6" s="72" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6" s="72" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6" s="73" t="s">
-        <v>121</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="F6" s="62" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="74" t="s">
-        <v>117</v>
+      <c r="A6" s="70" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="71" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="71" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="67">
+        <v>39156</v>
+      </c>
+      <c r="F6" s="72" t="s">
+        <v>129</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="H6" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="73" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="7" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A7" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="B7" s="72" t="s">
-        <v>123</v>
-      </c>
-      <c r="C7" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="73" t="s">
-        <v>124</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="F7" s="62" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="70" t="s">
-        <v>125</v>
+      <c r="A7" s="70" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="71" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="71" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="67">
+        <v>42171</v>
+      </c>
+      <c r="F7" s="72" t="s">
+        <v>132</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="H7" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="73" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="8" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A8" s="71" t="s">
-        <v>126</v>
-      </c>
-      <c r="B8" s="72" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="72" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8" s="73" t="s">
+      <c r="A8" s="70" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="71" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="F8" s="62" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="74" t="s">
-        <v>125</v>
+      <c r="D8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="67">
+        <v>42237</v>
+      </c>
+      <c r="F8" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="H8" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="73" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="9" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A9" s="71" t="s">
-        <v>129</v>
-      </c>
-      <c r="B9" s="75" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9" s="72" t="s">
-        <v>131</v>
-      </c>
-      <c r="D9" s="73" t="s">
-        <v>132</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="F9" s="62" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="70" t="s">
-        <v>133</v>
+      <c r="A9" s="70" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="71" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="67">
+        <v>27791</v>
+      </c>
+      <c r="F9" s="72" t="s">
+        <v>140</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="H9" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="69" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" s="76"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
+      <c r="A10" s="74"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" s="76"/>
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
+      <c r="A11" s="74"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D3"/>
-    <hyperlink r:id="rId2" ref="D4"/>
-    <hyperlink r:id="rId3" ref="D5"/>
-    <hyperlink r:id="rId4" ref="D7"/>
-    <hyperlink r:id="rId5" ref="D9"/>
+    <hyperlink r:id="rId1" ref="F3"/>
+    <hyperlink r:id="rId2" ref="F4"/>
+    <hyperlink r:id="rId3" ref="F5"/>
+    <hyperlink r:id="rId4" ref="F7"/>
+    <hyperlink r:id="rId5" ref="F9"/>
   </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7" disablePrompts="0">
+        <x14:dataValidation xr:uid="{000A00A4-00CB-473C-829E-002F007F00E5}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>GENRE_ANSWER</xm:f>
+          </x14:formula1>
+          <xm:sqref>D3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{004500ED-0079-498A-9BBF-009300EF001A}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>GENRE_ANSWER</xm:f>
+          </x14:formula1>
+          <xm:sqref>D4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{00E200D2-0071-401F-95C1-002C00A20077}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>GENRE_ANSWER</xm:f>
+          </x14:formula1>
+          <xm:sqref>D5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{006A0050-00C8-4384-8726-00DB00AF00FA}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>GENRE_ANSWER</xm:f>
+          </x14:formula1>
+          <xm:sqref>D6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{00B700E2-0038-4CD3-968E-0024006B000A}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>GENRE_ANSWER</xm:f>
+          </x14:formula1>
+          <xm:sqref>D7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{0047006C-0004-44B1-A32B-005400980021}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>GENRE_ANSWER</xm:f>
+          </x14:formula1>
+          <xm:sqref>D8</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{000D0037-0023-4F6A-86D0-00B8008E007C}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>GENRE_ANSWER</xm:f>
+          </x14:formula1>
+          <xm:sqref>D9</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4472,25 +4633,25 @@
   <sheetData>
     <row r="1" ht="14.25">
       <c r="A1" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" ht="22.100000000000001" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="77" t="s">
-        <v>135</v>
+        <v>18</v>
+      </c>
+      <c r="B2" s="75" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A3" s="68" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" s="78" t="str">
+      <c r="A3" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="76" t="str">
         <f>profiles!$A$10</f>
         <v>guardian</v>
       </c>
@@ -4502,9 +4663,9 @@
     </row>
     <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" s="79" t="str">
+        <v>96</v>
+      </c>
+      <c r="B4" s="76" t="str">
         <f>profiles!$A$9</f>
         <v>student</v>
       </c>
@@ -4522,7 +4683,7 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -4539,33 +4700,33 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="67.57421875"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" ht="24.350000000000001" customHeight="1">
-      <c r="A2" s="80" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="81" t="s">
-        <v>137</v>
+      <c r="A2" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="78" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="78" t="s">
-        <v>139</v>
+        <v>146</v>
+      </c>
+      <c r="B3" s="76" t="s">
+        <v>147</v>
       </c>
       <c r="C3" s="9"/>
     </row>
@@ -4573,7 +4734,7 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -4590,41 +4751,41 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="14.8515625"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" ht="22.100000000000001" customHeight="1">
-      <c r="A2" s="80" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="81" t="s">
-        <v>135</v>
+      <c r="A2" s="77" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="78" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A3" s="68" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" s="78" t="str">
+      <c r="A3" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="76" t="str">
         <f>profiles!$A$8</f>
         <v>teacher</v>
       </c>
     </row>
     <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" s="79" t="str">
+        <v>96</v>
+      </c>
+      <c r="B4" s="76" t="str">
         <f>profiles!$A$9</f>
         <v>student</v>
       </c>
@@ -4632,7 +4793,7 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -4650,7 +4811,7 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="11.00390625"/>
     <col customWidth="1" min="2" max="2" width="19.140625"/>
@@ -4675,73 +4836,73 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="X1" s="5"/>
       <c r="Y1" s="5"/>
@@ -4761,239 +4922,239 @@
       <c r="AM1" s="5"/>
     </row>
     <row r="2" s="9" customFormat="1" ht="23.600000000000001" customHeight="1">
-      <c r="A2" s="82"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="E2" s="83" t="s">
-        <v>160</v>
-      </c>
-      <c r="F2" s="83"/>
-      <c r="G2" s="84" t="s">
-        <v>161</v>
-      </c>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="87" t="s">
-        <v>162</v>
-      </c>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="88" t="s">
-        <v>163</v>
-      </c>
-      <c r="R2" s="89"/>
-      <c r="S2" s="89"/>
-      <c r="T2" s="90"/>
-      <c r="U2" s="91" t="s">
-        <v>164</v>
-      </c>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="E2" s="79" t="s">
+        <v>168</v>
+      </c>
+      <c r="F2" s="79"/>
+      <c r="G2" s="80" t="s">
+        <v>169</v>
+      </c>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="83" t="s">
+        <v>170</v>
+      </c>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="84" t="s">
+        <v>171</v>
+      </c>
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="86"/>
+      <c r="U2" s="87" t="s">
+        <v>172</v>
+      </c>
+      <c r="V2" s="88"/>
+      <c r="W2" s="88"/>
     </row>
     <row r="3" ht="34.100000000000001" customHeight="1">
-      <c r="A3" s="93" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="94" t="s">
-        <v>165</v>
-      </c>
-      <c r="D3" s="95" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="96" t="s">
-        <v>166</v>
-      </c>
-      <c r="F3" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="G3" s="98" t="s">
-        <v>168</v>
-      </c>
-      <c r="H3" s="99" t="s">
-        <v>169</v>
-      </c>
-      <c r="I3" s="100" t="s">
-        <v>170</v>
-      </c>
-      <c r="J3" s="100" t="s">
-        <v>171</v>
-      </c>
-      <c r="K3" s="100" t="s">
-        <v>172</v>
-      </c>
-      <c r="L3" s="100" t="s">
+      <c r="A3" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="90" t="s">
         <v>173</v>
       </c>
-      <c r="M3" s="100" t="s">
+      <c r="D3" s="91" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="92" t="s">
         <v>174</v>
       </c>
-      <c r="N3" s="101" t="s">
+      <c r="F3" s="93" t="s">
         <v>175</v>
       </c>
-      <c r="O3" s="102" t="s">
-        <v>173</v>
-      </c>
-      <c r="P3" s="103" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q3" s="104" t="s">
+      <c r="G3" s="94" t="s">
         <v>176</v>
       </c>
-      <c r="R3" s="105" t="s">
+      <c r="H3" s="95" t="s">
         <v>177</v>
       </c>
-      <c r="S3" s="105" t="s">
-        <v>173</v>
-      </c>
-      <c r="T3" s="105" t="s">
-        <v>174</v>
-      </c>
-      <c r="U3" s="106" t="s">
-        <v>173</v>
-      </c>
-      <c r="V3" s="107" t="s">
+      <c r="I3" s="96" t="s">
         <v>178</v>
       </c>
-      <c r="W3" s="108" t="s">
+      <c r="J3" s="96" t="s">
         <v>179</v>
+      </c>
+      <c r="K3" s="96" t="s">
+        <v>180</v>
+      </c>
+      <c r="L3" s="96" t="s">
+        <v>181</v>
+      </c>
+      <c r="M3" s="96" t="s">
+        <v>182</v>
+      </c>
+      <c r="N3" s="97" t="s">
+        <v>183</v>
+      </c>
+      <c r="O3" s="98" t="s">
+        <v>181</v>
+      </c>
+      <c r="P3" s="99" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q3" s="100" t="s">
+        <v>184</v>
+      </c>
+      <c r="R3" s="101" t="s">
+        <v>185</v>
+      </c>
+      <c r="S3" s="101" t="s">
+        <v>181</v>
+      </c>
+      <c r="T3" s="101" t="s">
+        <v>182</v>
+      </c>
+      <c r="U3" s="102" t="s">
+        <v>181</v>
+      </c>
+      <c r="V3" s="103" t="s">
+        <v>186</v>
+      </c>
+      <c r="W3" s="104" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>181</v>
+        <v>188</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>189</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="D4" s="78" t="str">
+        <v>190</v>
+      </c>
+      <c r="D4" s="76" t="str">
         <f>centers!$A$3</f>
         <v>centerA</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="E4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="62">
+      <c r="F4" s="63">
         <v>0</v>
       </c>
-      <c r="G4" s="62">
+      <c r="G4" s="63">
         <v>5</v>
       </c>
-      <c r="H4" s="62"/>
-      <c r="I4" s="65" t="s">
+      <c r="H4" s="63"/>
+      <c r="I4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="109"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65" t="s">
+      <c r="J4" s="105"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="62"/>
-      <c r="P4" s="65" t="s">
+      <c r="O4" s="63"/>
+      <c r="P4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="65" t="s">
+      <c r="Q4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="62" t="s">
+      <c r="R4" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="S4" s="62">
+      <c r="S4" s="63">
         <v>3</v>
       </c>
-      <c r="T4" s="62" t="s">
+      <c r="T4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="62">
+      <c r="U4" s="63">
         <v>3</v>
       </c>
-      <c r="V4" s="62" t="s">
+      <c r="V4" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="W4" s="62" t="s">
+      <c r="W4" s="63" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" s="9" customFormat="1" ht="28.5">
       <c r="A5" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>184</v>
+        <v>191</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>192</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="D5" s="78" t="str">
+        <v>193</v>
+      </c>
+      <c r="D5" s="76" t="str">
         <f>centers!$A$4</f>
         <v>centerB</v>
       </c>
-      <c r="E5" s="62" t="s">
+      <c r="E5" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="62">
+      <c r="F5" s="63">
         <v>240</v>
       </c>
-      <c r="G5" s="62">
+      <c r="G5" s="63">
         <v>4</v>
       </c>
-      <c r="H5" s="62">
+      <c r="H5" s="63">
         <v>60</v>
       </c>
-      <c r="I5" s="62" t="s">
+      <c r="I5" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="109" t="s">
-        <v>186</v>
-      </c>
-      <c r="K5" s="62" t="s">
+      <c r="J5" s="105" t="s">
+        <v>194</v>
+      </c>
+      <c r="K5" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="62">
+      <c r="L5" s="63">
         <v>4</v>
       </c>
-      <c r="M5" s="65" t="s">
+      <c r="M5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="65" t="s">
+      <c r="N5" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="62">
+      <c r="O5" s="63">
         <v>4</v>
       </c>
-      <c r="P5" s="65" t="s">
+      <c r="P5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="65" t="s">
+      <c r="Q5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="R5" s="65" t="s">
+      <c r="R5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="S5" s="62">
+      <c r="S5" s="63">
         <v>3</v>
       </c>
-      <c r="T5" s="62" t="s">
+      <c r="T5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="U5" s="62">
+      <c r="U5" s="63">
         <v>3</v>
       </c>
-      <c r="V5" s="62" t="s">
+      <c r="V5" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="W5" s="62" t="s">
+      <c r="W5" s="63" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5007,84 +5168,84 @@
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="13" disablePrompts="0">
-        <x14:dataValidation xr:uid="{0004009D-0093-4F2B-BDF5-00C400E60061}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00760014-00A6-4807-BAFB-0000005C002C}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>W4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00B60057-00F7-402E-8925-008800F400E1}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00E200E6-00BB-49AE-9602-00BA00B100FE}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>W5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00CE004C-00FB-4B9C-ABBE-004B00C40032}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00F800B7-0065-4C20-B7BB-008E0004000A}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>V4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00A20025-0099-45AE-B651-004F00C2007F}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00860067-00EC-4284-A1B5-00B40087001E}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>V5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{005D0058-00F6-4C45-BCBD-00C6009F0045}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00F600B5-001C-4AFB-9763-00A7004700F3}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>T4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{007F00D1-0090-4CDF-887D-00CC002100EC}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{0075004C-0014-4C24-B6FC-009100350070}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>T5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00F900F3-002D-4225-9AF7-00F9006100CC}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00DC00CC-00A2-4E06-A24A-001B00570067}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>R4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{007300B6-0001-4D4A-9CFB-0023000B0061}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{0094003A-0098-40CE-AE33-003A005700E7}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>E4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{007300E0-0087-4E68-A7D2-00E600030071}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{003500F2-0057-457D-A210-00A600830088}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>E5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00660019-002D-4F6C-912F-0077008900A3}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{005B0057-0065-4E71-9906-003700A90047}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>I4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{000F003E-00A7-4F7C-A198-006C006C0042}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00800010-0080-46BD-82EB-0075008900EF}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>I5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00360064-0097-4245-BEBF-002400DB005E}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{009200A7-0072-49E8-840F-000B00A60056}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>SUBSTAGES_FRECUENCY</xm:f>
           </x14:formula1>
           <xm:sqref>K4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00DF00F3-0082-4759-AE3C-006C00E40081}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00D30091-006B-4E77-B7E6-003100C100A2}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>SUBSTAGES_FRECUENCY</xm:f>
           </x14:formula1>
@@ -5108,7 +5269,7 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="3" max="3" width="11.421875"/>
     <col customWidth="1" min="4" max="4" width="10.421875"/>
@@ -5117,113 +5278,113 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" ht="28.5">
-      <c r="A2" s="93" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="95" t="s">
-        <v>190</v>
-      </c>
-      <c r="D2" s="110" t="s">
-        <v>167</v>
-      </c>
-      <c r="E2" s="110" t="s">
-        <v>191</v>
+      <c r="A2" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="91" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" s="106" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2" s="106" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A3" s="68" t="s">
-        <v>192</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="C3" s="79" t="str">
+      <c r="A3" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" s="76" t="str">
         <f>ap_programs!$A$4</f>
         <v>programA</v>
       </c>
-      <c r="D3" s="62">
+      <c r="D3" s="63">
         <v>0</v>
       </c>
-      <c r="E3" s="62" t="s">
+      <c r="E3" s="63" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A4" s="68" t="s">
-        <v>194</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="C4" s="79" t="str">
+      <c r="A4" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" s="76" t="str">
         <f>ap_programs!$A$5</f>
         <v>programB</v>
       </c>
-      <c r="D4" s="62">
+      <c r="D4" s="63">
         <v>0</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="63" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" ht="19.5" customHeight="1">
-      <c r="A5" s="68" t="s">
-        <v>195</v>
+      <c r="A5" s="10" t="s">
+        <v>203</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="C5" s="79" t="str">
+        <v>204</v>
+      </c>
+      <c r="C5" s="76" t="str">
         <f>ap_programs!$A$4</f>
         <v>programA</v>
       </c>
-      <c r="D5" s="62">
+      <c r="D5" s="63">
         <v>0</v>
       </c>
-      <c r="E5" s="62" t="s">
+      <c r="E5" s="63" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00DD0041-0095-4F26-8E06-008C00D70099}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{006300CD-00AF-41EC-9872-00D2004B0006}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>E3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{003F001F-0041-472C-B338-00DB008E004F}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{006800B1-00FB-4464-8CFB-0063006F0027}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>E4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{009900F6-00C7-4413-8066-00EB00860002}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{006A009E-0059-4004-AC54-00D500320006}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>

--- a/packages/leemons-plugin-mvp-template/src/bulk/data.xlsx
+++ b/packages/leemons-plugin-mvp-template/src/bulk/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" state="visible" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="267">
   <si>
     <t xml:space="preserve">Substages frecuency</t>
   </si>
@@ -343,6 +343,9 @@
     <t>genre</t>
   </si>
   <si>
+    <t>birthdate</t>
+  </si>
+  <si>
     <t>email</t>
   </si>
   <si>
@@ -355,6 +358,9 @@
     <t>Genre</t>
   </si>
   <si>
+    <t>Birthdate</t>
+  </si>
+  <si>
     <t>Email</t>
   </si>
   <si>
@@ -400,31 +406,31 @@
     <t>student@leemons.io</t>
   </si>
   <si>
+    <t>student@centerB</t>
+  </si>
+  <si>
+    <t>studentA02</t>
+  </si>
+  <si>
+    <t>Emma</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>student+emma@leemons.io</t>
+  </si>
+  <si>
+    <t>studentB01</t>
+  </si>
+  <si>
+    <t>Lisa</t>
+  </si>
+  <si>
+    <t>student+lisa@leemons.io</t>
+  </si>
+  <si>
     <t>student@centerA</t>
-  </si>
-  <si>
-    <t>studentA02</t>
-  </si>
-  <si>
-    <t>Emma</t>
-  </si>
-  <si>
-    <t>School</t>
-  </si>
-  <si>
-    <t>student+emma@leemons.io</t>
-  </si>
-  <si>
-    <t>studentB01</t>
-  </si>
-  <si>
-    <t>Lisa</t>
-  </si>
-  <si>
-    <t>student+lisa@leemons.io</t>
-  </si>
-  <si>
-    <t>student@centerB</t>
   </si>
   <si>
     <t>studentB02</t>
@@ -830,6 +836,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="160" formatCode="dd/mm/yyyy"/>
+  </numFmts>
   <fonts count="15">
     <font>
       <name val="Calibri"/>
@@ -1319,7 +1328,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="122">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1332,9 +1341,6 @@
     </xf>
     <xf fontId="1" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1508,16 +1514,13 @@
     <xf fontId="0" fillId="0" borderId="20" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf fontId="4" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf fontId="1" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf fontId="11" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1536,6 +1539,10 @@
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="11" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
@@ -2266,12 +2273,12 @@
       </c>
     </row>
     <row r="15" ht="14.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" ht="14.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2304,96 +2311,96 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>194</v>
+      <c r="C1" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="2" ht="28.5">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="109" t="s">
-        <v>171</v>
-      </c>
-      <c r="D2" s="109" t="s">
-        <v>205</v>
-      </c>
-      <c r="E2" s="109" t="s">
-        <v>206</v>
-      </c>
-      <c r="F2" s="110" t="s">
-        <v>196</v>
-      </c>
-      <c r="G2" s="111" t="s">
+      <c r="C2" s="108" t="s">
         <v>173</v>
       </c>
+      <c r="D2" s="108" t="s">
+        <v>207</v>
+      </c>
+      <c r="E2" s="108" t="s">
+        <v>208</v>
+      </c>
+      <c r="F2" s="109" t="s">
+        <v>198</v>
+      </c>
+      <c r="G2" s="110" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="3" ht="19.5" customHeight="1">
-      <c r="A3" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="C3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="E3" s="112" t="s">
+      <c r="C3" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="F3" s="77" t="str">
+      <c r="D3" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="E3" s="111" t="s">
+        <v>213</v>
+      </c>
+      <c r="F3" s="76" t="str">
         <f>ap_programs!$A$5</f>
         <v>programB</v>
       </c>
-      <c r="G3" s="64">
+      <c r="G3" s="63">
         <v>0</v>
       </c>
     </row>
     <row r="4" ht="19.5" customHeight="1">
-      <c r="A4" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="C4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="E4" s="70" t="s">
+      <c r="C4" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="F4" s="77" t="str">
+      <c r="D4" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="E4" s="68" t="s">
+        <v>218</v>
+      </c>
+      <c r="F4" s="76" t="str">
         <f>ap_programs!$A$5</f>
         <v>programB</v>
       </c>
-      <c r="G4" s="64">
+      <c r="G4" s="63">
         <v>0</v>
       </c>
     </row>
@@ -2437,920 +2444,920 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="C1" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="I1" s="6" t="s">
+      <c r="E1" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="K1" s="113" t="s">
+      <c r="H1" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="L1" s="75"/>
+      <c r="J1" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="K1" s="112" t="s">
+        <v>224</v>
+      </c>
+      <c r="L1" s="74"/>
     </row>
     <row r="2" ht="28.850000000000001" customHeight="1">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
       <c r="G2" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="75"/>
+      <c r="L2" s="74"/>
     </row>
     <row r="3" ht="31.850000000000001" customHeight="1">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="92" t="s">
-        <v>196</v>
-      </c>
-      <c r="D3" s="91" t="s">
-        <v>224</v>
-      </c>
-      <c r="E3" s="91" t="s">
-        <v>225</v>
-      </c>
-      <c r="F3" s="91" t="s">
+      <c r="C3" s="91" t="s">
+        <v>198</v>
+      </c>
+      <c r="D3" s="90" t="s">
         <v>226</v>
       </c>
-      <c r="G3" s="114" t="s">
+      <c r="E3" s="90" t="s">
         <v>227</v>
       </c>
-      <c r="H3" s="115" t="s">
-        <v>205</v>
-      </c>
-      <c r="I3" s="115" t="s">
+      <c r="F3" s="90" t="s">
         <v>228</v>
       </c>
-      <c r="J3" s="116" t="s">
+      <c r="G3" s="113" t="s">
         <v>229</v>
       </c>
-      <c r="K3" s="110" t="s">
+      <c r="H3" s="114" t="s">
+        <v>207</v>
+      </c>
+      <c r="I3" s="114" t="s">
         <v>230</v>
       </c>
-      <c r="L3" s="117"/>
-    </row>
-    <row r="4" s="10" customFormat="1" ht="30" customHeight="1">
-      <c r="A4" s="11" t="str">
+      <c r="J3" s="115" t="s">
+        <v>231</v>
+      </c>
+      <c r="K3" s="109" t="s">
+        <v>232</v>
+      </c>
+      <c r="L3" s="116"/>
+    </row>
+    <row r="4" s="9" customFormat="1" ht="30" customHeight="1">
+      <c r="A4" s="10" t="str">
         <f t="shared" ref="A4:A9" si="0">_xlfn.CONCAT("subject",IF(L4&lt;10,"0",""),L4)</f>
         <v>subject01</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="C4" s="77" t="str">
+      <c r="B4" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="C4" s="76" t="str">
         <f>ap_programs!A4</f>
         <v>programA</v>
       </c>
-      <c r="D4" s="64">
+      <c r="D4" s="63">
         <v>1</v>
       </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64" t="str">
+      <c r="E4" s="63"/>
+      <c r="F4" s="63" t="str">
         <f t="shared" ref="F4:F9" si="1">_xlfn.CONCAT("0",IF(L4&lt;10,"0",""),L4)</f>
         <v>001</v>
       </c>
-      <c r="G4" s="118" t="s">
-        <v>232</v>
-      </c>
-      <c r="H4" s="119" t="s">
-        <v>233</v>
-      </c>
-      <c r="I4" s="64"/>
-      <c r="J4" s="120" t="str">
+      <c r="G4" s="117" t="s">
+        <v>234</v>
+      </c>
+      <c r="H4" s="118" t="s">
+        <v>235</v>
+      </c>
+      <c r="I4" s="63"/>
+      <c r="J4" s="119" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K4" s="121" t="s">
-        <v>234</v>
-      </c>
-      <c r="L4" s="122">
+      <c r="K4" s="120" t="s">
+        <v>236</v>
+      </c>
+      <c r="L4" s="121">
         <v>1</v>
       </c>
-      <c r="M4" s="10"/>
-    </row>
-    <row r="5" s="10" customFormat="1" ht="30" customHeight="1">
-      <c r="A5" s="11" t="str">
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" s="9" customFormat="1" ht="30" customHeight="1">
+      <c r="A5" s="10" t="str">
         <f t="shared" si="0"/>
         <v>subject02</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="C5" s="77" t="str">
+      <c r="B5" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" s="76" t="str">
         <f t="shared" ref="C5:C10" si="2">C4</f>
         <v>programA</v>
       </c>
-      <c r="D5" s="64">
+      <c r="D5" s="63">
         <v>1</v>
       </c>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64" t="str">
+      <c r="E5" s="63"/>
+      <c r="F5" s="63" t="str">
         <f t="shared" si="1"/>
         <v>002</v>
       </c>
-      <c r="G5" s="118" t="str">
+      <c r="G5" s="117" t="str">
         <f t="shared" ref="G5:G10" si="3">G4</f>
         <v xml:space="preserve">Group A|G1A, Group B|G1B</v>
       </c>
-      <c r="H5" s="119" t="str">
+      <c r="H5" s="118" t="str">
         <f t="shared" ref="H5:H10" si="4">H4</f>
         <v>#FFEB9C</v>
       </c>
-      <c r="I5" s="64"/>
-      <c r="J5" s="120" t="str">
+      <c r="I5" s="63"/>
+      <c r="J5" s="119" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K5" s="121" t="str">
+      <c r="K5" s="120" t="str">
         <f t="shared" ref="K5:K10" si="5">K4</f>
         <v xml:space="preserve">teacher01|main@G1A, teacher01|main@G1B</v>
       </c>
-      <c r="L5" s="122">
+      <c r="L5" s="121">
         <f t="shared" ref="L5:L10" si="6">L4+1</f>
         <v>2</v>
       </c>
-      <c r="M5" s="10"/>
-    </row>
-    <row r="6" s="10" customFormat="1" ht="30" customHeight="1">
-      <c r="A6" s="11" t="str">
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" s="9" customFormat="1" ht="30" customHeight="1">
+      <c r="A6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>subject03</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="C6" s="77" t="str">
+      <c r="B6" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" s="76" t="str">
         <f t="shared" si="2"/>
         <v>programA</v>
       </c>
-      <c r="D6" s="64">
+      <c r="D6" s="63">
         <v>1</v>
       </c>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64" t="str">
+      <c r="E6" s="63"/>
+      <c r="F6" s="63" t="str">
         <f t="shared" si="1"/>
         <v>003</v>
       </c>
-      <c r="G6" s="118" t="str">
+      <c r="G6" s="117" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">Group A|G1A, Group B|G1B</v>
       </c>
-      <c r="H6" s="119" t="str">
+      <c r="H6" s="118" t="str">
         <f t="shared" si="4"/>
         <v>#FFEB9C</v>
       </c>
-      <c r="I6" s="64"/>
-      <c r="J6" s="120" t="str">
+      <c r="I6" s="63"/>
+      <c r="J6" s="119" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K6" s="121" t="str">
+      <c r="K6" s="120" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">teacher01|main@G1A, teacher01|main@G1B</v>
       </c>
-      <c r="L6" s="122">
+      <c r="L6" s="121">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="M6" s="10"/>
-    </row>
-    <row r="7" s="10" customFormat="1" ht="30" customHeight="1">
-      <c r="A7" s="11" t="str">
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" s="9" customFormat="1" ht="30" customHeight="1">
+      <c r="A7" s="10" t="str">
         <f t="shared" si="0"/>
         <v>subject04</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="C7" s="77" t="str">
+      <c r="B7" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="C7" s="76" t="str">
         <f t="shared" si="2"/>
         <v>programA</v>
       </c>
-      <c r="D7" s="64">
+      <c r="D7" s="63">
         <v>1</v>
       </c>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64" t="str">
+      <c r="E7" s="63"/>
+      <c r="F7" s="63" t="str">
         <f t="shared" si="1"/>
         <v>004</v>
       </c>
-      <c r="G7" s="118" t="str">
+      <c r="G7" s="117" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">Group A|G1A, Group B|G1B</v>
       </c>
-      <c r="H7" s="119" t="str">
+      <c r="H7" s="118" t="str">
         <f t="shared" si="4"/>
         <v>#FFEB9C</v>
       </c>
-      <c r="I7" s="64"/>
-      <c r="J7" s="120" t="str">
+      <c r="I7" s="63"/>
+      <c r="J7" s="119" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="K7" s="121" t="str">
+      <c r="K7" s="120" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">teacher01|main@G1A, teacher01|main@G1B</v>
       </c>
-      <c r="L7" s="122">
+      <c r="L7" s="121">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="M7" s="10"/>
+      <c r="M7" s="9"/>
     </row>
     <row r="8" ht="30" customHeight="1">
-      <c r="A8" s="11" t="str">
+      <c r="A8" s="10" t="str">
         <f t="shared" si="0"/>
         <v>subject05</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="C8" s="77" t="str">
+      <c r="B8" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="C8" s="76" t="str">
         <f t="shared" si="2"/>
         <v>programA</v>
       </c>
-      <c r="D8" s="64">
+      <c r="D8" s="63">
         <v>2</v>
       </c>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64" t="str">
+      <c r="E8" s="63"/>
+      <c r="F8" s="63" t="str">
         <f t="shared" si="1"/>
         <v>005</v>
       </c>
-      <c r="G8" s="118" t="s">
-        <v>239</v>
-      </c>
-      <c r="H8" s="119" t="str">
+      <c r="G8" s="117" t="s">
+        <v>241</v>
+      </c>
+      <c r="H8" s="118" t="str">
         <f t="shared" si="4"/>
         <v>#FFEB9C</v>
       </c>
-      <c r="I8" s="64"/>
-      <c r="J8" s="120" t="str">
+      <c r="I8" s="63"/>
+      <c r="J8" s="119" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K8" s="121" t="s">
-        <v>240</v>
-      </c>
-      <c r="L8" s="122">
+      <c r="K8" s="120" t="s">
+        <v>242</v>
+      </c>
+      <c r="L8" s="121">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
     <row r="9" ht="30" customHeight="1">
-      <c r="A9" s="11" t="str">
+      <c r="A9" s="10" t="str">
         <f t="shared" si="0"/>
         <v>subject06</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="C9" s="77" t="str">
+      <c r="B9" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C9" s="76" t="str">
         <f t="shared" si="2"/>
         <v>programA</v>
       </c>
-      <c r="D9" s="64">
+      <c r="D9" s="63">
         <v>2</v>
       </c>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64" t="str">
+      <c r="E9" s="63"/>
+      <c r="F9" s="63" t="str">
         <f t="shared" si="1"/>
         <v>006</v>
       </c>
-      <c r="G9" s="118" t="str">
+      <c r="G9" s="117" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">Group A|G2A, Group B|G2B</v>
       </c>
-      <c r="H9" s="119" t="s">
-        <v>242</v>
-      </c>
-      <c r="I9" s="64"/>
-      <c r="J9" s="120" t="str">
+      <c r="H9" s="118" t="s">
+        <v>244</v>
+      </c>
+      <c r="I9" s="63"/>
+      <c r="J9" s="119" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K9" s="121" t="str">
+      <c r="K9" s="120" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">teacher01|main@G2A, teacher01|main@G2B</v>
       </c>
-      <c r="L9" s="122">
+      <c r="L9" s="121">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
     <row r="10" ht="30" customHeight="1">
-      <c r="A10" s="11" t="str">
+      <c r="A10" s="10" t="str">
         <f t="shared" ref="A10:A23" si="7">_xlfn.CONCAT("subject",IF(L10&lt;10,"0",""),L10)</f>
         <v>subject07</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="C10" s="77" t="str">
+      <c r="B10" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C10" s="76" t="str">
         <f t="shared" si="2"/>
         <v>programA</v>
       </c>
-      <c r="D10" s="64">
+      <c r="D10" s="63">
         <v>2</v>
       </c>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64" t="str">
+      <c r="E10" s="63"/>
+      <c r="F10" s="63" t="str">
         <f t="shared" ref="F10:F23" si="8">_xlfn.CONCAT("0",IF(L10&lt;10,"0",""),L10)</f>
         <v>007</v>
       </c>
-      <c r="G10" s="118" t="str">
+      <c r="G10" s="117" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">Group A|G2A, Group B|G2B</v>
       </c>
-      <c r="H10" s="119" t="str">
+      <c r="H10" s="118" t="str">
         <f t="shared" si="4"/>
         <v>#FFC7CE</v>
       </c>
-      <c r="I10" s="64"/>
-      <c r="J10" s="120" t="str">
+      <c r="I10" s="63"/>
+      <c r="J10" s="119" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K10" s="121" t="str">
+      <c r="K10" s="120" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">teacher01|main@G2A, teacher01|main@G2B</v>
       </c>
-      <c r="L10" s="122">
+      <c r="L10" s="121">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
     </row>
     <row r="11" ht="30" customHeight="1">
-      <c r="A11" s="11" t="str">
+      <c r="A11" s="10" t="str">
         <f t="shared" si="7"/>
         <v>subject08</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="C11" s="77" t="str">
+      <c r="B11" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="C11" s="76" t="str">
         <f t="shared" ref="C11:C23" si="9">C10</f>
         <v>programA</v>
       </c>
-      <c r="D11" s="64">
+      <c r="D11" s="63">
         <v>2</v>
       </c>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64" t="str">
+      <c r="E11" s="63"/>
+      <c r="F11" s="63" t="str">
         <f t="shared" si="8"/>
         <v>008</v>
       </c>
-      <c r="G11" s="118" t="str">
+      <c r="G11" s="117" t="str">
         <f>G10</f>
         <v xml:space="preserve">Group A|G2A, Group B|G2B</v>
       </c>
-      <c r="H11" s="119" t="str">
+      <c r="H11" s="118" t="str">
         <f t="shared" ref="H11:H18" si="10">H10</f>
         <v>#FFC7CE</v>
       </c>
-      <c r="I11" s="64"/>
-      <c r="J11" s="120" t="str">
+      <c r="I11" s="63"/>
+      <c r="J11" s="119" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="K11" s="121" t="str">
+      <c r="K11" s="120" t="str">
         <f>K10</f>
         <v xml:space="preserve">teacher01|main@G2A, teacher01|main@G2B</v>
       </c>
-      <c r="L11" s="122">
+      <c r="L11" s="121">
         <f t="shared" ref="L11:L23" si="11">L10+1</f>
         <v>8</v>
       </c>
     </row>
     <row r="12" ht="30" customHeight="1">
-      <c r="A12" s="11" t="str">
+      <c r="A12" s="10" t="str">
         <f t="shared" si="7"/>
         <v>subject09</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="C12" s="77" t="str">
+      <c r="B12" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="C12" s="76" t="str">
         <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D12" s="64">
+      <c r="D12" s="63">
         <v>3</v>
       </c>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64" t="str">
+      <c r="E12" s="63"/>
+      <c r="F12" s="63" t="str">
         <f t="shared" si="8"/>
         <v>009</v>
       </c>
-      <c r="G12" s="118" t="s">
-        <v>246</v>
-      </c>
-      <c r="H12" s="119" t="str">
+      <c r="G12" s="117" t="s">
+        <v>248</v>
+      </c>
+      <c r="H12" s="118" t="str">
         <f t="shared" si="10"/>
         <v>#FFC7CE</v>
       </c>
-      <c r="I12" s="64"/>
-      <c r="J12" s="120" t="str">
+      <c r="I12" s="63"/>
+      <c r="J12" s="119" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K12" s="121" t="s">
-        <v>247</v>
-      </c>
-      <c r="L12" s="122">
+      <c r="K12" s="120" t="s">
+        <v>249</v>
+      </c>
+      <c r="L12" s="121">
         <f t="shared" si="11"/>
         <v>9</v>
       </c>
     </row>
     <row r="13" ht="30" customHeight="1">
-      <c r="A13" s="11" t="str">
+      <c r="A13" s="10" t="str">
         <f t="shared" si="7"/>
         <v>subject10</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="C13" s="77" t="str">
+      <c r="B13" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="C13" s="76" t="str">
         <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D13" s="64">
+      <c r="D13" s="63">
         <v>3</v>
       </c>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64" t="str">
+      <c r="E13" s="63"/>
+      <c r="F13" s="63" t="str">
         <f t="shared" si="8"/>
         <v>010</v>
       </c>
-      <c r="G13" s="118" t="str">
+      <c r="G13" s="117" t="str">
         <f t="shared" ref="G13:G23" si="12">G12</f>
         <v xml:space="preserve">Group A|G3A, Group B|G3B</v>
       </c>
-      <c r="H13" s="119" t="str">
+      <c r="H13" s="118" t="str">
         <f t="shared" si="10"/>
         <v>#FFC7CE</v>
       </c>
-      <c r="I13" s="64"/>
-      <c r="J13" s="120" t="str">
+      <c r="I13" s="63"/>
+      <c r="J13" s="119" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K13" s="121" t="str">
+      <c r="K13" s="120" t="str">
         <f t="shared" ref="K13:K23" si="13">K12</f>
         <v xml:space="preserve">teacher01|main@G3A, teacher01|main@G3B</v>
       </c>
-      <c r="L13" s="122">
+      <c r="L13" s="121">
         <f t="shared" si="11"/>
         <v>10</v>
       </c>
     </row>
     <row r="14" ht="30" customHeight="1">
-      <c r="A14" s="11" t="str">
+      <c r="A14" s="10" t="str">
         <f t="shared" si="7"/>
         <v>subject11</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="C14" s="77" t="str">
+      <c r="B14" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="C14" s="76" t="str">
         <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D14" s="64">
+      <c r="D14" s="63">
         <v>3</v>
       </c>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64" t="str">
+      <c r="E14" s="63"/>
+      <c r="F14" s="63" t="str">
         <f t="shared" si="8"/>
         <v>011</v>
       </c>
-      <c r="G14" s="118" t="str">
+      <c r="G14" s="117" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">Group A|G3A, Group B|G3B</v>
       </c>
-      <c r="H14" s="119" t="s">
-        <v>250</v>
-      </c>
-      <c r="I14" s="64"/>
-      <c r="J14" s="120" t="str">
+      <c r="H14" s="118" t="s">
+        <v>252</v>
+      </c>
+      <c r="I14" s="63"/>
+      <c r="J14" s="119" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K14" s="121" t="str">
+      <c r="K14" s="120" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">teacher01|main@G3A, teacher01|main@G3B</v>
       </c>
-      <c r="L14" s="122">
+      <c r="L14" s="121">
         <f t="shared" si="11"/>
         <v>11</v>
       </c>
     </row>
     <row r="15" ht="30" customHeight="1">
-      <c r="A15" s="11" t="str">
+      <c r="A15" s="10" t="str">
         <f t="shared" si="7"/>
         <v>subject12</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="C15" s="77" t="str">
+      <c r="B15" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C15" s="76" t="str">
         <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D15" s="64">
+      <c r="D15" s="63">
         <v>3</v>
       </c>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64" t="str">
+      <c r="E15" s="63"/>
+      <c r="F15" s="63" t="str">
         <f t="shared" si="8"/>
         <v>012</v>
       </c>
-      <c r="G15" s="118" t="str">
+      <c r="G15" s="117" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">Group A|G3A, Group B|G3B</v>
       </c>
-      <c r="H15" s="119" t="str">
+      <c r="H15" s="118" t="str">
         <f t="shared" si="10"/>
         <v>#C6EFCD</v>
       </c>
-      <c r="I15" s="64"/>
-      <c r="J15" s="120" t="str">
+      <c r="I15" s="63"/>
+      <c r="J15" s="119" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="K15" s="121" t="str">
+      <c r="K15" s="120" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">teacher01|main@G3A, teacher01|main@G3B</v>
       </c>
-      <c r="L15" s="122">
+      <c r="L15" s="121">
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
     </row>
     <row r="16" ht="30" customHeight="1">
-      <c r="A16" s="11" t="str">
+      <c r="A16" s="10" t="str">
         <f t="shared" si="7"/>
         <v>subject13</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="C16" s="77" t="str">
+      <c r="B16" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="C16" s="76" t="str">
         <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D16" s="64">
+      <c r="D16" s="63">
         <v>4</v>
       </c>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64" t="str">
+      <c r="E16" s="63"/>
+      <c r="F16" s="63" t="str">
         <f t="shared" si="8"/>
         <v>013</v>
       </c>
-      <c r="G16" s="118" t="s">
-        <v>253</v>
-      </c>
-      <c r="H16" s="119" t="str">
+      <c r="G16" s="117" t="s">
+        <v>255</v>
+      </c>
+      <c r="H16" s="118" t="str">
         <f t="shared" si="10"/>
         <v>#C6EFCD</v>
       </c>
-      <c r="I16" s="64"/>
-      <c r="J16" s="120" t="str">
+      <c r="I16" s="63"/>
+      <c r="J16" s="119" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K16" s="121" t="s">
-        <v>254</v>
-      </c>
-      <c r="L16" s="122">
+      <c r="K16" s="120" t="s">
+        <v>256</v>
+      </c>
+      <c r="L16" s="121">
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
     </row>
     <row r="17" ht="30" customHeight="1">
-      <c r="A17" s="11" t="str">
+      <c r="A17" s="10" t="str">
         <f t="shared" si="7"/>
         <v>subject14</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="C17" s="77" t="str">
+      <c r="B17" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="C17" s="76" t="str">
         <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D17" s="64">
+      <c r="D17" s="63">
         <v>4</v>
       </c>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64" t="str">
+      <c r="E17" s="63"/>
+      <c r="F17" s="63" t="str">
         <f t="shared" si="8"/>
         <v>014</v>
       </c>
-      <c r="G17" s="118" t="str">
+      <c r="G17" s="117" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">Group A|G4A, Group B|G4B</v>
       </c>
-      <c r="H17" s="119" t="str">
+      <c r="H17" s="118" t="str">
         <f t="shared" si="10"/>
         <v>#C6EFCD</v>
       </c>
-      <c r="I17" s="64"/>
-      <c r="J17" s="120" t="str">
+      <c r="I17" s="63"/>
+      <c r="J17" s="119" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K17" s="121" t="str">
+      <c r="K17" s="120" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">teacher01|main@G4A, teacher01|main@G4B</v>
       </c>
-      <c r="L17" s="122">
+      <c r="L17" s="121">
         <f t="shared" si="11"/>
         <v>14</v>
       </c>
     </row>
     <row r="18" ht="30" customHeight="1">
-      <c r="A18" s="11" t="str">
+      <c r="A18" s="10" t="str">
         <f t="shared" si="7"/>
         <v>subject15</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="C18" s="77" t="str">
+      <c r="B18" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="C18" s="76" t="str">
         <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D18" s="64">
+      <c r="D18" s="63">
         <v>4</v>
       </c>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64" t="str">
+      <c r="E18" s="63"/>
+      <c r="F18" s="63" t="str">
         <f t="shared" si="8"/>
         <v>015</v>
       </c>
-      <c r="G18" s="118" t="str">
+      <c r="G18" s="117" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">Group A|G4A, Group B|G4B</v>
       </c>
-      <c r="H18" s="119" t="str">
+      <c r="H18" s="118" t="str">
         <f t="shared" si="10"/>
         <v>#C6EFCD</v>
       </c>
-      <c r="I18" s="64"/>
-      <c r="J18" s="120" t="str">
+      <c r="I18" s="63"/>
+      <c r="J18" s="119" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K18" s="121" t="str">
+      <c r="K18" s="120" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">teacher01|main@G4A, teacher01|main@G4B</v>
       </c>
-      <c r="L18" s="122">
+      <c r="L18" s="121">
         <f t="shared" si="11"/>
         <v>15</v>
       </c>
     </row>
     <row r="19" ht="30" customHeight="1">
-      <c r="A19" s="11" t="str">
+      <c r="A19" s="10" t="str">
         <f t="shared" si="7"/>
         <v>subject16</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="C19" s="77" t="str">
+      <c r="B19" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C19" s="76" t="str">
         <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D19" s="64">
+      <c r="D19" s="63">
         <v>4</v>
       </c>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64" t="str">
+      <c r="E19" s="63"/>
+      <c r="F19" s="63" t="str">
         <f t="shared" si="8"/>
         <v>016</v>
       </c>
-      <c r="G19" s="118" t="str">
+      <c r="G19" s="117" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">Group A|G4A, Group B|G4B</v>
       </c>
-      <c r="H19" s="119" t="s">
-        <v>258</v>
-      </c>
-      <c r="I19" s="64"/>
-      <c r="J19" s="120" t="str">
+      <c r="H19" s="118" t="s">
+        <v>260</v>
+      </c>
+      <c r="I19" s="63"/>
+      <c r="J19" s="119" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="K19" s="121" t="str">
+      <c r="K19" s="120" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">teacher01|main@G4A, teacher01|main@G4B</v>
       </c>
-      <c r="L19" s="122">
+      <c r="L19" s="121">
         <f t="shared" si="11"/>
         <v>16</v>
       </c>
     </row>
     <row r="20" ht="30" customHeight="1">
-      <c r="A20" s="11" t="str">
+      <c r="A20" s="10" t="str">
         <f t="shared" si="7"/>
         <v>subject17</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="C20" s="77" t="str">
+      <c r="B20" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="C20" s="76" t="str">
         <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D20" s="64">
+      <c r="D20" s="63">
         <v>5</v>
       </c>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64" t="str">
+      <c r="E20" s="63"/>
+      <c r="F20" s="63" t="str">
         <f t="shared" si="8"/>
         <v>017</v>
       </c>
-      <c r="G20" s="118" t="s">
+      <c r="G20" s="117" t="s">
+        <v>262</v>
+      </c>
+      <c r="H20" s="118" t="s">
         <v>260</v>
       </c>
-      <c r="H20" s="119" t="s">
-        <v>258</v>
-      </c>
-      <c r="I20" s="64"/>
-      <c r="J20" s="120" t="str">
+      <c r="I20" s="63"/>
+      <c r="J20" s="119" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K20" s="121" t="s">
-        <v>261</v>
-      </c>
-      <c r="L20" s="122">
+      <c r="K20" s="120" t="s">
+        <v>263</v>
+      </c>
+      <c r="L20" s="121">
         <f t="shared" si="11"/>
         <v>17</v>
       </c>
     </row>
     <row r="21" ht="30" customHeight="1">
-      <c r="A21" s="11" t="str">
+      <c r="A21" s="10" t="str">
         <f t="shared" si="7"/>
         <v>subject18</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="C21" s="77" t="str">
+      <c r="B21" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="C21" s="76" t="str">
         <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D21" s="64">
+      <c r="D21" s="63">
         <v>5</v>
       </c>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64" t="str">
+      <c r="E21" s="63"/>
+      <c r="F21" s="63" t="str">
         <f t="shared" si="8"/>
         <v>018</v>
       </c>
-      <c r="G21" s="118" t="str">
+      <c r="G21" s="117" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">Group A|G5A, Group B|G5B</v>
       </c>
-      <c r="H21" s="119" t="s">
-        <v>258</v>
-      </c>
-      <c r="I21" s="64"/>
-      <c r="J21" s="120" t="str">
+      <c r="H21" s="118" t="s">
+        <v>260</v>
+      </c>
+      <c r="I21" s="63"/>
+      <c r="J21" s="119" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K21" s="121" t="str">
+      <c r="K21" s="120" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">teacher01|main@G5A, teacher01|main@G5B</v>
       </c>
-      <c r="L21" s="122">
+      <c r="L21" s="121">
         <f t="shared" si="11"/>
         <v>18</v>
       </c>
     </row>
     <row r="22" ht="30" customHeight="1">
-      <c r="A22" s="11" t="str">
+      <c r="A22" s="10" t="str">
         <f t="shared" si="7"/>
         <v>subject19</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="C22" s="77" t="str">
+      <c r="B22" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="C22" s="76" t="str">
         <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D22" s="64">
+      <c r="D22" s="63">
         <v>5</v>
       </c>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64" t="str">
+      <c r="E22" s="63"/>
+      <c r="F22" s="63" t="str">
         <f t="shared" si="8"/>
         <v>019</v>
       </c>
-      <c r="G22" s="118" t="str">
+      <c r="G22" s="117" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">Group A|G5A, Group B|G5B</v>
       </c>
-      <c r="H22" s="119" t="s">
-        <v>258</v>
-      </c>
-      <c r="I22" s="64"/>
-      <c r="J22" s="120" t="str">
+      <c r="H22" s="118" t="s">
+        <v>260</v>
+      </c>
+      <c r="I22" s="63"/>
+      <c r="J22" s="119" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K22" s="121" t="str">
+      <c r="K22" s="120" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">teacher01|main@G5A, teacher01|main@G5B</v>
       </c>
-      <c r="L22" s="122">
+      <c r="L22" s="121">
         <f t="shared" si="11"/>
         <v>19</v>
       </c>
     </row>
     <row r="23" ht="30" customHeight="1">
-      <c r="A23" s="11" t="str">
+      <c r="A23" s="10" t="str">
         <f t="shared" si="7"/>
         <v>subject20</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="C23" s="77" t="str">
+      <c r="B23" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="C23" s="76" t="str">
         <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D23" s="64">
+      <c r="D23" s="63">
         <v>5</v>
       </c>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64" t="str">
+      <c r="E23" s="63"/>
+      <c r="F23" s="63" t="str">
         <f t="shared" si="8"/>
         <v>020</v>
       </c>
-      <c r="G23" s="118" t="str">
+      <c r="G23" s="117" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">Group A|G5A, Group B|G5B</v>
       </c>
-      <c r="H23" s="119" t="s">
-        <v>258</v>
-      </c>
-      <c r="I23" s="64"/>
-      <c r="J23" s="120" t="str">
+      <c r="H23" s="118" t="s">
+        <v>260</v>
+      </c>
+      <c r="I23" s="63"/>
+      <c r="J23" s="119" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="K23" s="121" t="str">
+      <c r="K23" s="120" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">teacher01|main@G5A, teacher01|main@G5B</v>
       </c>
-      <c r="L23" s="122">
+      <c r="L23" s="121">
         <f t="shared" si="11"/>
         <v>20</v>
       </c>
     </row>
     <row r="24" ht="14.25">
-      <c r="L24" s="75"/>
+      <c r="L24" s="74"/>
     </row>
     <row r="25" ht="14.25"/>
   </sheetData>
@@ -3399,58 +3406,58 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" s="10" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A3" s="11" t="s">
+    <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" s="10" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A4" s="11" t="s">
+    <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3492,726 +3499,726 @@
     <col customWidth="1" min="29" max="29" width="17.140625"/>
   </cols>
   <sheetData>
-    <row r="1" s="13" customFormat="1" ht="14.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" s="12" customFormat="1" ht="14.25">
+      <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="13" t="str">
+      <c r="E1" s="12" t="str">
         <f>_xlfn.CONCAT($E$3,".",E5)</f>
         <v>plugins.users.users</v>
       </c>
-      <c r="F1" s="13" t="str">
+      <c r="F1" s="12" t="str">
         <f>_xlfn.CONCAT($E$3,".",F5)</f>
         <v>plugins.users.user-data</v>
       </c>
-      <c r="G1" s="13" t="str">
+      <c r="G1" s="12" t="str">
         <f>_xlfn.CONCAT($E$3,".",G5)</f>
         <v>plugins.users.centers</v>
       </c>
-      <c r="H1" s="13" t="str">
+      <c r="H1" s="12" t="str">
         <f>_xlfn.CONCAT($E$3,".",H5)</f>
         <v>plugins.users.profiles</v>
       </c>
-      <c r="I1" s="13" t="str">
+      <c r="I1" s="12" t="str">
         <f>_xlfn.CONCAT($I$3,".",I5)</f>
         <v>plugins.dataset.dataset</v>
       </c>
-      <c r="J1" s="13" t="str">
+      <c r="J1" s="12" t="str">
         <f>_xlfn.CONCAT($J$3,".",J5)</f>
         <v>plugins.calendar.calendar</v>
       </c>
-      <c r="K1" s="13" t="str">
+      <c r="K1" s="12" t="str">
         <f>_xlfn.CONCAT($K$3,".",K5)</f>
         <v>plugins.academic-portfolio.portfolio</v>
       </c>
-      <c r="L1" s="13" t="str">
+      <c r="L1" s="12" t="str">
         <f>_xlfn.CONCAT($K$3,".",L5)</f>
         <v>plugins.academic-portfolio.programs</v>
       </c>
-      <c r="M1" s="13" t="str">
+      <c r="M1" s="12" t="str">
         <f>_xlfn.CONCAT($K$3,".",M5)</f>
         <v>plugins.academic-portfolio.profiles</v>
       </c>
-      <c r="N1" s="13" t="str">
+      <c r="N1" s="12" t="str">
         <f>_xlfn.CONCAT($K$3,".",N5)</f>
         <v>plugins.academic-portfolio.subjects</v>
       </c>
-      <c r="O1" s="13" t="str">
+      <c r="O1" s="12" t="str">
         <f>_xlfn.CONCAT($K$3,".",O5)</f>
         <v>plugins.academic-portfolio.tree</v>
       </c>
-      <c r="P1" s="13" t="str">
+      <c r="P1" s="12" t="str">
         <f>_xlfn.CONCAT($P$3,".",P5)</f>
         <v>plugins.families.families</v>
       </c>
-      <c r="Q1" s="13" t="str">
+      <c r="Q1" s="12" t="str">
         <f>_xlfn.CONCAT($P$3,".",Q5)</f>
         <v>plugins.families.config</v>
       </c>
-      <c r="R1" s="13" t="str">
+      <c r="R1" s="12" t="str">
         <f>_xlfn.CONCAT($P$3,".",R5)</f>
         <v>plugins.families.families-basic-info</v>
       </c>
-      <c r="S1" s="13" t="str">
+      <c r="S1" s="12" t="str">
         <f>_xlfn.CONCAT($P$3,".",S5)</f>
         <v>plugins.families.families-custom-info</v>
       </c>
-      <c r="T1" s="13" t="str">
+      <c r="T1" s="12" t="str">
         <f>_xlfn.CONCAT($P$3,".",T5)</f>
         <v>plugins.families.families-guardians-info</v>
       </c>
-      <c r="U1" s="13" t="str">
+      <c r="U1" s="12" t="str">
         <f>_xlfn.CONCAT($P$3,".",U5)</f>
         <v>plugins.families.families-students-info</v>
       </c>
-      <c r="V1" s="13" t="str">
+      <c r="V1" s="12" t="str">
         <f>_xlfn.CONCAT($V$3,".",V5)</f>
         <v>plugins.timetable.config</v>
       </c>
-      <c r="W1" s="13" t="str">
+      <c r="W1" s="12" t="str">
         <f>_xlfn.CONCAT($V$3,".",W5)</f>
         <v>plugins.timetable.timetable</v>
       </c>
-      <c r="X1" s="13" t="str">
+      <c r="X1" s="12" t="str">
         <f>_xlfn.CONCAT($X$3,".",X5)</f>
         <v>plugins.tasks.tasks</v>
       </c>
-      <c r="Y1" s="13" t="str">
+      <c r="Y1" s="12" t="str">
         <f>_xlfn.CONCAT($X$3,".",Y5)</f>
         <v>plugins.tasks.library</v>
       </c>
-      <c r="Z1" s="13" t="str">
+      <c r="Z1" s="12" t="str">
         <f>_xlfn.CONCAT($X$3,".",Z5)</f>
         <v>plugins.tasks.ongoing</v>
       </c>
-      <c r="AA1" s="13" t="str">
+      <c r="AA1" s="12" t="str">
         <f>_xlfn.CONCAT($X$3,".",AA5)</f>
         <v>plugins.tasks.history</v>
       </c>
-      <c r="AB1" s="13" t="str">
+      <c r="AB1" s="12" t="str">
         <f>_xlfn.CONCAT($AB$3,".",AB5)</f>
         <v>plugins.curriculum.curriculum</v>
       </c>
-      <c r="AC1" s="13" t="str">
+      <c r="AC1" s="12" t="str">
         <f>_xlfn.CONCAT($AC$3,".",AC5)</f>
         <v>plugins.leebrary.library</v>
       </c>
     </row>
-    <row r="2" s="10" customFormat="1" ht="21.350000000000001" customHeight="1">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="14" t="s">
+    <row r="2" s="9" customFormat="1" ht="21.350000000000001" customHeight="1">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
     </row>
     <row r="3" ht="14.25">
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18" t="s">
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="22" t="s">
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="16" t="s">
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="W3" s="17"/>
-      <c r="X3" s="25" t="s">
+      <c r="W3" s="16"/>
+      <c r="X3" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="27" t="s">
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="AC3" s="20" t="s">
+      <c r="AC3" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" s="28" customFormat="1" ht="19.850000000000001" customHeight="1">
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29" t="s">
+    <row r="4" s="27" customFormat="1" ht="19.850000000000001" customHeight="1">
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="31" t="s">
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="J4" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="33" t="s">
+      <c r="K4" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="35" t="s">
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="29" t="s">
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="W4" s="30"/>
-      <c r="X4" s="31" t="s">
+      <c r="W4" s="29"/>
+      <c r="X4" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="32" t="s">
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="37"/>
+      <c r="AB4" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="AC4" s="33" t="s">
+      <c r="AC4" s="32" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" ht="14.25">
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="39" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="41" t="s">
+      <c r="H5" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="I5" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="43" t="s">
+      <c r="J5" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="K5" s="44" t="s">
+      <c r="K5" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="L5" s="45" t="s">
+      <c r="L5" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="M5" s="45" t="s">
+      <c r="M5" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="N5" s="45" t="s">
+      <c r="N5" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="O5" s="45" t="s">
+      <c r="O5" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="P5" s="46" t="s">
+      <c r="P5" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="Q5" s="47" t="s">
+      <c r="Q5" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="R5" s="47" t="s">
+      <c r="R5" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="S5" s="47" t="s">
+      <c r="S5" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="T5" s="47" t="s">
+      <c r="T5" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="U5" s="48" t="s">
+      <c r="U5" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="V5" s="39" t="s">
+      <c r="V5" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="W5" s="40" t="s">
+      <c r="W5" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="X5" s="42" t="s">
+      <c r="X5" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="Y5" s="42" t="s">
+      <c r="Y5" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="Z5" s="42" t="s">
+      <c r="Z5" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="AA5" s="42" t="s">
+      <c r="AA5" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="AB5" s="43" t="s">
+      <c r="AB5" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="AC5" s="49" t="s">
+      <c r="AC5" s="48" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="6" s="50" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A6" s="7" t="s">
+    <row r="6" s="49" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="E6" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="53" t="s">
+      <c r="H6" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="I6" s="54" t="s">
+      <c r="I6" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="55" t="s">
+      <c r="J6" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="56" t="s">
+      <c r="K6" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="L6" s="57" t="s">
+      <c r="L6" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="M6" s="57" t="s">
+      <c r="M6" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="N6" s="57" t="s">
+      <c r="N6" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="O6" s="57" t="s">
+      <c r="O6" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="P6" s="58" t="s">
+      <c r="P6" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="Q6" s="59" t="s">
+      <c r="Q6" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="R6" s="59" t="s">
+      <c r="R6" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="S6" s="59" t="s">
+      <c r="S6" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="T6" s="59" t="s">
+      <c r="T6" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="U6" s="60" t="s">
+      <c r="U6" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="V6" s="52" t="s">
+      <c r="V6" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="W6" s="9" t="s">
+      <c r="W6" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="X6" s="54" t="s">
+      <c r="X6" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="Y6" s="54" t="s">
+      <c r="Y6" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="Z6" s="54" t="s">
+      <c r="Z6" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="AA6" s="54" t="s">
+      <c r="AA6" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="AB6" s="61" t="s">
+      <c r="AB6" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="AC6" s="62" t="s">
+      <c r="AC6" s="61" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" s="10" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A7" s="11" t="s">
+    <row r="7" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A7" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D7" s="63"/>
-      <c r="E7" s="64" t="s">
+      <c r="D7" s="62"/>
+      <c r="E7" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="F7" s="64" t="s">
+      <c r="F7" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="G7" s="64" t="s">
+      <c r="G7" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="H7" s="64" t="s">
+      <c r="H7" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="I7" s="64" t="s">
+      <c r="I7" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="J7" s="64" t="s">
+      <c r="J7" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="K7" s="64" t="s">
+      <c r="K7" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="L7" s="64" t="s">
+      <c r="L7" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="M7" s="64" t="s">
+      <c r="M7" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="N7" s="64" t="s">
+      <c r="N7" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="O7" s="64" t="s">
+      <c r="O7" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="P7" s="65" t="s">
+      <c r="P7" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="Q7" s="65" t="s">
+      <c r="Q7" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="R7" s="65"/>
-      <c r="S7" s="65"/>
-      <c r="T7" s="65"/>
-      <c r="U7" s="65"/>
-      <c r="V7" s="65" t="s">
+      <c r="R7" s="64"/>
+      <c r="S7" s="64"/>
+      <c r="T7" s="64"/>
+      <c r="U7" s="64"/>
+      <c r="V7" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="W7" s="65" t="s">
+      <c r="W7" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="X7" s="65" t="s">
+      <c r="X7" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="Y7" s="65" t="s">
+      <c r="Y7" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="Z7" s="65" t="s">
+      <c r="Z7" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="AA7" s="65" t="s">
+      <c r="AA7" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="AB7" s="64" t="s">
+      <c r="AB7" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="AC7" s="64" t="s">
+      <c r="AC7" s="63" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="8" s="10" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A8" s="11" t="s">
+    <row r="8" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A8" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="63"/>
-      <c r="E8" s="64" t="s">
+      <c r="D8" s="62"/>
+      <c r="E8" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="F8" s="64" t="s">
+      <c r="F8" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="G8" s="64" t="s">
+      <c r="G8" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="H8" s="64" t="s">
+      <c r="H8" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="I8" s="64" t="s">
+      <c r="I8" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="J8" s="64" t="s">
+      <c r="J8" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="K8" s="64" t="s">
+      <c r="K8" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="L8" s="64" t="s">
+      <c r="L8" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="M8" s="64"/>
-      <c r="N8" s="64" t="s">
+      <c r="M8" s="63"/>
+      <c r="N8" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="O8" s="64" t="s">
+      <c r="O8" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="P8" s="64" t="s">
+      <c r="P8" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="Q8" s="64" t="s">
+      <c r="Q8" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="R8" s="65"/>
-      <c r="S8" s="64"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="64"/>
-      <c r="V8" s="64" t="s">
+      <c r="R8" s="64"/>
+      <c r="S8" s="63"/>
+      <c r="T8" s="63"/>
+      <c r="U8" s="63"/>
+      <c r="V8" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="W8" s="64" t="s">
+      <c r="W8" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="X8" s="64" t="s">
+      <c r="X8" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="Y8" s="64" t="s">
+      <c r="Y8" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="Z8" s="64" t="s">
+      <c r="Z8" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="AA8" s="64" t="s">
+      <c r="AA8" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="AB8" s="64" t="s">
+      <c r="AB8" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="AC8" s="66" t="s">
+      <c r="AC8" s="63" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="9" s="10" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A9" s="11" t="s">
+    <row r="9" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A9" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="63"/>
-      <c r="E9" s="64" t="s">
+      <c r="D9" s="62"/>
+      <c r="E9" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="64" t="s">
+      <c r="F9" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="G9" s="64" t="s">
+      <c r="G9" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="H9" s="64" t="s">
+      <c r="H9" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="I9" s="64" t="s">
+      <c r="I9" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="J9" s="64" t="s">
+      <c r="J9" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="K9" s="64" t="s">
+      <c r="K9" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="L9" s="64" t="s">
+      <c r="L9" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="M9" s="64"/>
-      <c r="N9" s="64" t="s">
+      <c r="M9" s="63"/>
+      <c r="N9" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="O9" s="64"/>
-      <c r="P9" s="64" t="s">
+      <c r="O9" s="63"/>
+      <c r="P9" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="Q9" s="64" t="s">
+      <c r="Q9" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="R9" s="64" t="s">
+      <c r="R9" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="S9" s="64" t="s">
+      <c r="S9" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="T9" s="64" t="s">
+      <c r="T9" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="U9" s="64" t="s">
+      <c r="U9" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="V9" s="64" t="s">
+      <c r="V9" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="W9" s="64" t="s">
+      <c r="W9" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="X9" s="64" t="s">
+      <c r="X9" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="Y9" s="64" t="s">
+      <c r="Y9" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="Z9" s="64" t="s">
+      <c r="Z9" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="AA9" s="64" t="s">
+      <c r="AA9" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="AB9" s="64" t="s">
+      <c r="AB9" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="AC9" s="66" t="s">
+      <c r="AC9" s="63" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="10" s="10" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A10" s="11" t="s">
+    <row r="10" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A10" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="63" t="str">
+      <c r="D10" s="62" t="str">
         <f>A9</f>
         <v>student</v>
       </c>
-      <c r="E10" s="64" t="s">
+      <c r="E10" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="64" t="s">
+      <c r="F10" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="G10" s="64" t="s">
+      <c r="G10" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="H10" s="64" t="s">
+      <c r="H10" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="I10" s="64" t="s">
+      <c r="I10" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="J10" s="64" t="s">
+      <c r="J10" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="K10" s="64" t="s">
+      <c r="K10" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="L10" s="64" t="s">
+      <c r="L10" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="M10" s="64"/>
-      <c r="N10" s="64" t="s">
+      <c r="M10" s="63"/>
+      <c r="N10" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="O10" s="64"/>
-      <c r="P10" s="64" t="s">
+      <c r="O10" s="63"/>
+      <c r="P10" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="Q10" s="64" t="s">
+      <c r="Q10" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="R10" s="64" t="s">
+      <c r="R10" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="S10" s="64" t="s">
+      <c r="S10" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="T10" s="64" t="s">
+      <c r="T10" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="U10" s="64" t="s">
+      <c r="U10" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="V10" s="64"/>
-      <c r="W10" s="64"/>
-      <c r="X10" s="64"/>
-      <c r="Y10" s="64"/>
-      <c r="Z10" s="64"/>
-      <c r="AA10" s="64"/>
-      <c r="AB10" s="64"/>
-      <c r="AC10" s="66" t="s">
+      <c r="V10" s="63"/>
+      <c r="W10" s="63"/>
+      <c r="X10" s="63"/>
+      <c r="Y10" s="63"/>
+      <c r="Z10" s="63"/>
+      <c r="AA10" s="63"/>
+      <c r="AB10" s="63"/>
+      <c r="AC10" s="63" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4254,272 +4261,302 @@
     <col customWidth="1" min="2" max="2" width="13.140625"/>
     <col customWidth="1" min="3" max="3" width="19.8515625"/>
     <col customWidth="1" min="4" max="4" width="11.00390625"/>
-    <col bestFit="1" customWidth="1" min="5" max="5" width="24.78125"/>
-    <col bestFit="1" min="6" max="6" width="9.140625"/>
-    <col customWidth="1" min="8" max="8" width="36.57421875"/>
+    <col customWidth="1" min="5" max="5" width="12.421875"/>
+    <col bestFit="1" customWidth="1" min="6" max="6" width="24.78125"/>
+    <col bestFit="1" min="7" max="7" width="9.140625"/>
+    <col customWidth="1" min="9" max="9" width="36.57421875"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="G2" s="67" t="s">
+      <c r="F2" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="68" t="s">
+      <c r="I2" s="66" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" s="10" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A3" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" s="12" t="s">
+    <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A3" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="69" t="s">
+      <c r="B3" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="70" t="s">
-        <v>113</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="G3" s="64" t="s">
+      <c r="E3" s="67">
+        <v>36526</v>
+      </c>
+      <c r="F3" s="68" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="H3" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="71" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" s="10" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A4" s="11" t="s">
+      <c r="I3" s="69" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A4" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="67">
+        <v>34781</v>
+      </c>
+      <c r="F4" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="12" t="s">
+      <c r="H4" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="69" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A5" s="70" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="71" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="70" t="s">
-        <v>118</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="G4" s="64" t="s">
+      <c r="E5" s="67">
+        <v>39205</v>
+      </c>
+      <c r="F5" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="H5" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="71" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" s="10" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A5" s="72" t="s">
-        <v>120</v>
-      </c>
-      <c r="B5" s="73" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" s="73" t="s">
+      <c r="I5" s="73" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A6" s="70" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="71" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="71" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="67">
+        <v>39156</v>
+      </c>
+      <c r="F6" s="72" t="s">
+        <v>129</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="H6" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="73" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A7" s="70" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="71" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="67">
+        <v>42171</v>
+      </c>
+      <c r="F7" s="72" t="s">
+        <v>132</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="H7" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="73" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A8" s="70" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="71" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="71" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="74" t="s">
-        <v>122</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="G5" s="64" t="s">
+      <c r="E8" s="67">
+        <v>42237</v>
+      </c>
+      <c r="F8" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="H8" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="71" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" s="10" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A6" s="72" t="s">
-        <v>124</v>
-      </c>
-      <c r="B6" s="73" t="s">
-        <v>125</v>
-      </c>
-      <c r="C6" s="73" t="s">
-        <v>126</v>
-      </c>
-      <c r="D6" s="12" t="s">
+      <c r="I8" s="73" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A9" s="70" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="71" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="74" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="G6" s="64" t="s">
+      <c r="E9" s="67">
+        <v>27791</v>
+      </c>
+      <c r="F9" s="72" t="s">
+        <v>140</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="H9" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="71" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" s="10" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A7" s="72" t="s">
-        <v>128</v>
-      </c>
-      <c r="B7" s="73" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" s="73" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="74" t="s">
-        <v>130</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="G7" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="71" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" s="10" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A8" s="72" t="s">
-        <v>132</v>
-      </c>
-      <c r="B8" s="73" t="s">
-        <v>133</v>
-      </c>
-      <c r="C8" s="73" t="s">
-        <v>126</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="74" t="s">
-        <v>134</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="G8" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="71" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" s="10" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A9" s="72" t="s">
-        <v>135</v>
-      </c>
-      <c r="B9" s="73" t="s">
-        <v>136</v>
-      </c>
-      <c r="C9" s="73" t="s">
-        <v>137</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="74" t="s">
-        <v>138</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="G9" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="71" t="s">
-        <v>139</v>
+      <c r="I9" s="69" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" s="75"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
+      <c r="A10" s="74"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" s="75"/>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
+      <c r="A11" s="74"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="E3"/>
-    <hyperlink r:id="rId2" ref="E4"/>
-    <hyperlink r:id="rId3" ref="E5"/>
-    <hyperlink r:id="rId4" ref="E7"/>
-    <hyperlink r:id="rId5" ref="E9"/>
+    <hyperlink r:id="rId1" ref="F3"/>
+    <hyperlink r:id="rId2" ref="F4"/>
+    <hyperlink r:id="rId3" ref="F5"/>
+    <hyperlink r:id="rId4" ref="F7"/>
+    <hyperlink r:id="rId5" ref="F9"/>
   </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -4528,43 +4565,43 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00B600FA-0097-463C-B503-00FD00A500D7}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{000A00A4-00CB-473C-829E-002F007F00E5}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>D3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{008C00E7-00C8-4EA1-9F02-00E600100080}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{004500ED-0079-498A-9BBF-009300EF001A}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>D4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00B800BD-00C5-48A6-9F45-000E001B00A0}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00E200D2-0071-401F-95C1-002C00A20077}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>D5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00F60005-003F-443D-B0A7-00FB003F003E}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{006A0050-00C8-4384-8726-00DB00AF00FA}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>D6</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00F40051-0044-4C7F-9722-00EE00A8009C}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00B700E2-0038-4CD3-968E-0024006B000A}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>D7</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00A30045-005E-48EF-88BF-002900550009}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{0047006C-0004-44B1-A32B-005400980021}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>D8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{003300DF-00CA-48EC-9435-00070079006B}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{000D0037-0023-4F6A-86D0-00B8008E007C}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
@@ -4595,48 +4632,48 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>140</v>
+      <c r="B1" s="5" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="2" ht="22.100000000000001" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="76" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" s="10" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A3" s="11" t="s">
+      <c r="B2" s="75" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A3" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="77" t="str">
+      <c r="B3" s="76" t="str">
         <f>profiles!$A$10</f>
         <v>guardian</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" s="10" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A4" s="11" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A4" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="77" t="str">
+      <c r="B4" s="76" t="str">
         <f>profiles!$A$9</f>
         <v>student</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" ht="14.25"/>
     <row r="6" ht="14.25"/>
@@ -4669,29 +4706,29 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>142</v>
+      <c r="B1" s="5" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="2" ht="24.350000000000001" customHeight="1">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="79" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" s="10" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A3" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B3" s="77" t="s">
+      <c r="B2" s="78" t="s">
         <v>145</v>
       </c>
-      <c r="C3" s="10"/>
+    </row>
+    <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A3" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="76" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="9"/>
     </row>
     <row r="4"/>
   </sheetData>
@@ -4720,35 +4757,35 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>140</v>
+      <c r="B1" s="5" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="2" ht="22.100000000000001" customHeight="1">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="79" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" s="10" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A3" s="11" t="s">
+      <c r="B2" s="78" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A3" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="77" t="str">
+      <c r="B3" s="76" t="str">
         <f>profiles!$A$8</f>
         <v>teacher</v>
       </c>
     </row>
-    <row r="4" s="10" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A4" s="11" t="s">
+    <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A4" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="77" t="str">
+      <c r="B4" s="76" t="str">
         <f>profiles!$A$9</f>
         <v>student</v>
       </c>
@@ -4798,326 +4835,326 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="P1" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="Q1" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="R1" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="S1" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="T1" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="U1" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="6"/>
-      <c r="AK1" s="6"/>
-      <c r="AL1" s="6"/>
-      <c r="AM1" s="6"/>
-    </row>
-    <row r="2" s="10" customFormat="1" ht="23.600000000000001" customHeight="1">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="E2" s="80" t="s">
+      <c r="V1" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="F2" s="80"/>
-      <c r="G2" s="81" t="s">
+      <c r="W1" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="84" t="s">
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="5"/>
+    </row>
+    <row r="2" s="9" customFormat="1" ht="23.600000000000001" customHeight="1">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="E2" s="79" t="s">
         <v>168</v>
       </c>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="85" t="s">
+      <c r="F2" s="79"/>
+      <c r="G2" s="80" t="s">
         <v>169</v>
       </c>
-      <c r="R2" s="86"/>
-      <c r="S2" s="86"/>
-      <c r="T2" s="87"/>
-      <c r="U2" s="88" t="s">
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="83" t="s">
         <v>170</v>
       </c>
-      <c r="V2" s="89"/>
-      <c r="W2" s="89"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="84" t="s">
+        <v>171</v>
+      </c>
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="86"/>
+      <c r="U2" s="87" t="s">
+        <v>172</v>
+      </c>
+      <c r="V2" s="88"/>
+      <c r="W2" s="88"/>
     </row>
     <row r="3" ht="34.100000000000001" customHeight="1">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="91" t="s">
-        <v>171</v>
-      </c>
-      <c r="D3" s="92" t="s">
+      <c r="C3" s="90" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="93" t="s">
-        <v>172</v>
-      </c>
-      <c r="F3" s="94" t="s">
-        <v>173</v>
-      </c>
-      <c r="G3" s="95" t="s">
+      <c r="E3" s="92" t="s">
         <v>174</v>
       </c>
-      <c r="H3" s="96" t="s">
+      <c r="F3" s="93" t="s">
         <v>175</v>
       </c>
-      <c r="I3" s="97" t="s">
+      <c r="G3" s="94" t="s">
         <v>176</v>
       </c>
-      <c r="J3" s="97" t="s">
+      <c r="H3" s="95" t="s">
         <v>177</v>
       </c>
-      <c r="K3" s="97" t="s">
+      <c r="I3" s="96" t="s">
         <v>178</v>
       </c>
-      <c r="L3" s="97" t="s">
+      <c r="J3" s="96" t="s">
         <v>179</v>
       </c>
-      <c r="M3" s="97" t="s">
+      <c r="K3" s="96" t="s">
         <v>180</v>
       </c>
-      <c r="N3" s="98" t="s">
+      <c r="L3" s="96" t="s">
         <v>181</v>
       </c>
-      <c r="O3" s="99" t="s">
-        <v>179</v>
-      </c>
-      <c r="P3" s="100" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q3" s="101" t="s">
+      <c r="M3" s="96" t="s">
         <v>182</v>
       </c>
-      <c r="R3" s="102" t="s">
+      <c r="N3" s="97" t="s">
         <v>183</v>
       </c>
-      <c r="S3" s="102" t="s">
-        <v>179</v>
-      </c>
-      <c r="T3" s="102" t="s">
-        <v>180</v>
-      </c>
-      <c r="U3" s="103" t="s">
-        <v>179</v>
-      </c>
-      <c r="V3" s="104" t="s">
+      <c r="O3" s="98" t="s">
+        <v>181</v>
+      </c>
+      <c r="P3" s="99" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q3" s="100" t="s">
         <v>184</v>
       </c>
-      <c r="W3" s="105" t="s">
+      <c r="R3" s="101" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="4" s="10" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A4" s="11" t="s">
+      <c r="S3" s="101" t="s">
+        <v>181</v>
+      </c>
+      <c r="T3" s="101" t="s">
+        <v>182</v>
+      </c>
+      <c r="U3" s="102" t="s">
+        <v>181</v>
+      </c>
+      <c r="V3" s="103" t="s">
         <v>186</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="W3" s="104" t="s">
         <v>187</v>
       </c>
-      <c r="C4" s="12" t="s">
+    </row>
+    <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A4" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="D4" s="77" t="str">
+      <c r="B4" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="D4" s="76" t="str">
         <f>centers!$A$3</f>
         <v>centerA</v>
       </c>
-      <c r="E4" s="64" t="s">
+      <c r="E4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="64">
+      <c r="F4" s="63">
         <v>0</v>
       </c>
-      <c r="G4" s="64">
+      <c r="G4" s="63">
         <v>5</v>
       </c>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64" t="s">
+      <c r="H4" s="63"/>
+      <c r="I4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="106"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64" t="s">
+      <c r="J4" s="105"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="64"/>
-      <c r="P4" s="64" t="s">
+      <c r="O4" s="63"/>
+      <c r="P4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="64" t="s">
+      <c r="Q4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="64" t="s">
+      <c r="R4" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="S4" s="64">
+      <c r="S4" s="63">
         <v>3</v>
       </c>
-      <c r="T4" s="64" t="s">
+      <c r="T4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="64">
+      <c r="U4" s="63">
         <v>3</v>
       </c>
-      <c r="V4" s="64" t="s">
+      <c r="V4" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="W4" s="64" t="s">
+      <c r="W4" s="63" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" s="10" customFormat="1" ht="28.5">
-      <c r="A5" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="C5" s="12" t="s">
+    <row r="5" s="9" customFormat="1" ht="28.5">
+      <c r="A5" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="D5" s="77" t="str">
+      <c r="B5" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="D5" s="76" t="str">
         <f>centers!$A$4</f>
         <v>centerB</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="64">
+      <c r="F5" s="63">
         <v>240</v>
       </c>
-      <c r="G5" s="64">
+      <c r="G5" s="63">
         <v>4</v>
       </c>
-      <c r="H5" s="64">
+      <c r="H5" s="63">
         <v>60</v>
       </c>
-      <c r="I5" s="64" t="s">
+      <c r="I5" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="106" t="s">
-        <v>192</v>
-      </c>
-      <c r="K5" s="64" t="s">
+      <c r="J5" s="105" t="s">
+        <v>194</v>
+      </c>
+      <c r="K5" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="64">
+      <c r="L5" s="63">
         <v>4</v>
       </c>
-      <c r="M5" s="64" t="s">
+      <c r="M5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="64" t="s">
+      <c r="N5" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="64">
+      <c r="O5" s="63">
         <v>4</v>
       </c>
-      <c r="P5" s="64" t="s">
+      <c r="P5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="64" t="s">
+      <c r="Q5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="R5" s="64" t="s">
+      <c r="R5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="S5" s="64">
+      <c r="S5" s="63">
         <v>3</v>
       </c>
-      <c r="T5" s="64" t="s">
+      <c r="T5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="U5" s="64">
+      <c r="U5" s="63">
         <v>3</v>
       </c>
-      <c r="V5" s="64" t="s">
+      <c r="V5" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="W5" s="64" t="s">
+      <c r="W5" s="63" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5136,79 +5173,79 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="13" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00FC001B-0057-48C2-9CA0-001800930069}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00760014-00A6-4807-BAFB-0000005C002C}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>W4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00F40072-009F-43FB-8410-00F9002E00EA}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00E200E6-00BB-49AE-9602-00BA00B100FE}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>W5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00E100F6-002D-4F26-8F4C-007A00A20057}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00F800B7-0065-4C20-B7BB-008E0004000A}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>V4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{005E00A6-00D6-4B41-9999-007E002600F6}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00860067-00EC-4284-A1B5-00B40087001E}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>V5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00140079-00AF-40D2-8382-0025000C003F}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00F600B5-001C-4AFB-9763-00A7004700F3}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>T4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{002900A0-006B-4BDD-A90C-00A5005F0018}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{0075004C-0014-4C24-B6FC-009100350070}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>T5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00170054-001E-4277-B077-00C600CF00F0}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00DC00CC-00A2-4E06-A24A-001B00570067}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>R4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00FE003E-00BC-4D4D-BC29-007300D9009B}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{0094003A-0098-40CE-AE33-003A005700E7}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>E4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00CA0098-00AE-429B-A513-00D100D90019}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{003500F2-0057-457D-A210-00A600830088}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>E5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{008B0094-0077-43CD-B6D5-00C400A300C8}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{005B0057-0065-4E71-9906-003700A90047}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>I4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00AE0094-0000-4C4C-B5E5-003A00D60016}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00800010-0080-46BD-82EB-0075008900EF}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>I5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{002100F0-00FD-4A2B-9136-00DE007700C7}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{009200A7-0072-49E8-840F-000B00A60056}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>SUBSTAGES_FRECUENCY</xm:f>
           </x14:formula1>
           <xm:sqref>K4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00C20049-008A-48F3-96E0-004C003E0072}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00D30091-006B-4E77-B7E6-003100C100A2}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>SUBSTAGES_FRECUENCY</xm:f>
           </x14:formula1>
@@ -5240,90 +5277,90 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>195</v>
       </c>
+      <c r="D1" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="2" ht="28.5">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="92" t="s">
-        <v>196</v>
-      </c>
-      <c r="D2" s="107" t="s">
-        <v>173</v>
-      </c>
-      <c r="E2" s="107" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="3" s="10" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A3" s="11" t="s">
+      <c r="C2" s="91" t="s">
         <v>198</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="D2" s="106" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2" s="106" t="s">
         <v>199</v>
       </c>
-      <c r="C3" s="77" t="str">
+    </row>
+    <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A3" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" s="76" t="str">
         <f>ap_programs!$A$4</f>
         <v>programA</v>
       </c>
-      <c r="D3" s="64">
+      <c r="D3" s="63">
         <v>0</v>
       </c>
-      <c r="E3" s="64" t="s">
+      <c r="E3" s="63" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" s="10" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A4" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="C4" s="77" t="str">
+    <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A4" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" s="76" t="str">
         <f>ap_programs!$A$5</f>
         <v>programB</v>
       </c>
-      <c r="D4" s="64">
+      <c r="D4" s="63">
         <v>0</v>
       </c>
-      <c r="E4" s="64" t="s">
+      <c r="E4" s="63" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" ht="19.5" customHeight="1">
-      <c r="A5" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="C5" s="77" t="str">
+      <c r="A5" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C5" s="76" t="str">
         <f>ap_programs!$A$4</f>
         <v>programA</v>
       </c>
-      <c r="D5" s="64">
+      <c r="D5" s="63">
         <v>0</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="63" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5335,19 +5372,19 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3" disablePrompts="0">
-        <x14:dataValidation xr:uid="{0055009D-00BD-4911-9A9F-00AA00DA00C6}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{006300CD-00AF-41EC-9872-00D2004B0006}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>E3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00B400BB-005E-4060-908F-006D00610045}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{006800B1-00FB-4464-8CFB-0063006F0027}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>E4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00A40053-00D1-4348-87B0-006B007D002A}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{006A009E-0059-4004-AC54-00D500320006}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>

--- a/packages/leemons-plugin-mvp-template/src/bulk/data.xlsx
+++ b/packages/leemons-plugin-mvp-template/src/bulk/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" state="visible" r:id="rId1"/>
@@ -23,13 +23,14 @@
     <definedName name="SUBSTAGES_FRECUENCY" hidden="0">DB!$A$2:$A$8</definedName>
     <definedName name="BOOLEAN_ANSWER" hidden="0">DB!$A$11:$A$12</definedName>
     <definedName name="GENRE_ANSWER" hidden="0">DB!$A$15:$A$16</definedName>
+    <definedName name="GUARDIANS_RELATIONSHIPS" hidden="0">DB!$A$19:$A$23</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="279">
   <si>
     <t xml:space="preserve">Substages frecuency</t>
   </si>
@@ -73,6 +74,24 @@
     <t>Female</t>
   </si>
   <si>
+    <t xml:space="preserve">Marital Status</t>
+  </si>
+  <si>
+    <t>Married</t>
+  </si>
+  <si>
+    <t>Divorced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domestic partners</t>
+  </si>
+  <si>
+    <t>Cohabitants</t>
+  </si>
+  <si>
+    <t>Separated</t>
+  </si>
+  <si>
     <t>root</t>
   </si>
   <si>
@@ -466,13 +485,31 @@
     <t>relations</t>
   </si>
   <si>
+    <t>maritalStatus</t>
+  </si>
+  <si>
+    <t>emergencyPhoneNumbers</t>
+  </si>
+  <si>
     <t>Relations</t>
   </si>
   <si>
+    <t xml:space="preserve">Guardians relationship</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emergency phone numbers</t>
+  </si>
+  <si>
     <t>family01</t>
   </si>
   <si>
+    <t xml:space="preserve">School's family</t>
+  </si>
+  <si>
     <t xml:space="preserve">guardian01|mother@studentA02, guardian01|mother@studentB02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111-222-333@Mom's phone|mother</t>
   </si>
   <si>
     <t>abbreviation</t>
@@ -940,7 +977,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1035,6 +1072,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="0"/>
+        <bgColor theme="0" tint="0"/>
       </patternFill>
     </fill>
     <fill>
@@ -1328,7 +1371,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="127">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1341,6 +1384,9 @@
     </xf>
     <xf fontId="1" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1558,9 +1604,21 @@
     <xf fontId="1" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf fontId="4" fillId="4" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf fontId="4" fillId="16" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="17" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf fontId="1" fillId="7" borderId="21" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1576,13 +1634,13 @@
     <xf fontId="1" fillId="9" borderId="21" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="17" borderId="22" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="18" borderId="22" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="17" borderId="23" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="18" borderId="23" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="17" borderId="24" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="18" borderId="24" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="1" fillId="10" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1624,10 +1682,10 @@
     <xf fontId="12" fillId="13" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="12" fillId="18" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="12" fillId="19" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="12" fillId="18" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="12" fillId="19" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="12" fillId="14" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2202,7 +2260,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0" zoomScale="100">
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0" zoomScale="100">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2282,6 +2340,38 @@
         <v>13</v>
       </c>
     </row>
+    <row r="18" ht="14.25">
+      <c r="A18" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="A19" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25">
+      <c r="A20" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25">
+      <c r="A21" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="A22" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="A23" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25"/>
+    <row r="25" ht="14.25"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -2311,96 +2401,96 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>196</v>
+      <c r="A1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="2" ht="28.5">
-      <c r="A2" s="107" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="108" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="108" t="s">
-        <v>173</v>
-      </c>
-      <c r="D2" s="108" t="s">
-        <v>207</v>
-      </c>
-      <c r="E2" s="108" t="s">
-        <v>208</v>
-      </c>
-      <c r="F2" s="109" t="s">
-        <v>198</v>
-      </c>
-      <c r="G2" s="110" t="s">
-        <v>175</v>
+      <c r="A2" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="113" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="113" t="s">
+        <v>185</v>
+      </c>
+      <c r="D2" s="113" t="s">
+        <v>219</v>
+      </c>
+      <c r="E2" s="113" t="s">
+        <v>220</v>
+      </c>
+      <c r="F2" s="114" t="s">
+        <v>210</v>
+      </c>
+      <c r="G2" s="115" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1">
-      <c r="A3" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="E3" s="111" t="s">
-        <v>213</v>
-      </c>
-      <c r="F3" s="76" t="str">
+      <c r="A3" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="E3" s="116" t="s">
+        <v>225</v>
+      </c>
+      <c r="F3" s="77" t="str">
         <f>ap_programs!$A$5</f>
         <v>programB</v>
       </c>
-      <c r="G3" s="63">
+      <c r="G3" s="64">
         <v>0</v>
       </c>
     </row>
     <row r="4" ht="19.5" customHeight="1">
-      <c r="A4" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="E4" s="68" t="s">
-        <v>218</v>
-      </c>
-      <c r="F4" s="76" t="str">
+      <c r="A4" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="E4" s="69" t="s">
+        <v>230</v>
+      </c>
+      <c r="F4" s="77" t="str">
         <f>ap_programs!$A$5</f>
         <v>programB</v>
       </c>
-      <c r="G4" s="63">
+      <c r="G4" s="64">
         <v>0</v>
       </c>
     </row>
@@ -2444,920 +2534,920 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
-      <c r="A1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="K1" s="112" t="s">
-        <v>224</v>
-      </c>
-      <c r="L1" s="74"/>
+      <c r="A1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="K1" s="117" t="s">
+        <v>236</v>
+      </c>
+      <c r="L1" s="75"/>
     </row>
     <row r="2" ht="28.850000000000001" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
       <c r="G2" s="1" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="74"/>
+      <c r="L2" s="75"/>
     </row>
     <row r="3" ht="31.850000000000001" customHeight="1">
-      <c r="A3" s="107" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="108" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="91" t="s">
-        <v>198</v>
-      </c>
-      <c r="D3" s="90" t="s">
-        <v>226</v>
-      </c>
-      <c r="E3" s="90" t="s">
-        <v>227</v>
-      </c>
-      <c r="F3" s="90" t="s">
-        <v>228</v>
-      </c>
-      <c r="G3" s="113" t="s">
-        <v>229</v>
-      </c>
-      <c r="H3" s="114" t="s">
-        <v>207</v>
-      </c>
-      <c r="I3" s="114" t="s">
-        <v>230</v>
-      </c>
-      <c r="J3" s="115" t="s">
-        <v>231</v>
-      </c>
-      <c r="K3" s="109" t="s">
-        <v>232</v>
-      </c>
-      <c r="L3" s="116"/>
-    </row>
-    <row r="4" s="9" customFormat="1" ht="30" customHeight="1">
-      <c r="A4" s="10" t="str">
+      <c r="A3" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="113" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="96" t="s">
+        <v>210</v>
+      </c>
+      <c r="D3" s="95" t="s">
+        <v>238</v>
+      </c>
+      <c r="E3" s="95" t="s">
+        <v>239</v>
+      </c>
+      <c r="F3" s="95" t="s">
+        <v>240</v>
+      </c>
+      <c r="G3" s="118" t="s">
+        <v>241</v>
+      </c>
+      <c r="H3" s="119" t="s">
+        <v>219</v>
+      </c>
+      <c r="I3" s="119" t="s">
+        <v>242</v>
+      </c>
+      <c r="J3" s="120" t="s">
+        <v>243</v>
+      </c>
+      <c r="K3" s="114" t="s">
+        <v>244</v>
+      </c>
+      <c r="L3" s="121"/>
+    </row>
+    <row r="4" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A4" s="11" t="str">
         <f t="shared" ref="A4:A9" si="0">_xlfn.CONCAT("subject",IF(L4&lt;10,"0",""),L4)</f>
         <v>subject01</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="C4" s="76" t="str">
+      <c r="B4" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4" s="77" t="str">
         <f>ap_programs!A4</f>
         <v>programA</v>
       </c>
-      <c r="D4" s="63">
+      <c r="D4" s="64">
         <v>1</v>
       </c>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63" t="str">
+      <c r="E4" s="64"/>
+      <c r="F4" s="64" t="str">
         <f t="shared" ref="F4:F9" si="1">_xlfn.CONCAT("0",IF(L4&lt;10,"0",""),L4)</f>
         <v>001</v>
       </c>
-      <c r="G4" s="117" t="s">
-        <v>234</v>
-      </c>
-      <c r="H4" s="118" t="s">
-        <v>235</v>
-      </c>
-      <c r="I4" s="63"/>
-      <c r="J4" s="119" t="str">
+      <c r="G4" s="122" t="s">
+        <v>246</v>
+      </c>
+      <c r="H4" s="123" t="s">
+        <v>247</v>
+      </c>
+      <c r="I4" s="64"/>
+      <c r="J4" s="124" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K4" s="120" t="s">
-        <v>236</v>
-      </c>
-      <c r="L4" s="121">
+      <c r="K4" s="125" t="s">
+        <v>248</v>
+      </c>
+      <c r="L4" s="126">
         <v>1</v>
       </c>
-      <c r="M4" s="9"/>
-    </row>
-    <row r="5" s="9" customFormat="1" ht="30" customHeight="1">
-      <c r="A5" s="10" t="str">
+      <c r="M4" s="10"/>
+    </row>
+    <row r="5" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A5" s="11" t="str">
         <f t="shared" si="0"/>
         <v>subject02</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="C5" s="76" t="str">
+      <c r="B5" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="C5" s="77" t="str">
         <f t="shared" ref="C5:C10" si="2">C4</f>
         <v>programA</v>
       </c>
-      <c r="D5" s="63">
+      <c r="D5" s="64">
         <v>1</v>
       </c>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63" t="str">
+      <c r="E5" s="64"/>
+      <c r="F5" s="64" t="str">
         <f t="shared" si="1"/>
         <v>002</v>
       </c>
-      <c r="G5" s="117" t="str">
+      <c r="G5" s="122" t="str">
         <f t="shared" ref="G5:G10" si="3">G4</f>
         <v xml:space="preserve">Group A|G1A, Group B|G1B</v>
       </c>
-      <c r="H5" s="118" t="str">
+      <c r="H5" s="123" t="str">
         <f t="shared" ref="H5:H10" si="4">H4</f>
         <v>#FFEB9C</v>
       </c>
-      <c r="I5" s="63"/>
-      <c r="J5" s="119" t="str">
+      <c r="I5" s="64"/>
+      <c r="J5" s="124" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K5" s="120" t="str">
+      <c r="K5" s="125" t="str">
         <f t="shared" ref="K5:K10" si="5">K4</f>
         <v xml:space="preserve">teacher01|main@G1A, teacher01|main@G1B</v>
       </c>
-      <c r="L5" s="121">
+      <c r="L5" s="126">
         <f t="shared" ref="L5:L10" si="6">L4+1</f>
         <v>2</v>
       </c>
-      <c r="M5" s="9"/>
-    </row>
-    <row r="6" s="9" customFormat="1" ht="30" customHeight="1">
-      <c r="A6" s="10" t="str">
+      <c r="M5" s="10"/>
+    </row>
+    <row r="6" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A6" s="11" t="str">
         <f t="shared" si="0"/>
         <v>subject03</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="C6" s="76" t="str">
+      <c r="B6" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="C6" s="77" t="str">
         <f t="shared" si="2"/>
         <v>programA</v>
       </c>
-      <c r="D6" s="63">
+      <c r="D6" s="64">
         <v>1</v>
       </c>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63" t="str">
+      <c r="E6" s="64"/>
+      <c r="F6" s="64" t="str">
         <f t="shared" si="1"/>
         <v>003</v>
       </c>
-      <c r="G6" s="117" t="str">
+      <c r="G6" s="122" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">Group A|G1A, Group B|G1B</v>
       </c>
-      <c r="H6" s="118" t="str">
+      <c r="H6" s="123" t="str">
         <f t="shared" si="4"/>
         <v>#FFEB9C</v>
       </c>
-      <c r="I6" s="63"/>
-      <c r="J6" s="119" t="str">
+      <c r="I6" s="64"/>
+      <c r="J6" s="124" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K6" s="120" t="str">
+      <c r="K6" s="125" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">teacher01|main@G1A, teacher01|main@G1B</v>
       </c>
-      <c r="L6" s="121">
+      <c r="L6" s="126">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="M6" s="9"/>
-    </row>
-    <row r="7" s="9" customFormat="1" ht="30" customHeight="1">
-      <c r="A7" s="10" t="str">
+      <c r="M6" s="10"/>
+    </row>
+    <row r="7" s="10" customFormat="1" ht="30" customHeight="1">
+      <c r="A7" s="11" t="str">
         <f t="shared" si="0"/>
         <v>subject04</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="C7" s="76" t="str">
+      <c r="B7" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="C7" s="77" t="str">
         <f t="shared" si="2"/>
         <v>programA</v>
       </c>
-      <c r="D7" s="63">
+      <c r="D7" s="64">
         <v>1</v>
       </c>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63" t="str">
+      <c r="E7" s="64"/>
+      <c r="F7" s="64" t="str">
         <f t="shared" si="1"/>
         <v>004</v>
       </c>
-      <c r="G7" s="117" t="str">
+      <c r="G7" s="122" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">Group A|G1A, Group B|G1B</v>
       </c>
-      <c r="H7" s="118" t="str">
+      <c r="H7" s="123" t="str">
         <f t="shared" si="4"/>
         <v>#FFEB9C</v>
       </c>
-      <c r="I7" s="63"/>
-      <c r="J7" s="119" t="str">
+      <c r="I7" s="64"/>
+      <c r="J7" s="124" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="K7" s="120" t="str">
+      <c r="K7" s="125" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">teacher01|main@G1A, teacher01|main@G1B</v>
       </c>
-      <c r="L7" s="121">
+      <c r="L7" s="126">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="M7" s="9"/>
+      <c r="M7" s="10"/>
     </row>
     <row r="8" ht="30" customHeight="1">
-      <c r="A8" s="10" t="str">
+      <c r="A8" s="11" t="str">
         <f t="shared" si="0"/>
         <v>subject05</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="C8" s="76" t="str">
+      <c r="B8" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="C8" s="77" t="str">
         <f t="shared" si="2"/>
         <v>programA</v>
       </c>
-      <c r="D8" s="63">
+      <c r="D8" s="64">
         <v>2</v>
       </c>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63" t="str">
+      <c r="E8" s="64"/>
+      <c r="F8" s="64" t="str">
         <f t="shared" si="1"/>
         <v>005</v>
       </c>
-      <c r="G8" s="117" t="s">
-        <v>241</v>
-      </c>
-      <c r="H8" s="118" t="str">
+      <c r="G8" s="122" t="s">
+        <v>253</v>
+      </c>
+      <c r="H8" s="123" t="str">
         <f t="shared" si="4"/>
         <v>#FFEB9C</v>
       </c>
-      <c r="I8" s="63"/>
-      <c r="J8" s="119" t="str">
+      <c r="I8" s="64"/>
+      <c r="J8" s="124" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K8" s="120" t="s">
-        <v>242</v>
-      </c>
-      <c r="L8" s="121">
+      <c r="K8" s="125" t="s">
+        <v>254</v>
+      </c>
+      <c r="L8" s="126">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
     <row r="9" ht="30" customHeight="1">
-      <c r="A9" s="10" t="str">
+      <c r="A9" s="11" t="str">
         <f t="shared" si="0"/>
         <v>subject06</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C9" s="76" t="str">
+      <c r="B9" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C9" s="77" t="str">
         <f t="shared" si="2"/>
         <v>programA</v>
       </c>
-      <c r="D9" s="63">
+      <c r="D9" s="64">
         <v>2</v>
       </c>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63" t="str">
+      <c r="E9" s="64"/>
+      <c r="F9" s="64" t="str">
         <f t="shared" si="1"/>
         <v>006</v>
       </c>
-      <c r="G9" s="117" t="str">
+      <c r="G9" s="122" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">Group A|G2A, Group B|G2B</v>
       </c>
-      <c r="H9" s="118" t="s">
-        <v>244</v>
-      </c>
-      <c r="I9" s="63"/>
-      <c r="J9" s="119" t="str">
+      <c r="H9" s="123" t="s">
+        <v>256</v>
+      </c>
+      <c r="I9" s="64"/>
+      <c r="J9" s="124" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K9" s="120" t="str">
+      <c r="K9" s="125" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">teacher01|main@G2A, teacher01|main@G2B</v>
       </c>
-      <c r="L9" s="121">
+      <c r="L9" s="126">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
     <row r="10" ht="30" customHeight="1">
-      <c r="A10" s="10" t="str">
+      <c r="A10" s="11" t="str">
         <f t="shared" ref="A10:A23" si="7">_xlfn.CONCAT("subject",IF(L10&lt;10,"0",""),L10)</f>
         <v>subject07</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="C10" s="76" t="str">
+      <c r="B10" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C10" s="77" t="str">
         <f t="shared" si="2"/>
         <v>programA</v>
       </c>
-      <c r="D10" s="63">
+      <c r="D10" s="64">
         <v>2</v>
       </c>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63" t="str">
+      <c r="E10" s="64"/>
+      <c r="F10" s="64" t="str">
         <f t="shared" ref="F10:F23" si="8">_xlfn.CONCAT("0",IF(L10&lt;10,"0",""),L10)</f>
         <v>007</v>
       </c>
-      <c r="G10" s="117" t="str">
+      <c r="G10" s="122" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">Group A|G2A, Group B|G2B</v>
       </c>
-      <c r="H10" s="118" t="str">
+      <c r="H10" s="123" t="str">
         <f t="shared" si="4"/>
         <v>#FFC7CE</v>
       </c>
-      <c r="I10" s="63"/>
-      <c r="J10" s="119" t="str">
+      <c r="I10" s="64"/>
+      <c r="J10" s="124" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K10" s="120" t="str">
+      <c r="K10" s="125" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">teacher01|main@G2A, teacher01|main@G2B</v>
       </c>
-      <c r="L10" s="121">
+      <c r="L10" s="126">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
     </row>
     <row r="11" ht="30" customHeight="1">
-      <c r="A11" s="10" t="str">
+      <c r="A11" s="11" t="str">
         <f t="shared" si="7"/>
         <v>subject08</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="C11" s="76" t="str">
+      <c r="B11" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="C11" s="77" t="str">
         <f t="shared" ref="C11:C23" si="9">C10</f>
         <v>programA</v>
       </c>
-      <c r="D11" s="63">
+      <c r="D11" s="64">
         <v>2</v>
       </c>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63" t="str">
+      <c r="E11" s="64"/>
+      <c r="F11" s="64" t="str">
         <f t="shared" si="8"/>
         <v>008</v>
       </c>
-      <c r="G11" s="117" t="str">
+      <c r="G11" s="122" t="str">
         <f>G10</f>
         <v xml:space="preserve">Group A|G2A, Group B|G2B</v>
       </c>
-      <c r="H11" s="118" t="str">
+      <c r="H11" s="123" t="str">
         <f t="shared" ref="H11:H18" si="10">H10</f>
         <v>#FFC7CE</v>
       </c>
-      <c r="I11" s="63"/>
-      <c r="J11" s="119" t="str">
+      <c r="I11" s="64"/>
+      <c r="J11" s="124" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="K11" s="120" t="str">
+      <c r="K11" s="125" t="str">
         <f>K10</f>
         <v xml:space="preserve">teacher01|main@G2A, teacher01|main@G2B</v>
       </c>
-      <c r="L11" s="121">
+      <c r="L11" s="126">
         <f t="shared" ref="L11:L23" si="11">L10+1</f>
         <v>8</v>
       </c>
     </row>
     <row r="12" ht="30" customHeight="1">
-      <c r="A12" s="10" t="str">
+      <c r="A12" s="11" t="str">
         <f t="shared" si="7"/>
         <v>subject09</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="C12" s="76" t="str">
+      <c r="B12" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C12" s="77" t="str">
         <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D12" s="63">
+      <c r="D12" s="64">
         <v>3</v>
       </c>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63" t="str">
+      <c r="E12" s="64"/>
+      <c r="F12" s="64" t="str">
         <f t="shared" si="8"/>
         <v>009</v>
       </c>
-      <c r="G12" s="117" t="s">
-        <v>248</v>
-      </c>
-      <c r="H12" s="118" t="str">
+      <c r="G12" s="122" t="s">
+        <v>260</v>
+      </c>
+      <c r="H12" s="123" t="str">
         <f t="shared" si="10"/>
         <v>#FFC7CE</v>
       </c>
-      <c r="I12" s="63"/>
-      <c r="J12" s="119" t="str">
+      <c r="I12" s="64"/>
+      <c r="J12" s="124" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K12" s="120" t="s">
-        <v>249</v>
-      </c>
-      <c r="L12" s="121">
+      <c r="K12" s="125" t="s">
+        <v>261</v>
+      </c>
+      <c r="L12" s="126">
         <f t="shared" si="11"/>
         <v>9</v>
       </c>
     </row>
     <row r="13" ht="30" customHeight="1">
-      <c r="A13" s="10" t="str">
+      <c r="A13" s="11" t="str">
         <f t="shared" si="7"/>
         <v>subject10</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="C13" s="76" t="str">
+      <c r="B13" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="C13" s="77" t="str">
         <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D13" s="63">
+      <c r="D13" s="64">
         <v>3</v>
       </c>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63" t="str">
+      <c r="E13" s="64"/>
+      <c r="F13" s="64" t="str">
         <f t="shared" si="8"/>
         <v>010</v>
       </c>
-      <c r="G13" s="117" t="str">
+      <c r="G13" s="122" t="str">
         <f t="shared" ref="G13:G23" si="12">G12</f>
         <v xml:space="preserve">Group A|G3A, Group B|G3B</v>
       </c>
-      <c r="H13" s="118" t="str">
+      <c r="H13" s="123" t="str">
         <f t="shared" si="10"/>
         <v>#FFC7CE</v>
       </c>
-      <c r="I13" s="63"/>
-      <c r="J13" s="119" t="str">
+      <c r="I13" s="64"/>
+      <c r="J13" s="124" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K13" s="120" t="str">
+      <c r="K13" s="125" t="str">
         <f t="shared" ref="K13:K23" si="13">K12</f>
         <v xml:space="preserve">teacher01|main@G3A, teacher01|main@G3B</v>
       </c>
-      <c r="L13" s="121">
+      <c r="L13" s="126">
         <f t="shared" si="11"/>
         <v>10</v>
       </c>
     </row>
     <row r="14" ht="30" customHeight="1">
-      <c r="A14" s="10" t="str">
+      <c r="A14" s="11" t="str">
         <f t="shared" si="7"/>
         <v>subject11</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="C14" s="76" t="str">
+      <c r="B14" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="C14" s="77" t="str">
         <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D14" s="63">
+      <c r="D14" s="64">
         <v>3</v>
       </c>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63" t="str">
+      <c r="E14" s="64"/>
+      <c r="F14" s="64" t="str">
         <f t="shared" si="8"/>
         <v>011</v>
       </c>
-      <c r="G14" s="117" t="str">
+      <c r="G14" s="122" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">Group A|G3A, Group B|G3B</v>
       </c>
-      <c r="H14" s="118" t="s">
-        <v>252</v>
-      </c>
-      <c r="I14" s="63"/>
-      <c r="J14" s="119" t="str">
+      <c r="H14" s="123" t="s">
+        <v>264</v>
+      </c>
+      <c r="I14" s="64"/>
+      <c r="J14" s="124" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K14" s="120" t="str">
+      <c r="K14" s="125" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">teacher01|main@G3A, teacher01|main@G3B</v>
       </c>
-      <c r="L14" s="121">
+      <c r="L14" s="126">
         <f t="shared" si="11"/>
         <v>11</v>
       </c>
     </row>
     <row r="15" ht="30" customHeight="1">
-      <c r="A15" s="10" t="str">
+      <c r="A15" s="11" t="str">
         <f t="shared" si="7"/>
         <v>subject12</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="C15" s="76" t="str">
+      <c r="B15" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="C15" s="77" t="str">
         <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D15" s="63">
+      <c r="D15" s="64">
         <v>3</v>
       </c>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63" t="str">
+      <c r="E15" s="64"/>
+      <c r="F15" s="64" t="str">
         <f t="shared" si="8"/>
         <v>012</v>
       </c>
-      <c r="G15" s="117" t="str">
+      <c r="G15" s="122" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">Group A|G3A, Group B|G3B</v>
       </c>
-      <c r="H15" s="118" t="str">
+      <c r="H15" s="123" t="str">
         <f t="shared" si="10"/>
         <v>#C6EFCD</v>
       </c>
-      <c r="I15" s="63"/>
-      <c r="J15" s="119" t="str">
+      <c r="I15" s="64"/>
+      <c r="J15" s="124" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="K15" s="120" t="str">
+      <c r="K15" s="125" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">teacher01|main@G3A, teacher01|main@G3B</v>
       </c>
-      <c r="L15" s="121">
+      <c r="L15" s="126">
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
     </row>
     <row r="16" ht="30" customHeight="1">
-      <c r="A16" s="10" t="str">
+      <c r="A16" s="11" t="str">
         <f t="shared" si="7"/>
         <v>subject13</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="C16" s="76" t="str">
+      <c r="B16" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="C16" s="77" t="str">
         <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D16" s="63">
+      <c r="D16" s="64">
         <v>4</v>
       </c>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63" t="str">
+      <c r="E16" s="64"/>
+      <c r="F16" s="64" t="str">
         <f t="shared" si="8"/>
         <v>013</v>
       </c>
-      <c r="G16" s="117" t="s">
-        <v>255</v>
-      </c>
-      <c r="H16" s="118" t="str">
+      <c r="G16" s="122" t="s">
+        <v>267</v>
+      </c>
+      <c r="H16" s="123" t="str">
         <f t="shared" si="10"/>
         <v>#C6EFCD</v>
       </c>
-      <c r="I16" s="63"/>
-      <c r="J16" s="119" t="str">
+      <c r="I16" s="64"/>
+      <c r="J16" s="124" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K16" s="120" t="s">
-        <v>256</v>
-      </c>
-      <c r="L16" s="121">
+      <c r="K16" s="125" t="s">
+        <v>268</v>
+      </c>
+      <c r="L16" s="126">
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
     </row>
     <row r="17" ht="30" customHeight="1">
-      <c r="A17" s="10" t="str">
+      <c r="A17" s="11" t="str">
         <f t="shared" si="7"/>
         <v>subject14</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="C17" s="76" t="str">
+      <c r="B17" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="C17" s="77" t="str">
         <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D17" s="63">
+      <c r="D17" s="64">
         <v>4</v>
       </c>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63" t="str">
+      <c r="E17" s="64"/>
+      <c r="F17" s="64" t="str">
         <f t="shared" si="8"/>
         <v>014</v>
       </c>
-      <c r="G17" s="117" t="str">
+      <c r="G17" s="122" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">Group A|G4A, Group B|G4B</v>
       </c>
-      <c r="H17" s="118" t="str">
+      <c r="H17" s="123" t="str">
         <f t="shared" si="10"/>
         <v>#C6EFCD</v>
       </c>
-      <c r="I17" s="63"/>
-      <c r="J17" s="119" t="str">
+      <c r="I17" s="64"/>
+      <c r="J17" s="124" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K17" s="120" t="str">
+      <c r="K17" s="125" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">teacher01|main@G4A, teacher01|main@G4B</v>
       </c>
-      <c r="L17" s="121">
+      <c r="L17" s="126">
         <f t="shared" si="11"/>
         <v>14</v>
       </c>
     </row>
     <row r="18" ht="30" customHeight="1">
-      <c r="A18" s="10" t="str">
+      <c r="A18" s="11" t="str">
         <f t="shared" si="7"/>
         <v>subject15</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="C18" s="76" t="str">
+      <c r="B18" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="C18" s="77" t="str">
         <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D18" s="63">
+      <c r="D18" s="64">
         <v>4</v>
       </c>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63" t="str">
+      <c r="E18" s="64"/>
+      <c r="F18" s="64" t="str">
         <f t="shared" si="8"/>
         <v>015</v>
       </c>
-      <c r="G18" s="117" t="str">
+      <c r="G18" s="122" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">Group A|G4A, Group B|G4B</v>
       </c>
-      <c r="H18" s="118" t="str">
+      <c r="H18" s="123" t="str">
         <f t="shared" si="10"/>
         <v>#C6EFCD</v>
       </c>
-      <c r="I18" s="63"/>
-      <c r="J18" s="119" t="str">
+      <c r="I18" s="64"/>
+      <c r="J18" s="124" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K18" s="120" t="str">
+      <c r="K18" s="125" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">teacher01|main@G4A, teacher01|main@G4B</v>
       </c>
-      <c r="L18" s="121">
+      <c r="L18" s="126">
         <f t="shared" si="11"/>
         <v>15</v>
       </c>
     </row>
     <row r="19" ht="30" customHeight="1">
-      <c r="A19" s="10" t="str">
+      <c r="A19" s="11" t="str">
         <f t="shared" si="7"/>
         <v>subject16</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="C19" s="76" t="str">
+      <c r="B19" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="C19" s="77" t="str">
         <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D19" s="63">
+      <c r="D19" s="64">
         <v>4</v>
       </c>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63" t="str">
+      <c r="E19" s="64"/>
+      <c r="F19" s="64" t="str">
         <f t="shared" si="8"/>
         <v>016</v>
       </c>
-      <c r="G19" s="117" t="str">
+      <c r="G19" s="122" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">Group A|G4A, Group B|G4B</v>
       </c>
-      <c r="H19" s="118" t="s">
-        <v>260</v>
-      </c>
-      <c r="I19" s="63"/>
-      <c r="J19" s="119" t="str">
+      <c r="H19" s="123" t="s">
+        <v>272</v>
+      </c>
+      <c r="I19" s="64"/>
+      <c r="J19" s="124" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="K19" s="120" t="str">
+      <c r="K19" s="125" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">teacher01|main@G4A, teacher01|main@G4B</v>
       </c>
-      <c r="L19" s="121">
+      <c r="L19" s="126">
         <f t="shared" si="11"/>
         <v>16</v>
       </c>
     </row>
     <row r="20" ht="30" customHeight="1">
-      <c r="A20" s="10" t="str">
+      <c r="A20" s="11" t="str">
         <f t="shared" si="7"/>
         <v>subject17</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="C20" s="76" t="str">
+      <c r="B20" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="C20" s="77" t="str">
         <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D20" s="63">
+      <c r="D20" s="64">
         <v>5</v>
       </c>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63" t="str">
+      <c r="E20" s="64"/>
+      <c r="F20" s="64" t="str">
         <f t="shared" si="8"/>
         <v>017</v>
       </c>
-      <c r="G20" s="117" t="s">
-        <v>262</v>
-      </c>
-      <c r="H20" s="118" t="s">
-        <v>260</v>
-      </c>
-      <c r="I20" s="63"/>
-      <c r="J20" s="119" t="str">
+      <c r="G20" s="122" t="s">
+        <v>274</v>
+      </c>
+      <c r="H20" s="123" t="s">
+        <v>272</v>
+      </c>
+      <c r="I20" s="64"/>
+      <c r="J20" s="124" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K20" s="120" t="s">
-        <v>263</v>
-      </c>
-      <c r="L20" s="121">
+      <c r="K20" s="125" t="s">
+        <v>275</v>
+      </c>
+      <c r="L20" s="126">
         <f t="shared" si="11"/>
         <v>17</v>
       </c>
     </row>
     <row r="21" ht="30" customHeight="1">
-      <c r="A21" s="10" t="str">
+      <c r="A21" s="11" t="str">
         <f t="shared" si="7"/>
         <v>subject18</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="C21" s="76" t="str">
+      <c r="B21" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="C21" s="77" t="str">
         <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D21" s="63">
+      <c r="D21" s="64">
         <v>5</v>
       </c>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63" t="str">
+      <c r="E21" s="64"/>
+      <c r="F21" s="64" t="str">
         <f t="shared" si="8"/>
         <v>018</v>
       </c>
-      <c r="G21" s="117" t="str">
+      <c r="G21" s="122" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">Group A|G5A, Group B|G5B</v>
       </c>
-      <c r="H21" s="118" t="s">
-        <v>260</v>
-      </c>
-      <c r="I21" s="63"/>
-      <c r="J21" s="119" t="str">
+      <c r="H21" s="123" t="s">
+        <v>272</v>
+      </c>
+      <c r="I21" s="64"/>
+      <c r="J21" s="124" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K21" s="120" t="str">
+      <c r="K21" s="125" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">teacher01|main@G5A, teacher01|main@G5B</v>
       </c>
-      <c r="L21" s="121">
+      <c r="L21" s="126">
         <f t="shared" si="11"/>
         <v>18</v>
       </c>
     </row>
     <row r="22" ht="30" customHeight="1">
-      <c r="A22" s="10" t="str">
+      <c r="A22" s="11" t="str">
         <f t="shared" si="7"/>
         <v>subject19</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="C22" s="76" t="str">
+      <c r="B22" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="C22" s="77" t="str">
         <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D22" s="63">
+      <c r="D22" s="64">
         <v>5</v>
       </c>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63" t="str">
+      <c r="E22" s="64"/>
+      <c r="F22" s="64" t="str">
         <f t="shared" si="8"/>
         <v>019</v>
       </c>
-      <c r="G22" s="117" t="str">
+      <c r="G22" s="122" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">Group A|G5A, Group B|G5B</v>
       </c>
-      <c r="H22" s="118" t="s">
-        <v>260</v>
-      </c>
-      <c r="I22" s="63"/>
-      <c r="J22" s="119" t="str">
+      <c r="H22" s="123" t="s">
+        <v>272</v>
+      </c>
+      <c r="I22" s="64"/>
+      <c r="J22" s="124" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K22" s="120" t="str">
+      <c r="K22" s="125" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">teacher01|main@G5A, teacher01|main@G5B</v>
       </c>
-      <c r="L22" s="121">
+      <c r="L22" s="126">
         <f t="shared" si="11"/>
         <v>19</v>
       </c>
     </row>
     <row r="23" ht="30" customHeight="1">
-      <c r="A23" s="10" t="str">
+      <c r="A23" s="11" t="str">
         <f t="shared" si="7"/>
         <v>subject20</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="C23" s="76" t="str">
+      <c r="B23" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="C23" s="77" t="str">
         <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D23" s="63">
+      <c r="D23" s="64">
         <v>5</v>
       </c>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63" t="str">
+      <c r="E23" s="64"/>
+      <c r="F23" s="64" t="str">
         <f t="shared" si="8"/>
         <v>020</v>
       </c>
-      <c r="G23" s="117" t="str">
+      <c r="G23" s="122" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">Group A|G5A, Group B|G5B</v>
       </c>
-      <c r="H23" s="118" t="s">
-        <v>260</v>
-      </c>
-      <c r="I23" s="63"/>
-      <c r="J23" s="119" t="str">
+      <c r="H23" s="123" t="s">
+        <v>272</v>
+      </c>
+      <c r="I23" s="64"/>
+      <c r="J23" s="124" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="K23" s="120" t="str">
+      <c r="K23" s="125" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">teacher01|main@G5A, teacher01|main@G5B</v>
       </c>
-      <c r="L23" s="121">
+      <c r="L23" s="126">
         <f t="shared" si="11"/>
         <v>20</v>
       </c>
     </row>
     <row r="24" ht="14.25">
-      <c r="L24" s="74"/>
+      <c r="L24" s="75"/>
     </row>
     <row r="25" ht="14.25"/>
   </sheetData>
@@ -3406,59 +3496,59 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
-      <c r="A1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>17</v>
+      <c r="A1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="A2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A4" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="11" t="s">
+    </row>
+    <row r="3" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>25</v>
+      <c r="B3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -3499,727 +3589,727 @@
     <col customWidth="1" min="29" max="29" width="17.140625"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="1" ht="14.25">
-      <c r="A1" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="12" t="str">
+    <row r="1" s="13" customFormat="1" ht="14.25">
+      <c r="A1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="13" t="str">
         <f>_xlfn.CONCAT($E$3,".",E5)</f>
         <v>plugins.users.users</v>
       </c>
-      <c r="F1" s="12" t="str">
+      <c r="F1" s="13" t="str">
         <f>_xlfn.CONCAT($E$3,".",F5)</f>
         <v>plugins.users.user-data</v>
       </c>
-      <c r="G1" s="12" t="str">
+      <c r="G1" s="13" t="str">
         <f>_xlfn.CONCAT($E$3,".",G5)</f>
         <v>plugins.users.centers</v>
       </c>
-      <c r="H1" s="12" t="str">
+      <c r="H1" s="13" t="str">
         <f>_xlfn.CONCAT($E$3,".",H5)</f>
         <v>plugins.users.profiles</v>
       </c>
-      <c r="I1" s="12" t="str">
+      <c r="I1" s="13" t="str">
         <f>_xlfn.CONCAT($I$3,".",I5)</f>
         <v>plugins.dataset.dataset</v>
       </c>
-      <c r="J1" s="12" t="str">
+      <c r="J1" s="13" t="str">
         <f>_xlfn.CONCAT($J$3,".",J5)</f>
         <v>plugins.calendar.calendar</v>
       </c>
-      <c r="K1" s="12" t="str">
+      <c r="K1" s="13" t="str">
         <f>_xlfn.CONCAT($K$3,".",K5)</f>
         <v>plugins.academic-portfolio.portfolio</v>
       </c>
-      <c r="L1" s="12" t="str">
+      <c r="L1" s="13" t="str">
         <f>_xlfn.CONCAT($K$3,".",L5)</f>
         <v>plugins.academic-portfolio.programs</v>
       </c>
-      <c r="M1" s="12" t="str">
+      <c r="M1" s="13" t="str">
         <f>_xlfn.CONCAT($K$3,".",M5)</f>
         <v>plugins.academic-portfolio.profiles</v>
       </c>
-      <c r="N1" s="12" t="str">
+      <c r="N1" s="13" t="str">
         <f>_xlfn.CONCAT($K$3,".",N5)</f>
         <v>plugins.academic-portfolio.subjects</v>
       </c>
-      <c r="O1" s="12" t="str">
+      <c r="O1" s="13" t="str">
         <f>_xlfn.CONCAT($K$3,".",O5)</f>
         <v>plugins.academic-portfolio.tree</v>
       </c>
-      <c r="P1" s="12" t="str">
+      <c r="P1" s="13" t="str">
         <f>_xlfn.CONCAT($P$3,".",P5)</f>
         <v>plugins.families.families</v>
       </c>
-      <c r="Q1" s="12" t="str">
+      <c r="Q1" s="13" t="str">
         <f>_xlfn.CONCAT($P$3,".",Q5)</f>
         <v>plugins.families.config</v>
       </c>
-      <c r="R1" s="12" t="str">
+      <c r="R1" s="13" t="str">
         <f>_xlfn.CONCAT($P$3,".",R5)</f>
         <v>plugins.families.families-basic-info</v>
       </c>
-      <c r="S1" s="12" t="str">
+      <c r="S1" s="13" t="str">
         <f>_xlfn.CONCAT($P$3,".",S5)</f>
         <v>plugins.families.families-custom-info</v>
       </c>
-      <c r="T1" s="12" t="str">
+      <c r="T1" s="13" t="str">
         <f>_xlfn.CONCAT($P$3,".",T5)</f>
         <v>plugins.families.families-guardians-info</v>
       </c>
-      <c r="U1" s="12" t="str">
+      <c r="U1" s="13" t="str">
         <f>_xlfn.CONCAT($P$3,".",U5)</f>
         <v>plugins.families.families-students-info</v>
       </c>
-      <c r="V1" s="12" t="str">
+      <c r="V1" s="13" t="str">
         <f>_xlfn.CONCAT($V$3,".",V5)</f>
         <v>plugins.timetable.config</v>
       </c>
-      <c r="W1" s="12" t="str">
+      <c r="W1" s="13" t="str">
         <f>_xlfn.CONCAT($V$3,".",W5)</f>
         <v>plugins.timetable.timetable</v>
       </c>
-      <c r="X1" s="12" t="str">
+      <c r="X1" s="13" t="str">
         <f>_xlfn.CONCAT($X$3,".",X5)</f>
         <v>plugins.tasks.tasks</v>
       </c>
-      <c r="Y1" s="12" t="str">
+      <c r="Y1" s="13" t="str">
         <f>_xlfn.CONCAT($X$3,".",Y5)</f>
         <v>plugins.tasks.library</v>
       </c>
-      <c r="Z1" s="12" t="str">
+      <c r="Z1" s="13" t="str">
         <f>_xlfn.CONCAT($X$3,".",Z5)</f>
         <v>plugins.tasks.ongoing</v>
       </c>
-      <c r="AA1" s="12" t="str">
+      <c r="AA1" s="13" t="str">
         <f>_xlfn.CONCAT($X$3,".",AA5)</f>
         <v>plugins.tasks.history</v>
       </c>
-      <c r="AB1" s="12" t="str">
+      <c r="AB1" s="13" t="str">
         <f>_xlfn.CONCAT($AB$3,".",AB5)</f>
         <v>plugins.curriculum.curriculum</v>
       </c>
-      <c r="AC1" s="12" t="str">
+      <c r="AC1" s="13" t="str">
         <f>_xlfn.CONCAT($AC$3,".",AC5)</f>
         <v>plugins.leebrary.library</v>
       </c>
     </row>
-    <row r="2" s="9" customFormat="1" ht="21.350000000000001" customHeight="1">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
+    <row r="2" s="10" customFormat="1" ht="21.350000000000001" customHeight="1">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
     </row>
     <row r="3" ht="14.25">
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="W3" s="16"/>
-      <c r="X3" s="24" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="25"/>
-      <c r="AA3" s="25"/>
-      <c r="AB3" s="26" t="s">
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="AC3" s="19" t="s">
+      <c r="J3" s="19" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" s="27" customFormat="1" ht="19.850000000000001" customHeight="1">
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="28" t="s">
+      <c r="K3" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="30" t="s">
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="32" t="s">
+      <c r="W3" s="17"/>
+      <c r="X3" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="34" t="s">
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="28" t="s">
+      <c r="AC3" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="W4" s="29"/>
-      <c r="X4" s="30" t="s">
+    </row>
+    <row r="4" s="28" customFormat="1" ht="19.850000000000001" customHeight="1">
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="Y4" s="37"/>
-      <c r="Z4" s="37"/>
-      <c r="AA4" s="37"/>
-      <c r="AB4" s="31" t="s">
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="AC4" s="32" t="s">
+      <c r="J4" s="32" t="s">
         <v>48</v>
       </c>
+      <c r="K4" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="W4" s="30"/>
+      <c r="X4" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC4" s="33" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="5" ht="14.25">
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="39" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="L5" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="M5" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="N5" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="O5" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="P5" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q5" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="R5" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="S5" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="T5" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="U5" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="V5" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="W5" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="X5" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y5" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z5" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA5" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB5" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC5" s="49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" s="50" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="N6" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="P6" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="40" t="s">
+      <c r="Q6" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="R6" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="S6" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="T6" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="U6" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="V6" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="W6" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="X6" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="J5" s="42" t="s">
+      <c r="Y6" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="K5" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="L5" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="M5" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="N5" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="O5" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="P5" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q5" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="R5" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="S5" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="T5" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="U5" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="V5" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="W5" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="X5" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y5" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z5" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA5" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB5" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC5" s="48" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" s="49" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="H6" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="I6" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="L6" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="M6" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="N6" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="O6" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="P6" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q6" s="58" t="s">
-        <v>79</v>
-      </c>
-      <c r="R6" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="S6" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="T6" s="58" t="s">
-        <v>82</v>
-      </c>
-      <c r="U6" s="59" t="s">
-        <v>83</v>
-      </c>
-      <c r="V6" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="W6" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="X6" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y6" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z6" s="53" t="s">
+      <c r="Z6" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA6" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB6" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="AA6" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB6" s="60" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC6" s="61" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A7" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="F7" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="G7" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="H7" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="I7" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="J7" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="K7" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="L7" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="M7" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="N7" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="O7" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="P7" s="64" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q7" s="64" t="s">
-        <v>87</v>
-      </c>
-      <c r="R7" s="64"/>
-      <c r="S7" s="64"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="64"/>
-      <c r="V7" s="64" t="s">
-        <v>87</v>
-      </c>
-      <c r="W7" s="64" t="s">
-        <v>87</v>
-      </c>
-      <c r="X7" s="64" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y7" s="64" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z7" s="64" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA7" s="64" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB7" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC7" s="63" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A8" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" s="62"/>
-      <c r="E8" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="F8" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="G8" s="63" t="s">
+      <c r="AC6" s="62" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A7" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="H8" s="63" t="s">
+      <c r="B7" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="63"/>
+      <c r="E7" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="I8" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="J8" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="K8" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="L8" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="M8" s="63"/>
-      <c r="N8" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="O8" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="P8" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q8" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="R8" s="64"/>
-      <c r="S8" s="63"/>
-      <c r="T8" s="63"/>
-      <c r="U8" s="63"/>
-      <c r="V8" s="63" t="s">
+      <c r="F7" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="W8" s="63" t="s">
+      <c r="G7" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="X8" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y8" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z8" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA8" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB8" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC8" s="63" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A9" s="10" t="s">
+      <c r="H7" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="I7" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="N7" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="O7" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="P7" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q7" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="R7" s="65"/>
+      <c r="S7" s="65"/>
+      <c r="T7" s="65"/>
+      <c r="U7" s="65"/>
+      <c r="V7" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="W7" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="X7" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y7" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z7" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA7" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB7" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC7" s="64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A8" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B8" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C8" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="62"/>
-      <c r="E9" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="F9" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="G9" s="63" t="s">
+      <c r="D8" s="63"/>
+      <c r="E8" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="H9" s="63" t="s">
+      <c r="F8" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="I9" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="J9" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="K9" s="63" t="s">
+      <c r="G8" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="H8" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="I8" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="L9" s="63" t="s">
+      <c r="K8" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="M9" s="63"/>
-      <c r="N9" s="63" t="s">
+      <c r="L8" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="O9" s="63"/>
-      <c r="P9" s="63" t="s">
+      <c r="M8" s="64"/>
+      <c r="N8" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="Q9" s="63" t="s">
+      <c r="O8" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="R9" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="S9" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="T9" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="U9" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="V9" s="63" t="s">
+      <c r="P8" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="W9" s="63" t="s">
+      <c r="Q8" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="X9" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y9" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z9" s="63" t="s">
+      <c r="R8" s="65"/>
+      <c r="S8" s="64"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="64"/>
+      <c r="V8" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="W8" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="X8" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="AA9" s="63" t="s">
+      <c r="Y8" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="AB9" s="63" t="s">
+      <c r="Z8" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="AC9" s="63" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A10" s="10" t="s">
+      <c r="AA8" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB8" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC8" s="64" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A9" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="63"/>
+      <c r="E9" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="H9" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="I9" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="J9" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" s="64"/>
+      <c r="P9" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q9" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="R9" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="62" t="str">
+      <c r="S9" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="T9" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="U9" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="V9" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="W9" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="X9" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y9" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z9" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA9" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB9" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC9" s="64" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A10" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="63" t="str">
         <f>A9</f>
         <v>student</v>
       </c>
-      <c r="E10" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="F10" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="G10" s="63" t="s">
+      <c r="E10" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="H10" s="63" t="s">
+      <c r="F10" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="I10" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="J10" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="K10" s="63" t="s">
+      <c r="G10" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="I10" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="L10" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="M10" s="63"/>
-      <c r="N10" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="O10" s="63"/>
-      <c r="P10" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q10" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="R10" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="S10" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="T10" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="U10" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="V10" s="63"/>
-      <c r="W10" s="63"/>
-      <c r="X10" s="63"/>
-      <c r="Y10" s="63"/>
-      <c r="Z10" s="63"/>
-      <c r="AA10" s="63"/>
-      <c r="AB10" s="63"/>
-      <c r="AC10" s="63" t="s">
-        <v>95</v>
+      <c r="K10" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="L10" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="O10" s="64"/>
+      <c r="P10" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q10" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="R10" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="S10" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="T10" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="U10" s="64" t="s">
+        <v>101</v>
+      </c>
+      <c r="V10" s="64"/>
+      <c r="W10" s="64"/>
+      <c r="X10" s="64"/>
+      <c r="Y10" s="64"/>
+      <c r="Z10" s="64"/>
+      <c r="AA10" s="64"/>
+      <c r="AB10" s="64"/>
+      <c r="AC10" s="64" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -4268,287 +4358,287 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
-      <c r="A1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="A1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" ht="19.5" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="H2" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="67" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A3" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="68">
+        <v>36526</v>
+      </c>
+      <c r="F3" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="70" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A4" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="68">
+        <v>34781</v>
+      </c>
+      <c r="F4" s="69" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="H4" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="70" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A5" s="71" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="72" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" ht="19.5" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="H2" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="66" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A3" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="D5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="67">
-        <v>36526</v>
-      </c>
-      <c r="F3" s="68" t="s">
-        <v>115</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="H3" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="69" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A4" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="E5" s="68">
+        <v>39205</v>
+      </c>
+      <c r="F5" s="73" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="H5" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="74" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A6" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="72" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="72" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="68">
+        <v>39156</v>
+      </c>
+      <c r="F6" s="73" t="s">
+        <v>135</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="H6" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="74" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A7" s="71" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="72" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="72" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="68">
+        <v>42171</v>
+      </c>
+      <c r="F7" s="73" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="H7" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="74" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A8" s="71" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" s="72" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="72" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="67">
-        <v>34781</v>
-      </c>
-      <c r="F4" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="H4" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="69" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A5" s="70" t="s">
+      <c r="E8" s="68">
+        <v>42237</v>
+      </c>
+      <c r="F8" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="B5" s="71" t="s">
-        <v>123</v>
-      </c>
-      <c r="C5" s="71" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="67">
-        <v>39205</v>
-      </c>
-      <c r="F5" s="72" t="s">
-        <v>124</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="H5" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="73" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A6" s="70" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6" s="71" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" s="71" t="s">
-        <v>128</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="H8" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="74" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A9" s="71" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" s="72" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="72" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="67">
-        <v>39156</v>
-      </c>
-      <c r="F6" s="72" t="s">
-        <v>129</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="H6" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="73" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A7" s="70" t="s">
-        <v>130</v>
-      </c>
-      <c r="B7" s="71" t="s">
-        <v>131</v>
-      </c>
-      <c r="C7" s="71" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="67">
-        <v>42171</v>
-      </c>
-      <c r="F7" s="72" t="s">
-        <v>132</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="H7" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="73" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A8" s="70" t="s">
-        <v>134</v>
-      </c>
-      <c r="B8" s="71" t="s">
-        <v>135</v>
-      </c>
-      <c r="C8" s="71" t="s">
-        <v>128</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="67">
-        <v>42237</v>
-      </c>
-      <c r="F8" s="72" t="s">
-        <v>136</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="H8" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="73" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="9" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A9" s="70" t="s">
-        <v>137</v>
-      </c>
-      <c r="B9" s="71" t="s">
-        <v>138</v>
-      </c>
-      <c r="C9" s="71" t="s">
-        <v>139</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="67">
+      <c r="E9" s="68">
         <v>27791</v>
       </c>
-      <c r="F9" s="72" t="s">
-        <v>140</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="H9" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="69" t="s">
-        <v>141</v>
+      <c r="F9" s="73" t="s">
+        <v>146</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="H9" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="70" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" s="74"/>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" s="74"/>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
+      <c r="A11" s="75"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4565,43 +4655,43 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7" disablePrompts="0">
-        <x14:dataValidation xr:uid="{000A00A4-00CB-473C-829E-002F007F00E5}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{0028004D-00ED-43F5-9E2C-0004000300F3}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>D3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{004500ED-0079-498A-9BBF-009300EF001A}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{005A00EE-006C-47E7-9E79-0037001200FE}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>D4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00E200D2-0071-401F-95C1-002C00A20077}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00C400A1-004C-4540-AED4-0048000800E6}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>D5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{006A0050-00C8-4384-8726-00DB00AF00FA}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00A00006-0003-48E4-9C8F-00DF006B0063}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>D6</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00B700E2-0038-4CD3-968E-0024006B000A}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00FA00C2-0099-4930-A02C-00ED009E00B8}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>D7</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0047006C-0004-44B1-A32B-005400980021}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{004C0076-009D-46B5-89D1-0044008900E4}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>D8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{000D0037-0023-4F6A-86D0-00B8008E007C}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00EE0062-0025-48EE-80A8-00BD002000EF}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
@@ -4632,48 +4722,48 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
-      <c r="A1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>142</v>
+      <c r="A1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="2" ht="22.100000000000001" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="75" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A3" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" s="76" t="str">
+      <c r="A2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="76" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A3" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="77" t="str">
         <f>profiles!$A$10</f>
         <v>guardian</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A4" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="76" t="str">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A4" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="77" t="str">
         <f>profiles!$A$9</f>
         <v>student</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" ht="14.25"/>
     <row r="6" ht="14.25"/>
@@ -4702,33 +4792,62 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="67.57421875"/>
+    <col customWidth="1" min="2" max="2" width="14.8515625"/>
+    <col customWidth="1" min="3" max="3" width="61.140625"/>
+    <col customWidth="1" min="4" max="4" width="21.57421875"/>
+    <col customWidth="1" min="5" max="5" width="33.57421875"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>144</v>
+      <c r="A1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="2" ht="24.350000000000001" customHeight="1">
-      <c r="A2" s="77" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="78" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A3" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="B3" s="76" t="s">
-        <v>147</v>
-      </c>
-      <c r="C3" s="9"/>
+      <c r="A2" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="79" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="76" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="67" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A3" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="81" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" s="82" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="83" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="4"/>
   </sheetData>
@@ -4736,6 +4855,18 @@
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1" disablePrompts="0">
+        <x14:dataValidation xr:uid="{00120081-00BD-4066-B623-002400B60089}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>GUARDIANS_RELATIONSHIPS</xm:f>
+          </x14:formula1>
+          <xm:sqref>D3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4757,35 +4888,35 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>142</v>
+      <c r="A1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="2" ht="22.100000000000001" customHeight="1">
-      <c r="A2" s="77" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="78" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A3" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" s="76" t="str">
+      <c r="A2" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="80" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A3" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="77" t="str">
         <f>profiles!$A$8</f>
         <v>teacher</v>
       </c>
     </row>
-    <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A4" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="76" t="str">
+    <row r="4" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A4" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="77" t="str">
         <f>profiles!$A$9</f>
         <v>student</v>
       </c>
@@ -4835,326 +4966,326 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="P1" s="5" t="s">
+      <c r="A1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="D1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="5"/>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="5"/>
-      <c r="AI1" s="5"/>
-      <c r="AJ1" s="5"/>
-      <c r="AK1" s="5"/>
-      <c r="AL1" s="5"/>
-      <c r="AM1" s="5"/>
-    </row>
-    <row r="2" s="9" customFormat="1" ht="23.600000000000001" customHeight="1">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="E2" s="79" t="s">
+      <c r="L1" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="F2" s="79"/>
-      <c r="G2" s="80" t="s">
+      <c r="M1" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="83" t="s">
+      <c r="N1" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="84" t="s">
+      <c r="O1" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="R2" s="85"/>
-      <c r="S2" s="85"/>
-      <c r="T2" s="86"/>
-      <c r="U2" s="87" t="s">
+      <c r="P1" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="V2" s="88"/>
-      <c r="W2" s="88"/>
+      <c r="Q1" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="6"/>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="6"/>
+    </row>
+    <row r="2" s="10" customFormat="1" ht="23.600000000000001" customHeight="1">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="E2" s="84" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2" s="84"/>
+      <c r="G2" s="85" t="s">
+        <v>181</v>
+      </c>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="88" t="s">
+        <v>182</v>
+      </c>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="89" t="s">
+        <v>183</v>
+      </c>
+      <c r="R2" s="90"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="92" t="s">
+        <v>184</v>
+      </c>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
     </row>
     <row r="3" ht="34.100000000000001" customHeight="1">
-      <c r="A3" s="89" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="90" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="90" t="s">
-        <v>173</v>
-      </c>
-      <c r="D3" s="91" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="92" t="s">
-        <v>174</v>
-      </c>
-      <c r="F3" s="93" t="s">
-        <v>175</v>
-      </c>
-      <c r="G3" s="94" t="s">
-        <v>176</v>
-      </c>
-      <c r="H3" s="95" t="s">
-        <v>177</v>
-      </c>
-      <c r="I3" s="96" t="s">
-        <v>178</v>
-      </c>
-      <c r="J3" s="96" t="s">
-        <v>179</v>
-      </c>
-      <c r="K3" s="96" t="s">
-        <v>180</v>
-      </c>
-      <c r="L3" s="96" t="s">
-        <v>181</v>
-      </c>
-      <c r="M3" s="96" t="s">
-        <v>182</v>
-      </c>
-      <c r="N3" s="97" t="s">
-        <v>183</v>
-      </c>
-      <c r="O3" s="98" t="s">
-        <v>181</v>
-      </c>
-      <c r="P3" s="99" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q3" s="100" t="s">
-        <v>184</v>
-      </c>
-      <c r="R3" s="101" t="s">
+      <c r="A3" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="95" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="95" t="s">
         <v>185</v>
       </c>
-      <c r="S3" s="101" t="s">
-        <v>181</v>
-      </c>
-      <c r="T3" s="101" t="s">
-        <v>182</v>
-      </c>
-      <c r="U3" s="102" t="s">
-        <v>181</v>
-      </c>
-      <c r="V3" s="103" t="s">
+      <c r="D3" s="96" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="97" t="s">
         <v>186</v>
       </c>
-      <c r="W3" s="104" t="s">
+      <c r="F3" s="98" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A4" s="10" t="s">
+      <c r="G3" s="99" t="s">
         <v>188</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="H3" s="100" t="s">
         <v>189</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="I3" s="101" t="s">
         <v>190</v>
       </c>
-      <c r="D4" s="76" t="str">
+      <c r="J3" s="101" t="s">
+        <v>191</v>
+      </c>
+      <c r="K3" s="101" t="s">
+        <v>192</v>
+      </c>
+      <c r="L3" s="101" t="s">
+        <v>193</v>
+      </c>
+      <c r="M3" s="101" t="s">
+        <v>194</v>
+      </c>
+      <c r="N3" s="102" t="s">
+        <v>195</v>
+      </c>
+      <c r="O3" s="103" t="s">
+        <v>193</v>
+      </c>
+      <c r="P3" s="104" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q3" s="105" t="s">
+        <v>196</v>
+      </c>
+      <c r="R3" s="106" t="s">
+        <v>197</v>
+      </c>
+      <c r="S3" s="106" t="s">
+        <v>193</v>
+      </c>
+      <c r="T3" s="106" t="s">
+        <v>194</v>
+      </c>
+      <c r="U3" s="107" t="s">
+        <v>193</v>
+      </c>
+      <c r="V3" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="W3" s="109" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A4" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D4" s="77" t="str">
         <f>centers!$A$3</f>
         <v>centerA</v>
       </c>
-      <c r="E4" s="63" t="s">
+      <c r="E4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="63">
+      <c r="F4" s="64">
         <v>0</v>
       </c>
-      <c r="G4" s="63">
+      <c r="G4" s="64">
         <v>5</v>
       </c>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63" t="s">
+      <c r="H4" s="64"/>
+      <c r="I4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="105"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63" t="s">
+      <c r="J4" s="110"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63" t="s">
+      <c r="O4" s="64"/>
+      <c r="P4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="63" t="s">
+      <c r="Q4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="63" t="s">
+      <c r="R4" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="S4" s="63">
+      <c r="S4" s="64">
         <v>3</v>
       </c>
-      <c r="T4" s="63" t="s">
+      <c r="T4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="63">
+      <c r="U4" s="64">
         <v>3</v>
       </c>
-      <c r="V4" s="63" t="s">
+      <c r="V4" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="W4" s="63" t="s">
+      <c r="W4" s="64" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" s="9" customFormat="1" ht="28.5">
-      <c r="A5" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="D5" s="76" t="str">
+    <row r="5" s="10" customFormat="1" ht="28.5">
+      <c r="A5" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="D5" s="77" t="str">
         <f>centers!$A$4</f>
         <v>centerB</v>
       </c>
-      <c r="E5" s="63" t="s">
+      <c r="E5" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="63">
+      <c r="F5" s="64">
         <v>240</v>
       </c>
-      <c r="G5" s="63">
+      <c r="G5" s="64">
         <v>4</v>
       </c>
-      <c r="H5" s="63">
+      <c r="H5" s="64">
         <v>60</v>
       </c>
-      <c r="I5" s="63" t="s">
+      <c r="I5" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="105" t="s">
-        <v>194</v>
-      </c>
-      <c r="K5" s="63" t="s">
+      <c r="J5" s="110" t="s">
+        <v>206</v>
+      </c>
+      <c r="K5" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="63">
+      <c r="L5" s="64">
         <v>4</v>
       </c>
-      <c r="M5" s="63" t="s">
+      <c r="M5" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="63" t="s">
+      <c r="N5" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="63">
+      <c r="O5" s="64">
         <v>4</v>
       </c>
-      <c r="P5" s="63" t="s">
+      <c r="P5" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="63" t="s">
+      <c r="Q5" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="R5" s="63" t="s">
+      <c r="R5" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="S5" s="63">
+      <c r="S5" s="64">
         <v>3</v>
       </c>
-      <c r="T5" s="63" t="s">
+      <c r="T5" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="U5" s="63">
+      <c r="U5" s="64">
         <v>3</v>
       </c>
-      <c r="V5" s="63" t="s">
+      <c r="V5" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="W5" s="63" t="s">
+      <c r="W5" s="64" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5173,79 +5304,79 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="13" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00760014-00A6-4807-BAFB-0000005C002C}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00970071-00FD-4B34-BE28-009700D80050}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>W4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00E200E6-00BB-49AE-9602-00BA00B100FE}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{004F00EA-001D-4C16-831E-007F0072001B}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>W5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00F800B7-0065-4C20-B7BB-008E0004000A}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00FD0051-00B3-4EB2-BD32-0091006A0063}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>V4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00860067-00EC-4284-A1B5-00B40087001E}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00D500BE-005F-4F7C-AD47-004E0034004F}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>V5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00F600B5-001C-4AFB-9763-00A7004700F3}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00110048-007B-4467-828B-005400B10084}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>T4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0075004C-0014-4C24-B6FC-009100350070}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{0070005F-00A6-4F00-8C3A-0007005F005E}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>T5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00DC00CC-00A2-4E06-A24A-001B00570067}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{005E0059-00CF-463C-AD24-002F00DD00D3}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>R4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0094003A-0098-40CE-AE33-003A005700E7}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{004F0095-0061-4959-A401-005100CD00E7}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>E4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{003500F2-0057-457D-A210-00A600830088}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00C500CB-00B7-48DB-8354-001400630037}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>E5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{005B0057-0065-4E71-9906-003700A90047}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{0079004A-00EF-4768-BEA8-0061003800B2}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>I4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00800010-0080-46BD-82EB-0075008900EF}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00A600D6-0074-45D0-88B2-0086002600BF}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>I5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{009200A7-0072-49E8-840F-000B00A60056}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00130013-0059-405B-B162-00D0003400AD}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>SUBSTAGES_FRECUENCY</xm:f>
           </x14:formula1>
           <xm:sqref>K4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00D30091-006B-4E77-B7E6-003100C100A2}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{002F00F9-00A8-4CC0-941C-00B90036006E}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>SUBSTAGES_FRECUENCY</xm:f>
           </x14:formula1>
@@ -5277,90 +5408,90 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>197</v>
+      <c r="A1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="2" ht="28.5">
-      <c r="A2" s="89" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="90" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="91" t="s">
-        <v>198</v>
-      </c>
-      <c r="D2" s="106" t="s">
-        <v>175</v>
-      </c>
-      <c r="E2" s="106" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A3" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="C3" s="76" t="str">
+      <c r="A2" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="95" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="96" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2" s="111" t="s">
+        <v>187</v>
+      </c>
+      <c r="E2" s="111" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A3" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="77" t="str">
         <f>ap_programs!$A$4</f>
         <v>programA</v>
       </c>
-      <c r="D3" s="63">
+      <c r="D3" s="64">
         <v>0</v>
       </c>
-      <c r="E3" s="63" t="s">
+      <c r="E3" s="64" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A4" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="C4" s="76" t="str">
+    <row r="4" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A4" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C4" s="77" t="str">
         <f>ap_programs!$A$5</f>
         <v>programB</v>
       </c>
-      <c r="D4" s="63">
+      <c r="D4" s="64">
         <v>0</v>
       </c>
-      <c r="E4" s="63" t="s">
+      <c r="E4" s="64" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" ht="19.5" customHeight="1">
-      <c r="A5" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="C5" s="76" t="str">
+      <c r="A5" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="77" t="str">
         <f>ap_programs!$A$4</f>
         <v>programA</v>
       </c>
-      <c r="D5" s="63">
+      <c r="D5" s="64">
         <v>0</v>
       </c>
-      <c r="E5" s="63" t="s">
+      <c r="E5" s="64" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5372,19 +5503,19 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3" disablePrompts="0">
-        <x14:dataValidation xr:uid="{006300CD-00AF-41EC-9872-00D2004B0006}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00CA001D-00AA-4E7E-BCD8-00160039005A}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>E3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{006800B1-00FB-4464-8CFB-0063006F0027}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00D5005A-0099-4A64-9D76-0009004700F8}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>E4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{006A009E-0059-4004-AC54-00D500320006}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{0041004B-0026-48A6-B90B-009E00DC0092}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>

--- a/packages/leemons-plugin-mvp-template/src/bulk/data.xlsx
+++ b/packages/leemons-plugin-mvp-template/src/bulk/data.xlsx
@@ -4655,43 +4655,43 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7" disablePrompts="0">
-        <x14:dataValidation xr:uid="{0028004D-00ED-43F5-9E2C-0004000300F3}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00960023-00C6-4EE4-9B31-00FA002C00BF}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>D3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{005A00EE-006C-47E7-9E79-0037001200FE}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{002B00DD-0024-489F-A7CE-002A002200DB}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>D4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00C400A1-004C-4540-AED4-0048000800E6}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00C10083-00FF-4DB5-9AA5-00C80067003B}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>D5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00A00006-0003-48E4-9C8F-00DF006B0063}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00AE00D2-00E6-414A-A20F-000F0080002A}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>D6</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00FA00C2-0099-4930-A02C-00ED009E00B8}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{008C005C-00A2-4D9F-A20A-00E0003700FB}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>D7</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{004C0076-009D-46B5-89D1-0044008900E4}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{006A0077-005D-4300-8D36-00A0002C00DE}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>D8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00EE0062-0025-48EE-80A8-00BD002000EF}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{0035009B-0066-4253-AE28-00390067008F}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
@@ -4858,7 +4858,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00120081-00BD-4066-B623-002400B60089}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00720056-00EE-4319-A6C4-008300CB00E7}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GUARDIANS_RELATIONSHIPS</xm:f>
           </x14:formula1>
@@ -5304,79 +5304,79 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="13" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00970071-00FD-4B34-BE28-009700D80050}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00E900D4-00A8-40B4-B779-001D00C90029}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>W4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{004F00EA-001D-4C16-831E-007F0072001B}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00B800C1-00A2-4288-AE97-0085004D005C}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>W5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00FD0051-00B3-4EB2-BD32-0091006A0063}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00270020-00CB-4143-B45F-00A0008A0095}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>V4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00D500BE-005F-4F7C-AD47-004E0034004F}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00EB0027-0096-4957-81D5-0000009E003D}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>V5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00110048-007B-4467-828B-005400B10084}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00290025-0075-43E6-AF73-001400DB00EA}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>T4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0070005F-00A6-4F00-8C3A-0007005F005E}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{000F0045-006A-416A-A306-00390010006A}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>T5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{005E0059-00CF-463C-AD24-002F00DD00D3}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{008100D4-0058-4CCC-A872-005000AC007A}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>R4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{004F0095-0061-4959-A401-005100CD00E7}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00880097-00D0-44F3-AB9F-000E00FB008E}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>E4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00C500CB-00B7-48DB-8354-001400630037}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00DF0061-0035-46AB-B943-0057003900E1}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>E5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0079004A-00EF-4768-BEA8-0061003800B2}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00B80055-0011-477B-B700-00C1007F0075}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>I4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00A600D6-0074-45D0-88B2-0086002600BF}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{007500E3-00FA-4BE3-9FA6-0006003A00A8}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>I5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00130013-0059-405B-B162-00D0003400AD}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00FE0099-0031-4581-B0A6-0054000100E4}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>SUBSTAGES_FRECUENCY</xm:f>
           </x14:formula1>
           <xm:sqref>K4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{002F00F9-00A8-4CC0-941C-00B90036006E}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00F6002E-00E4-40D6-89C4-00ED00F20019}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>SUBSTAGES_FRECUENCY</xm:f>
           </x14:formula1>
@@ -5503,19 +5503,19 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00CA001D-00AA-4E7E-BCD8-00160039005A}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{007A00DA-00BC-4841-9B45-008900D5007F}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>E3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00D5005A-0099-4A64-9D76-0009004700F8}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00D8007B-0097-4FB4-B12A-00D900A10076}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>E4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0041004B-0026-48A6-B90B-009E00DC0092}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00EC004C-00D4-487B-BA10-007900AB00F7}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>

--- a/packages/leemons-plugin-mvp-template/src/bulk/data.xlsx
+++ b/packages/leemons-plugin-mvp-template/src/bulk/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="5"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" state="visible" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="285">
   <si>
     <t xml:space="preserve">Substages frecuency</t>
   </si>
@@ -371,6 +371,9 @@
     <t>password</t>
   </si>
   <si>
+    <t>tags</t>
+  </si>
+  <si>
     <t>Surnames</t>
   </si>
   <si>
@@ -386,6 +389,9 @@
     <t>Password</t>
   </si>
   <si>
+    <t>Tags</t>
+  </si>
+  <si>
     <t>admin01</t>
   </si>
   <si>
@@ -401,6 +407,9 @@
     <t>testing</t>
   </si>
   <si>
+    <t>Admin,Test</t>
+  </si>
+  <si>
     <t xml:space="preserve">admin@centerA, admin@centerB</t>
   </si>
   <si>
@@ -413,6 +422,9 @@
     <t>teacher@leemons.io</t>
   </si>
   <si>
+    <t>Teacher,Test</t>
+  </si>
+  <si>
     <t xml:space="preserve">teacher@centerA, teacher@centerB</t>
   </si>
   <si>
@@ -425,6 +437,9 @@
     <t>student@leemons.io</t>
   </si>
   <si>
+    <t>Student,Test</t>
+  </si>
+  <si>
     <t>student@centerB</t>
   </si>
   <si>
@@ -471,6 +486,9 @@
   </si>
   <si>
     <t>guardian@leemons.io</t>
+  </si>
+  <si>
+    <t>Guardian,Test</t>
   </si>
   <si>
     <t xml:space="preserve">guardian@centerA, guardian@centerB</t>
@@ -1371,7 +1389,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="125">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1384,9 +1402,6 @@
     </xf>
     <xf fontId="1" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1563,6 +1578,9 @@
     <xf fontId="4" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf fontId="4" fillId="4" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf fontId="1" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1588,18 +1606,17 @@
       <alignment vertical="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="6" numFmtId="0" xfId="0" applyBorder="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="4" fillId="16" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf fontId="0" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="4" fillId="16" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf fontId="1" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1610,13 +1627,7 @@
     <xf fontId="4" fillId="16" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf fontId="0" fillId="17" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf fontId="1" fillId="7" borderId="21" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2346,27 +2357,27 @@
       </c>
     </row>
     <row r="19" ht="14.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" ht="14.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="21" ht="14.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="22" ht="14.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="23" ht="14.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2401,96 +2412,96 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>208</v>
+      <c r="C1" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="2" ht="28.5">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="113" t="s">
-        <v>185</v>
-      </c>
-      <c r="D2" s="113" t="s">
-        <v>219</v>
-      </c>
-      <c r="E2" s="113" t="s">
-        <v>220</v>
-      </c>
-      <c r="F2" s="114" t="s">
-        <v>210</v>
-      </c>
-      <c r="G2" s="115" t="s">
-        <v>187</v>
+      <c r="C2" s="111" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" s="111" t="s">
+        <v>225</v>
+      </c>
+      <c r="E2" s="111" t="s">
+        <v>226</v>
+      </c>
+      <c r="F2" s="112" t="s">
+        <v>216</v>
+      </c>
+      <c r="G2" s="113" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1">
-      <c r="A3" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="E3" s="116" t="s">
-        <v>225</v>
+      <c r="A3" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="E3" s="114" t="s">
+        <v>231</v>
       </c>
       <c r="F3" s="77" t="str">
         <f>ap_programs!$A$5</f>
         <v>programB</v>
       </c>
-      <c r="G3" s="64">
+      <c r="G3" s="63">
         <v>0</v>
       </c>
     </row>
     <row r="4" ht="19.5" customHeight="1">
-      <c r="A4" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>229</v>
+      <c r="A4" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>235</v>
       </c>
       <c r="E4" s="69" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="F4" s="77" t="str">
         <f>ap_programs!$A$5</f>
         <v>programB</v>
       </c>
-      <c r="G4" s="64">
+      <c r="G4" s="63">
         <v>0</v>
       </c>
     </row>
@@ -2534,920 +2545,920 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="K1" s="117" t="s">
-        <v>236</v>
-      </c>
-      <c r="L1" s="75"/>
+      <c r="C1" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="K1" s="115" t="s">
+        <v>242</v>
+      </c>
+      <c r="L1" s="74"/>
     </row>
     <row r="2" ht="28.850000000000001" customHeight="1">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
       <c r="G2" s="1" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="75"/>
+      <c r="L2" s="74"/>
     </row>
     <row r="3" ht="31.850000000000001" customHeight="1">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="96" t="s">
-        <v>210</v>
-      </c>
-      <c r="D3" s="95" t="s">
-        <v>238</v>
-      </c>
-      <c r="E3" s="95" t="s">
-        <v>239</v>
-      </c>
-      <c r="F3" s="95" t="s">
-        <v>240</v>
-      </c>
-      <c r="G3" s="118" t="s">
-        <v>241</v>
-      </c>
-      <c r="H3" s="119" t="s">
-        <v>219</v>
-      </c>
-      <c r="I3" s="119" t="s">
-        <v>242</v>
-      </c>
-      <c r="J3" s="120" t="s">
-        <v>243</v>
-      </c>
-      <c r="K3" s="114" t="s">
+      <c r="C3" s="94" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" s="93" t="s">
         <v>244</v>
       </c>
-      <c r="L3" s="121"/>
-    </row>
-    <row r="4" s="10" customFormat="1" ht="30" customHeight="1">
-      <c r="A4" s="11" t="str">
+      <c r="E3" s="93" t="s">
+        <v>245</v>
+      </c>
+      <c r="F3" s="93" t="s">
+        <v>246</v>
+      </c>
+      <c r="G3" s="116" t="s">
+        <v>247</v>
+      </c>
+      <c r="H3" s="117" t="s">
+        <v>225</v>
+      </c>
+      <c r="I3" s="117" t="s">
+        <v>248</v>
+      </c>
+      <c r="J3" s="118" t="s">
+        <v>249</v>
+      </c>
+      <c r="K3" s="112" t="s">
+        <v>250</v>
+      </c>
+      <c r="L3" s="119"/>
+    </row>
+    <row r="4" s="9" customFormat="1" ht="30" customHeight="1">
+      <c r="A4" s="10" t="str">
         <f t="shared" ref="A4:A9" si="0">_xlfn.CONCAT("subject",IF(L4&lt;10,"0",""),L4)</f>
         <v>subject01</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>245</v>
+      <c r="B4" s="11" t="s">
+        <v>251</v>
       </c>
       <c r="C4" s="77" t="str">
         <f>ap_programs!A4</f>
         <v>programA</v>
       </c>
-      <c r="D4" s="64">
+      <c r="D4" s="63">
         <v>1</v>
       </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64" t="str">
+      <c r="E4" s="63"/>
+      <c r="F4" s="63" t="str">
         <f t="shared" ref="F4:F9" si="1">_xlfn.CONCAT("0",IF(L4&lt;10,"0",""),L4)</f>
         <v>001</v>
       </c>
-      <c r="G4" s="122" t="s">
-        <v>246</v>
-      </c>
-      <c r="H4" s="123" t="s">
-        <v>247</v>
-      </c>
-      <c r="I4" s="64"/>
-      <c r="J4" s="124" t="str">
+      <c r="G4" s="120" t="s">
+        <v>252</v>
+      </c>
+      <c r="H4" s="121" t="s">
+        <v>253</v>
+      </c>
+      <c r="I4" s="63"/>
+      <c r="J4" s="122" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K4" s="125" t="s">
-        <v>248</v>
-      </c>
-      <c r="L4" s="126">
+      <c r="K4" s="123" t="s">
+        <v>254</v>
+      </c>
+      <c r="L4" s="124">
         <v>1</v>
       </c>
-      <c r="M4" s="10"/>
-    </row>
-    <row r="5" s="10" customFormat="1" ht="30" customHeight="1">
-      <c r="A5" s="11" t="str">
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" s="9" customFormat="1" ht="30" customHeight="1">
+      <c r="A5" s="10" t="str">
         <f t="shared" si="0"/>
         <v>subject02</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>249</v>
+      <c r="B5" s="11" t="s">
+        <v>255</v>
       </c>
       <c r="C5" s="77" t="str">
         <f t="shared" ref="C5:C10" si="2">C4</f>
         <v>programA</v>
       </c>
-      <c r="D5" s="64">
+      <c r="D5" s="63">
         <v>1</v>
       </c>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64" t="str">
+      <c r="E5" s="63"/>
+      <c r="F5" s="63" t="str">
         <f t="shared" si="1"/>
         <v>002</v>
       </c>
-      <c r="G5" s="122" t="str">
+      <c r="G5" s="120" t="str">
         <f t="shared" ref="G5:G10" si="3">G4</f>
         <v xml:space="preserve">Group A|G1A, Group B|G1B</v>
       </c>
-      <c r="H5" s="123" t="str">
+      <c r="H5" s="121" t="str">
         <f t="shared" ref="H5:H10" si="4">H4</f>
         <v>#FFEB9C</v>
       </c>
-      <c r="I5" s="64"/>
-      <c r="J5" s="124" t="str">
+      <c r="I5" s="63"/>
+      <c r="J5" s="122" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K5" s="125" t="str">
+      <c r="K5" s="123" t="str">
         <f t="shared" ref="K5:K10" si="5">K4</f>
         <v xml:space="preserve">teacher01|main@G1A, teacher01|main@G1B</v>
       </c>
-      <c r="L5" s="126">
+      <c r="L5" s="124">
         <f t="shared" ref="L5:L10" si="6">L4+1</f>
         <v>2</v>
       </c>
-      <c r="M5" s="10"/>
-    </row>
-    <row r="6" s="10" customFormat="1" ht="30" customHeight="1">
-      <c r="A6" s="11" t="str">
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" s="9" customFormat="1" ht="30" customHeight="1">
+      <c r="A6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>subject03</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>250</v>
+      <c r="B6" s="11" t="s">
+        <v>256</v>
       </c>
       <c r="C6" s="77" t="str">
         <f t="shared" si="2"/>
         <v>programA</v>
       </c>
-      <c r="D6" s="64">
+      <c r="D6" s="63">
         <v>1</v>
       </c>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64" t="str">
+      <c r="E6" s="63"/>
+      <c r="F6" s="63" t="str">
         <f t="shared" si="1"/>
         <v>003</v>
       </c>
-      <c r="G6" s="122" t="str">
+      <c r="G6" s="120" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">Group A|G1A, Group B|G1B</v>
       </c>
-      <c r="H6" s="123" t="str">
+      <c r="H6" s="121" t="str">
         <f t="shared" si="4"/>
         <v>#FFEB9C</v>
       </c>
-      <c r="I6" s="64"/>
-      <c r="J6" s="124" t="str">
+      <c r="I6" s="63"/>
+      <c r="J6" s="122" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K6" s="125" t="str">
+      <c r="K6" s="123" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">teacher01|main@G1A, teacher01|main@G1B</v>
       </c>
-      <c r="L6" s="126">
+      <c r="L6" s="124">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="M6" s="10"/>
-    </row>
-    <row r="7" s="10" customFormat="1" ht="30" customHeight="1">
-      <c r="A7" s="11" t="str">
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" s="9" customFormat="1" ht="30" customHeight="1">
+      <c r="A7" s="10" t="str">
         <f t="shared" si="0"/>
         <v>subject04</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>251</v>
+      <c r="B7" s="11" t="s">
+        <v>257</v>
       </c>
       <c r="C7" s="77" t="str">
         <f t="shared" si="2"/>
         <v>programA</v>
       </c>
-      <c r="D7" s="64">
+      <c r="D7" s="63">
         <v>1</v>
       </c>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64" t="str">
+      <c r="E7" s="63"/>
+      <c r="F7" s="63" t="str">
         <f t="shared" si="1"/>
         <v>004</v>
       </c>
-      <c r="G7" s="122" t="str">
+      <c r="G7" s="120" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">Group A|G1A, Group B|G1B</v>
       </c>
-      <c r="H7" s="123" t="str">
+      <c r="H7" s="121" t="str">
         <f t="shared" si="4"/>
         <v>#FFEB9C</v>
       </c>
-      <c r="I7" s="64"/>
-      <c r="J7" s="124" t="str">
+      <c r="I7" s="63"/>
+      <c r="J7" s="122" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="K7" s="125" t="str">
+      <c r="K7" s="123" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">teacher01|main@G1A, teacher01|main@G1B</v>
       </c>
-      <c r="L7" s="126">
+      <c r="L7" s="124">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="M7" s="10"/>
+      <c r="M7" s="9"/>
     </row>
     <row r="8" ht="30" customHeight="1">
-      <c r="A8" s="11" t="str">
+      <c r="A8" s="10" t="str">
         <f t="shared" si="0"/>
         <v>subject05</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>252</v>
+      <c r="B8" s="11" t="s">
+        <v>258</v>
       </c>
       <c r="C8" s="77" t="str">
         <f t="shared" si="2"/>
         <v>programA</v>
       </c>
-      <c r="D8" s="64">
+      <c r="D8" s="63">
         <v>2</v>
       </c>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64" t="str">
+      <c r="E8" s="63"/>
+      <c r="F8" s="63" t="str">
         <f t="shared" si="1"/>
         <v>005</v>
       </c>
-      <c r="G8" s="122" t="s">
-        <v>253</v>
-      </c>
-      <c r="H8" s="123" t="str">
+      <c r="G8" s="120" t="s">
+        <v>259</v>
+      </c>
+      <c r="H8" s="121" t="str">
         <f t="shared" si="4"/>
         <v>#FFEB9C</v>
       </c>
-      <c r="I8" s="64"/>
-      <c r="J8" s="124" t="str">
+      <c r="I8" s="63"/>
+      <c r="J8" s="122" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K8" s="125" t="s">
-        <v>254</v>
-      </c>
-      <c r="L8" s="126">
+      <c r="K8" s="123" t="s">
+        <v>260</v>
+      </c>
+      <c r="L8" s="124">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
     <row r="9" ht="30" customHeight="1">
-      <c r="A9" s="11" t="str">
+      <c r="A9" s="10" t="str">
         <f t="shared" si="0"/>
         <v>subject06</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>255</v>
+      <c r="B9" s="11" t="s">
+        <v>261</v>
       </c>
       <c r="C9" s="77" t="str">
         <f t="shared" si="2"/>
         <v>programA</v>
       </c>
-      <c r="D9" s="64">
+      <c r="D9" s="63">
         <v>2</v>
       </c>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64" t="str">
+      <c r="E9" s="63"/>
+      <c r="F9" s="63" t="str">
         <f t="shared" si="1"/>
         <v>006</v>
       </c>
-      <c r="G9" s="122" t="str">
+      <c r="G9" s="120" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">Group A|G2A, Group B|G2B</v>
       </c>
-      <c r="H9" s="123" t="s">
-        <v>256</v>
-      </c>
-      <c r="I9" s="64"/>
-      <c r="J9" s="124" t="str">
+      <c r="H9" s="121" t="s">
+        <v>262</v>
+      </c>
+      <c r="I9" s="63"/>
+      <c r="J9" s="122" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K9" s="125" t="str">
+      <c r="K9" s="123" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">teacher01|main@G2A, teacher01|main@G2B</v>
       </c>
-      <c r="L9" s="126">
+      <c r="L9" s="124">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
     <row r="10" ht="30" customHeight="1">
-      <c r="A10" s="11" t="str">
+      <c r="A10" s="10" t="str">
         <f t="shared" ref="A10:A23" si="7">_xlfn.CONCAT("subject",IF(L10&lt;10,"0",""),L10)</f>
         <v>subject07</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>257</v>
+      <c r="B10" s="11" t="s">
+        <v>263</v>
       </c>
       <c r="C10" s="77" t="str">
         <f t="shared" si="2"/>
         <v>programA</v>
       </c>
-      <c r="D10" s="64">
+      <c r="D10" s="63">
         <v>2</v>
       </c>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64" t="str">
+      <c r="E10" s="63"/>
+      <c r="F10" s="63" t="str">
         <f t="shared" ref="F10:F23" si="8">_xlfn.CONCAT("0",IF(L10&lt;10,"0",""),L10)</f>
         <v>007</v>
       </c>
-      <c r="G10" s="122" t="str">
+      <c r="G10" s="120" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">Group A|G2A, Group B|G2B</v>
       </c>
-      <c r="H10" s="123" t="str">
+      <c r="H10" s="121" t="str">
         <f t="shared" si="4"/>
         <v>#FFC7CE</v>
       </c>
-      <c r="I10" s="64"/>
-      <c r="J10" s="124" t="str">
+      <c r="I10" s="63"/>
+      <c r="J10" s="122" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K10" s="125" t="str">
+      <c r="K10" s="123" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">teacher01|main@G2A, teacher01|main@G2B</v>
       </c>
-      <c r="L10" s="126">
+      <c r="L10" s="124">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
     </row>
     <row r="11" ht="30" customHeight="1">
-      <c r="A11" s="11" t="str">
+      <c r="A11" s="10" t="str">
         <f t="shared" si="7"/>
         <v>subject08</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>258</v>
+      <c r="B11" s="11" t="s">
+        <v>264</v>
       </c>
       <c r="C11" s="77" t="str">
         <f t="shared" ref="C11:C23" si="9">C10</f>
         <v>programA</v>
       </c>
-      <c r="D11" s="64">
+      <c r="D11" s="63">
         <v>2</v>
       </c>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64" t="str">
+      <c r="E11" s="63"/>
+      <c r="F11" s="63" t="str">
         <f t="shared" si="8"/>
         <v>008</v>
       </c>
-      <c r="G11" s="122" t="str">
+      <c r="G11" s="120" t="str">
         <f>G10</f>
         <v xml:space="preserve">Group A|G2A, Group B|G2B</v>
       </c>
-      <c r="H11" s="123" t="str">
+      <c r="H11" s="121" t="str">
         <f t="shared" ref="H11:H18" si="10">H10</f>
         <v>#FFC7CE</v>
       </c>
-      <c r="I11" s="64"/>
-      <c r="J11" s="124" t="str">
+      <c r="I11" s="63"/>
+      <c r="J11" s="122" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="K11" s="125" t="str">
+      <c r="K11" s="123" t="str">
         <f>K10</f>
         <v xml:space="preserve">teacher01|main@G2A, teacher01|main@G2B</v>
       </c>
-      <c r="L11" s="126">
+      <c r="L11" s="124">
         <f t="shared" ref="L11:L23" si="11">L10+1</f>
         <v>8</v>
       </c>
     </row>
     <row r="12" ht="30" customHeight="1">
-      <c r="A12" s="11" t="str">
+      <c r="A12" s="10" t="str">
         <f t="shared" si="7"/>
         <v>subject09</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>259</v>
+      <c r="B12" s="11" t="s">
+        <v>265</v>
       </c>
       <c r="C12" s="77" t="str">
         <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D12" s="64">
+      <c r="D12" s="63">
         <v>3</v>
       </c>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64" t="str">
+      <c r="E12" s="63"/>
+      <c r="F12" s="63" t="str">
         <f t="shared" si="8"/>
         <v>009</v>
       </c>
-      <c r="G12" s="122" t="s">
-        <v>260</v>
-      </c>
-      <c r="H12" s="123" t="str">
+      <c r="G12" s="120" t="s">
+        <v>266</v>
+      </c>
+      <c r="H12" s="121" t="str">
         <f t="shared" si="10"/>
         <v>#FFC7CE</v>
       </c>
-      <c r="I12" s="64"/>
-      <c r="J12" s="124" t="str">
+      <c r="I12" s="63"/>
+      <c r="J12" s="122" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K12" s="125" t="s">
-        <v>261</v>
-      </c>
-      <c r="L12" s="126">
+      <c r="K12" s="123" t="s">
+        <v>267</v>
+      </c>
+      <c r="L12" s="124">
         <f t="shared" si="11"/>
         <v>9</v>
       </c>
     </row>
     <row r="13" ht="30" customHeight="1">
-      <c r="A13" s="11" t="str">
+      <c r="A13" s="10" t="str">
         <f t="shared" si="7"/>
         <v>subject10</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>262</v>
+      <c r="B13" s="11" t="s">
+        <v>268</v>
       </c>
       <c r="C13" s="77" t="str">
         <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D13" s="64">
+      <c r="D13" s="63">
         <v>3</v>
       </c>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64" t="str">
+      <c r="E13" s="63"/>
+      <c r="F13" s="63" t="str">
         <f t="shared" si="8"/>
         <v>010</v>
       </c>
-      <c r="G13" s="122" t="str">
+      <c r="G13" s="120" t="str">
         <f t="shared" ref="G13:G23" si="12">G12</f>
         <v xml:space="preserve">Group A|G3A, Group B|G3B</v>
       </c>
-      <c r="H13" s="123" t="str">
+      <c r="H13" s="121" t="str">
         <f t="shared" si="10"/>
         <v>#FFC7CE</v>
       </c>
-      <c r="I13" s="64"/>
-      <c r="J13" s="124" t="str">
+      <c r="I13" s="63"/>
+      <c r="J13" s="122" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K13" s="125" t="str">
+      <c r="K13" s="123" t="str">
         <f t="shared" ref="K13:K23" si="13">K12</f>
         <v xml:space="preserve">teacher01|main@G3A, teacher01|main@G3B</v>
       </c>
-      <c r="L13" s="126">
+      <c r="L13" s="124">
         <f t="shared" si="11"/>
         <v>10</v>
       </c>
     </row>
     <row r="14" ht="30" customHeight="1">
-      <c r="A14" s="11" t="str">
+      <c r="A14" s="10" t="str">
         <f t="shared" si="7"/>
         <v>subject11</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>263</v>
+      <c r="B14" s="11" t="s">
+        <v>269</v>
       </c>
       <c r="C14" s="77" t="str">
         <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D14" s="64">
+      <c r="D14" s="63">
         <v>3</v>
       </c>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64" t="str">
+      <c r="E14" s="63"/>
+      <c r="F14" s="63" t="str">
         <f t="shared" si="8"/>
         <v>011</v>
       </c>
-      <c r="G14" s="122" t="str">
+      <c r="G14" s="120" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">Group A|G3A, Group B|G3B</v>
       </c>
-      <c r="H14" s="123" t="s">
-        <v>264</v>
-      </c>
-      <c r="I14" s="64"/>
-      <c r="J14" s="124" t="str">
+      <c r="H14" s="121" t="s">
+        <v>270</v>
+      </c>
+      <c r="I14" s="63"/>
+      <c r="J14" s="122" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K14" s="125" t="str">
+      <c r="K14" s="123" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">teacher01|main@G3A, teacher01|main@G3B</v>
       </c>
-      <c r="L14" s="126">
+      <c r="L14" s="124">
         <f t="shared" si="11"/>
         <v>11</v>
       </c>
     </row>
     <row r="15" ht="30" customHeight="1">
-      <c r="A15" s="11" t="str">
+      <c r="A15" s="10" t="str">
         <f t="shared" si="7"/>
         <v>subject12</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>265</v>
+      <c r="B15" s="11" t="s">
+        <v>271</v>
       </c>
       <c r="C15" s="77" t="str">
         <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D15" s="64">
+      <c r="D15" s="63">
         <v>3</v>
       </c>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64" t="str">
+      <c r="E15" s="63"/>
+      <c r="F15" s="63" t="str">
         <f t="shared" si="8"/>
         <v>012</v>
       </c>
-      <c r="G15" s="122" t="str">
+      <c r="G15" s="120" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">Group A|G3A, Group B|G3B</v>
       </c>
-      <c r="H15" s="123" t="str">
+      <c r="H15" s="121" t="str">
         <f t="shared" si="10"/>
         <v>#C6EFCD</v>
       </c>
-      <c r="I15" s="64"/>
-      <c r="J15" s="124" t="str">
+      <c r="I15" s="63"/>
+      <c r="J15" s="122" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="K15" s="125" t="str">
+      <c r="K15" s="123" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">teacher01|main@G3A, teacher01|main@G3B</v>
       </c>
-      <c r="L15" s="126">
+      <c r="L15" s="124">
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
     </row>
     <row r="16" ht="30" customHeight="1">
-      <c r="A16" s="11" t="str">
+      <c r="A16" s="10" t="str">
         <f t="shared" si="7"/>
         <v>subject13</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>266</v>
+      <c r="B16" s="11" t="s">
+        <v>272</v>
       </c>
       <c r="C16" s="77" t="str">
         <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D16" s="64">
+      <c r="D16" s="63">
         <v>4</v>
       </c>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64" t="str">
+      <c r="E16" s="63"/>
+      <c r="F16" s="63" t="str">
         <f t="shared" si="8"/>
         <v>013</v>
       </c>
-      <c r="G16" s="122" t="s">
-        <v>267</v>
-      </c>
-      <c r="H16" s="123" t="str">
+      <c r="G16" s="120" t="s">
+        <v>273</v>
+      </c>
+      <c r="H16" s="121" t="str">
         <f t="shared" si="10"/>
         <v>#C6EFCD</v>
       </c>
-      <c r="I16" s="64"/>
-      <c r="J16" s="124" t="str">
+      <c r="I16" s="63"/>
+      <c r="J16" s="122" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K16" s="125" t="s">
-        <v>268</v>
-      </c>
-      <c r="L16" s="126">
+      <c r="K16" s="123" t="s">
+        <v>274</v>
+      </c>
+      <c r="L16" s="124">
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
     </row>
     <row r="17" ht="30" customHeight="1">
-      <c r="A17" s="11" t="str">
+      <c r="A17" s="10" t="str">
         <f t="shared" si="7"/>
         <v>subject14</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>269</v>
+      <c r="B17" s="11" t="s">
+        <v>275</v>
       </c>
       <c r="C17" s="77" t="str">
         <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D17" s="64">
+      <c r="D17" s="63">
         <v>4</v>
       </c>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64" t="str">
+      <c r="E17" s="63"/>
+      <c r="F17" s="63" t="str">
         <f t="shared" si="8"/>
         <v>014</v>
       </c>
-      <c r="G17" s="122" t="str">
+      <c r="G17" s="120" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">Group A|G4A, Group B|G4B</v>
       </c>
-      <c r="H17" s="123" t="str">
+      <c r="H17" s="121" t="str">
         <f t="shared" si="10"/>
         <v>#C6EFCD</v>
       </c>
-      <c r="I17" s="64"/>
-      <c r="J17" s="124" t="str">
+      <c r="I17" s="63"/>
+      <c r="J17" s="122" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K17" s="125" t="str">
+      <c r="K17" s="123" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">teacher01|main@G4A, teacher01|main@G4B</v>
       </c>
-      <c r="L17" s="126">
+      <c r="L17" s="124">
         <f t="shared" si="11"/>
         <v>14</v>
       </c>
     </row>
     <row r="18" ht="30" customHeight="1">
-      <c r="A18" s="11" t="str">
+      <c r="A18" s="10" t="str">
         <f t="shared" si="7"/>
         <v>subject15</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>270</v>
+      <c r="B18" s="11" t="s">
+        <v>276</v>
       </c>
       <c r="C18" s="77" t="str">
         <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D18" s="64">
+      <c r="D18" s="63">
         <v>4</v>
       </c>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64" t="str">
+      <c r="E18" s="63"/>
+      <c r="F18" s="63" t="str">
         <f t="shared" si="8"/>
         <v>015</v>
       </c>
-      <c r="G18" s="122" t="str">
+      <c r="G18" s="120" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">Group A|G4A, Group B|G4B</v>
       </c>
-      <c r="H18" s="123" t="str">
+      <c r="H18" s="121" t="str">
         <f t="shared" si="10"/>
         <v>#C6EFCD</v>
       </c>
-      <c r="I18" s="64"/>
-      <c r="J18" s="124" t="str">
+      <c r="I18" s="63"/>
+      <c r="J18" s="122" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K18" s="125" t="str">
+      <c r="K18" s="123" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">teacher01|main@G4A, teacher01|main@G4B</v>
       </c>
-      <c r="L18" s="126">
+      <c r="L18" s="124">
         <f t="shared" si="11"/>
         <v>15</v>
       </c>
     </row>
     <row r="19" ht="30" customHeight="1">
-      <c r="A19" s="11" t="str">
+      <c r="A19" s="10" t="str">
         <f t="shared" si="7"/>
         <v>subject16</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>271</v>
+      <c r="B19" s="11" t="s">
+        <v>277</v>
       </c>
       <c r="C19" s="77" t="str">
         <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D19" s="64">
+      <c r="D19" s="63">
         <v>4</v>
       </c>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64" t="str">
+      <c r="E19" s="63"/>
+      <c r="F19" s="63" t="str">
         <f t="shared" si="8"/>
         <v>016</v>
       </c>
-      <c r="G19" s="122" t="str">
+      <c r="G19" s="120" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">Group A|G4A, Group B|G4B</v>
       </c>
-      <c r="H19" s="123" t="s">
-        <v>272</v>
-      </c>
-      <c r="I19" s="64"/>
-      <c r="J19" s="124" t="str">
+      <c r="H19" s="121" t="s">
+        <v>278</v>
+      </c>
+      <c r="I19" s="63"/>
+      <c r="J19" s="122" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="K19" s="125" t="str">
+      <c r="K19" s="123" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">teacher01|main@G4A, teacher01|main@G4B</v>
       </c>
-      <c r="L19" s="126">
+      <c r="L19" s="124">
         <f t="shared" si="11"/>
         <v>16</v>
       </c>
     </row>
     <row r="20" ht="30" customHeight="1">
-      <c r="A20" s="11" t="str">
+      <c r="A20" s="10" t="str">
         <f t="shared" si="7"/>
         <v>subject17</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>273</v>
+      <c r="B20" s="11" t="s">
+        <v>279</v>
       </c>
       <c r="C20" s="77" t="str">
         <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D20" s="64">
+      <c r="D20" s="63">
         <v>5</v>
       </c>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64" t="str">
+      <c r="E20" s="63"/>
+      <c r="F20" s="63" t="str">
         <f t="shared" si="8"/>
         <v>017</v>
       </c>
-      <c r="G20" s="122" t="s">
-        <v>274</v>
-      </c>
-      <c r="H20" s="123" t="s">
-        <v>272</v>
-      </c>
-      <c r="I20" s="64"/>
-      <c r="J20" s="124" t="str">
+      <c r="G20" s="120" t="s">
+        <v>280</v>
+      </c>
+      <c r="H20" s="121" t="s">
+        <v>278</v>
+      </c>
+      <c r="I20" s="63"/>
+      <c r="J20" s="122" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K20" s="125" t="s">
-        <v>275</v>
-      </c>
-      <c r="L20" s="126">
+      <c r="K20" s="123" t="s">
+        <v>281</v>
+      </c>
+      <c r="L20" s="124">
         <f t="shared" si="11"/>
         <v>17</v>
       </c>
     </row>
     <row r="21" ht="30" customHeight="1">
-      <c r="A21" s="11" t="str">
+      <c r="A21" s="10" t="str">
         <f t="shared" si="7"/>
         <v>subject18</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>276</v>
+      <c r="B21" s="11" t="s">
+        <v>282</v>
       </c>
       <c r="C21" s="77" t="str">
         <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D21" s="64">
+      <c r="D21" s="63">
         <v>5</v>
       </c>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64" t="str">
+      <c r="E21" s="63"/>
+      <c r="F21" s="63" t="str">
         <f t="shared" si="8"/>
         <v>018</v>
       </c>
-      <c r="G21" s="122" t="str">
+      <c r="G21" s="120" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">Group A|G5A, Group B|G5B</v>
       </c>
-      <c r="H21" s="123" t="s">
-        <v>272</v>
-      </c>
-      <c r="I21" s="64"/>
-      <c r="J21" s="124" t="str">
+      <c r="H21" s="121" t="s">
+        <v>278</v>
+      </c>
+      <c r="I21" s="63"/>
+      <c r="J21" s="122" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K21" s="125" t="str">
+      <c r="K21" s="123" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">teacher01|main@G5A, teacher01|main@G5B</v>
       </c>
-      <c r="L21" s="126">
+      <c r="L21" s="124">
         <f t="shared" si="11"/>
         <v>18</v>
       </c>
     </row>
     <row r="22" ht="30" customHeight="1">
-      <c r="A22" s="11" t="str">
+      <c r="A22" s="10" t="str">
         <f t="shared" si="7"/>
         <v>subject19</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>277</v>
+      <c r="B22" s="11" t="s">
+        <v>283</v>
       </c>
       <c r="C22" s="77" t="str">
         <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D22" s="64">
+      <c r="D22" s="63">
         <v>5</v>
       </c>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64" t="str">
+      <c r="E22" s="63"/>
+      <c r="F22" s="63" t="str">
         <f t="shared" si="8"/>
         <v>019</v>
       </c>
-      <c r="G22" s="122" t="str">
+      <c r="G22" s="120" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">Group A|G5A, Group B|G5B</v>
       </c>
-      <c r="H22" s="123" t="s">
-        <v>272</v>
-      </c>
-      <c r="I22" s="64"/>
-      <c r="J22" s="124" t="str">
+      <c r="H22" s="121" t="s">
+        <v>278</v>
+      </c>
+      <c r="I22" s="63"/>
+      <c r="J22" s="122" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K22" s="125" t="str">
+      <c r="K22" s="123" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">teacher01|main@G5A, teacher01|main@G5B</v>
       </c>
-      <c r="L22" s="126">
+      <c r="L22" s="124">
         <f t="shared" si="11"/>
         <v>19</v>
       </c>
     </row>
     <row r="23" ht="30" customHeight="1">
-      <c r="A23" s="11" t="str">
+      <c r="A23" s="10" t="str">
         <f t="shared" si="7"/>
         <v>subject20</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>278</v>
+      <c r="B23" s="11" t="s">
+        <v>284</v>
       </c>
       <c r="C23" s="77" t="str">
         <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D23" s="64">
+      <c r="D23" s="63">
         <v>5</v>
       </c>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64" t="str">
+      <c r="E23" s="63"/>
+      <c r="F23" s="63" t="str">
         <f t="shared" si="8"/>
         <v>020</v>
       </c>
-      <c r="G23" s="122" t="str">
+      <c r="G23" s="120" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">Group A|G5A, Group B|G5B</v>
       </c>
-      <c r="H23" s="123" t="s">
-        <v>272</v>
-      </c>
-      <c r="I23" s="64"/>
-      <c r="J23" s="124" t="str">
+      <c r="H23" s="121" t="s">
+        <v>278</v>
+      </c>
+      <c r="I23" s="63"/>
+      <c r="J23" s="122" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="K23" s="125" t="str">
+      <c r="K23" s="123" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">teacher01|main@G5A, teacher01|main@G5B</v>
       </c>
-      <c r="L23" s="126">
+      <c r="L23" s="124">
         <f t="shared" si="11"/>
         <v>20</v>
       </c>
     </row>
     <row r="24" ht="14.25">
-      <c r="L24" s="75"/>
+      <c r="L24" s="74"/>
     </row>
     <row r="25" ht="14.25"/>
   </sheetData>
@@ -3496,58 +3507,58 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" s="10" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A3" s="11" t="s">
+    <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" s="10" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A4" s="11" t="s">
+    <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3589,726 +3600,726 @@
     <col customWidth="1" min="29" max="29" width="17.140625"/>
   </cols>
   <sheetData>
-    <row r="1" s="13" customFormat="1" ht="14.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" s="12" customFormat="1" ht="14.25">
+      <c r="A1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="13" t="str">
+      <c r="E1" s="12" t="str">
         <f>_xlfn.CONCAT($E$3,".",E5)</f>
         <v>plugins.users.users</v>
       </c>
-      <c r="F1" s="13" t="str">
+      <c r="F1" s="12" t="str">
         <f>_xlfn.CONCAT($E$3,".",F5)</f>
         <v>plugins.users.user-data</v>
       </c>
-      <c r="G1" s="13" t="str">
+      <c r="G1" s="12" t="str">
         <f>_xlfn.CONCAT($E$3,".",G5)</f>
         <v>plugins.users.centers</v>
       </c>
-      <c r="H1" s="13" t="str">
+      <c r="H1" s="12" t="str">
         <f>_xlfn.CONCAT($E$3,".",H5)</f>
         <v>plugins.users.profiles</v>
       </c>
-      <c r="I1" s="13" t="str">
+      <c r="I1" s="12" t="str">
         <f>_xlfn.CONCAT($I$3,".",I5)</f>
         <v>plugins.dataset.dataset</v>
       </c>
-      <c r="J1" s="13" t="str">
+      <c r="J1" s="12" t="str">
         <f>_xlfn.CONCAT($J$3,".",J5)</f>
         <v>plugins.calendar.calendar</v>
       </c>
-      <c r="K1" s="13" t="str">
+      <c r="K1" s="12" t="str">
         <f>_xlfn.CONCAT($K$3,".",K5)</f>
         <v>plugins.academic-portfolio.portfolio</v>
       </c>
-      <c r="L1" s="13" t="str">
+      <c r="L1" s="12" t="str">
         <f>_xlfn.CONCAT($K$3,".",L5)</f>
         <v>plugins.academic-portfolio.programs</v>
       </c>
-      <c r="M1" s="13" t="str">
+      <c r="M1" s="12" t="str">
         <f>_xlfn.CONCAT($K$3,".",M5)</f>
         <v>plugins.academic-portfolio.profiles</v>
       </c>
-      <c r="N1" s="13" t="str">
+      <c r="N1" s="12" t="str">
         <f>_xlfn.CONCAT($K$3,".",N5)</f>
         <v>plugins.academic-portfolio.subjects</v>
       </c>
-      <c r="O1" s="13" t="str">
+      <c r="O1" s="12" t="str">
         <f>_xlfn.CONCAT($K$3,".",O5)</f>
         <v>plugins.academic-portfolio.tree</v>
       </c>
-      <c r="P1" s="13" t="str">
+      <c r="P1" s="12" t="str">
         <f>_xlfn.CONCAT($P$3,".",P5)</f>
         <v>plugins.families.families</v>
       </c>
-      <c r="Q1" s="13" t="str">
+      <c r="Q1" s="12" t="str">
         <f>_xlfn.CONCAT($P$3,".",Q5)</f>
         <v>plugins.families.config</v>
       </c>
-      <c r="R1" s="13" t="str">
+      <c r="R1" s="12" t="str">
         <f>_xlfn.CONCAT($P$3,".",R5)</f>
         <v>plugins.families.families-basic-info</v>
       </c>
-      <c r="S1" s="13" t="str">
+      <c r="S1" s="12" t="str">
         <f>_xlfn.CONCAT($P$3,".",S5)</f>
         <v>plugins.families.families-custom-info</v>
       </c>
-      <c r="T1" s="13" t="str">
+      <c r="T1" s="12" t="str">
         <f>_xlfn.CONCAT($P$3,".",T5)</f>
         <v>plugins.families.families-guardians-info</v>
       </c>
-      <c r="U1" s="13" t="str">
+      <c r="U1" s="12" t="str">
         <f>_xlfn.CONCAT($P$3,".",U5)</f>
         <v>plugins.families.families-students-info</v>
       </c>
-      <c r="V1" s="13" t="str">
+      <c r="V1" s="12" t="str">
         <f>_xlfn.CONCAT($V$3,".",V5)</f>
         <v>plugins.timetable.config</v>
       </c>
-      <c r="W1" s="13" t="str">
+      <c r="W1" s="12" t="str">
         <f>_xlfn.CONCAT($V$3,".",W5)</f>
         <v>plugins.timetable.timetable</v>
       </c>
-      <c r="X1" s="13" t="str">
+      <c r="X1" s="12" t="str">
         <f>_xlfn.CONCAT($X$3,".",X5)</f>
         <v>plugins.tasks.tasks</v>
       </c>
-      <c r="Y1" s="13" t="str">
+      <c r="Y1" s="12" t="str">
         <f>_xlfn.CONCAT($X$3,".",Y5)</f>
         <v>plugins.tasks.library</v>
       </c>
-      <c r="Z1" s="13" t="str">
+      <c r="Z1" s="12" t="str">
         <f>_xlfn.CONCAT($X$3,".",Z5)</f>
         <v>plugins.tasks.ongoing</v>
       </c>
-      <c r="AA1" s="13" t="str">
+      <c r="AA1" s="12" t="str">
         <f>_xlfn.CONCAT($X$3,".",AA5)</f>
         <v>plugins.tasks.history</v>
       </c>
-      <c r="AB1" s="13" t="str">
+      <c r="AB1" s="12" t="str">
         <f>_xlfn.CONCAT($AB$3,".",AB5)</f>
         <v>plugins.curriculum.curriculum</v>
       </c>
-      <c r="AC1" s="13" t="str">
+      <c r="AC1" s="12" t="str">
         <f>_xlfn.CONCAT($AC$3,".",AC5)</f>
         <v>plugins.leebrary.library</v>
       </c>
     </row>
-    <row r="2" s="10" customFormat="1" ht="21.350000000000001" customHeight="1">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="14" t="s">
+    <row r="2" s="9" customFormat="1" ht="21.350000000000001" customHeight="1">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
     </row>
     <row r="3" ht="14.25">
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18" t="s">
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="22" t="s">
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="16" t="s">
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="W3" s="17"/>
-      <c r="X3" s="25" t="s">
+      <c r="W3" s="16"/>
+      <c r="X3" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="27" t="s">
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AC3" s="20" t="s">
+      <c r="AC3" s="19" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" s="28" customFormat="1" ht="19.850000000000001" customHeight="1">
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29" t="s">
+    <row r="4" s="27" customFormat="1" ht="19.850000000000001" customHeight="1">
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="31" t="s">
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="J4" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="33" t="s">
+      <c r="K4" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="35" t="s">
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="29" t="s">
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="W4" s="30"/>
-      <c r="X4" s="31" t="s">
+      <c r="W4" s="29"/>
+      <c r="X4" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="32" t="s">
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="37"/>
+      <c r="AB4" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="AC4" s="33" t="s">
+      <c r="AC4" s="32" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="5" ht="14.25">
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="39" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="H5" s="41" t="s">
+      <c r="H5" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="I5" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="J5" s="43" t="s">
+      <c r="J5" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="K5" s="44" t="s">
+      <c r="K5" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="L5" s="45" t="s">
+      <c r="L5" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="M5" s="45" t="s">
+      <c r="M5" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="N5" s="45" t="s">
+      <c r="N5" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="O5" s="45" t="s">
+      <c r="O5" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="P5" s="46" t="s">
+      <c r="P5" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="Q5" s="47" t="s">
+      <c r="Q5" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="R5" s="47" t="s">
+      <c r="R5" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="S5" s="47" t="s">
+      <c r="S5" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="T5" s="47" t="s">
+      <c r="T5" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="U5" s="48" t="s">
+      <c r="U5" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="V5" s="39" t="s">
+      <c r="V5" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="W5" s="40" t="s">
+      <c r="W5" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="X5" s="42" t="s">
+      <c r="X5" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="Y5" s="42" t="s">
+      <c r="Y5" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="Z5" s="42" t="s">
+      <c r="Z5" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="AA5" s="42" t="s">
+      <c r="AA5" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="AB5" s="43" t="s">
+      <c r="AB5" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="AC5" s="49" t="s">
+      <c r="AC5" s="48" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" s="50" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A6" s="7" t="s">
+    <row r="6" s="49" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="E6" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="H6" s="53" t="s">
+      <c r="H6" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="I6" s="54" t="s">
+      <c r="I6" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="55" t="s">
+      <c r="J6" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="56" t="s">
+      <c r="K6" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="L6" s="57" t="s">
+      <c r="L6" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="M6" s="57" t="s">
+      <c r="M6" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="N6" s="57" t="s">
+      <c r="N6" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="O6" s="57" t="s">
+      <c r="O6" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="P6" s="58" t="s">
+      <c r="P6" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="Q6" s="59" t="s">
+      <c r="Q6" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="R6" s="59" t="s">
+      <c r="R6" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="S6" s="59" t="s">
+      <c r="S6" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="T6" s="59" t="s">
+      <c r="T6" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="U6" s="60" t="s">
+      <c r="U6" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="V6" s="52" t="s">
+      <c r="V6" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="W6" s="9" t="s">
+      <c r="W6" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="X6" s="54" t="s">
+      <c r="X6" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="Y6" s="54" t="s">
+      <c r="Y6" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="Z6" s="54" t="s">
+      <c r="Z6" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="AA6" s="54" t="s">
+      <c r="AA6" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="AB6" s="61" t="s">
+      <c r="AB6" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="AC6" s="62" t="s">
+      <c r="AC6" s="61" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" s="10" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A7" s="11" t="s">
+    <row r="7" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A7" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="D7" s="63"/>
-      <c r="E7" s="64" t="s">
+      <c r="D7" s="62"/>
+      <c r="E7" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="F7" s="64" t="s">
+      <c r="F7" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="G7" s="64" t="s">
+      <c r="G7" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="H7" s="64" t="s">
+      <c r="H7" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="I7" s="64" t="s">
+      <c r="I7" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="J7" s="64" t="s">
+      <c r="J7" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="K7" s="64" t="s">
+      <c r="K7" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="L7" s="64" t="s">
+      <c r="L7" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="M7" s="64" t="s">
+      <c r="M7" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="N7" s="64" t="s">
+      <c r="N7" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="O7" s="64" t="s">
+      <c r="O7" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="P7" s="65" t="s">
+      <c r="P7" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="Q7" s="65" t="s">
+      <c r="Q7" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="R7" s="65"/>
-      <c r="S7" s="65"/>
-      <c r="T7" s="65"/>
-      <c r="U7" s="65"/>
-      <c r="V7" s="65" t="s">
+      <c r="R7" s="64"/>
+      <c r="S7" s="64"/>
+      <c r="T7" s="64"/>
+      <c r="U7" s="64"/>
+      <c r="V7" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="W7" s="65" t="s">
+      <c r="W7" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="X7" s="65" t="s">
+      <c r="X7" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="Y7" s="65" t="s">
+      <c r="Y7" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="Z7" s="65" t="s">
+      <c r="Z7" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="AA7" s="65" t="s">
+      <c r="AA7" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="AB7" s="64" t="s">
+      <c r="AB7" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="AC7" s="64" t="s">
+      <c r="AC7" s="63" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="8" s="10" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A8" s="11" t="s">
+    <row r="8" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A8" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="63"/>
-      <c r="E8" s="64" t="s">
+      <c r="D8" s="62"/>
+      <c r="E8" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="F8" s="64" t="s">
+      <c r="F8" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="G8" s="64" t="s">
+      <c r="G8" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="H8" s="64" t="s">
+      <c r="H8" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="I8" s="64" t="s">
+      <c r="I8" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="J8" s="64" t="s">
+      <c r="J8" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="K8" s="64" t="s">
+      <c r="K8" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="L8" s="64" t="s">
+      <c r="L8" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="M8" s="64"/>
-      <c r="N8" s="64" t="s">
+      <c r="M8" s="63"/>
+      <c r="N8" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="O8" s="64" t="s">
+      <c r="O8" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="P8" s="64" t="s">
+      <c r="P8" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="Q8" s="64" t="s">
+      <c r="Q8" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="R8" s="65"/>
-      <c r="S8" s="64"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="64"/>
-      <c r="V8" s="64" t="s">
+      <c r="R8" s="64"/>
+      <c r="S8" s="63"/>
+      <c r="T8" s="63"/>
+      <c r="U8" s="63"/>
+      <c r="V8" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="W8" s="64" t="s">
+      <c r="W8" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="X8" s="64" t="s">
+      <c r="X8" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="Y8" s="64" t="s">
+      <c r="Y8" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="Z8" s="64" t="s">
+      <c r="Z8" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="AA8" s="64" t="s">
+      <c r="AA8" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="AB8" s="64" t="s">
+      <c r="AB8" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="AC8" s="64" t="s">
+      <c r="AC8" s="63" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="9" s="10" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A9" s="11" t="s">
+    <row r="9" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A9" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="63"/>
-      <c r="E9" s="64" t="s">
+      <c r="D9" s="62"/>
+      <c r="E9" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="64" t="s">
+      <c r="F9" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="64" t="s">
+      <c r="G9" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="H9" s="64" t="s">
+      <c r="H9" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="I9" s="64" t="s">
+      <c r="I9" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="J9" s="64" t="s">
+      <c r="J9" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="K9" s="64" t="s">
+      <c r="K9" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="L9" s="64" t="s">
+      <c r="L9" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="M9" s="64"/>
-      <c r="N9" s="64" t="s">
+      <c r="M9" s="63"/>
+      <c r="N9" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="O9" s="64"/>
-      <c r="P9" s="64" t="s">
+      <c r="O9" s="63"/>
+      <c r="P9" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="Q9" s="64" t="s">
+      <c r="Q9" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="R9" s="64" t="s">
+      <c r="R9" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="S9" s="64" t="s">
+      <c r="S9" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="T9" s="64" t="s">
+      <c r="T9" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="U9" s="64" t="s">
+      <c r="U9" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="V9" s="64" t="s">
+      <c r="V9" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="W9" s="64" t="s">
+      <c r="W9" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="X9" s="64" t="s">
+      <c r="X9" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="Y9" s="64" t="s">
+      <c r="Y9" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="Z9" s="64" t="s">
+      <c r="Z9" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="AA9" s="64" t="s">
+      <c r="AA9" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="AB9" s="64" t="s">
+      <c r="AB9" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="AC9" s="64" t="s">
+      <c r="AC9" s="63" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="10" s="10" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A10" s="11" t="s">
+    <row r="10" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A10" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="D10" s="63" t="str">
+      <c r="D10" s="62" t="str">
         <f>A9</f>
         <v>student</v>
       </c>
-      <c r="E10" s="64" t="s">
+      <c r="E10" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="64" t="s">
+      <c r="F10" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="G10" s="64" t="s">
+      <c r="G10" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="H10" s="64" t="s">
+      <c r="H10" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="I10" s="64" t="s">
+      <c r="I10" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="J10" s="64" t="s">
+      <c r="J10" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="K10" s="64" t="s">
+      <c r="K10" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="L10" s="64" t="s">
+      <c r="L10" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="M10" s="64"/>
-      <c r="N10" s="64" t="s">
+      <c r="M10" s="63"/>
+      <c r="N10" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="O10" s="64"/>
-      <c r="P10" s="64" t="s">
+      <c r="O10" s="63"/>
+      <c r="P10" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="Q10" s="64" t="s">
+      <c r="Q10" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="R10" s="64" t="s">
+      <c r="R10" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="S10" s="64" t="s">
+      <c r="S10" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="T10" s="64" t="s">
+      <c r="T10" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="U10" s="64" t="s">
+      <c r="U10" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="V10" s="64"/>
-      <c r="W10" s="64"/>
-      <c r="X10" s="64"/>
-      <c r="Y10" s="64"/>
-      <c r="Z10" s="64"/>
-      <c r="AA10" s="64"/>
-      <c r="AB10" s="64"/>
-      <c r="AC10" s="64" t="s">
+      <c r="V10" s="63"/>
+      <c r="W10" s="63"/>
+      <c r="X10" s="63"/>
+      <c r="Y10" s="63"/>
+      <c r="Z10" s="63"/>
+      <c r="AA10" s="63"/>
+      <c r="AB10" s="63"/>
+      <c r="AC10" s="63" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4341,7 +4352,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0" zoomScale="100">
+    <sheetView showGridLines="0" topLeftCell="F1" workbookViewId="0" zoomScale="100">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -4354,291 +4365,322 @@
     <col customWidth="1" min="5" max="5" width="12.421875"/>
     <col bestFit="1" customWidth="1" min="6" max="6" width="24.78125"/>
     <col bestFit="1" min="7" max="7" width="9.140625"/>
-    <col customWidth="1" min="9" max="9" width="36.57421875"/>
+    <col customWidth="1" min="9" max="9" width="14.00390625"/>
+    <col customWidth="1" min="10" max="10" width="36.57421875"/>
+    <col customWidth="1" min="11" max="11" width="16.57421875"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="H2" s="66" t="s">
+      <c r="G2" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="67" t="s">
+      <c r="I2" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="J2" s="67" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" s="10" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A3" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" s="12" t="s">
+    <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A3" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="B3" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="68">
         <v>36526</v>
       </c>
       <c r="F3" s="69" t="s">
-        <v>121</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="H3" s="64" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="H3" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="70" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" s="10" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A4" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="B4" s="12" t="s">
+      <c r="I3" s="63" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="J3" s="70" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A4" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="68">
         <v>34781</v>
       </c>
       <c r="F4" s="69" t="s">
-        <v>126</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="H4" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="H4" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="70" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="I4" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="J4" s="70" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A5" s="71" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B5" s="72" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C5" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="68">
         <v>39205</v>
       </c>
       <c r="F5" s="73" t="s">
-        <v>130</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="H5" s="64" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="H5" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="74" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="I5" s="63" t="s">
+        <v>135</v>
+      </c>
+      <c r="J5" s="70" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A6" s="71" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B6" s="72" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C6" s="72" t="s">
-        <v>134</v>
-      </c>
-      <c r="D6" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="68">
         <v>39156</v>
       </c>
       <c r="F6" s="73" t="s">
+        <v>140</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="H6" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="63" t="s">
         <v>135</v>
       </c>
-      <c r="G6" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="H6" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="74" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="J6" s="70" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A7" s="71" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B7" s="72" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C7" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="68">
         <v>42171</v>
       </c>
       <c r="F7" s="73" t="s">
-        <v>138</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="H7" s="64" t="s">
+        <v>143</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="H7" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="74" t="s">
+      <c r="I7" s="63" t="s">
+        <v>135</v>
+      </c>
+      <c r="J7" s="70" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A8" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" s="72" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="72" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="8" s="10" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A8" s="71" t="s">
-        <v>140</v>
-      </c>
-      <c r="B8" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="C8" s="72" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="68">
         <v>42237</v>
       </c>
       <c r="F8" s="73" t="s">
-        <v>142</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="H8" s="64" t="s">
+        <v>147</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="H8" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="74" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" s="10" customFormat="1" ht="19.5" customHeight="1">
+      <c r="I8" s="63" t="s">
+        <v>135</v>
+      </c>
+      <c r="J8" s="70" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A9" s="71" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B9" s="72" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C9" s="72" t="s">
-        <v>145</v>
-      </c>
-      <c r="D9" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="68">
         <v>27791</v>
       </c>
       <c r="F9" s="73" t="s">
-        <v>146</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="H9" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="H9" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="70" t="s">
-        <v>147</v>
+      <c r="I9" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="J9" s="70" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" s="75"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
+      <c r="A10" s="74"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
       <c r="I10" s="75"/>
+      <c r="J10" s="74"/>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" s="75"/>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
+      <c r="A11" s="74"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4655,43 +4697,43 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00960023-00C6-4EE4-9B31-00FA002C00BF}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00A80097-006C-4A8E-A41D-00E400D100E6}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>D3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{002B00DD-0024-489F-A7CE-002A002200DB}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00F70036-0094-4901-86AE-004D00CF00FC}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>D4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00C10083-00FF-4DB5-9AA5-00C80067003B}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{004C000B-006C-408D-BB7B-00B900760092}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>D5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00AE00D2-00E6-414A-A20F-000F0080002A}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00E600F7-0052-4766-A6EE-00C5007A00E1}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>D6</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{008C005C-00A2-4D9F-A20A-00E0003700FB}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00510039-0034-4FEC-A23A-00BA003A0080}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>D7</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{006A0077-005D-4300-8D36-00A0002C00DE}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{004E005B-00A4-47DA-BF5D-0047009B0041}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>D8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0035009B-0066-4253-AE28-00390067008F}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00270010-00C3-4840-8D19-00CB001B00F5}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
@@ -4722,48 +4764,48 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>148</v>
+      <c r="B1" s="5" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="2" ht="22.100000000000001" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="76" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" s="10" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A3" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A3" s="10" t="s">
         <v>105</v>
       </c>
       <c r="B3" s="77" t="str">
         <f>profiles!$A$10</f>
         <v>guardian</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" s="10" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A4" s="11" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A4" s="10" t="s">
         <v>102</v>
       </c>
       <c r="B4" s="77" t="str">
         <f>profiles!$A$9</f>
         <v>student</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" ht="14.25"/>
     <row r="6" ht="14.25"/>
@@ -4799,20 +4841,20 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>152</v>
+      <c r="C1" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="2" ht="24.350000000000001" customHeight="1">
@@ -4823,30 +4865,30 @@
         <v>25</v>
       </c>
       <c r="C2" s="80" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D2" s="76" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E2" s="67" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" s="10" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A3" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="B3" s="81" t="s">
-        <v>157</v>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A3" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>163</v>
       </c>
       <c r="C3" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="D3" s="82" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="83" t="s">
-        <v>159</v>
+      <c r="E3" s="77" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="4"/>
@@ -4858,7 +4900,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00720056-00EE-4319-A6C4-008300CB00E7}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00380045-00DF-40D3-ADBD-001A00A1004A}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GUARDIANS_RELATIONSHIPS</xm:f>
           </x14:formula1>
@@ -4888,11 +4930,11 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>148</v>
+      <c r="B1" s="5" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="2" ht="22.100000000000001" customHeight="1">
@@ -4900,11 +4942,11 @@
         <v>24</v>
       </c>
       <c r="B2" s="80" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" s="10" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A3" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A3" s="10" t="s">
         <v>96</v>
       </c>
       <c r="B3" s="77" t="str">
@@ -4912,8 +4954,8 @@
         <v>teacher</v>
       </c>
     </row>
-    <row r="4" s="10" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A4" s="11" t="s">
+    <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A4" s="10" t="s">
         <v>102</v>
       </c>
       <c r="B4" s="77" t="str">
@@ -4966,326 +5008,326 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="K1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="P1" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="Q1" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="6"/>
-      <c r="AK1" s="6"/>
-      <c r="AL1" s="6"/>
-      <c r="AM1" s="6"/>
-    </row>
-    <row r="2" s="10" customFormat="1" ht="23.600000000000001" customHeight="1">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="E2" s="84" t="s">
+      <c r="R1" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="F2" s="84"/>
-      <c r="G2" s="85" t="s">
+      <c r="S1" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="88" t="s">
+      <c r="T1" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="89" t="s">
+      <c r="U1" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="R2" s="90"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="91"/>
-      <c r="U2" s="92" t="s">
+      <c r="V1" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
+      <c r="W1" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="5"/>
+    </row>
+    <row r="2" s="9" customFormat="1" ht="23.600000000000001" customHeight="1">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="E2" s="82" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" s="82"/>
+      <c r="G2" s="83" t="s">
+        <v>187</v>
+      </c>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="86" t="s">
+        <v>188</v>
+      </c>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="87" t="s">
+        <v>189</v>
+      </c>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="90" t="s">
+        <v>190</v>
+      </c>
+      <c r="V2" s="91"/>
+      <c r="W2" s="91"/>
     </row>
     <row r="3" ht="34.100000000000001" customHeight="1">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="95" t="s">
-        <v>185</v>
-      </c>
-      <c r="D3" s="96" t="s">
+      <c r="C3" s="93" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" s="94" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="97" t="s">
-        <v>186</v>
-      </c>
-      <c r="F3" s="98" t="s">
-        <v>187</v>
-      </c>
-      <c r="G3" s="99" t="s">
-        <v>188</v>
-      </c>
-      <c r="H3" s="100" t="s">
-        <v>189</v>
-      </c>
-      <c r="I3" s="101" t="s">
-        <v>190</v>
-      </c>
-      <c r="J3" s="101" t="s">
-        <v>191</v>
-      </c>
-      <c r="K3" s="101" t="s">
+      <c r="E3" s="95" t="s">
         <v>192</v>
       </c>
-      <c r="L3" s="101" t="s">
+      <c r="F3" s="96" t="s">
         <v>193</v>
       </c>
-      <c r="M3" s="101" t="s">
+      <c r="G3" s="97" t="s">
         <v>194</v>
       </c>
-      <c r="N3" s="102" t="s">
+      <c r="H3" s="98" t="s">
         <v>195</v>
       </c>
-      <c r="O3" s="103" t="s">
-        <v>193</v>
-      </c>
-      <c r="P3" s="104" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q3" s="105" t="s">
+      <c r="I3" s="99" t="s">
         <v>196</v>
       </c>
-      <c r="R3" s="106" t="s">
+      <c r="J3" s="99" t="s">
         <v>197</v>
       </c>
-      <c r="S3" s="106" t="s">
-        <v>193</v>
-      </c>
-      <c r="T3" s="106" t="s">
-        <v>194</v>
-      </c>
-      <c r="U3" s="107" t="s">
-        <v>193</v>
-      </c>
-      <c r="V3" s="108" t="s">
+      <c r="K3" s="99" t="s">
         <v>198</v>
       </c>
-      <c r="W3" s="109" t="s">
+      <c r="L3" s="99" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="4" s="10" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A4" s="11" t="s">
+      <c r="M3" s="99" t="s">
         <v>200</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="N3" s="100" t="s">
         <v>201</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="O3" s="101" t="s">
+        <v>199</v>
+      </c>
+      <c r="P3" s="102" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q3" s="103" t="s">
         <v>202</v>
+      </c>
+      <c r="R3" s="104" t="s">
+        <v>203</v>
+      </c>
+      <c r="S3" s="104" t="s">
+        <v>199</v>
+      </c>
+      <c r="T3" s="104" t="s">
+        <v>200</v>
+      </c>
+      <c r="U3" s="105" t="s">
+        <v>199</v>
+      </c>
+      <c r="V3" s="106" t="s">
+        <v>204</v>
+      </c>
+      <c r="W3" s="107" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A4" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>208</v>
       </c>
       <c r="D4" s="77" t="str">
         <f>centers!$A$3</f>
         <v>centerA</v>
       </c>
-      <c r="E4" s="64" t="s">
+      <c r="E4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="64">
+      <c r="F4" s="63">
         <v>0</v>
       </c>
-      <c r="G4" s="64">
+      <c r="G4" s="63">
         <v>5</v>
       </c>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64" t="s">
+      <c r="H4" s="63"/>
+      <c r="I4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="110"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64" t="s">
+      <c r="J4" s="108"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="64"/>
-      <c r="P4" s="64" t="s">
+      <c r="O4" s="63"/>
+      <c r="P4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="64" t="s">
+      <c r="Q4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="64" t="s">
+      <c r="R4" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="S4" s="64">
+      <c r="S4" s="63">
         <v>3</v>
       </c>
-      <c r="T4" s="64" t="s">
+      <c r="T4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="64">
+      <c r="U4" s="63">
         <v>3</v>
       </c>
-      <c r="V4" s="64" t="s">
+      <c r="V4" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="W4" s="64" t="s">
+      <c r="W4" s="63" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" s="10" customFormat="1" ht="28.5">
-      <c r="A5" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>205</v>
+    <row r="5" s="9" customFormat="1" ht="28.5">
+      <c r="A5" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>211</v>
       </c>
       <c r="D5" s="77" t="str">
         <f>centers!$A$4</f>
         <v>centerB</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="64">
+      <c r="F5" s="63">
         <v>240</v>
       </c>
-      <c r="G5" s="64">
+      <c r="G5" s="63">
         <v>4</v>
       </c>
-      <c r="H5" s="64">
+      <c r="H5" s="63">
         <v>60</v>
       </c>
-      <c r="I5" s="64" t="s">
+      <c r="I5" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="110" t="s">
-        <v>206</v>
-      </c>
-      <c r="K5" s="64" t="s">
+      <c r="J5" s="108" t="s">
+        <v>212</v>
+      </c>
+      <c r="K5" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="64">
+      <c r="L5" s="63">
         <v>4</v>
       </c>
-      <c r="M5" s="64" t="s">
+      <c r="M5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="64" t="s">
+      <c r="N5" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="64">
+      <c r="O5" s="63">
         <v>4</v>
       </c>
-      <c r="P5" s="64" t="s">
+      <c r="P5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="64" t="s">
+      <c r="Q5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="R5" s="64" t="s">
+      <c r="R5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="S5" s="64">
+      <c r="S5" s="63">
         <v>3</v>
       </c>
-      <c r="T5" s="64" t="s">
+      <c r="T5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="U5" s="64">
+      <c r="U5" s="63">
         <v>3</v>
       </c>
-      <c r="V5" s="64" t="s">
+      <c r="V5" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="W5" s="64" t="s">
+      <c r="W5" s="63" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5304,79 +5346,79 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="13" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00E900D4-00A8-40B4-B779-001D00C90029}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{008800EA-003A-458B-9009-0001005C0036}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>W4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00B800C1-00A2-4288-AE97-0085004D005C}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00AF004B-0020-42E1-BBE8-0073002E0021}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>W5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00270020-00CB-4143-B45F-00A0008A0095}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00D100C5-0034-47C7-8B73-005A009400F4}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>V4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00EB0027-0096-4957-81D5-0000009E003D}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00A10011-00A3-42ED-A70E-009400F10083}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>V5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00290025-0075-43E6-AF73-001400DB00EA}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{000A004B-006A-4DA1-ACAE-00EF00E70004}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>T4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{000F0045-006A-416A-A306-00390010006A}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{001F00BE-00DC-4C03-880B-00B300790018}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>T5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{008100D4-0058-4CCC-A872-005000AC007A}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00C700FE-00D0-45F3-AF8C-003600620031}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>R4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00880097-00D0-44F3-AB9F-000E00FB008E}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00C00004-0084-4A29-AAA7-00FC004B00B6}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>E4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00DF0061-0035-46AB-B943-0057003900E1}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{003D00FC-0071-4C28-9C95-00F800EB0078}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>E5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00B80055-0011-477B-B700-00C1007F0075}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00200021-00AF-47F5-84E6-008000B90045}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>I4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{007500E3-00FA-4BE3-9FA6-0006003A00A8}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00D4008E-0021-4D20-BE40-006D00C90085}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>I5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00FE0099-0031-4581-B0A6-0054000100E4}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{0047002F-002F-4809-B954-004F00FE00A3}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>SUBSTAGES_FRECUENCY</xm:f>
           </x14:formula1>
           <xm:sqref>K4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00F6002E-00E4-40D6-89C4-00ED00F20019}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{007E004D-0083-4EAE-BFEB-000200A4002F}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>SUBSTAGES_FRECUENCY</xm:f>
           </x14:formula1>
@@ -5408,90 +5450,90 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>209</v>
+      <c r="C1" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="2" ht="28.5">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="96" t="s">
-        <v>210</v>
-      </c>
-      <c r="D2" s="111" t="s">
-        <v>187</v>
-      </c>
-      <c r="E2" s="111" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="3" s="10" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A3" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>213</v>
+      <c r="C2" s="94" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2" s="109" t="s">
+        <v>193</v>
+      </c>
+      <c r="E2" s="109" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A3" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>219</v>
       </c>
       <c r="C3" s="77" t="str">
         <f>ap_programs!$A$4</f>
         <v>programA</v>
       </c>
-      <c r="D3" s="64">
+      <c r="D3" s="63">
         <v>0</v>
       </c>
-      <c r="E3" s="64" t="s">
+      <c r="E3" s="63" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" s="10" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A4" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>213</v>
+    <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A4" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>219</v>
       </c>
       <c r="C4" s="77" t="str">
         <f>ap_programs!$A$5</f>
         <v>programB</v>
       </c>
-      <c r="D4" s="64">
+      <c r="D4" s="63">
         <v>0</v>
       </c>
-      <c r="E4" s="64" t="s">
+      <c r="E4" s="63" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" ht="19.5" customHeight="1">
-      <c r="A5" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>216</v>
+      <c r="A5" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>222</v>
       </c>
       <c r="C5" s="77" t="str">
         <f>ap_programs!$A$4</f>
         <v>programA</v>
       </c>
-      <c r="D5" s="64">
+      <c r="D5" s="63">
         <v>0</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="63" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5503,19 +5545,19 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3" disablePrompts="0">
-        <x14:dataValidation xr:uid="{007A00DA-00BC-4841-9B45-008900D5007F}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{006A006A-0051-42B6-AA56-007A001E00A1}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>E3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00D8007B-0097-4FB4-B12A-00D900A10076}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{009D00FD-0086-4E39-ABE7-00BB0076001C}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>E4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00EC004C-00D4-487B-BA10-007900AB00F7}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00670044-0060-452D-9C0A-0074003C0013}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>

--- a/packages/leemons-plugin-mvp-template/src/bulk/data.xlsx
+++ b/packages/leemons-plugin-mvp-template/src/bulk/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" state="visible" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="287">
   <si>
     <t xml:space="preserve">Substages frecuency</t>
   </si>
@@ -746,6 +746,9 @@
     <t>course</t>
   </si>
   <si>
+    <t>seats</t>
+  </si>
+  <si>
     <t>internalId</t>
   </si>
   <si>
@@ -765,6 +768,9 @@
   </si>
   <si>
     <t>Course</t>
+  </si>
+  <si>
+    <t>Seats</t>
   </si>
   <si>
     <t>Credits</t>
@@ -2525,7 +2531,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0" zoomScale="100">
+    <sheetView showGridLines="0" topLeftCell="A1" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A4" ySplit="3"/>
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
@@ -2535,13 +2541,13 @@
     <col customWidth="1" min="1" max="1" width="12.8515625"/>
     <col customWidth="1" min="2" max="2" width="18.421875"/>
     <col customWidth="1" min="3" max="3" width="12.8515625"/>
-    <col customWidth="1" min="6" max="6" width="10.421875"/>
-    <col customWidth="1" min="7" max="7" width="13.00390625"/>
-    <col customWidth="1" min="8" max="8" width="10.8515625"/>
-    <col customWidth="1" min="9" max="9" width="11.8515625"/>
-    <col customWidth="1" min="10" max="10" width="10.140625"/>
-    <col customWidth="1" min="11" max="11" width="23.28125"/>
-    <col customWidth="1" min="12" max="12" width="3.57421875"/>
+    <col customWidth="1" min="7" max="7" width="10.421875"/>
+    <col customWidth="1" min="8" max="8" width="13.00390625"/>
+    <col customWidth="1" min="9" max="9" width="10.8515625"/>
+    <col customWidth="1" min="10" max="10" width="11.8515625"/>
+    <col customWidth="1" min="11" max="11" width="10.140625"/>
+    <col customWidth="1" min="12" max="12" width="23.28125"/>
+    <col customWidth="1" min="13" max="13" width="3.57421875"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
@@ -2558,27 +2564,30 @@
         <v>237</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>168</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>238</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>239</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>223</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>240</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="K1" s="115" t="s">
+      <c r="K1" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="L1" s="74"/>
+      <c r="L1" s="115" t="s">
+        <v>243</v>
+      </c>
+      <c r="M1" s="74"/>
     </row>
     <row r="2" ht="28.850000000000001" customHeight="1">
       <c r="A2" s="5"/>
@@ -2587,14 +2596,15 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="H2" s="1"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="1" t="s">
+        <v>244</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="74"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="74"/>
     </row>
     <row r="3" ht="31.850000000000001" customHeight="1">
       <c r="A3" s="110" t="s">
@@ -2607,38 +2617,41 @@
         <v>216</v>
       </c>
       <c r="D3" s="93" t="s">
-        <v>244</v>
-      </c>
-      <c r="E3" s="93" t="s">
         <v>245</v>
       </c>
+      <c r="E3" s="111" t="s">
+        <v>246</v>
+      </c>
       <c r="F3" s="93" t="s">
-        <v>246</v>
-      </c>
-      <c r="G3" s="116" t="s">
         <v>247</v>
       </c>
-      <c r="H3" s="117" t="s">
+      <c r="G3" s="93" t="s">
+        <v>248</v>
+      </c>
+      <c r="H3" s="116" t="s">
+        <v>249</v>
+      </c>
+      <c r="I3" s="117" t="s">
         <v>225</v>
       </c>
-      <c r="I3" s="117" t="s">
-        <v>248</v>
-      </c>
-      <c r="J3" s="118" t="s">
-        <v>249</v>
-      </c>
-      <c r="K3" s="112" t="s">
+      <c r="J3" s="117" t="s">
         <v>250</v>
       </c>
-      <c r="L3" s="119"/>
+      <c r="K3" s="118" t="s">
+        <v>251</v>
+      </c>
+      <c r="L3" s="112" t="s">
+        <v>252</v>
+      </c>
+      <c r="M3" s="119"/>
     </row>
     <row r="4" s="9" customFormat="1" ht="30" customHeight="1">
       <c r="A4" s="10" t="str">
-        <f t="shared" ref="A4:A9" si="0">_xlfn.CONCAT("subject",IF(L4&lt;10,"0",""),L4)</f>
+        <f>_xlfn.CONCAT("subject",IF(M4&lt;10,"0",""),M4)</f>
         <v>subject01</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C4" s="77" t="str">
         <f>ap_programs!A4</f>
@@ -2647,823 +2660,884 @@
       <c r="D4" s="63">
         <v>1</v>
       </c>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63" t="str">
-        <f t="shared" ref="F4:F9" si="1">_xlfn.CONCAT("0",IF(L4&lt;10,"0",""),L4)</f>
+      <c r="E4" s="63">
+        <v>20</v>
+      </c>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63" t="str">
+        <f>_xlfn.CONCAT("0",IF(M4&lt;10,"0",""),M4)</f>
         <v>001</v>
       </c>
-      <c r="G4" s="120" t="s">
-        <v>252</v>
-      </c>
-      <c r="H4" s="121" t="s">
-        <v>253</v>
-      </c>
-      <c r="I4" s="63"/>
-      <c r="J4" s="122" t="str">
+      <c r="H4" s="120" t="s">
+        <v>254</v>
+      </c>
+      <c r="I4" s="121" t="s">
+        <v>255</v>
+      </c>
+      <c r="J4" s="63"/>
+      <c r="K4" s="122" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K4" s="123" t="s">
-        <v>254</v>
-      </c>
-      <c r="L4" s="124">
+      <c r="L4" s="123" t="s">
+        <v>256</v>
+      </c>
+      <c r="M4" s="124">
         <v>1</v>
       </c>
-      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
     </row>
     <row r="5" s="9" customFormat="1" ht="30" customHeight="1">
       <c r="A5" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT("subject",IF(M5&lt;10,"0",""),M5)</f>
         <v>subject02</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C5" s="77" t="str">
-        <f t="shared" ref="C5:C10" si="2">C4</f>
+        <f t="shared" ref="C5:C10" si="0">C4</f>
         <v>programA</v>
       </c>
       <c r="D5" s="63">
         <v>1</v>
       </c>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63" t="str">
-        <f t="shared" si="1"/>
+      <c r="E5" s="63">
+        <v>20</v>
+      </c>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63" t="str">
+        <f>_xlfn.CONCAT("0",IF(M5&lt;10,"0",""),M5)</f>
         <v>002</v>
       </c>
-      <c r="G5" s="120" t="str">
-        <f t="shared" ref="G5:G10" si="3">G4</f>
+      <c r="H5" s="120" t="str">
+        <f>H4</f>
         <v xml:space="preserve">Group A|G1A, Group B|G1B</v>
       </c>
-      <c r="H5" s="121" t="str">
-        <f t="shared" ref="H5:H10" si="4">H4</f>
+      <c r="I5" s="121" t="str">
+        <f>I4</f>
         <v>#FFEB9C</v>
       </c>
-      <c r="I5" s="63"/>
-      <c r="J5" s="122" t="str">
+      <c r="J5" s="63"/>
+      <c r="K5" s="122" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K5" s="123" t="str">
-        <f t="shared" ref="K5:K10" si="5">K4</f>
+      <c r="L5" s="123" t="str">
+        <f>L4</f>
         <v xml:space="preserve">teacher01|main@G1A, teacher01|main@G1B</v>
       </c>
-      <c r="L5" s="124">
-        <f t="shared" ref="L5:L10" si="6">L4+1</f>
+      <c r="M5" s="124">
+        <f>M4+1</f>
         <v>2</v>
       </c>
-      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
     </row>
     <row r="6" s="9" customFormat="1" ht="30" customHeight="1">
       <c r="A6" s="10" t="str">
+        <f>_xlfn.CONCAT("subject",IF(M6&lt;10,"0",""),M6)</f>
+        <v>subject03</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="C6" s="77" t="str">
         <f t="shared" si="0"/>
-        <v>subject03</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="C6" s="77" t="str">
-        <f t="shared" si="2"/>
         <v>programA</v>
       </c>
       <c r="D6" s="63">
         <v>1</v>
       </c>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63" t="str">
-        <f t="shared" si="1"/>
+      <c r="E6" s="63">
+        <v>20</v>
+      </c>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63" t="str">
+        <f>_xlfn.CONCAT("0",IF(M6&lt;10,"0",""),M6)</f>
         <v>003</v>
       </c>
-      <c r="G6" s="120" t="str">
-        <f t="shared" si="3"/>
+      <c r="H6" s="120" t="str">
+        <f>H5</f>
         <v xml:space="preserve">Group A|G1A, Group B|G1B</v>
       </c>
-      <c r="H6" s="121" t="str">
-        <f t="shared" si="4"/>
+      <c r="I6" s="121" t="str">
+        <f>I5</f>
         <v>#FFEB9C</v>
       </c>
-      <c r="I6" s="63"/>
-      <c r="J6" s="122" t="str">
+      <c r="J6" s="63"/>
+      <c r="K6" s="122" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K6" s="123" t="str">
-        <f t="shared" si="5"/>
+      <c r="L6" s="123" t="str">
+        <f>L5</f>
         <v xml:space="preserve">teacher01|main@G1A, teacher01|main@G1B</v>
       </c>
-      <c r="L6" s="124">
-        <f t="shared" si="6"/>
+      <c r="M6" s="124">
+        <f>M5+1</f>
         <v>3</v>
       </c>
-      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
     </row>
     <row r="7" s="9" customFormat="1" ht="30" customHeight="1">
       <c r="A7" s="10" t="str">
+        <f>_xlfn.CONCAT("subject",IF(M7&lt;10,"0",""),M7)</f>
+        <v>subject04</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C7" s="77" t="str">
         <f t="shared" si="0"/>
-        <v>subject04</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="C7" s="77" t="str">
-        <f t="shared" si="2"/>
         <v>programA</v>
       </c>
       <c r="D7" s="63">
         <v>1</v>
       </c>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63" t="str">
-        <f t="shared" si="1"/>
+      <c r="E7" s="63">
+        <v>20</v>
+      </c>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63" t="str">
+        <f>_xlfn.CONCAT("0",IF(M7&lt;10,"0",""),M7)</f>
         <v>004</v>
       </c>
-      <c r="G7" s="120" t="str">
-        <f t="shared" si="3"/>
+      <c r="H7" s="120" t="str">
+        <f>H6</f>
         <v xml:space="preserve">Group A|G1A, Group B|G1B</v>
       </c>
-      <c r="H7" s="121" t="str">
-        <f t="shared" si="4"/>
+      <c r="I7" s="121" t="str">
+        <f>I6</f>
         <v>#FFEB9C</v>
       </c>
-      <c r="I7" s="63"/>
-      <c r="J7" s="122" t="str">
+      <c r="J7" s="63"/>
+      <c r="K7" s="122" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="K7" s="123" t="str">
-        <f t="shared" si="5"/>
+      <c r="L7" s="123" t="str">
+        <f>L6</f>
         <v xml:space="preserve">teacher01|main@G1A, teacher01|main@G1B</v>
       </c>
-      <c r="L7" s="124">
-        <f t="shared" si="6"/>
+      <c r="M7" s="124">
+        <f>M6+1</f>
         <v>4</v>
       </c>
-      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
     </row>
     <row r="8" ht="30" customHeight="1">
       <c r="A8" s="10" t="str">
+        <f>_xlfn.CONCAT("subject",IF(M8&lt;10,"0",""),M8)</f>
+        <v>subject05</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="C8" s="77" t="str">
         <f t="shared" si="0"/>
-        <v>subject05</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="C8" s="77" t="str">
-        <f t="shared" si="2"/>
         <v>programA</v>
       </c>
       <c r="D8" s="63">
         <v>2</v>
       </c>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63" t="str">
-        <f t="shared" si="1"/>
+      <c r="E8" s="63">
+        <v>20</v>
+      </c>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63" t="str">
+        <f>_xlfn.CONCAT("0",IF(M8&lt;10,"0",""),M8)</f>
         <v>005</v>
       </c>
-      <c r="G8" s="120" t="s">
-        <v>259</v>
-      </c>
-      <c r="H8" s="121" t="str">
-        <f t="shared" si="4"/>
+      <c r="H8" s="120" t="s">
+        <v>261</v>
+      </c>
+      <c r="I8" s="121" t="str">
+        <f>I7</f>
         <v>#FFEB9C</v>
       </c>
-      <c r="I8" s="63"/>
-      <c r="J8" s="122" t="str">
+      <c r="J8" s="63"/>
+      <c r="K8" s="122" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K8" s="123" t="s">
-        <v>260</v>
-      </c>
-      <c r="L8" s="124">
-        <f t="shared" si="6"/>
+      <c r="L8" s="123" t="s">
+        <v>262</v>
+      </c>
+      <c r="M8" s="124">
+        <f>M7+1</f>
         <v>5</v>
       </c>
     </row>
     <row r="9" ht="30" customHeight="1">
       <c r="A9" s="10" t="str">
+        <f>_xlfn.CONCAT("subject",IF(M9&lt;10,"0",""),M9)</f>
+        <v>subject06</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="C9" s="77" t="str">
         <f t="shared" si="0"/>
-        <v>subject06</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="C9" s="77" t="str">
-        <f t="shared" si="2"/>
         <v>programA</v>
       </c>
       <c r="D9" s="63">
         <v>2</v>
       </c>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63" t="str">
-        <f t="shared" si="1"/>
+      <c r="E9" s="63">
+        <v>20</v>
+      </c>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63" t="str">
+        <f>_xlfn.CONCAT("0",IF(M9&lt;10,"0",""),M9)</f>
         <v>006</v>
       </c>
-      <c r="G9" s="120" t="str">
-        <f t="shared" si="3"/>
+      <c r="H9" s="120" t="str">
+        <f>H8</f>
         <v xml:space="preserve">Group A|G2A, Group B|G2B</v>
       </c>
-      <c r="H9" s="121" t="s">
-        <v>262</v>
-      </c>
-      <c r="I9" s="63"/>
-      <c r="J9" s="122" t="str">
+      <c r="I9" s="121" t="s">
+        <v>264</v>
+      </c>
+      <c r="J9" s="63"/>
+      <c r="K9" s="122" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K9" s="123" t="str">
-        <f t="shared" si="5"/>
+      <c r="L9" s="123" t="str">
+        <f>L8</f>
         <v xml:space="preserve">teacher01|main@G2A, teacher01|main@G2B</v>
       </c>
-      <c r="L9" s="124">
-        <f t="shared" si="6"/>
+      <c r="M9" s="124">
+        <f>M8+1</f>
         <v>6</v>
       </c>
     </row>
     <row r="10" ht="30" customHeight="1">
       <c r="A10" s="10" t="str">
-        <f t="shared" ref="A10:A23" si="7">_xlfn.CONCAT("subject",IF(L10&lt;10,"0",""),L10)</f>
+        <f>_xlfn.CONCAT("subject",IF(M10&lt;10,"0",""),M10)</f>
         <v>subject07</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C10" s="77" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>programA</v>
       </c>
       <c r="D10" s="63">
         <v>2</v>
       </c>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63" t="str">
-        <f t="shared" ref="F10:F23" si="8">_xlfn.CONCAT("0",IF(L10&lt;10,"0",""),L10)</f>
+      <c r="E10" s="63">
+        <v>20</v>
+      </c>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63" t="str">
+        <f>_xlfn.CONCAT("0",IF(M10&lt;10,"0",""),M10)</f>
         <v>007</v>
       </c>
-      <c r="G10" s="120" t="str">
-        <f t="shared" si="3"/>
+      <c r="H10" s="120" t="str">
+        <f>H9</f>
         <v xml:space="preserve">Group A|G2A, Group B|G2B</v>
       </c>
-      <c r="H10" s="121" t="str">
-        <f t="shared" si="4"/>
+      <c r="I10" s="121" t="str">
+        <f>I9</f>
         <v>#FFC7CE</v>
       </c>
-      <c r="I10" s="63"/>
-      <c r="J10" s="122" t="str">
+      <c r="J10" s="63"/>
+      <c r="K10" s="122" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K10" s="123" t="str">
-        <f t="shared" si="5"/>
+      <c r="L10" s="123" t="str">
+        <f>L9</f>
         <v xml:space="preserve">teacher01|main@G2A, teacher01|main@G2B</v>
       </c>
-      <c r="L10" s="124">
-        <f t="shared" si="6"/>
+      <c r="M10" s="124">
+        <f>M9+1</f>
         <v>7</v>
       </c>
     </row>
     <row r="11" ht="30" customHeight="1">
       <c r="A11" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f>_xlfn.CONCAT("subject",IF(M11&lt;10,"0",""),M11)</f>
         <v>subject08</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C11" s="77" t="str">
-        <f t="shared" ref="C11:C23" si="9">C10</f>
+        <f t="shared" ref="C11:C23" si="1">C10</f>
         <v>programA</v>
       </c>
       <c r="D11" s="63">
         <v>2</v>
       </c>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63" t="str">
-        <f t="shared" si="8"/>
+      <c r="E11" s="63">
+        <v>20</v>
+      </c>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63" t="str">
+        <f>_xlfn.CONCAT("0",IF(M11&lt;10,"0",""),M11)</f>
         <v>008</v>
       </c>
-      <c r="G11" s="120" t="str">
-        <f>G10</f>
+      <c r="H11" s="120" t="str">
+        <f>H10</f>
         <v xml:space="preserve">Group A|G2A, Group B|G2B</v>
       </c>
-      <c r="H11" s="121" t="str">
-        <f t="shared" ref="H11:H18" si="10">H10</f>
+      <c r="I11" s="121" t="str">
+        <f>I10</f>
         <v>#FFC7CE</v>
       </c>
-      <c r="I11" s="63"/>
-      <c r="J11" s="122" t="str">
+      <c r="J11" s="63"/>
+      <c r="K11" s="122" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="K11" s="123" t="str">
-        <f>K10</f>
+      <c r="L11" s="123" t="str">
+        <f>L10</f>
         <v xml:space="preserve">teacher01|main@G2A, teacher01|main@G2B</v>
       </c>
-      <c r="L11" s="124">
-        <f t="shared" ref="L11:L23" si="11">L10+1</f>
+      <c r="M11" s="124">
+        <f>M10+1</f>
         <v>8</v>
       </c>
     </row>
     <row r="12" ht="30" customHeight="1">
       <c r="A12" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f>_xlfn.CONCAT("subject",IF(M12&lt;10,"0",""),M12)</f>
         <v>subject09</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C12" s="77" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>programA</v>
       </c>
       <c r="D12" s="63">
         <v>3</v>
       </c>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63" t="str">
-        <f t="shared" si="8"/>
+      <c r="E12" s="63">
+        <v>20</v>
+      </c>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63" t="str">
+        <f>_xlfn.CONCAT("0",IF(M12&lt;10,"0",""),M12)</f>
         <v>009</v>
       </c>
-      <c r="G12" s="120" t="s">
-        <v>266</v>
-      </c>
-      <c r="H12" s="121" t="str">
-        <f t="shared" si="10"/>
+      <c r="H12" s="120" t="s">
+        <v>268</v>
+      </c>
+      <c r="I12" s="121" t="str">
+        <f>I11</f>
         <v>#FFC7CE</v>
       </c>
-      <c r="I12" s="63"/>
-      <c r="J12" s="122" t="str">
+      <c r="J12" s="63"/>
+      <c r="K12" s="122" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K12" s="123" t="s">
-        <v>267</v>
-      </c>
-      <c r="L12" s="124">
-        <f t="shared" si="11"/>
+      <c r="L12" s="123" t="s">
+        <v>269</v>
+      </c>
+      <c r="M12" s="124">
+        <f>M11+1</f>
         <v>9</v>
       </c>
     </row>
     <row r="13" ht="30" customHeight="1">
       <c r="A13" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f>_xlfn.CONCAT("subject",IF(M13&lt;10,"0",""),M13)</f>
         <v>subject10</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C13" s="77" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>programA</v>
       </c>
       <c r="D13" s="63">
         <v>3</v>
       </c>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63" t="str">
-        <f t="shared" si="8"/>
+      <c r="E13" s="63">
+        <v>20</v>
+      </c>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63" t="str">
+        <f>_xlfn.CONCAT("0",IF(M13&lt;10,"0",""),M13)</f>
         <v>010</v>
       </c>
-      <c r="G13" s="120" t="str">
-        <f t="shared" ref="G13:G23" si="12">G12</f>
+      <c r="H13" s="120" t="str">
+        <f>H12</f>
         <v xml:space="preserve">Group A|G3A, Group B|G3B</v>
       </c>
-      <c r="H13" s="121" t="str">
-        <f t="shared" si="10"/>
+      <c r="I13" s="121" t="str">
+        <f>I12</f>
         <v>#FFC7CE</v>
       </c>
-      <c r="I13" s="63"/>
-      <c r="J13" s="122" t="str">
+      <c r="J13" s="63"/>
+      <c r="K13" s="122" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K13" s="123" t="str">
-        <f t="shared" ref="K13:K23" si="13">K12</f>
+      <c r="L13" s="123" t="str">
+        <f>L12</f>
         <v xml:space="preserve">teacher01|main@G3A, teacher01|main@G3B</v>
       </c>
-      <c r="L13" s="124">
-        <f t="shared" si="11"/>
+      <c r="M13" s="124">
+        <f>M12+1</f>
         <v>10</v>
       </c>
     </row>
     <row r="14" ht="30" customHeight="1">
       <c r="A14" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f>_xlfn.CONCAT("subject",IF(M14&lt;10,"0",""),M14)</f>
         <v>subject11</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C14" s="77" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>programA</v>
       </c>
       <c r="D14" s="63">
         <v>3</v>
       </c>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63" t="str">
-        <f t="shared" si="8"/>
+      <c r="E14" s="63">
+        <v>20</v>
+      </c>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63" t="str">
+        <f>_xlfn.CONCAT("0",IF(M14&lt;10,"0",""),M14)</f>
         <v>011</v>
       </c>
-      <c r="G14" s="120" t="str">
-        <f t="shared" si="12"/>
+      <c r="H14" s="120" t="str">
+        <f>H13</f>
         <v xml:space="preserve">Group A|G3A, Group B|G3B</v>
       </c>
-      <c r="H14" s="121" t="s">
-        <v>270</v>
-      </c>
-      <c r="I14" s="63"/>
-      <c r="J14" s="122" t="str">
+      <c r="I14" s="121" t="s">
+        <v>272</v>
+      </c>
+      <c r="J14" s="63"/>
+      <c r="K14" s="122" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K14" s="123" t="str">
-        <f t="shared" si="13"/>
+      <c r="L14" s="123" t="str">
+        <f>L13</f>
         <v xml:space="preserve">teacher01|main@G3A, teacher01|main@G3B</v>
       </c>
-      <c r="L14" s="124">
-        <f t="shared" si="11"/>
+      <c r="M14" s="124">
+        <f>M13+1</f>
         <v>11</v>
       </c>
     </row>
     <row r="15" ht="30" customHeight="1">
       <c r="A15" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f>_xlfn.CONCAT("subject",IF(M15&lt;10,"0",""),M15)</f>
         <v>subject12</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C15" s="77" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>programA</v>
       </c>
       <c r="D15" s="63">
         <v>3</v>
       </c>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63" t="str">
-        <f t="shared" si="8"/>
+      <c r="E15" s="63">
+        <v>20</v>
+      </c>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63" t="str">
+        <f>_xlfn.CONCAT("0",IF(M15&lt;10,"0",""),M15)</f>
         <v>012</v>
       </c>
-      <c r="G15" s="120" t="str">
-        <f t="shared" si="12"/>
+      <c r="H15" s="120" t="str">
+        <f>H14</f>
         <v xml:space="preserve">Group A|G3A, Group B|G3B</v>
       </c>
-      <c r="H15" s="121" t="str">
-        <f t="shared" si="10"/>
+      <c r="I15" s="121" t="str">
+        <f>I14</f>
         <v>#C6EFCD</v>
       </c>
-      <c r="I15" s="63"/>
-      <c r="J15" s="122" t="str">
+      <c r="J15" s="63"/>
+      <c r="K15" s="122" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="K15" s="123" t="str">
-        <f t="shared" si="13"/>
+      <c r="L15" s="123" t="str">
+        <f>L14</f>
         <v xml:space="preserve">teacher01|main@G3A, teacher01|main@G3B</v>
       </c>
-      <c r="L15" s="124">
-        <f t="shared" si="11"/>
+      <c r="M15" s="124">
+        <f>M14+1</f>
         <v>12</v>
       </c>
     </row>
     <row r="16" ht="30" customHeight="1">
       <c r="A16" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f>_xlfn.CONCAT("subject",IF(M16&lt;10,"0",""),M16)</f>
         <v>subject13</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C16" s="77" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>programA</v>
       </c>
       <c r="D16" s="63">
         <v>4</v>
       </c>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63" t="str">
-        <f t="shared" si="8"/>
+      <c r="E16" s="63">
+        <v>20</v>
+      </c>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63" t="str">
+        <f>_xlfn.CONCAT("0",IF(M16&lt;10,"0",""),M16)</f>
         <v>013</v>
       </c>
-      <c r="G16" s="120" t="s">
-        <v>273</v>
-      </c>
-      <c r="H16" s="121" t="str">
-        <f t="shared" si="10"/>
+      <c r="H16" s="120" t="s">
+        <v>275</v>
+      </c>
+      <c r="I16" s="121" t="str">
+        <f>I15</f>
         <v>#C6EFCD</v>
       </c>
-      <c r="I16" s="63"/>
-      <c r="J16" s="122" t="str">
+      <c r="J16" s="63"/>
+      <c r="K16" s="122" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K16" s="123" t="s">
-        <v>274</v>
-      </c>
-      <c r="L16" s="124">
-        <f t="shared" si="11"/>
+      <c r="L16" s="123" t="s">
+        <v>276</v>
+      </c>
+      <c r="M16" s="124">
+        <f>M15+1</f>
         <v>13</v>
       </c>
     </row>
     <row r="17" ht="30" customHeight="1">
       <c r="A17" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f>_xlfn.CONCAT("subject",IF(M17&lt;10,"0",""),M17)</f>
         <v>subject14</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C17" s="77" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>programA</v>
       </c>
       <c r="D17" s="63">
         <v>4</v>
       </c>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63" t="str">
-        <f t="shared" si="8"/>
+      <c r="E17" s="63">
+        <v>20</v>
+      </c>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63" t="str">
+        <f>_xlfn.CONCAT("0",IF(M17&lt;10,"0",""),M17)</f>
         <v>014</v>
       </c>
-      <c r="G17" s="120" t="str">
-        <f t="shared" si="12"/>
+      <c r="H17" s="120" t="str">
+        <f>H16</f>
         <v xml:space="preserve">Group A|G4A, Group B|G4B</v>
       </c>
-      <c r="H17" s="121" t="str">
-        <f t="shared" si="10"/>
+      <c r="I17" s="121" t="str">
+        <f>I16</f>
         <v>#C6EFCD</v>
       </c>
-      <c r="I17" s="63"/>
-      <c r="J17" s="122" t="str">
+      <c r="J17" s="63"/>
+      <c r="K17" s="122" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K17" s="123" t="str">
-        <f t="shared" si="13"/>
+      <c r="L17" s="123" t="str">
+        <f>L16</f>
         <v xml:space="preserve">teacher01|main@G4A, teacher01|main@G4B</v>
       </c>
-      <c r="L17" s="124">
-        <f t="shared" si="11"/>
+      <c r="M17" s="124">
+        <f>M16+1</f>
         <v>14</v>
       </c>
     </row>
     <row r="18" ht="30" customHeight="1">
       <c r="A18" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f>_xlfn.CONCAT("subject",IF(M18&lt;10,"0",""),M18)</f>
         <v>subject15</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C18" s="77" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>programA</v>
       </c>
       <c r="D18" s="63">
         <v>4</v>
       </c>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63" t="str">
-        <f t="shared" si="8"/>
+      <c r="E18" s="63">
+        <v>20</v>
+      </c>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63" t="str">
+        <f>_xlfn.CONCAT("0",IF(M18&lt;10,"0",""),M18)</f>
         <v>015</v>
       </c>
-      <c r="G18" s="120" t="str">
-        <f t="shared" si="12"/>
+      <c r="H18" s="120" t="str">
+        <f>H17</f>
         <v xml:space="preserve">Group A|G4A, Group B|G4B</v>
       </c>
-      <c r="H18" s="121" t="str">
-        <f t="shared" si="10"/>
+      <c r="I18" s="121" t="str">
+        <f>I17</f>
         <v>#C6EFCD</v>
       </c>
-      <c r="I18" s="63"/>
-      <c r="J18" s="122" t="str">
+      <c r="J18" s="63"/>
+      <c r="K18" s="122" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K18" s="123" t="str">
-        <f t="shared" si="13"/>
+      <c r="L18" s="123" t="str">
+        <f>L17</f>
         <v xml:space="preserve">teacher01|main@G4A, teacher01|main@G4B</v>
       </c>
-      <c r="L18" s="124">
-        <f t="shared" si="11"/>
+      <c r="M18" s="124">
+        <f>M17+1</f>
         <v>15</v>
       </c>
     </row>
     <row r="19" ht="30" customHeight="1">
       <c r="A19" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f>_xlfn.CONCAT("subject",IF(M19&lt;10,"0",""),M19)</f>
         <v>subject16</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C19" s="77" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>programA</v>
       </c>
       <c r="D19" s="63">
         <v>4</v>
       </c>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63" t="str">
-        <f t="shared" si="8"/>
+      <c r="E19" s="63">
+        <v>20</v>
+      </c>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63" t="str">
+        <f>_xlfn.CONCAT("0",IF(M19&lt;10,"0",""),M19)</f>
         <v>016</v>
       </c>
-      <c r="G19" s="120" t="str">
-        <f t="shared" si="12"/>
+      <c r="H19" s="120" t="str">
+        <f>H18</f>
         <v xml:space="preserve">Group A|G4A, Group B|G4B</v>
       </c>
-      <c r="H19" s="121" t="s">
-        <v>278</v>
-      </c>
-      <c r="I19" s="63"/>
-      <c r="J19" s="122" t="str">
+      <c r="I19" s="121" t="s">
+        <v>280</v>
+      </c>
+      <c r="J19" s="63"/>
+      <c r="K19" s="122" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="K19" s="123" t="str">
-        <f t="shared" si="13"/>
+      <c r="L19" s="123" t="str">
+        <f>L18</f>
         <v xml:space="preserve">teacher01|main@G4A, teacher01|main@G4B</v>
       </c>
-      <c r="L19" s="124">
-        <f t="shared" si="11"/>
+      <c r="M19" s="124">
+        <f>M18+1</f>
         <v>16</v>
       </c>
     </row>
     <row r="20" ht="30" customHeight="1">
       <c r="A20" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f>_xlfn.CONCAT("subject",IF(M20&lt;10,"0",""),M20)</f>
         <v>subject17</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C20" s="77" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>programA</v>
       </c>
       <c r="D20" s="63">
         <v>5</v>
       </c>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63" t="str">
-        <f t="shared" si="8"/>
+      <c r="E20" s="63">
+        <v>20</v>
+      </c>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63" t="str">
+        <f>_xlfn.CONCAT("0",IF(M20&lt;10,"0",""),M20)</f>
         <v>017</v>
       </c>
-      <c r="G20" s="120" t="s">
+      <c r="H20" s="120" t="s">
+        <v>282</v>
+      </c>
+      <c r="I20" s="121" t="s">
         <v>280</v>
       </c>
-      <c r="H20" s="121" t="s">
-        <v>278</v>
-      </c>
-      <c r="I20" s="63"/>
-      <c r="J20" s="122" t="str">
+      <c r="J20" s="63"/>
+      <c r="K20" s="122" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K20" s="123" t="s">
-        <v>281</v>
-      </c>
-      <c r="L20" s="124">
-        <f t="shared" si="11"/>
+      <c r="L20" s="123" t="s">
+        <v>283</v>
+      </c>
+      <c r="M20" s="124">
+        <f>M19+1</f>
         <v>17</v>
       </c>
     </row>
     <row r="21" ht="30" customHeight="1">
       <c r="A21" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f>_xlfn.CONCAT("subject",IF(M21&lt;10,"0",""),M21)</f>
         <v>subject18</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C21" s="77" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>programA</v>
       </c>
       <c r="D21" s="63">
         <v>5</v>
       </c>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63" t="str">
-        <f t="shared" si="8"/>
+      <c r="E21" s="63">
+        <v>20</v>
+      </c>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63" t="str">
+        <f>_xlfn.CONCAT("0",IF(M21&lt;10,"0",""),M21)</f>
         <v>018</v>
       </c>
-      <c r="G21" s="120" t="str">
-        <f t="shared" si="12"/>
+      <c r="H21" s="120" t="str">
+        <f>H20</f>
         <v xml:space="preserve">Group A|G5A, Group B|G5B</v>
       </c>
-      <c r="H21" s="121" t="s">
-        <v>278</v>
-      </c>
-      <c r="I21" s="63"/>
-      <c r="J21" s="122" t="str">
+      <c r="I21" s="121" t="s">
+        <v>280</v>
+      </c>
+      <c r="J21" s="63"/>
+      <c r="K21" s="122" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K21" s="123" t="str">
-        <f t="shared" si="13"/>
+      <c r="L21" s="123" t="str">
+        <f>L20</f>
         <v xml:space="preserve">teacher01|main@G5A, teacher01|main@G5B</v>
       </c>
-      <c r="L21" s="124">
-        <f t="shared" si="11"/>
+      <c r="M21" s="124">
+        <f>M20+1</f>
         <v>18</v>
       </c>
     </row>
     <row r="22" ht="30" customHeight="1">
       <c r="A22" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f>_xlfn.CONCAT("subject",IF(M22&lt;10,"0",""),M22)</f>
         <v>subject19</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C22" s="77" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>programA</v>
       </c>
       <c r="D22" s="63">
         <v>5</v>
       </c>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63" t="str">
-        <f t="shared" si="8"/>
+      <c r="E22" s="63">
+        <v>20</v>
+      </c>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63" t="str">
+        <f>_xlfn.CONCAT("0",IF(M22&lt;10,"0",""),M22)</f>
         <v>019</v>
       </c>
-      <c r="G22" s="120" t="str">
-        <f t="shared" si="12"/>
+      <c r="H22" s="120" t="str">
+        <f>H21</f>
         <v xml:space="preserve">Group A|G5A, Group B|G5B</v>
       </c>
-      <c r="H22" s="121" t="s">
-        <v>278</v>
-      </c>
-      <c r="I22" s="63"/>
-      <c r="J22" s="122" t="str">
+      <c r="I22" s="121" t="s">
+        <v>280</v>
+      </c>
+      <c r="J22" s="63"/>
+      <c r="K22" s="122" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="K22" s="123" t="str">
-        <f t="shared" si="13"/>
+      <c r="L22" s="123" t="str">
+        <f>L21</f>
         <v xml:space="preserve">teacher01|main@G5A, teacher01|main@G5B</v>
       </c>
-      <c r="L22" s="124">
-        <f t="shared" si="11"/>
+      <c r="M22" s="124">
+        <f>M21+1</f>
         <v>19</v>
       </c>
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="A23" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f>_xlfn.CONCAT("subject",IF(M23&lt;10,"0",""),M23)</f>
         <v>subject20</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C23" s="77" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="1"/>
         <v>programA</v>
       </c>
       <c r="D23" s="63">
         <v>5</v>
       </c>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63" t="str">
-        <f t="shared" si="8"/>
+      <c r="E23" s="63">
+        <v>20</v>
+      </c>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63" t="str">
+        <f>_xlfn.CONCAT("0",IF(M23&lt;10,"0",""),M23)</f>
         <v>020</v>
       </c>
-      <c r="G23" s="120" t="str">
-        <f t="shared" si="12"/>
+      <c r="H23" s="120" t="str">
+        <f>H22</f>
         <v xml:space="preserve">Group A|G5A, Group B|G5B</v>
       </c>
-      <c r="H23" s="121" t="s">
-        <v>278</v>
-      </c>
-      <c r="I23" s="63"/>
-      <c r="J23" s="122" t="str">
+      <c r="I23" s="121" t="s">
+        <v>280</v>
+      </c>
+      <c r="J23" s="63"/>
+      <c r="K23" s="122" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="K23" s="123" t="str">
-        <f t="shared" si="13"/>
+      <c r="L23" s="123" t="str">
+        <f>L22</f>
         <v xml:space="preserve">teacher01|main@G5A, teacher01|main@G5B</v>
       </c>
-      <c r="L23" s="124">
-        <f t="shared" si="11"/>
+      <c r="M23" s="124">
+        <f>M22+1</f>
         <v>20</v>
       </c>
     </row>
     <row r="24" ht="14.25">
-      <c r="L24" s="74"/>
+      <c r="E24" s="14"/>
+      <c r="M24" s="74"/>
     </row>
     <row r="25" ht="14.25"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="H2:L2"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -4697,43 +4771,43 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00A80097-006C-4A8E-A41D-00E400D100E6}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{000100E4-0000-4B37-88AB-003700320026}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>D3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00F70036-0094-4901-86AE-004D00CF00FC}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00E10099-0090-4586-8327-00DD00A60003}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>D4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{004C000B-006C-408D-BB7B-00B900760092}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00CE00D7-0061-4175-9841-00A7005C0061}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>D5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00E600F7-0052-4766-A6EE-00C5007A00E1}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00BA00D3-00E1-40A4-9C94-001F0028002A}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>D6</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00510039-0034-4FEC-A23A-00BA003A0080}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{002A0033-00DF-46E1-9536-00AE0011009E}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>D7</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{004E005B-00A4-47DA-BF5D-0047009B0041}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00340056-00BA-4753-BBE5-00C900DD0048}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>D8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00270010-00C3-4840-8D19-00CB001B00F5}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00C100C7-00BA-47B0-A952-000300EE008A}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
@@ -4900,7 +4974,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00380045-00DF-40D3-ADBD-001A00A1004A}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00DB007B-001D-4AFF-B551-000600AE00BA}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GUARDIANS_RELATIONSHIPS</xm:f>
           </x14:formula1>
@@ -5346,79 +5420,79 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="13" disablePrompts="0">
-        <x14:dataValidation xr:uid="{008800EA-003A-458B-9009-0001005C0036}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00710006-0061-4141-97DB-00F60019002C}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>W4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00AF004B-0020-42E1-BBE8-0073002E0021}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{004C0030-007B-4E38-A648-004600D8001F}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>W5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00D100C5-0034-47C7-8B73-005A009400F4}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{006900EF-00EB-495A-9593-004C0021001D}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>V4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00A10011-00A3-42ED-A70E-009400F10083}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00D500E4-0003-4CE2-9E79-00F900B90039}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>V5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{000A004B-006A-4DA1-ACAE-00EF00E70004}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{000900D5-0096-4887-A6B4-0052004A0095}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>T4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{001F00BE-00DC-4C03-880B-00B300790018}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00D100A9-00FD-4992-B033-002E00A80096}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>T5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00C700FE-00D0-45F3-AF8C-003600620031}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{001B0086-00CD-4C4E-B757-00F30097009E}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>R4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00C00004-0084-4A29-AAA7-00FC004B00B6}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00AA006B-0003-4837-9681-002C000C009D}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>E4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{003D00FC-0071-4C28-9C95-00F800EB0078}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00AB0005-0026-48EB-BBC4-00AE0076004C}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>E5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00200021-00AF-47F5-84E6-008000B90045}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00970040-0096-4822-8C64-00A300F1003D}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>I4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00D4008E-0021-4D20-BE40-006D00C90085}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{008B0054-00F9-479A-B4E0-00FF002E0025}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>I5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0047002F-002F-4809-B954-004F00FE00A3}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00CE0022-00A1-4606-8501-008A006B0001}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>SUBSTAGES_FRECUENCY</xm:f>
           </x14:formula1>
           <xm:sqref>K4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{007E004D-0083-4EAE-BFEB-000200A4002F}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{0004003D-0095-4AB0-8C29-00C8009E00F7}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>SUBSTAGES_FRECUENCY</xm:f>
           </x14:formula1>
@@ -5545,19 +5619,19 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3" disablePrompts="0">
-        <x14:dataValidation xr:uid="{006A006A-0051-42B6-AA56-007A001E00A1}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00AE00EC-002B-4BE1-8267-003800D700A7}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>E3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{009D00FD-0086-4E39-ABE7-00BB0076001C}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00BA0057-009B-4900-B582-00C2003800FE}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>E4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00670044-0060-452D-9C0A-0074003C0013}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00990098-006A-414C-9B7F-003900410061}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>

--- a/packages/leemons-plugin-mvp-template/src/bulk/data.xlsx
+++ b/packages/leemons-plugin-mvp-template/src/bulk/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="10"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" state="visible" r:id="rId1"/>
@@ -359,7 +359,7 @@
     <t>surnames</t>
   </si>
   <si>
-    <t>genre</t>
+    <t>gender</t>
   </si>
   <si>
     <t>birthdate</t>
@@ -377,7 +377,7 @@
     <t>Surnames</t>
   </si>
   <si>
-    <t>Genre</t>
+    <t>Gender</t>
   </si>
   <si>
     <t>Birthdate</t>
@@ -4426,7 +4426,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="F1" workbookViewId="0" zoomScale="100">
+    <sheetView showGridLines="0" workbookViewId="0" zoomScale="100">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -4771,43 +4771,43 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7" disablePrompts="0">
-        <x14:dataValidation xr:uid="{000100E4-0000-4B37-88AB-003700320026}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{000F0098-0008-4598-B905-00C700B7006E}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>D3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00E10099-0090-4586-8327-00DD00A60003}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00DE00B5-00DE-42F0-BABE-00D2009F00C0}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>D4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00CE00D7-0061-4175-9841-00A7005C0061}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{004800B3-00A9-43F5-A5C2-002F0026004A}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>D5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00BA00D3-00E1-40A4-9C94-001F0028002A}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00A80011-00C7-45B7-98E4-00B900B100FC}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>D6</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{002A0033-00DF-46E1-9536-00AE0011009E}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{008A001E-00D6-4732-B365-00A800C80021}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>D7</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00340056-00BA-4753-BBE5-00C900DD0048}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{006E0007-00D8-4EEB-9721-00FD0035000D}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>D8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00C100C7-00BA-47B0-A952-000300EE008A}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{000A0039-00B8-4DA5-948F-007100C20012}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
@@ -4974,7 +4974,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00DB007B-001D-4AFF-B551-000600AE00BA}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00A20041-00C7-4E0E-AC06-0037007700D3}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GUARDIANS_RELATIONSHIPS</xm:f>
           </x14:formula1>
@@ -5420,79 +5420,79 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="13" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00710006-0061-4141-97DB-00F60019002C}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{004500A2-001A-4C6C-93D5-00AD008B0094}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>W4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{004C0030-007B-4E38-A648-004600D8001F}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{006C00DE-00E1-4F5F-BA92-004600030058}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>W5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{006900EF-00EB-495A-9593-004C0021001D}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00390037-00DB-4B2E-9176-00E7001F0024}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>V4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00D500E4-0003-4CE2-9E79-00F900B90039}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00250010-00D3-4855-BCB9-007800E3008C}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>V5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{000900D5-0096-4887-A6B4-0052004A0095}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{0043008F-00A9-4022-B5D3-005900D900B6}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>T4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00D100A9-00FD-4992-B033-002E00A80096}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00DB006D-00F3-4EAA-A741-004F00590002}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>T5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{001B0086-00CD-4C4E-B757-00F30097009E}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{000F0048-001F-451F-9D0E-00D200C900F1}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>R4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00AA006B-0003-4837-9681-002C000C009D}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00C20022-0048-4A98-B584-004800D200EE}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>E4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00AB0005-0026-48EB-BBC4-00AE0076004C}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00060088-003D-4CF7-A803-00B5001C004B}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>E5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00970040-0096-4822-8C64-00A300F1003D}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{0050007A-00A8-4DDF-9171-006900480013}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>I4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{008B0054-00F9-479A-B4E0-00FF002E0025}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{005E0087-0007-42EF-BADF-007100A400A6}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>I5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00CE0022-00A1-4606-8501-008A006B0001}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00C50038-007A-4DAA-B4E6-00C2000800CA}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>SUBSTAGES_FRECUENCY</xm:f>
           </x14:formula1>
           <xm:sqref>K4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0004003D-0095-4AB0-8C29-00C8009E00F7}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00C80067-0006-4107-B9DD-00E000C800D6}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>SUBSTAGES_FRECUENCY</xm:f>
           </x14:formula1>
@@ -5619,19 +5619,19 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00AE00EC-002B-4BE1-8267-003800D700A7}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00EA00BE-005B-49A2-964B-007100200056}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>E3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00BA0057-009B-4900-B582-00C2003800FE}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{0093002A-0080-4F66-938D-008A00060053}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>E4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00990098-006A-414C-9B7F-003900410061}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00670033-00E1-41BC-8A72-006D002C0083}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>

--- a/packages/leemons-plugin-mvp-template/src/bulk/data.xlsx
+++ b/packages/leemons-plugin-mvp-template/src/bulk/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" state="visible" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="297">
   <si>
     <t xml:space="preserve">Substages frecuency</t>
   </si>
@@ -170,6 +170,9 @@
     <t>plugins.leebrary</t>
   </si>
   <si>
+    <t>plugins.grades</t>
+  </si>
+  <si>
     <t>Users</t>
   </si>
   <si>
@@ -197,6 +200,9 @@
     <t>Library</t>
   </si>
   <si>
+    <t xml:space="preserve">Academic Rules</t>
+  </si>
+  <si>
     <t>users</t>
   </si>
   <si>
@@ -263,6 +269,18 @@
     <t>curriculum</t>
   </si>
   <si>
+    <t>rules</t>
+  </si>
+  <si>
+    <t>evaluations</t>
+  </si>
+  <si>
+    <t>promotions</t>
+  </si>
+  <si>
+    <t>dependencies</t>
+  </si>
+  <si>
     <t xml:space="preserve">Can access to</t>
   </si>
   <si>
@@ -309,6 +327,18 @@
   </si>
   <si>
     <t>History</t>
+  </si>
+  <si>
+    <t>Rules</t>
+  </si>
+  <si>
+    <t>Evaluations</t>
+  </si>
+  <si>
+    <t>Promotions</t>
+  </si>
+  <si>
+    <t>Dependencies</t>
   </si>
   <si>
     <t>admin</t>
@@ -1395,7 +1425,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="126">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1430,6 +1460,7 @@
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="1" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2425,89 +2456,89 @@
         <v>21</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>214</v>
-      </c>
     </row>
     <row r="2" ht="28.5">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="111" t="s">
-        <v>191</v>
-      </c>
-      <c r="D2" s="111" t="s">
-        <v>225</v>
-      </c>
-      <c r="E2" s="111" t="s">
+      <c r="C2" s="112" t="s">
+        <v>201</v>
+      </c>
+      <c r="D2" s="112" t="s">
+        <v>235</v>
+      </c>
+      <c r="E2" s="112" t="s">
+        <v>236</v>
+      </c>
+      <c r="F2" s="113" t="s">
         <v>226</v>
       </c>
-      <c r="F2" s="112" t="s">
-        <v>216</v>
-      </c>
-      <c r="G2" s="113" t="s">
-        <v>193</v>
+      <c r="G2" s="114" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="E3" s="114" t="s">
-        <v>231</v>
-      </c>
-      <c r="F3" s="77" t="str">
+        <v>240</v>
+      </c>
+      <c r="E3" s="115" t="s">
+        <v>241</v>
+      </c>
+      <c r="F3" s="78" t="str">
         <f>ap_programs!$A$5</f>
         <v>programB</v>
       </c>
-      <c r="G3" s="63">
+      <c r="G3" s="64">
         <v>0</v>
       </c>
     </row>
     <row r="4" ht="19.5" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="E4" s="69" t="s">
-        <v>236</v>
-      </c>
-      <c r="F4" s="77" t="str">
+        <v>245</v>
+      </c>
+      <c r="E4" s="70" t="s">
+        <v>246</v>
+      </c>
+      <c r="F4" s="78" t="str">
         <f>ap_programs!$A$5</f>
         <v>programB</v>
       </c>
-      <c r="G4" s="63">
+      <c r="G4" s="64">
         <v>0</v>
       </c>
     </row>
@@ -2558,36 +2589,36 @@
         <v>21</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="L1" s="115" t="s">
-        <v>243</v>
-      </c>
-      <c r="M1" s="74"/>
+        <v>252</v>
+      </c>
+      <c r="L1" s="116" t="s">
+        <v>253</v>
+      </c>
+      <c r="M1" s="75"/>
     </row>
     <row r="2" ht="28.850000000000001" customHeight="1">
       <c r="A2" s="5"/>
@@ -2598,941 +2629,941 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="1" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="74"/>
+      <c r="M2" s="75"/>
     </row>
     <row r="3" ht="31.850000000000001" customHeight="1">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="94" t="s">
-        <v>216</v>
-      </c>
-      <c r="D3" s="93" t="s">
-        <v>245</v>
-      </c>
-      <c r="E3" s="111" t="s">
-        <v>246</v>
-      </c>
-      <c r="F3" s="93" t="s">
-        <v>247</v>
-      </c>
-      <c r="G3" s="93" t="s">
-        <v>248</v>
-      </c>
-      <c r="H3" s="116" t="s">
-        <v>249</v>
-      </c>
-      <c r="I3" s="117" t="s">
-        <v>225</v>
-      </c>
-      <c r="J3" s="117" t="s">
-        <v>250</v>
-      </c>
-      <c r="K3" s="118" t="s">
-        <v>251</v>
-      </c>
-      <c r="L3" s="112" t="s">
-        <v>252</v>
-      </c>
-      <c r="M3" s="119"/>
+      <c r="C3" s="95" t="s">
+        <v>226</v>
+      </c>
+      <c r="D3" s="94" t="s">
+        <v>255</v>
+      </c>
+      <c r="E3" s="112" t="s">
+        <v>256</v>
+      </c>
+      <c r="F3" s="94" t="s">
+        <v>257</v>
+      </c>
+      <c r="G3" s="94" t="s">
+        <v>258</v>
+      </c>
+      <c r="H3" s="117" t="s">
+        <v>259</v>
+      </c>
+      <c r="I3" s="118" t="s">
+        <v>235</v>
+      </c>
+      <c r="J3" s="118" t="s">
+        <v>260</v>
+      </c>
+      <c r="K3" s="119" t="s">
+        <v>261</v>
+      </c>
+      <c r="L3" s="113" t="s">
+        <v>262</v>
+      </c>
+      <c r="M3" s="120"/>
     </row>
     <row r="4" s="9" customFormat="1" ht="30" customHeight="1">
       <c r="A4" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(M4&lt;10,"0",""),M4)</f>
+        <f t="shared" ref="A4:A9" si="0">_xlfn.CONCAT("subject",IF(M4&lt;10,"0",""),M4)</f>
         <v>subject01</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="C4" s="77" t="str">
+        <v>263</v>
+      </c>
+      <c r="C4" s="78" t="str">
         <f>ap_programs!A4</f>
         <v>programA</v>
       </c>
-      <c r="D4" s="63">
+      <c r="D4" s="64">
         <v>1</v>
       </c>
-      <c r="E4" s="63">
+      <c r="E4" s="64">
         <v>20</v>
       </c>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63" t="str">
-        <f>_xlfn.CONCAT("0",IF(M4&lt;10,"0",""),M4)</f>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64" t="str">
+        <f t="shared" ref="G4:G9" si="1">_xlfn.CONCAT("0",IF(M4&lt;10,"0",""),M4)</f>
         <v>001</v>
       </c>
-      <c r="H4" s="120" t="s">
-        <v>254</v>
-      </c>
-      <c r="I4" s="121" t="s">
-        <v>255</v>
-      </c>
-      <c r="J4" s="63"/>
-      <c r="K4" s="122" t="str">
+      <c r="H4" s="121" t="s">
+        <v>264</v>
+      </c>
+      <c r="I4" s="122" t="s">
+        <v>265</v>
+      </c>
+      <c r="J4" s="64"/>
+      <c r="K4" s="123" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L4" s="123" t="s">
-        <v>256</v>
-      </c>
-      <c r="M4" s="124">
+      <c r="L4" s="124" t="s">
+        <v>266</v>
+      </c>
+      <c r="M4" s="125">
         <v>1</v>
       </c>
       <c r="N4" s="9"/>
     </row>
     <row r="5" s="9" customFormat="1" ht="30" customHeight="1">
       <c r="A5" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(M5&lt;10,"0",""),M5)</f>
+        <f t="shared" si="0"/>
         <v>subject02</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="C5" s="77" t="str">
-        <f t="shared" ref="C5:C10" si="0">C4</f>
+        <v>267</v>
+      </c>
+      <c r="C5" s="78" t="str">
+        <f t="shared" ref="C5:C10" si="2">C4</f>
         <v>programA</v>
       </c>
-      <c r="D5" s="63">
+      <c r="D5" s="64">
         <v>1</v>
       </c>
-      <c r="E5" s="63">
+      <c r="E5" s="64">
         <v>20</v>
       </c>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63" t="str">
-        <f>_xlfn.CONCAT("0",IF(M5&lt;10,"0",""),M5)</f>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64" t="str">
+        <f t="shared" si="1"/>
         <v>002</v>
       </c>
-      <c r="H5" s="120" t="str">
-        <f>H4</f>
+      <c r="H5" s="121" t="str">
+        <f t="shared" ref="H5:H10" si="3">H4</f>
         <v xml:space="preserve">Group A|G1A, Group B|G1B</v>
       </c>
-      <c r="I5" s="121" t="str">
-        <f>I4</f>
+      <c r="I5" s="122" t="str">
+        <f t="shared" ref="I5:I10" si="4">I4</f>
         <v>#FFEB9C</v>
       </c>
-      <c r="J5" s="63"/>
-      <c r="K5" s="122" t="str">
+      <c r="J5" s="64"/>
+      <c r="K5" s="123" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L5" s="123" t="str">
-        <f>L4</f>
+      <c r="L5" s="124" t="str">
+        <f t="shared" ref="L5:L10" si="5">L4</f>
         <v xml:space="preserve">teacher01|main@G1A, teacher01|main@G1B</v>
       </c>
-      <c r="M5" s="124">
-        <f>M4+1</f>
+      <c r="M5" s="125">
+        <f t="shared" ref="M5:M10" si="6">M4+1</f>
         <v>2</v>
       </c>
       <c r="N5" s="9"/>
     </row>
     <row r="6" s="9" customFormat="1" ht="30" customHeight="1">
       <c r="A6" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(M6&lt;10,"0",""),M6)</f>
+        <f t="shared" si="0"/>
         <v>subject03</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="C6" s="77" t="str">
-        <f t="shared" si="0"/>
+        <v>268</v>
+      </c>
+      <c r="C6" s="78" t="str">
+        <f t="shared" si="2"/>
         <v>programA</v>
       </c>
-      <c r="D6" s="63">
+      <c r="D6" s="64">
         <v>1</v>
       </c>
-      <c r="E6" s="63">
+      <c r="E6" s="64">
         <v>20</v>
       </c>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63" t="str">
-        <f>_xlfn.CONCAT("0",IF(M6&lt;10,"0",""),M6)</f>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64" t="str">
+        <f t="shared" si="1"/>
         <v>003</v>
       </c>
-      <c r="H6" s="120" t="str">
-        <f>H5</f>
+      <c r="H6" s="121" t="str">
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Group A|G1A, Group B|G1B</v>
       </c>
-      <c r="I6" s="121" t="str">
-        <f>I5</f>
+      <c r="I6" s="122" t="str">
+        <f t="shared" si="4"/>
         <v>#FFEB9C</v>
       </c>
-      <c r="J6" s="63"/>
-      <c r="K6" s="122" t="str">
+      <c r="J6" s="64"/>
+      <c r="K6" s="123" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L6" s="123" t="str">
-        <f>L5</f>
+      <c r="L6" s="124" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">teacher01|main@G1A, teacher01|main@G1B</v>
       </c>
-      <c r="M6" s="124">
-        <f>M5+1</f>
+      <c r="M6" s="125">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="N6" s="9"/>
     </row>
     <row r="7" s="9" customFormat="1" ht="30" customHeight="1">
       <c r="A7" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(M7&lt;10,"0",""),M7)</f>
+        <f t="shared" si="0"/>
         <v>subject04</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="C7" s="77" t="str">
-        <f t="shared" si="0"/>
+        <v>269</v>
+      </c>
+      <c r="C7" s="78" t="str">
+        <f t="shared" si="2"/>
         <v>programA</v>
       </c>
-      <c r="D7" s="63">
+      <c r="D7" s="64">
         <v>1</v>
       </c>
-      <c r="E7" s="63">
+      <c r="E7" s="64">
         <v>20</v>
       </c>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63" t="str">
-        <f>_xlfn.CONCAT("0",IF(M7&lt;10,"0",""),M7)</f>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64" t="str">
+        <f t="shared" si="1"/>
         <v>004</v>
       </c>
-      <c r="H7" s="120" t="str">
-        <f>H6</f>
+      <c r="H7" s="121" t="str">
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Group A|G1A, Group B|G1B</v>
       </c>
-      <c r="I7" s="121" t="str">
-        <f>I6</f>
+      <c r="I7" s="122" t="str">
+        <f t="shared" si="4"/>
         <v>#FFEB9C</v>
       </c>
-      <c r="J7" s="63"/>
-      <c r="K7" s="122" t="str">
+      <c r="J7" s="64"/>
+      <c r="K7" s="123" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="L7" s="123" t="str">
-        <f>L6</f>
+      <c r="L7" s="124" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">teacher01|main@G1A, teacher01|main@G1B</v>
       </c>
-      <c r="M7" s="124">
-        <f>M6+1</f>
+      <c r="M7" s="125">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="N7" s="9"/>
     </row>
     <row r="8" ht="30" customHeight="1">
       <c r="A8" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(M8&lt;10,"0",""),M8)</f>
+        <f t="shared" si="0"/>
         <v>subject05</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="C8" s="77" t="str">
-        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+      <c r="C8" s="78" t="str">
+        <f t="shared" si="2"/>
         <v>programA</v>
       </c>
-      <c r="D8" s="63">
+      <c r="D8" s="64">
         <v>2</v>
       </c>
-      <c r="E8" s="63">
+      <c r="E8" s="64">
         <v>20</v>
       </c>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63" t="str">
-        <f>_xlfn.CONCAT("0",IF(M8&lt;10,"0",""),M8)</f>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64" t="str">
+        <f t="shared" si="1"/>
         <v>005</v>
       </c>
-      <c r="H8" s="120" t="s">
-        <v>261</v>
-      </c>
-      <c r="I8" s="121" t="str">
-        <f>I7</f>
+      <c r="H8" s="121" t="s">
+        <v>271</v>
+      </c>
+      <c r="I8" s="122" t="str">
+        <f t="shared" si="4"/>
         <v>#FFEB9C</v>
       </c>
-      <c r="J8" s="63"/>
-      <c r="K8" s="122" t="str">
+      <c r="J8" s="64"/>
+      <c r="K8" s="123" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L8" s="123" t="s">
-        <v>262</v>
-      </c>
-      <c r="M8" s="124">
-        <f>M7+1</f>
+      <c r="L8" s="124" t="s">
+        <v>272</v>
+      </c>
+      <c r="M8" s="125">
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
     <row r="9" ht="30" customHeight="1">
       <c r="A9" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(M9&lt;10,"0",""),M9)</f>
+        <f t="shared" si="0"/>
         <v>subject06</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="C9" s="77" t="str">
-        <f t="shared" si="0"/>
+        <v>273</v>
+      </c>
+      <c r="C9" s="78" t="str">
+        <f t="shared" si="2"/>
         <v>programA</v>
       </c>
-      <c r="D9" s="63">
+      <c r="D9" s="64">
         <v>2</v>
       </c>
-      <c r="E9" s="63">
+      <c r="E9" s="64">
         <v>20</v>
       </c>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63" t="str">
-        <f>_xlfn.CONCAT("0",IF(M9&lt;10,"0",""),M9)</f>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64" t="str">
+        <f t="shared" si="1"/>
         <v>006</v>
       </c>
-      <c r="H9" s="120" t="str">
-        <f>H8</f>
+      <c r="H9" s="121" t="str">
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Group A|G2A, Group B|G2B</v>
       </c>
-      <c r="I9" s="121" t="s">
-        <v>264</v>
-      </c>
-      <c r="J9" s="63"/>
-      <c r="K9" s="122" t="str">
+      <c r="I9" s="122" t="s">
+        <v>274</v>
+      </c>
+      <c r="J9" s="64"/>
+      <c r="K9" s="123" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L9" s="123" t="str">
-        <f>L8</f>
+      <c r="L9" s="124" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">teacher01|main@G2A, teacher01|main@G2B</v>
       </c>
-      <c r="M9" s="124">
-        <f>M8+1</f>
+      <c r="M9" s="125">
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
     </row>
     <row r="10" ht="30" customHeight="1">
       <c r="A10" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(M10&lt;10,"0",""),M10)</f>
+        <f t="shared" ref="A10:A23" si="7">_xlfn.CONCAT("subject",IF(M10&lt;10,"0",""),M10)</f>
         <v>subject07</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="C10" s="77" t="str">
-        <f t="shared" si="0"/>
+        <v>275</v>
+      </c>
+      <c r="C10" s="78" t="str">
+        <f t="shared" si="2"/>
         <v>programA</v>
       </c>
-      <c r="D10" s="63">
+      <c r="D10" s="64">
         <v>2</v>
       </c>
-      <c r="E10" s="63">
+      <c r="E10" s="64">
         <v>20</v>
       </c>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63" t="str">
-        <f>_xlfn.CONCAT("0",IF(M10&lt;10,"0",""),M10)</f>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64" t="str">
+        <f t="shared" ref="G10:G23" si="8">_xlfn.CONCAT("0",IF(M10&lt;10,"0",""),M10)</f>
         <v>007</v>
       </c>
-      <c r="H10" s="120" t="str">
-        <f>H9</f>
+      <c r="H10" s="121" t="str">
+        <f t="shared" si="3"/>
         <v xml:space="preserve">Group A|G2A, Group B|G2B</v>
       </c>
-      <c r="I10" s="121" t="str">
-        <f>I9</f>
+      <c r="I10" s="122" t="str">
+        <f t="shared" si="4"/>
         <v>#FFC7CE</v>
       </c>
-      <c r="J10" s="63"/>
-      <c r="K10" s="122" t="str">
+      <c r="J10" s="64"/>
+      <c r="K10" s="123" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L10" s="123" t="str">
-        <f>L9</f>
+      <c r="L10" s="124" t="str">
+        <f t="shared" si="5"/>
         <v xml:space="preserve">teacher01|main@G2A, teacher01|main@G2B</v>
       </c>
-      <c r="M10" s="124">
-        <f>M9+1</f>
+      <c r="M10" s="125">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
     </row>
     <row r="11" ht="30" customHeight="1">
       <c r="A11" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(M11&lt;10,"0",""),M11)</f>
+        <f t="shared" si="7"/>
         <v>subject08</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="C11" s="77" t="str">
-        <f t="shared" ref="C11:C23" si="1">C10</f>
+        <v>276</v>
+      </c>
+      <c r="C11" s="78" t="str">
+        <f t="shared" ref="C11:C23" si="9">C10</f>
         <v>programA</v>
       </c>
-      <c r="D11" s="63">
+      <c r="D11" s="64">
         <v>2</v>
       </c>
-      <c r="E11" s="63">
+      <c r="E11" s="64">
         <v>20</v>
       </c>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63" t="str">
-        <f>_xlfn.CONCAT("0",IF(M11&lt;10,"0",""),M11)</f>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64" t="str">
+        <f t="shared" si="8"/>
         <v>008</v>
       </c>
-      <c r="H11" s="120" t="str">
+      <c r="H11" s="121" t="str">
         <f>H10</f>
         <v xml:space="preserve">Group A|G2A, Group B|G2B</v>
       </c>
-      <c r="I11" s="121" t="str">
-        <f>I10</f>
+      <c r="I11" s="122" t="str">
+        <f t="shared" ref="I11:I18" si="10">I10</f>
         <v>#FFC7CE</v>
       </c>
-      <c r="J11" s="63"/>
-      <c r="K11" s="122" t="str">
+      <c r="J11" s="64"/>
+      <c r="K11" s="123" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="L11" s="123" t="str">
+      <c r="L11" s="124" t="str">
         <f>L10</f>
         <v xml:space="preserve">teacher01|main@G2A, teacher01|main@G2B</v>
       </c>
-      <c r="M11" s="124">
-        <f>M10+1</f>
+      <c r="M11" s="125">
+        <f t="shared" ref="M11:M23" si="11">M10+1</f>
         <v>8</v>
       </c>
     </row>
     <row r="12" ht="30" customHeight="1">
       <c r="A12" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(M12&lt;10,"0",""),M12)</f>
+        <f t="shared" si="7"/>
         <v>subject09</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="C12" s="77" t="str">
-        <f t="shared" si="1"/>
+        <v>277</v>
+      </c>
+      <c r="C12" s="78" t="str">
+        <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D12" s="63">
+      <c r="D12" s="64">
         <v>3</v>
       </c>
-      <c r="E12" s="63">
+      <c r="E12" s="64">
         <v>20</v>
       </c>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63" t="str">
-        <f>_xlfn.CONCAT("0",IF(M12&lt;10,"0",""),M12)</f>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64" t="str">
+        <f t="shared" si="8"/>
         <v>009</v>
       </c>
-      <c r="H12" s="120" t="s">
-        <v>268</v>
-      </c>
-      <c r="I12" s="121" t="str">
-        <f>I11</f>
+      <c r="H12" s="121" t="s">
+        <v>278</v>
+      </c>
+      <c r="I12" s="122" t="str">
+        <f t="shared" si="10"/>
         <v>#FFC7CE</v>
       </c>
-      <c r="J12" s="63"/>
-      <c r="K12" s="122" t="str">
+      <c r="J12" s="64"/>
+      <c r="K12" s="123" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L12" s="123" t="s">
-        <v>269</v>
-      </c>
-      <c r="M12" s="124">
-        <f>M11+1</f>
+      <c r="L12" s="124" t="s">
+        <v>279</v>
+      </c>
+      <c r="M12" s="125">
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
     </row>
     <row r="13" ht="30" customHeight="1">
       <c r="A13" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(M13&lt;10,"0",""),M13)</f>
+        <f t="shared" si="7"/>
         <v>subject10</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="C13" s="77" t="str">
-        <f t="shared" si="1"/>
+        <v>280</v>
+      </c>
+      <c r="C13" s="78" t="str">
+        <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D13" s="63">
+      <c r="D13" s="64">
         <v>3</v>
       </c>
-      <c r="E13" s="63">
+      <c r="E13" s="64">
         <v>20</v>
       </c>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63" t="str">
-        <f>_xlfn.CONCAT("0",IF(M13&lt;10,"0",""),M13)</f>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64" t="str">
+        <f t="shared" si="8"/>
         <v>010</v>
       </c>
-      <c r="H13" s="120" t="str">
-        <f>H12</f>
+      <c r="H13" s="121" t="str">
+        <f t="shared" ref="H13:H23" si="12">H12</f>
         <v xml:space="preserve">Group A|G3A, Group B|G3B</v>
       </c>
-      <c r="I13" s="121" t="str">
-        <f>I12</f>
+      <c r="I13" s="122" t="str">
+        <f t="shared" si="10"/>
         <v>#FFC7CE</v>
       </c>
-      <c r="J13" s="63"/>
-      <c r="K13" s="122" t="str">
+      <c r="J13" s="64"/>
+      <c r="K13" s="123" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L13" s="123" t="str">
-        <f>L12</f>
+      <c r="L13" s="124" t="str">
+        <f t="shared" ref="L13:L23" si="13">L12</f>
         <v xml:space="preserve">teacher01|main@G3A, teacher01|main@G3B</v>
       </c>
-      <c r="M13" s="124">
-        <f>M12+1</f>
+      <c r="M13" s="125">
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
     </row>
     <row r="14" ht="30" customHeight="1">
       <c r="A14" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(M14&lt;10,"0",""),M14)</f>
+        <f t="shared" si="7"/>
         <v>subject11</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="C14" s="77" t="str">
-        <f t="shared" si="1"/>
+        <v>281</v>
+      </c>
+      <c r="C14" s="78" t="str">
+        <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D14" s="63">
+      <c r="D14" s="64">
         <v>3</v>
       </c>
-      <c r="E14" s="63">
+      <c r="E14" s="64">
         <v>20</v>
       </c>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63" t="str">
-        <f>_xlfn.CONCAT("0",IF(M14&lt;10,"0",""),M14)</f>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64" t="str">
+        <f t="shared" si="8"/>
         <v>011</v>
       </c>
-      <c r="H14" s="120" t="str">
-        <f>H13</f>
+      <c r="H14" s="121" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve">Group A|G3A, Group B|G3B</v>
       </c>
-      <c r="I14" s="121" t="s">
-        <v>272</v>
-      </c>
-      <c r="J14" s="63"/>
-      <c r="K14" s="122" t="str">
+      <c r="I14" s="122" t="s">
+        <v>282</v>
+      </c>
+      <c r="J14" s="64"/>
+      <c r="K14" s="123" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L14" s="123" t="str">
-        <f>L13</f>
+      <c r="L14" s="124" t="str">
+        <f t="shared" si="13"/>
         <v xml:space="preserve">teacher01|main@G3A, teacher01|main@G3B</v>
       </c>
-      <c r="M14" s="124">
-        <f>M13+1</f>
+      <c r="M14" s="125">
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
     </row>
     <row r="15" ht="30" customHeight="1">
       <c r="A15" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(M15&lt;10,"0",""),M15)</f>
+        <f t="shared" si="7"/>
         <v>subject12</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="C15" s="77" t="str">
-        <f t="shared" si="1"/>
+        <v>283</v>
+      </c>
+      <c r="C15" s="78" t="str">
+        <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D15" s="63">
+      <c r="D15" s="64">
         <v>3</v>
       </c>
-      <c r="E15" s="63">
+      <c r="E15" s="64">
         <v>20</v>
       </c>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63" t="str">
-        <f>_xlfn.CONCAT("0",IF(M15&lt;10,"0",""),M15)</f>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64" t="str">
+        <f t="shared" si="8"/>
         <v>012</v>
       </c>
-      <c r="H15" s="120" t="str">
-        <f>H14</f>
+      <c r="H15" s="121" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve">Group A|G3A, Group B|G3B</v>
       </c>
-      <c r="I15" s="121" t="str">
-        <f>I14</f>
+      <c r="I15" s="122" t="str">
+        <f t="shared" si="10"/>
         <v>#C6EFCD</v>
       </c>
-      <c r="J15" s="63"/>
-      <c r="K15" s="122" t="str">
+      <c r="J15" s="64"/>
+      <c r="K15" s="123" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="L15" s="123" t="str">
-        <f>L14</f>
+      <c r="L15" s="124" t="str">
+        <f t="shared" si="13"/>
         <v xml:space="preserve">teacher01|main@G3A, teacher01|main@G3B</v>
       </c>
-      <c r="M15" s="124">
-        <f>M14+1</f>
+      <c r="M15" s="125">
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
     </row>
     <row r="16" ht="30" customHeight="1">
       <c r="A16" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(M16&lt;10,"0",""),M16)</f>
+        <f t="shared" si="7"/>
         <v>subject13</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="C16" s="77" t="str">
-        <f t="shared" si="1"/>
+        <v>284</v>
+      </c>
+      <c r="C16" s="78" t="str">
+        <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D16" s="63">
+      <c r="D16" s="64">
         <v>4</v>
       </c>
-      <c r="E16" s="63">
+      <c r="E16" s="64">
         <v>20</v>
       </c>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63" t="str">
-        <f>_xlfn.CONCAT("0",IF(M16&lt;10,"0",""),M16)</f>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64" t="str">
+        <f t="shared" si="8"/>
         <v>013</v>
       </c>
-      <c r="H16" s="120" t="s">
-        <v>275</v>
-      </c>
-      <c r="I16" s="121" t="str">
-        <f>I15</f>
+      <c r="H16" s="121" t="s">
+        <v>285</v>
+      </c>
+      <c r="I16" s="122" t="str">
+        <f t="shared" si="10"/>
         <v>#C6EFCD</v>
       </c>
-      <c r="J16" s="63"/>
-      <c r="K16" s="122" t="str">
+      <c r="J16" s="64"/>
+      <c r="K16" s="123" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L16" s="123" t="s">
-        <v>276</v>
-      </c>
-      <c r="M16" s="124">
-        <f>M15+1</f>
+      <c r="L16" s="124" t="s">
+        <v>286</v>
+      </c>
+      <c r="M16" s="125">
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
     </row>
     <row r="17" ht="30" customHeight="1">
       <c r="A17" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(M17&lt;10,"0",""),M17)</f>
+        <f t="shared" si="7"/>
         <v>subject14</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="C17" s="77" t="str">
-        <f t="shared" si="1"/>
+        <v>287</v>
+      </c>
+      <c r="C17" s="78" t="str">
+        <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D17" s="63">
+      <c r="D17" s="64">
         <v>4</v>
       </c>
-      <c r="E17" s="63">
+      <c r="E17" s="64">
         <v>20</v>
       </c>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63" t="str">
-        <f>_xlfn.CONCAT("0",IF(M17&lt;10,"0",""),M17)</f>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64" t="str">
+        <f t="shared" si="8"/>
         <v>014</v>
       </c>
-      <c r="H17" s="120" t="str">
-        <f>H16</f>
+      <c r="H17" s="121" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve">Group A|G4A, Group B|G4B</v>
       </c>
-      <c r="I17" s="121" t="str">
-        <f>I16</f>
+      <c r="I17" s="122" t="str">
+        <f t="shared" si="10"/>
         <v>#C6EFCD</v>
       </c>
-      <c r="J17" s="63"/>
-      <c r="K17" s="122" t="str">
+      <c r="J17" s="64"/>
+      <c r="K17" s="123" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L17" s="123" t="str">
-        <f>L16</f>
+      <c r="L17" s="124" t="str">
+        <f t="shared" si="13"/>
         <v xml:space="preserve">teacher01|main@G4A, teacher01|main@G4B</v>
       </c>
-      <c r="M17" s="124">
-        <f>M16+1</f>
+      <c r="M17" s="125">
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
     </row>
     <row r="18" ht="30" customHeight="1">
       <c r="A18" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(M18&lt;10,"0",""),M18)</f>
+        <f t="shared" si="7"/>
         <v>subject15</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="C18" s="77" t="str">
-        <f t="shared" si="1"/>
+        <v>288</v>
+      </c>
+      <c r="C18" s="78" t="str">
+        <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D18" s="63">
+      <c r="D18" s="64">
         <v>4</v>
       </c>
-      <c r="E18" s="63">
+      <c r="E18" s="64">
         <v>20</v>
       </c>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63" t="str">
-        <f>_xlfn.CONCAT("0",IF(M18&lt;10,"0",""),M18)</f>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64" t="str">
+        <f t="shared" si="8"/>
         <v>015</v>
       </c>
-      <c r="H18" s="120" t="str">
-        <f>H17</f>
+      <c r="H18" s="121" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve">Group A|G4A, Group B|G4B</v>
       </c>
-      <c r="I18" s="121" t="str">
-        <f>I17</f>
+      <c r="I18" s="122" t="str">
+        <f t="shared" si="10"/>
         <v>#C6EFCD</v>
       </c>
-      <c r="J18" s="63"/>
-      <c r="K18" s="122" t="str">
+      <c r="J18" s="64"/>
+      <c r="K18" s="123" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L18" s="123" t="str">
-        <f>L17</f>
+      <c r="L18" s="124" t="str">
+        <f t="shared" si="13"/>
         <v xml:space="preserve">teacher01|main@G4A, teacher01|main@G4B</v>
       </c>
-      <c r="M18" s="124">
-        <f>M17+1</f>
+      <c r="M18" s="125">
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
     </row>
     <row r="19" ht="30" customHeight="1">
       <c r="A19" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(M19&lt;10,"0",""),M19)</f>
+        <f t="shared" si="7"/>
         <v>subject16</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="C19" s="77" t="str">
-        <f t="shared" si="1"/>
+        <v>289</v>
+      </c>
+      <c r="C19" s="78" t="str">
+        <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D19" s="63">
+      <c r="D19" s="64">
         <v>4</v>
       </c>
-      <c r="E19" s="63">
+      <c r="E19" s="64">
         <v>20</v>
       </c>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63" t="str">
-        <f>_xlfn.CONCAT("0",IF(M19&lt;10,"0",""),M19)</f>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64" t="str">
+        <f t="shared" si="8"/>
         <v>016</v>
       </c>
-      <c r="H19" s="120" t="str">
-        <f>H18</f>
+      <c r="H19" s="121" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve">Group A|G4A, Group B|G4B</v>
       </c>
-      <c r="I19" s="121" t="s">
-        <v>280</v>
-      </c>
-      <c r="J19" s="63"/>
-      <c r="K19" s="122" t="str">
+      <c r="I19" s="122" t="s">
+        <v>290</v>
+      </c>
+      <c r="J19" s="64"/>
+      <c r="K19" s="123" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="L19" s="123" t="str">
-        <f>L18</f>
+      <c r="L19" s="124" t="str">
+        <f t="shared" si="13"/>
         <v xml:space="preserve">teacher01|main@G4A, teacher01|main@G4B</v>
       </c>
-      <c r="M19" s="124">
-        <f>M18+1</f>
+      <c r="M19" s="125">
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
     </row>
     <row r="20" ht="30" customHeight="1">
       <c r="A20" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(M20&lt;10,"0",""),M20)</f>
+        <f t="shared" si="7"/>
         <v>subject17</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="C20" s="77" t="str">
-        <f t="shared" si="1"/>
+        <v>291</v>
+      </c>
+      <c r="C20" s="78" t="str">
+        <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D20" s="63">
+      <c r="D20" s="64">
         <v>5</v>
       </c>
-      <c r="E20" s="63">
+      <c r="E20" s="64">
         <v>20</v>
       </c>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63" t="str">
-        <f>_xlfn.CONCAT("0",IF(M20&lt;10,"0",""),M20)</f>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64" t="str">
+        <f t="shared" si="8"/>
         <v>017</v>
       </c>
-      <c r="H20" s="120" t="s">
-        <v>282</v>
-      </c>
-      <c r="I20" s="121" t="s">
-        <v>280</v>
-      </c>
-      <c r="J20" s="63"/>
-      <c r="K20" s="122" t="str">
+      <c r="H20" s="121" t="s">
+        <v>292</v>
+      </c>
+      <c r="I20" s="122" t="s">
+        <v>290</v>
+      </c>
+      <c r="J20" s="64"/>
+      <c r="K20" s="123" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L20" s="123" t="s">
-        <v>283</v>
-      </c>
-      <c r="M20" s="124">
-        <f>M19+1</f>
+      <c r="L20" s="124" t="s">
+        <v>293</v>
+      </c>
+      <c r="M20" s="125">
+        <f t="shared" si="11"/>
         <v>17</v>
       </c>
     </row>
     <row r="21" ht="30" customHeight="1">
       <c r="A21" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(M21&lt;10,"0",""),M21)</f>
+        <f t="shared" si="7"/>
         <v>subject18</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="C21" s="77" t="str">
-        <f t="shared" si="1"/>
+        <v>294</v>
+      </c>
+      <c r="C21" s="78" t="str">
+        <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D21" s="63">
+      <c r="D21" s="64">
         <v>5</v>
       </c>
-      <c r="E21" s="63">
+      <c r="E21" s="64">
         <v>20</v>
       </c>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63" t="str">
-        <f>_xlfn.CONCAT("0",IF(M21&lt;10,"0",""),M21)</f>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64" t="str">
+        <f t="shared" si="8"/>
         <v>018</v>
       </c>
-      <c r="H21" s="120" t="str">
-        <f>H20</f>
+      <c r="H21" s="121" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve">Group A|G5A, Group B|G5B</v>
       </c>
-      <c r="I21" s="121" t="s">
-        <v>280</v>
-      </c>
-      <c r="J21" s="63"/>
-      <c r="K21" s="122" t="str">
+      <c r="I21" s="122" t="s">
+        <v>290</v>
+      </c>
+      <c r="J21" s="64"/>
+      <c r="K21" s="123" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L21" s="123" t="str">
-        <f>L20</f>
+      <c r="L21" s="124" t="str">
+        <f t="shared" si="13"/>
         <v xml:space="preserve">teacher01|main@G5A, teacher01|main@G5B</v>
       </c>
-      <c r="M21" s="124">
-        <f>M20+1</f>
+      <c r="M21" s="125">
+        <f t="shared" si="11"/>
         <v>18</v>
       </c>
     </row>
     <row r="22" ht="30" customHeight="1">
       <c r="A22" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(M22&lt;10,"0",""),M22)</f>
+        <f t="shared" si="7"/>
         <v>subject19</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="C22" s="77" t="str">
-        <f t="shared" si="1"/>
+        <v>295</v>
+      </c>
+      <c r="C22" s="78" t="str">
+        <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D22" s="63">
+      <c r="D22" s="64">
         <v>5</v>
       </c>
-      <c r="E22" s="63">
+      <c r="E22" s="64">
         <v>20</v>
       </c>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63" t="str">
-        <f>_xlfn.CONCAT("0",IF(M22&lt;10,"0",""),M22)</f>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64" t="str">
+        <f t="shared" si="8"/>
         <v>019</v>
       </c>
-      <c r="H22" s="120" t="str">
-        <f>H21</f>
+      <c r="H22" s="121" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve">Group A|G5A, Group B|G5B</v>
       </c>
-      <c r="I22" s="121" t="s">
-        <v>280</v>
-      </c>
-      <c r="J22" s="63"/>
-      <c r="K22" s="122" t="str">
+      <c r="I22" s="122" t="s">
+        <v>290</v>
+      </c>
+      <c r="J22" s="64"/>
+      <c r="K22" s="123" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L22" s="123" t="str">
-        <f>L21</f>
+      <c r="L22" s="124" t="str">
+        <f t="shared" si="13"/>
         <v xml:space="preserve">teacher01|main@G5A, teacher01|main@G5B</v>
       </c>
-      <c r="M22" s="124">
-        <f>M21+1</f>
+      <c r="M22" s="125">
+        <f t="shared" si="11"/>
         <v>19</v>
       </c>
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="A23" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(M23&lt;10,"0",""),M23)</f>
+        <f t="shared" si="7"/>
         <v>subject20</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="C23" s="77" t="str">
-        <f t="shared" si="1"/>
+        <v>296</v>
+      </c>
+      <c r="C23" s="78" t="str">
+        <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D23" s="63">
+      <c r="D23" s="64">
         <v>5</v>
       </c>
-      <c r="E23" s="63">
+      <c r="E23" s="64">
         <v>20</v>
       </c>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63" t="str">
-        <f>_xlfn.CONCAT("0",IF(M23&lt;10,"0",""),M23)</f>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64" t="str">
+        <f t="shared" si="8"/>
         <v>020</v>
       </c>
-      <c r="H23" s="120" t="str">
-        <f>H22</f>
+      <c r="H23" s="121" t="str">
+        <f t="shared" si="12"/>
         <v xml:space="preserve">Group A|G5A, Group B|G5B</v>
       </c>
-      <c r="I23" s="121" t="s">
-        <v>280</v>
-      </c>
-      <c r="J23" s="63"/>
-      <c r="K23" s="122" t="str">
+      <c r="I23" s="122" t="s">
+        <v>290</v>
+      </c>
+      <c r="J23" s="64"/>
+      <c r="K23" s="123" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="L23" s="123" t="str">
-        <f>L22</f>
+      <c r="L23" s="124" t="str">
+        <f t="shared" si="13"/>
         <v xml:space="preserve">teacher01|main@G5A, teacher01|main@G5B</v>
       </c>
-      <c r="M23" s="124">
-        <f>M22+1</f>
+      <c r="M23" s="125">
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
     </row>
     <row r="24" ht="14.25">
-      <c r="E24" s="14"/>
-      <c r="M24" s="74"/>
+      <c r="E24" s="15"/>
+      <c r="M24" s="75"/>
     </row>
     <row r="25" ht="14.25"/>
   </sheetData>
@@ -3672,6 +3703,9 @@
     <col customWidth="1" min="22" max="22" width="14.421875"/>
     <col customWidth="1" min="28" max="28" width="15.00390625"/>
     <col customWidth="1" min="29" max="29" width="17.140625"/>
+    <col customWidth="1" min="31" max="31" width="11.7109375"/>
+    <col customWidth="1" min="32" max="32" width="13.8515625"/>
+    <col customWidth="1" min="33" max="33" width="14.00390625"/>
   </cols>
   <sheetData>
     <row r="1" s="12" customFormat="1" ht="14.25">
@@ -3787,217 +3821,261 @@
         <f>_xlfn.CONCAT($AC$3,".",AC5)</f>
         <v>plugins.leebrary.library</v>
       </c>
+      <c r="AD1" s="12" t="str">
+        <f>_xlfn.CONCAT($AD$3,".",AD5)</f>
+        <v>plugins.grades.rules</v>
+      </c>
+      <c r="AE1" s="13" t="str">
+        <f>_xlfn.CONCAT($AD$3,".",AE5)</f>
+        <v>plugins.grades.evaluations</v>
+      </c>
+      <c r="AF1" s="13" t="str">
+        <f>_xlfn.CONCAT($AD$3,".",AF5)</f>
+        <v>plugins.grades.promotions</v>
+      </c>
+      <c r="AG1" s="13" t="str">
+        <f>_xlfn.CONCAT($AD$3,".",AG5)</f>
+        <v>plugins.grades.dependencies</v>
+      </c>
     </row>
     <row r="2" s="9" customFormat="1" ht="21.350000000000001" customHeight="1">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="14"/>
     </row>
     <row r="3" ht="14.25">
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="17" t="s">
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="21" t="s">
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="15" t="s">
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="W3" s="16"/>
-      <c r="X3" s="24" t="s">
+      <c r="W3" s="17"/>
+      <c r="X3" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="25"/>
-      <c r="AA3" s="25"/>
-      <c r="AB3" s="26" t="s">
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="AC3" s="19" t="s">
+      <c r="AC3" s="20" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" s="27" customFormat="1" ht="19.850000000000001" customHeight="1">
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="28" t="s">
+      <c r="AD3" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="30" t="s">
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+    </row>
+    <row r="4" s="28" customFormat="1" ht="19.850000000000001" customHeight="1">
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="32" t="s">
+      <c r="J4" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="34" t="s">
+      <c r="K4" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="28" t="s">
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="W4" s="29"/>
-      <c r="X4" s="30" t="s">
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="Y4" s="37"/>
-      <c r="Z4" s="37"/>
-      <c r="AA4" s="37"/>
-      <c r="AB4" s="31" t="s">
+      <c r="W4" s="30"/>
+      <c r="X4" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="AC4" s="32" t="s">
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="32" t="s">
         <v>54</v>
       </c>
+      <c r="AC4" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD4" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE4" s="36"/>
+      <c r="AF4" s="36"/>
+      <c r="AG4" s="36"/>
     </row>
     <row r="5" ht="14.25">
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" s="39" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="H5" s="40" t="s">
+      <c r="F5" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="41" t="s">
+      <c r="G5" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="H5" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="K5" s="43" t="s">
+      <c r="I5" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="L5" s="44" t="s">
+      <c r="J5" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="M5" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="N5" s="44" t="s">
+      <c r="K5" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="O5" s="44" t="s">
+      <c r="L5" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="P5" s="45" t="s">
+      <c r="M5" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="N5" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="Q5" s="46" t="s">
+      <c r="O5" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="R5" s="46" t="s">
+      <c r="P5" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="S5" s="46" t="s">
+      <c r="Q5" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="T5" s="46" t="s">
+      <c r="R5" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="U5" s="47" t="s">
+      <c r="S5" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="V5" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="W5" s="39" t="s">
+      <c r="T5" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="X5" s="41" t="s">
+      <c r="U5" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="Y5" s="41" t="s">
+      <c r="V5" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="W5" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="Z5" s="41" t="s">
+      <c r="X5" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="AA5" s="41" t="s">
+      <c r="Y5" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="AB5" s="42" t="s">
+      <c r="Z5" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="AC5" s="48" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" s="49" customFormat="1" ht="19.5" customHeight="1">
+      <c r="AA5" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB5" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC5" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD5" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE5" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF5" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG5" s="47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" s="50" customFormat="1" ht="19.5" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>24</v>
       </c>
@@ -4007,409 +4085,463 @@
       <c r="C6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" s="51" t="s">
-        <v>46</v>
+      <c r="D6" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>47</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="H6" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="I6" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="L6" s="56" t="s">
-        <v>82</v>
-      </c>
-      <c r="M6" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="N6" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="O6" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="P6" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q6" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="R6" s="58" t="s">
+      <c r="J6" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="S6" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="T6" s="58" t="s">
-        <v>88</v>
-      </c>
-      <c r="U6" s="59" t="s">
+      <c r="N6" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="V6" s="51" t="s">
-        <v>85</v>
+      <c r="O6" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="P6" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q6" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="R6" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="S6" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="T6" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="U6" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="V6" s="52" t="s">
+        <v>91</v>
       </c>
       <c r="W6" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="X6" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y6" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z6" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="X6" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y6" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z6" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA6" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB6" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="AA6" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB6" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC6" s="61" t="s">
-        <v>54</v>
+      <c r="AC6" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD6" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE6" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF6" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG6" s="59" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="7" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A7" s="10" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="F7" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="G7" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="H7" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="I7" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="J7" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="K7" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="L7" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="M7" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="N7" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="O7" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="P7" s="64" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q7" s="64" t="s">
-        <v>93</v>
-      </c>
-      <c r="R7" s="64"/>
-      <c r="S7" s="64"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="64"/>
-      <c r="V7" s="64" t="s">
-        <v>93</v>
-      </c>
-      <c r="W7" s="64" t="s">
-        <v>93</v>
-      </c>
-      <c r="X7" s="64" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y7" s="64" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z7" s="64" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA7" s="64" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB7" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC7" s="63" t="s">
-        <v>93</v>
+        <v>105</v>
+      </c>
+      <c r="D7" s="63"/>
+      <c r="E7" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="I7" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="J7" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="K7" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="L7" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="M7" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="N7" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="O7" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="P7" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q7" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="R7" s="65"/>
+      <c r="S7" s="65"/>
+      <c r="T7" s="65"/>
+      <c r="U7" s="65"/>
+      <c r="V7" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="W7" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="X7" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y7" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z7" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA7" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB7" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC7" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD7" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE7" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF7" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG7" s="65" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="8" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A8" s="10" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D8" s="62"/>
-      <c r="E8" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="F8" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="G8" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="H8" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="I8" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="J8" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="K8" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="L8" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="M8" s="63"/>
-      <c r="N8" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="O8" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="P8" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q8" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="R8" s="64"/>
-      <c r="S8" s="63"/>
-      <c r="T8" s="63"/>
-      <c r="U8" s="63"/>
-      <c r="V8" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="W8" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="X8" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y8" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z8" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA8" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB8" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC8" s="63" t="s">
-        <v>101</v>
+        <v>108</v>
+      </c>
+      <c r="D8" s="63"/>
+      <c r="E8" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="H8" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="I8" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="J8" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="M8" s="64"/>
+      <c r="N8" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="O8" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="P8" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q8" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="R8" s="65"/>
+      <c r="S8" s="64"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="64"/>
+      <c r="V8" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="W8" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="X8" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y8" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z8" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA8" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB8" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC8" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD8" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE8" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF8" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG8" s="64" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="9" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A9" s="10" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="63"/>
+      <c r="E9" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" s="62"/>
-      <c r="E9" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="F9" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="G9" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="H9" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="I9" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="J9" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="K9" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="L9" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="M9" s="63"/>
-      <c r="N9" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="O9" s="63"/>
-      <c r="P9" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q9" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="R9" s="63" t="s">
-        <v>101</v>
-      </c>
-      <c r="S9" s="63" t="s">
-        <v>101</v>
-      </c>
-      <c r="T9" s="63" t="s">
-        <v>101</v>
-      </c>
-      <c r="U9" s="63" t="s">
-        <v>101</v>
-      </c>
-      <c r="V9" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="W9" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="X9" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y9" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z9" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA9" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB9" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC9" s="63" t="s">
-        <v>101</v>
+      <c r="F9" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="H9" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="I9" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="L9" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="O9" s="64"/>
+      <c r="P9" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q9" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="R9" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="S9" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="T9" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="U9" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="V9" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="W9" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="X9" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y9" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z9" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA9" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB9" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC9" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD9" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE9" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF9" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG9" s="64" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="10" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A10" s="10" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="D10" s="62" t="str">
+        <v>117</v>
+      </c>
+      <c r="D10" s="63" t="str">
         <f>A9</f>
         <v>student</v>
       </c>
-      <c r="E10" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="G10" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="H10" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="I10" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="J10" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="K10" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="L10" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="M10" s="63"/>
-      <c r="N10" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="O10" s="63"/>
-      <c r="P10" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q10" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="R10" s="63" t="s">
-        <v>101</v>
-      </c>
-      <c r="S10" s="63" t="s">
-        <v>101</v>
-      </c>
-      <c r="T10" s="63" t="s">
-        <v>101</v>
-      </c>
-      <c r="U10" s="63" t="s">
-        <v>101</v>
-      </c>
-      <c r="V10" s="63"/>
-      <c r="W10" s="63"/>
-      <c r="X10" s="63"/>
-      <c r="Y10" s="63"/>
-      <c r="Z10" s="63"/>
-      <c r="AA10" s="63"/>
-      <c r="AB10" s="63"/>
-      <c r="AC10" s="63" t="s">
-        <v>101</v>
-      </c>
+      <c r="E10" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="H10" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="I10" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="L10" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="O10" s="64"/>
+      <c r="P10" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q10" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="R10" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="S10" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="T10" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="U10" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="V10" s="64"/>
+      <c r="W10" s="64"/>
+      <c r="X10" s="64"/>
+      <c r="Y10" s="64"/>
+      <c r="Z10" s="64"/>
+      <c r="AA10" s="64"/>
+      <c r="AB10" s="64"/>
+      <c r="AC10" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD10" s="64"/>
+      <c r="AE10" s="64"/>
+      <c r="AF10" s="64"/>
+      <c r="AG10" s="64"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="E2:AC2"/>
+  <mergeCells count="13">
+    <mergeCell ref="E2:AG2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="K3:O3"/>
     <mergeCell ref="P3:U3"/>
     <mergeCell ref="V3:W3"/>
     <mergeCell ref="X3:AA3"/>
+    <mergeCell ref="AD3:AG3"/>
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="K4:O4"/>
     <mergeCell ref="P4:U4"/>
     <mergeCell ref="V4:W4"/>
     <mergeCell ref="X4:AA4"/>
+    <mergeCell ref="AD4:AG4"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -4452,28 +4584,28 @@
         <v>21</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>23</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1">
@@ -4484,277 +4616,277 @@
         <v>25</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H2" s="65" t="s">
+        <v>128</v>
+      </c>
+      <c r="H2" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="66" t="s">
-        <v>119</v>
-      </c>
-      <c r="J2" s="67" t="s">
-        <v>80</v>
+      <c r="I2" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="J2" s="68" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="68">
+      <c r="E3" s="69">
         <v>36526</v>
       </c>
-      <c r="F3" s="69" t="s">
-        <v>123</v>
+      <c r="F3" s="70" t="s">
+        <v>133</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="H3" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="H3" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="63" t="s">
-        <v>125</v>
-      </c>
-      <c r="J3" s="70" t="s">
-        <v>126</v>
+      <c r="I3" s="64" t="s">
+        <v>135</v>
+      </c>
+      <c r="J3" s="71" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="68">
+      <c r="E4" s="69">
         <v>34781</v>
       </c>
-      <c r="F4" s="69" t="s">
-        <v>129</v>
+      <c r="F4" s="70" t="s">
+        <v>139</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="H4" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="H4" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="63" t="s">
-        <v>130</v>
-      </c>
-      <c r="J4" s="70" t="s">
-        <v>131</v>
+      <c r="I4" s="64" t="s">
+        <v>140</v>
+      </c>
+      <c r="J4" s="71" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="5" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A5" s="71" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5" s="72" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5" s="72" t="s">
-        <v>103</v>
+      <c r="A5" s="72" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="73" t="s">
+        <v>113</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="68">
+      <c r="E5" s="69">
         <v>39205</v>
       </c>
-      <c r="F5" s="73" t="s">
+      <c r="F5" s="74" t="s">
+        <v>144</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="H5" s="63" t="s">
+      <c r="H5" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="63" t="s">
-        <v>135</v>
-      </c>
-      <c r="J5" s="70" t="s">
-        <v>136</v>
+      <c r="I5" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="J5" s="71" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="6" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A6" s="71" t="s">
-        <v>137</v>
-      </c>
-      <c r="B6" s="72" t="s">
-        <v>138</v>
-      </c>
-      <c r="C6" s="72" t="s">
-        <v>139</v>
+      <c r="A6" s="72" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="73" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="73" t="s">
+        <v>149</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="68">
+      <c r="E6" s="69">
         <v>39156</v>
       </c>
-      <c r="F6" s="73" t="s">
-        <v>140</v>
+      <c r="F6" s="74" t="s">
+        <v>150</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="H6" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="H6" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="63" t="s">
-        <v>135</v>
-      </c>
-      <c r="J6" s="70" t="s">
-        <v>136</v>
+      <c r="I6" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="J6" s="71" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="7" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A7" s="71" t="s">
-        <v>141</v>
-      </c>
-      <c r="B7" s="72" t="s">
-        <v>142</v>
-      </c>
-      <c r="C7" s="72" t="s">
-        <v>103</v>
+      <c r="A7" s="72" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="73" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="73" t="s">
+        <v>113</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="68">
+      <c r="E7" s="69">
         <v>42171</v>
       </c>
-      <c r="F7" s="73" t="s">
-        <v>143</v>
+      <c r="F7" s="74" t="s">
+        <v>153</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="H7" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="H7" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="63" t="s">
-        <v>135</v>
-      </c>
-      <c r="J7" s="70" t="s">
-        <v>144</v>
+      <c r="I7" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="J7" s="71" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="8" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A8" s="71" t="s">
-        <v>145</v>
-      </c>
-      <c r="B8" s="72" t="s">
-        <v>146</v>
-      </c>
-      <c r="C8" s="72" t="s">
-        <v>139</v>
+      <c r="A8" s="72" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="73" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="73" t="s">
+        <v>149</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="68">
+      <c r="E8" s="69">
         <v>42237</v>
       </c>
-      <c r="F8" s="73" t="s">
-        <v>147</v>
+      <c r="F8" s="74" t="s">
+        <v>157</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="H8" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="H8" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="63" t="s">
-        <v>135</v>
-      </c>
-      <c r="J8" s="70" t="s">
-        <v>144</v>
+      <c r="I8" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="J8" s="71" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="9" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A9" s="71" t="s">
-        <v>148</v>
-      </c>
-      <c r="B9" s="72" t="s">
-        <v>149</v>
-      </c>
-      <c r="C9" s="72" t="s">
-        <v>150</v>
+      <c r="A9" s="72" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" s="73" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="73" t="s">
+        <v>160</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="68">
+      <c r="E9" s="69">
         <v>27791</v>
       </c>
-      <c r="F9" s="73" t="s">
-        <v>151</v>
+      <c r="F9" s="74" t="s">
+        <v>161</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="H9" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="H9" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="63" t="s">
-        <v>152</v>
-      </c>
-      <c r="J9" s="70" t="s">
-        <v>153</v>
+      <c r="I9" s="64" t="s">
+        <v>162</v>
+      </c>
+      <c r="J9" s="71" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" s="74"/>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="74"/>
+      <c r="A10" s="75"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="75"/>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" s="74"/>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
+      <c r="A11" s="75"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4771,43 +4903,43 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7" disablePrompts="0">
-        <x14:dataValidation xr:uid="{000F0098-0008-4598-B905-00C700B7006E}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00E20068-00EA-466A-8C14-005A0072003E}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>D3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00DE00B5-00DE-42F0-BABE-00D2009F00C0}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00DC0091-008E-443F-8A0B-00E400FF0030}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>D4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{004800B3-00A9-43F5-A5C2-002F0026004A}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00F500AE-0033-491F-AAFF-00B70011004D}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>D5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00A80011-00C7-45B7-98E4-00B900B100FC}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00380058-0023-45F5-92E1-004600B80070}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>D6</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{008A001E-00D6-4732-B365-00A800C80021}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00370022-0032-48A4-B475-00AE000E0065}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>D7</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{006E0007-00D8-4EEB-9721-00FD0035000D}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{004E0096-0057-4D3A-930F-002E0018003A}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>D8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{000A0039-00B8-4DA5-948F-007100C20012}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{004C0034-0067-4D3A-9301-009E00D900F3}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
@@ -4842,22 +4974,22 @@
         <v>20</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" ht="22.100000000000001" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="76" t="s">
-        <v>155</v>
+      <c r="B2" s="77" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B3" s="77" t="str">
+        <v>115</v>
+      </c>
+      <c r="B3" s="78" t="str">
         <f>profiles!$A$10</f>
         <v>guardian</v>
       </c>
@@ -4869,9 +5001,9 @@
     </row>
     <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4" s="77" t="str">
+        <v>112</v>
+      </c>
+      <c r="B4" s="78" t="str">
         <f>profiles!$A$9</f>
         <v>student</v>
       </c>
@@ -4922,47 +5054,47 @@
         <v>21</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" ht="24.350000000000001" customHeight="1">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="80" t="s">
-        <v>159</v>
-      </c>
-      <c r="D2" s="76" t="s">
-        <v>160</v>
-      </c>
-      <c r="E2" s="67" t="s">
-        <v>161</v>
+      <c r="C2" s="81" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="77" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="68" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="C3" s="77" t="s">
-        <v>164</v>
-      </c>
-      <c r="D3" s="81" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="78" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="77" t="s">
-        <v>165</v>
+      <c r="E3" s="78" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="4"/>
@@ -4974,7 +5106,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00A20041-00C7-4E0E-AC06-0037007700D3}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00F300FA-0092-4F71-8A30-003E00610031}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GUARDIANS_RELATIONSHIPS</xm:f>
           </x14:formula1>
@@ -5008,31 +5140,31 @@
         <v>20</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" ht="22.100000000000001" customHeight="1">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="80" t="s">
-        <v>155</v>
+      <c r="B2" s="81" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" s="77" t="str">
+        <v>106</v>
+      </c>
+      <c r="B3" s="78" t="str">
         <f>profiles!$A$8</f>
         <v>teacher</v>
       </c>
     </row>
     <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4" s="77" t="str">
+        <v>112</v>
+      </c>
+      <c r="B4" s="78" t="str">
         <f>profiles!$A$9</f>
         <v>student</v>
       </c>
@@ -5089,67 +5221,67 @@
         <v>21</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="X1" s="5"/>
       <c r="Y1" s="5"/>
@@ -5172,236 +5304,236 @@
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
-      <c r="E2" s="82" t="s">
-        <v>186</v>
-      </c>
-      <c r="F2" s="82"/>
-      <c r="G2" s="83" t="s">
-        <v>187</v>
-      </c>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="86" t="s">
-        <v>188</v>
-      </c>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="87" t="s">
-        <v>189</v>
-      </c>
-      <c r="R2" s="88"/>
-      <c r="S2" s="88"/>
-      <c r="T2" s="89"/>
-      <c r="U2" s="90" t="s">
-        <v>190</v>
-      </c>
-      <c r="V2" s="91"/>
-      <c r="W2" s="91"/>
+      <c r="E2" s="83" t="s">
+        <v>196</v>
+      </c>
+      <c r="F2" s="83"/>
+      <c r="G2" s="84" t="s">
+        <v>197</v>
+      </c>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="87" t="s">
+        <v>198</v>
+      </c>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="88" t="s">
+        <v>199</v>
+      </c>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="90"/>
+      <c r="U2" s="91" t="s">
+        <v>200</v>
+      </c>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
     </row>
     <row r="3" ht="34.100000000000001" customHeight="1">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="93" t="s">
-        <v>191</v>
-      </c>
-      <c r="D3" s="94" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" s="95" t="s">
-        <v>192</v>
-      </c>
-      <c r="F3" s="96" t="s">
-        <v>193</v>
-      </c>
-      <c r="G3" s="97" t="s">
-        <v>194</v>
-      </c>
-      <c r="H3" s="98" t="s">
-        <v>195</v>
-      </c>
-      <c r="I3" s="99" t="s">
-        <v>196</v>
-      </c>
-      <c r="J3" s="99" t="s">
-        <v>197</v>
-      </c>
-      <c r="K3" s="99" t="s">
-        <v>198</v>
-      </c>
-      <c r="L3" s="99" t="s">
-        <v>199</v>
-      </c>
-      <c r="M3" s="99" t="s">
-        <v>200</v>
-      </c>
-      <c r="N3" s="100" t="s">
+      <c r="C3" s="94" t="s">
         <v>201</v>
       </c>
-      <c r="O3" s="101" t="s">
-        <v>199</v>
-      </c>
-      <c r="P3" s="102" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q3" s="103" t="s">
+      <c r="D3" s="95" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="96" t="s">
         <v>202</v>
       </c>
-      <c r="R3" s="104" t="s">
+      <c r="F3" s="97" t="s">
         <v>203</v>
       </c>
-      <c r="S3" s="104" t="s">
-        <v>199</v>
-      </c>
-      <c r="T3" s="104" t="s">
-        <v>200</v>
-      </c>
-      <c r="U3" s="105" t="s">
-        <v>199</v>
-      </c>
-      <c r="V3" s="106" t="s">
+      <c r="G3" s="98" t="s">
         <v>204</v>
       </c>
-      <c r="W3" s="107" t="s">
+      <c r="H3" s="99" t="s">
         <v>205</v>
+      </c>
+      <c r="I3" s="100" t="s">
+        <v>206</v>
+      </c>
+      <c r="J3" s="100" t="s">
+        <v>207</v>
+      </c>
+      <c r="K3" s="100" t="s">
+        <v>208</v>
+      </c>
+      <c r="L3" s="100" t="s">
+        <v>209</v>
+      </c>
+      <c r="M3" s="100" t="s">
+        <v>210</v>
+      </c>
+      <c r="N3" s="101" t="s">
+        <v>211</v>
+      </c>
+      <c r="O3" s="102" t="s">
+        <v>209</v>
+      </c>
+      <c r="P3" s="103" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q3" s="104" t="s">
+        <v>212</v>
+      </c>
+      <c r="R3" s="105" t="s">
+        <v>213</v>
+      </c>
+      <c r="S3" s="105" t="s">
+        <v>209</v>
+      </c>
+      <c r="T3" s="105" t="s">
+        <v>210</v>
+      </c>
+      <c r="U3" s="106" t="s">
+        <v>209</v>
+      </c>
+      <c r="V3" s="107" t="s">
+        <v>214</v>
+      </c>
+      <c r="W3" s="108" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="D4" s="77" t="str">
+        <v>218</v>
+      </c>
+      <c r="D4" s="78" t="str">
         <f>centers!$A$3</f>
         <v>centerA</v>
       </c>
-      <c r="E4" s="63" t="s">
+      <c r="E4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="63">
+      <c r="F4" s="64">
         <v>0</v>
       </c>
-      <c r="G4" s="63">
+      <c r="G4" s="64">
         <v>5</v>
       </c>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63" t="s">
+      <c r="H4" s="64"/>
+      <c r="I4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="108"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63" t="s">
+      <c r="J4" s="109"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63" t="s">
+      <c r="O4" s="64"/>
+      <c r="P4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="63" t="s">
+      <c r="Q4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="63" t="s">
+      <c r="R4" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="S4" s="63">
+      <c r="S4" s="64">
         <v>3</v>
       </c>
-      <c r="T4" s="63" t="s">
+      <c r="T4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="63">
+      <c r="U4" s="64">
         <v>3</v>
       </c>
-      <c r="V4" s="63" t="s">
+      <c r="V4" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="W4" s="63" t="s">
+      <c r="W4" s="64" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" s="9" customFormat="1" ht="28.5">
       <c r="A5" s="10" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="D5" s="77" t="str">
+        <v>221</v>
+      </c>
+      <c r="D5" s="78" t="str">
         <f>centers!$A$4</f>
         <v>centerB</v>
       </c>
-      <c r="E5" s="63" t="s">
+      <c r="E5" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="63">
+      <c r="F5" s="64">
         <v>240</v>
       </c>
-      <c r="G5" s="63">
+      <c r="G5" s="64">
         <v>4</v>
       </c>
-      <c r="H5" s="63">
+      <c r="H5" s="64">
         <v>60</v>
       </c>
-      <c r="I5" s="63" t="s">
+      <c r="I5" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="108" t="s">
-        <v>212</v>
-      </c>
-      <c r="K5" s="63" t="s">
+      <c r="J5" s="109" t="s">
+        <v>222</v>
+      </c>
+      <c r="K5" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="63">
+      <c r="L5" s="64">
         <v>4</v>
       </c>
-      <c r="M5" s="63" t="s">
+      <c r="M5" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="63" t="s">
+      <c r="N5" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="63">
+      <c r="O5" s="64">
         <v>4</v>
       </c>
-      <c r="P5" s="63" t="s">
+      <c r="P5" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="63" t="s">
+      <c r="Q5" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="R5" s="63" t="s">
+      <c r="R5" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="S5" s="63">
+      <c r="S5" s="64">
         <v>3</v>
       </c>
-      <c r="T5" s="63" t="s">
+      <c r="T5" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="U5" s="63">
+      <c r="U5" s="64">
         <v>3</v>
       </c>
-      <c r="V5" s="63" t="s">
+      <c r="V5" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="W5" s="63" t="s">
+      <c r="W5" s="64" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5420,79 +5552,79 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="13" disablePrompts="0">
-        <x14:dataValidation xr:uid="{004500A2-001A-4C6C-93D5-00AD008B0094}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00150003-0056-4217-9812-007500FC004F}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>W4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{006C00DE-00E1-4F5F-BA92-004600030058}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{006B00AE-00C6-4E73-9FA1-0040009800AF}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>W5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00390037-00DB-4B2E-9176-00E7001F0024}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00AB004E-0031-475E-9D5B-00FD008A0073}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>V4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00250010-00D3-4855-BCB9-007800E3008C}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00760039-00BA-4951-923B-001C008E00EB}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>V5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0043008F-00A9-4022-B5D3-005900D900B6}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{000B0045-00D0-45E4-A095-00FC00160061}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>T4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00DB006D-00F3-4EAA-A741-004F00590002}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00F8001F-00A4-4BAD-B87B-0007002500E3}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>T5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{000F0048-001F-451F-9D0E-00D200C900F1}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{0057009F-001A-46EF-909D-007D00DE0066}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>R4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00C20022-0048-4A98-B584-004800D200EE}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{009F00B3-0056-4F73-BFF2-00EB0077008E}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>E4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00060088-003D-4CF7-A803-00B5001C004B}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00FF0033-00EB-454E-8361-006E009A00B6}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>E5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0050007A-00A8-4DDF-9171-006900480013}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{008600B8-005B-49DB-B53F-006B00F30093}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>I4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{005E0087-0007-42EF-BADF-007100A400A6}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{003B00F7-0068-4C26-B92B-009500A00089}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>I5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00C50038-007A-4DAA-B4E6-00C2000800CA}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{003300F3-0059-4F07-84D3-00C500960012}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>SUBSTAGES_FRECUENCY</xm:f>
           </x14:formula1>
           <xm:sqref>K4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00C80067-0006-4107-B9DD-00E000C800D6}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{004A006D-00AF-4F5A-88ED-00E9007600D0}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>SUBSTAGES_FRECUENCY</xm:f>
           </x14:formula1>
@@ -5531,83 +5663,83 @@
         <v>21</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" ht="28.5">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="94" t="s">
-        <v>216</v>
-      </c>
-      <c r="D2" s="109" t="s">
-        <v>193</v>
-      </c>
-      <c r="E2" s="109" t="s">
-        <v>217</v>
+      <c r="C2" s="95" t="s">
+        <v>226</v>
+      </c>
+      <c r="D2" s="110" t="s">
+        <v>203</v>
+      </c>
+      <c r="E2" s="110" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="C3" s="77" t="str">
+        <v>229</v>
+      </c>
+      <c r="C3" s="78" t="str">
         <f>ap_programs!$A$4</f>
         <v>programA</v>
       </c>
-      <c r="D3" s="63">
+      <c r="D3" s="64">
         <v>0</v>
       </c>
-      <c r="E3" s="63" t="s">
+      <c r="E3" s="64" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="C4" s="77" t="str">
+        <v>229</v>
+      </c>
+      <c r="C4" s="78" t="str">
         <f>ap_programs!$A$5</f>
         <v>programB</v>
       </c>
-      <c r="D4" s="63">
+      <c r="D4" s="64">
         <v>0</v>
       </c>
-      <c r="E4" s="63" t="s">
+      <c r="E4" s="64" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" ht="19.5" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="C5" s="77" t="str">
+        <v>232</v>
+      </c>
+      <c r="C5" s="78" t="str">
         <f>ap_programs!$A$4</f>
         <v>programA</v>
       </c>
-      <c r="D5" s="63">
+      <c r="D5" s="64">
         <v>0</v>
       </c>
-      <c r="E5" s="63" t="s">
+      <c r="E5" s="64" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5619,19 +5751,19 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00EA00BE-005B-49A2-964B-007100200056}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{008D005A-00C0-403F-81DB-00E20094004A}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>E3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0093002A-0080-4F66-938D-008A00060053}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00A60045-0013-44A2-89E7-003500510019}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>E4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00670033-00E1-41BC-8A72-006D002C0083}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00E8008E-00D2-4E98-B729-009D00E50024}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>

--- a/packages/leemons-plugin-mvp-template/src/bulk/data.xlsx
+++ b/packages/leemons-plugin-mvp-template/src/bulk/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,25 +12,26 @@
     <sheet name="users" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="f_profiles" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="families" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="ap_profiles" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="ap_programs" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="ap_subject_types" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="ap_knowledges" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="ap_subjects" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="rules" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="ar_evaluations" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="ap_profiles" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="ap_programs" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="ap_subject_types" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="ap_knowledges" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="ap_subjects" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="SUBSTAGES_FRECUENCY" hidden="0">DB!$A$2:$A$8</definedName>
     <definedName name="BOOLEAN_ANSWER" hidden="0">DB!$A$11:$A$12</definedName>
     <definedName name="GENRE_ANSWER" hidden="0">DB!$A$15:$A$16</definedName>
     <definedName name="GUARDIANS_RELATIONSHIPS" hidden="0">DB!$A$19:$A$23</definedName>
+    <definedName name="GRADES_TYPES" hidden="0">DB!$A$26:$A$27</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="312">
   <si>
     <t xml:space="preserve">Substages frecuency</t>
   </si>
@@ -92,6 +93,15 @@
     <t>Separated</t>
   </si>
   <si>
+    <t xml:space="preserve">Grades types</t>
+  </si>
+  <si>
+    <t>Numeric</t>
+  </si>
+  <si>
+    <t>Letter</t>
+  </si>
+  <si>
     <t>root</t>
   </si>
   <si>
@@ -560,9 +570,42 @@
     <t xml:space="preserve">111-222-333@Mom's phone|mother</t>
   </si>
   <si>
+    <t>center</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>isPercentage</t>
+  </si>
+  <si>
+    <t>scales</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is percentage?</t>
+  </si>
+  <si>
+    <t>Scales</t>
+  </si>
+  <si>
+    <t>gradeA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESO grades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN|1|Insuficiente, IN|2|Insuficiente, IN|3|Insuficiente, IN|4|Insuficiente, SU|5|Suficiente, BI|6|Bien, NT|7|Notable, NT|8|Notable, SB|9|Sobresaliente, SB|10|Sobresaliente</t>
+  </si>
+  <si>
     <t>abbreviation</t>
   </si>
   <si>
+    <t>evaluationSystem</t>
+  </si>
+  <si>
     <t>creditSystem</t>
   </si>
   <si>
@@ -636,6 +679,9 @@
   </si>
   <si>
     <t>Acronym</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluation system</t>
   </si>
   <si>
     <t xml:space="preserve">Use credit system?</t>
@@ -1425,7 +1471,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="131">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1612,6 +1658,9 @@
     <xf fontId="0" fillId="0" borderId="20" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf fontId="4" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1667,6 +1716,21 @@
     <xf fontId="0" fillId="17" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf fontId="4" fillId="4" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="4" fillId="16" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf fontId="1" fillId="7" borderId="21" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1706,6 +1770,9 @@
     <xf fontId="4" fillId="16" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf fontId="4" fillId="16" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf fontId="12" fillId="4" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1752,12 +1819,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="1" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="4" fillId="4" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="4" fillId="16" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="4" fillId="4" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2419,7 +2480,21 @@
       </c>
     </row>
     <row r="24" ht="14.25"/>
-    <row r="25" ht="14.25"/>
+    <row r="25" ht="14.25">
+      <c r="A25" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25">
+      <c r="A26" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25">
+      <c r="A27" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -2442,6 +2517,145 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
+    <col customWidth="1" min="3" max="3" width="11.421875"/>
+    <col customWidth="1" min="4" max="4" width="10.421875"/>
+    <col customWidth="1" min="5" max="5" width="12.421875"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" ht="28.5">
+      <c r="A2" s="99" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="100" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="101" t="s">
+        <v>241</v>
+      </c>
+      <c r="D2" s="117" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2" s="117" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A3" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C3" s="79" t="str">
+        <f>ap_programs!$A$4</f>
+        <v>programA</v>
+      </c>
+      <c r="D3" s="64">
+        <v>0</v>
+      </c>
+      <c r="E3" s="64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A4" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="79" t="str">
+        <f>ap_programs!$A$5</f>
+        <v>programB</v>
+      </c>
+      <c r="D4" s="64">
+        <v>0</v>
+      </c>
+      <c r="E4" s="64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" ht="19.5" customHeight="1">
+      <c r="A5" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="C5" s="79" t="str">
+        <f>ap_programs!$A$4</f>
+        <v>programA</v>
+      </c>
+      <c r="D5" s="64">
+        <v>0</v>
+      </c>
+      <c r="E5" s="64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3" disablePrompts="0">
+        <x14:dataValidation xr:uid="{00AB004C-00BF-43AF-B98C-00E10079001D}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>BOOLEAN_ANSWER</xm:f>
+          </x14:formula1>
+          <xm:sqref>E3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{00E5002D-005B-480B-97F8-006D0087001E}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>BOOLEAN_ANSWER</xm:f>
+          </x14:formula1>
+          <xm:sqref>E4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{000A001C-0093-46FB-95E9-005C002D0087}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>BOOLEAN_ANSWER</xm:f>
+          </x14:formula1>
+          <xm:sqref>E5</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="7" tint="0"/>
+    <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0" zoomScale="100">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
     <col customWidth="1" min="1" max="1" width="14.57421875"/>
     <col customWidth="1" min="3" max="3" width="10.8515625"/>
     <col customWidth="1" min="5" max="5" width="13.8515625"/>
@@ -2450,67 +2664,67 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" ht="28.5">
-      <c r="A2" s="111" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="112" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="112" t="s">
-        <v>201</v>
-      </c>
-      <c r="D2" s="112" t="s">
-        <v>235</v>
-      </c>
-      <c r="E2" s="112" t="s">
-        <v>236</v>
-      </c>
-      <c r="F2" s="113" t="s">
-        <v>226</v>
-      </c>
-      <c r="G2" s="114" t="s">
-        <v>203</v>
+      <c r="A2" s="118" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="84" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" s="84" t="s">
+        <v>250</v>
+      </c>
+      <c r="E2" s="84" t="s">
+        <v>251</v>
+      </c>
+      <c r="F2" s="85" t="s">
+        <v>241</v>
+      </c>
+      <c r="G2" s="119" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="E3" s="115" t="s">
-        <v>241</v>
-      </c>
-      <c r="F3" s="78" t="str">
+        <v>255</v>
+      </c>
+      <c r="E3" s="120" t="s">
+        <v>256</v>
+      </c>
+      <c r="F3" s="79" t="str">
         <f>ap_programs!$A$5</f>
         <v>programB</v>
       </c>
@@ -2520,21 +2734,21 @@
     </row>
     <row r="4" ht="19.5" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="E4" s="70" t="s">
-        <v>246</v>
-      </c>
-      <c r="F4" s="78" t="str">
+        <v>260</v>
+      </c>
+      <c r="E4" s="71" t="s">
+        <v>261</v>
+      </c>
+      <c r="F4" s="79" t="str">
         <f>ap_programs!$A$5</f>
         <v>programB</v>
       </c>
@@ -2554,7 +2768,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0"/>
@@ -2583,42 +2797,42 @@
   <sheetData>
     <row r="1" ht="14.25">
       <c r="A1" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>233</v>
-      </c>
       <c r="J1" s="5" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="L1" s="116" t="s">
-        <v>253</v>
-      </c>
-      <c r="M1" s="75"/>
+        <v>267</v>
+      </c>
+      <c r="L1" s="121" t="s">
+        <v>268</v>
+      </c>
+      <c r="M1" s="76"/>
     </row>
     <row r="2" ht="28.850000000000001" customHeight="1">
       <c r="A2" s="5"/>
@@ -2629,52 +2843,52 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="1" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="75"/>
+      <c r="M2" s="76"/>
     </row>
     <row r="3" ht="31.850000000000001" customHeight="1">
-      <c r="A3" s="111" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="112" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="95" t="s">
-        <v>226</v>
-      </c>
-      <c r="D3" s="94" t="s">
-        <v>255</v>
-      </c>
-      <c r="E3" s="112" t="s">
-        <v>256</v>
-      </c>
-      <c r="F3" s="94" t="s">
-        <v>257</v>
-      </c>
-      <c r="G3" s="94" t="s">
-        <v>258</v>
-      </c>
-      <c r="H3" s="117" t="s">
-        <v>259</v>
-      </c>
-      <c r="I3" s="118" t="s">
-        <v>235</v>
-      </c>
-      <c r="J3" s="118" t="s">
-        <v>260</v>
-      </c>
-      <c r="K3" s="119" t="s">
-        <v>261</v>
-      </c>
-      <c r="L3" s="113" t="s">
-        <v>262</v>
-      </c>
-      <c r="M3" s="120"/>
+      <c r="A3" s="118" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="101" t="s">
+        <v>241</v>
+      </c>
+      <c r="D3" s="100" t="s">
+        <v>270</v>
+      </c>
+      <c r="E3" s="84" t="s">
+        <v>271</v>
+      </c>
+      <c r="F3" s="100" t="s">
+        <v>272</v>
+      </c>
+      <c r="G3" s="100" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3" s="122" t="s">
+        <v>274</v>
+      </c>
+      <c r="I3" s="123" t="s">
+        <v>250</v>
+      </c>
+      <c r="J3" s="123" t="s">
+        <v>275</v>
+      </c>
+      <c r="K3" s="124" t="s">
+        <v>276</v>
+      </c>
+      <c r="L3" s="85" t="s">
+        <v>277</v>
+      </c>
+      <c r="M3" s="125"/>
     </row>
     <row r="4" s="9" customFormat="1" ht="30" customHeight="1">
       <c r="A4" s="10" t="str">
@@ -2682,9 +2896,9 @@
         <v>subject01</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="C4" s="78" t="str">
+        <v>278</v>
+      </c>
+      <c r="C4" s="79" t="str">
         <f>ap_programs!A4</f>
         <v>programA</v>
       </c>
@@ -2699,21 +2913,21 @@
         <f t="shared" ref="G4:G9" si="1">_xlfn.CONCAT("0",IF(M4&lt;10,"0",""),M4)</f>
         <v>001</v>
       </c>
-      <c r="H4" s="121" t="s">
-        <v>264</v>
-      </c>
-      <c r="I4" s="122" t="s">
-        <v>265</v>
+      <c r="H4" s="126" t="s">
+        <v>279</v>
+      </c>
+      <c r="I4" s="127" t="s">
+        <v>280</v>
       </c>
       <c r="J4" s="64"/>
-      <c r="K4" s="123" t="str">
+      <c r="K4" s="128" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L4" s="124" t="s">
-        <v>266</v>
-      </c>
-      <c r="M4" s="125">
+      <c r="L4" s="129" t="s">
+        <v>281</v>
+      </c>
+      <c r="M4" s="130">
         <v>1</v>
       </c>
       <c r="N4" s="9"/>
@@ -2724,9 +2938,9 @@
         <v>subject02</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="C5" s="78" t="str">
+        <v>282</v>
+      </c>
+      <c r="C5" s="79" t="str">
         <f t="shared" ref="C5:C10" si="2">C4</f>
         <v>programA</v>
       </c>
@@ -2741,24 +2955,24 @@
         <f t="shared" si="1"/>
         <v>002</v>
       </c>
-      <c r="H5" s="121" t="str">
+      <c r="H5" s="126" t="str">
         <f t="shared" ref="H5:H10" si="3">H4</f>
         <v xml:space="preserve">Group A|G1A, Group B|G1B</v>
       </c>
-      <c r="I5" s="122" t="str">
+      <c r="I5" s="127" t="str">
         <f t="shared" ref="I5:I10" si="4">I4</f>
         <v>#FFEB9C</v>
       </c>
       <c r="J5" s="64"/>
-      <c r="K5" s="123" t="str">
+      <c r="K5" s="128" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L5" s="124" t="str">
+      <c r="L5" s="129" t="str">
         <f t="shared" ref="L5:L10" si="5">L4</f>
         <v xml:space="preserve">teacher01|main@G1A, teacher01|main@G1B</v>
       </c>
-      <c r="M5" s="125">
+      <c r="M5" s="130">
         <f t="shared" ref="M5:M10" si="6">M4+1</f>
         <v>2</v>
       </c>
@@ -2770,9 +2984,9 @@
         <v>subject03</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="C6" s="78" t="str">
+        <v>283</v>
+      </c>
+      <c r="C6" s="79" t="str">
         <f t="shared" si="2"/>
         <v>programA</v>
       </c>
@@ -2787,24 +3001,24 @@
         <f t="shared" si="1"/>
         <v>003</v>
       </c>
-      <c r="H6" s="121" t="str">
+      <c r="H6" s="126" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">Group A|G1A, Group B|G1B</v>
       </c>
-      <c r="I6" s="122" t="str">
+      <c r="I6" s="127" t="str">
         <f t="shared" si="4"/>
         <v>#FFEB9C</v>
       </c>
       <c r="J6" s="64"/>
-      <c r="K6" s="123" t="str">
+      <c r="K6" s="128" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L6" s="124" t="str">
+      <c r="L6" s="129" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">teacher01|main@G1A, teacher01|main@G1B</v>
       </c>
-      <c r="M6" s="125">
+      <c r="M6" s="130">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
@@ -2816,9 +3030,9 @@
         <v>subject04</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="C7" s="78" t="str">
+        <v>284</v>
+      </c>
+      <c r="C7" s="79" t="str">
         <f t="shared" si="2"/>
         <v>programA</v>
       </c>
@@ -2833,24 +3047,24 @@
         <f t="shared" si="1"/>
         <v>004</v>
       </c>
-      <c r="H7" s="121" t="str">
+      <c r="H7" s="126" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">Group A|G1A, Group B|G1B</v>
       </c>
-      <c r="I7" s="122" t="str">
+      <c r="I7" s="127" t="str">
         <f t="shared" si="4"/>
         <v>#FFEB9C</v>
       </c>
       <c r="J7" s="64"/>
-      <c r="K7" s="123" t="str">
+      <c r="K7" s="128" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="L7" s="124" t="str">
+      <c r="L7" s="129" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">teacher01|main@G1A, teacher01|main@G1B</v>
       </c>
-      <c r="M7" s="125">
+      <c r="M7" s="130">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
@@ -2862,9 +3076,9 @@
         <v>subject05</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="C8" s="78" t="str">
+        <v>285</v>
+      </c>
+      <c r="C8" s="79" t="str">
         <f t="shared" si="2"/>
         <v>programA</v>
       </c>
@@ -2879,22 +3093,22 @@
         <f t="shared" si="1"/>
         <v>005</v>
       </c>
-      <c r="H8" s="121" t="s">
-        <v>271</v>
-      </c>
-      <c r="I8" s="122" t="str">
+      <c r="H8" s="126" t="s">
+        <v>286</v>
+      </c>
+      <c r="I8" s="127" t="str">
         <f t="shared" si="4"/>
         <v>#FFEB9C</v>
       </c>
       <c r="J8" s="64"/>
-      <c r="K8" s="123" t="str">
+      <c r="K8" s="128" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L8" s="124" t="s">
-        <v>272</v>
-      </c>
-      <c r="M8" s="125">
+      <c r="L8" s="129" t="s">
+        <v>287</v>
+      </c>
+      <c r="M8" s="130">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
@@ -2905,9 +3119,9 @@
         <v>subject06</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="C9" s="78" t="str">
+        <v>288</v>
+      </c>
+      <c r="C9" s="79" t="str">
         <f t="shared" si="2"/>
         <v>programA</v>
       </c>
@@ -2922,23 +3136,23 @@
         <f t="shared" si="1"/>
         <v>006</v>
       </c>
-      <c r="H9" s="121" t="str">
+      <c r="H9" s="126" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">Group A|G2A, Group B|G2B</v>
       </c>
-      <c r="I9" s="122" t="s">
-        <v>274</v>
+      <c r="I9" s="127" t="s">
+        <v>289</v>
       </c>
       <c r="J9" s="64"/>
-      <c r="K9" s="123" t="str">
+      <c r="K9" s="128" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L9" s="124" t="str">
+      <c r="L9" s="129" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">teacher01|main@G2A, teacher01|main@G2B</v>
       </c>
-      <c r="M9" s="125">
+      <c r="M9" s="130">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
@@ -2949,9 +3163,9 @@
         <v>subject07</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="C10" s="78" t="str">
+        <v>290</v>
+      </c>
+      <c r="C10" s="79" t="str">
         <f t="shared" si="2"/>
         <v>programA</v>
       </c>
@@ -2966,24 +3180,24 @@
         <f t="shared" ref="G10:G23" si="8">_xlfn.CONCAT("0",IF(M10&lt;10,"0",""),M10)</f>
         <v>007</v>
       </c>
-      <c r="H10" s="121" t="str">
+      <c r="H10" s="126" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">Group A|G2A, Group B|G2B</v>
       </c>
-      <c r="I10" s="122" t="str">
+      <c r="I10" s="127" t="str">
         <f t="shared" si="4"/>
         <v>#FFC7CE</v>
       </c>
       <c r="J10" s="64"/>
-      <c r="K10" s="123" t="str">
+      <c r="K10" s="128" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L10" s="124" t="str">
+      <c r="L10" s="129" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">teacher01|main@G2A, teacher01|main@G2B</v>
       </c>
-      <c r="M10" s="125">
+      <c r="M10" s="130">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
@@ -2994,9 +3208,9 @@
         <v>subject08</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="C11" s="78" t="str">
+        <v>291</v>
+      </c>
+      <c r="C11" s="79" t="str">
         <f t="shared" ref="C11:C23" si="9">C10</f>
         <v>programA</v>
       </c>
@@ -3011,24 +3225,24 @@
         <f t="shared" si="8"/>
         <v>008</v>
       </c>
-      <c r="H11" s="121" t="str">
+      <c r="H11" s="126" t="str">
         <f>H10</f>
         <v xml:space="preserve">Group A|G2A, Group B|G2B</v>
       </c>
-      <c r="I11" s="122" t="str">
+      <c r="I11" s="127" t="str">
         <f t="shared" ref="I11:I18" si="10">I10</f>
         <v>#FFC7CE</v>
       </c>
       <c r="J11" s="64"/>
-      <c r="K11" s="123" t="str">
+      <c r="K11" s="128" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="L11" s="124" t="str">
+      <c r="L11" s="129" t="str">
         <f>L10</f>
         <v xml:space="preserve">teacher01|main@G2A, teacher01|main@G2B</v>
       </c>
-      <c r="M11" s="125">
+      <c r="M11" s="130">
         <f t="shared" ref="M11:M23" si="11">M10+1</f>
         <v>8</v>
       </c>
@@ -3039,9 +3253,9 @@
         <v>subject09</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="C12" s="78" t="str">
+        <v>292</v>
+      </c>
+      <c r="C12" s="79" t="str">
         <f t="shared" si="9"/>
         <v>programA</v>
       </c>
@@ -3056,22 +3270,22 @@
         <f t="shared" si="8"/>
         <v>009</v>
       </c>
-      <c r="H12" s="121" t="s">
-        <v>278</v>
-      </c>
-      <c r="I12" s="122" t="str">
+      <c r="H12" s="126" t="s">
+        <v>293</v>
+      </c>
+      <c r="I12" s="127" t="str">
         <f t="shared" si="10"/>
         <v>#FFC7CE</v>
       </c>
       <c r="J12" s="64"/>
-      <c r="K12" s="123" t="str">
+      <c r="K12" s="128" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L12" s="124" t="s">
-        <v>279</v>
-      </c>
-      <c r="M12" s="125">
+      <c r="L12" s="129" t="s">
+        <v>294</v>
+      </c>
+      <c r="M12" s="130">
         <f t="shared" si="11"/>
         <v>9</v>
       </c>
@@ -3082,9 +3296,9 @@
         <v>subject10</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="C13" s="78" t="str">
+        <v>295</v>
+      </c>
+      <c r="C13" s="79" t="str">
         <f t="shared" si="9"/>
         <v>programA</v>
       </c>
@@ -3099,24 +3313,24 @@
         <f t="shared" si="8"/>
         <v>010</v>
       </c>
-      <c r="H13" s="121" t="str">
+      <c r="H13" s="126" t="str">
         <f t="shared" ref="H13:H23" si="12">H12</f>
         <v xml:space="preserve">Group A|G3A, Group B|G3B</v>
       </c>
-      <c r="I13" s="122" t="str">
+      <c r="I13" s="127" t="str">
         <f t="shared" si="10"/>
         <v>#FFC7CE</v>
       </c>
       <c r="J13" s="64"/>
-      <c r="K13" s="123" t="str">
+      <c r="K13" s="128" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L13" s="124" t="str">
+      <c r="L13" s="129" t="str">
         <f t="shared" ref="L13:L23" si="13">L12</f>
         <v xml:space="preserve">teacher01|main@G3A, teacher01|main@G3B</v>
       </c>
-      <c r="M13" s="125">
+      <c r="M13" s="130">
         <f t="shared" si="11"/>
         <v>10</v>
       </c>
@@ -3127,9 +3341,9 @@
         <v>subject11</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="C14" s="78" t="str">
+        <v>296</v>
+      </c>
+      <c r="C14" s="79" t="str">
         <f t="shared" si="9"/>
         <v>programA</v>
       </c>
@@ -3144,23 +3358,23 @@
         <f t="shared" si="8"/>
         <v>011</v>
       </c>
-      <c r="H14" s="121" t="str">
+      <c r="H14" s="126" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">Group A|G3A, Group B|G3B</v>
       </c>
-      <c r="I14" s="122" t="s">
-        <v>282</v>
+      <c r="I14" s="127" t="s">
+        <v>297</v>
       </c>
       <c r="J14" s="64"/>
-      <c r="K14" s="123" t="str">
+      <c r="K14" s="128" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L14" s="124" t="str">
+      <c r="L14" s="129" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">teacher01|main@G3A, teacher01|main@G3B</v>
       </c>
-      <c r="M14" s="125">
+      <c r="M14" s="130">
         <f t="shared" si="11"/>
         <v>11</v>
       </c>
@@ -3171,9 +3385,9 @@
         <v>subject12</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="C15" s="78" t="str">
+        <v>298</v>
+      </c>
+      <c r="C15" s="79" t="str">
         <f t="shared" si="9"/>
         <v>programA</v>
       </c>
@@ -3188,24 +3402,24 @@
         <f t="shared" si="8"/>
         <v>012</v>
       </c>
-      <c r="H15" s="121" t="str">
+      <c r="H15" s="126" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">Group A|G3A, Group B|G3B</v>
       </c>
-      <c r="I15" s="122" t="str">
+      <c r="I15" s="127" t="str">
         <f t="shared" si="10"/>
         <v>#C6EFCD</v>
       </c>
       <c r="J15" s="64"/>
-      <c r="K15" s="123" t="str">
+      <c r="K15" s="128" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="L15" s="124" t="str">
+      <c r="L15" s="129" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">teacher01|main@G3A, teacher01|main@G3B</v>
       </c>
-      <c r="M15" s="125">
+      <c r="M15" s="130">
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
@@ -3216,9 +3430,9 @@
         <v>subject13</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="C16" s="78" t="str">
+        <v>299</v>
+      </c>
+      <c r="C16" s="79" t="str">
         <f t="shared" si="9"/>
         <v>programA</v>
       </c>
@@ -3233,22 +3447,22 @@
         <f t="shared" si="8"/>
         <v>013</v>
       </c>
-      <c r="H16" s="121" t="s">
-        <v>285</v>
-      </c>
-      <c r="I16" s="122" t="str">
+      <c r="H16" s="126" t="s">
+        <v>300</v>
+      </c>
+      <c r="I16" s="127" t="str">
         <f t="shared" si="10"/>
         <v>#C6EFCD</v>
       </c>
       <c r="J16" s="64"/>
-      <c r="K16" s="123" t="str">
+      <c r="K16" s="128" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L16" s="124" t="s">
-        <v>286</v>
-      </c>
-      <c r="M16" s="125">
+      <c r="L16" s="129" t="s">
+        <v>301</v>
+      </c>
+      <c r="M16" s="130">
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
@@ -3259,9 +3473,9 @@
         <v>subject14</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="C17" s="78" t="str">
+        <v>302</v>
+      </c>
+      <c r="C17" s="79" t="str">
         <f t="shared" si="9"/>
         <v>programA</v>
       </c>
@@ -3276,24 +3490,24 @@
         <f t="shared" si="8"/>
         <v>014</v>
       </c>
-      <c r="H17" s="121" t="str">
+      <c r="H17" s="126" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">Group A|G4A, Group B|G4B</v>
       </c>
-      <c r="I17" s="122" t="str">
+      <c r="I17" s="127" t="str">
         <f t="shared" si="10"/>
         <v>#C6EFCD</v>
       </c>
       <c r="J17" s="64"/>
-      <c r="K17" s="123" t="str">
+      <c r="K17" s="128" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L17" s="124" t="str">
+      <c r="L17" s="129" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">teacher01|main@G4A, teacher01|main@G4B</v>
       </c>
-      <c r="M17" s="125">
+      <c r="M17" s="130">
         <f t="shared" si="11"/>
         <v>14</v>
       </c>
@@ -3304,9 +3518,9 @@
         <v>subject15</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="C18" s="78" t="str">
+        <v>303</v>
+      </c>
+      <c r="C18" s="79" t="str">
         <f t="shared" si="9"/>
         <v>programA</v>
       </c>
@@ -3321,24 +3535,24 @@
         <f t="shared" si="8"/>
         <v>015</v>
       </c>
-      <c r="H18" s="121" t="str">
+      <c r="H18" s="126" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">Group A|G4A, Group B|G4B</v>
       </c>
-      <c r="I18" s="122" t="str">
+      <c r="I18" s="127" t="str">
         <f t="shared" si="10"/>
         <v>#C6EFCD</v>
       </c>
       <c r="J18" s="64"/>
-      <c r="K18" s="123" t="str">
+      <c r="K18" s="128" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L18" s="124" t="str">
+      <c r="L18" s="129" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">teacher01|main@G4A, teacher01|main@G4B</v>
       </c>
-      <c r="M18" s="125">
+      <c r="M18" s="130">
         <f t="shared" si="11"/>
         <v>15</v>
       </c>
@@ -3349,9 +3563,9 @@
         <v>subject16</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="C19" s="78" t="str">
+        <v>304</v>
+      </c>
+      <c r="C19" s="79" t="str">
         <f t="shared" si="9"/>
         <v>programA</v>
       </c>
@@ -3366,23 +3580,23 @@
         <f t="shared" si="8"/>
         <v>016</v>
       </c>
-      <c r="H19" s="121" t="str">
+      <c r="H19" s="126" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">Group A|G4A, Group B|G4B</v>
       </c>
-      <c r="I19" s="122" t="s">
-        <v>290</v>
+      <c r="I19" s="127" t="s">
+        <v>305</v>
       </c>
       <c r="J19" s="64"/>
-      <c r="K19" s="123" t="str">
+      <c r="K19" s="128" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="L19" s="124" t="str">
+      <c r="L19" s="129" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">teacher01|main@G4A, teacher01|main@G4B</v>
       </c>
-      <c r="M19" s="125">
+      <c r="M19" s="130">
         <f t="shared" si="11"/>
         <v>16</v>
       </c>
@@ -3393,9 +3607,9 @@
         <v>subject17</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="C20" s="78" t="str">
+        <v>306</v>
+      </c>
+      <c r="C20" s="79" t="str">
         <f t="shared" si="9"/>
         <v>programA</v>
       </c>
@@ -3410,21 +3624,21 @@
         <f t="shared" si="8"/>
         <v>017</v>
       </c>
-      <c r="H20" s="121" t="s">
-        <v>292</v>
-      </c>
-      <c r="I20" s="122" t="s">
-        <v>290</v>
+      <c r="H20" s="126" t="s">
+        <v>307</v>
+      </c>
+      <c r="I20" s="127" t="s">
+        <v>305</v>
       </c>
       <c r="J20" s="64"/>
-      <c r="K20" s="123" t="str">
+      <c r="K20" s="128" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L20" s="124" t="s">
-        <v>293</v>
-      </c>
-      <c r="M20" s="125">
+      <c r="L20" s="129" t="s">
+        <v>308</v>
+      </c>
+      <c r="M20" s="130">
         <f t="shared" si="11"/>
         <v>17</v>
       </c>
@@ -3435,9 +3649,9 @@
         <v>subject18</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="C21" s="78" t="str">
+        <v>309</v>
+      </c>
+      <c r="C21" s="79" t="str">
         <f t="shared" si="9"/>
         <v>programA</v>
       </c>
@@ -3452,23 +3666,23 @@
         <f t="shared" si="8"/>
         <v>018</v>
       </c>
-      <c r="H21" s="121" t="str">
+      <c r="H21" s="126" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">Group A|G5A, Group B|G5B</v>
       </c>
-      <c r="I21" s="122" t="s">
-        <v>290</v>
+      <c r="I21" s="127" t="s">
+        <v>305</v>
       </c>
       <c r="J21" s="64"/>
-      <c r="K21" s="123" t="str">
+      <c r="K21" s="128" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L21" s="124" t="str">
+      <c r="L21" s="129" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">teacher01|main@G5A, teacher01|main@G5B</v>
       </c>
-      <c r="M21" s="125">
+      <c r="M21" s="130">
         <f t="shared" si="11"/>
         <v>18</v>
       </c>
@@ -3479,9 +3693,9 @@
         <v>subject19</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="C22" s="78" t="str">
+        <v>310</v>
+      </c>
+      <c r="C22" s="79" t="str">
         <f t="shared" si="9"/>
         <v>programA</v>
       </c>
@@ -3496,23 +3710,23 @@
         <f t="shared" si="8"/>
         <v>019</v>
       </c>
-      <c r="H22" s="121" t="str">
+      <c r="H22" s="126" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">Group A|G5A, Group B|G5B</v>
       </c>
-      <c r="I22" s="122" t="s">
-        <v>290</v>
+      <c r="I22" s="127" t="s">
+        <v>305</v>
       </c>
       <c r="J22" s="64"/>
-      <c r="K22" s="123" t="str">
+      <c r="K22" s="128" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L22" s="124" t="str">
+      <c r="L22" s="129" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">teacher01|main@G5A, teacher01|main@G5B</v>
       </c>
-      <c r="M22" s="125">
+      <c r="M22" s="130">
         <f t="shared" si="11"/>
         <v>19</v>
       </c>
@@ -3523,9 +3737,9 @@
         <v>subject20</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="C23" s="78" t="str">
+        <v>311</v>
+      </c>
+      <c r="C23" s="79" t="str">
         <f t="shared" si="9"/>
         <v>programA</v>
       </c>
@@ -3540,52 +3754,36 @@
         <f t="shared" si="8"/>
         <v>020</v>
       </c>
-      <c r="H23" s="121" t="str">
+      <c r="H23" s="126" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">Group A|G5A, Group B|G5B</v>
       </c>
-      <c r="I23" s="122" t="s">
-        <v>290</v>
+      <c r="I23" s="127" t="s">
+        <v>305</v>
       </c>
       <c r="J23" s="64"/>
-      <c r="K23" s="123" t="str">
+      <c r="K23" s="128" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="L23" s="124" t="str">
+      <c r="L23" s="129" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">teacher01|main@G5A, teacher01|main@G5B</v>
       </c>
-      <c r="M23" s="125">
+      <c r="M23" s="130">
         <f t="shared" si="11"/>
         <v>20</v>
       </c>
     </row>
     <row r="24" ht="14.25">
       <c r="E24" s="15"/>
-      <c r="M24" s="75"/>
+      <c r="M24" s="76"/>
     </row>
     <row r="25" ht="14.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H2:L2"/>
   </mergeCells>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
@@ -3613,58 +3811,58 @@
   <sheetData>
     <row r="1" ht="14.25">
       <c r="A1" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>34</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -3710,16 +3908,16 @@
   <sheetData>
     <row r="1" s="12" customFormat="1" ht="14.25">
       <c r="A1" s="12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E1" s="12" t="str">
         <f>_xlfn.CONCAT($E$3,".",E5)</f>
@@ -3844,7 +4042,7 @@
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
@@ -3880,26 +4078,26 @@
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
       <c r="E3" s="16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
       <c r="I3" s="18" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L3" s="21"/>
       <c r="M3" s="21"/>
       <c r="N3" s="21"/>
       <c r="O3" s="21"/>
       <c r="P3" s="22" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Q3" s="23"/>
       <c r="R3" s="23"/>
@@ -3907,23 +4105,23 @@
       <c r="T3" s="23"/>
       <c r="U3" s="24"/>
       <c r="V3" s="16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="W3" s="17"/>
       <c r="X3" s="25" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Y3" s="26"/>
       <c r="Z3" s="26"/>
       <c r="AA3" s="26"/>
       <c r="AB3" s="27" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AC3" s="20" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AD3" s="22" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AE3" s="23"/>
       <c r="AF3" s="23"/>
@@ -3934,26 +4132,26 @@
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="29" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F4" s="30"/>
       <c r="G4" s="30"/>
       <c r="H4" s="30"/>
       <c r="I4" s="31" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J4" s="32" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K4" s="33" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L4" s="34"/>
       <c r="M4" s="34"/>
       <c r="N4" s="34"/>
       <c r="O4" s="34"/>
       <c r="P4" s="35" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="Q4" s="36"/>
       <c r="R4" s="36"/>
@@ -3961,23 +4159,23 @@
       <c r="T4" s="36"/>
       <c r="U4" s="37"/>
       <c r="V4" s="29" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="W4" s="30"/>
       <c r="X4" s="31" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Y4" s="38"/>
       <c r="Z4" s="38"/>
       <c r="AA4" s="38"/>
       <c r="AB4" s="32" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AC4" s="33" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AD4" s="35" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AE4" s="36"/>
       <c r="AF4" s="36"/>
@@ -3988,529 +4186,529 @@
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
       <c r="E5" s="39" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G5" s="40" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H5" s="41" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I5" s="42" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J5" s="43" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K5" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="L5" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="M5" s="45" t="s">
-        <v>60</v>
-      </c>
       <c r="N5" s="45" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O5" s="45" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P5" s="46" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="Q5" s="47" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="R5" s="47" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="S5" s="47" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="T5" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="U5" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="V5" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="U5" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="V5" s="39" t="s">
-        <v>68</v>
-      </c>
       <c r="W5" s="40" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X5" s="42" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Y5" s="42" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Z5" s="42" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AA5" s="42" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AB5" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC5" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="AC5" s="49" t="s">
-        <v>75</v>
-      </c>
       <c r="AD5" s="46" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AE5" s="47" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="AF5" s="47" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AG5" s="47" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" s="50" customFormat="1" ht="19.5" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D6" s="51" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E6" s="52" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H6" s="53" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I6" s="54" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J6" s="55" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K6" s="56" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L6" s="57" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M6" s="57" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="N6" s="57" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O6" s="57" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="P6" s="58" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="Q6" s="59" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="R6" s="59" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="S6" s="59" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="T6" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="U6" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="V6" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="U6" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="V6" s="52" t="s">
-        <v>91</v>
-      </c>
       <c r="W6" s="8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="X6" s="54" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Y6" s="54" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Z6" s="54" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AA6" s="54" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AB6" s="61" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="AC6" s="62" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AD6" s="58" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="AE6" s="59" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AF6" s="59" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AG6" s="59" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A7" s="10" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D7" s="63"/>
       <c r="E7" s="64" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F7" s="64" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G7" s="64" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H7" s="64" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I7" s="64" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="J7" s="64" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K7" s="64" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L7" s="64" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M7" s="64" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="N7" s="64" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O7" s="64" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="P7" s="65" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q7" s="65" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="R7" s="65"/>
       <c r="S7" s="65"/>
       <c r="T7" s="65"/>
       <c r="U7" s="65"/>
       <c r="V7" s="65" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="W7" s="65" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="X7" s="65" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Y7" s="65" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Z7" s="65" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AA7" s="65" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AB7" s="64" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AC7" s="64" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AD7" s="65" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AE7" s="65" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AF7" s="65" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AG7" s="65" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A8" s="10" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D8" s="63"/>
       <c r="E8" s="64" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F8" s="64" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G8" s="64" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H8" s="64" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I8" s="64" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J8" s="64" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K8" s="64" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L8" s="64" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M8" s="64"/>
       <c r="N8" s="64" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O8" s="64" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="P8" s="64" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q8" s="64" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="R8" s="65"/>
       <c r="S8" s="64"/>
       <c r="T8" s="64"/>
       <c r="U8" s="64"/>
       <c r="V8" s="64" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="W8" s="64" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="X8" s="64" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Y8" s="64" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Z8" s="64" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AA8" s="64" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AB8" s="64" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AC8" s="64" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AD8" s="64" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AE8" s="64" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AF8" s="64" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AG8" s="64" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A9" s="10" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D9" s="63"/>
       <c r="E9" s="64" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F9" s="64" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G9" s="64" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H9" s="64" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I9" s="64" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J9" s="64" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K9" s="64" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L9" s="64" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M9" s="64"/>
       <c r="N9" s="64" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="O9" s="64"/>
       <c r="P9" s="64" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q9" s="64" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="R9" s="64" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="S9" s="64" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="T9" s="64" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="U9" s="64" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="V9" s="64" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="W9" s="64" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="X9" s="64" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Y9" s="64" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Z9" s="64" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AA9" s="64" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AB9" s="64" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AC9" s="64" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD9" s="64" t="s">
-        <v>103</v>
-      </c>
-      <c r="AE9" s="64" t="s">
-        <v>103</v>
+        <v>114</v>
+      </c>
+      <c r="AD9" s="66" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE9" s="66" t="s">
+        <v>112</v>
       </c>
       <c r="AF9" s="64" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AG9" s="64" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A10" s="10" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D10" s="63" t="str">
         <f>A9</f>
         <v>student</v>
       </c>
       <c r="E10" s="64" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F10" s="64" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G10" s="64" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H10" s="64" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I10" s="64" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J10" s="64" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K10" s="64" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L10" s="64" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M10" s="64"/>
       <c r="N10" s="64" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="O10" s="64"/>
       <c r="P10" s="64" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q10" s="64" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="R10" s="64" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="S10" s="64" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="T10" s="64" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="U10" s="64" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="V10" s="64"/>
       <c r="W10" s="64"/>
@@ -4520,7 +4718,7 @@
       <c r="AA10" s="64"/>
       <c r="AB10" s="64"/>
       <c r="AC10" s="64" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AD10" s="64"/>
       <c r="AE10" s="64"/>
@@ -4578,315 +4776,315 @@
   <sheetData>
     <row r="1" ht="14.25">
       <c r="A1" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="H2" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="67" t="s">
-        <v>129</v>
-      </c>
-      <c r="J2" s="68" t="s">
-        <v>86</v>
+        <v>131</v>
+      </c>
+      <c r="H2" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="J2" s="69" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="69">
+      <c r="E3" s="70">
         <v>36526</v>
       </c>
-      <c r="F3" s="70" t="s">
-        <v>133</v>
+      <c r="F3" s="71" t="s">
+        <v>136</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H3" s="64" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I3" s="64" t="s">
-        <v>135</v>
-      </c>
-      <c r="J3" s="71" t="s">
-        <v>136</v>
+        <v>138</v>
+      </c>
+      <c r="J3" s="72" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="69">
+      <c r="E4" s="70">
         <v>34781</v>
       </c>
-      <c r="F4" s="70" t="s">
-        <v>139</v>
+      <c r="F4" s="71" t="s">
+        <v>142</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H4" s="64" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I4" s="64" t="s">
-        <v>140</v>
-      </c>
-      <c r="J4" s="71" t="s">
-        <v>141</v>
+        <v>143</v>
+      </c>
+      <c r="J4" s="72" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="5" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A5" s="72" t="s">
-        <v>142</v>
-      </c>
-      <c r="B5" s="73" t="s">
-        <v>143</v>
-      </c>
-      <c r="C5" s="73" t="s">
-        <v>113</v>
+      <c r="A5" s="73" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="74" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="74" t="s">
+        <v>116</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="69">
+      <c r="E5" s="70">
         <v>39205</v>
       </c>
-      <c r="F5" s="74" t="s">
-        <v>144</v>
+      <c r="F5" s="75" t="s">
+        <v>147</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H5" s="64" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I5" s="64" t="s">
-        <v>145</v>
-      </c>
-      <c r="J5" s="71" t="s">
-        <v>146</v>
+        <v>148</v>
+      </c>
+      <c r="J5" s="72" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="6" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A6" s="72" t="s">
-        <v>147</v>
-      </c>
-      <c r="B6" s="73" t="s">
-        <v>148</v>
-      </c>
-      <c r="C6" s="73" t="s">
-        <v>149</v>
+      <c r="A6" s="73" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="74" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="74" t="s">
+        <v>152</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="69">
+      <c r="E6" s="70">
         <v>39156</v>
       </c>
-      <c r="F6" s="74" t="s">
-        <v>150</v>
+      <c r="F6" s="75" t="s">
+        <v>153</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H6" s="64" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I6" s="64" t="s">
-        <v>145</v>
-      </c>
-      <c r="J6" s="71" t="s">
-        <v>146</v>
+        <v>148</v>
+      </c>
+      <c r="J6" s="72" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="7" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A7" s="72" t="s">
-        <v>151</v>
-      </c>
-      <c r="B7" s="73" t="s">
-        <v>152</v>
-      </c>
-      <c r="C7" s="73" t="s">
-        <v>113</v>
+      <c r="A7" s="73" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="74" t="s">
+        <v>116</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="69">
+      <c r="E7" s="70">
         <v>42171</v>
       </c>
-      <c r="F7" s="74" t="s">
-        <v>153</v>
+      <c r="F7" s="75" t="s">
+        <v>156</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H7" s="64" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I7" s="64" t="s">
-        <v>145</v>
-      </c>
-      <c r="J7" s="71" t="s">
-        <v>154</v>
+        <v>148</v>
+      </c>
+      <c r="J7" s="72" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="8" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A8" s="72" t="s">
-        <v>155</v>
-      </c>
-      <c r="B8" s="73" t="s">
-        <v>156</v>
-      </c>
-      <c r="C8" s="73" t="s">
-        <v>149</v>
+      <c r="A8" s="73" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" s="74" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" s="74" t="s">
+        <v>152</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="69">
+      <c r="E8" s="70">
         <v>42237</v>
       </c>
-      <c r="F8" s="74" t="s">
+      <c r="F8" s="75" t="s">
+        <v>160</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="H8" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="64" t="s">
+        <v>148</v>
+      </c>
+      <c r="J8" s="72" t="s">
         <v>157</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="H8" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="64" t="s">
-        <v>145</v>
-      </c>
-      <c r="J8" s="71" t="s">
-        <v>154</v>
-      </c>
     </row>
     <row r="9" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A9" s="72" t="s">
-        <v>158</v>
-      </c>
-      <c r="B9" s="73" t="s">
-        <v>159</v>
-      </c>
-      <c r="C9" s="73" t="s">
-        <v>160</v>
+      <c r="A9" s="73" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="74" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="74" t="s">
+        <v>163</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="69">
+      <c r="E9" s="70">
         <v>27791</v>
       </c>
-      <c r="F9" s="74" t="s">
-        <v>161</v>
+      <c r="F9" s="75" t="s">
+        <v>164</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H9" s="64" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I9" s="64" t="s">
-        <v>162</v>
-      </c>
-      <c r="J9" s="71" t="s">
-        <v>163</v>
+        <v>165</v>
+      </c>
+      <c r="J9" s="72" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" s="75"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="75"/>
+      <c r="A10" s="76"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="76"/>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" s="75"/>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
+      <c r="A11" s="76"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4903,43 +5101,43 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00E20068-00EA-466A-8C14-005A0072003E}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00D7007E-0067-4AB0-8225-00C700A6002E}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>D3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00DC0091-008E-443F-8A0B-00E400FF0030}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00A40063-0041-47C3-957C-003C00440058}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>D4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00F500AE-0033-491F-AAFF-00B70011004D}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{0096007B-00E4-4252-A1A7-007D008A00F2}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>D5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00380058-0023-45F5-92E1-004600B80070}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00430052-0091-467A-A294-000E0087009C}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>D6</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00370022-0032-48A4-B475-00AE000E0065}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{0088006F-00C4-4D02-B029-00D700C70094}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>D7</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{004E0096-0057-4D3A-930F-002E0018003A}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00B000CC-002A-4C58-921B-00FD00820020}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>D8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{004C0034-0067-4D3A-9301-009E00D900F3}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{009900DF-00DE-4202-BAD0-0038001C00D6}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
@@ -4971,25 +5169,25 @@
   <sheetData>
     <row r="1" ht="14.25">
       <c r="A1" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" ht="22.100000000000001" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="77" t="s">
-        <v>165</v>
+        <v>27</v>
+      </c>
+      <c r="B2" s="78" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B3" s="78" t="str">
+        <v>118</v>
+      </c>
+      <c r="B3" s="79" t="str">
         <f>profiles!$A$10</f>
         <v>guardian</v>
       </c>
@@ -5001,9 +5199,9 @@
     </row>
     <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4" s="78" t="str">
+        <v>115</v>
+      </c>
+      <c r="B4" s="79" t="str">
         <f>profiles!$A$9</f>
         <v>student</v>
       </c>
@@ -5048,53 +5246,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" ht="24.350000000000001" customHeight="1">
-      <c r="A2" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="80" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="81" t="s">
-        <v>169</v>
-      </c>
-      <c r="D2" s="77" t="s">
-        <v>170</v>
-      </c>
-      <c r="E2" s="68" t="s">
-        <v>171</v>
+      <c r="A2" s="80" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="82" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" s="78" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2" s="69" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="C3" s="78" t="s">
-        <v>174</v>
-      </c>
-      <c r="D3" s="82" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="79" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="78" t="s">
-        <v>175</v>
+      <c r="E3" s="79" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="4"/>
@@ -5106,7 +5304,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00F300FA-0092-4F71-8A30-003E00610031}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00BB001D-008E-4D60-88A0-00F8005700ED}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GUARDIANS_RELATIONSHIPS</xm:f>
           </x14:formula1>
@@ -5119,6 +5317,113 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFB472C4"/>
+    <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="18.7109375"/>
+    <col customWidth="1" min="5" max="5" width="13.7109375"/>
+    <col customWidth="1" min="6" max="6" width="19.421875"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25">
+      <c r="A1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="A2" s="80" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="84" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="85" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="84" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" s="84" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="84" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" ht="146.25" customHeight="1">
+      <c r="A3" s="86" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" s="87" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="79" t="str">
+        <f>centers!$A$3</f>
+        <v>centerA</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="88" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25"/>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2" disablePrompts="0">
+        <x14:dataValidation xr:uid="{00C800DB-00EC-413B-B7D0-007500A900F6}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>GRADES_TYPES</xm:f>
+          </x14:formula1>
+          <xm:sqref>D3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{00D900DF-00C5-4890-A1FF-00E000E300D4}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>BOOLEAN_ANSWER</xm:f>
+          </x14:formula1>
+          <xm:sqref>E3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0"/>
@@ -5137,34 +5442,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" ht="22.100000000000001" customHeight="1">
-      <c r="A2" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="81" t="s">
-        <v>165</v>
+      <c r="A2" s="80" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="82" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" s="78" t="str">
+        <v>109</v>
+      </c>
+      <c r="B3" s="79" t="str">
         <f>profiles!$A$8</f>
         <v>teacher</v>
       </c>
     </row>
     <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4" s="78" t="str">
+        <v>115</v>
+      </c>
+      <c r="B4" s="79" t="str">
         <f>profiles!$A$9</f>
         <v>student</v>
       </c>
@@ -5177,7 +5482,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="0"/>
@@ -5195,95 +5500,97 @@
     <col customWidth="1" min="1" max="1" width="11.00390625"/>
     <col customWidth="1" min="2" max="2" width="19.140625"/>
     <col customWidth="1" min="3" max="3" width="12.00390625"/>
-    <col customWidth="1" min="5" max="5" width="11.140625"/>
-    <col customWidth="1" min="6" max="6" width="9.57421875"/>
-    <col customWidth="1" min="7" max="7" width="9.00390625"/>
-    <col customWidth="1" min="8" max="8" width="11.8515625"/>
-    <col customWidth="1" min="9" max="10" width="17.00390625"/>
-    <col customWidth="1" min="11" max="11" width="12.421875"/>
-    <col customWidth="1" min="12" max="12" width="12.140625"/>
-    <col customWidth="1" min="13" max="13" width="17.00390625"/>
-    <col customWidth="1" min="14" max="14" width="14.8515625"/>
-    <col customWidth="1" min="15" max="15" width="13.00390625"/>
-    <col customWidth="1" min="16" max="18" width="14.7109375"/>
-    <col customWidth="1" min="19" max="19" width="15.8515625"/>
-    <col customWidth="1" min="20" max="20" width="15.28125"/>
-    <col customWidth="1" min="21" max="21" width="12.8515625"/>
-    <col customWidth="1" min="22" max="22" width="14.140625"/>
-    <col customWidth="1" min="23" max="23" width="18.140625"/>
+    <col customWidth="1" min="5" max="6" width="11.140625"/>
+    <col customWidth="1" min="7" max="7" width="9.57421875"/>
+    <col customWidth="1" min="8" max="8" width="9.00390625"/>
+    <col customWidth="1" min="9" max="9" width="11.8515625"/>
+    <col customWidth="1" min="10" max="11" width="17.00390625"/>
+    <col customWidth="1" min="12" max="12" width="12.421875"/>
+    <col customWidth="1" min="13" max="13" width="12.140625"/>
+    <col customWidth="1" min="14" max="14" width="17.00390625"/>
+    <col customWidth="1" min="15" max="15" width="14.8515625"/>
+    <col customWidth="1" min="16" max="16" width="13.00390625"/>
+    <col customWidth="1" min="17" max="19" width="14.7109375"/>
+    <col customWidth="1" min="20" max="20" width="15.8515625"/>
+    <col customWidth="1" min="21" max="21" width="15.28125"/>
+    <col customWidth="1" min="22" max="22" width="12.8515625"/>
+    <col customWidth="1" min="23" max="23" width="14.140625"/>
+    <col customWidth="1" min="24" max="24" width="18.140625"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="X1" s="5"/>
+        <v>208</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>209</v>
+      </c>
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
       <c r="AA1" s="5"/>
@@ -5299,221 +5606,230 @@
       <c r="AK1" s="5"/>
       <c r="AL1" s="5"/>
       <c r="AM1" s="5"/>
+      <c r="AN1" s="5"/>
     </row>
     <row r="2" s="9" customFormat="1" ht="23.600000000000001" customHeight="1">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
-      <c r="E2" s="83" t="s">
-        <v>196</v>
-      </c>
-      <c r="F2" s="83"/>
-      <c r="G2" s="84" t="s">
-        <v>197</v>
-      </c>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="87" t="s">
-        <v>198</v>
-      </c>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="88" t="s">
-        <v>199</v>
-      </c>
-      <c r="R2" s="89"/>
-      <c r="S2" s="89"/>
-      <c r="T2" s="90"/>
-      <c r="U2" s="91" t="s">
-        <v>200</v>
-      </c>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
+      <c r="F2" s="89" t="s">
+        <v>210</v>
+      </c>
+      <c r="G2" s="89"/>
+      <c r="H2" s="90" t="s">
+        <v>211</v>
+      </c>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="93" t="s">
+        <v>212</v>
+      </c>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="94" t="s">
+        <v>213</v>
+      </c>
+      <c r="S2" s="95"/>
+      <c r="T2" s="95"/>
+      <c r="U2" s="96"/>
+      <c r="V2" s="97" t="s">
+        <v>214</v>
+      </c>
+      <c r="W2" s="98"/>
+      <c r="X2" s="98"/>
     </row>
     <row r="3" ht="34.100000000000001" customHeight="1">
-      <c r="A3" s="93" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="94" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="94" t="s">
-        <v>201</v>
-      </c>
-      <c r="D3" s="95" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" s="96" t="s">
-        <v>202</v>
-      </c>
-      <c r="F3" s="97" t="s">
-        <v>203</v>
-      </c>
-      <c r="G3" s="98" t="s">
-        <v>204</v>
-      </c>
-      <c r="H3" s="99" t="s">
-        <v>205</v>
-      </c>
-      <c r="I3" s="100" t="s">
-        <v>206</v>
-      </c>
-      <c r="J3" s="100" t="s">
-        <v>207</v>
-      </c>
-      <c r="K3" s="100" t="s">
-        <v>208</v>
-      </c>
-      <c r="L3" s="100" t="s">
-        <v>209</v>
-      </c>
-      <c r="M3" s="100" t="s">
-        <v>210</v>
-      </c>
-      <c r="N3" s="101" t="s">
-        <v>211</v>
-      </c>
-      <c r="O3" s="102" t="s">
-        <v>209</v>
-      </c>
-      <c r="P3" s="103" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q3" s="104" t="s">
-        <v>212</v>
-      </c>
-      <c r="R3" s="105" t="s">
-        <v>213</v>
-      </c>
-      <c r="S3" s="105" t="s">
-        <v>209</v>
-      </c>
-      <c r="T3" s="105" t="s">
-        <v>210</v>
-      </c>
-      <c r="U3" s="106" t="s">
-        <v>209</v>
-      </c>
-      <c r="V3" s="107" t="s">
-        <v>214</v>
-      </c>
-      <c r="W3" s="108" t="s">
+      <c r="A3" s="99" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="100" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="100" t="s">
         <v>215</v>
+      </c>
+      <c r="D3" s="101" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="102" t="s">
+        <v>216</v>
+      </c>
+      <c r="F3" s="103" t="s">
+        <v>217</v>
+      </c>
+      <c r="G3" s="104" t="s">
+        <v>218</v>
+      </c>
+      <c r="H3" s="105" t="s">
+        <v>219</v>
+      </c>
+      <c r="I3" s="106" t="s">
+        <v>220</v>
+      </c>
+      <c r="J3" s="107" t="s">
+        <v>221</v>
+      </c>
+      <c r="K3" s="107" t="s">
+        <v>222</v>
+      </c>
+      <c r="L3" s="107" t="s">
+        <v>223</v>
+      </c>
+      <c r="M3" s="107" t="s">
+        <v>224</v>
+      </c>
+      <c r="N3" s="107" t="s">
+        <v>225</v>
+      </c>
+      <c r="O3" s="108" t="s">
+        <v>226</v>
+      </c>
+      <c r="P3" s="109" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q3" s="110" t="s">
+        <v>225</v>
+      </c>
+      <c r="R3" s="111" t="s">
+        <v>227</v>
+      </c>
+      <c r="S3" s="112" t="s">
+        <v>228</v>
+      </c>
+      <c r="T3" s="112" t="s">
+        <v>224</v>
+      </c>
+      <c r="U3" s="112" t="s">
+        <v>225</v>
+      </c>
+      <c r="V3" s="113" t="s">
+        <v>224</v>
+      </c>
+      <c r="W3" s="114" t="s">
+        <v>229</v>
+      </c>
+      <c r="X3" s="115" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="D4" s="78" t="str">
+        <v>233</v>
+      </c>
+      <c r="D4" s="63" t="str">
         <f>centers!$A$3</f>
         <v>centerA</v>
       </c>
-      <c r="E4" s="64" t="s">
+      <c r="E4" s="63" t="str">
+        <f>ar_evaluations!A3</f>
+        <v>gradeA</v>
+      </c>
+      <c r="F4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="64">
+      <c r="G4" s="64">
         <v>0</v>
       </c>
-      <c r="G4" s="64">
+      <c r="H4" s="64">
         <v>5</v>
       </c>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64" t="s">
+      <c r="I4" s="64"/>
+      <c r="J4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="109"/>
-      <c r="K4" s="64"/>
+      <c r="K4" s="116"/>
       <c r="L4" s="64"/>
       <c r="M4" s="64"/>
-      <c r="N4" s="64" t="s">
+      <c r="N4" s="64"/>
+      <c r="O4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="64"/>
-      <c r="P4" s="64" t="s">
-        <v>10</v>
-      </c>
+      <c r="P4" s="64"/>
       <c r="Q4" s="64" t="s">
         <v>10</v>
       </c>
       <c r="R4" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="S4" s="64">
+      <c r="T4" s="64">
         <v>3</v>
       </c>
-      <c r="T4" s="64" t="s">
+      <c r="U4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="64">
+      <c r="V4" s="64">
         <v>3</v>
       </c>
-      <c r="V4" s="64" t="s">
+      <c r="W4" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="W4" s="64" t="s">
+      <c r="X4" s="64" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" s="9" customFormat="1" ht="28.5">
       <c r="A5" s="10" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="D5" s="78" t="str">
+        <v>236</v>
+      </c>
+      <c r="D5" s="63" t="str">
         <f>centers!$A$4</f>
         <v>centerB</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="63" t="str">
+        <f>ar_evaluations!A3</f>
+        <v>gradeA</v>
+      </c>
+      <c r="F5" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="64">
+      <c r="G5" s="64">
         <v>240</v>
       </c>
-      <c r="G5" s="64">
+      <c r="H5" s="64">
         <v>4</v>
       </c>
-      <c r="H5" s="64">
+      <c r="I5" s="64">
         <v>60</v>
       </c>
-      <c r="I5" s="64" t="s">
+      <c r="J5" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="109" t="s">
-        <v>222</v>
-      </c>
-      <c r="K5" s="64" t="s">
+      <c r="K5" s="116" t="s">
+        <v>237</v>
+      </c>
+      <c r="L5" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="64">
+      <c r="M5" s="64">
         <v>4</v>
       </c>
-      <c r="M5" s="64" t="s">
+      <c r="N5" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="64" t="s">
+      <c r="O5" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="64">
+      <c r="P5" s="64">
         <v>4</v>
-      </c>
-      <c r="P5" s="64" t="s">
-        <v>10</v>
       </c>
       <c r="Q5" s="64" t="s">
         <v>10</v>
@@ -5521,29 +5837,32 @@
       <c r="R5" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="S5" s="64">
+      <c r="S5" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="T5" s="64">
         <v>3</v>
       </c>
-      <c r="T5" s="64" t="s">
+      <c r="U5" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="U5" s="64">
+      <c r="V5" s="64">
         <v>3</v>
-      </c>
-      <c r="V5" s="64" t="s">
-        <v>9</v>
       </c>
       <c r="W5" s="64" t="s">
         <v>9</v>
       </c>
+      <c r="X5" s="64" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="V2:X2"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -5552,222 +5871,83 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="13" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00150003-0056-4217-9812-007500FC004F}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00B80010-0035-4C02-B880-00F3008400B6}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>BOOLEAN_ANSWER</xm:f>
+          </x14:formula1>
+          <xm:sqref>X4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{007F0079-002F-4480-8FD5-00CC000B00F4}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>BOOLEAN_ANSWER</xm:f>
+          </x14:formula1>
+          <xm:sqref>X5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation xr:uid="{0055008E-00E4-4A13-A09C-00A0007B00E6}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>W4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{006B00AE-00C6-4E73-9FA1-0040009800AF}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00D90011-0088-4538-A3AF-00DA00680068}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>W5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00AB004E-0031-475E-9D5B-00FD008A0073}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{001E00C9-0022-414D-B99F-004300DF0016}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
-          <xm:sqref>V4</xm:sqref>
+          <xm:sqref>U4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00760039-00BA-4951-923B-001C008E00EB}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{0084001E-0000-4F1D-A633-003A00FC005B}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
-          <xm:sqref>V5</xm:sqref>
+          <xm:sqref>U5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{000B0045-00D0-45E4-A095-00FC00160061}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00B6000F-00FF-484B-A399-007900A0008C}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
-          <xm:sqref>T4</xm:sqref>
+          <xm:sqref>S4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00F8001F-00A4-4BAD-B87B-0007002500E3}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{005F00D2-005F-4A09-8EEF-0050002C0045}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
-          <xm:sqref>T5</xm:sqref>
+          <xm:sqref>F4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0057009F-001A-46EF-909D-007D00DE0066}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00F00085-00E0-46FD-8672-00DB006F00A9}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
-          <xm:sqref>R4</xm:sqref>
+          <xm:sqref>F5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{009F00B3-0056-4F73-BFF2-00EB0077008E}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{001D000D-005A-4EF3-8FAB-009B00900063}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
-          <xm:sqref>E4</xm:sqref>
+          <xm:sqref>J4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00FF0033-00EB-454E-8361-006E009A00B6}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00B0007E-00ED-4D5B-A07E-00D2008F0030}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
-          <xm:sqref>E5</xm:sqref>
+          <xm:sqref>J5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{008600B8-005B-49DB-B53F-006B00F30093}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>BOOLEAN_ANSWER</xm:f>
-          </x14:formula1>
-          <xm:sqref>I4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{003B00F7-0068-4C26-B92B-009500A00089}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>BOOLEAN_ANSWER</xm:f>
-          </x14:formula1>
-          <xm:sqref>I5</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{003300F3-0059-4F07-84D3-00C500960012}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{000100FE-007A-485C-B5C3-00BF004B007C}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>SUBSTAGES_FRECUENCY</xm:f>
           </x14:formula1>
-          <xm:sqref>K4</xm:sqref>
+          <xm:sqref>L4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{004A006D-00AF-4F5A-88ED-00E9007600D0}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00760064-00F8-4920-B3C3-00F1008500C0}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>SUBSTAGES_FRECUENCY</xm:f>
           </x14:formula1>
-          <xm:sqref>K5</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="7" tint="0"/>
-    <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0" zoomScale="100">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col customWidth="1" min="3" max="3" width="11.421875"/>
-    <col customWidth="1" min="4" max="4" width="10.421875"/>
-    <col customWidth="1" min="5" max="5" width="12.421875"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="2" ht="28.5">
-      <c r="A2" s="93" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="94" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="95" t="s">
-        <v>226</v>
-      </c>
-      <c r="D2" s="110" t="s">
-        <v>203</v>
-      </c>
-      <c r="E2" s="110" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A3" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="C3" s="78" t="str">
-        <f>ap_programs!$A$4</f>
-        <v>programA</v>
-      </c>
-      <c r="D3" s="64">
-        <v>0</v>
-      </c>
-      <c r="E3" s="64" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A4" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="C4" s="78" t="str">
-        <f>ap_programs!$A$5</f>
-        <v>programB</v>
-      </c>
-      <c r="D4" s="64">
-        <v>0</v>
-      </c>
-      <c r="E4" s="64" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" ht="19.5" customHeight="1">
-      <c r="A5" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="C5" s="78" t="str">
-        <f>ap_programs!$A$4</f>
-        <v>programA</v>
-      </c>
-      <c r="D5" s="64">
-        <v>0</v>
-      </c>
-      <c r="E5" s="64" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3" disablePrompts="0">
-        <x14:dataValidation xr:uid="{008D005A-00C0-403F-81DB-00E20094004A}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>BOOLEAN_ANSWER</xm:f>
-          </x14:formula1>
-          <xm:sqref>E3</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00A60045-0013-44A2-89E7-003500510019}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>BOOLEAN_ANSWER</xm:f>
-          </x14:formula1>
-          <xm:sqref>E4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00E8008E-00D2-4E98-B729-009D00E50024}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>BOOLEAN_ANSWER</xm:f>
-          </x14:formula1>
-          <xm:sqref>E5</xm:sqref>
+          <xm:sqref>L5</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/packages/leemons-plugin-mvp-template/src/bulk/data.xlsx
+++ b/packages/leemons-plugin-mvp-template/src/bulk/data.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="314">
   <si>
     <t xml:space="preserve">Substages frecuency</t>
   </si>
@@ -582,6 +582,9 @@
     <t>scales</t>
   </si>
   <si>
+    <t>minScaleToPromote</t>
+  </si>
+  <si>
     <t>Type</t>
   </si>
   <si>
@@ -589,6 +592,9 @@
   </si>
   <si>
     <t>Scales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min scale to promote</t>
   </si>
   <si>
     <t>gradeA</t>
@@ -1471,7 +1477,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="128">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1506,7 +1512,6 @@
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="1" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1658,9 +1663,6 @@
     <xf fontId="0" fillId="0" borderId="20" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf fontId="4" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1722,14 +1724,11 @@
     <xf fontId="4" fillId="16" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf fontId="1" fillId="7" borderId="21" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2530,83 +2529,83 @@
         <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" ht="28.5">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="101" t="s">
-        <v>241</v>
-      </c>
-      <c r="D2" s="117" t="s">
-        <v>218</v>
-      </c>
-      <c r="E2" s="117" t="s">
-        <v>242</v>
+      <c r="C2" s="98" t="s">
+        <v>243</v>
+      </c>
+      <c r="D2" s="114" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2" s="114" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="C3" s="79" t="str">
+        <v>246</v>
+      </c>
+      <c r="C3" s="77" t="str">
         <f>ap_programs!$A$4</f>
         <v>programA</v>
       </c>
-      <c r="D3" s="64">
+      <c r="D3" s="63">
         <v>0</v>
       </c>
-      <c r="E3" s="64" t="s">
+      <c r="E3" s="63" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="C4" s="79" t="str">
+        <v>246</v>
+      </c>
+      <c r="C4" s="77" t="str">
         <f>ap_programs!$A$5</f>
         <v>programB</v>
       </c>
-      <c r="D4" s="64">
+      <c r="D4" s="63">
         <v>0</v>
       </c>
-      <c r="E4" s="64" t="s">
+      <c r="E4" s="63" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" ht="19.5" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="C5" s="79" t="str">
+        <v>249</v>
+      </c>
+      <c r="C5" s="77" t="str">
         <f>ap_programs!$A$4</f>
         <v>programA</v>
       </c>
-      <c r="D5" s="64">
+      <c r="D5" s="63">
         <v>0</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="63" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2618,19 +2617,19 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00AB004C-00BF-43AF-B98C-00E10079001D}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00250057-001B-4EAA-A0EB-0068007A0014}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>E3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00E5002D-005B-480B-97F8-006D0087001E}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00990013-0081-4C50-B059-0080006F0068}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>E4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{000A001C-0093-46FB-95E9-005C002D0087}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{002B0047-005A-401A-A35C-004C00210033}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
@@ -2670,89 +2669,89 @@
         <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" ht="28.5">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="84" t="s">
-        <v>215</v>
-      </c>
-      <c r="D2" s="84" t="s">
-        <v>250</v>
-      </c>
-      <c r="E2" s="84" t="s">
-        <v>251</v>
-      </c>
-      <c r="F2" s="85" t="s">
-        <v>241</v>
-      </c>
-      <c r="G2" s="119" t="s">
-        <v>218</v>
+      <c r="C2" s="82" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" s="82" t="s">
+        <v>252</v>
+      </c>
+      <c r="E2" s="82" t="s">
+        <v>253</v>
+      </c>
+      <c r="F2" s="83" t="s">
+        <v>243</v>
+      </c>
+      <c r="G2" s="116" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="E3" s="120" t="s">
-        <v>256</v>
-      </c>
-      <c r="F3" s="79" t="str">
+        <v>257</v>
+      </c>
+      <c r="E3" s="117" t="s">
+        <v>258</v>
+      </c>
+      <c r="F3" s="77" t="str">
         <f>ap_programs!$A$5</f>
         <v>programB</v>
       </c>
-      <c r="G3" s="64">
+      <c r="G3" s="63">
         <v>0</v>
       </c>
     </row>
     <row r="4" ht="19.5" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="E4" s="71" t="s">
-        <v>261</v>
-      </c>
-      <c r="F4" s="79" t="str">
+        <v>262</v>
+      </c>
+      <c r="E4" s="69" t="s">
+        <v>263</v>
+      </c>
+      <c r="F4" s="77" t="str">
         <f>ap_programs!$A$5</f>
         <v>programB</v>
       </c>
-      <c r="G4" s="64">
+      <c r="G4" s="63">
         <v>0</v>
       </c>
     </row>
@@ -2803,36 +2802,36 @@
         <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="L1" s="121" t="s">
-        <v>268</v>
-      </c>
-      <c r="M1" s="76"/>
+        <v>269</v>
+      </c>
+      <c r="L1" s="118" t="s">
+        <v>270</v>
+      </c>
+      <c r="M1" s="74"/>
     </row>
     <row r="2" ht="28.850000000000001" customHeight="1">
       <c r="A2" s="5"/>
@@ -2843,52 +2842,52 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="76"/>
+      <c r="M2" s="74"/>
     </row>
     <row r="3" ht="31.850000000000001" customHeight="1">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="101" t="s">
-        <v>241</v>
-      </c>
-      <c r="D3" s="100" t="s">
-        <v>270</v>
-      </c>
-      <c r="E3" s="84" t="s">
-        <v>271</v>
-      </c>
-      <c r="F3" s="100" t="s">
+      <c r="C3" s="98" t="s">
+        <v>243</v>
+      </c>
+      <c r="D3" s="97" t="s">
         <v>272</v>
       </c>
-      <c r="G3" s="100" t="s">
+      <c r="E3" s="82" t="s">
         <v>273</v>
       </c>
-      <c r="H3" s="122" t="s">
+      <c r="F3" s="97" t="s">
         <v>274</v>
       </c>
-      <c r="I3" s="123" t="s">
-        <v>250</v>
-      </c>
-      <c r="J3" s="123" t="s">
+      <c r="G3" s="97" t="s">
         <v>275</v>
       </c>
-      <c r="K3" s="124" t="s">
+      <c r="H3" s="119" t="s">
         <v>276</v>
       </c>
-      <c r="L3" s="85" t="s">
+      <c r="I3" s="120" t="s">
+        <v>252</v>
+      </c>
+      <c r="J3" s="120" t="s">
         <v>277</v>
       </c>
-      <c r="M3" s="125"/>
+      <c r="K3" s="121" t="s">
+        <v>278</v>
+      </c>
+      <c r="L3" s="83" t="s">
+        <v>279</v>
+      </c>
+      <c r="M3" s="122"/>
     </row>
     <row r="4" s="9" customFormat="1" ht="30" customHeight="1">
       <c r="A4" s="10" t="str">
@@ -2896,38 +2895,38 @@
         <v>subject01</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="C4" s="79" t="str">
+        <v>280</v>
+      </c>
+      <c r="C4" s="77" t="str">
         <f>ap_programs!A4</f>
         <v>programA</v>
       </c>
-      <c r="D4" s="64">
+      <c r="D4" s="63">
         <v>1</v>
       </c>
-      <c r="E4" s="64">
+      <c r="E4" s="63">
         <v>20</v>
       </c>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64" t="str">
+      <c r="F4" s="63"/>
+      <c r="G4" s="63" t="str">
         <f t="shared" ref="G4:G9" si="1">_xlfn.CONCAT("0",IF(M4&lt;10,"0",""),M4)</f>
         <v>001</v>
       </c>
-      <c r="H4" s="126" t="s">
-        <v>279</v>
-      </c>
-      <c r="I4" s="127" t="s">
-        <v>280</v>
-      </c>
-      <c r="J4" s="64"/>
-      <c r="K4" s="128" t="str">
+      <c r="H4" s="123" t="s">
+        <v>281</v>
+      </c>
+      <c r="I4" s="124" t="s">
+        <v>282</v>
+      </c>
+      <c r="J4" s="63"/>
+      <c r="K4" s="125" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L4" s="129" t="s">
-        <v>281</v>
-      </c>
-      <c r="M4" s="130">
+      <c r="L4" s="126" t="s">
+        <v>283</v>
+      </c>
+      <c r="M4" s="127">
         <v>1</v>
       </c>
       <c r="N4" s="9"/>
@@ -2938,41 +2937,41 @@
         <v>subject02</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="C5" s="79" t="str">
+        <v>284</v>
+      </c>
+      <c r="C5" s="77" t="str">
         <f t="shared" ref="C5:C10" si="2">C4</f>
         <v>programA</v>
       </c>
-      <c r="D5" s="64">
+      <c r="D5" s="63">
         <v>1</v>
       </c>
-      <c r="E5" s="64">
+      <c r="E5" s="63">
         <v>20</v>
       </c>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64" t="str">
+      <c r="F5" s="63"/>
+      <c r="G5" s="63" t="str">
         <f t="shared" si="1"/>
         <v>002</v>
       </c>
-      <c r="H5" s="126" t="str">
+      <c r="H5" s="123" t="str">
         <f t="shared" ref="H5:H10" si="3">H4</f>
         <v xml:space="preserve">Group A|G1A, Group B|G1B</v>
       </c>
-      <c r="I5" s="127" t="str">
+      <c r="I5" s="124" t="str">
         <f t="shared" ref="I5:I10" si="4">I4</f>
         <v>#FFEB9C</v>
       </c>
-      <c r="J5" s="64"/>
-      <c r="K5" s="128" t="str">
+      <c r="J5" s="63"/>
+      <c r="K5" s="125" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L5" s="129" t="str">
+      <c r="L5" s="126" t="str">
         <f t="shared" ref="L5:L10" si="5">L4</f>
         <v xml:space="preserve">teacher01|main@G1A, teacher01|main@G1B</v>
       </c>
-      <c r="M5" s="130">
+      <c r="M5" s="127">
         <f t="shared" ref="M5:M10" si="6">M4+1</f>
         <v>2</v>
       </c>
@@ -2984,41 +2983,41 @@
         <v>subject03</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="C6" s="79" t="str">
+        <v>285</v>
+      </c>
+      <c r="C6" s="77" t="str">
         <f t="shared" si="2"/>
         <v>programA</v>
       </c>
-      <c r="D6" s="64">
+      <c r="D6" s="63">
         <v>1</v>
       </c>
-      <c r="E6" s="64">
+      <c r="E6" s="63">
         <v>20</v>
       </c>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64" t="str">
+      <c r="F6" s="63"/>
+      <c r="G6" s="63" t="str">
         <f t="shared" si="1"/>
         <v>003</v>
       </c>
-      <c r="H6" s="126" t="str">
+      <c r="H6" s="123" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">Group A|G1A, Group B|G1B</v>
       </c>
-      <c r="I6" s="127" t="str">
+      <c r="I6" s="124" t="str">
         <f t="shared" si="4"/>
         <v>#FFEB9C</v>
       </c>
-      <c r="J6" s="64"/>
-      <c r="K6" s="128" t="str">
+      <c r="J6" s="63"/>
+      <c r="K6" s="125" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L6" s="129" t="str">
+      <c r="L6" s="126" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">teacher01|main@G1A, teacher01|main@G1B</v>
       </c>
-      <c r="M6" s="130">
+      <c r="M6" s="127">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
@@ -3030,41 +3029,41 @@
         <v>subject04</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="C7" s="79" t="str">
+        <v>286</v>
+      </c>
+      <c r="C7" s="77" t="str">
         <f t="shared" si="2"/>
         <v>programA</v>
       </c>
-      <c r="D7" s="64">
+      <c r="D7" s="63">
         <v>1</v>
       </c>
-      <c r="E7" s="64">
+      <c r="E7" s="63">
         <v>20</v>
       </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64" t="str">
+      <c r="F7" s="63"/>
+      <c r="G7" s="63" t="str">
         <f t="shared" si="1"/>
         <v>004</v>
       </c>
-      <c r="H7" s="126" t="str">
+      <c r="H7" s="123" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">Group A|G1A, Group B|G1B</v>
       </c>
-      <c r="I7" s="127" t="str">
+      <c r="I7" s="124" t="str">
         <f t="shared" si="4"/>
         <v>#FFEB9C</v>
       </c>
-      <c r="J7" s="64"/>
-      <c r="K7" s="128" t="str">
+      <c r="J7" s="63"/>
+      <c r="K7" s="125" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="L7" s="129" t="str">
+      <c r="L7" s="126" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">teacher01|main@G1A, teacher01|main@G1B</v>
       </c>
-      <c r="M7" s="130">
+      <c r="M7" s="127">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
@@ -3076,39 +3075,39 @@
         <v>subject05</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="C8" s="79" t="str">
+        <v>287</v>
+      </c>
+      <c r="C8" s="77" t="str">
         <f t="shared" si="2"/>
         <v>programA</v>
       </c>
-      <c r="D8" s="64">
+      <c r="D8" s="63">
         <v>2</v>
       </c>
-      <c r="E8" s="64">
+      <c r="E8" s="63">
         <v>20</v>
       </c>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64" t="str">
+      <c r="F8" s="63"/>
+      <c r="G8" s="63" t="str">
         <f t="shared" si="1"/>
         <v>005</v>
       </c>
-      <c r="H8" s="126" t="s">
-        <v>286</v>
-      </c>
-      <c r="I8" s="127" t="str">
+      <c r="H8" s="123" t="s">
+        <v>288</v>
+      </c>
+      <c r="I8" s="124" t="str">
         <f t="shared" si="4"/>
         <v>#FFEB9C</v>
       </c>
-      <c r="J8" s="64"/>
-      <c r="K8" s="128" t="str">
+      <c r="J8" s="63"/>
+      <c r="K8" s="125" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L8" s="129" t="s">
-        <v>287</v>
-      </c>
-      <c r="M8" s="130">
+      <c r="L8" s="126" t="s">
+        <v>289</v>
+      </c>
+      <c r="M8" s="127">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
@@ -3119,40 +3118,40 @@
         <v>subject06</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="C9" s="79" t="str">
+        <v>290</v>
+      </c>
+      <c r="C9" s="77" t="str">
         <f t="shared" si="2"/>
         <v>programA</v>
       </c>
-      <c r="D9" s="64">
+      <c r="D9" s="63">
         <v>2</v>
       </c>
-      <c r="E9" s="64">
+      <c r="E9" s="63">
         <v>20</v>
       </c>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64" t="str">
+      <c r="F9" s="63"/>
+      <c r="G9" s="63" t="str">
         <f t="shared" si="1"/>
         <v>006</v>
       </c>
-      <c r="H9" s="126" t="str">
+      <c r="H9" s="123" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">Group A|G2A, Group B|G2B</v>
       </c>
-      <c r="I9" s="127" t="s">
-        <v>289</v>
-      </c>
-      <c r="J9" s="64"/>
-      <c r="K9" s="128" t="str">
+      <c r="I9" s="124" t="s">
+        <v>291</v>
+      </c>
+      <c r="J9" s="63"/>
+      <c r="K9" s="125" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L9" s="129" t="str">
+      <c r="L9" s="126" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">teacher01|main@G2A, teacher01|main@G2B</v>
       </c>
-      <c r="M9" s="130">
+      <c r="M9" s="127">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
@@ -3163,41 +3162,41 @@
         <v>subject07</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="C10" s="79" t="str">
+        <v>292</v>
+      </c>
+      <c r="C10" s="77" t="str">
         <f t="shared" si="2"/>
         <v>programA</v>
       </c>
-      <c r="D10" s="64">
+      <c r="D10" s="63">
         <v>2</v>
       </c>
-      <c r="E10" s="64">
+      <c r="E10" s="63">
         <v>20</v>
       </c>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64" t="str">
+      <c r="F10" s="63"/>
+      <c r="G10" s="63" t="str">
         <f t="shared" ref="G10:G23" si="8">_xlfn.CONCAT("0",IF(M10&lt;10,"0",""),M10)</f>
         <v>007</v>
       </c>
-      <c r="H10" s="126" t="str">
+      <c r="H10" s="123" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve">Group A|G2A, Group B|G2B</v>
       </c>
-      <c r="I10" s="127" t="str">
+      <c r="I10" s="124" t="str">
         <f t="shared" si="4"/>
         <v>#FFC7CE</v>
       </c>
-      <c r="J10" s="64"/>
-      <c r="K10" s="128" t="str">
+      <c r="J10" s="63"/>
+      <c r="K10" s="125" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L10" s="129" t="str">
+      <c r="L10" s="126" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">teacher01|main@G2A, teacher01|main@G2B</v>
       </c>
-      <c r="M10" s="130">
+      <c r="M10" s="127">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
@@ -3208,41 +3207,41 @@
         <v>subject08</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="C11" s="79" t="str">
+        <v>293</v>
+      </c>
+      <c r="C11" s="77" t="str">
         <f t="shared" ref="C11:C23" si="9">C10</f>
         <v>programA</v>
       </c>
-      <c r="D11" s="64">
+      <c r="D11" s="63">
         <v>2</v>
       </c>
-      <c r="E11" s="64">
+      <c r="E11" s="63">
         <v>20</v>
       </c>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64" t="str">
+      <c r="F11" s="63"/>
+      <c r="G11" s="63" t="str">
         <f t="shared" si="8"/>
         <v>008</v>
       </c>
-      <c r="H11" s="126" t="str">
+      <c r="H11" s="123" t="str">
         <f>H10</f>
         <v xml:space="preserve">Group A|G2A, Group B|G2B</v>
       </c>
-      <c r="I11" s="127" t="str">
+      <c r="I11" s="124" t="str">
         <f t="shared" ref="I11:I18" si="10">I10</f>
         <v>#FFC7CE</v>
       </c>
-      <c r="J11" s="64"/>
-      <c r="K11" s="128" t="str">
+      <c r="J11" s="63"/>
+      <c r="K11" s="125" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="L11" s="129" t="str">
+      <c r="L11" s="126" t="str">
         <f>L10</f>
         <v xml:space="preserve">teacher01|main@G2A, teacher01|main@G2B</v>
       </c>
-      <c r="M11" s="130">
+      <c r="M11" s="127">
         <f t="shared" ref="M11:M23" si="11">M10+1</f>
         <v>8</v>
       </c>
@@ -3253,39 +3252,39 @@
         <v>subject09</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="C12" s="79" t="str">
+        <v>294</v>
+      </c>
+      <c r="C12" s="77" t="str">
         <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D12" s="64">
+      <c r="D12" s="63">
         <v>3</v>
       </c>
-      <c r="E12" s="64">
+      <c r="E12" s="63">
         <v>20</v>
       </c>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64" t="str">
+      <c r="F12" s="63"/>
+      <c r="G12" s="63" t="str">
         <f t="shared" si="8"/>
         <v>009</v>
       </c>
-      <c r="H12" s="126" t="s">
-        <v>293</v>
-      </c>
-      <c r="I12" s="127" t="str">
+      <c r="H12" s="123" t="s">
+        <v>295</v>
+      </c>
+      <c r="I12" s="124" t="str">
         <f t="shared" si="10"/>
         <v>#FFC7CE</v>
       </c>
-      <c r="J12" s="64"/>
-      <c r="K12" s="128" t="str">
+      <c r="J12" s="63"/>
+      <c r="K12" s="125" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L12" s="129" t="s">
-        <v>294</v>
-      </c>
-      <c r="M12" s="130">
+      <c r="L12" s="126" t="s">
+        <v>296</v>
+      </c>
+      <c r="M12" s="127">
         <f t="shared" si="11"/>
         <v>9</v>
       </c>
@@ -3296,41 +3295,41 @@
         <v>subject10</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="C13" s="79" t="str">
+        <v>297</v>
+      </c>
+      <c r="C13" s="77" t="str">
         <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D13" s="64">
+      <c r="D13" s="63">
         <v>3</v>
       </c>
-      <c r="E13" s="64">
+      <c r="E13" s="63">
         <v>20</v>
       </c>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64" t="str">
+      <c r="F13" s="63"/>
+      <c r="G13" s="63" t="str">
         <f t="shared" si="8"/>
         <v>010</v>
       </c>
-      <c r="H13" s="126" t="str">
+      <c r="H13" s="123" t="str">
         <f t="shared" ref="H13:H23" si="12">H12</f>
         <v xml:space="preserve">Group A|G3A, Group B|G3B</v>
       </c>
-      <c r="I13" s="127" t="str">
+      <c r="I13" s="124" t="str">
         <f t="shared" si="10"/>
         <v>#FFC7CE</v>
       </c>
-      <c r="J13" s="64"/>
-      <c r="K13" s="128" t="str">
+      <c r="J13" s="63"/>
+      <c r="K13" s="125" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L13" s="129" t="str">
+      <c r="L13" s="126" t="str">
         <f t="shared" ref="L13:L23" si="13">L12</f>
         <v xml:space="preserve">teacher01|main@G3A, teacher01|main@G3B</v>
       </c>
-      <c r="M13" s="130">
+      <c r="M13" s="127">
         <f t="shared" si="11"/>
         <v>10</v>
       </c>
@@ -3341,40 +3340,40 @@
         <v>subject11</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="C14" s="79" t="str">
+        <v>298</v>
+      </c>
+      <c r="C14" s="77" t="str">
         <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D14" s="64">
+      <c r="D14" s="63">
         <v>3</v>
       </c>
-      <c r="E14" s="64">
+      <c r="E14" s="63">
         <v>20</v>
       </c>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64" t="str">
+      <c r="F14" s="63"/>
+      <c r="G14" s="63" t="str">
         <f t="shared" si="8"/>
         <v>011</v>
       </c>
-      <c r="H14" s="126" t="str">
+      <c r="H14" s="123" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">Group A|G3A, Group B|G3B</v>
       </c>
-      <c r="I14" s="127" t="s">
-        <v>297</v>
-      </c>
-      <c r="J14" s="64"/>
-      <c r="K14" s="128" t="str">
+      <c r="I14" s="124" t="s">
+        <v>299</v>
+      </c>
+      <c r="J14" s="63"/>
+      <c r="K14" s="125" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L14" s="129" t="str">
+      <c r="L14" s="126" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">teacher01|main@G3A, teacher01|main@G3B</v>
       </c>
-      <c r="M14" s="130">
+      <c r="M14" s="127">
         <f t="shared" si="11"/>
         <v>11</v>
       </c>
@@ -3385,41 +3384,41 @@
         <v>subject12</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="C15" s="79" t="str">
+        <v>300</v>
+      </c>
+      <c r="C15" s="77" t="str">
         <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D15" s="64">
+      <c r="D15" s="63">
         <v>3</v>
       </c>
-      <c r="E15" s="64">
+      <c r="E15" s="63">
         <v>20</v>
       </c>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64" t="str">
+      <c r="F15" s="63"/>
+      <c r="G15" s="63" t="str">
         <f t="shared" si="8"/>
         <v>012</v>
       </c>
-      <c r="H15" s="126" t="str">
+      <c r="H15" s="123" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">Group A|G3A, Group B|G3B</v>
       </c>
-      <c r="I15" s="127" t="str">
+      <c r="I15" s="124" t="str">
         <f t="shared" si="10"/>
         <v>#C6EFCD</v>
       </c>
-      <c r="J15" s="64"/>
-      <c r="K15" s="128" t="str">
+      <c r="J15" s="63"/>
+      <c r="K15" s="125" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="L15" s="129" t="str">
+      <c r="L15" s="126" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">teacher01|main@G3A, teacher01|main@G3B</v>
       </c>
-      <c r="M15" s="130">
+      <c r="M15" s="127">
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
@@ -3430,39 +3429,39 @@
         <v>subject13</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="C16" s="79" t="str">
+        <v>301</v>
+      </c>
+      <c r="C16" s="77" t="str">
         <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D16" s="64">
+      <c r="D16" s="63">
         <v>4</v>
       </c>
-      <c r="E16" s="64">
+      <c r="E16" s="63">
         <v>20</v>
       </c>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64" t="str">
+      <c r="F16" s="63"/>
+      <c r="G16" s="63" t="str">
         <f t="shared" si="8"/>
         <v>013</v>
       </c>
-      <c r="H16" s="126" t="s">
-        <v>300</v>
-      </c>
-      <c r="I16" s="127" t="str">
+      <c r="H16" s="123" t="s">
+        <v>302</v>
+      </c>
+      <c r="I16" s="124" t="str">
         <f t="shared" si="10"/>
         <v>#C6EFCD</v>
       </c>
-      <c r="J16" s="64"/>
-      <c r="K16" s="128" t="str">
+      <c r="J16" s="63"/>
+      <c r="K16" s="125" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L16" s="129" t="s">
-        <v>301</v>
-      </c>
-      <c r="M16" s="130">
+      <c r="L16" s="126" t="s">
+        <v>303</v>
+      </c>
+      <c r="M16" s="127">
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
@@ -3473,41 +3472,41 @@
         <v>subject14</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="C17" s="79" t="str">
+        <v>304</v>
+      </c>
+      <c r="C17" s="77" t="str">
         <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D17" s="64">
+      <c r="D17" s="63">
         <v>4</v>
       </c>
-      <c r="E17" s="64">
+      <c r="E17" s="63">
         <v>20</v>
       </c>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64" t="str">
+      <c r="F17" s="63"/>
+      <c r="G17" s="63" t="str">
         <f t="shared" si="8"/>
         <v>014</v>
       </c>
-      <c r="H17" s="126" t="str">
+      <c r="H17" s="123" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">Group A|G4A, Group B|G4B</v>
       </c>
-      <c r="I17" s="127" t="str">
+      <c r="I17" s="124" t="str">
         <f t="shared" si="10"/>
         <v>#C6EFCD</v>
       </c>
-      <c r="J17" s="64"/>
-      <c r="K17" s="128" t="str">
+      <c r="J17" s="63"/>
+      <c r="K17" s="125" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L17" s="129" t="str">
+      <c r="L17" s="126" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">teacher01|main@G4A, teacher01|main@G4B</v>
       </c>
-      <c r="M17" s="130">
+      <c r="M17" s="127">
         <f t="shared" si="11"/>
         <v>14</v>
       </c>
@@ -3518,41 +3517,41 @@
         <v>subject15</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="C18" s="79" t="str">
+        <v>305</v>
+      </c>
+      <c r="C18" s="77" t="str">
         <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D18" s="64">
+      <c r="D18" s="63">
         <v>4</v>
       </c>
-      <c r="E18" s="64">
+      <c r="E18" s="63">
         <v>20</v>
       </c>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64" t="str">
+      <c r="F18" s="63"/>
+      <c r="G18" s="63" t="str">
         <f t="shared" si="8"/>
         <v>015</v>
       </c>
-      <c r="H18" s="126" t="str">
+      <c r="H18" s="123" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">Group A|G4A, Group B|G4B</v>
       </c>
-      <c r="I18" s="127" t="str">
+      <c r="I18" s="124" t="str">
         <f t="shared" si="10"/>
         <v>#C6EFCD</v>
       </c>
-      <c r="J18" s="64"/>
-      <c r="K18" s="128" t="str">
+      <c r="J18" s="63"/>
+      <c r="K18" s="125" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L18" s="129" t="str">
+      <c r="L18" s="126" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">teacher01|main@G4A, teacher01|main@G4B</v>
       </c>
-      <c r="M18" s="130">
+      <c r="M18" s="127">
         <f t="shared" si="11"/>
         <v>15</v>
       </c>
@@ -3563,40 +3562,40 @@
         <v>subject16</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="C19" s="79" t="str">
+        <v>306</v>
+      </c>
+      <c r="C19" s="77" t="str">
         <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D19" s="64">
+      <c r="D19" s="63">
         <v>4</v>
       </c>
-      <c r="E19" s="64">
+      <c r="E19" s="63">
         <v>20</v>
       </c>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64" t="str">
+      <c r="F19" s="63"/>
+      <c r="G19" s="63" t="str">
         <f t="shared" si="8"/>
         <v>016</v>
       </c>
-      <c r="H19" s="126" t="str">
+      <c r="H19" s="123" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">Group A|G4A, Group B|G4B</v>
       </c>
-      <c r="I19" s="127" t="s">
-        <v>305</v>
-      </c>
-      <c r="J19" s="64"/>
-      <c r="K19" s="128" t="str">
+      <c r="I19" s="124" t="s">
+        <v>307</v>
+      </c>
+      <c r="J19" s="63"/>
+      <c r="K19" s="125" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="L19" s="129" t="str">
+      <c r="L19" s="126" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">teacher01|main@G4A, teacher01|main@G4B</v>
       </c>
-      <c r="M19" s="130">
+      <c r="M19" s="127">
         <f t="shared" si="11"/>
         <v>16</v>
       </c>
@@ -3607,38 +3606,38 @@
         <v>subject17</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="C20" s="79" t="str">
+        <v>308</v>
+      </c>
+      <c r="C20" s="77" t="str">
         <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D20" s="64">
+      <c r="D20" s="63">
         <v>5</v>
       </c>
-      <c r="E20" s="64">
+      <c r="E20" s="63">
         <v>20</v>
       </c>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64" t="str">
+      <c r="F20" s="63"/>
+      <c r="G20" s="63" t="str">
         <f t="shared" si="8"/>
         <v>017</v>
       </c>
-      <c r="H20" s="126" t="s">
+      <c r="H20" s="123" t="s">
+        <v>309</v>
+      </c>
+      <c r="I20" s="124" t="s">
         <v>307</v>
       </c>
-      <c r="I20" s="127" t="s">
-        <v>305</v>
-      </c>
-      <c r="J20" s="64"/>
-      <c r="K20" s="128" t="str">
+      <c r="J20" s="63"/>
+      <c r="K20" s="125" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L20" s="129" t="s">
-        <v>308</v>
-      </c>
-      <c r="M20" s="130">
+      <c r="L20" s="126" t="s">
+        <v>310</v>
+      </c>
+      <c r="M20" s="127">
         <f t="shared" si="11"/>
         <v>17</v>
       </c>
@@ -3649,40 +3648,40 @@
         <v>subject18</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="C21" s="79" t="str">
+        <v>311</v>
+      </c>
+      <c r="C21" s="77" t="str">
         <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D21" s="64">
+      <c r="D21" s="63">
         <v>5</v>
       </c>
-      <c r="E21" s="64">
+      <c r="E21" s="63">
         <v>20</v>
       </c>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64" t="str">
+      <c r="F21" s="63"/>
+      <c r="G21" s="63" t="str">
         <f t="shared" si="8"/>
         <v>018</v>
       </c>
-      <c r="H21" s="126" t="str">
+      <c r="H21" s="123" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">Group A|G5A, Group B|G5B</v>
       </c>
-      <c r="I21" s="127" t="s">
-        <v>305</v>
-      </c>
-      <c r="J21" s="64"/>
-      <c r="K21" s="128" t="str">
+      <c r="I21" s="124" t="s">
+        <v>307</v>
+      </c>
+      <c r="J21" s="63"/>
+      <c r="K21" s="125" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L21" s="129" t="str">
+      <c r="L21" s="126" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">teacher01|main@G5A, teacher01|main@G5B</v>
       </c>
-      <c r="M21" s="130">
+      <c r="M21" s="127">
         <f t="shared" si="11"/>
         <v>18</v>
       </c>
@@ -3693,40 +3692,40 @@
         <v>subject19</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="C22" s="79" t="str">
+        <v>312</v>
+      </c>
+      <c r="C22" s="77" t="str">
         <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D22" s="64">
+      <c r="D22" s="63">
         <v>5</v>
       </c>
-      <c r="E22" s="64">
+      <c r="E22" s="63">
         <v>20</v>
       </c>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64" t="str">
+      <c r="F22" s="63"/>
+      <c r="G22" s="63" t="str">
         <f t="shared" si="8"/>
         <v>019</v>
       </c>
-      <c r="H22" s="126" t="str">
+      <c r="H22" s="123" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">Group A|G5A, Group B|G5B</v>
       </c>
-      <c r="I22" s="127" t="s">
-        <v>305</v>
-      </c>
-      <c r="J22" s="64"/>
-      <c r="K22" s="128" t="str">
+      <c r="I22" s="124" t="s">
+        <v>307</v>
+      </c>
+      <c r="J22" s="63"/>
+      <c r="K22" s="125" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L22" s="129" t="str">
+      <c r="L22" s="126" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">teacher01|main@G5A, teacher01|main@G5B</v>
       </c>
-      <c r="M22" s="130">
+      <c r="M22" s="127">
         <f t="shared" si="11"/>
         <v>19</v>
       </c>
@@ -3737,47 +3736,47 @@
         <v>subject20</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="C23" s="79" t="str">
+        <v>313</v>
+      </c>
+      <c r="C23" s="77" t="str">
         <f t="shared" si="9"/>
         <v>programA</v>
       </c>
-      <c r="D23" s="64">
+      <c r="D23" s="63">
         <v>5</v>
       </c>
-      <c r="E23" s="64">
+      <c r="E23" s="63">
         <v>20</v>
       </c>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64" t="str">
+      <c r="F23" s="63"/>
+      <c r="G23" s="63" t="str">
         <f t="shared" si="8"/>
         <v>020</v>
       </c>
-      <c r="H23" s="126" t="str">
+      <c r="H23" s="123" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve">Group A|G5A, Group B|G5B</v>
       </c>
-      <c r="I23" s="127" t="s">
-        <v>305</v>
-      </c>
-      <c r="J23" s="64"/>
-      <c r="K23" s="128" t="str">
+      <c r="I23" s="124" t="s">
+        <v>307</v>
+      </c>
+      <c r="J23" s="63"/>
+      <c r="K23" s="125" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="L23" s="129" t="str">
+      <c r="L23" s="126" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">teacher01|main@G5A, teacher01|main@G5B</v>
       </c>
-      <c r="M23" s="130">
+      <c r="M23" s="127">
         <f t="shared" si="11"/>
         <v>20</v>
       </c>
     </row>
     <row r="24" ht="14.25">
-      <c r="E24" s="15"/>
-      <c r="M24" s="76"/>
+      <c r="E24" s="14"/>
+      <c r="M24" s="74"/>
     </row>
     <row r="25" ht="14.25"/>
   </sheetData>
@@ -4023,15 +4022,15 @@
         <f>_xlfn.CONCAT($AD$3,".",AD5)</f>
         <v>plugins.grades.rules</v>
       </c>
-      <c r="AE1" s="13" t="str">
+      <c r="AE1" s="12" t="str">
         <f>_xlfn.CONCAT($AD$3,".",AE5)</f>
         <v>plugins.grades.evaluations</v>
       </c>
-      <c r="AF1" s="13" t="str">
+      <c r="AF1" s="12" t="str">
         <f>_xlfn.CONCAT($AD$3,".",AF5)</f>
         <v>plugins.grades.promotions</v>
       </c>
-      <c r="AG1" s="13" t="str">
+      <c r="AG1" s="12" t="str">
         <f>_xlfn.CONCAT($AD$3,".",AG5)</f>
         <v>plugins.grades.dependencies</v>
       </c>
@@ -4041,239 +4040,239 @@
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14"/>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="14"/>
-      <c r="AF2" s="14"/>
-      <c r="AG2" s="14"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
     </row>
     <row r="3" ht="14.25">
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18" t="s">
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="22" t="s">
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="16" t="s">
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="W3" s="17"/>
-      <c r="X3" s="25" t="s">
+      <c r="W3" s="16"/>
+      <c r="X3" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="27" t="s">
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="AC3" s="20" t="s">
+      <c r="AC3" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="AD3" s="22" t="s">
+      <c r="AD3" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
-    </row>
-    <row r="4" s="28" customFormat="1" ht="19.850000000000001" customHeight="1">
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29" t="s">
+      <c r="AE3" s="22"/>
+      <c r="AF3" s="22"/>
+      <c r="AG3" s="22"/>
+    </row>
+    <row r="4" s="27" customFormat="1" ht="19.850000000000001" customHeight="1">
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="31" t="s">
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="J4" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="K4" s="33" t="s">
+      <c r="K4" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="35" t="s">
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="29" t="s">
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="W4" s="30"/>
-      <c r="X4" s="31" t="s">
+      <c r="W4" s="29"/>
+      <c r="X4" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="32" t="s">
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="37"/>
+      <c r="AB4" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="AC4" s="33" t="s">
+      <c r="AC4" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="AD4" s="35" t="s">
+      <c r="AD4" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="36"/>
-      <c r="AG4" s="36"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="35"/>
     </row>
     <row r="5" ht="14.25">
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="39" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="41" t="s">
+      <c r="H5" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="I5" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="J5" s="43" t="s">
+      <c r="J5" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="K5" s="44" t="s">
+      <c r="K5" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="L5" s="45" t="s">
+      <c r="L5" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="M5" s="45" t="s">
+      <c r="M5" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="N5" s="45" t="s">
+      <c r="N5" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="O5" s="45" t="s">
+      <c r="O5" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="P5" s="46" t="s">
+      <c r="P5" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="Q5" s="47" t="s">
+      <c r="Q5" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="R5" s="47" t="s">
+      <c r="R5" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="S5" s="47" t="s">
+      <c r="S5" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="T5" s="47" t="s">
+      <c r="T5" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="U5" s="48" t="s">
+      <c r="U5" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="V5" s="39" t="s">
+      <c r="V5" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="W5" s="40" t="s">
+      <c r="W5" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="X5" s="42" t="s">
+      <c r="X5" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="Y5" s="42" t="s">
+      <c r="Y5" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="Z5" s="42" t="s">
+      <c r="Z5" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="AA5" s="42" t="s">
+      <c r="AA5" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="AB5" s="43" t="s">
+      <c r="AB5" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="AC5" s="49" t="s">
+      <c r="AC5" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="AD5" s="46" t="s">
+      <c r="AD5" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="AE5" s="47" t="s">
+      <c r="AE5" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="AF5" s="47" t="s">
+      <c r="AF5" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="AG5" s="47" t="s">
+      <c r="AG5" s="46" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" s="50" customFormat="1" ht="19.5" customHeight="1">
+    <row r="6" s="49" customFormat="1" ht="19.5" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -4283,10 +4282,10 @@
       <c r="C6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="E6" s="51" t="s">
         <v>50</v>
       </c>
       <c r="F6" s="8" t="s">
@@ -4295,82 +4294,82 @@
       <c r="G6" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="H6" s="53" t="s">
+      <c r="H6" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="I6" s="54" t="s">
+      <c r="I6" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="J6" s="55" t="s">
+      <c r="J6" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="56" t="s">
+      <c r="K6" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="L6" s="57" t="s">
+      <c r="L6" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="M6" s="57" t="s">
+      <c r="M6" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="N6" s="57" t="s">
+      <c r="N6" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="O6" s="57" t="s">
+      <c r="O6" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="P6" s="58" t="s">
+      <c r="P6" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="Q6" s="59" t="s">
+      <c r="Q6" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="R6" s="59" t="s">
+      <c r="R6" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="S6" s="59" t="s">
+      <c r="S6" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="T6" s="59" t="s">
+      <c r="T6" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="U6" s="60" t="s">
+      <c r="U6" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="V6" s="52" t="s">
+      <c r="V6" s="51" t="s">
         <v>94</v>
       </c>
       <c r="W6" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="X6" s="54" t="s">
+      <c r="X6" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="Y6" s="54" t="s">
+      <c r="Y6" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="Z6" s="54" t="s">
+      <c r="Z6" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="AA6" s="54" t="s">
+      <c r="AA6" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="AB6" s="61" t="s">
+      <c r="AB6" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="AC6" s="62" t="s">
+      <c r="AC6" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="AD6" s="58" t="s">
+      <c r="AD6" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="AE6" s="59" t="s">
+      <c r="AE6" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="AF6" s="59" t="s">
+      <c r="AF6" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="AG6" s="59" t="s">
+      <c r="AG6" s="58" t="s">
         <v>105</v>
       </c>
     </row>
@@ -4384,84 +4383,84 @@
       <c r="C7" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="D7" s="63"/>
-      <c r="E7" s="64" t="s">
+      <c r="D7" s="62"/>
+      <c r="E7" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="F7" s="64" t="s">
+      <c r="F7" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="G7" s="64" t="s">
+      <c r="G7" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="H7" s="64" t="s">
+      <c r="H7" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="I7" s="64" t="s">
+      <c r="I7" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="J7" s="64" t="s">
+      <c r="J7" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="K7" s="64" t="s">
+      <c r="K7" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="L7" s="64" t="s">
+      <c r="L7" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="M7" s="64" t="s">
+      <c r="M7" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="N7" s="64" t="s">
+      <c r="N7" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="O7" s="64" t="s">
+      <c r="O7" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="P7" s="65" t="s">
+      <c r="P7" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="Q7" s="65" t="s">
+      <c r="Q7" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="R7" s="65"/>
-      <c r="S7" s="65"/>
-      <c r="T7" s="65"/>
-      <c r="U7" s="65"/>
-      <c r="V7" s="65" t="s">
+      <c r="R7" s="64"/>
+      <c r="S7" s="64"/>
+      <c r="T7" s="64"/>
+      <c r="U7" s="64"/>
+      <c r="V7" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="W7" s="65" t="s">
+      <c r="W7" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="X7" s="65" t="s">
+      <c r="X7" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="Y7" s="65" t="s">
+      <c r="Y7" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="Z7" s="65" t="s">
+      <c r="Z7" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="AA7" s="65" t="s">
+      <c r="AA7" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="AB7" s="64" t="s">
+      <c r="AB7" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="AC7" s="64" t="s">
+      <c r="AC7" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="AD7" s="65" t="s">
+      <c r="AD7" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="AE7" s="65" t="s">
+      <c r="AE7" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="AF7" s="65" t="s">
+      <c r="AF7" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="AG7" s="65" t="s">
+      <c r="AG7" s="64" t="s">
         <v>106</v>
       </c>
     </row>
@@ -4475,82 +4474,82 @@
       <c r="C8" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D8" s="63"/>
-      <c r="E8" s="64" t="s">
+      <c r="D8" s="62"/>
+      <c r="E8" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="F8" s="64" t="s">
+      <c r="F8" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="G8" s="64" t="s">
+      <c r="G8" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="H8" s="64" t="s">
+      <c r="H8" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="I8" s="64" t="s">
+      <c r="I8" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="J8" s="64" t="s">
+      <c r="J8" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="K8" s="64" t="s">
+      <c r="K8" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="L8" s="64" t="s">
+      <c r="L8" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="M8" s="64"/>
-      <c r="N8" s="64" t="s">
+      <c r="M8" s="63"/>
+      <c r="N8" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="O8" s="64" t="s">
+      <c r="O8" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="P8" s="64" t="s">
+      <c r="P8" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="Q8" s="64" t="s">
+      <c r="Q8" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="R8" s="65"/>
-      <c r="S8" s="64"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="64"/>
-      <c r="V8" s="64" t="s">
+      <c r="R8" s="64"/>
+      <c r="S8" s="63"/>
+      <c r="T8" s="63"/>
+      <c r="U8" s="63"/>
+      <c r="V8" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="W8" s="64" t="s">
+      <c r="W8" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="X8" s="64" t="s">
+      <c r="X8" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="Y8" s="64" t="s">
+      <c r="Y8" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="Z8" s="64" t="s">
+      <c r="Z8" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="AA8" s="64" t="s">
+      <c r="AA8" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="AB8" s="64" t="s">
+      <c r="AB8" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="AC8" s="64" t="s">
+      <c r="AC8" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="AD8" s="64" t="s">
+      <c r="AD8" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="AE8" s="64" t="s">
+      <c r="AE8" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="AF8" s="64" t="s">
+      <c r="AF8" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="AG8" s="64" t="s">
+      <c r="AG8" s="63" t="s">
         <v>106</v>
       </c>
     </row>
@@ -4564,88 +4563,88 @@
       <c r="C9" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="D9" s="63"/>
-      <c r="E9" s="64" t="s">
+      <c r="D9" s="62"/>
+      <c r="E9" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="F9" s="64" t="s">
+      <c r="F9" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="G9" s="64" t="s">
+      <c r="G9" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="H9" s="64" t="s">
+      <c r="H9" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="I9" s="64" t="s">
+      <c r="I9" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="J9" s="64" t="s">
+      <c r="J9" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="K9" s="64" t="s">
+      <c r="K9" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="L9" s="64" t="s">
+      <c r="L9" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="M9" s="64"/>
-      <c r="N9" s="64" t="s">
+      <c r="M9" s="63"/>
+      <c r="N9" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="O9" s="64"/>
-      <c r="P9" s="64" t="s">
+      <c r="O9" s="63"/>
+      <c r="P9" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="Q9" s="64" t="s">
+      <c r="Q9" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="R9" s="64" t="s">
+      <c r="R9" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="S9" s="64" t="s">
+      <c r="S9" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="T9" s="64" t="s">
+      <c r="T9" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="U9" s="64" t="s">
+      <c r="U9" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="V9" s="64" t="s">
+      <c r="V9" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="W9" s="64" t="s">
+      <c r="W9" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="X9" s="64" t="s">
+      <c r="X9" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="Y9" s="64" t="s">
+      <c r="Y9" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="Z9" s="64" t="s">
+      <c r="Z9" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="AA9" s="64" t="s">
+      <c r="AA9" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="AB9" s="64" t="s">
+      <c r="AB9" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="AC9" s="64" t="s">
+      <c r="AC9" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="AD9" s="66" t="s">
+      <c r="AD9" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="AE9" s="66" t="s">
+      <c r="AE9" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="AF9" s="64" t="s">
+      <c r="AF9" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="AG9" s="64" t="s">
+      <c r="AG9" s="63" t="s">
         <v>112</v>
       </c>
     </row>
@@ -4659,71 +4658,71 @@
       <c r="C10" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="D10" s="63" t="str">
+      <c r="D10" s="62" t="str">
         <f>A9</f>
         <v>student</v>
       </c>
-      <c r="E10" s="64" t="s">
+      <c r="E10" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="F10" s="64" t="s">
+      <c r="F10" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="G10" s="64" t="s">
+      <c r="G10" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="H10" s="64" t="s">
+      <c r="H10" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="I10" s="64" t="s">
+      <c r="I10" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="J10" s="64" t="s">
+      <c r="J10" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="K10" s="64" t="s">
+      <c r="K10" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="L10" s="64" t="s">
+      <c r="L10" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="M10" s="64"/>
-      <c r="N10" s="64" t="s">
+      <c r="M10" s="63"/>
+      <c r="N10" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="O10" s="64"/>
-      <c r="P10" s="64" t="s">
+      <c r="O10" s="63"/>
+      <c r="P10" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="Q10" s="64" t="s">
+      <c r="Q10" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="R10" s="64" t="s">
+      <c r="R10" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="S10" s="64" t="s">
+      <c r="S10" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="T10" s="64" t="s">
+      <c r="T10" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="U10" s="64" t="s">
+      <c r="U10" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="V10" s="64"/>
-      <c r="W10" s="64"/>
-      <c r="X10" s="64"/>
-      <c r="Y10" s="64"/>
-      <c r="Z10" s="64"/>
-      <c r="AA10" s="64"/>
-      <c r="AB10" s="64"/>
-      <c r="AC10" s="64" t="s">
+      <c r="V10" s="63"/>
+      <c r="W10" s="63"/>
+      <c r="X10" s="63"/>
+      <c r="Y10" s="63"/>
+      <c r="Z10" s="63"/>
+      <c r="AA10" s="63"/>
+      <c r="AB10" s="63"/>
+      <c r="AC10" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="AD10" s="64"/>
-      <c r="AE10" s="64"/>
-      <c r="AF10" s="64"/>
-      <c r="AG10" s="64"/>
+      <c r="AD10" s="63"/>
+      <c r="AE10" s="63"/>
+      <c r="AF10" s="63"/>
+      <c r="AG10" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -4828,13 +4827,13 @@
       <c r="G2" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="H2" s="67" t="s">
+      <c r="H2" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="68" t="s">
+      <c r="I2" s="66" t="s">
         <v>132</v>
       </c>
-      <c r="J2" s="69" t="s">
+      <c r="J2" s="67" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4851,22 +4850,22 @@
       <c r="D3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="70">
+      <c r="E3" s="68">
         <v>36526</v>
       </c>
-      <c r="F3" s="71" t="s">
+      <c r="F3" s="69" t="s">
         <v>136</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="H3" s="64" t="s">
+      <c r="H3" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="64" t="s">
+      <c r="I3" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="J3" s="72" t="s">
+      <c r="J3" s="70" t="s">
         <v>139</v>
       </c>
     </row>
@@ -4883,208 +4882,208 @@
       <c r="D4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="70">
+      <c r="E4" s="68">
         <v>34781</v>
       </c>
-      <c r="F4" s="71" t="s">
+      <c r="F4" s="69" t="s">
         <v>142</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="H4" s="64" t="s">
+      <c r="H4" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="64" t="s">
+      <c r="I4" s="63" t="s">
         <v>143</v>
       </c>
-      <c r="J4" s="72" t="s">
+      <c r="J4" s="70" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="5" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="72" t="s">
         <v>116</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="70">
+      <c r="E5" s="68">
         <v>39205</v>
       </c>
-      <c r="F5" s="75" t="s">
+      <c r="F5" s="73" t="s">
         <v>147</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="H5" s="64" t="s">
+      <c r="H5" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="64" t="s">
+      <c r="I5" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="J5" s="72" t="s">
+      <c r="J5" s="70" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="6" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="71" t="s">
         <v>150</v>
       </c>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="72" t="s">
         <v>151</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="72" t="s">
         <v>152</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="70">
+      <c r="E6" s="68">
         <v>39156</v>
       </c>
-      <c r="F6" s="75" t="s">
+      <c r="F6" s="73" t="s">
         <v>153</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="H6" s="64" t="s">
+      <c r="H6" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="64" t="s">
+      <c r="I6" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="J6" s="72" t="s">
+      <c r="J6" s="70" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="7" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="71" t="s">
         <v>154</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="72" t="s">
         <v>155</v>
       </c>
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="72" t="s">
         <v>116</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="70">
+      <c r="E7" s="68">
         <v>42171</v>
       </c>
-      <c r="F7" s="75" t="s">
+      <c r="F7" s="73" t="s">
         <v>156</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="H7" s="64" t="s">
+      <c r="H7" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="64" t="s">
+      <c r="I7" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="J7" s="72" t="s">
+      <c r="J7" s="70" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="8" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="71" t="s">
         <v>158</v>
       </c>
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="72" t="s">
         <v>152</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="70">
+      <c r="E8" s="68">
         <v>42237</v>
       </c>
-      <c r="F8" s="75" t="s">
+      <c r="F8" s="73" t="s">
         <v>160</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="H8" s="64" t="s">
+      <c r="H8" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="64" t="s">
+      <c r="I8" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="J8" s="72" t="s">
+      <c r="J8" s="70" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="9" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="71" t="s">
         <v>161</v>
       </c>
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="72" t="s">
         <v>162</v>
       </c>
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="72" t="s">
         <v>163</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="70">
+      <c r="E9" s="68">
         <v>27791</v>
       </c>
-      <c r="F9" s="75" t="s">
+      <c r="F9" s="73" t="s">
         <v>164</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="H9" s="64" t="s">
+      <c r="H9" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="64" t="s">
+      <c r="I9" s="63" t="s">
         <v>165</v>
       </c>
-      <c r="J9" s="72" t="s">
+      <c r="J9" s="70" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" s="76"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="76"/>
+      <c r="A10" s="74"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="74"/>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" s="76"/>
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
+      <c r="A11" s="74"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5101,43 +5100,43 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00D7007E-0067-4AB0-8225-00C700A6002E}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00FE0017-0000-430B-AFF1-00E1000800DF}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>D3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00A40063-0041-47C3-957C-003C00440058}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00FF00E0-0045-4FC5-9A6D-001F00AF00BB}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>D4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0096007B-00E4-4252-A1A7-007D008A00F2}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00000025-00E4-493C-B072-00B900B100B9}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>D5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00430052-0091-467A-A294-000E0087009C}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{0097002B-0050-4D55-8010-003200550034}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>D6</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0088006F-00C4-4D02-B029-00D700C70094}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00D50096-00F6-4850-AFCE-002400CA00A3}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>D7</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00B000CC-002A-4C58-921B-00FD00820020}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00400066-007C-426D-8101-008500040038}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>D8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{009900DF-00DE-4202-BAD0-0038001C00D6}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00140014-0084-4F6C-BF9E-00870058001E}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
@@ -5179,7 +5178,7 @@
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="76" t="s">
         <v>168</v>
       </c>
     </row>
@@ -5187,7 +5186,7 @@
       <c r="A3" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="79" t="str">
+      <c r="B3" s="77" t="str">
         <f>profiles!$A$10</f>
         <v>guardian</v>
       </c>
@@ -5201,7 +5200,7 @@
       <c r="A4" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B4" s="79" t="str">
+      <c r="B4" s="77" t="str">
         <f>profiles!$A$9</f>
         <v>student</v>
       </c>
@@ -5262,19 +5261,19 @@
       </c>
     </row>
     <row r="2" ht="24.350000000000001" customHeight="1">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="80" t="s">
         <v>172</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="D2" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="E2" s="69" t="s">
+      <c r="E2" s="67" t="s">
         <v>174</v>
       </c>
     </row>
@@ -5285,13 +5284,13 @@
       <c r="B3" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="77" t="s">
         <v>177</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="79" t="s">
+      <c r="E3" s="77" t="s">
         <v>178</v>
       </c>
     </row>
@@ -5304,7 +5303,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00BB001D-008E-4D60-88A0-00F8005700ED}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{002E006C-000A-4DD4-B43C-00460050002F}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GUARDIANS_RELATIONSHIPS</xm:f>
           </x14:formula1>
@@ -5333,6 +5332,7 @@
     <col customWidth="1" min="2" max="2" width="18.7109375"/>
     <col customWidth="1" min="5" max="5" width="13.7109375"/>
     <col customWidth="1" min="6" max="6" width="19.421875"/>
+    <col customWidth="1" min="7" max="7" width="25.140625"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
@@ -5354,35 +5354,41 @@
       <c r="F1" s="5" t="s">
         <v>182</v>
       </c>
+      <c r="G1" s="5" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="2" ht="14.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="84" t="s">
-        <v>183</v>
-      </c>
-      <c r="E2" s="84" t="s">
+      <c r="D2" s="82" t="s">
         <v>184</v>
       </c>
-      <c r="F2" s="84" t="s">
+      <c r="E2" s="82" t="s">
         <v>185</v>
       </c>
+      <c r="F2" s="82" t="s">
+        <v>186</v>
+      </c>
+      <c r="G2" s="82" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="3" ht="146.25" customHeight="1">
-      <c r="A3" s="86" t="s">
-        <v>186</v>
-      </c>
-      <c r="B3" s="87" t="s">
-        <v>187</v>
-      </c>
-      <c r="C3" s="79" t="str">
+      <c r="A3" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="77" t="str">
         <f>centers!$A$3</f>
         <v>centerA</v>
       </c>
@@ -5392,8 +5398,11 @@
       <c r="E3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="88" t="s">
-        <v>188</v>
+      <c r="F3" s="84" t="s">
+        <v>190</v>
+      </c>
+      <c r="G3" s="85">
+        <v>5</v>
       </c>
     </row>
     <row r="4" ht="14.25"/>
@@ -5405,13 +5414,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00C800DB-00EC-413B-B7D0-007500A900F6}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00D900DC-00FA-414A-8478-00BE00A900FF}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GRADES_TYPES</xm:f>
           </x14:formula1>
           <xm:sqref>D3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00D900DF-00C5-4890-A1FF-00E000E300D4}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{009B00F3-005E-449D-B955-0087008C00BB}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
@@ -5449,10 +5458,10 @@
       </c>
     </row>
     <row r="2" ht="22.100000000000001" customHeight="1">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="80" t="s">
         <v>168</v>
       </c>
     </row>
@@ -5460,7 +5469,7 @@
       <c r="A3" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="79" t="str">
+      <c r="B3" s="77" t="str">
         <f>profiles!$A$8</f>
         <v>teacher</v>
       </c>
@@ -5469,7 +5478,7 @@
       <c r="A4" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B4" s="79" t="str">
+      <c r="B4" s="77" t="str">
         <f>profiles!$A$9</f>
         <v>student</v>
       </c>
@@ -5526,70 +5535,70 @@
         <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
@@ -5612,247 +5621,247 @@
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
-      <c r="F2" s="89" t="s">
-        <v>210</v>
-      </c>
-      <c r="G2" s="89"/>
-      <c r="H2" s="90" t="s">
-        <v>211</v>
-      </c>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="93" t="s">
+      <c r="F2" s="86" t="s">
         <v>212</v>
       </c>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="94" t="s">
+      <c r="G2" s="86"/>
+      <c r="H2" s="87" t="s">
         <v>213</v>
       </c>
-      <c r="S2" s="95"/>
-      <c r="T2" s="95"/>
-      <c r="U2" s="96"/>
-      <c r="V2" s="97" t="s">
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="90" t="s">
         <v>214</v>
       </c>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="91" t="s">
+        <v>215</v>
+      </c>
+      <c r="S2" s="92"/>
+      <c r="T2" s="92"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="94" t="s">
+        <v>216</v>
+      </c>
+      <c r="W2" s="95"/>
+      <c r="X2" s="95"/>
     </row>
     <row r="3" ht="34.100000000000001" customHeight="1">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="100" t="s">
-        <v>215</v>
-      </c>
-      <c r="D3" s="101" t="s">
+      <c r="C3" s="97" t="s">
+        <v>217</v>
+      </c>
+      <c r="D3" s="98" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="102" t="s">
-        <v>216</v>
-      </c>
-      <c r="F3" s="103" t="s">
-        <v>217</v>
-      </c>
-      <c r="G3" s="104" t="s">
+      <c r="E3" s="99" t="s">
         <v>218</v>
       </c>
-      <c r="H3" s="105" t="s">
+      <c r="F3" s="100" t="s">
         <v>219</v>
       </c>
-      <c r="I3" s="106" t="s">
+      <c r="G3" s="101" t="s">
         <v>220</v>
       </c>
-      <c r="J3" s="107" t="s">
+      <c r="H3" s="102" t="s">
         <v>221</v>
       </c>
-      <c r="K3" s="107" t="s">
+      <c r="I3" s="103" t="s">
         <v>222</v>
       </c>
-      <c r="L3" s="107" t="s">
+      <c r="J3" s="104" t="s">
         <v>223</v>
       </c>
-      <c r="M3" s="107" t="s">
+      <c r="K3" s="104" t="s">
         <v>224</v>
       </c>
-      <c r="N3" s="107" t="s">
+      <c r="L3" s="104" t="s">
         <v>225</v>
       </c>
-      <c r="O3" s="108" t="s">
+      <c r="M3" s="104" t="s">
         <v>226</v>
       </c>
-      <c r="P3" s="109" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q3" s="110" t="s">
-        <v>225</v>
-      </c>
-      <c r="R3" s="111" t="s">
+      <c r="N3" s="104" t="s">
         <v>227</v>
       </c>
-      <c r="S3" s="112" t="s">
+      <c r="O3" s="105" t="s">
         <v>228</v>
       </c>
-      <c r="T3" s="112" t="s">
-        <v>224</v>
-      </c>
-      <c r="U3" s="112" t="s">
-        <v>225</v>
-      </c>
-      <c r="V3" s="113" t="s">
-        <v>224</v>
-      </c>
-      <c r="W3" s="114" t="s">
+      <c r="P3" s="106" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q3" s="107" t="s">
+        <v>227</v>
+      </c>
+      <c r="R3" s="108" t="s">
         <v>229</v>
       </c>
-      <c r="X3" s="115" t="s">
+      <c r="S3" s="109" t="s">
         <v>230</v>
+      </c>
+      <c r="T3" s="109" t="s">
+        <v>226</v>
+      </c>
+      <c r="U3" s="109" t="s">
+        <v>227</v>
+      </c>
+      <c r="V3" s="110" t="s">
+        <v>226</v>
+      </c>
+      <c r="W3" s="111" t="s">
+        <v>231</v>
+      </c>
+      <c r="X3" s="112" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="D4" s="63" t="str">
+        <v>235</v>
+      </c>
+      <c r="D4" s="62" t="str">
         <f>centers!$A$3</f>
         <v>centerA</v>
       </c>
-      <c r="E4" s="63" t="str">
+      <c r="E4" s="62" t="str">
         <f>ar_evaluations!A3</f>
         <v>gradeA</v>
       </c>
-      <c r="F4" s="64" t="s">
+      <c r="F4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="64">
+      <c r="G4" s="63">
         <v>0</v>
       </c>
-      <c r="H4" s="64">
+      <c r="H4" s="63">
         <v>5</v>
       </c>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64" t="s">
+      <c r="I4" s="63"/>
+      <c r="J4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="116"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64" t="s">
+      <c r="K4" s="113"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="64"/>
-      <c r="Q4" s="64" t="s">
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="64" t="s">
+      <c r="R4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="S4" s="64" t="s">
+      <c r="S4" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="64">
+      <c r="T4" s="63">
         <v>3</v>
       </c>
-      <c r="U4" s="64" t="s">
+      <c r="U4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="V4" s="64">
+      <c r="V4" s="63">
         <v>3</v>
       </c>
-      <c r="W4" s="64" t="s">
+      <c r="W4" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="X4" s="64" t="s">
+      <c r="X4" s="63" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" s="9" customFormat="1" ht="28.5">
       <c r="A5" s="10" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="D5" s="63" t="str">
+        <v>238</v>
+      </c>
+      <c r="D5" s="62" t="str">
         <f>centers!$A$4</f>
         <v>centerB</v>
       </c>
-      <c r="E5" s="63" t="str">
+      <c r="E5" s="62" t="str">
         <f>ar_evaluations!A3</f>
         <v>gradeA</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="F5" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="64">
+      <c r="G5" s="63">
         <v>240</v>
       </c>
-      <c r="H5" s="64">
+      <c r="H5" s="63">
         <v>4</v>
       </c>
-      <c r="I5" s="64">
+      <c r="I5" s="63">
         <v>60</v>
       </c>
-      <c r="J5" s="64" t="s">
+      <c r="J5" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="116" t="s">
-        <v>237</v>
-      </c>
-      <c r="L5" s="64" t="s">
+      <c r="K5" s="113" t="s">
+        <v>239</v>
+      </c>
+      <c r="L5" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="64">
+      <c r="M5" s="63">
         <v>4</v>
       </c>
-      <c r="N5" s="64" t="s">
+      <c r="N5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="64" t="s">
+      <c r="O5" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="64">
+      <c r="P5" s="63">
         <v>4</v>
       </c>
-      <c r="Q5" s="64" t="s">
+      <c r="Q5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="R5" s="64" t="s">
+      <c r="R5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="S5" s="64" t="s">
+      <c r="S5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="T5" s="64">
+      <c r="T5" s="63">
         <v>3</v>
       </c>
-      <c r="U5" s="64" t="s">
+      <c r="U5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="V5" s="64">
+      <c r="V5" s="63">
         <v>3</v>
       </c>
-      <c r="W5" s="64" t="s">
+      <c r="W5" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="X5" s="64" t="s">
+      <c r="X5" s="63" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5871,79 +5880,79 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="13" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00B80010-0035-4C02-B880-00F3008400B6}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{001900BD-00B2-42E0-9220-00A90004007B}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>X4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{007F0079-002F-4480-8FD5-00CC000B00F4}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{007A00D8-0034-4100-93F7-00E4004300DA}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>X5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0055008E-00E4-4A13-A09C-00A0007B00E6}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{006C00A0-0050-44D5-84CF-00B600C90022}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>W4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00D90011-0088-4538-A3AF-00DA00680068}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00020058-0085-4FF7-AE1A-005D00DC0061}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>W5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{001E00C9-0022-414D-B99F-004300DF0016}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00C7004F-00FA-4156-8001-0074007900E1}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>U4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0084001E-0000-4F1D-A633-003A00FC005B}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00E8005D-0027-4783-A231-006B007F00C8}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>U5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00B6000F-00FF-484B-A399-007900A0008C}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00E000E4-0061-4C18-A73A-00FD00E70007}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>S4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{005F00D2-005F-4A09-8EEF-0050002C0045}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00DC0053-0028-460F-8461-002300F300C1}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>F4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00F00085-00E0-46FD-8672-00DB006F00A9}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00D300BC-008C-4BF0-BCF8-00EE0012006E}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>F5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{001D000D-005A-4EF3-8FAB-009B00900063}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00A8004E-00C5-4E63-B8D5-00BA00F600F7}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>J4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00B0007E-00ED-4D5B-A07E-00D2008F0030}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00C4004B-00AE-44E7-9EF0-00EE0052005F}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>J5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{000100FE-007A-485C-B5C3-00BF004B007C}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{005D0019-009A-4C6D-AFE9-007E00B900F5}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>SUBSTAGES_FRECUENCY</xm:f>
           </x14:formula1>
           <xm:sqref>L4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00760064-00F8-4920-B3C3-00F1008500C0}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{007200DB-0080-48C0-829D-001A00DB0016}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>SUBSTAGES_FRECUENCY</xm:f>
           </x14:formula1>

--- a/packages/leemons-plugin-mvp-template/src/bulk/data.xlsx
+++ b/packages/leemons-plugin-mvp-template/src/bulk/data.xlsx
@@ -1728,7 +1728,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="1" fillId="7" borderId="21" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2617,19 +2617,19 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00250057-001B-4EAA-A0EB-0068007A0014}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{000A0033-00F7-481D-BE71-007500D600B1}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>E3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00990013-0081-4C50-B059-0080006F0068}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{003200F1-008A-41DE-999E-006F00C20040}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>E4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{002B0047-005A-401A-A35C-004C00210033}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{008B00D4-005B-464E-AF7E-0016009E002A}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
@@ -5100,43 +5100,43 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00FE0017-0000-430B-AFF1-00E1000800DF}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00080055-0083-4A1A-B551-0011005B000A}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>D3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00FF00E0-0045-4FC5-9A6D-001F00AF00BB}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{003400A6-00BF-4942-BFDD-0009007D00CA}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>D4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00000025-00E4-493C-B072-00B900B100B9}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00C30048-005B-4E2F-99A6-00D800070054}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>D5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0097002B-0050-4D55-8010-003200550034}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{0057003F-00BC-4EC5-BA30-00F200A800AA}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>D6</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00D50096-00F6-4850-AFCE-002400CA00A3}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00E300B8-0060-4E71-96E3-007600210042}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>D7</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00400066-007C-426D-8101-008500040038}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{003F0078-001F-4669-8D2E-00CD007A0099}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>D8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00140014-0084-4F6C-BF9E-00870058001E}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00640088-007F-47C7-B77A-009A0083004C}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
@@ -5303,7 +5303,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1" disablePrompts="0">
-        <x14:dataValidation xr:uid="{002E006C-000A-4DD4-B43C-00460050002F}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00C70097-00A3-4624-9FBE-003600D30092}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GUARDIANS_RELATIONSHIPS</xm:f>
           </x14:formula1>
@@ -5414,13 +5414,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00D900DC-00FA-414A-8478-00BE00A900FF}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00960021-0048-4591-ADD0-00DD00AC00B9}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GRADES_TYPES</xm:f>
           </x14:formula1>
           <xm:sqref>D3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{009B00F3-005E-449D-B955-0087008C00BB}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00DF0062-00DB-4D9A-832C-009200680068}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
@@ -5880,79 +5880,79 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="13" disablePrompts="0">
-        <x14:dataValidation xr:uid="{001900BD-00B2-42E0-9220-00A90004007B}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{004D00F8-0066-4D28-BB06-006D005C007F}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>X4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{007A00D8-0034-4100-93F7-00E4004300DA}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{001200E2-0054-4D79-869D-005F002800D8}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>X5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{006C00A0-0050-44D5-84CF-00B600C90022}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{005000F0-00D7-47E1-9E02-0038000700CE}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>W4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00020058-0085-4FF7-AE1A-005D00DC0061}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00DC0044-00C5-45F8-93B2-000400190087}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>W5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00C7004F-00FA-4156-8001-0074007900E1}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00BB0075-0018-41AB-8775-00BC00F20002}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>U4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00E8005D-0027-4783-A231-006B007F00C8}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{002F0075-0018-4B8F-83B9-00B90008008C}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>U5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00E000E4-0061-4C18-A73A-00FD00E70007}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00920059-00A5-42AD-AE1E-0083000E00F7}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>S4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00DC0053-0028-460F-8461-002300F300C1}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00A20005-0067-4D7B-801B-00E5009B007B}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>F4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00D300BC-008C-4BF0-BCF8-00EE0012006E}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00DA000D-003A-41D0-9B56-002C00B60005}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>F5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00A8004E-00C5-4E63-B8D5-00BA00F600F7}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{000C00D3-00F2-4597-9A77-00AA005B0067}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>J4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00C4004B-00AE-44E7-9EF0-00EE0052005F}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00420027-005C-43B2-AEBF-00380034005B}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>J5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{005D0019-009A-4C6D-AFE9-007E00B900F5}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00B70087-0004-4D53-9E54-00D00085007A}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>SUBSTAGES_FRECUENCY</xm:f>
           </x14:formula1>
           <xm:sqref>L4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{007200DB-0080-48C0-829D-001A00DB0016}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00270043-00DC-4F45-A6C5-007D009000E9}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>SUBSTAGES_FRECUENCY</xm:f>
           </x14:formula1>

--- a/packages/leemons-plugin-mvp-template/src/bulk/data.xlsx
+++ b/packages/leemons-plugin-mvp-template/src/bulk/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="6"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" state="visible" r:id="rId1"/>
@@ -20,18 +20,18 @@
     <sheet name="ap_subjects" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="SUBSTAGES_FRECUENCY" hidden="0">DB!$A$2:$A$8</definedName>
-    <definedName name="BOOLEAN_ANSWER" hidden="0">DB!$A$11:$A$12</definedName>
-    <definedName name="GENRE_ANSWER" hidden="0">DB!$A$15:$A$16</definedName>
-    <definedName name="GUARDIANS_RELATIONSHIPS" hidden="0">DB!$A$19:$A$23</definedName>
-    <definedName name="GRADES_TYPES" hidden="0">DB!$A$26:$A$27</definedName>
+    <definedName name="BOOLEAN_ANSWER">DB!$A$11:$A$12</definedName>
+    <definedName name="GENRE_ANSWER">DB!$A$15:$A$16</definedName>
+    <definedName name="GRADES_TYPES">DB!$A$26:$A$27</definedName>
+    <definedName name="GUARDIANS_RELATIONSHIPS">DB!$A$19:$A$23</definedName>
+    <definedName name="SUBSTAGES_FRECUENCY">DB!$A$2:$A$8</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="354">
   <si>
     <t xml:space="preserve">Substages frecuency</t>
   </si>
@@ -147,6 +147,15 @@
     <t xml:space="preserve">High school only to perform the tests</t>
   </si>
   <si>
+    <t>centerC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Padre Piquer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centro Educativo Padre Piquer</t>
+  </si>
+  <si>
     <t>accessTo</t>
   </si>
   <si>
@@ -450,7 +459,7 @@
     <t>Admin,Test</t>
   </si>
   <si>
-    <t xml:space="preserve">admin@centerA, admin@centerB</t>
+    <t xml:space="preserve">admin@centerA, admin@centerB, admin@centerC</t>
   </si>
   <si>
     <t>teacher01</t>
@@ -465,7 +474,7 @@
     <t>Teacher,Test</t>
   </si>
   <si>
-    <t xml:space="preserve">teacher@centerA, teacher@centerB</t>
+    <t xml:space="preserve">teacher@centerA, teacher@centerB, teacher@centerC</t>
   </si>
   <si>
     <t>studentA01</t>
@@ -534,6 +543,81 @@
     <t xml:space="preserve">guardian@centerA, guardian@centerB</t>
   </si>
   <si>
+    <t>studentC01</t>
+  </si>
+  <si>
+    <t>María</t>
+  </si>
+  <si>
+    <t>Rodriguez</t>
+  </si>
+  <si>
+    <t>student+maria@leemons.io</t>
+  </si>
+  <si>
+    <t>student@centerC</t>
+  </si>
+  <si>
+    <t>studentC02</t>
+  </si>
+  <si>
+    <t>Paz</t>
+  </si>
+  <si>
+    <t>Serrano</t>
+  </si>
+  <si>
+    <t>student+paz@leemons.io</t>
+  </si>
+  <si>
+    <t>studentC03</t>
+  </si>
+  <si>
+    <t>Joaquin</t>
+  </si>
+  <si>
+    <t>González</t>
+  </si>
+  <si>
+    <t>student+joaquin@leemons.io</t>
+  </si>
+  <si>
+    <t>studentC04</t>
+  </si>
+  <si>
+    <t>Elena</t>
+  </si>
+  <si>
+    <t>Murillo</t>
+  </si>
+  <si>
+    <t>student+elena@leemons.io</t>
+  </si>
+  <si>
+    <t>studentC05</t>
+  </si>
+  <si>
+    <t>Ignacio</t>
+  </si>
+  <si>
+    <t>Díez</t>
+  </si>
+  <si>
+    <t>student+ignacio@leemons.io</t>
+  </si>
+  <si>
+    <t>studentC06</t>
+  </si>
+  <si>
+    <t>Álvaro</t>
+  </si>
+  <si>
+    <t>Ferrandis</t>
+  </si>
+  <si>
+    <t>student+alvaro@leemons.io</t>
+  </si>
+  <si>
     <t>profile</t>
   </si>
   <si>
@@ -600,12 +684,18 @@
     <t>gradeA</t>
   </si>
   <si>
+    <t xml:space="preserve">High grades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN|1|Insuficiente, IN|2|Insuficiente, IN|3|Insuficiente, IN|4|Insuficiente, SU|5|Suficiente, BI|6|Bien, NT|7|Notable, NT|8|Notable, SB|9|Sobresaliente, SB|10|Sobresaliente</t>
+  </si>
+  <si>
+    <t>gradeC</t>
+  </si>
+  <si>
     <t xml:space="preserve">ESO grades</t>
   </si>
   <si>
-    <t xml:space="preserve">IN|1|Insuficiente, IN|2|Insuficiente, IN|3|Insuficiente, IN|4|Insuficiente, SU|5|Suficiente, BI|6|Bien, NT|7|Notable, NT|8|Notable, SB|9|Sobresaliente, SB|10|Sobresaliente</t>
-  </si>
-  <si>
     <t>abbreviation</t>
   </si>
   <si>
@@ -753,6 +843,15 @@
     <t xml:space="preserve">Semester 1|S01, Semester 2|S02</t>
   </si>
   <si>
+    <t>programC</t>
+  </si>
+  <si>
+    <t>ESO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1er Semestre|S01, 2º Semestre|S02</t>
+  </si>
+  <si>
     <t>program</t>
   </si>
   <si>
@@ -783,6 +882,12 @@
     <t>Specific</t>
   </si>
   <si>
+    <t>type04</t>
+  </si>
+  <si>
+    <t>Troncal</t>
+  </si>
+  <si>
     <t>color</t>
   </si>
   <si>
@@ -972,7 +1077,22 @@
     <t xml:space="preserve">Social sciences V</t>
   </si>
   <si>
-    <t xml:space="preserve">Sports V</t>
+    <t xml:space="preserve">Geografía e historia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2ºA|2ºA, 2ºB|2ºB</t>
+  </si>
+  <si>
+    <t>#4290f5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teacher01|main@2ºA, teacher01|main@2ºB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lengua Castellana y Literatura</t>
+  </si>
+  <si>
+    <t>#f56c42</t>
   </si>
 </sst>
 </file>
@@ -991,8 +1111,15 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <color theme="10"/>
+      <sz val="11.000000"/>
+      <u/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <b/>
-      <color theme="0" tint="0"/>
+      <color theme="0"/>
       <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
@@ -1018,7 +1145,7 @@
     <font>
       <name val="Calibri"/>
       <i/>
-      <color theme="4" tint="0"/>
+      <color theme="4"/>
       <sz val="9.000000"/>
       <scheme val="minor"/>
     </font>
@@ -1048,13 +1175,6 @@
       <i/>
       <color rgb="FFB472C4"/>
       <sz val="9.000000"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b/>
-      <color theme="1" tint="0"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1092,8 +1212,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0"/>
-        <bgColor theme="1" tint="0"/>
+        <fgColor theme="1"/>
+        <bgColor theme="1"/>
       </patternFill>
     </fill>
     <fill>
@@ -1182,8 +1302,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="0"/>
-        <bgColor theme="0" tint="0"/>
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
       </patternFill>
     </fill>
     <fill>
@@ -1233,11 +1353,11 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="0"/>
+        <color theme="0"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="0" tint="0"/>
+        <color theme="0"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1246,7 +1366,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="0" tint="0"/>
+        <color theme="0"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1284,12 +1404,12 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="0"/>
+        <color theme="0"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color theme="0" tint="0"/>
+        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1298,7 +1418,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color theme="0" tint="0"/>
+        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1323,30 +1443,30 @@
     <border>
       <left/>
       <right style="thin">
-        <color theme="0" tint="0"/>
+        <color theme="0"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="0"/>
+        <color theme="0"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="0"/>
+        <color theme="0"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="0"/>
+        <color theme="0"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="0"/>
+        <color theme="0"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="0"/>
+        <color theme="0"/>
       </left>
       <right/>
       <top/>
@@ -1356,7 +1476,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color theme="0" tint="0"/>
+        <color theme="0"/>
       </right>
       <top/>
       <bottom/>
@@ -1364,10 +1484,10 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="0"/>
+        <color theme="0"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="0"/>
+        <color theme="0"/>
       </right>
       <top/>
       <bottom/>
@@ -1397,10 +1517,10 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="0"/>
+        <color theme="0"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="0"/>
+        <color theme="0"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -1423,29 +1543,29 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="0"/>
+        <color theme="0"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="0"/>
+        <color theme="0"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="0"/>
+        <color theme="0"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="0"/>
+        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="0"/>
+        <color theme="0"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="0" tint="0"/>
+        <color theme="0"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="0"/>
+        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1453,54 +1573,55 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="0" tint="0"/>
+        <color theme="0"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="0"/>
+        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color theme="0" tint="0"/>
+        <color theme="0"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="0"/>
+        <color theme="0"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="0"/>
+        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="125">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="2" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left"/>
     </xf>
     <xf fontId="0" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="1" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="2" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="4" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="5" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="4" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="5" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
@@ -1512,352 +1633,340 @@
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="1" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="2" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="5" fillId="7" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="6" fillId="7" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="5" fillId="7" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="6" fillId="7" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="6" fillId="8" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="7" fillId="9" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="8" fillId="10" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="7" fillId="8" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="8" fillId="9" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="9" fillId="10" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="8" fillId="10" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="9" fillId="10" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="9" fillId="11" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="10" fillId="11" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="9" fillId="11" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="10" fillId="11" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="9" fillId="11" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="10" fillId="11" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="6" fillId="8" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="7" fillId="8" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="6" fillId="8" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="7" fillId="8" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="7" fillId="9" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="8" fillId="9" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="7" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="7" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="8" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="9" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="10" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="10" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="11" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="11" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="11" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="8" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="6" fillId="4" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="6" fillId="4" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="6" fillId="4" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="7" fillId="12" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="8" fillId="13" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="9" fillId="14" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="9" fillId="14" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="10" fillId="15" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="10" fillId="15" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="10" fillId="15" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="9" fillId="14" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="16" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="4" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="4" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="12" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="13" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="14" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="14" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="15" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="15" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="15" borderId="18" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="13" borderId="19" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="14" borderId="19" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="20" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="4" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="11" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="16" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="4" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="16" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="17" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="4" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="16" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="7" borderId="21" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="8" borderId="22" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="8" borderId="23" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="8" borderId="24" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="9" borderId="21" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="18" borderId="22" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="18" borderId="23" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="18" borderId="24" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="10" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="16" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="16" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="12" fillId="4" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="12" fillId="4" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="12" fillId="12" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="12" fillId="12" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="12" fillId="12" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="12" fillId="13" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="12" fillId="13" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="12" fillId="13" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="12" fillId="19" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="12" fillId="19" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="12" fillId="14" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="12" fillId="14" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="12" fillId="14" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="4" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="13" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="7" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="7" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="16" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="14" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="14" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf fontId="14" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="7" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="7" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="8" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="9" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="10" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="10" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="11" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="11" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="11" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="8" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="5" fillId="4" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="5" fillId="4" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="5" fillId="4" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="6" fillId="12" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="7" fillId="13" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="8" fillId="14" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="8" fillId="14" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="9" fillId="15" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="9" fillId="15" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="9" fillId="15" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="8" fillId="14" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="10" fillId="16" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="4" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="4" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="12" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="13" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="14" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="14" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="15" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="15" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="15" borderId="18" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="13" borderId="19" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="14" borderId="19" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="20" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="4" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="11" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="11" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="6" numFmtId="0" xfId="0" applyBorder="1">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="4" fillId="16" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="4" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="16" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="17" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="4" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="4" fillId="16" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="7" borderId="21" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="8" borderId="22" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="8" borderId="23" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="8" borderId="24" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="9" borderId="21" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="18" borderId="22" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="18" borderId="23" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="18" borderId="24" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="10" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="4" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="4" fillId="16" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="4" fillId="16" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="12" fillId="4" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="12" fillId="4" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="12" fillId="12" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="12" fillId="12" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="12" fillId="12" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="12" fillId="13" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="12" fillId="13" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="12" fillId="13" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="12" fillId="19" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="12" fillId="19" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="12" fillId="14" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="12" fillId="14" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="12" fillId="14" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="4" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="4" fillId="4" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="13" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="7" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="7" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="4" fillId="16" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="14" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="14" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf fontId="14" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2363,7 +2472,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="1" tint="0"/>
+    <tabColor theme="1"/>
     <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
@@ -2372,12 +2481,12 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="20.28125"/>
+    <col customWidth="1" min="1" max="1" width="20.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.600000000000001" customHeight="1">
+    <row r="1" ht="20.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2418,7 +2527,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" ht="22.100000000000001" customHeight="1">
+    <row r="10" ht="22" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -2433,63 +2542,62 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" ht="22.100000000000001" customHeight="1">
+    <row r="14" ht="22" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" ht="14.25">
+    <row r="15">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" ht="14.25">
+    <row r="16">
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" ht="14.25">
+    <row r="18">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" ht="14.25">
+    <row r="19">
       <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" ht="14.25">
+    <row r="20">
       <c r="A20" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" ht="14.25">
+    <row r="21">
       <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" ht="14.25">
+    <row r="22">
       <c r="A22" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" ht="14.25">
+    <row r="23">
       <c r="A23" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" ht="14.25"/>
-    <row r="25" ht="14.25">
+    <row r="25">
       <c r="A25" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" ht="14.25">
+    <row r="26">
       <c r="A26" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" ht="14.25">
+    <row r="27">
       <c r="A27" s="3" t="s">
         <v>22</v>
       </c>
@@ -2505,20 +2613,20 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="7" tint="0"/>
+    <tabColor theme="7"/>
     <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0" zoomScale="100">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showGridLines="0" workbookViewId="0" zoomScale="180">
+      <selection activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="11.421875"/>
-    <col customWidth="1" min="4" max="4" width="10.421875"/>
-    <col customWidth="1" min="5" max="5" width="12.421875"/>
+    <col customWidth="1" min="3" max="3" width="11.5"/>
+    <col customWidth="1" min="4" max="4" width="10.5"/>
+    <col customWidth="1" min="5" max="5" width="12.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2529,40 +2637,40 @@
         <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" ht="28.5">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="98" t="s">
-        <v>243</v>
-      </c>
-      <c r="D2" s="114" t="s">
-        <v>220</v>
-      </c>
-      <c r="E2" s="114" t="s">
-        <v>244</v>
+      <c r="C2" s="95" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2" s="111" t="s">
+        <v>250</v>
+      </c>
+      <c r="E2" s="111" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="C3" s="77" t="str">
+        <v>279</v>
+      </c>
+      <c r="C3" s="71" t="str">
         <f>ap_programs!$A$4</f>
         <v>programA</v>
       </c>
@@ -2575,12 +2683,12 @@
     </row>
     <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="C4" s="77" t="str">
+        <v>279</v>
+      </c>
+      <c r="C4" s="71" t="str">
         <f>ap_programs!$A$5</f>
         <v>programB</v>
       </c>
@@ -2593,12 +2701,12 @@
     </row>
     <row r="5" ht="19.5" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="C5" s="77" t="str">
+        <v>282</v>
+      </c>
+      <c r="C5" s="71" t="str">
         <f>ap_programs!$A$4</f>
         <v>programA</v>
       </c>
@@ -2606,6 +2714,24 @@
         <v>0</v>
       </c>
       <c r="E5" s="63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="C6" s="71" t="str">
+        <f>ap_programs!$A$6</f>
+        <v>programC</v>
+      </c>
+      <c r="D6" s="63">
+        <v>0</v>
+      </c>
+      <c r="E6" s="63" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2616,24 +2742,12 @@
   <headerFooter/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00250057-001B-4EAA-A0EB-0068007A0014}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1" disablePrompts="0">
+        <x14:dataValidation xr:uid="{00DD00F4-000F-4E54-8BAD-00B500F500E8}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
-          <xm:sqref>E3</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00990013-0081-4C50-B059-0080006F0068}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>BOOLEAN_ANSWER</xm:f>
-          </x14:formula1>
-          <xm:sqref>E4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{002B0047-005A-401A-A35C-004C00210033}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>BOOLEAN_ANSWER</xm:f>
-          </x14:formula1>
-          <xm:sqref>E5</xm:sqref>
+          <xm:sqref>E3:E6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2644,7 +2758,7 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="7" tint="0"/>
+    <tabColor theme="7"/>
     <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
@@ -2653,12 +2767,12 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.57421875"/>
-    <col customWidth="1" min="3" max="3" width="10.8515625"/>
-    <col customWidth="1" min="5" max="5" width="13.8515625"/>
-    <col customWidth="1" min="6" max="6" width="10.421875"/>
+    <col customWidth="1" min="1" max="1" width="14.5"/>
+    <col customWidth="1" min="3" max="3" width="10.83203125"/>
+    <col customWidth="1" min="5" max="5" width="13.83203125"/>
+    <col customWidth="1" min="6" max="6" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2669,61 +2783,61 @@
         <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" ht="28.5">
+      <c r="A2" s="112" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="79" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2" s="79" t="s">
+        <v>287</v>
+      </c>
+      <c r="E2" s="79" t="s">
+        <v>288</v>
+      </c>
+      <c r="F2" s="80" t="s">
+        <v>276</v>
+      </c>
+      <c r="G2" s="113" t="s">
         <v>250</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="2" ht="28.5">
-      <c r="A2" s="115" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="82" t="s">
-        <v>217</v>
-      </c>
-      <c r="D2" s="82" t="s">
-        <v>252</v>
-      </c>
-      <c r="E2" s="82" t="s">
-        <v>253</v>
-      </c>
-      <c r="F2" s="83" t="s">
-        <v>243</v>
-      </c>
-      <c r="G2" s="116" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="E3" s="117" t="s">
-        <v>258</v>
-      </c>
-      <c r="F3" s="77" t="str">
+        <v>292</v>
+      </c>
+      <c r="E3" s="114" t="s">
+        <v>293</v>
+      </c>
+      <c r="F3" s="71" t="str">
         <f>ap_programs!$A$5</f>
         <v>programB</v>
       </c>
@@ -2733,21 +2847,21 @@
     </row>
     <row r="4" ht="19.5" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="E4" s="69" t="s">
-        <v>263</v>
-      </c>
-      <c r="F4" s="77" t="str">
+        <v>298</v>
+      </c>
+      <c r="F4" s="71" t="str">
         <f>ap_programs!$A$5</f>
         <v>programB</v>
       </c>
@@ -2770,31 +2884,31 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="7" tint="0"/>
+    <tabColor theme="7"/>
     <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A1" workbookViewId="0" zoomScale="100">
+    <sheetView showGridLines="0" topLeftCell="A1" workbookViewId="0" zoomScale="160">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A4" ySplit="3"/>
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection activeCell="L23" activeCellId="0" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.8515625"/>
-    <col customWidth="1" min="2" max="2" width="18.421875"/>
-    <col customWidth="1" min="3" max="3" width="12.8515625"/>
-    <col customWidth="1" min="7" max="7" width="10.421875"/>
-    <col customWidth="1" min="8" max="8" width="13.00390625"/>
-    <col customWidth="1" min="9" max="9" width="10.8515625"/>
-    <col customWidth="1" min="10" max="10" width="11.8515625"/>
-    <col customWidth="1" min="11" max="11" width="10.140625"/>
-    <col customWidth="1" min="12" max="12" width="23.28125"/>
-    <col customWidth="1" min="13" max="13" width="3.57421875"/>
+    <col customWidth="1" min="1" max="1" width="12.83203125"/>
+    <col customWidth="1" min="2" max="2" width="31.421875"/>
+    <col customWidth="1" min="3" max="3" width="12.83203125"/>
+    <col customWidth="1" min="7" max="7" width="10.5"/>
+    <col customWidth="1" min="8" max="8" width="13"/>
+    <col customWidth="1" min="9" max="9" width="10.83203125"/>
+    <col customWidth="1" min="10" max="10" width="11.83203125"/>
+    <col customWidth="1" min="11" max="11" width="10.1640625"/>
+    <col customWidth="1" min="12" max="12" width="23.33203125"/>
+    <col customWidth="1" min="13" max="13" width="3.5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25">
+    <row r="1">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -2802,38 +2916,38 @@
         <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="L1" s="118" t="s">
-        <v>270</v>
-      </c>
-      <c r="M1" s="74"/>
-    </row>
-    <row r="2" ht="28.850000000000001" customHeight="1">
+        <v>304</v>
+      </c>
+      <c r="L1" s="115" t="s">
+        <v>305</v>
+      </c>
+      <c r="M1" s="14"/>
+    </row>
+    <row r="2" ht="28.75" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -2842,62 +2956,62 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="1" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="74"/>
-    </row>
-    <row r="3" ht="31.850000000000001" customHeight="1">
-      <c r="A3" s="115" t="s">
+      <c r="M2" s="14"/>
+    </row>
+    <row r="3" ht="31.75" customHeight="1">
+      <c r="A3" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="98" t="s">
-        <v>243</v>
-      </c>
-      <c r="D3" s="97" t="s">
-        <v>272</v>
-      </c>
-      <c r="E3" s="82" t="s">
-        <v>273</v>
-      </c>
-      <c r="F3" s="97" t="s">
-        <v>274</v>
-      </c>
-      <c r="G3" s="97" t="s">
-        <v>275</v>
-      </c>
-      <c r="H3" s="119" t="s">
+      <c r="C3" s="95" t="s">
         <v>276</v>
       </c>
-      <c r="I3" s="120" t="s">
-        <v>252</v>
-      </c>
-      <c r="J3" s="120" t="s">
-        <v>277</v>
-      </c>
-      <c r="K3" s="121" t="s">
-        <v>278</v>
-      </c>
-      <c r="L3" s="83" t="s">
-        <v>279</v>
-      </c>
-      <c r="M3" s="122"/>
+      <c r="D3" s="94" t="s">
+        <v>307</v>
+      </c>
+      <c r="E3" s="79" t="s">
+        <v>308</v>
+      </c>
+      <c r="F3" s="94" t="s">
+        <v>309</v>
+      </c>
+      <c r="G3" s="94" t="s">
+        <v>310</v>
+      </c>
+      <c r="H3" s="116" t="s">
+        <v>311</v>
+      </c>
+      <c r="I3" s="117" t="s">
+        <v>287</v>
+      </c>
+      <c r="J3" s="117" t="s">
+        <v>312</v>
+      </c>
+      <c r="K3" s="118" t="s">
+        <v>313</v>
+      </c>
+      <c r="L3" s="80" t="s">
+        <v>314</v>
+      </c>
+      <c r="M3" s="119"/>
     </row>
     <row r="4" s="9" customFormat="1" ht="30" customHeight="1">
       <c r="A4" s="10" t="str">
-        <f t="shared" ref="A4:A9" si="0">_xlfn.CONCAT("subject",IF(M4&lt;10,"0",""),M4)</f>
+        <f t="shared" ref="A4:A9" si="1">_xlfn.CONCAT("subject",IF(M4&lt;10,"0",""),M4)</f>
         <v>subject01</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="C4" s="77" t="str">
+        <v>315</v>
+      </c>
+      <c r="C4" s="71" t="str">
         <f>ap_programs!A4</f>
         <v>programA</v>
       </c>
@@ -2909,38 +3023,37 @@
       </c>
       <c r="F4" s="63"/>
       <c r="G4" s="63" t="str">
-        <f t="shared" ref="G4:G9" si="1">_xlfn.CONCAT("0",IF(M4&lt;10,"0",""),M4)</f>
+        <f t="shared" ref="G4:G9" si="2">_xlfn.CONCAT("0",IF(M4&lt;10,"0",""),M4)</f>
         <v>001</v>
       </c>
-      <c r="H4" s="123" t="s">
-        <v>281</v>
-      </c>
-      <c r="I4" s="124" t="s">
-        <v>282</v>
+      <c r="H4" s="120" t="s">
+        <v>316</v>
+      </c>
+      <c r="I4" s="121" t="s">
+        <v>317</v>
       </c>
       <c r="J4" s="63"/>
-      <c r="K4" s="125" t="str">
+      <c r="K4" s="122" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L4" s="126" t="s">
-        <v>283</v>
-      </c>
-      <c r="M4" s="127">
+      <c r="L4" s="123" t="s">
+        <v>318</v>
+      </c>
+      <c r="M4" s="124">
         <v>1</v>
       </c>
-      <c r="N4" s="9"/>
     </row>
     <row r="5" s="9" customFormat="1" ht="30" customHeight="1">
       <c r="A5" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>subject02</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="C5" s="77" t="str">
-        <f t="shared" ref="C5:C10" si="2">C4</f>
+        <v>319</v>
+      </c>
+      <c r="C5" s="71" t="str">
+        <f t="shared" ref="C5:C10" si="3">C4</f>
         <v>programA</v>
       </c>
       <c r="D5" s="63">
@@ -2951,42 +3064,41 @@
       </c>
       <c r="F5" s="63"/>
       <c r="G5" s="63" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>002</v>
       </c>
-      <c r="H5" s="123" t="str">
-        <f t="shared" ref="H5:H10" si="3">H4</f>
+      <c r="H5" s="120" t="str">
+        <f t="shared" ref="H5:H10" si="4">H4</f>
         <v xml:space="preserve">Group A|G1A, Group B|G1B</v>
       </c>
-      <c r="I5" s="124" t="str">
-        <f t="shared" ref="I5:I10" si="4">I4</f>
+      <c r="I5" s="121" t="str">
+        <f t="shared" ref="I5:I10" si="5">I4</f>
         <v>#FFEB9C</v>
       </c>
       <c r="J5" s="63"/>
-      <c r="K5" s="125" t="str">
+      <c r="K5" s="122" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L5" s="126" t="str">
-        <f t="shared" ref="L5:L10" si="5">L4</f>
+      <c r="L5" s="123" t="str">
+        <f t="shared" ref="L5:L10" si="6">L4</f>
         <v xml:space="preserve">teacher01|main@G1A, teacher01|main@G1B</v>
       </c>
-      <c r="M5" s="127">
-        <f t="shared" ref="M5:M10" si="6">M4+1</f>
+      <c r="M5" s="124">
+        <f t="shared" ref="M5:M10" si="7">M4+1</f>
         <v>2</v>
       </c>
-      <c r="N5" s="9"/>
     </row>
     <row r="6" s="9" customFormat="1" ht="30" customHeight="1">
       <c r="A6" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>subject03</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="C6" s="77" t="str">
-        <f t="shared" si="2"/>
+        <v>320</v>
+      </c>
+      <c r="C6" s="71" t="str">
+        <f t="shared" si="3"/>
         <v>programA</v>
       </c>
       <c r="D6" s="63">
@@ -2997,42 +3109,41 @@
       </c>
       <c r="F6" s="63"/>
       <c r="G6" s="63" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>003</v>
       </c>
-      <c r="H6" s="123" t="str">
-        <f t="shared" si="3"/>
+      <c r="H6" s="120" t="str">
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Group A|G1A, Group B|G1B</v>
       </c>
-      <c r="I6" s="124" t="str">
-        <f t="shared" si="4"/>
+      <c r="I6" s="121" t="str">
+        <f t="shared" si="5"/>
         <v>#FFEB9C</v>
       </c>
       <c r="J6" s="63"/>
-      <c r="K6" s="125" t="str">
+      <c r="K6" s="122" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L6" s="126" t="str">
-        <f t="shared" si="5"/>
+      <c r="L6" s="123" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">teacher01|main@G1A, teacher01|main@G1B</v>
       </c>
-      <c r="M6" s="127">
-        <f t="shared" si="6"/>
+      <c r="M6" s="124">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="N6" s="9"/>
     </row>
     <row r="7" s="9" customFormat="1" ht="30" customHeight="1">
       <c r="A7" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>subject04</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="C7" s="77" t="str">
-        <f t="shared" si="2"/>
+        <v>321</v>
+      </c>
+      <c r="C7" s="71" t="str">
+        <f t="shared" si="3"/>
         <v>programA</v>
       </c>
       <c r="D7" s="63">
@@ -3043,42 +3154,41 @@
       </c>
       <c r="F7" s="63"/>
       <c r="G7" s="63" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>004</v>
       </c>
-      <c r="H7" s="123" t="str">
-        <f t="shared" si="3"/>
+      <c r="H7" s="120" t="str">
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Group A|G1A, Group B|G1B</v>
       </c>
-      <c r="I7" s="124" t="str">
-        <f t="shared" si="4"/>
+      <c r="I7" s="121" t="str">
+        <f t="shared" si="5"/>
         <v>#FFEB9C</v>
       </c>
       <c r="J7" s="63"/>
-      <c r="K7" s="125" t="str">
+      <c r="K7" s="122" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="L7" s="126" t="str">
-        <f t="shared" si="5"/>
+      <c r="L7" s="123" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">teacher01|main@G1A, teacher01|main@G1B</v>
       </c>
-      <c r="M7" s="127">
-        <f t="shared" si="6"/>
+      <c r="M7" s="124">
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="N7" s="9"/>
     </row>
     <row r="8" ht="30" customHeight="1">
       <c r="A8" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>subject05</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="C8" s="77" t="str">
-        <f t="shared" si="2"/>
+        <v>322</v>
+      </c>
+      <c r="C8" s="71" t="str">
+        <f t="shared" si="3"/>
         <v>programA</v>
       </c>
       <c r="D8" s="63">
@@ -3089,39 +3199,39 @@
       </c>
       <c r="F8" s="63"/>
       <c r="G8" s="63" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>005</v>
       </c>
-      <c r="H8" s="123" t="s">
-        <v>288</v>
-      </c>
-      <c r="I8" s="124" t="str">
-        <f t="shared" si="4"/>
+      <c r="H8" s="120" t="s">
+        <v>323</v>
+      </c>
+      <c r="I8" s="121" t="str">
+        <f t="shared" si="5"/>
         <v>#FFEB9C</v>
       </c>
       <c r="J8" s="63"/>
-      <c r="K8" s="125" t="str">
+      <c r="K8" s="122" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L8" s="126" t="s">
-        <v>289</v>
-      </c>
-      <c r="M8" s="127">
-        <f t="shared" si="6"/>
+      <c r="L8" s="123" t="s">
+        <v>324</v>
+      </c>
+      <c r="M8" s="124">
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
     </row>
     <row r="9" ht="30" customHeight="1">
       <c r="A9" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>subject06</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="C9" s="77" t="str">
-        <f t="shared" si="2"/>
+        <v>325</v>
+      </c>
+      <c r="C9" s="71" t="str">
+        <f t="shared" si="3"/>
         <v>programA</v>
       </c>
       <c r="D9" s="63">
@@ -3132,40 +3242,40 @@
       </c>
       <c r="F9" s="63"/>
       <c r="G9" s="63" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>006</v>
       </c>
-      <c r="H9" s="123" t="str">
-        <f t="shared" si="3"/>
+      <c r="H9" s="120" t="str">
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Group A|G2A, Group B|G2B</v>
       </c>
-      <c r="I9" s="124" t="s">
-        <v>291</v>
+      <c r="I9" s="121" t="s">
+        <v>326</v>
       </c>
       <c r="J9" s="63"/>
-      <c r="K9" s="125" t="str">
+      <c r="K9" s="122" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L9" s="126" t="str">
-        <f t="shared" si="5"/>
+      <c r="L9" s="123" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">teacher01|main@G2A, teacher01|main@G2B</v>
       </c>
-      <c r="M9" s="127">
-        <f t="shared" si="6"/>
+      <c r="M9" s="124">
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
     <row r="10" ht="30" customHeight="1">
       <c r="A10" s="10" t="str">
-        <f t="shared" ref="A10:A23" si="7">_xlfn.CONCAT("subject",IF(M10&lt;10,"0",""),M10)</f>
+        <f t="shared" ref="A10:A22" si="8">_xlfn.CONCAT("subject",IF(M10&lt;10,"0",""),M10)</f>
         <v>subject07</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="C10" s="77" t="str">
-        <f t="shared" si="2"/>
+        <v>327</v>
+      </c>
+      <c r="C10" s="71" t="str">
+        <f t="shared" si="3"/>
         <v>programA</v>
       </c>
       <c r="D10" s="63">
@@ -3176,41 +3286,41 @@
       </c>
       <c r="F10" s="63"/>
       <c r="G10" s="63" t="str">
-        <f t="shared" ref="G10:G23" si="8">_xlfn.CONCAT("0",IF(M10&lt;10,"0",""),M10)</f>
+        <f t="shared" ref="G10:G24" si="9">_xlfn.CONCAT("0",IF(M10&lt;10,"0",""),M10)</f>
         <v>007</v>
       </c>
-      <c r="H10" s="123" t="str">
-        <f t="shared" si="3"/>
+      <c r="H10" s="120" t="str">
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Group A|G2A, Group B|G2B</v>
       </c>
-      <c r="I10" s="124" t="str">
-        <f t="shared" si="4"/>
+      <c r="I10" s="121" t="str">
+        <f t="shared" si="5"/>
         <v>#FFC7CE</v>
       </c>
       <c r="J10" s="63"/>
-      <c r="K10" s="125" t="str">
+      <c r="K10" s="122" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L10" s="126" t="str">
-        <f t="shared" si="5"/>
+      <c r="L10" s="123" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">teacher01|main@G2A, teacher01|main@G2B</v>
       </c>
-      <c r="M10" s="127">
-        <f t="shared" si="6"/>
+      <c r="M10" s="124">
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
     </row>
     <row r="11" ht="30" customHeight="1">
       <c r="A11" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>subject08</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="C11" s="77" t="str">
-        <f t="shared" ref="C11:C23" si="9">C10</f>
+        <v>328</v>
+      </c>
+      <c r="C11" s="71" t="str">
+        <f t="shared" ref="C11:C24" si="10">C10</f>
         <v>programA</v>
       </c>
       <c r="D11" s="63">
@@ -3221,41 +3331,41 @@
       </c>
       <c r="F11" s="63"/>
       <c r="G11" s="63" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>008</v>
       </c>
-      <c r="H11" s="123" t="str">
+      <c r="H11" s="120" t="str">
         <f>H10</f>
         <v xml:space="preserve">Group A|G2A, Group B|G2B</v>
       </c>
-      <c r="I11" s="124" t="str">
-        <f t="shared" ref="I11:I18" si="10">I10</f>
+      <c r="I11" s="121" t="str">
+        <f t="shared" ref="I11:I18" si="11">I10</f>
         <v>#FFC7CE</v>
       </c>
       <c r="J11" s="63"/>
-      <c r="K11" s="125" t="str">
+      <c r="K11" s="122" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="L11" s="126" t="str">
+      <c r="L11" s="123" t="str">
         <f>L10</f>
         <v xml:space="preserve">teacher01|main@G2A, teacher01|main@G2B</v>
       </c>
-      <c r="M11" s="127">
-        <f t="shared" ref="M11:M23" si="11">M10+1</f>
+      <c r="M11" s="124">
+        <f t="shared" ref="M11:M24" si="12">M10+1</f>
         <v>8</v>
       </c>
     </row>
     <row r="12" ht="30" customHeight="1">
       <c r="A12" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>subject09</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="C12" s="77" t="str">
-        <f t="shared" si="9"/>
+        <v>329</v>
+      </c>
+      <c r="C12" s="71" t="str">
+        <f t="shared" si="10"/>
         <v>programA</v>
       </c>
       <c r="D12" s="63">
@@ -3266,39 +3376,39 @@
       </c>
       <c r="F12" s="63"/>
       <c r="G12" s="63" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>009</v>
       </c>
-      <c r="H12" s="123" t="s">
-        <v>295</v>
-      </c>
-      <c r="I12" s="124" t="str">
-        <f t="shared" si="10"/>
+      <c r="H12" s="120" t="s">
+        <v>330</v>
+      </c>
+      <c r="I12" s="121" t="str">
+        <f t="shared" si="11"/>
         <v>#FFC7CE</v>
       </c>
       <c r="J12" s="63"/>
-      <c r="K12" s="125" t="str">
+      <c r="K12" s="122" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L12" s="126" t="s">
-        <v>296</v>
-      </c>
-      <c r="M12" s="127">
-        <f t="shared" si="11"/>
+      <c r="L12" s="123" t="s">
+        <v>331</v>
+      </c>
+      <c r="M12" s="124">
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
     </row>
     <row r="13" ht="30" customHeight="1">
       <c r="A13" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>subject10</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="C13" s="77" t="str">
-        <f t="shared" si="9"/>
+        <v>332</v>
+      </c>
+      <c r="C13" s="71" t="str">
+        <f t="shared" si="10"/>
         <v>programA</v>
       </c>
       <c r="D13" s="63">
@@ -3309,41 +3419,41 @@
       </c>
       <c r="F13" s="63"/>
       <c r="G13" s="63" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>010</v>
       </c>
-      <c r="H13" s="123" t="str">
-        <f t="shared" ref="H13:H23" si="12">H12</f>
+      <c r="H13" s="120" t="str">
+        <f t="shared" ref="H13:H24" si="13">H12</f>
         <v xml:space="preserve">Group A|G3A, Group B|G3B</v>
       </c>
-      <c r="I13" s="124" t="str">
-        <f t="shared" si="10"/>
+      <c r="I13" s="121" t="str">
+        <f t="shared" si="11"/>
         <v>#FFC7CE</v>
       </c>
       <c r="J13" s="63"/>
-      <c r="K13" s="125" t="str">
+      <c r="K13" s="122" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L13" s="126" t="str">
-        <f t="shared" ref="L13:L23" si="13">L12</f>
+      <c r="L13" s="123" t="str">
+        <f t="shared" ref="L13:L24" si="14">L12</f>
         <v xml:space="preserve">teacher01|main@G3A, teacher01|main@G3B</v>
       </c>
-      <c r="M13" s="127">
-        <f t="shared" si="11"/>
+      <c r="M13" s="124">
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
     </row>
     <row r="14" ht="30" customHeight="1">
       <c r="A14" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>subject11</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="C14" s="77" t="str">
-        <f t="shared" si="9"/>
+        <v>333</v>
+      </c>
+      <c r="C14" s="71" t="str">
+        <f t="shared" si="10"/>
         <v>programA</v>
       </c>
       <c r="D14" s="63">
@@ -3354,40 +3464,40 @@
       </c>
       <c r="F14" s="63"/>
       <c r="G14" s="63" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>011</v>
       </c>
-      <c r="H14" s="123" t="str">
-        <f t="shared" si="12"/>
+      <c r="H14" s="120" t="str">
+        <f t="shared" si="13"/>
         <v xml:space="preserve">Group A|G3A, Group B|G3B</v>
       </c>
-      <c r="I14" s="124" t="s">
-        <v>299</v>
+      <c r="I14" s="121" t="s">
+        <v>334</v>
       </c>
       <c r="J14" s="63"/>
-      <c r="K14" s="125" t="str">
+      <c r="K14" s="122" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L14" s="126" t="str">
-        <f t="shared" si="13"/>
+      <c r="L14" s="123" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">teacher01|main@G3A, teacher01|main@G3B</v>
       </c>
-      <c r="M14" s="127">
-        <f t="shared" si="11"/>
+      <c r="M14" s="124">
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
     </row>
     <row r="15" ht="30" customHeight="1">
       <c r="A15" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>subject12</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="C15" s="77" t="str">
-        <f t="shared" si="9"/>
+        <v>335</v>
+      </c>
+      <c r="C15" s="71" t="str">
+        <f t="shared" si="10"/>
         <v>programA</v>
       </c>
       <c r="D15" s="63">
@@ -3398,41 +3508,41 @@
       </c>
       <c r="F15" s="63"/>
       <c r="G15" s="63" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>012</v>
       </c>
-      <c r="H15" s="123" t="str">
-        <f t="shared" si="12"/>
+      <c r="H15" s="120" t="str">
+        <f t="shared" si="13"/>
         <v xml:space="preserve">Group A|G3A, Group B|G3B</v>
       </c>
-      <c r="I15" s="124" t="str">
-        <f t="shared" si="10"/>
+      <c r="I15" s="121" t="str">
+        <f t="shared" si="11"/>
         <v>#C6EFCD</v>
       </c>
       <c r="J15" s="63"/>
-      <c r="K15" s="125" t="str">
+      <c r="K15" s="122" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="L15" s="126" t="str">
-        <f t="shared" si="13"/>
+      <c r="L15" s="123" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">teacher01|main@G3A, teacher01|main@G3B</v>
       </c>
-      <c r="M15" s="127">
-        <f t="shared" si="11"/>
+      <c r="M15" s="124">
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
     </row>
     <row r="16" ht="30" customHeight="1">
       <c r="A16" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>subject13</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="C16" s="77" t="str">
-        <f t="shared" si="9"/>
+        <v>336</v>
+      </c>
+      <c r="C16" s="71" t="str">
+        <f t="shared" si="10"/>
         <v>programA</v>
       </c>
       <c r="D16" s="63">
@@ -3443,39 +3553,39 @@
       </c>
       <c r="F16" s="63"/>
       <c r="G16" s="63" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>013</v>
       </c>
-      <c r="H16" s="123" t="s">
-        <v>302</v>
-      </c>
-      <c r="I16" s="124" t="str">
-        <f t="shared" si="10"/>
+      <c r="H16" s="120" t="s">
+        <v>337</v>
+      </c>
+      <c r="I16" s="121" t="str">
+        <f t="shared" si="11"/>
         <v>#C6EFCD</v>
       </c>
       <c r="J16" s="63"/>
-      <c r="K16" s="125" t="str">
+      <c r="K16" s="122" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L16" s="126" t="s">
-        <v>303</v>
-      </c>
-      <c r="M16" s="127">
-        <f t="shared" si="11"/>
+      <c r="L16" s="123" t="s">
+        <v>338</v>
+      </c>
+      <c r="M16" s="124">
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
     </row>
     <row r="17" ht="30" customHeight="1">
       <c r="A17" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>subject14</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="C17" s="77" t="str">
-        <f t="shared" si="9"/>
+        <v>339</v>
+      </c>
+      <c r="C17" s="71" t="str">
+        <f t="shared" si="10"/>
         <v>programA</v>
       </c>
       <c r="D17" s="63">
@@ -3486,41 +3596,41 @@
       </c>
       <c r="F17" s="63"/>
       <c r="G17" s="63" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>014</v>
       </c>
-      <c r="H17" s="123" t="str">
-        <f t="shared" si="12"/>
+      <c r="H17" s="120" t="str">
+        <f t="shared" si="13"/>
         <v xml:space="preserve">Group A|G4A, Group B|G4B</v>
       </c>
-      <c r="I17" s="124" t="str">
-        <f t="shared" si="10"/>
+      <c r="I17" s="121" t="str">
+        <f t="shared" si="11"/>
         <v>#C6EFCD</v>
       </c>
       <c r="J17" s="63"/>
-      <c r="K17" s="125" t="str">
+      <c r="K17" s="122" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L17" s="126" t="str">
-        <f t="shared" si="13"/>
+      <c r="L17" s="123" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">teacher01|main@G4A, teacher01|main@G4B</v>
       </c>
-      <c r="M17" s="127">
-        <f t="shared" si="11"/>
+      <c r="M17" s="124">
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
     </row>
     <row r="18" ht="30" customHeight="1">
       <c r="A18" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>subject15</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="C18" s="77" t="str">
-        <f t="shared" si="9"/>
+        <v>340</v>
+      </c>
+      <c r="C18" s="71" t="str">
+        <f t="shared" si="10"/>
         <v>programA</v>
       </c>
       <c r="D18" s="63">
@@ -3531,41 +3641,41 @@
       </c>
       <c r="F18" s="63"/>
       <c r="G18" s="63" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>015</v>
       </c>
-      <c r="H18" s="123" t="str">
-        <f t="shared" si="12"/>
+      <c r="H18" s="120" t="str">
+        <f t="shared" si="13"/>
         <v xml:space="preserve">Group A|G4A, Group B|G4B</v>
       </c>
-      <c r="I18" s="124" t="str">
-        <f t="shared" si="10"/>
+      <c r="I18" s="121" t="str">
+        <f t="shared" si="11"/>
         <v>#C6EFCD</v>
       </c>
       <c r="J18" s="63"/>
-      <c r="K18" s="125" t="str">
+      <c r="K18" s="122" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L18" s="126" t="str">
-        <f t="shared" si="13"/>
+      <c r="L18" s="123" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">teacher01|main@G4A, teacher01|main@G4B</v>
       </c>
-      <c r="M18" s="127">
-        <f t="shared" si="11"/>
+      <c r="M18" s="124">
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
     </row>
     <row r="19" ht="30" customHeight="1">
       <c r="A19" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>subject16</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="C19" s="77" t="str">
-        <f t="shared" si="9"/>
+        <v>341</v>
+      </c>
+      <c r="C19" s="71" t="str">
+        <f t="shared" si="10"/>
         <v>programA</v>
       </c>
       <c r="D19" s="63">
@@ -3576,40 +3686,40 @@
       </c>
       <c r="F19" s="63"/>
       <c r="G19" s="63" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>016</v>
       </c>
-      <c r="H19" s="123" t="str">
-        <f t="shared" si="12"/>
+      <c r="H19" s="120" t="str">
+        <f t="shared" si="13"/>
         <v xml:space="preserve">Group A|G4A, Group B|G4B</v>
       </c>
-      <c r="I19" s="124" t="s">
-        <v>307</v>
+      <c r="I19" s="121" t="s">
+        <v>342</v>
       </c>
       <c r="J19" s="63"/>
-      <c r="K19" s="125" t="str">
+      <c r="K19" s="122" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="L19" s="126" t="str">
-        <f t="shared" si="13"/>
+      <c r="L19" s="123" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">teacher01|main@G4A, teacher01|main@G4B</v>
       </c>
-      <c r="M19" s="127">
-        <f t="shared" si="11"/>
+      <c r="M19" s="124">
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
     </row>
     <row r="20" ht="30" customHeight="1">
       <c r="A20" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>subject17</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="C20" s="77" t="str">
-        <f t="shared" si="9"/>
+        <v>343</v>
+      </c>
+      <c r="C20" s="71" t="str">
+        <f t="shared" si="10"/>
         <v>programA</v>
       </c>
       <c r="D20" s="63">
@@ -3620,38 +3730,38 @@
       </c>
       <c r="F20" s="63"/>
       <c r="G20" s="63" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>017</v>
       </c>
-      <c r="H20" s="123" t="s">
-        <v>309</v>
-      </c>
-      <c r="I20" s="124" t="s">
-        <v>307</v>
+      <c r="H20" s="120" t="s">
+        <v>344</v>
+      </c>
+      <c r="I20" s="121" t="s">
+        <v>342</v>
       </c>
       <c r="J20" s="63"/>
-      <c r="K20" s="125" t="str">
+      <c r="K20" s="122" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L20" s="126" t="s">
-        <v>310</v>
-      </c>
-      <c r="M20" s="127">
-        <f t="shared" si="11"/>
+      <c r="L20" s="123" t="s">
+        <v>345</v>
+      </c>
+      <c r="M20" s="124">
+        <f t="shared" si="12"/>
         <v>17</v>
       </c>
     </row>
     <row r="21" ht="30" customHeight="1">
       <c r="A21" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>subject18</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="C21" s="77" t="str">
-        <f t="shared" si="9"/>
+        <v>346</v>
+      </c>
+      <c r="C21" s="71" t="str">
+        <f t="shared" si="10"/>
         <v>programA</v>
       </c>
       <c r="D21" s="63">
@@ -3662,40 +3772,40 @@
       </c>
       <c r="F21" s="63"/>
       <c r="G21" s="63" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>018</v>
       </c>
-      <c r="H21" s="123" t="str">
-        <f t="shared" si="12"/>
+      <c r="H21" s="120" t="str">
+        <f t="shared" si="13"/>
         <v xml:space="preserve">Group A|G5A, Group B|G5B</v>
       </c>
-      <c r="I21" s="124" t="s">
-        <v>307</v>
+      <c r="I21" s="121" t="s">
+        <v>342</v>
       </c>
       <c r="J21" s="63"/>
-      <c r="K21" s="125" t="str">
+      <c r="K21" s="122" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L21" s="126" t="str">
-        <f t="shared" si="13"/>
+      <c r="L21" s="123" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">teacher01|main@G5A, teacher01|main@G5B</v>
       </c>
-      <c r="M21" s="127">
-        <f t="shared" si="11"/>
+      <c r="M21" s="124">
+        <f t="shared" si="12"/>
         <v>18</v>
       </c>
     </row>
     <row r="22" ht="30" customHeight="1">
       <c r="A22" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>subject19</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="C22" s="77" t="str">
-        <f t="shared" si="9"/>
+        <v>347</v>
+      </c>
+      <c r="C22" s="71" t="str">
+        <f t="shared" si="10"/>
         <v>programA</v>
       </c>
       <c r="D22" s="63">
@@ -3706,79 +3816,115 @@
       </c>
       <c r="F22" s="63"/>
       <c r="G22" s="63" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>019</v>
       </c>
-      <c r="H22" s="123" t="str">
-        <f t="shared" si="12"/>
+      <c r="H22" s="120" t="str">
+        <f t="shared" si="13"/>
         <v xml:space="preserve">Group A|G5A, Group B|G5B</v>
       </c>
-      <c r="I22" s="124" t="s">
-        <v>307</v>
+      <c r="I22" s="121" t="s">
+        <v>342</v>
       </c>
       <c r="J22" s="63"/>
-      <c r="K22" s="125" t="str">
+      <c r="K22" s="122" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L22" s="126" t="str">
-        <f t="shared" si="13"/>
+      <c r="L22" s="123" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">teacher01|main@G5A, teacher01|main@G5B</v>
       </c>
-      <c r="M22" s="127">
-        <f t="shared" si="11"/>
+      <c r="M22" s="124">
+        <f t="shared" si="12"/>
         <v>19</v>
       </c>
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="A23" s="10" t="str">
-        <f t="shared" si="7"/>
-        <v>subject20</v>
+        <f t="shared" ref="A23:A24" si="15">_xlfn.CONCAT("asignatura",IF(M23&lt;10,"0",""),M23)</f>
+        <v>asignatura01</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="C23" s="77" t="str">
-        <f t="shared" si="9"/>
-        <v>programA</v>
+        <v>348</v>
+      </c>
+      <c r="C23" s="71" t="str">
+        <f>ap_programs!A6</f>
+        <v>programC</v>
       </c>
       <c r="D23" s="63">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E23" s="63">
         <v>20</v>
       </c>
       <c r="F23" s="63"/>
       <c r="G23" s="63" t="str">
-        <f t="shared" si="8"/>
-        <v>020</v>
-      </c>
-      <c r="H23" s="123" t="str">
+        <f t="shared" si="9"/>
+        <v>001</v>
+      </c>
+      <c r="H23" s="120" t="s">
+        <v>349</v>
+      </c>
+      <c r="I23" s="121" t="s">
+        <v>350</v>
+      </c>
+      <c r="J23" s="63"/>
+      <c r="K23" s="122" t="str">
+        <f>ap_subject_types!$A$6</f>
+        <v>type04</v>
+      </c>
+      <c r="L23" s="123" t="s">
+        <v>351</v>
+      </c>
+      <c r="M23" s="124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" ht="27">
+      <c r="A24" s="10" t="str">
+        <f t="shared" si="15"/>
+        <v>asignatura02</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="C24" s="71" t="str">
+        <f t="shared" si="10"/>
+        <v>programC</v>
+      </c>
+      <c r="D24" s="63">
+        <v>2</v>
+      </c>
+      <c r="E24" s="63">
+        <v>20</v>
+      </c>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63" t="str">
+        <f t="shared" si="9"/>
+        <v>002</v>
+      </c>
+      <c r="H24" s="120" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">2ºA|2ºA, 2ºB|2ºB</v>
+      </c>
+      <c r="I24" s="121" t="s">
+        <v>353</v>
+      </c>
+      <c r="J24" s="63"/>
+      <c r="K24" s="122" t="str">
+        <f>ap_subject_types!$A$6</f>
+        <v>type04</v>
+      </c>
+      <c r="L24" s="123" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">teacher01|main@2ºA, teacher01|main@2ºB</v>
+      </c>
+      <c r="M24" s="124">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">Group A|G5A, Group B|G5B</v>
-      </c>
-      <c r="I23" s="124" t="s">
-        <v>307</v>
-      </c>
-      <c r="J23" s="63"/>
-      <c r="K23" s="125" t="str">
-        <f>ap_subject_types!$A$5</f>
-        <v>type03</v>
-      </c>
-      <c r="L23" s="126" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">teacher01|main@G5A, teacher01|main@G5B</v>
-      </c>
-      <c r="M23" s="127">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25">
-      <c r="E24" s="14"/>
-      <c r="M24" s="74"/>
-    </row>
-    <row r="25" ht="14.25"/>
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H2:L2"/>
@@ -3793,22 +3939,22 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="4" tint="0"/>
+    <tabColor theme="4"/>
     <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0" zoomScale="100">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showGridLines="0" workbookViewId="0" zoomScale="190">
+      <selection activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="26.00390625"/>
-    <col customWidth="1" min="3" max="3" width="44.28125"/>
+    <col customWidth="1" min="2" max="2" width="26"/>
+    <col customWidth="1" min="3" max="3" width="44.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25">
+    <row r="1">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -3861,6 +4007,20 @@
         <v>37</v>
       </c>
       <c r="D4" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3875,37 +4035,37 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="4" tint="0"/>
+    <tabColor theme="4"/>
     <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomRight" state="frozen" topLeftCell="B7" xSplit="1" ySplit="6"/>
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="11.57421875"/>
-    <col customWidth="1" min="3" max="3" width="34.00390625"/>
-    <col customWidth="1" min="4" max="4" width="13.28125"/>
-    <col customWidth="1" min="5" max="5" width="7.8515625"/>
-    <col customWidth="1" min="6" max="6" width="9.7109375"/>
-    <col customWidth="1" min="7" max="7" width="8.00390625"/>
-    <col customWidth="1" min="8" max="8" width="8.421875"/>
-    <col customWidth="1" min="10" max="10" width="10.7109375"/>
-    <col customWidth="1" min="19" max="19" width="12.140625"/>
-    <col customWidth="1" min="20" max="21" width="14.7109375"/>
-    <col customWidth="1" min="22" max="22" width="14.421875"/>
-    <col customWidth="1" min="28" max="28" width="15.00390625"/>
-    <col customWidth="1" min="29" max="29" width="17.140625"/>
-    <col customWidth="1" min="31" max="31" width="11.7109375"/>
-    <col customWidth="1" min="32" max="32" width="13.8515625"/>
-    <col customWidth="1" min="33" max="33" width="14.00390625"/>
+    <col customWidth="1" min="2" max="2" width="11.5"/>
+    <col customWidth="1" min="3" max="3" width="34"/>
+    <col customWidth="1" min="4" max="4" width="13.33203125"/>
+    <col customWidth="1" min="5" max="5" width="7.83203125"/>
+    <col customWidth="1" min="6" max="6" width="9.6640625"/>
+    <col customWidth="1" min="7" max="7" width="8"/>
+    <col customWidth="1" min="8" max="8" width="8.5"/>
+    <col customWidth="1" min="10" max="10" width="10.6640625"/>
+    <col customWidth="1" min="19" max="19" width="12.1640625"/>
+    <col customWidth="1" min="20" max="21" width="14.6640625"/>
+    <col customWidth="1" min="22" max="22" width="14.5"/>
+    <col customWidth="1" min="28" max="28" width="15"/>
+    <col customWidth="1" min="29" max="29" width="17.1640625"/>
+    <col customWidth="1" min="31" max="31" width="11.6640625"/>
+    <col customWidth="1" min="32" max="32" width="13.83203125"/>
+    <col customWidth="1" min="33" max="33" width="14"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="1" ht="14.25">
+    <row r="1" s="12" customFormat="1" ht="12">
       <c r="A1" s="12" t="s">
         <v>23</v>
       </c>
@@ -3916,7 +4076,7 @@
         <v>25</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E1" s="12" t="str">
         <f>_xlfn.CONCAT($E$3,".",E5)</f>
@@ -3963,27 +4123,27 @@
         <v>plugins.academic-portfolio.tree</v>
       </c>
       <c r="P1" s="12" t="str">
-        <f>_xlfn.CONCAT($P$3,".",P5)</f>
+        <f t="shared" ref="P1:U1" si="0">_xlfn.CONCAT($P$3,".",P5)</f>
         <v>plugins.families.families</v>
       </c>
       <c r="Q1" s="12" t="str">
-        <f>_xlfn.CONCAT($P$3,".",Q5)</f>
+        <f t="shared" si="0"/>
         <v>plugins.families.config</v>
       </c>
       <c r="R1" s="12" t="str">
-        <f>_xlfn.CONCAT($P$3,".",R5)</f>
+        <f t="shared" si="0"/>
         <v>plugins.families.families-basic-info</v>
       </c>
       <c r="S1" s="12" t="str">
-        <f>_xlfn.CONCAT($P$3,".",S5)</f>
+        <f t="shared" si="0"/>
         <v>plugins.families.families-custom-info</v>
       </c>
       <c r="T1" s="12" t="str">
-        <f>_xlfn.CONCAT($P$3,".",T5)</f>
+        <f t="shared" si="0"/>
         <v>plugins.families.families-guardians-info</v>
       </c>
       <c r="U1" s="12" t="str">
-        <f>_xlfn.CONCAT($P$3,".",U5)</f>
+        <f t="shared" si="0"/>
         <v>plugins.families.families-students-info</v>
       </c>
       <c r="V1" s="12" t="str">
@@ -4035,13 +4195,9 @@
         <v>plugins.grades.dependencies</v>
       </c>
     </row>
-    <row r="2" s="9" customFormat="1" ht="21.350000000000001" customHeight="1">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+    <row r="2" s="9" customFormat="1" ht="21.25" customHeight="1">
       <c r="E2" s="13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
@@ -4072,31 +4228,31 @@
       <c r="AF2" s="13"/>
       <c r="AG2" s="13"/>
     </row>
-    <row r="3" ht="14.25">
+    <row r="3">
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
       <c r="I3" s="17" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="L3" s="20"/>
       <c r="M3" s="20"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
       <c r="P3" s="21" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q3" s="22"/>
       <c r="R3" s="22"/>
@@ -4104,53 +4260,50 @@
       <c r="T3" s="22"/>
       <c r="U3" s="23"/>
       <c r="V3" s="15" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="W3" s="16"/>
       <c r="X3" s="24" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Y3" s="25"/>
       <c r="Z3" s="25"/>
       <c r="AA3" s="25"/>
       <c r="AB3" s="26" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AC3" s="19" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AD3" s="21" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AE3" s="22"/>
       <c r="AF3" s="22"/>
       <c r="AG3" s="22"/>
     </row>
-    <row r="4" s="27" customFormat="1" ht="19.850000000000001" customHeight="1">
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
+    <row r="4" s="27" customFormat="1" ht="19.75" customHeight="1">
       <c r="E4" s="28" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F4" s="29"/>
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
       <c r="I4" s="30" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J4" s="31" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K4" s="32" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L4" s="33"/>
       <c r="M4" s="33"/>
       <c r="N4" s="33"/>
       <c r="O4" s="33"/>
       <c r="P4" s="34" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Q4" s="35"/>
       <c r="R4" s="35"/>
@@ -4158,118 +4311,118 @@
       <c r="T4" s="35"/>
       <c r="U4" s="36"/>
       <c r="V4" s="28" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="W4" s="29"/>
       <c r="X4" s="30" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Y4" s="37"/>
       <c r="Z4" s="37"/>
       <c r="AA4" s="37"/>
       <c r="AB4" s="31" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AC4" s="32" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AD4" s="34" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AE4" s="35"/>
       <c r="AF4" s="35"/>
       <c r="AG4" s="35"/>
     </row>
-    <row r="5" ht="14.25">
+    <row r="5">
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="38" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F5" s="39" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H5" s="40" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I5" s="41" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J5" s="42" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K5" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="L5" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="M5" s="44" t="s">
-        <v>63</v>
-      </c>
       <c r="N5" s="44" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O5" s="44" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P5" s="45" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Q5" s="46" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R5" s="46" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="S5" s="46" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T5" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="U5" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="V5" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="U5" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="V5" s="38" t="s">
-        <v>71</v>
-      </c>
       <c r="W5" s="39" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="X5" s="41" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Y5" s="41" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="Z5" s="41" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AA5" s="41" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="AB5" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC5" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="AC5" s="48" t="s">
-        <v>78</v>
-      </c>
       <c r="AD5" s="45" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AE5" s="46" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AF5" s="46" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AG5" s="46" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" s="49" customFormat="1" ht="19.5" customHeight="1">
@@ -4283,431 +4436,431 @@
         <v>29</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E6" s="51" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H6" s="52" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I6" s="53" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J6" s="54" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K6" s="55" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L6" s="56" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M6" s="56" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="N6" s="56" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O6" s="56" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="P6" s="57" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Q6" s="58" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="R6" s="58" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="S6" s="58" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="T6" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="U6" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="V6" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="U6" s="59" t="s">
-        <v>98</v>
-      </c>
-      <c r="V6" s="51" t="s">
-        <v>94</v>
-      </c>
       <c r="W6" s="8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X6" s="53" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Y6" s="53" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="Z6" s="53" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AA6" s="53" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AB6" s="60" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AC6" s="61" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AD6" s="57" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AE6" s="58" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AF6" s="58" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AG6" s="58" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A7" s="10" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D7" s="62"/>
       <c r="E7" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F7" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G7" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H7" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I7" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J7" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K7" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L7" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M7" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="N7" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="O7" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="P7" s="64" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q7" s="64" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="R7" s="64"/>
       <c r="S7" s="64"/>
       <c r="T7" s="64"/>
       <c r="U7" s="64"/>
       <c r="V7" s="64" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="W7" s="64" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="X7" s="64" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Y7" s="64" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Z7" s="64" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AA7" s="64" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AB7" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AC7" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AD7" s="64" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AE7" s="64" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AF7" s="64" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AG7" s="64" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A8" s="10" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D8" s="62"/>
       <c r="E8" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F8" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G8" s="63" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H8" s="63" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I8" s="63" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J8" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K8" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L8" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M8" s="63"/>
       <c r="N8" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="O8" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="P8" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q8" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="R8" s="64"/>
       <c r="S8" s="63"/>
       <c r="T8" s="63"/>
       <c r="U8" s="63"/>
       <c r="V8" s="63" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="W8" s="63" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="X8" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Y8" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Z8" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AA8" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AB8" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AC8" s="63" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AD8" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AE8" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AF8" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AG8" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A9" s="10" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D9" s="62"/>
       <c r="E9" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F9" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G9" s="63" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H9" s="63" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I9" s="63" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J9" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K9" s="63" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L9" s="63" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M9" s="63"/>
       <c r="N9" s="63" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="O9" s="63"/>
       <c r="P9" s="63" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q9" s="63" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="R9" s="63" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="S9" s="63" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="T9" s="63" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="U9" s="63" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="V9" s="63" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="W9" s="63" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="X9" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Y9" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Z9" s="63" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AA9" s="63" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AB9" s="63" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AC9" s="63" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AD9" s="63" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AE9" s="63" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AF9" s="63" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AG9" s="63" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A10" s="10" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D10" s="62" t="str">
         <f>A9</f>
         <v>student</v>
       </c>
       <c r="E10" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F10" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G10" s="63" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H10" s="63" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I10" s="63" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J10" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K10" s="63" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L10" s="63" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M10" s="63"/>
       <c r="N10" s="63" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="O10" s="63"/>
       <c r="P10" s="63" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q10" s="63" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="R10" s="63" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="S10" s="63" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="T10" s="63" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="U10" s="63" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="V10" s="63"/>
       <c r="W10" s="63"/>
@@ -4717,7 +4870,7 @@
       <c r="AA10" s="63"/>
       <c r="AB10" s="63"/>
       <c r="AC10" s="63" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AD10" s="63"/>
       <c r="AE10" s="63"/>
@@ -4750,30 +4903,30 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="4" tint="0"/>
+    <tabColor theme="4"/>
     <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0" zoomScale="100">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showGridLines="0" workbookViewId="0" zoomScale="180">
+      <selection activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.421875"/>
-    <col customWidth="1" min="2" max="2" width="13.140625"/>
-    <col customWidth="1" min="3" max="3" width="19.8515625"/>
-    <col customWidth="1" min="4" max="4" width="11.00390625"/>
-    <col customWidth="1" min="5" max="5" width="12.421875"/>
-    <col bestFit="1" customWidth="1" min="6" max="6" width="24.78125"/>
-    <col bestFit="1" min="7" max="7" width="9.140625"/>
-    <col customWidth="1" min="9" max="9" width="14.00390625"/>
-    <col customWidth="1" min="10" max="10" width="36.57421875"/>
-    <col customWidth="1" min="11" max="11" width="16.57421875"/>
+    <col customWidth="1" min="1" max="1" width="12.5"/>
+    <col customWidth="1" min="2" max="2" width="13.1640625"/>
+    <col customWidth="1" min="3" max="3" width="19.83203125"/>
+    <col customWidth="1" min="4" max="4" width="11"/>
+    <col customWidth="1" min="5" max="5" width="12.5"/>
+    <col bestFit="1" customWidth="1" min="6" max="6" width="24.83203125"/>
+    <col bestFit="1" min="7" max="7" width="9.1640625"/>
+    <col customWidth="1" min="9" max="9" width="14"/>
+    <col customWidth="1" min="10" max="10" width="50.8515625"/>
+    <col customWidth="1" min="11" max="11" width="16.5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25">
+    <row r="1">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -4781,28 +4934,28 @@
         <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1">
@@ -4813,39 +4966,39 @@
         <v>28</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H2" s="65" t="s">
         <v>30</v>
       </c>
       <c r="I2" s="66" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="J2" s="67" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>12</v>
@@ -4854,30 +5007,30 @@
         <v>36526</v>
       </c>
       <c r="F3" s="69" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H3" s="63" t="s">
         <v>34</v>
       </c>
       <c r="I3" s="63" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="J3" s="70" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>12</v>
@@ -4886,30 +5039,30 @@
         <v>34781</v>
       </c>
       <c r="F4" s="69" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H4" s="63" t="s">
         <v>34</v>
       </c>
       <c r="I4" s="63" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J4" s="70" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A5" s="71" t="s">
-        <v>145</v>
-      </c>
-      <c r="B5" s="72" t="s">
-        <v>146</v>
-      </c>
-      <c r="C5" s="72" t="s">
-        <v>116</v>
+      <c r="A5" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>119</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>12</v>
@@ -4917,31 +5070,31 @@
       <c r="E5" s="68">
         <v>39205</v>
       </c>
-      <c r="F5" s="73" t="s">
-        <v>147</v>
+      <c r="F5" s="69" t="s">
+        <v>150</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H5" s="63" t="s">
         <v>34</v>
       </c>
       <c r="I5" s="63" t="s">
-        <v>148</v>
-      </c>
-      <c r="J5" s="70" t="s">
-        <v>149</v>
+        <v>151</v>
+      </c>
+      <c r="J5" s="71" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="6" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A6" s="71" t="s">
-        <v>150</v>
-      </c>
-      <c r="B6" s="72" t="s">
-        <v>151</v>
-      </c>
-      <c r="C6" s="72" t="s">
-        <v>152</v>
+      <c r="A6" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>155</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>13</v>
@@ -4949,31 +5102,31 @@
       <c r="E6" s="68">
         <v>39156</v>
       </c>
-      <c r="F6" s="73" t="s">
-        <v>153</v>
+      <c r="F6" s="69" t="s">
+        <v>156</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H6" s="63" t="s">
         <v>34</v>
       </c>
       <c r="I6" s="63" t="s">
-        <v>148</v>
-      </c>
-      <c r="J6" s="70" t="s">
-        <v>149</v>
+        <v>151</v>
+      </c>
+      <c r="J6" s="71" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="7" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A7" s="71" t="s">
-        <v>154</v>
-      </c>
-      <c r="B7" s="72" t="s">
-        <v>155</v>
-      </c>
-      <c r="C7" s="72" t="s">
-        <v>116</v>
+      <c r="A7" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>119</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>13</v>
@@ -4981,31 +5134,31 @@
       <c r="E7" s="68">
         <v>42171</v>
       </c>
-      <c r="F7" s="73" t="s">
-        <v>156</v>
+      <c r="F7" s="69" t="s">
+        <v>159</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H7" s="63" t="s">
         <v>34</v>
       </c>
       <c r="I7" s="63" t="s">
-        <v>148</v>
-      </c>
-      <c r="J7" s="70" t="s">
-        <v>157</v>
+        <v>151</v>
+      </c>
+      <c r="J7" s="71" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="8" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A8" s="71" t="s">
-        <v>158</v>
-      </c>
-      <c r="B8" s="72" t="s">
-        <v>159</v>
-      </c>
-      <c r="C8" s="72" t="s">
-        <v>152</v>
+      <c r="A8" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>155</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>12</v>
@@ -5013,31 +5166,31 @@
       <c r="E8" s="68">
         <v>42237</v>
       </c>
-      <c r="F8" s="73" t="s">
-        <v>160</v>
+      <c r="F8" s="69" t="s">
+        <v>163</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H8" s="63" t="s">
         <v>34</v>
       </c>
       <c r="I8" s="63" t="s">
-        <v>148</v>
-      </c>
-      <c r="J8" s="70" t="s">
-        <v>157</v>
+        <v>151</v>
+      </c>
+      <c r="J8" s="71" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="9" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A9" s="71" t="s">
-        <v>161</v>
-      </c>
-      <c r="B9" s="72" t="s">
-        <v>162</v>
-      </c>
-      <c r="C9" s="72" t="s">
-        <v>163</v>
+      <c r="A9" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>166</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>13</v>
@@ -5045,45 +5198,213 @@
       <c r="E9" s="68">
         <v>27791</v>
       </c>
-      <c r="F9" s="73" t="s">
-        <v>164</v>
+      <c r="F9" s="69" t="s">
+        <v>167</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H9" s="63" t="s">
         <v>34</v>
       </c>
       <c r="I9" s="63" t="s">
-        <v>165</v>
-      </c>
-      <c r="J9" s="70" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25">
-      <c r="A10" s="74"/>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="74"/>
-    </row>
-    <row r="11" ht="14.25">
-      <c r="A11" s="74"/>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
+        <v>168</v>
+      </c>
+      <c r="J9" s="71" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="68">
+        <v>38718</v>
+      </c>
+      <c r="F10" s="72" t="s">
+        <v>173</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="H10" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="J10" s="71" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="68">
+        <v>38749</v>
+      </c>
+      <c r="F11" s="72" t="s">
+        <v>178</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="H11" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="J11" s="71" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" s="14" customFormat="1">
+      <c r="A12" s="73" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="68">
+        <v>38777</v>
+      </c>
+      <c r="F12" s="72" t="s">
+        <v>182</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="H12" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="J12" s="71" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" s="14" customFormat="1">
+      <c r="A13" s="73" t="s">
+        <v>183</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="68">
+        <v>38808</v>
+      </c>
+      <c r="F13" s="72" t="s">
+        <v>186</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="H13" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="J13" s="71" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" s="14" customFormat="1">
+      <c r="A14" s="73" t="s">
+        <v>187</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="68">
+        <v>38838</v>
+      </c>
+      <c r="F14" s="72" t="s">
+        <v>190</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="H14" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="J14" s="71" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" s="14" customFormat="1">
+      <c r="A15" s="73" t="s">
+        <v>191</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="68">
+        <v>38869</v>
+      </c>
+      <c r="F15" s="72" t="s">
+        <v>194</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="H15" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="J15" s="71" t="s">
+        <v>174</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5092,6 +5413,12 @@
     <hyperlink r:id="rId3" ref="F5"/>
     <hyperlink r:id="rId4" ref="F7"/>
     <hyperlink r:id="rId5" ref="F9"/>
+    <hyperlink r:id="rId6" ref="F10"/>
+    <hyperlink r:id="rId7" ref="F11"/>
+    <hyperlink r:id="rId8" ref="F12"/>
+    <hyperlink r:id="rId9" ref="F13"/>
+    <hyperlink r:id="rId10" ref="F14"/>
+    <hyperlink r:id="rId11" ref="F15"/>
   </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -5099,48 +5426,12 @@
   <headerFooter/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00FE0017-0000-430B-AFF1-00E1000800DF}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1" disablePrompts="0">
+        <x14:dataValidation xr:uid="{00DF0011-00C4-4DAC-8936-0003004200CA}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
-          <xm:sqref>D3</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00FF00E0-0045-4FC5-9A6D-001F00AF00BB}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>GENRE_ANSWER</xm:f>
-          </x14:formula1>
-          <xm:sqref>D4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00000025-00E4-493C-B072-00B900B100B9}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>GENRE_ANSWER</xm:f>
-          </x14:formula1>
-          <xm:sqref>D5</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0097002B-0050-4D55-8010-003200550034}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>GENRE_ANSWER</xm:f>
-          </x14:formula1>
-          <xm:sqref>D6</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00D50096-00F6-4850-AFCE-002400CA00A3}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>GENRE_ANSWER</xm:f>
-          </x14:formula1>
-          <xm:sqref>D7</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00400066-007C-426D-8101-008500040038}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>GENRE_ANSWER</xm:f>
-          </x14:formula1>
-          <xm:sqref>D8</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00140014-0084-4F6C-BF9E-00870058001E}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>GENRE_ANSWER</xm:f>
-          </x14:formula1>
-          <xm:sqref>D9</xm:sqref>
+          <xm:sqref>D3:D15</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5160,61 +5451,46 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.8515625"/>
-    <col customWidth="1" min="2" max="2" width="17.421875"/>
+    <col customWidth="1" min="1" max="1" width="10.83203125"/>
+    <col customWidth="1" min="2" max="2" width="17.5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25">
+    <row r="1">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" ht="22.100000000000001" customHeight="1">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" ht="22" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="76" t="s">
-        <v>168</v>
+      <c r="B2" s="74" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3" s="77" t="str">
+        <v>121</v>
+      </c>
+      <c r="B3" s="71" t="str">
         <f>profiles!$A$10</f>
         <v>guardian</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
     </row>
     <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B4" s="77" t="str">
+        <v>118</v>
+      </c>
+      <c r="B4" s="71" t="str">
         <f>profiles!$A$9</f>
         <v>student</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" ht="14.25"/>
-    <row r="6" ht="14.25"/>
-    <row r="7" ht="14.25"/>
-    <row r="8" ht="14.25"/>
-    <row r="9" ht="14.25"/>
+    </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -5235,12 +5511,12 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="14.8515625"/>
-    <col customWidth="1" min="3" max="3" width="61.140625"/>
-    <col customWidth="1" min="4" max="4" width="21.57421875"/>
-    <col customWidth="1" min="5" max="5" width="33.57421875"/>
+    <col customWidth="1" min="2" max="2" width="14.83203125"/>
+    <col customWidth="1" min="3" max="3" width="61.1640625"/>
+    <col customWidth="1" min="4" max="4" width="21.5"/>
+    <col customWidth="1" min="5" max="5" width="33.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5251,50 +5527,49 @@
         <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="2" ht="24.350000000000001" customHeight="1">
-      <c r="A2" s="78" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" ht="24.25" customHeight="1">
+      <c r="A2" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="80" t="s">
-        <v>172</v>
-      </c>
-      <c r="D2" s="76" t="s">
-        <v>173</v>
+      <c r="C2" s="77" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="74" t="s">
+        <v>201</v>
       </c>
       <c r="E2" s="67" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="C3" s="77" t="s">
-        <v>177</v>
-      </c>
-      <c r="D3" s="81" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" s="71" t="s">
+        <v>205</v>
+      </c>
+      <c r="D3" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="77" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="4"/>
+      <c r="E3" s="71" t="s">
+        <v>206</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -5303,7 +5578,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1" disablePrompts="0">
-        <x14:dataValidation xr:uid="{002E006C-000A-4DD4-B43C-00460050002F}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00EF00C7-00DE-41B2-85DF-0097002A005A}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GUARDIANS_RELATIONSHIPS</xm:f>
           </x14:formula1>
@@ -5323,19 +5598,19 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView workbookViewId="0" zoomScale="160">
+      <selection activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="18.7109375"/>
-    <col customWidth="1" min="5" max="5" width="13.7109375"/>
-    <col customWidth="1" min="6" max="6" width="19.421875"/>
-    <col customWidth="1" min="7" max="7" width="25.140625"/>
+    <col customWidth="1" min="2" max="2" width="18.6640625"/>
+    <col customWidth="1" min="5" max="5" width="13.6640625"/>
+    <col customWidth="1" min="6" max="6" width="19.5"/>
+    <col customWidth="1" min="7" max="7" width="25.1640625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25">
+    <row r="1">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -5343,52 +5618,52 @@
         <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25">
-      <c r="A2" s="78" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" ht="16">
+      <c r="A2" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="82" t="s">
-        <v>184</v>
-      </c>
-      <c r="E2" s="82" t="s">
-        <v>185</v>
-      </c>
-      <c r="F2" s="82" t="s">
-        <v>186</v>
-      </c>
-      <c r="G2" s="82" t="s">
-        <v>187</v>
+      <c r="C2" s="80" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="79" t="s">
+        <v>212</v>
+      </c>
+      <c r="E2" s="79" t="s">
+        <v>213</v>
+      </c>
+      <c r="F2" s="79" t="s">
+        <v>214</v>
+      </c>
+      <c r="G2" s="79" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="3" ht="146.25" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" s="77" t="str">
+        <v>217</v>
+      </c>
+      <c r="C3" s="71" t="str">
         <f>centers!$A$3</f>
         <v>centerA</v>
       </c>
@@ -5398,14 +5673,37 @@
       <c r="E3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="84" t="s">
-        <v>190</v>
-      </c>
-      <c r="G3" s="85">
+      <c r="F3" s="81" t="s">
+        <v>218</v>
+      </c>
+      <c r="G3" s="82">
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="14.25"/>
+    <row r="4" s="14" customFormat="1" ht="146.25" customHeight="1">
+      <c r="A4" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" s="71" t="str">
+        <f>centers!$A$5</f>
+        <v>centerC</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="81" t="s">
+        <v>218</v>
+      </c>
+      <c r="G4" s="82">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -5414,17 +5712,17 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00D900DC-00FA-414A-8478-00BE00A900FF}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00540080-0021-4711-8567-00DB00340041}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GRADES_TYPES</xm:f>
           </x14:formula1>
-          <xm:sqref>D3</xm:sqref>
+          <xm:sqref>D3:D4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{009B00F3-005E-449D-B955-0087008C00BB}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00E0009E-00BA-4DF8-BAE3-002700E10015}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
-          <xm:sqref>E3</xm:sqref>
+          <xm:sqref>E3:E4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5435,7 +5733,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="7" tint="0"/>
+    <tabColor theme="7"/>
     <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
@@ -5444,9 +5742,9 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="14.8515625"/>
+    <col customWidth="1" min="2" max="2" width="14.83203125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5454,31 +5752,31 @@
         <v>23</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" ht="22.100000000000001" customHeight="1">
-      <c r="A2" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" ht="22" customHeight="1">
+      <c r="A2" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="80" t="s">
-        <v>168</v>
+      <c r="B2" s="77" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="77" t="str">
+        <v>112</v>
+      </c>
+      <c r="B3" s="71" t="str">
         <f>profiles!$A$8</f>
         <v>teacher</v>
       </c>
     </row>
     <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B4" s="77" t="str">
+        <v>118</v>
+      </c>
+      <c r="B4" s="71" t="str">
         <f>profiles!$A$9</f>
         <v>student</v>
       </c>
@@ -5494,37 +5792,36 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="7" tint="0"/>
+    <tabColor theme="7"/>
     <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="O1" workbookViewId="0" zoomScale="100">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B4" xSplit="1" ySplit="3"/>
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showGridLines="0" topLeftCell="E1" workbookViewId="0" zoomScale="140">
+      <selection activeCell="K8" activeCellId="0" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.00390625"/>
-    <col customWidth="1" min="2" max="2" width="19.140625"/>
-    <col customWidth="1" min="3" max="3" width="12.00390625"/>
-    <col customWidth="1" min="5" max="6" width="11.140625"/>
-    <col customWidth="1" min="7" max="7" width="9.57421875"/>
-    <col customWidth="1" min="8" max="8" width="9.00390625"/>
-    <col customWidth="1" min="9" max="9" width="11.8515625"/>
-    <col customWidth="1" min="10" max="11" width="17.00390625"/>
-    <col customWidth="1" min="12" max="12" width="12.421875"/>
-    <col customWidth="1" min="13" max="13" width="12.140625"/>
-    <col customWidth="1" min="14" max="14" width="17.00390625"/>
-    <col customWidth="1" min="15" max="15" width="14.8515625"/>
-    <col customWidth="1" min="16" max="16" width="13.00390625"/>
-    <col customWidth="1" min="17" max="19" width="14.7109375"/>
-    <col customWidth="1" min="20" max="20" width="15.8515625"/>
-    <col customWidth="1" min="21" max="21" width="15.28125"/>
-    <col customWidth="1" min="22" max="22" width="12.8515625"/>
-    <col customWidth="1" min="23" max="23" width="14.140625"/>
-    <col customWidth="1" min="24" max="24" width="18.140625"/>
+    <col customWidth="1" min="1" max="1" width="11"/>
+    <col customWidth="1" min="2" max="2" width="19.1640625"/>
+    <col customWidth="1" min="3" max="3" width="12"/>
+    <col customWidth="1" min="5" max="6" width="11.1640625"/>
+    <col customWidth="1" min="7" max="7" width="9.5"/>
+    <col customWidth="1" min="8" max="8" width="9"/>
+    <col customWidth="1" min="9" max="9" width="11.83203125"/>
+    <col customWidth="1" min="10" max="11" width="17"/>
+    <col customWidth="1" min="12" max="12" width="12.5"/>
+    <col customWidth="1" min="13" max="13" width="12.1640625"/>
+    <col customWidth="1" min="14" max="14" width="17"/>
+    <col customWidth="1" min="15" max="15" width="14.83203125"/>
+    <col customWidth="1" min="16" max="16" width="13"/>
+    <col customWidth="1" min="17" max="19" width="14.6640625"/>
+    <col customWidth="1" min="20" max="20" width="15.83203125"/>
+    <col customWidth="1" min="21" max="21" width="15.33203125"/>
+    <col customWidth="1" min="22" max="22" width="12.83203125"/>
+    <col customWidth="1" min="23" max="23" width="14.1640625"/>
+    <col customWidth="1" min="24" max="24" width="18.1640625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5535,70 +5832,70 @@
         <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
@@ -5617,123 +5914,120 @@
       <c r="AM1" s="5"/>
       <c r="AN1" s="5"/>
     </row>
-    <row r="2" s="9" customFormat="1" ht="23.600000000000001" customHeight="1">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="F2" s="86" t="s">
-        <v>212</v>
-      </c>
-      <c r="G2" s="86"/>
-      <c r="H2" s="87" t="s">
-        <v>213</v>
-      </c>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="90" t="s">
-        <v>214</v>
-      </c>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="91" t="s">
-        <v>215</v>
-      </c>
-      <c r="S2" s="92"/>
-      <c r="T2" s="92"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="94" t="s">
-        <v>216</v>
-      </c>
-      <c r="W2" s="95"/>
-      <c r="X2" s="95"/>
-    </row>
-    <row r="3" ht="34.100000000000001" customHeight="1">
-      <c r="A3" s="96" t="s">
+    <row r="2" s="9" customFormat="1" ht="23.5" customHeight="1">
+      <c r="F2" s="83" t="s">
+        <v>242</v>
+      </c>
+      <c r="G2" s="83"/>
+      <c r="H2" s="84" t="s">
+        <v>243</v>
+      </c>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="87" t="s">
+        <v>244</v>
+      </c>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="88" t="s">
+        <v>245</v>
+      </c>
+      <c r="S2" s="89"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="90"/>
+      <c r="V2" s="91" t="s">
+        <v>246</v>
+      </c>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+    </row>
+    <row r="3" ht="34" customHeight="1">
+      <c r="A3" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="97" t="s">
-        <v>217</v>
-      </c>
-      <c r="D3" s="98" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" s="99" t="s">
-        <v>218</v>
-      </c>
-      <c r="F3" s="100" t="s">
-        <v>219</v>
-      </c>
-      <c r="G3" s="101" t="s">
-        <v>220</v>
-      </c>
-      <c r="H3" s="102" t="s">
-        <v>221</v>
-      </c>
-      <c r="I3" s="103" t="s">
-        <v>222</v>
-      </c>
-      <c r="J3" s="104" t="s">
-        <v>223</v>
-      </c>
-      <c r="K3" s="104" t="s">
-        <v>224</v>
-      </c>
-      <c r="L3" s="104" t="s">
-        <v>225</v>
-      </c>
-      <c r="M3" s="104" t="s">
-        <v>226</v>
-      </c>
-      <c r="N3" s="104" t="s">
-        <v>227</v>
-      </c>
-      <c r="O3" s="105" t="s">
-        <v>228</v>
-      </c>
-      <c r="P3" s="106" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q3" s="107" t="s">
-        <v>227</v>
-      </c>
-      <c r="R3" s="108" t="s">
-        <v>229</v>
-      </c>
-      <c r="S3" s="109" t="s">
-        <v>230</v>
-      </c>
-      <c r="T3" s="109" t="s">
-        <v>226</v>
-      </c>
-      <c r="U3" s="109" t="s">
-        <v>227</v>
-      </c>
-      <c r="V3" s="110" t="s">
-        <v>226</v>
-      </c>
-      <c r="W3" s="111" t="s">
-        <v>231</v>
-      </c>
-      <c r="X3" s="112" t="s">
-        <v>232</v>
+      <c r="C3" s="94" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3" s="95" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="96" t="s">
+        <v>248</v>
+      </c>
+      <c r="F3" s="97" t="s">
+        <v>249</v>
+      </c>
+      <c r="G3" s="98" t="s">
+        <v>250</v>
+      </c>
+      <c r="H3" s="99" t="s">
+        <v>251</v>
+      </c>
+      <c r="I3" s="100" t="s">
+        <v>252</v>
+      </c>
+      <c r="J3" s="101" t="s">
+        <v>253</v>
+      </c>
+      <c r="K3" s="101" t="s">
+        <v>254</v>
+      </c>
+      <c r="L3" s="101" t="s">
+        <v>255</v>
+      </c>
+      <c r="M3" s="101" t="s">
+        <v>256</v>
+      </c>
+      <c r="N3" s="101" t="s">
+        <v>257</v>
+      </c>
+      <c r="O3" s="102" t="s">
+        <v>258</v>
+      </c>
+      <c r="P3" s="103" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q3" s="104" t="s">
+        <v>257</v>
+      </c>
+      <c r="R3" s="105" t="s">
+        <v>259</v>
+      </c>
+      <c r="S3" s="106" t="s">
+        <v>260</v>
+      </c>
+      <c r="T3" s="106" t="s">
+        <v>256</v>
+      </c>
+      <c r="U3" s="106" t="s">
+        <v>257</v>
+      </c>
+      <c r="V3" s="107" t="s">
+        <v>256</v>
+      </c>
+      <c r="W3" s="108" t="s">
+        <v>261</v>
+      </c>
+      <c r="X3" s="109" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="D4" s="62" t="str">
         <f>centers!$A$3</f>
@@ -5756,7 +6050,7 @@
       <c r="J4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="113"/>
+      <c r="K4" s="110"/>
       <c r="L4" s="63"/>
       <c r="M4" s="63"/>
       <c r="N4" s="63"/>
@@ -5791,13 +6085,13 @@
     </row>
     <row r="5" s="9" customFormat="1" ht="28.5">
       <c r="A5" s="10" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="D5" s="62" t="str">
         <f>centers!$A$4</f>
@@ -5822,8 +6116,8 @@
       <c r="J5" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="113" t="s">
-        <v>239</v>
+      <c r="K5" s="110" t="s">
+        <v>269</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>2</v>
@@ -5863,6 +6157,78 @@
       </c>
       <c r="X5" s="63" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="6" s="9" customFormat="1" ht="28.5">
+      <c r="A6" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="D6" s="62" t="str">
+        <f>centers!$A$5</f>
+        <v>centerC</v>
+      </c>
+      <c r="E6" s="62" t="str">
+        <f>ar_evaluations!A4</f>
+        <v>gradeC</v>
+      </c>
+      <c r="F6" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="63">
+        <v>0</v>
+      </c>
+      <c r="H6" s="63">
+        <v>4</v>
+      </c>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="110" t="s">
+        <v>272</v>
+      </c>
+      <c r="L6" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" s="63">
+        <v>4</v>
+      </c>
+      <c r="N6" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="R6" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="S6" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="T6" s="63">
+        <v>3</v>
+      </c>
+      <c r="U6" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="V6" s="63">
+        <v>3</v>
+      </c>
+      <c r="W6" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="X6" s="63" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -5879,84 +6245,18 @@
   <headerFooter/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="13" disablePrompts="0">
-        <x14:dataValidation xr:uid="{001900BD-00B2-42E0-9220-00A90004007B}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2" disablePrompts="0">
+        <x14:dataValidation xr:uid="{00CF00B3-00BD-4795-8B4D-000B007C001E}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
-          <xm:sqref>X4</xm:sqref>
+          <xm:sqref>J4:J6 F4:F6 S4 U4:U6 W4:X6</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{007A00D8-0034-4100-93F7-00E4004300DA}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>BOOLEAN_ANSWER</xm:f>
-          </x14:formula1>
-          <xm:sqref>X5</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{006C00A0-0050-44D5-84CF-00B600C90022}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>BOOLEAN_ANSWER</xm:f>
-          </x14:formula1>
-          <xm:sqref>W4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00020058-0085-4FF7-AE1A-005D00DC0061}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>BOOLEAN_ANSWER</xm:f>
-          </x14:formula1>
-          <xm:sqref>W5</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00C7004F-00FA-4156-8001-0074007900E1}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>BOOLEAN_ANSWER</xm:f>
-          </x14:formula1>
-          <xm:sqref>U4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00E8005D-0027-4783-A231-006B007F00C8}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>BOOLEAN_ANSWER</xm:f>
-          </x14:formula1>
-          <xm:sqref>U5</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00E000E4-0061-4C18-A73A-00FD00E70007}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>BOOLEAN_ANSWER</xm:f>
-          </x14:formula1>
-          <xm:sqref>S4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00DC0053-0028-460F-8461-002300F300C1}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>BOOLEAN_ANSWER</xm:f>
-          </x14:formula1>
-          <xm:sqref>F4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00D300BC-008C-4BF0-BCF8-00EE0012006E}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>BOOLEAN_ANSWER</xm:f>
-          </x14:formula1>
-          <xm:sqref>F5</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00A8004E-00C5-4E63-B8D5-00BA00F600F7}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>BOOLEAN_ANSWER</xm:f>
-          </x14:formula1>
-          <xm:sqref>J4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00C4004B-00AE-44E7-9EF0-00EE0052005F}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>BOOLEAN_ANSWER</xm:f>
-          </x14:formula1>
-          <xm:sqref>J5</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{005D0019-009A-4C6D-AFE9-007E00B900F5}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00BA005A-00AD-436E-B0FB-0008000A00DC}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>SUBSTAGES_FRECUENCY</xm:f>
           </x14:formula1>
-          <xm:sqref>L4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{007200DB-0080-48C0-829D-001A00DB0016}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>SUBSTAGES_FRECUENCY</xm:f>
-          </x14:formula1>
-          <xm:sqref>L5</xm:sqref>
+          <xm:sqref>L4:L6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/packages/leemons-plugin-mvp-template/src/bulk/data.xlsx
+++ b/packages/leemons-plugin-mvp-template/src/bulk/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="6"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" state="visible" r:id="rId1"/>
@@ -20,18 +20,18 @@
     <sheet name="ap_subjects" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="SUBSTAGES_FRECUENCY" hidden="0">DB!$A$2:$A$8</definedName>
-    <definedName name="BOOLEAN_ANSWER" hidden="0">DB!$A$11:$A$12</definedName>
-    <definedName name="GENRE_ANSWER" hidden="0">DB!$A$15:$A$16</definedName>
-    <definedName name="GUARDIANS_RELATIONSHIPS" hidden="0">DB!$A$19:$A$23</definedName>
-    <definedName name="GRADES_TYPES" hidden="0">DB!$A$26:$A$27</definedName>
+    <definedName name="BOOLEAN_ANSWER">DB!$A$11:$A$12</definedName>
+    <definedName name="GENRE_ANSWER">DB!$A$15:$A$16</definedName>
+    <definedName name="GRADES_TYPES">DB!$A$26:$A$27</definedName>
+    <definedName name="GUARDIANS_RELATIONSHIPS">DB!$A$19:$A$23</definedName>
+    <definedName name="SUBSTAGES_FRECUENCY">DB!$A$2:$A$8</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="354">
   <si>
     <t xml:space="preserve">Substages frecuency</t>
   </si>
@@ -147,6 +147,15 @@
     <t xml:space="preserve">High school only to perform the tests</t>
   </si>
   <si>
+    <t>centerC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Padre Piquer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centro Educativo Padre Piquer</t>
+  </si>
+  <si>
     <t>accessTo</t>
   </si>
   <si>
@@ -450,7 +459,7 @@
     <t>Admin,Test</t>
   </si>
   <si>
-    <t xml:space="preserve">admin@centerA, admin@centerB</t>
+    <t xml:space="preserve">admin@centerA, admin@centerB, admin@centerC</t>
   </si>
   <si>
     <t>teacher01</t>
@@ -465,7 +474,7 @@
     <t>Teacher,Test</t>
   </si>
   <si>
-    <t xml:space="preserve">teacher@centerA, teacher@centerB</t>
+    <t xml:space="preserve">teacher@centerA, teacher@centerB, teacher@centerC</t>
   </si>
   <si>
     <t>studentA01</t>
@@ -534,6 +543,81 @@
     <t xml:space="preserve">guardian@centerA, guardian@centerB</t>
   </si>
   <si>
+    <t>studentC01</t>
+  </si>
+  <si>
+    <t>María</t>
+  </si>
+  <si>
+    <t>Rodriguez</t>
+  </si>
+  <si>
+    <t>student+maria@leemons.io</t>
+  </si>
+  <si>
+    <t>student@centerC</t>
+  </si>
+  <si>
+    <t>studentC02</t>
+  </si>
+  <si>
+    <t>Paz</t>
+  </si>
+  <si>
+    <t>Serrano</t>
+  </si>
+  <si>
+    <t>student+paz@leemons.io</t>
+  </si>
+  <si>
+    <t>studentC03</t>
+  </si>
+  <si>
+    <t>Joaquin</t>
+  </si>
+  <si>
+    <t>González</t>
+  </si>
+  <si>
+    <t>student+joaquin@leemons.io</t>
+  </si>
+  <si>
+    <t>studentC04</t>
+  </si>
+  <si>
+    <t>Elena</t>
+  </si>
+  <si>
+    <t>Murillo</t>
+  </si>
+  <si>
+    <t>student+elena@leemons.io</t>
+  </si>
+  <si>
+    <t>studentC05</t>
+  </si>
+  <si>
+    <t>Ignacio</t>
+  </si>
+  <si>
+    <t>Díez</t>
+  </si>
+  <si>
+    <t>student+ignacio@leemons.io</t>
+  </si>
+  <si>
+    <t>studentC06</t>
+  </si>
+  <si>
+    <t>Álvaro</t>
+  </si>
+  <si>
+    <t>Ferrandis</t>
+  </si>
+  <si>
+    <t>student+alvaro@leemons.io</t>
+  </si>
+  <si>
     <t>profile</t>
   </si>
   <si>
@@ -600,12 +684,18 @@
     <t>gradeA</t>
   </si>
   <si>
+    <t xml:space="preserve">High grades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN|1|Insuficiente, IN|2|Insuficiente, IN|3|Insuficiente, IN|4|Insuficiente, SU|5|Suficiente, BI|6|Bien, NT|7|Notable, NT|8|Notable, SB|9|Sobresaliente, SB|10|Sobresaliente</t>
+  </si>
+  <si>
+    <t>gradeC</t>
+  </si>
+  <si>
     <t xml:space="preserve">ESO grades</t>
   </si>
   <si>
-    <t xml:space="preserve">IN|1|Insuficiente, IN|2|Insuficiente, IN|3|Insuficiente, IN|4|Insuficiente, SU|5|Suficiente, BI|6|Bien, NT|7|Notable, NT|8|Notable, SB|9|Sobresaliente, SB|10|Sobresaliente</t>
-  </si>
-  <si>
     <t>abbreviation</t>
   </si>
   <si>
@@ -753,6 +843,15 @@
     <t xml:space="preserve">Semester 1|S01, Semester 2|S02</t>
   </si>
   <si>
+    <t>programC</t>
+  </si>
+  <si>
+    <t>ESO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1er Semestre|S01, 2º Semestre|S02</t>
+  </si>
+  <si>
     <t>program</t>
   </si>
   <si>
@@ -783,6 +882,12 @@
     <t>Specific</t>
   </si>
   <si>
+    <t>type04</t>
+  </si>
+  <si>
+    <t>Troncal</t>
+  </si>
+  <si>
     <t>color</t>
   </si>
   <si>
@@ -972,7 +1077,22 @@
     <t xml:space="preserve">Social sciences V</t>
   </si>
   <si>
-    <t xml:space="preserve">Sports V</t>
+    <t xml:space="preserve">Geografía e historia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2ºA|2ºA, 2ºB|2ºB</t>
+  </si>
+  <si>
+    <t>#4290f5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teacher01|main@2ºA, teacher01|main@2ºB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lengua Castellana y Literatura</t>
+  </si>
+  <si>
+    <t>#f56c42</t>
   </si>
 </sst>
 </file>
@@ -991,8 +1111,15 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <color theme="10"/>
+      <sz val="11.000000"/>
+      <u/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <b/>
-      <color theme="0" tint="0"/>
+      <color theme="0"/>
       <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
@@ -1018,7 +1145,7 @@
     <font>
       <name val="Calibri"/>
       <i/>
-      <color theme="4" tint="0"/>
+      <color theme="4"/>
       <sz val="9.000000"/>
       <scheme val="minor"/>
     </font>
@@ -1048,13 +1175,6 @@
       <i/>
       <color rgb="FFB472C4"/>
       <sz val="9.000000"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b/>
-      <color theme="1" tint="0"/>
-      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1092,8 +1212,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0"/>
-        <bgColor theme="1" tint="0"/>
+        <fgColor theme="1"/>
+        <bgColor theme="1"/>
       </patternFill>
     </fill>
     <fill>
@@ -1182,8 +1302,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="0"/>
-        <bgColor theme="0" tint="0"/>
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
       </patternFill>
     </fill>
     <fill>
@@ -1233,11 +1353,11 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="0"/>
+        <color theme="0"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="0" tint="0"/>
+        <color theme="0"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1246,7 +1366,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="0" tint="0"/>
+        <color theme="0"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1284,12 +1404,12 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="0"/>
+        <color theme="0"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color theme="0" tint="0"/>
+        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1298,7 +1418,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color theme="0" tint="0"/>
+        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1323,30 +1443,30 @@
     <border>
       <left/>
       <right style="thin">
-        <color theme="0" tint="0"/>
+        <color theme="0"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="0"/>
+        <color theme="0"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="0"/>
+        <color theme="0"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="0"/>
+        <color theme="0"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="0"/>
+        <color theme="0"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="0"/>
+        <color theme="0"/>
       </left>
       <right/>
       <top/>
@@ -1356,7 +1476,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color theme="0" tint="0"/>
+        <color theme="0"/>
       </right>
       <top/>
       <bottom/>
@@ -1364,10 +1484,10 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="0"/>
+        <color theme="0"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="0"/>
+        <color theme="0"/>
       </right>
       <top/>
       <bottom/>
@@ -1397,10 +1517,10 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="0"/>
+        <color theme="0"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="0"/>
+        <color theme="0"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -1423,29 +1543,29 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="0"/>
+        <color theme="0"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="0"/>
+        <color theme="0"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="0"/>
+        <color theme="0"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="0"/>
+        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="0"/>
+        <color theme="0"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="0" tint="0"/>
+        <color theme="0"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="0"/>
+        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1453,54 +1573,55 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="0" tint="0"/>
+        <color theme="0"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="0"/>
+        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color theme="0" tint="0"/>
+        <color theme="0"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="0"/>
+        <color theme="0"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="0"/>
+        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="125">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="2" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left"/>
     </xf>
     <xf fontId="0" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="1" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="2" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="4" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="5" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="4" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="5" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
@@ -1512,352 +1633,340 @@
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="1" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="2" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="5" fillId="7" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="6" fillId="7" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="5" fillId="7" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="6" fillId="7" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="6" fillId="8" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="7" fillId="9" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="8" fillId="10" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="7" fillId="8" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="8" fillId="9" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="9" fillId="10" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="8" fillId="10" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="9" fillId="10" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="9" fillId="11" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="10" fillId="11" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="9" fillId="11" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="10" fillId="11" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="9" fillId="11" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="10" fillId="11" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="6" fillId="8" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="7" fillId="8" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="6" fillId="8" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="7" fillId="8" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="7" fillId="9" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="8" fillId="9" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="7" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="7" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="8" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="9" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="10" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="10" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="11" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="11" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="11" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="8" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="6" fillId="4" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="6" fillId="4" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="6" fillId="4" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="7" fillId="12" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="8" fillId="13" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="9" fillId="14" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="9" fillId="14" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="10" fillId="15" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="10" fillId="15" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="10" fillId="15" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="9" fillId="14" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="16" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="4" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="4" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="12" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="13" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="14" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="14" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="15" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="15" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="15" borderId="18" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="13" borderId="19" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="14" borderId="19" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="20" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="4" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="11" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="16" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="4" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="16" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="17" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="4" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="16" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="7" borderId="21" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="8" borderId="22" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="8" borderId="23" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="8" borderId="24" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="9" borderId="21" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="18" borderId="22" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="18" borderId="23" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="18" borderId="24" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="10" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="16" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="16" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="12" fillId="4" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="12" fillId="4" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="12" fillId="12" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="12" fillId="12" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="12" fillId="12" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="12" fillId="13" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="12" fillId="13" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="12" fillId="13" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="12" fillId="19" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="12" fillId="19" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="12" fillId="14" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="12" fillId="14" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="12" fillId="14" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="4" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="13" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="7" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="7" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="16" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="14" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="14" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf fontId="14" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="7" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="7" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="8" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="9" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="10" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="10" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="11" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="11" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="11" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="8" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="5" fillId="4" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="5" fillId="4" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="5" fillId="4" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="6" fillId="12" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="7" fillId="13" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="8" fillId="14" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="8" fillId="14" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="9" fillId="15" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="9" fillId="15" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="9" fillId="15" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="8" fillId="14" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="10" fillId="16" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="4" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="4" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="12" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="13" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="14" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="14" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="15" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="15" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="15" borderId="18" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="13" borderId="19" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="14" borderId="19" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="20" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="4" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="11" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="11" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="6" numFmtId="0" xfId="0" applyBorder="1">
-      <protection hidden="0" locked="1"/>
-    </xf>
-    <xf fontId="4" fillId="16" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="4" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="16" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="17" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="4" fillId="4" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="4" fillId="16" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="7" borderId="21" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="8" borderId="22" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="8" borderId="23" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="8" borderId="24" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="9" borderId="21" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="18" borderId="22" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="18" borderId="23" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="18" borderId="24" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="10" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="4" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="4" fillId="16" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="4" fillId="16" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="12" fillId="4" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="12" fillId="4" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="12" fillId="12" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="12" fillId="12" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="12" fillId="12" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="12" fillId="13" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="12" fillId="13" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="12" fillId="13" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="12" fillId="19" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="12" fillId="19" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="12" fillId="14" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="12" fillId="14" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="12" fillId="14" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="4" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="4" fillId="4" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="13" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="7" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="7" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="4" fillId="16" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="14" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="14" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf fontId="14" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2363,7 +2472,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="1" tint="0"/>
+    <tabColor theme="1"/>
     <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
@@ -2372,12 +2481,12 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="20.28125"/>
+    <col customWidth="1" min="1" max="1" width="20.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.600000000000001" customHeight="1">
+    <row r="1" ht="20.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2418,7 +2527,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" ht="22.100000000000001" customHeight="1">
+    <row r="10" ht="22" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -2433,63 +2542,62 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" ht="22.100000000000001" customHeight="1">
+    <row r="14" ht="22" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" ht="14.25">
+    <row r="15">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" ht="14.25">
+    <row r="16">
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" ht="14.25">
+    <row r="18">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" ht="14.25">
+    <row r="19">
       <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" ht="14.25">
+    <row r="20">
       <c r="A20" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" ht="14.25">
+    <row r="21">
       <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" ht="14.25">
+    <row r="22">
       <c r="A22" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" ht="14.25">
+    <row r="23">
       <c r="A23" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" ht="14.25"/>
-    <row r="25" ht="14.25">
+    <row r="25">
       <c r="A25" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" ht="14.25">
+    <row r="26">
       <c r="A26" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" ht="14.25">
+    <row r="27">
       <c r="A27" s="3" t="s">
         <v>22</v>
       </c>
@@ -2505,20 +2613,20 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="7" tint="0"/>
+    <tabColor theme="7"/>
     <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0" zoomScale="100">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showGridLines="0" workbookViewId="0" zoomScale="180">
+      <selection activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="11.421875"/>
-    <col customWidth="1" min="4" max="4" width="10.421875"/>
-    <col customWidth="1" min="5" max="5" width="12.421875"/>
+    <col customWidth="1" min="3" max="3" width="11.5"/>
+    <col customWidth="1" min="4" max="4" width="10.5"/>
+    <col customWidth="1" min="5" max="5" width="12.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2529,40 +2637,40 @@
         <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" ht="28.5">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="98" t="s">
-        <v>243</v>
-      </c>
-      <c r="D2" s="114" t="s">
-        <v>220</v>
-      </c>
-      <c r="E2" s="114" t="s">
-        <v>244</v>
+      <c r="C2" s="95" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2" s="111" t="s">
+        <v>250</v>
+      </c>
+      <c r="E2" s="111" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="C3" s="77" t="str">
+        <v>279</v>
+      </c>
+      <c r="C3" s="71" t="str">
         <f>ap_programs!$A$4</f>
         <v>programA</v>
       </c>
@@ -2575,12 +2683,12 @@
     </row>
     <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="C4" s="77" t="str">
+        <v>279</v>
+      </c>
+      <c r="C4" s="71" t="str">
         <f>ap_programs!$A$5</f>
         <v>programB</v>
       </c>
@@ -2593,12 +2701,12 @@
     </row>
     <row r="5" ht="19.5" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="C5" s="77" t="str">
+        <v>282</v>
+      </c>
+      <c r="C5" s="71" t="str">
         <f>ap_programs!$A$4</f>
         <v>programA</v>
       </c>
@@ -2606,6 +2714,24 @@
         <v>0</v>
       </c>
       <c r="E5" s="63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="C6" s="71" t="str">
+        <f>ap_programs!$A$6</f>
+        <v>programC</v>
+      </c>
+      <c r="D6" s="63">
+        <v>0</v>
+      </c>
+      <c r="E6" s="63" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2616,24 +2742,12 @@
   <headerFooter/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3" disablePrompts="0">
-        <x14:dataValidation xr:uid="{000A0033-00F7-481D-BE71-007500D600B1}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1" disablePrompts="0">
+        <x14:dataValidation xr:uid="{00DD00F4-000F-4E54-8BAD-00B500F500E8}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
-          <xm:sqref>E3</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{003200F1-008A-41DE-999E-006F00C20040}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>BOOLEAN_ANSWER</xm:f>
-          </x14:formula1>
-          <xm:sqref>E4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{008B00D4-005B-464E-AF7E-0016009E002A}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>BOOLEAN_ANSWER</xm:f>
-          </x14:formula1>
-          <xm:sqref>E5</xm:sqref>
+          <xm:sqref>E3:E6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2644,7 +2758,7 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="7" tint="0"/>
+    <tabColor theme="7"/>
     <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
@@ -2653,12 +2767,12 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.57421875"/>
-    <col customWidth="1" min="3" max="3" width="10.8515625"/>
-    <col customWidth="1" min="5" max="5" width="13.8515625"/>
-    <col customWidth="1" min="6" max="6" width="10.421875"/>
+    <col customWidth="1" min="1" max="1" width="14.5"/>
+    <col customWidth="1" min="3" max="3" width="10.83203125"/>
+    <col customWidth="1" min="5" max="5" width="13.83203125"/>
+    <col customWidth="1" min="6" max="6" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2669,61 +2783,61 @@
         <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" ht="28.5">
+      <c r="A2" s="112" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="79" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2" s="79" t="s">
+        <v>287</v>
+      </c>
+      <c r="E2" s="79" t="s">
+        <v>288</v>
+      </c>
+      <c r="F2" s="80" t="s">
+        <v>276</v>
+      </c>
+      <c r="G2" s="113" t="s">
         <v>250</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="2" ht="28.5">
-      <c r="A2" s="115" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="82" t="s">
-        <v>217</v>
-      </c>
-      <c r="D2" s="82" t="s">
-        <v>252</v>
-      </c>
-      <c r="E2" s="82" t="s">
-        <v>253</v>
-      </c>
-      <c r="F2" s="83" t="s">
-        <v>243</v>
-      </c>
-      <c r="G2" s="116" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="E3" s="117" t="s">
-        <v>258</v>
-      </c>
-      <c r="F3" s="77" t="str">
+        <v>292</v>
+      </c>
+      <c r="E3" s="114" t="s">
+        <v>293</v>
+      </c>
+      <c r="F3" s="71" t="str">
         <f>ap_programs!$A$5</f>
         <v>programB</v>
       </c>
@@ -2733,21 +2847,21 @@
     </row>
     <row r="4" ht="19.5" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="E4" s="69" t="s">
-        <v>263</v>
-      </c>
-      <c r="F4" s="77" t="str">
+        <v>298</v>
+      </c>
+      <c r="F4" s="71" t="str">
         <f>ap_programs!$A$5</f>
         <v>programB</v>
       </c>
@@ -2770,31 +2884,31 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="7" tint="0"/>
+    <tabColor theme="7"/>
     <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A1" workbookViewId="0" zoomScale="100">
+    <sheetView showGridLines="0" topLeftCell="A1" workbookViewId="0" zoomScale="160">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A4" ySplit="3"/>
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection activeCell="L23" activeCellId="0" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.8515625"/>
-    <col customWidth="1" min="2" max="2" width="18.421875"/>
-    <col customWidth="1" min="3" max="3" width="12.8515625"/>
-    <col customWidth="1" min="7" max="7" width="10.421875"/>
-    <col customWidth="1" min="8" max="8" width="13.00390625"/>
-    <col customWidth="1" min="9" max="9" width="10.8515625"/>
-    <col customWidth="1" min="10" max="10" width="11.8515625"/>
-    <col customWidth="1" min="11" max="11" width="10.140625"/>
-    <col customWidth="1" min="12" max="12" width="23.28125"/>
-    <col customWidth="1" min="13" max="13" width="3.57421875"/>
+    <col customWidth="1" min="1" max="1" width="12.83203125"/>
+    <col customWidth="1" min="2" max="2" width="31.421875"/>
+    <col customWidth="1" min="3" max="3" width="12.83203125"/>
+    <col customWidth="1" min="7" max="7" width="10.5"/>
+    <col customWidth="1" min="8" max="8" width="13"/>
+    <col customWidth="1" min="9" max="9" width="10.83203125"/>
+    <col customWidth="1" min="10" max="10" width="11.83203125"/>
+    <col customWidth="1" min="11" max="11" width="10.1640625"/>
+    <col customWidth="1" min="12" max="12" width="23.33203125"/>
+    <col customWidth="1" min="13" max="13" width="3.5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25">
+    <row r="1">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -2802,38 +2916,38 @@
         <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="L1" s="118" t="s">
-        <v>270</v>
-      </c>
-      <c r="M1" s="74"/>
-    </row>
-    <row r="2" ht="28.850000000000001" customHeight="1">
+        <v>304</v>
+      </c>
+      <c r="L1" s="115" t="s">
+        <v>305</v>
+      </c>
+      <c r="M1" s="14"/>
+    </row>
+    <row r="2" ht="28.75" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -2842,62 +2956,62 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="1" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="74"/>
-    </row>
-    <row r="3" ht="31.850000000000001" customHeight="1">
-      <c r="A3" s="115" t="s">
+      <c r="M2" s="14"/>
+    </row>
+    <row r="3" ht="31.75" customHeight="1">
+      <c r="A3" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="98" t="s">
-        <v>243</v>
-      </c>
-      <c r="D3" s="97" t="s">
-        <v>272</v>
-      </c>
-      <c r="E3" s="82" t="s">
-        <v>273</v>
-      </c>
-      <c r="F3" s="97" t="s">
-        <v>274</v>
-      </c>
-      <c r="G3" s="97" t="s">
-        <v>275</v>
-      </c>
-      <c r="H3" s="119" t="s">
+      <c r="C3" s="95" t="s">
         <v>276</v>
       </c>
-      <c r="I3" s="120" t="s">
-        <v>252</v>
-      </c>
-      <c r="J3" s="120" t="s">
-        <v>277</v>
-      </c>
-      <c r="K3" s="121" t="s">
-        <v>278</v>
-      </c>
-      <c r="L3" s="83" t="s">
-        <v>279</v>
-      </c>
-      <c r="M3" s="122"/>
+      <c r="D3" s="94" t="s">
+        <v>307</v>
+      </c>
+      <c r="E3" s="79" t="s">
+        <v>308</v>
+      </c>
+      <c r="F3" s="94" t="s">
+        <v>309</v>
+      </c>
+      <c r="G3" s="94" t="s">
+        <v>310</v>
+      </c>
+      <c r="H3" s="116" t="s">
+        <v>311</v>
+      </c>
+      <c r="I3" s="117" t="s">
+        <v>287</v>
+      </c>
+      <c r="J3" s="117" t="s">
+        <v>312</v>
+      </c>
+      <c r="K3" s="118" t="s">
+        <v>313</v>
+      </c>
+      <c r="L3" s="80" t="s">
+        <v>314</v>
+      </c>
+      <c r="M3" s="119"/>
     </row>
     <row r="4" s="9" customFormat="1" ht="30" customHeight="1">
       <c r="A4" s="10" t="str">
-        <f t="shared" ref="A4:A9" si="0">_xlfn.CONCAT("subject",IF(M4&lt;10,"0",""),M4)</f>
+        <f t="shared" ref="A4:A9" si="1">_xlfn.CONCAT("subject",IF(M4&lt;10,"0",""),M4)</f>
         <v>subject01</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="C4" s="77" t="str">
+        <v>315</v>
+      </c>
+      <c r="C4" s="71" t="str">
         <f>ap_programs!A4</f>
         <v>programA</v>
       </c>
@@ -2909,38 +3023,37 @@
       </c>
       <c r="F4" s="63"/>
       <c r="G4" s="63" t="str">
-        <f t="shared" ref="G4:G9" si="1">_xlfn.CONCAT("0",IF(M4&lt;10,"0",""),M4)</f>
+        <f t="shared" ref="G4:G9" si="2">_xlfn.CONCAT("0",IF(M4&lt;10,"0",""),M4)</f>
         <v>001</v>
       </c>
-      <c r="H4" s="123" t="s">
-        <v>281</v>
-      </c>
-      <c r="I4" s="124" t="s">
-        <v>282</v>
+      <c r="H4" s="120" t="s">
+        <v>316</v>
+      </c>
+      <c r="I4" s="121" t="s">
+        <v>317</v>
       </c>
       <c r="J4" s="63"/>
-      <c r="K4" s="125" t="str">
+      <c r="K4" s="122" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L4" s="126" t="s">
-        <v>283</v>
-      </c>
-      <c r="M4" s="127">
+      <c r="L4" s="123" t="s">
+        <v>318</v>
+      </c>
+      <c r="M4" s="124">
         <v>1</v>
       </c>
-      <c r="N4" s="9"/>
     </row>
     <row r="5" s="9" customFormat="1" ht="30" customHeight="1">
       <c r="A5" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>subject02</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="C5" s="77" t="str">
-        <f t="shared" ref="C5:C10" si="2">C4</f>
+        <v>319</v>
+      </c>
+      <c r="C5" s="71" t="str">
+        <f t="shared" ref="C5:C10" si="3">C4</f>
         <v>programA</v>
       </c>
       <c r="D5" s="63">
@@ -2951,42 +3064,41 @@
       </c>
       <c r="F5" s="63"/>
       <c r="G5" s="63" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>002</v>
       </c>
-      <c r="H5" s="123" t="str">
-        <f t="shared" ref="H5:H10" si="3">H4</f>
+      <c r="H5" s="120" t="str">
+        <f t="shared" ref="H5:H10" si="4">H4</f>
         <v xml:space="preserve">Group A|G1A, Group B|G1B</v>
       </c>
-      <c r="I5" s="124" t="str">
-        <f t="shared" ref="I5:I10" si="4">I4</f>
+      <c r="I5" s="121" t="str">
+        <f t="shared" ref="I5:I10" si="5">I4</f>
         <v>#FFEB9C</v>
       </c>
       <c r="J5" s="63"/>
-      <c r="K5" s="125" t="str">
+      <c r="K5" s="122" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L5" s="126" t="str">
-        <f t="shared" ref="L5:L10" si="5">L4</f>
+      <c r="L5" s="123" t="str">
+        <f t="shared" ref="L5:L10" si="6">L4</f>
         <v xml:space="preserve">teacher01|main@G1A, teacher01|main@G1B</v>
       </c>
-      <c r="M5" s="127">
-        <f t="shared" ref="M5:M10" si="6">M4+1</f>
+      <c r="M5" s="124">
+        <f t="shared" ref="M5:M10" si="7">M4+1</f>
         <v>2</v>
       </c>
-      <c r="N5" s="9"/>
     </row>
     <row r="6" s="9" customFormat="1" ht="30" customHeight="1">
       <c r="A6" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>subject03</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="C6" s="77" t="str">
-        <f t="shared" si="2"/>
+        <v>320</v>
+      </c>
+      <c r="C6" s="71" t="str">
+        <f t="shared" si="3"/>
         <v>programA</v>
       </c>
       <c r="D6" s="63">
@@ -2997,42 +3109,41 @@
       </c>
       <c r="F6" s="63"/>
       <c r="G6" s="63" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>003</v>
       </c>
-      <c r="H6" s="123" t="str">
-        <f t="shared" si="3"/>
+      <c r="H6" s="120" t="str">
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Group A|G1A, Group B|G1B</v>
       </c>
-      <c r="I6" s="124" t="str">
-        <f t="shared" si="4"/>
+      <c r="I6" s="121" t="str">
+        <f t="shared" si="5"/>
         <v>#FFEB9C</v>
       </c>
       <c r="J6" s="63"/>
-      <c r="K6" s="125" t="str">
+      <c r="K6" s="122" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L6" s="126" t="str">
-        <f t="shared" si="5"/>
+      <c r="L6" s="123" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">teacher01|main@G1A, teacher01|main@G1B</v>
       </c>
-      <c r="M6" s="127">
-        <f t="shared" si="6"/>
+      <c r="M6" s="124">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="N6" s="9"/>
     </row>
     <row r="7" s="9" customFormat="1" ht="30" customHeight="1">
       <c r="A7" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>subject04</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="C7" s="77" t="str">
-        <f t="shared" si="2"/>
+        <v>321</v>
+      </c>
+      <c r="C7" s="71" t="str">
+        <f t="shared" si="3"/>
         <v>programA</v>
       </c>
       <c r="D7" s="63">
@@ -3043,42 +3154,41 @@
       </c>
       <c r="F7" s="63"/>
       <c r="G7" s="63" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>004</v>
       </c>
-      <c r="H7" s="123" t="str">
-        <f t="shared" si="3"/>
+      <c r="H7" s="120" t="str">
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Group A|G1A, Group B|G1B</v>
       </c>
-      <c r="I7" s="124" t="str">
-        <f t="shared" si="4"/>
+      <c r="I7" s="121" t="str">
+        <f t="shared" si="5"/>
         <v>#FFEB9C</v>
       </c>
       <c r="J7" s="63"/>
-      <c r="K7" s="125" t="str">
+      <c r="K7" s="122" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="L7" s="126" t="str">
-        <f t="shared" si="5"/>
+      <c r="L7" s="123" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">teacher01|main@G1A, teacher01|main@G1B</v>
       </c>
-      <c r="M7" s="127">
-        <f t="shared" si="6"/>
+      <c r="M7" s="124">
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="N7" s="9"/>
     </row>
     <row r="8" ht="30" customHeight="1">
       <c r="A8" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>subject05</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="C8" s="77" t="str">
-        <f t="shared" si="2"/>
+        <v>322</v>
+      </c>
+      <c r="C8" s="71" t="str">
+        <f t="shared" si="3"/>
         <v>programA</v>
       </c>
       <c r="D8" s="63">
@@ -3089,39 +3199,39 @@
       </c>
       <c r="F8" s="63"/>
       <c r="G8" s="63" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>005</v>
       </c>
-      <c r="H8" s="123" t="s">
-        <v>288</v>
-      </c>
-      <c r="I8" s="124" t="str">
-        <f t="shared" si="4"/>
+      <c r="H8" s="120" t="s">
+        <v>323</v>
+      </c>
+      <c r="I8" s="121" t="str">
+        <f t="shared" si="5"/>
         <v>#FFEB9C</v>
       </c>
       <c r="J8" s="63"/>
-      <c r="K8" s="125" t="str">
+      <c r="K8" s="122" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L8" s="126" t="s">
-        <v>289</v>
-      </c>
-      <c r="M8" s="127">
-        <f t="shared" si="6"/>
+      <c r="L8" s="123" t="s">
+        <v>324</v>
+      </c>
+      <c r="M8" s="124">
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
     </row>
     <row r="9" ht="30" customHeight="1">
       <c r="A9" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>subject06</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="C9" s="77" t="str">
-        <f t="shared" si="2"/>
+        <v>325</v>
+      </c>
+      <c r="C9" s="71" t="str">
+        <f t="shared" si="3"/>
         <v>programA</v>
       </c>
       <c r="D9" s="63">
@@ -3132,40 +3242,40 @@
       </c>
       <c r="F9" s="63"/>
       <c r="G9" s="63" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>006</v>
       </c>
-      <c r="H9" s="123" t="str">
-        <f t="shared" si="3"/>
+      <c r="H9" s="120" t="str">
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Group A|G2A, Group B|G2B</v>
       </c>
-      <c r="I9" s="124" t="s">
-        <v>291</v>
+      <c r="I9" s="121" t="s">
+        <v>326</v>
       </c>
       <c r="J9" s="63"/>
-      <c r="K9" s="125" t="str">
+      <c r="K9" s="122" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L9" s="126" t="str">
-        <f t="shared" si="5"/>
+      <c r="L9" s="123" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">teacher01|main@G2A, teacher01|main@G2B</v>
       </c>
-      <c r="M9" s="127">
-        <f t="shared" si="6"/>
+      <c r="M9" s="124">
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
     <row r="10" ht="30" customHeight="1">
       <c r="A10" s="10" t="str">
-        <f t="shared" ref="A10:A23" si="7">_xlfn.CONCAT("subject",IF(M10&lt;10,"0",""),M10)</f>
+        <f t="shared" ref="A10:A22" si="8">_xlfn.CONCAT("subject",IF(M10&lt;10,"0",""),M10)</f>
         <v>subject07</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="C10" s="77" t="str">
-        <f t="shared" si="2"/>
+        <v>327</v>
+      </c>
+      <c r="C10" s="71" t="str">
+        <f t="shared" si="3"/>
         <v>programA</v>
       </c>
       <c r="D10" s="63">
@@ -3176,41 +3286,41 @@
       </c>
       <c r="F10" s="63"/>
       <c r="G10" s="63" t="str">
-        <f t="shared" ref="G10:G23" si="8">_xlfn.CONCAT("0",IF(M10&lt;10,"0",""),M10)</f>
+        <f t="shared" ref="G10:G24" si="9">_xlfn.CONCAT("0",IF(M10&lt;10,"0",""),M10)</f>
         <v>007</v>
       </c>
-      <c r="H10" s="123" t="str">
-        <f t="shared" si="3"/>
+      <c r="H10" s="120" t="str">
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Group A|G2A, Group B|G2B</v>
       </c>
-      <c r="I10" s="124" t="str">
-        <f t="shared" si="4"/>
+      <c r="I10" s="121" t="str">
+        <f t="shared" si="5"/>
         <v>#FFC7CE</v>
       </c>
       <c r="J10" s="63"/>
-      <c r="K10" s="125" t="str">
+      <c r="K10" s="122" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L10" s="126" t="str">
-        <f t="shared" si="5"/>
+      <c r="L10" s="123" t="str">
+        <f t="shared" si="6"/>
         <v xml:space="preserve">teacher01|main@G2A, teacher01|main@G2B</v>
       </c>
-      <c r="M10" s="127">
-        <f t="shared" si="6"/>
+      <c r="M10" s="124">
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
     </row>
     <row r="11" ht="30" customHeight="1">
       <c r="A11" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>subject08</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="C11" s="77" t="str">
-        <f t="shared" ref="C11:C23" si="9">C10</f>
+        <v>328</v>
+      </c>
+      <c r="C11" s="71" t="str">
+        <f t="shared" ref="C11:C24" si="10">C10</f>
         <v>programA</v>
       </c>
       <c r="D11" s="63">
@@ -3221,41 +3331,41 @@
       </c>
       <c r="F11" s="63"/>
       <c r="G11" s="63" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>008</v>
       </c>
-      <c r="H11" s="123" t="str">
+      <c r="H11" s="120" t="str">
         <f>H10</f>
         <v xml:space="preserve">Group A|G2A, Group B|G2B</v>
       </c>
-      <c r="I11" s="124" t="str">
-        <f t="shared" ref="I11:I18" si="10">I10</f>
+      <c r="I11" s="121" t="str">
+        <f t="shared" ref="I11:I18" si="11">I10</f>
         <v>#FFC7CE</v>
       </c>
       <c r="J11" s="63"/>
-      <c r="K11" s="125" t="str">
+      <c r="K11" s="122" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="L11" s="126" t="str">
+      <c r="L11" s="123" t="str">
         <f>L10</f>
         <v xml:space="preserve">teacher01|main@G2A, teacher01|main@G2B</v>
       </c>
-      <c r="M11" s="127">
-        <f t="shared" ref="M11:M23" si="11">M10+1</f>
+      <c r="M11" s="124">
+        <f t="shared" ref="M11:M24" si="12">M10+1</f>
         <v>8</v>
       </c>
     </row>
     <row r="12" ht="30" customHeight="1">
       <c r="A12" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>subject09</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="C12" s="77" t="str">
-        <f t="shared" si="9"/>
+        <v>329</v>
+      </c>
+      <c r="C12" s="71" t="str">
+        <f t="shared" si="10"/>
         <v>programA</v>
       </c>
       <c r="D12" s="63">
@@ -3266,39 +3376,39 @@
       </c>
       <c r="F12" s="63"/>
       <c r="G12" s="63" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>009</v>
       </c>
-      <c r="H12" s="123" t="s">
-        <v>295</v>
-      </c>
-      <c r="I12" s="124" t="str">
-        <f t="shared" si="10"/>
+      <c r="H12" s="120" t="s">
+        <v>330</v>
+      </c>
+      <c r="I12" s="121" t="str">
+        <f t="shared" si="11"/>
         <v>#FFC7CE</v>
       </c>
       <c r="J12" s="63"/>
-      <c r="K12" s="125" t="str">
+      <c r="K12" s="122" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L12" s="126" t="s">
-        <v>296</v>
-      </c>
-      <c r="M12" s="127">
-        <f t="shared" si="11"/>
+      <c r="L12" s="123" t="s">
+        <v>331</v>
+      </c>
+      <c r="M12" s="124">
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
     </row>
     <row r="13" ht="30" customHeight="1">
       <c r="A13" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>subject10</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="C13" s="77" t="str">
-        <f t="shared" si="9"/>
+        <v>332</v>
+      </c>
+      <c r="C13" s="71" t="str">
+        <f t="shared" si="10"/>
         <v>programA</v>
       </c>
       <c r="D13" s="63">
@@ -3309,41 +3419,41 @@
       </c>
       <c r="F13" s="63"/>
       <c r="G13" s="63" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>010</v>
       </c>
-      <c r="H13" s="123" t="str">
-        <f t="shared" ref="H13:H23" si="12">H12</f>
+      <c r="H13" s="120" t="str">
+        <f t="shared" ref="H13:H24" si="13">H12</f>
         <v xml:space="preserve">Group A|G3A, Group B|G3B</v>
       </c>
-      <c r="I13" s="124" t="str">
-        <f t="shared" si="10"/>
+      <c r="I13" s="121" t="str">
+        <f t="shared" si="11"/>
         <v>#FFC7CE</v>
       </c>
       <c r="J13" s="63"/>
-      <c r="K13" s="125" t="str">
+      <c r="K13" s="122" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L13" s="126" t="str">
-        <f t="shared" ref="L13:L23" si="13">L12</f>
+      <c r="L13" s="123" t="str">
+        <f t="shared" ref="L13:L24" si="14">L12</f>
         <v xml:space="preserve">teacher01|main@G3A, teacher01|main@G3B</v>
       </c>
-      <c r="M13" s="127">
-        <f t="shared" si="11"/>
+      <c r="M13" s="124">
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
     </row>
     <row r="14" ht="30" customHeight="1">
       <c r="A14" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>subject11</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="C14" s="77" t="str">
-        <f t="shared" si="9"/>
+        <v>333</v>
+      </c>
+      <c r="C14" s="71" t="str">
+        <f t="shared" si="10"/>
         <v>programA</v>
       </c>
       <c r="D14" s="63">
@@ -3354,40 +3464,40 @@
       </c>
       <c r="F14" s="63"/>
       <c r="G14" s="63" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>011</v>
       </c>
-      <c r="H14" s="123" t="str">
-        <f t="shared" si="12"/>
+      <c r="H14" s="120" t="str">
+        <f t="shared" si="13"/>
         <v xml:space="preserve">Group A|G3A, Group B|G3B</v>
       </c>
-      <c r="I14" s="124" t="s">
-        <v>299</v>
+      <c r="I14" s="121" t="s">
+        <v>334</v>
       </c>
       <c r="J14" s="63"/>
-      <c r="K14" s="125" t="str">
+      <c r="K14" s="122" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L14" s="126" t="str">
-        <f t="shared" si="13"/>
+      <c r="L14" s="123" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">teacher01|main@G3A, teacher01|main@G3B</v>
       </c>
-      <c r="M14" s="127">
-        <f t="shared" si="11"/>
+      <c r="M14" s="124">
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
     </row>
     <row r="15" ht="30" customHeight="1">
       <c r="A15" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>subject12</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="C15" s="77" t="str">
-        <f t="shared" si="9"/>
+        <v>335</v>
+      </c>
+      <c r="C15" s="71" t="str">
+        <f t="shared" si="10"/>
         <v>programA</v>
       </c>
       <c r="D15" s="63">
@@ -3398,41 +3508,41 @@
       </c>
       <c r="F15" s="63"/>
       <c r="G15" s="63" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>012</v>
       </c>
-      <c r="H15" s="123" t="str">
-        <f t="shared" si="12"/>
+      <c r="H15" s="120" t="str">
+        <f t="shared" si="13"/>
         <v xml:space="preserve">Group A|G3A, Group B|G3B</v>
       </c>
-      <c r="I15" s="124" t="str">
-        <f t="shared" si="10"/>
+      <c r="I15" s="121" t="str">
+        <f t="shared" si="11"/>
         <v>#C6EFCD</v>
       </c>
       <c r="J15" s="63"/>
-      <c r="K15" s="125" t="str">
+      <c r="K15" s="122" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="L15" s="126" t="str">
-        <f t="shared" si="13"/>
+      <c r="L15" s="123" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">teacher01|main@G3A, teacher01|main@G3B</v>
       </c>
-      <c r="M15" s="127">
-        <f t="shared" si="11"/>
+      <c r="M15" s="124">
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
     </row>
     <row r="16" ht="30" customHeight="1">
       <c r="A16" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>subject13</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="C16" s="77" t="str">
-        <f t="shared" si="9"/>
+        <v>336</v>
+      </c>
+      <c r="C16" s="71" t="str">
+        <f t="shared" si="10"/>
         <v>programA</v>
       </c>
       <c r="D16" s="63">
@@ -3443,39 +3553,39 @@
       </c>
       <c r="F16" s="63"/>
       <c r="G16" s="63" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>013</v>
       </c>
-      <c r="H16" s="123" t="s">
-        <v>302</v>
-      </c>
-      <c r="I16" s="124" t="str">
-        <f t="shared" si="10"/>
+      <c r="H16" s="120" t="s">
+        <v>337</v>
+      </c>
+      <c r="I16" s="121" t="str">
+        <f t="shared" si="11"/>
         <v>#C6EFCD</v>
       </c>
       <c r="J16" s="63"/>
-      <c r="K16" s="125" t="str">
+      <c r="K16" s="122" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L16" s="126" t="s">
-        <v>303</v>
-      </c>
-      <c r="M16" s="127">
-        <f t="shared" si="11"/>
+      <c r="L16" s="123" t="s">
+        <v>338</v>
+      </c>
+      <c r="M16" s="124">
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
     </row>
     <row r="17" ht="30" customHeight="1">
       <c r="A17" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>subject14</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="C17" s="77" t="str">
-        <f t="shared" si="9"/>
+        <v>339</v>
+      </c>
+      <c r="C17" s="71" t="str">
+        <f t="shared" si="10"/>
         <v>programA</v>
       </c>
       <c r="D17" s="63">
@@ -3486,41 +3596,41 @@
       </c>
       <c r="F17" s="63"/>
       <c r="G17" s="63" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>014</v>
       </c>
-      <c r="H17" s="123" t="str">
-        <f t="shared" si="12"/>
+      <c r="H17" s="120" t="str">
+        <f t="shared" si="13"/>
         <v xml:space="preserve">Group A|G4A, Group B|G4B</v>
       </c>
-      <c r="I17" s="124" t="str">
-        <f t="shared" si="10"/>
+      <c r="I17" s="121" t="str">
+        <f t="shared" si="11"/>
         <v>#C6EFCD</v>
       </c>
       <c r="J17" s="63"/>
-      <c r="K17" s="125" t="str">
+      <c r="K17" s="122" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L17" s="126" t="str">
-        <f t="shared" si="13"/>
+      <c r="L17" s="123" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">teacher01|main@G4A, teacher01|main@G4B</v>
       </c>
-      <c r="M17" s="127">
-        <f t="shared" si="11"/>
+      <c r="M17" s="124">
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
     </row>
     <row r="18" ht="30" customHeight="1">
       <c r="A18" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>subject15</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="C18" s="77" t="str">
-        <f t="shared" si="9"/>
+        <v>340</v>
+      </c>
+      <c r="C18" s="71" t="str">
+        <f t="shared" si="10"/>
         <v>programA</v>
       </c>
       <c r="D18" s="63">
@@ -3531,41 +3641,41 @@
       </c>
       <c r="F18" s="63"/>
       <c r="G18" s="63" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>015</v>
       </c>
-      <c r="H18" s="123" t="str">
-        <f t="shared" si="12"/>
+      <c r="H18" s="120" t="str">
+        <f t="shared" si="13"/>
         <v xml:space="preserve">Group A|G4A, Group B|G4B</v>
       </c>
-      <c r="I18" s="124" t="str">
-        <f t="shared" si="10"/>
+      <c r="I18" s="121" t="str">
+        <f t="shared" si="11"/>
         <v>#C6EFCD</v>
       </c>
       <c r="J18" s="63"/>
-      <c r="K18" s="125" t="str">
+      <c r="K18" s="122" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L18" s="126" t="str">
-        <f t="shared" si="13"/>
+      <c r="L18" s="123" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">teacher01|main@G4A, teacher01|main@G4B</v>
       </c>
-      <c r="M18" s="127">
-        <f t="shared" si="11"/>
+      <c r="M18" s="124">
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
     </row>
     <row r="19" ht="30" customHeight="1">
       <c r="A19" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>subject16</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="C19" s="77" t="str">
-        <f t="shared" si="9"/>
+        <v>341</v>
+      </c>
+      <c r="C19" s="71" t="str">
+        <f t="shared" si="10"/>
         <v>programA</v>
       </c>
       <c r="D19" s="63">
@@ -3576,40 +3686,40 @@
       </c>
       <c r="F19" s="63"/>
       <c r="G19" s="63" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>016</v>
       </c>
-      <c r="H19" s="123" t="str">
-        <f t="shared" si="12"/>
+      <c r="H19" s="120" t="str">
+        <f t="shared" si="13"/>
         <v xml:space="preserve">Group A|G4A, Group B|G4B</v>
       </c>
-      <c r="I19" s="124" t="s">
-        <v>307</v>
+      <c r="I19" s="121" t="s">
+        <v>342</v>
       </c>
       <c r="J19" s="63"/>
-      <c r="K19" s="125" t="str">
+      <c r="K19" s="122" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="L19" s="126" t="str">
-        <f t="shared" si="13"/>
+      <c r="L19" s="123" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">teacher01|main@G4A, teacher01|main@G4B</v>
       </c>
-      <c r="M19" s="127">
-        <f t="shared" si="11"/>
+      <c r="M19" s="124">
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
     </row>
     <row r="20" ht="30" customHeight="1">
       <c r="A20" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>subject17</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="C20" s="77" t="str">
-        <f t="shared" si="9"/>
+        <v>343</v>
+      </c>
+      <c r="C20" s="71" t="str">
+        <f t="shared" si="10"/>
         <v>programA</v>
       </c>
       <c r="D20" s="63">
@@ -3620,38 +3730,38 @@
       </c>
       <c r="F20" s="63"/>
       <c r="G20" s="63" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>017</v>
       </c>
-      <c r="H20" s="123" t="s">
-        <v>309</v>
-      </c>
-      <c r="I20" s="124" t="s">
-        <v>307</v>
+      <c r="H20" s="120" t="s">
+        <v>344</v>
+      </c>
+      <c r="I20" s="121" t="s">
+        <v>342</v>
       </c>
       <c r="J20" s="63"/>
-      <c r="K20" s="125" t="str">
+      <c r="K20" s="122" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L20" s="126" t="s">
-        <v>310</v>
-      </c>
-      <c r="M20" s="127">
-        <f t="shared" si="11"/>
+      <c r="L20" s="123" t="s">
+        <v>345</v>
+      </c>
+      <c r="M20" s="124">
+        <f t="shared" si="12"/>
         <v>17</v>
       </c>
     </row>
     <row r="21" ht="30" customHeight="1">
       <c r="A21" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>subject18</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="C21" s="77" t="str">
-        <f t="shared" si="9"/>
+        <v>346</v>
+      </c>
+      <c r="C21" s="71" t="str">
+        <f t="shared" si="10"/>
         <v>programA</v>
       </c>
       <c r="D21" s="63">
@@ -3662,40 +3772,40 @@
       </c>
       <c r="F21" s="63"/>
       <c r="G21" s="63" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>018</v>
       </c>
-      <c r="H21" s="123" t="str">
-        <f t="shared" si="12"/>
+      <c r="H21" s="120" t="str">
+        <f t="shared" si="13"/>
         <v xml:space="preserve">Group A|G5A, Group B|G5B</v>
       </c>
-      <c r="I21" s="124" t="s">
-        <v>307</v>
+      <c r="I21" s="121" t="s">
+        <v>342</v>
       </c>
       <c r="J21" s="63"/>
-      <c r="K21" s="125" t="str">
+      <c r="K21" s="122" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L21" s="126" t="str">
-        <f t="shared" si="13"/>
+      <c r="L21" s="123" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">teacher01|main@G5A, teacher01|main@G5B</v>
       </c>
-      <c r="M21" s="127">
-        <f t="shared" si="11"/>
+      <c r="M21" s="124">
+        <f t="shared" si="12"/>
         <v>18</v>
       </c>
     </row>
     <row r="22" ht="30" customHeight="1">
       <c r="A22" s="10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>subject19</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="C22" s="77" t="str">
-        <f t="shared" si="9"/>
+        <v>347</v>
+      </c>
+      <c r="C22" s="71" t="str">
+        <f t="shared" si="10"/>
         <v>programA</v>
       </c>
       <c r="D22" s="63">
@@ -3706,79 +3816,115 @@
       </c>
       <c r="F22" s="63"/>
       <c r="G22" s="63" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>019</v>
       </c>
-      <c r="H22" s="123" t="str">
-        <f t="shared" si="12"/>
+      <c r="H22" s="120" t="str">
+        <f t="shared" si="13"/>
         <v xml:space="preserve">Group A|G5A, Group B|G5B</v>
       </c>
-      <c r="I22" s="124" t="s">
-        <v>307</v>
+      <c r="I22" s="121" t="s">
+        <v>342</v>
       </c>
       <c r="J22" s="63"/>
-      <c r="K22" s="125" t="str">
+      <c r="K22" s="122" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L22" s="126" t="str">
-        <f t="shared" si="13"/>
+      <c r="L22" s="123" t="str">
+        <f t="shared" si="14"/>
         <v xml:space="preserve">teacher01|main@G5A, teacher01|main@G5B</v>
       </c>
-      <c r="M22" s="127">
-        <f t="shared" si="11"/>
+      <c r="M22" s="124">
+        <f t="shared" si="12"/>
         <v>19</v>
       </c>
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="A23" s="10" t="str">
-        <f t="shared" si="7"/>
-        <v>subject20</v>
+        <f t="shared" ref="A23:A24" si="15">_xlfn.CONCAT("asignatura",IF(M23&lt;10,"0",""),M23)</f>
+        <v>asignatura01</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="C23" s="77" t="str">
-        <f t="shared" si="9"/>
-        <v>programA</v>
+        <v>348</v>
+      </c>
+      <c r="C23" s="71" t="str">
+        <f>ap_programs!A6</f>
+        <v>programC</v>
       </c>
       <c r="D23" s="63">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E23" s="63">
         <v>20</v>
       </c>
       <c r="F23" s="63"/>
       <c r="G23" s="63" t="str">
-        <f t="shared" si="8"/>
-        <v>020</v>
-      </c>
-      <c r="H23" s="123" t="str">
+        <f t="shared" si="9"/>
+        <v>001</v>
+      </c>
+      <c r="H23" s="120" t="s">
+        <v>349</v>
+      </c>
+      <c r="I23" s="121" t="s">
+        <v>350</v>
+      </c>
+      <c r="J23" s="63"/>
+      <c r="K23" s="122" t="str">
+        <f>ap_subject_types!$A$6</f>
+        <v>type04</v>
+      </c>
+      <c r="L23" s="123" t="s">
+        <v>351</v>
+      </c>
+      <c r="M23" s="124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" ht="27">
+      <c r="A24" s="10" t="str">
+        <f t="shared" si="15"/>
+        <v>asignatura02</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="C24" s="71" t="str">
+        <f t="shared" si="10"/>
+        <v>programC</v>
+      </c>
+      <c r="D24" s="63">
+        <v>2</v>
+      </c>
+      <c r="E24" s="63">
+        <v>20</v>
+      </c>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63" t="str">
+        <f t="shared" si="9"/>
+        <v>002</v>
+      </c>
+      <c r="H24" s="120" t="str">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">2ºA|2ºA, 2ºB|2ºB</v>
+      </c>
+      <c r="I24" s="121" t="s">
+        <v>353</v>
+      </c>
+      <c r="J24" s="63"/>
+      <c r="K24" s="122" t="str">
+        <f>ap_subject_types!$A$6</f>
+        <v>type04</v>
+      </c>
+      <c r="L24" s="123" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve">teacher01|main@2ºA, teacher01|main@2ºB</v>
+      </c>
+      <c r="M24" s="124">
         <f t="shared" si="12"/>
-        <v xml:space="preserve">Group A|G5A, Group B|G5B</v>
-      </c>
-      <c r="I23" s="124" t="s">
-        <v>307</v>
-      </c>
-      <c r="J23" s="63"/>
-      <c r="K23" s="125" t="str">
-        <f>ap_subject_types!$A$5</f>
-        <v>type03</v>
-      </c>
-      <c r="L23" s="126" t="str">
-        <f t="shared" si="13"/>
-        <v xml:space="preserve">teacher01|main@G5A, teacher01|main@G5B</v>
-      </c>
-      <c r="M23" s="127">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25">
-      <c r="E24" s="14"/>
-      <c r="M24" s="74"/>
-    </row>
-    <row r="25" ht="14.25"/>
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H2:L2"/>
@@ -3793,22 +3939,22 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="4" tint="0"/>
+    <tabColor theme="4"/>
     <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0" zoomScale="100">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showGridLines="0" workbookViewId="0" zoomScale="190">
+      <selection activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="26.00390625"/>
-    <col customWidth="1" min="3" max="3" width="44.28125"/>
+    <col customWidth="1" min="2" max="2" width="26"/>
+    <col customWidth="1" min="3" max="3" width="44.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25">
+    <row r="1">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -3861,6 +4007,20 @@
         <v>37</v>
       </c>
       <c r="D4" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3875,37 +4035,37 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="4" tint="0"/>
+    <tabColor theme="4"/>
     <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomRight" state="frozen" topLeftCell="B7" xSplit="1" ySplit="6"/>
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="11.57421875"/>
-    <col customWidth="1" min="3" max="3" width="34.00390625"/>
-    <col customWidth="1" min="4" max="4" width="13.28125"/>
-    <col customWidth="1" min="5" max="5" width="7.8515625"/>
-    <col customWidth="1" min="6" max="6" width="9.7109375"/>
-    <col customWidth="1" min="7" max="7" width="8.00390625"/>
-    <col customWidth="1" min="8" max="8" width="8.421875"/>
-    <col customWidth="1" min="10" max="10" width="10.7109375"/>
-    <col customWidth="1" min="19" max="19" width="12.140625"/>
-    <col customWidth="1" min="20" max="21" width="14.7109375"/>
-    <col customWidth="1" min="22" max="22" width="14.421875"/>
-    <col customWidth="1" min="28" max="28" width="15.00390625"/>
-    <col customWidth="1" min="29" max="29" width="17.140625"/>
-    <col customWidth="1" min="31" max="31" width="11.7109375"/>
-    <col customWidth="1" min="32" max="32" width="13.8515625"/>
-    <col customWidth="1" min="33" max="33" width="14.00390625"/>
+    <col customWidth="1" min="2" max="2" width="11.5"/>
+    <col customWidth="1" min="3" max="3" width="34"/>
+    <col customWidth="1" min="4" max="4" width="13.33203125"/>
+    <col customWidth="1" min="5" max="5" width="7.83203125"/>
+    <col customWidth="1" min="6" max="6" width="9.6640625"/>
+    <col customWidth="1" min="7" max="7" width="8"/>
+    <col customWidth="1" min="8" max="8" width="8.5"/>
+    <col customWidth="1" min="10" max="10" width="10.6640625"/>
+    <col customWidth="1" min="19" max="19" width="12.1640625"/>
+    <col customWidth="1" min="20" max="21" width="14.6640625"/>
+    <col customWidth="1" min="22" max="22" width="14.5"/>
+    <col customWidth="1" min="28" max="28" width="15"/>
+    <col customWidth="1" min="29" max="29" width="17.1640625"/>
+    <col customWidth="1" min="31" max="31" width="11.6640625"/>
+    <col customWidth="1" min="32" max="32" width="13.83203125"/>
+    <col customWidth="1" min="33" max="33" width="14"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="1" ht="14.25">
+    <row r="1" s="12" customFormat="1" ht="12">
       <c r="A1" s="12" t="s">
         <v>23</v>
       </c>
@@ -3916,7 +4076,7 @@
         <v>25</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E1" s="12" t="str">
         <f>_xlfn.CONCAT($E$3,".",E5)</f>
@@ -3963,27 +4123,27 @@
         <v>plugins.academic-portfolio.tree</v>
       </c>
       <c r="P1" s="12" t="str">
-        <f>_xlfn.CONCAT($P$3,".",P5)</f>
+        <f t="shared" ref="P1:U1" si="0">_xlfn.CONCAT($P$3,".",P5)</f>
         <v>plugins.families.families</v>
       </c>
       <c r="Q1" s="12" t="str">
-        <f>_xlfn.CONCAT($P$3,".",Q5)</f>
+        <f t="shared" si="0"/>
         <v>plugins.families.config</v>
       </c>
       <c r="R1" s="12" t="str">
-        <f>_xlfn.CONCAT($P$3,".",R5)</f>
+        <f t="shared" si="0"/>
         <v>plugins.families.families-basic-info</v>
       </c>
       <c r="S1" s="12" t="str">
-        <f>_xlfn.CONCAT($P$3,".",S5)</f>
+        <f t="shared" si="0"/>
         <v>plugins.families.families-custom-info</v>
       </c>
       <c r="T1" s="12" t="str">
-        <f>_xlfn.CONCAT($P$3,".",T5)</f>
+        <f t="shared" si="0"/>
         <v>plugins.families.families-guardians-info</v>
       </c>
       <c r="U1" s="12" t="str">
-        <f>_xlfn.CONCAT($P$3,".",U5)</f>
+        <f t="shared" si="0"/>
         <v>plugins.families.families-students-info</v>
       </c>
       <c r="V1" s="12" t="str">
@@ -4035,13 +4195,9 @@
         <v>plugins.grades.dependencies</v>
       </c>
     </row>
-    <row r="2" s="9" customFormat="1" ht="21.350000000000001" customHeight="1">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+    <row r="2" s="9" customFormat="1" ht="21.25" customHeight="1">
       <c r="E2" s="13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
@@ -4072,31 +4228,31 @@
       <c r="AF2" s="13"/>
       <c r="AG2" s="13"/>
     </row>
-    <row r="3" ht="14.25">
+    <row r="3">
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
       <c r="E3" s="15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
       <c r="I3" s="17" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="L3" s="20"/>
       <c r="M3" s="20"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
       <c r="P3" s="21" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q3" s="22"/>
       <c r="R3" s="22"/>
@@ -4104,53 +4260,50 @@
       <c r="T3" s="22"/>
       <c r="U3" s="23"/>
       <c r="V3" s="15" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="W3" s="16"/>
       <c r="X3" s="24" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Y3" s="25"/>
       <c r="Z3" s="25"/>
       <c r="AA3" s="25"/>
       <c r="AB3" s="26" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AC3" s="19" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AD3" s="21" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AE3" s="22"/>
       <c r="AF3" s="22"/>
       <c r="AG3" s="22"/>
     </row>
-    <row r="4" s="27" customFormat="1" ht="19.850000000000001" customHeight="1">
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
+    <row r="4" s="27" customFormat="1" ht="19.75" customHeight="1">
       <c r="E4" s="28" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F4" s="29"/>
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
       <c r="I4" s="30" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J4" s="31" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K4" s="32" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L4" s="33"/>
       <c r="M4" s="33"/>
       <c r="N4" s="33"/>
       <c r="O4" s="33"/>
       <c r="P4" s="34" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Q4" s="35"/>
       <c r="R4" s="35"/>
@@ -4158,118 +4311,118 @@
       <c r="T4" s="35"/>
       <c r="U4" s="36"/>
       <c r="V4" s="28" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="W4" s="29"/>
       <c r="X4" s="30" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Y4" s="37"/>
       <c r="Z4" s="37"/>
       <c r="AA4" s="37"/>
       <c r="AB4" s="31" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AC4" s="32" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AD4" s="34" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AE4" s="35"/>
       <c r="AF4" s="35"/>
       <c r="AG4" s="35"/>
     </row>
-    <row r="5" ht="14.25">
+    <row r="5">
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="38" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F5" s="39" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H5" s="40" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I5" s="41" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J5" s="42" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K5" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="L5" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="M5" s="44" t="s">
-        <v>63</v>
-      </c>
       <c r="N5" s="44" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O5" s="44" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P5" s="45" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Q5" s="46" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="R5" s="46" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="S5" s="46" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="T5" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="U5" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="V5" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="U5" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="V5" s="38" t="s">
-        <v>71</v>
-      </c>
       <c r="W5" s="39" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="X5" s="41" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Y5" s="41" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="Z5" s="41" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AA5" s="41" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="AB5" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC5" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="AC5" s="48" t="s">
-        <v>78</v>
-      </c>
       <c r="AD5" s="45" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AE5" s="46" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AF5" s="46" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AG5" s="46" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" s="49" customFormat="1" ht="19.5" customHeight="1">
@@ -4283,431 +4436,431 @@
         <v>29</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E6" s="51" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H6" s="52" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I6" s="53" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J6" s="54" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K6" s="55" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L6" s="56" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M6" s="56" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="N6" s="56" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O6" s="56" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="P6" s="57" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Q6" s="58" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="R6" s="58" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="S6" s="58" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="T6" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="U6" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="V6" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="U6" s="59" t="s">
-        <v>98</v>
-      </c>
-      <c r="V6" s="51" t="s">
-        <v>94</v>
-      </c>
       <c r="W6" s="8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="X6" s="53" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Y6" s="53" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="Z6" s="53" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AA6" s="53" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AB6" s="60" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AC6" s="61" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AD6" s="57" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AE6" s="58" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AF6" s="58" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AG6" s="58" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A7" s="10" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D7" s="62"/>
       <c r="E7" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F7" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G7" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H7" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I7" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J7" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K7" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L7" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M7" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="N7" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="O7" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="P7" s="64" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q7" s="64" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="R7" s="64"/>
       <c r="S7" s="64"/>
       <c r="T7" s="64"/>
       <c r="U7" s="64"/>
       <c r="V7" s="64" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="W7" s="64" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="X7" s="64" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Y7" s="64" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Z7" s="64" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AA7" s="64" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AB7" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AC7" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AD7" s="64" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AE7" s="64" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AF7" s="64" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AG7" s="64" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A8" s="10" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D8" s="62"/>
       <c r="E8" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F8" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G8" s="63" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H8" s="63" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I8" s="63" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J8" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K8" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L8" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M8" s="63"/>
       <c r="N8" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="O8" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="P8" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q8" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="R8" s="64"/>
       <c r="S8" s="63"/>
       <c r="T8" s="63"/>
       <c r="U8" s="63"/>
       <c r="V8" s="63" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="W8" s="63" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="X8" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Y8" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Z8" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AA8" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AB8" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AC8" s="63" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AD8" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AE8" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AF8" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="AG8" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A9" s="10" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D9" s="62"/>
       <c r="E9" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F9" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G9" s="63" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H9" s="63" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I9" s="63" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J9" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K9" s="63" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L9" s="63" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M9" s="63"/>
       <c r="N9" s="63" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="O9" s="63"/>
       <c r="P9" s="63" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q9" s="63" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="R9" s="63" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="S9" s="63" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="T9" s="63" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="U9" s="63" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="V9" s="63" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="W9" s="63" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="X9" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Y9" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Z9" s="63" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AA9" s="63" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AB9" s="63" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AC9" s="63" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AD9" s="63" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AE9" s="63" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AF9" s="63" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AG9" s="63" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A10" s="10" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D10" s="62" t="str">
         <f>A9</f>
         <v>student</v>
       </c>
       <c r="E10" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F10" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G10" s="63" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H10" s="63" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I10" s="63" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J10" s="63" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K10" s="63" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L10" s="63" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M10" s="63"/>
       <c r="N10" s="63" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="O10" s="63"/>
       <c r="P10" s="63" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q10" s="63" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="R10" s="63" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="S10" s="63" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="T10" s="63" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="U10" s="63" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="V10" s="63"/>
       <c r="W10" s="63"/>
@@ -4717,7 +4870,7 @@
       <c r="AA10" s="63"/>
       <c r="AB10" s="63"/>
       <c r="AC10" s="63" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AD10" s="63"/>
       <c r="AE10" s="63"/>
@@ -4750,30 +4903,30 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="4" tint="0"/>
+    <tabColor theme="4"/>
     <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0" zoomScale="100">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showGridLines="0" workbookViewId="0" zoomScale="180">
+      <selection activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.421875"/>
-    <col customWidth="1" min="2" max="2" width="13.140625"/>
-    <col customWidth="1" min="3" max="3" width="19.8515625"/>
-    <col customWidth="1" min="4" max="4" width="11.00390625"/>
-    <col customWidth="1" min="5" max="5" width="12.421875"/>
-    <col bestFit="1" customWidth="1" min="6" max="6" width="24.78125"/>
-    <col bestFit="1" min="7" max="7" width="9.140625"/>
-    <col customWidth="1" min="9" max="9" width="14.00390625"/>
-    <col customWidth="1" min="10" max="10" width="36.57421875"/>
-    <col customWidth="1" min="11" max="11" width="16.57421875"/>
+    <col customWidth="1" min="1" max="1" width="12.5"/>
+    <col customWidth="1" min="2" max="2" width="13.1640625"/>
+    <col customWidth="1" min="3" max="3" width="19.83203125"/>
+    <col customWidth="1" min="4" max="4" width="11"/>
+    <col customWidth="1" min="5" max="5" width="12.5"/>
+    <col bestFit="1" customWidth="1" min="6" max="6" width="24.83203125"/>
+    <col bestFit="1" min="7" max="7" width="9.1640625"/>
+    <col customWidth="1" min="9" max="9" width="14"/>
+    <col customWidth="1" min="10" max="10" width="50.8515625"/>
+    <col customWidth="1" min="11" max="11" width="16.5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25">
+    <row r="1">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -4781,28 +4934,28 @@
         <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>26</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1">
@@ -4813,39 +4966,39 @@
         <v>28</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H2" s="65" t="s">
         <v>30</v>
       </c>
       <c r="I2" s="66" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="J2" s="67" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>12</v>
@@ -4854,30 +5007,30 @@
         <v>36526</v>
       </c>
       <c r="F3" s="69" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H3" s="63" t="s">
         <v>34</v>
       </c>
       <c r="I3" s="63" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="J3" s="70" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>12</v>
@@ -4886,30 +5039,30 @@
         <v>34781</v>
       </c>
       <c r="F4" s="69" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H4" s="63" t="s">
         <v>34</v>
       </c>
       <c r="I4" s="63" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J4" s="70" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A5" s="71" t="s">
-        <v>145</v>
-      </c>
-      <c r="B5" s="72" t="s">
-        <v>146</v>
-      </c>
-      <c r="C5" s="72" t="s">
-        <v>116</v>
+      <c r="A5" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>119</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>12</v>
@@ -4917,31 +5070,31 @@
       <c r="E5" s="68">
         <v>39205</v>
       </c>
-      <c r="F5" s="73" t="s">
-        <v>147</v>
+      <c r="F5" s="69" t="s">
+        <v>150</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H5" s="63" t="s">
         <v>34</v>
       </c>
       <c r="I5" s="63" t="s">
-        <v>148</v>
-      </c>
-      <c r="J5" s="70" t="s">
-        <v>149</v>
+        <v>151</v>
+      </c>
+      <c r="J5" s="71" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="6" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A6" s="71" t="s">
-        <v>150</v>
-      </c>
-      <c r="B6" s="72" t="s">
-        <v>151</v>
-      </c>
-      <c r="C6" s="72" t="s">
-        <v>152</v>
+      <c r="A6" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>155</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>13</v>
@@ -4949,31 +5102,31 @@
       <c r="E6" s="68">
         <v>39156</v>
       </c>
-      <c r="F6" s="73" t="s">
-        <v>153</v>
+      <c r="F6" s="69" t="s">
+        <v>156</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H6" s="63" t="s">
         <v>34</v>
       </c>
       <c r="I6" s="63" t="s">
-        <v>148</v>
-      </c>
-      <c r="J6" s="70" t="s">
-        <v>149</v>
+        <v>151</v>
+      </c>
+      <c r="J6" s="71" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="7" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A7" s="71" t="s">
-        <v>154</v>
-      </c>
-      <c r="B7" s="72" t="s">
-        <v>155</v>
-      </c>
-      <c r="C7" s="72" t="s">
-        <v>116</v>
+      <c r="A7" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>119</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>13</v>
@@ -4981,31 +5134,31 @@
       <c r="E7" s="68">
         <v>42171</v>
       </c>
-      <c r="F7" s="73" t="s">
-        <v>156</v>
+      <c r="F7" s="69" t="s">
+        <v>159</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H7" s="63" t="s">
         <v>34</v>
       </c>
       <c r="I7" s="63" t="s">
-        <v>148</v>
-      </c>
-      <c r="J7" s="70" t="s">
-        <v>157</v>
+        <v>151</v>
+      </c>
+      <c r="J7" s="71" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="8" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A8" s="71" t="s">
-        <v>158</v>
-      </c>
-      <c r="B8" s="72" t="s">
-        <v>159</v>
-      </c>
-      <c r="C8" s="72" t="s">
-        <v>152</v>
+      <c r="A8" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>155</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>12</v>
@@ -5013,31 +5166,31 @@
       <c r="E8" s="68">
         <v>42237</v>
       </c>
-      <c r="F8" s="73" t="s">
-        <v>160</v>
+      <c r="F8" s="69" t="s">
+        <v>163</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H8" s="63" t="s">
         <v>34</v>
       </c>
       <c r="I8" s="63" t="s">
-        <v>148</v>
-      </c>
-      <c r="J8" s="70" t="s">
-        <v>157</v>
+        <v>151</v>
+      </c>
+      <c r="J8" s="71" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="9" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A9" s="71" t="s">
-        <v>161</v>
-      </c>
-      <c r="B9" s="72" t="s">
-        <v>162</v>
-      </c>
-      <c r="C9" s="72" t="s">
-        <v>163</v>
+      <c r="A9" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>166</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>13</v>
@@ -5045,45 +5198,213 @@
       <c r="E9" s="68">
         <v>27791</v>
       </c>
-      <c r="F9" s="73" t="s">
-        <v>164</v>
+      <c r="F9" s="69" t="s">
+        <v>167</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H9" s="63" t="s">
         <v>34</v>
       </c>
       <c r="I9" s="63" t="s">
-        <v>165</v>
-      </c>
-      <c r="J9" s="70" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25">
-      <c r="A10" s="74"/>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="74"/>
-    </row>
-    <row r="11" ht="14.25">
-      <c r="A11" s="74"/>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
+        <v>168</v>
+      </c>
+      <c r="J9" s="71" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="68">
+        <v>38718</v>
+      </c>
+      <c r="F10" s="72" t="s">
+        <v>173</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="H10" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="J10" s="71" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="68">
+        <v>38749</v>
+      </c>
+      <c r="F11" s="72" t="s">
+        <v>178</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="H11" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="J11" s="71" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" s="14" customFormat="1">
+      <c r="A12" s="73" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="68">
+        <v>38777</v>
+      </c>
+      <c r="F12" s="72" t="s">
+        <v>182</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="H12" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="J12" s="71" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" s="14" customFormat="1">
+      <c r="A13" s="73" t="s">
+        <v>183</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="68">
+        <v>38808</v>
+      </c>
+      <c r="F13" s="72" t="s">
+        <v>186</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="H13" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="J13" s="71" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" s="14" customFormat="1">
+      <c r="A14" s="73" t="s">
+        <v>187</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="68">
+        <v>38838</v>
+      </c>
+      <c r="F14" s="72" t="s">
+        <v>190</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="H14" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="J14" s="71" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" s="14" customFormat="1">
+      <c r="A15" s="73" t="s">
+        <v>191</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="68">
+        <v>38869</v>
+      </c>
+      <c r="F15" s="72" t="s">
+        <v>194</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="H15" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="J15" s="71" t="s">
+        <v>174</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5092,6 +5413,12 @@
     <hyperlink r:id="rId3" ref="F5"/>
     <hyperlink r:id="rId4" ref="F7"/>
     <hyperlink r:id="rId5" ref="F9"/>
+    <hyperlink r:id="rId6" ref="F10"/>
+    <hyperlink r:id="rId7" ref="F11"/>
+    <hyperlink r:id="rId8" ref="F12"/>
+    <hyperlink r:id="rId9" ref="F13"/>
+    <hyperlink r:id="rId10" ref="F14"/>
+    <hyperlink r:id="rId11" ref="F15"/>
   </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -5099,48 +5426,12 @@
   <headerFooter/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00080055-0083-4A1A-B551-0011005B000A}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1" disablePrompts="0">
+        <x14:dataValidation xr:uid="{00DF0011-00C4-4DAC-8936-0003004200CA}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
-          <xm:sqref>D3</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{003400A6-00BF-4942-BFDD-0009007D00CA}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>GENRE_ANSWER</xm:f>
-          </x14:formula1>
-          <xm:sqref>D4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00C30048-005B-4E2F-99A6-00D800070054}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>GENRE_ANSWER</xm:f>
-          </x14:formula1>
-          <xm:sqref>D5</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0057003F-00BC-4EC5-BA30-00F200A800AA}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>GENRE_ANSWER</xm:f>
-          </x14:formula1>
-          <xm:sqref>D6</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00E300B8-0060-4E71-96E3-007600210042}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>GENRE_ANSWER</xm:f>
-          </x14:formula1>
-          <xm:sqref>D7</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{003F0078-001F-4669-8D2E-00CD007A0099}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>GENRE_ANSWER</xm:f>
-          </x14:formula1>
-          <xm:sqref>D8</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00640088-007F-47C7-B77A-009A0083004C}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>GENRE_ANSWER</xm:f>
-          </x14:formula1>
-          <xm:sqref>D9</xm:sqref>
+          <xm:sqref>D3:D15</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5160,61 +5451,46 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.8515625"/>
-    <col customWidth="1" min="2" max="2" width="17.421875"/>
+    <col customWidth="1" min="1" max="1" width="10.83203125"/>
+    <col customWidth="1" min="2" max="2" width="17.5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25">
+    <row r="1">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" ht="22.100000000000001" customHeight="1">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" ht="22" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="76" t="s">
-        <v>168</v>
+      <c r="B2" s="74" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3" s="77" t="str">
+        <v>121</v>
+      </c>
+      <c r="B3" s="71" t="str">
         <f>profiles!$A$10</f>
         <v>guardian</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
     </row>
     <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B4" s="77" t="str">
+        <v>118</v>
+      </c>
+      <c r="B4" s="71" t="str">
         <f>profiles!$A$9</f>
         <v>student</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" ht="14.25"/>
-    <row r="6" ht="14.25"/>
-    <row r="7" ht="14.25"/>
-    <row r="8" ht="14.25"/>
-    <row r="9" ht="14.25"/>
+    </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -5235,12 +5511,12 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="14.8515625"/>
-    <col customWidth="1" min="3" max="3" width="61.140625"/>
-    <col customWidth="1" min="4" max="4" width="21.57421875"/>
-    <col customWidth="1" min="5" max="5" width="33.57421875"/>
+    <col customWidth="1" min="2" max="2" width="14.83203125"/>
+    <col customWidth="1" min="3" max="3" width="61.1640625"/>
+    <col customWidth="1" min="4" max="4" width="21.5"/>
+    <col customWidth="1" min="5" max="5" width="33.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5251,50 +5527,49 @@
         <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="2" ht="24.350000000000001" customHeight="1">
-      <c r="A2" s="78" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" ht="24.25" customHeight="1">
+      <c r="A2" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="80" t="s">
-        <v>172</v>
-      </c>
-      <c r="D2" s="76" t="s">
-        <v>173</v>
+      <c r="C2" s="77" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="74" t="s">
+        <v>201</v>
       </c>
       <c r="E2" s="67" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="C3" s="77" t="s">
-        <v>177</v>
-      </c>
-      <c r="D3" s="81" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" s="71" t="s">
+        <v>205</v>
+      </c>
+      <c r="D3" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="77" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="4"/>
+      <c r="E3" s="71" t="s">
+        <v>206</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -5303,7 +5578,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00C70097-00A3-4624-9FBE-003600D30092}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00EF00C7-00DE-41B2-85DF-0097002A005A}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GUARDIANS_RELATIONSHIPS</xm:f>
           </x14:formula1>
@@ -5323,19 +5598,19 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView workbookViewId="0" zoomScale="160">
+      <selection activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="18.7109375"/>
-    <col customWidth="1" min="5" max="5" width="13.7109375"/>
-    <col customWidth="1" min="6" max="6" width="19.421875"/>
-    <col customWidth="1" min="7" max="7" width="25.140625"/>
+    <col customWidth="1" min="2" max="2" width="18.6640625"/>
+    <col customWidth="1" min="5" max="5" width="13.6640625"/>
+    <col customWidth="1" min="6" max="6" width="19.5"/>
+    <col customWidth="1" min="7" max="7" width="25.1640625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25">
+    <row r="1">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -5343,52 +5618,52 @@
         <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25">
-      <c r="A2" s="78" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" ht="16">
+      <c r="A2" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="82" t="s">
-        <v>184</v>
-      </c>
-      <c r="E2" s="82" t="s">
-        <v>185</v>
-      </c>
-      <c r="F2" s="82" t="s">
-        <v>186</v>
-      </c>
-      <c r="G2" s="82" t="s">
-        <v>187</v>
+      <c r="C2" s="80" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="79" t="s">
+        <v>212</v>
+      </c>
+      <c r="E2" s="79" t="s">
+        <v>213</v>
+      </c>
+      <c r="F2" s="79" t="s">
+        <v>214</v>
+      </c>
+      <c r="G2" s="79" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="3" ht="146.25" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" s="77" t="str">
+        <v>217</v>
+      </c>
+      <c r="C3" s="71" t="str">
         <f>centers!$A$3</f>
         <v>centerA</v>
       </c>
@@ -5398,14 +5673,37 @@
       <c r="E3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="84" t="s">
-        <v>190</v>
-      </c>
-      <c r="G3" s="85">
+      <c r="F3" s="81" t="s">
+        <v>218</v>
+      </c>
+      <c r="G3" s="82">
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="14.25"/>
+    <row r="4" s="14" customFormat="1" ht="146.25" customHeight="1">
+      <c r="A4" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" s="71" t="str">
+        <f>centers!$A$5</f>
+        <v>centerC</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="81" t="s">
+        <v>218</v>
+      </c>
+      <c r="G4" s="82">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -5414,17 +5712,17 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00960021-0048-4591-ADD0-00DD00AC00B9}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00540080-0021-4711-8567-00DB00340041}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GRADES_TYPES</xm:f>
           </x14:formula1>
-          <xm:sqref>D3</xm:sqref>
+          <xm:sqref>D3:D4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00DF0062-00DB-4D9A-832C-009200680068}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00E0009E-00BA-4DF8-BAE3-002700E10015}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
-          <xm:sqref>E3</xm:sqref>
+          <xm:sqref>E3:E4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5435,7 +5733,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="7" tint="0"/>
+    <tabColor theme="7"/>
     <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
@@ -5444,9 +5742,9 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="14.8515625"/>
+    <col customWidth="1" min="2" max="2" width="14.83203125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5454,31 +5752,31 @@
         <v>23</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" ht="22.100000000000001" customHeight="1">
-      <c r="A2" s="78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" ht="22" customHeight="1">
+      <c r="A2" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="80" t="s">
-        <v>168</v>
+      <c r="B2" s="77" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="77" t="str">
+        <v>112</v>
+      </c>
+      <c r="B3" s="71" t="str">
         <f>profiles!$A$8</f>
         <v>teacher</v>
       </c>
     </row>
     <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B4" s="77" t="str">
+        <v>118</v>
+      </c>
+      <c r="B4" s="71" t="str">
         <f>profiles!$A$9</f>
         <v>student</v>
       </c>
@@ -5494,37 +5792,36 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="7" tint="0"/>
+    <tabColor theme="7"/>
     <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="O1" workbookViewId="0" zoomScale="100">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="B4" xSplit="1" ySplit="3"/>
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showGridLines="0" topLeftCell="E1" workbookViewId="0" zoomScale="140">
+      <selection activeCell="K8" activeCellId="0" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.00390625"/>
-    <col customWidth="1" min="2" max="2" width="19.140625"/>
-    <col customWidth="1" min="3" max="3" width="12.00390625"/>
-    <col customWidth="1" min="5" max="6" width="11.140625"/>
-    <col customWidth="1" min="7" max="7" width="9.57421875"/>
-    <col customWidth="1" min="8" max="8" width="9.00390625"/>
-    <col customWidth="1" min="9" max="9" width="11.8515625"/>
-    <col customWidth="1" min="10" max="11" width="17.00390625"/>
-    <col customWidth="1" min="12" max="12" width="12.421875"/>
-    <col customWidth="1" min="13" max="13" width="12.140625"/>
-    <col customWidth="1" min="14" max="14" width="17.00390625"/>
-    <col customWidth="1" min="15" max="15" width="14.8515625"/>
-    <col customWidth="1" min="16" max="16" width="13.00390625"/>
-    <col customWidth="1" min="17" max="19" width="14.7109375"/>
-    <col customWidth="1" min="20" max="20" width="15.8515625"/>
-    <col customWidth="1" min="21" max="21" width="15.28125"/>
-    <col customWidth="1" min="22" max="22" width="12.8515625"/>
-    <col customWidth="1" min="23" max="23" width="14.140625"/>
-    <col customWidth="1" min="24" max="24" width="18.140625"/>
+    <col customWidth="1" min="1" max="1" width="11"/>
+    <col customWidth="1" min="2" max="2" width="19.1640625"/>
+    <col customWidth="1" min="3" max="3" width="12"/>
+    <col customWidth="1" min="5" max="6" width="11.1640625"/>
+    <col customWidth="1" min="7" max="7" width="9.5"/>
+    <col customWidth="1" min="8" max="8" width="9"/>
+    <col customWidth="1" min="9" max="9" width="11.83203125"/>
+    <col customWidth="1" min="10" max="11" width="17"/>
+    <col customWidth="1" min="12" max="12" width="12.5"/>
+    <col customWidth="1" min="13" max="13" width="12.1640625"/>
+    <col customWidth="1" min="14" max="14" width="17"/>
+    <col customWidth="1" min="15" max="15" width="14.83203125"/>
+    <col customWidth="1" min="16" max="16" width="13"/>
+    <col customWidth="1" min="17" max="19" width="14.6640625"/>
+    <col customWidth="1" min="20" max="20" width="15.83203125"/>
+    <col customWidth="1" min="21" max="21" width="15.33203125"/>
+    <col customWidth="1" min="22" max="22" width="12.83203125"/>
+    <col customWidth="1" min="23" max="23" width="14.1640625"/>
+    <col customWidth="1" min="24" max="24" width="18.1640625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5535,70 +5832,70 @@
         <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
@@ -5617,123 +5914,120 @@
       <c r="AM1" s="5"/>
       <c r="AN1" s="5"/>
     </row>
-    <row r="2" s="9" customFormat="1" ht="23.600000000000001" customHeight="1">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="F2" s="86" t="s">
-        <v>212</v>
-      </c>
-      <c r="G2" s="86"/>
-      <c r="H2" s="87" t="s">
-        <v>213</v>
-      </c>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="90" t="s">
-        <v>214</v>
-      </c>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="91" t="s">
-        <v>215</v>
-      </c>
-      <c r="S2" s="92"/>
-      <c r="T2" s="92"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="94" t="s">
-        <v>216</v>
-      </c>
-      <c r="W2" s="95"/>
-      <c r="X2" s="95"/>
-    </row>
-    <row r="3" ht="34.100000000000001" customHeight="1">
-      <c r="A3" s="96" t="s">
+    <row r="2" s="9" customFormat="1" ht="23.5" customHeight="1">
+      <c r="F2" s="83" t="s">
+        <v>242</v>
+      </c>
+      <c r="G2" s="83"/>
+      <c r="H2" s="84" t="s">
+        <v>243</v>
+      </c>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="87" t="s">
+        <v>244</v>
+      </c>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="88" t="s">
+        <v>245</v>
+      </c>
+      <c r="S2" s="89"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="90"/>
+      <c r="V2" s="91" t="s">
+        <v>246</v>
+      </c>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+    </row>
+    <row r="3" ht="34" customHeight="1">
+      <c r="A3" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="97" t="s">
-        <v>217</v>
-      </c>
-      <c r="D3" s="98" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" s="99" t="s">
-        <v>218</v>
-      </c>
-      <c r="F3" s="100" t="s">
-        <v>219</v>
-      </c>
-      <c r="G3" s="101" t="s">
-        <v>220</v>
-      </c>
-      <c r="H3" s="102" t="s">
-        <v>221</v>
-      </c>
-      <c r="I3" s="103" t="s">
-        <v>222</v>
-      </c>
-      <c r="J3" s="104" t="s">
-        <v>223</v>
-      </c>
-      <c r="K3" s="104" t="s">
-        <v>224</v>
-      </c>
-      <c r="L3" s="104" t="s">
-        <v>225</v>
-      </c>
-      <c r="M3" s="104" t="s">
-        <v>226</v>
-      </c>
-      <c r="N3" s="104" t="s">
-        <v>227</v>
-      </c>
-      <c r="O3" s="105" t="s">
-        <v>228</v>
-      </c>
-      <c r="P3" s="106" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q3" s="107" t="s">
-        <v>227</v>
-      </c>
-      <c r="R3" s="108" t="s">
-        <v>229</v>
-      </c>
-      <c r="S3" s="109" t="s">
-        <v>230</v>
-      </c>
-      <c r="T3" s="109" t="s">
-        <v>226</v>
-      </c>
-      <c r="U3" s="109" t="s">
-        <v>227</v>
-      </c>
-      <c r="V3" s="110" t="s">
-        <v>226</v>
-      </c>
-      <c r="W3" s="111" t="s">
-        <v>231</v>
-      </c>
-      <c r="X3" s="112" t="s">
-        <v>232</v>
+      <c r="C3" s="94" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3" s="95" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="96" t="s">
+        <v>248</v>
+      </c>
+      <c r="F3" s="97" t="s">
+        <v>249</v>
+      </c>
+      <c r="G3" s="98" t="s">
+        <v>250</v>
+      </c>
+      <c r="H3" s="99" t="s">
+        <v>251</v>
+      </c>
+      <c r="I3" s="100" t="s">
+        <v>252</v>
+      </c>
+      <c r="J3" s="101" t="s">
+        <v>253</v>
+      </c>
+      <c r="K3" s="101" t="s">
+        <v>254</v>
+      </c>
+      <c r="L3" s="101" t="s">
+        <v>255</v>
+      </c>
+      <c r="M3" s="101" t="s">
+        <v>256</v>
+      </c>
+      <c r="N3" s="101" t="s">
+        <v>257</v>
+      </c>
+      <c r="O3" s="102" t="s">
+        <v>258</v>
+      </c>
+      <c r="P3" s="103" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q3" s="104" t="s">
+        <v>257</v>
+      </c>
+      <c r="R3" s="105" t="s">
+        <v>259</v>
+      </c>
+      <c r="S3" s="106" t="s">
+        <v>260</v>
+      </c>
+      <c r="T3" s="106" t="s">
+        <v>256</v>
+      </c>
+      <c r="U3" s="106" t="s">
+        <v>257</v>
+      </c>
+      <c r="V3" s="107" t="s">
+        <v>256</v>
+      </c>
+      <c r="W3" s="108" t="s">
+        <v>261</v>
+      </c>
+      <c r="X3" s="109" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="D4" s="62" t="str">
         <f>centers!$A$3</f>
@@ -5756,7 +6050,7 @@
       <c r="J4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="113"/>
+      <c r="K4" s="110"/>
       <c r="L4" s="63"/>
       <c r="M4" s="63"/>
       <c r="N4" s="63"/>
@@ -5791,13 +6085,13 @@
     </row>
     <row r="5" s="9" customFormat="1" ht="28.5">
       <c r="A5" s="10" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="D5" s="62" t="str">
         <f>centers!$A$4</f>
@@ -5822,8 +6116,8 @@
       <c r="J5" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="113" t="s">
-        <v>239</v>
+      <c r="K5" s="110" t="s">
+        <v>269</v>
       </c>
       <c r="L5" s="63" t="s">
         <v>2</v>
@@ -5863,6 +6157,78 @@
       </c>
       <c r="X5" s="63" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="6" s="9" customFormat="1" ht="28.5">
+      <c r="A6" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="D6" s="62" t="str">
+        <f>centers!$A$5</f>
+        <v>centerC</v>
+      </c>
+      <c r="E6" s="62" t="str">
+        <f>ar_evaluations!A4</f>
+        <v>gradeC</v>
+      </c>
+      <c r="F6" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="63">
+        <v>0</v>
+      </c>
+      <c r="H6" s="63">
+        <v>4</v>
+      </c>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="110" t="s">
+        <v>272</v>
+      </c>
+      <c r="L6" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" s="63">
+        <v>4</v>
+      </c>
+      <c r="N6" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="R6" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="S6" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="T6" s="63">
+        <v>3</v>
+      </c>
+      <c r="U6" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="V6" s="63">
+        <v>3</v>
+      </c>
+      <c r="W6" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="X6" s="63" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -5879,84 +6245,18 @@
   <headerFooter/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="13" disablePrompts="0">
-        <x14:dataValidation xr:uid="{004D00F8-0066-4D28-BB06-006D005C007F}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2" disablePrompts="0">
+        <x14:dataValidation xr:uid="{00CF00B3-00BD-4795-8B4D-000B007C001E}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
-          <xm:sqref>X4</xm:sqref>
+          <xm:sqref>J4:J6 F4:F6 S4 U4:U6 W4:X6</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{001200E2-0054-4D79-869D-005F002800D8}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>BOOLEAN_ANSWER</xm:f>
-          </x14:formula1>
-          <xm:sqref>X5</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{005000F0-00D7-47E1-9E02-0038000700CE}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>BOOLEAN_ANSWER</xm:f>
-          </x14:formula1>
-          <xm:sqref>W4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00DC0044-00C5-45F8-93B2-000400190087}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>BOOLEAN_ANSWER</xm:f>
-          </x14:formula1>
-          <xm:sqref>W5</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00BB0075-0018-41AB-8775-00BC00F20002}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>BOOLEAN_ANSWER</xm:f>
-          </x14:formula1>
-          <xm:sqref>U4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{002F0075-0018-4B8F-83B9-00B90008008C}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>BOOLEAN_ANSWER</xm:f>
-          </x14:formula1>
-          <xm:sqref>U5</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00920059-00A5-42AD-AE1E-0083000E00F7}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>BOOLEAN_ANSWER</xm:f>
-          </x14:formula1>
-          <xm:sqref>S4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00A20005-0067-4D7B-801B-00E5009B007B}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>BOOLEAN_ANSWER</xm:f>
-          </x14:formula1>
-          <xm:sqref>F4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00DA000D-003A-41D0-9B56-002C00B60005}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>BOOLEAN_ANSWER</xm:f>
-          </x14:formula1>
-          <xm:sqref>F5</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{000C00D3-00F2-4597-9A77-00AA005B0067}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>BOOLEAN_ANSWER</xm:f>
-          </x14:formula1>
-          <xm:sqref>J4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00420027-005C-43B2-AEBF-00380034005B}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>BOOLEAN_ANSWER</xm:f>
-          </x14:formula1>
-          <xm:sqref>J5</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00B70087-0004-4D53-9E54-00D00085007A}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00BA005A-00AD-436E-B0FB-0008000A00DC}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>SUBSTAGES_FRECUENCY</xm:f>
           </x14:formula1>
-          <xm:sqref>L4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00270043-00DC-4F45-A6C5-007D009000E9}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>SUBSTAGES_FRECUENCY</xm:f>
-          </x14:formula1>
-          <xm:sqref>L5</xm:sqref>
+          <xm:sqref>L4:L6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/packages/leemons-plugin-mvp-template/src/bulk/data.xlsx
+++ b/packages/leemons-plugin-mvp-template/src/bulk/data.xlsx
@@ -459,7 +459,7 @@
     <t>Admin,Test</t>
   </si>
   <si>
-    <t xml:space="preserve">admin@centerA, admin@centerB, admin@centerC</t>
+    <t xml:space="preserve">admin@centerA, admin@centerB, admin@centerC,student@centerB,teacher@centerA, teacher@centerB</t>
   </si>
   <si>
     <t>teacher01</t>
@@ -1598,7 +1598,7 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="124">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1806,9 +1806,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf fontId="5" fillId="16" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2647,19 +2644,19 @@
       </c>
     </row>
     <row r="2" ht="28.5">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="94" t="s">
         <v>276</v>
       </c>
-      <c r="D2" s="111" t="s">
+      <c r="D2" s="110" t="s">
         <v>250</v>
       </c>
-      <c r="E2" s="111" t="s">
+      <c r="E2" s="110" t="s">
         <v>277</v>
       </c>
     </row>
@@ -2743,7 +2740,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00DD00F4-000F-4E54-8BAD-00B500F500E8}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00E200C8-0059-4422-A9C5-00CF001E00BC}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
@@ -2799,25 +2796,25 @@
       </c>
     </row>
     <row r="2" ht="28.5">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="111" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="78" t="s">
         <v>247</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="78" t="s">
         <v>287</v>
       </c>
-      <c r="E2" s="79" t="s">
+      <c r="E2" s="78" t="s">
         <v>288</v>
       </c>
-      <c r="F2" s="80" t="s">
+      <c r="F2" s="79" t="s">
         <v>276</v>
       </c>
-      <c r="G2" s="113" t="s">
+      <c r="G2" s="112" t="s">
         <v>250</v>
       </c>
     </row>
@@ -2834,7 +2831,7 @@
       <c r="D3" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="E3" s="114" t="s">
+      <c r="E3" s="113" t="s">
         <v>293</v>
       </c>
       <c r="F3" s="71" t="str">
@@ -2942,7 +2939,7 @@
       <c r="K1" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="L1" s="115" t="s">
+      <c r="L1" s="114" t="s">
         <v>305</v>
       </c>
       <c r="M1" s="14"/>
@@ -2965,43 +2962,43 @@
       <c r="M2" s="14"/>
     </row>
     <row r="3" ht="31.75" customHeight="1">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="111" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="95" t="s">
+      <c r="C3" s="94" t="s">
         <v>276</v>
       </c>
-      <c r="D3" s="94" t="s">
+      <c r="D3" s="93" t="s">
         <v>307</v>
       </c>
-      <c r="E3" s="79" t="s">
+      <c r="E3" s="78" t="s">
         <v>308</v>
       </c>
-      <c r="F3" s="94" t="s">
+      <c r="F3" s="93" t="s">
         <v>309</v>
       </c>
-      <c r="G3" s="94" t="s">
+      <c r="G3" s="93" t="s">
         <v>310</v>
       </c>
-      <c r="H3" s="116" t="s">
+      <c r="H3" s="115" t="s">
         <v>311</v>
       </c>
-      <c r="I3" s="117" t="s">
+      <c r="I3" s="116" t="s">
         <v>287</v>
       </c>
-      <c r="J3" s="117" t="s">
+      <c r="J3" s="116" t="s">
         <v>312</v>
       </c>
-      <c r="K3" s="118" t="s">
+      <c r="K3" s="117" t="s">
         <v>313</v>
       </c>
-      <c r="L3" s="80" t="s">
+      <c r="L3" s="79" t="s">
         <v>314</v>
       </c>
-      <c r="M3" s="119"/>
+      <c r="M3" s="118"/>
     </row>
     <row r="4" s="9" customFormat="1" ht="30" customHeight="1">
       <c r="A4" s="10" t="str">
@@ -3026,21 +3023,21 @@
         <f t="shared" ref="G4:G9" si="2">_xlfn.CONCAT("0",IF(M4&lt;10,"0",""),M4)</f>
         <v>001</v>
       </c>
-      <c r="H4" s="120" t="s">
+      <c r="H4" s="119" t="s">
         <v>316</v>
       </c>
-      <c r="I4" s="121" t="s">
+      <c r="I4" s="120" t="s">
         <v>317</v>
       </c>
       <c r="J4" s="63"/>
-      <c r="K4" s="122" t="str">
+      <c r="K4" s="121" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L4" s="123" t="s">
+      <c r="L4" s="122" t="s">
         <v>318</v>
       </c>
-      <c r="M4" s="124">
+      <c r="M4" s="123">
         <v>1</v>
       </c>
     </row>
@@ -3067,24 +3064,24 @@
         <f t="shared" si="2"/>
         <v>002</v>
       </c>
-      <c r="H5" s="120" t="str">
+      <c r="H5" s="119" t="str">
         <f t="shared" ref="H5:H10" si="4">H4</f>
         <v xml:space="preserve">Group A|G1A, Group B|G1B</v>
       </c>
-      <c r="I5" s="121" t="str">
+      <c r="I5" s="120" t="str">
         <f t="shared" ref="I5:I10" si="5">I4</f>
         <v>#FFEB9C</v>
       </c>
       <c r="J5" s="63"/>
-      <c r="K5" s="122" t="str">
+      <c r="K5" s="121" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L5" s="123" t="str">
+      <c r="L5" s="122" t="str">
         <f t="shared" ref="L5:L10" si="6">L4</f>
         <v xml:space="preserve">teacher01|main@G1A, teacher01|main@G1B</v>
       </c>
-      <c r="M5" s="124">
+      <c r="M5" s="123">
         <f t="shared" ref="M5:M10" si="7">M4+1</f>
         <v>2</v>
       </c>
@@ -3112,24 +3109,24 @@
         <f t="shared" si="2"/>
         <v>003</v>
       </c>
-      <c r="H6" s="120" t="str">
+      <c r="H6" s="119" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">Group A|G1A, Group B|G1B</v>
       </c>
-      <c r="I6" s="121" t="str">
+      <c r="I6" s="120" t="str">
         <f t="shared" si="5"/>
         <v>#FFEB9C</v>
       </c>
       <c r="J6" s="63"/>
-      <c r="K6" s="122" t="str">
+      <c r="K6" s="121" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L6" s="123" t="str">
+      <c r="L6" s="122" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">teacher01|main@G1A, teacher01|main@G1B</v>
       </c>
-      <c r="M6" s="124">
+      <c r="M6" s="123">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
@@ -3157,24 +3154,24 @@
         <f t="shared" si="2"/>
         <v>004</v>
       </c>
-      <c r="H7" s="120" t="str">
+      <c r="H7" s="119" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">Group A|G1A, Group B|G1B</v>
       </c>
-      <c r="I7" s="121" t="str">
+      <c r="I7" s="120" t="str">
         <f t="shared" si="5"/>
         <v>#FFEB9C</v>
       </c>
       <c r="J7" s="63"/>
-      <c r="K7" s="122" t="str">
+      <c r="K7" s="121" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="L7" s="123" t="str">
+      <c r="L7" s="122" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">teacher01|main@G1A, teacher01|main@G1B</v>
       </c>
-      <c r="M7" s="124">
+      <c r="M7" s="123">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
@@ -3202,22 +3199,22 @@
         <f t="shared" si="2"/>
         <v>005</v>
       </c>
-      <c r="H8" s="120" t="s">
+      <c r="H8" s="119" t="s">
         <v>323</v>
       </c>
-      <c r="I8" s="121" t="str">
+      <c r="I8" s="120" t="str">
         <f t="shared" si="5"/>
         <v>#FFEB9C</v>
       </c>
       <c r="J8" s="63"/>
-      <c r="K8" s="122" t="str">
+      <c r="K8" s="121" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L8" s="123" t="s">
+      <c r="L8" s="122" t="s">
         <v>324</v>
       </c>
-      <c r="M8" s="124">
+      <c r="M8" s="123">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
@@ -3245,23 +3242,23 @@
         <f t="shared" si="2"/>
         <v>006</v>
       </c>
-      <c r="H9" s="120" t="str">
+      <c r="H9" s="119" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">Group A|G2A, Group B|G2B</v>
       </c>
-      <c r="I9" s="121" t="s">
+      <c r="I9" s="120" t="s">
         <v>326</v>
       </c>
       <c r="J9" s="63"/>
-      <c r="K9" s="122" t="str">
+      <c r="K9" s="121" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L9" s="123" t="str">
+      <c r="L9" s="122" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">teacher01|main@G2A, teacher01|main@G2B</v>
       </c>
-      <c r="M9" s="124">
+      <c r="M9" s="123">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
@@ -3289,24 +3286,24 @@
         <f t="shared" ref="G10:G24" si="9">_xlfn.CONCAT("0",IF(M10&lt;10,"0",""),M10)</f>
         <v>007</v>
       </c>
-      <c r="H10" s="120" t="str">
+      <c r="H10" s="119" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">Group A|G2A, Group B|G2B</v>
       </c>
-      <c r="I10" s="121" t="str">
+      <c r="I10" s="120" t="str">
         <f t="shared" si="5"/>
         <v>#FFC7CE</v>
       </c>
       <c r="J10" s="63"/>
-      <c r="K10" s="122" t="str">
+      <c r="K10" s="121" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L10" s="123" t="str">
+      <c r="L10" s="122" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">teacher01|main@G2A, teacher01|main@G2B</v>
       </c>
-      <c r="M10" s="124">
+      <c r="M10" s="123">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
@@ -3334,24 +3331,24 @@
         <f t="shared" si="9"/>
         <v>008</v>
       </c>
-      <c r="H11" s="120" t="str">
+      <c r="H11" s="119" t="str">
         <f>H10</f>
         <v xml:space="preserve">Group A|G2A, Group B|G2B</v>
       </c>
-      <c r="I11" s="121" t="str">
+      <c r="I11" s="120" t="str">
         <f t="shared" ref="I11:I18" si="11">I10</f>
         <v>#FFC7CE</v>
       </c>
       <c r="J11" s="63"/>
-      <c r="K11" s="122" t="str">
+      <c r="K11" s="121" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="L11" s="123" t="str">
+      <c r="L11" s="122" t="str">
         <f>L10</f>
         <v xml:space="preserve">teacher01|main@G2A, teacher01|main@G2B</v>
       </c>
-      <c r="M11" s="124">
+      <c r="M11" s="123">
         <f t="shared" ref="M11:M24" si="12">M10+1</f>
         <v>8</v>
       </c>
@@ -3379,22 +3376,22 @@
         <f t="shared" si="9"/>
         <v>009</v>
       </c>
-      <c r="H12" s="120" t="s">
+      <c r="H12" s="119" t="s">
         <v>330</v>
       </c>
-      <c r="I12" s="121" t="str">
+      <c r="I12" s="120" t="str">
         <f t="shared" si="11"/>
         <v>#FFC7CE</v>
       </c>
       <c r="J12" s="63"/>
-      <c r="K12" s="122" t="str">
+      <c r="K12" s="121" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L12" s="123" t="s">
+      <c r="L12" s="122" t="s">
         <v>331</v>
       </c>
-      <c r="M12" s="124">
+      <c r="M12" s="123">
         <f t="shared" si="12"/>
         <v>9</v>
       </c>
@@ -3422,24 +3419,24 @@
         <f t="shared" si="9"/>
         <v>010</v>
       </c>
-      <c r="H13" s="120" t="str">
+      <c r="H13" s="119" t="str">
         <f t="shared" ref="H13:H24" si="13">H12</f>
         <v xml:space="preserve">Group A|G3A, Group B|G3B</v>
       </c>
-      <c r="I13" s="121" t="str">
+      <c r="I13" s="120" t="str">
         <f t="shared" si="11"/>
         <v>#FFC7CE</v>
       </c>
       <c r="J13" s="63"/>
-      <c r="K13" s="122" t="str">
+      <c r="K13" s="121" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L13" s="123" t="str">
+      <c r="L13" s="122" t="str">
         <f t="shared" ref="L13:L24" si="14">L12</f>
         <v xml:space="preserve">teacher01|main@G3A, teacher01|main@G3B</v>
       </c>
-      <c r="M13" s="124">
+      <c r="M13" s="123">
         <f t="shared" si="12"/>
         <v>10</v>
       </c>
@@ -3467,23 +3464,23 @@
         <f t="shared" si="9"/>
         <v>011</v>
       </c>
-      <c r="H14" s="120" t="str">
+      <c r="H14" s="119" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">Group A|G3A, Group B|G3B</v>
       </c>
-      <c r="I14" s="121" t="s">
+      <c r="I14" s="120" t="s">
         <v>334</v>
       </c>
       <c r="J14" s="63"/>
-      <c r="K14" s="122" t="str">
+      <c r="K14" s="121" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L14" s="123" t="str">
+      <c r="L14" s="122" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">teacher01|main@G3A, teacher01|main@G3B</v>
       </c>
-      <c r="M14" s="124">
+      <c r="M14" s="123">
         <f t="shared" si="12"/>
         <v>11</v>
       </c>
@@ -3511,24 +3508,24 @@
         <f t="shared" si="9"/>
         <v>012</v>
       </c>
-      <c r="H15" s="120" t="str">
+      <c r="H15" s="119" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">Group A|G3A, Group B|G3B</v>
       </c>
-      <c r="I15" s="121" t="str">
+      <c r="I15" s="120" t="str">
         <f t="shared" si="11"/>
         <v>#C6EFCD</v>
       </c>
       <c r="J15" s="63"/>
-      <c r="K15" s="122" t="str">
+      <c r="K15" s="121" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="L15" s="123" t="str">
+      <c r="L15" s="122" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">teacher01|main@G3A, teacher01|main@G3B</v>
       </c>
-      <c r="M15" s="124">
+      <c r="M15" s="123">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
@@ -3556,22 +3553,22 @@
         <f t="shared" si="9"/>
         <v>013</v>
       </c>
-      <c r="H16" s="120" t="s">
+      <c r="H16" s="119" t="s">
         <v>337</v>
       </c>
-      <c r="I16" s="121" t="str">
+      <c r="I16" s="120" t="str">
         <f t="shared" si="11"/>
         <v>#C6EFCD</v>
       </c>
       <c r="J16" s="63"/>
-      <c r="K16" s="122" t="str">
+      <c r="K16" s="121" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L16" s="123" t="s">
+      <c r="L16" s="122" t="s">
         <v>338</v>
       </c>
-      <c r="M16" s="124">
+      <c r="M16" s="123">
         <f t="shared" si="12"/>
         <v>13</v>
       </c>
@@ -3599,24 +3596,24 @@
         <f t="shared" si="9"/>
         <v>014</v>
       </c>
-      <c r="H17" s="120" t="str">
+      <c r="H17" s="119" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">Group A|G4A, Group B|G4B</v>
       </c>
-      <c r="I17" s="121" t="str">
+      <c r="I17" s="120" t="str">
         <f t="shared" si="11"/>
         <v>#C6EFCD</v>
       </c>
       <c r="J17" s="63"/>
-      <c r="K17" s="122" t="str">
+      <c r="K17" s="121" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L17" s="123" t="str">
+      <c r="L17" s="122" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">teacher01|main@G4A, teacher01|main@G4B</v>
       </c>
-      <c r="M17" s="124">
+      <c r="M17" s="123">
         <f t="shared" si="12"/>
         <v>14</v>
       </c>
@@ -3644,24 +3641,24 @@
         <f t="shared" si="9"/>
         <v>015</v>
       </c>
-      <c r="H18" s="120" t="str">
+      <c r="H18" s="119" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">Group A|G4A, Group B|G4B</v>
       </c>
-      <c r="I18" s="121" t="str">
+      <c r="I18" s="120" t="str">
         <f t="shared" si="11"/>
         <v>#C6EFCD</v>
       </c>
       <c r="J18" s="63"/>
-      <c r="K18" s="122" t="str">
+      <c r="K18" s="121" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L18" s="123" t="str">
+      <c r="L18" s="122" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">teacher01|main@G4A, teacher01|main@G4B</v>
       </c>
-      <c r="M18" s="124">
+      <c r="M18" s="123">
         <f t="shared" si="12"/>
         <v>15</v>
       </c>
@@ -3689,23 +3686,23 @@
         <f t="shared" si="9"/>
         <v>016</v>
       </c>
-      <c r="H19" s="120" t="str">
+      <c r="H19" s="119" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">Group A|G4A, Group B|G4B</v>
       </c>
-      <c r="I19" s="121" t="s">
+      <c r="I19" s="120" t="s">
         <v>342</v>
       </c>
       <c r="J19" s="63"/>
-      <c r="K19" s="122" t="str">
+      <c r="K19" s="121" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="L19" s="123" t="str">
+      <c r="L19" s="122" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">teacher01|main@G4A, teacher01|main@G4B</v>
       </c>
-      <c r="M19" s="124">
+      <c r="M19" s="123">
         <f t="shared" si="12"/>
         <v>16</v>
       </c>
@@ -3733,21 +3730,21 @@
         <f t="shared" si="9"/>
         <v>017</v>
       </c>
-      <c r="H20" s="120" t="s">
+      <c r="H20" s="119" t="s">
         <v>344</v>
       </c>
-      <c r="I20" s="121" t="s">
+      <c r="I20" s="120" t="s">
         <v>342</v>
       </c>
       <c r="J20" s="63"/>
-      <c r="K20" s="122" t="str">
+      <c r="K20" s="121" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L20" s="123" t="s">
+      <c r="L20" s="122" t="s">
         <v>345</v>
       </c>
-      <c r="M20" s="124">
+      <c r="M20" s="123">
         <f t="shared" si="12"/>
         <v>17</v>
       </c>
@@ -3775,23 +3772,23 @@
         <f t="shared" si="9"/>
         <v>018</v>
       </c>
-      <c r="H21" s="120" t="str">
+      <c r="H21" s="119" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">Group A|G5A, Group B|G5B</v>
       </c>
-      <c r="I21" s="121" t="s">
+      <c r="I21" s="120" t="s">
         <v>342</v>
       </c>
       <c r="J21" s="63"/>
-      <c r="K21" s="122" t="str">
+      <c r="K21" s="121" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L21" s="123" t="str">
+      <c r="L21" s="122" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">teacher01|main@G5A, teacher01|main@G5B</v>
       </c>
-      <c r="M21" s="124">
+      <c r="M21" s="123">
         <f t="shared" si="12"/>
         <v>18</v>
       </c>
@@ -3819,23 +3816,23 @@
         <f t="shared" si="9"/>
         <v>019</v>
       </c>
-      <c r="H22" s="120" t="str">
+      <c r="H22" s="119" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">Group A|G5A, Group B|G5B</v>
       </c>
-      <c r="I22" s="121" t="s">
+      <c r="I22" s="120" t="s">
         <v>342</v>
       </c>
       <c r="J22" s="63"/>
-      <c r="K22" s="122" t="str">
+      <c r="K22" s="121" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L22" s="123" t="str">
+      <c r="L22" s="122" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">teacher01|main@G5A, teacher01|main@G5B</v>
       </c>
-      <c r="M22" s="124">
+      <c r="M22" s="123">
         <f t="shared" si="12"/>
         <v>19</v>
       </c>
@@ -3863,21 +3860,21 @@
         <f t="shared" si="9"/>
         <v>001</v>
       </c>
-      <c r="H23" s="120" t="s">
+      <c r="H23" s="119" t="s">
         <v>349</v>
       </c>
-      <c r="I23" s="121" t="s">
+      <c r="I23" s="120" t="s">
         <v>350</v>
       </c>
       <c r="J23" s="63"/>
-      <c r="K23" s="122" t="str">
+      <c r="K23" s="121" t="str">
         <f>ap_subject_types!$A$6</f>
         <v>type04</v>
       </c>
-      <c r="L23" s="123" t="s">
+      <c r="L23" s="122" t="s">
         <v>351</v>
       </c>
-      <c r="M23" s="124">
+      <c r="M23" s="123">
         <v>1</v>
       </c>
     </row>
@@ -3904,23 +3901,23 @@
         <f t="shared" si="9"/>
         <v>002</v>
       </c>
-      <c r="H24" s="120" t="str">
+      <c r="H24" s="119" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">2ºA|2ºA, 2ºB|2ºB</v>
       </c>
-      <c r="I24" s="121" t="s">
+      <c r="I24" s="120" t="s">
         <v>353</v>
       </c>
       <c r="J24" s="63"/>
-      <c r="K24" s="122" t="str">
+      <c r="K24" s="121" t="str">
         <f>ap_subject_types!$A$6</f>
         <v>type04</v>
       </c>
-      <c r="L24" s="123" t="str">
+      <c r="L24" s="122" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">teacher01|main@2ºA, teacher01|main@2ºB</v>
       </c>
-      <c r="M24" s="124">
+      <c r="M24" s="123">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
@@ -5082,7 +5079,7 @@
       <c r="I5" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="J5" s="71" t="s">
+      <c r="J5" s="70" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5279,7 +5276,7 @@
       </c>
     </row>
     <row r="12" s="14" customFormat="1">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="10" t="s">
         <v>179</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -5311,7 +5308,7 @@
       </c>
     </row>
     <row r="13" s="14" customFormat="1">
-      <c r="A13" s="73" t="s">
+      <c r="A13" s="10" t="s">
         <v>183</v>
       </c>
       <c r="B13" s="11" t="s">
@@ -5343,7 +5340,7 @@
       </c>
     </row>
     <row r="14" s="14" customFormat="1">
-      <c r="A14" s="73" t="s">
+      <c r="A14" s="10" t="s">
         <v>187</v>
       </c>
       <c r="B14" s="11" t="s">
@@ -5375,7 +5372,7 @@
       </c>
     </row>
     <row r="15" s="14" customFormat="1">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="10" t="s">
         <v>191</v>
       </c>
       <c r="B15" s="11" t="s">
@@ -5427,7 +5424,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00DF0011-00C4-4DAC-8936-0003004200CA}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00930025-0041-4827-80E9-00F100810047}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
@@ -5469,7 +5466,7 @@
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="73" t="s">
         <v>196</v>
       </c>
     </row>
@@ -5537,16 +5534,16 @@
       </c>
     </row>
     <row r="2" ht="24.25" customHeight="1">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="76" t="s">
         <v>200</v>
       </c>
-      <c r="D2" s="74" t="s">
+      <c r="D2" s="73" t="s">
         <v>201</v>
       </c>
       <c r="E2" s="67" t="s">
@@ -5563,7 +5560,7 @@
       <c r="C3" s="71" t="s">
         <v>205</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="77" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="71" t="s">
@@ -5578,7 +5575,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00EF00C7-00DE-41B2-85DF-0097002A005A}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00730039-002A-483B-82A6-00D300DE0098}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GUARDIANS_RELATIONSHIPS</xm:f>
           </x14:formula1>
@@ -5634,25 +5631,25 @@
       </c>
     </row>
     <row r="2" ht="16">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="78" t="s">
         <v>212</v>
       </c>
-      <c r="E2" s="79" t="s">
+      <c r="E2" s="78" t="s">
         <v>213</v>
       </c>
-      <c r="F2" s="79" t="s">
+      <c r="F2" s="78" t="s">
         <v>214</v>
       </c>
-      <c r="G2" s="79" t="s">
+      <c r="G2" s="78" t="s">
         <v>215</v>
       </c>
     </row>
@@ -5673,10 +5670,10 @@
       <c r="E3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="81" t="s">
+      <c r="F3" s="80" t="s">
         <v>218</v>
       </c>
-      <c r="G3" s="82">
+      <c r="G3" s="81">
         <v>5</v>
       </c>
     </row>
@@ -5697,10 +5694,10 @@
       <c r="E4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="81" t="s">
+      <c r="F4" s="80" t="s">
         <v>218</v>
       </c>
-      <c r="G4" s="82">
+      <c r="G4" s="81">
         <v>5</v>
       </c>
     </row>
@@ -5712,13 +5709,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00540080-0021-4711-8567-00DB00340041}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00F700D7-00CB-4060-BE33-00DD00BC0037}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GRADES_TYPES</xm:f>
           </x14:formula1>
           <xm:sqref>D3:D4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00E0009E-00BA-4DF8-BAE3-002700E10015}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00A900FF-00CF-4DF6-A121-006900A4004A}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
@@ -5756,10 +5753,10 @@
       </c>
     </row>
     <row r="2" ht="22" customHeight="1">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="76" t="s">
         <v>196</v>
       </c>
     </row>
@@ -5915,107 +5912,107 @@
       <c r="AN1" s="5"/>
     </row>
     <row r="2" s="9" customFormat="1" ht="23.5" customHeight="1">
-      <c r="F2" s="83" t="s">
+      <c r="F2" s="82" t="s">
         <v>242</v>
       </c>
-      <c r="G2" s="83"/>
-      <c r="H2" s="84" t="s">
+      <c r="G2" s="82"/>
+      <c r="H2" s="83" t="s">
         <v>243</v>
       </c>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="87" t="s">
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="86" t="s">
         <v>244</v>
       </c>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="88" t="s">
+      <c r="P2" s="86"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="87" t="s">
         <v>245</v>
       </c>
-      <c r="S2" s="89"/>
-      <c r="T2" s="89"/>
-      <c r="U2" s="90"/>
-      <c r="V2" s="91" t="s">
+      <c r="S2" s="88"/>
+      <c r="T2" s="88"/>
+      <c r="U2" s="89"/>
+      <c r="V2" s="90" t="s">
         <v>246</v>
       </c>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
+      <c r="W2" s="91"/>
+      <c r="X2" s="91"/>
     </row>
     <row r="3" ht="34" customHeight="1">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="93" t="s">
         <v>247</v>
       </c>
-      <c r="D3" s="95" t="s">
+      <c r="D3" s="94" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="96" t="s">
+      <c r="E3" s="95" t="s">
         <v>248</v>
       </c>
-      <c r="F3" s="97" t="s">
+      <c r="F3" s="96" t="s">
         <v>249</v>
       </c>
-      <c r="G3" s="98" t="s">
+      <c r="G3" s="97" t="s">
         <v>250</v>
       </c>
-      <c r="H3" s="99" t="s">
+      <c r="H3" s="98" t="s">
         <v>251</v>
       </c>
-      <c r="I3" s="100" t="s">
+      <c r="I3" s="99" t="s">
         <v>252</v>
       </c>
-      <c r="J3" s="101" t="s">
+      <c r="J3" s="100" t="s">
         <v>253</v>
       </c>
-      <c r="K3" s="101" t="s">
+      <c r="K3" s="100" t="s">
         <v>254</v>
       </c>
-      <c r="L3" s="101" t="s">
+      <c r="L3" s="100" t="s">
         <v>255</v>
       </c>
-      <c r="M3" s="101" t="s">
+      <c r="M3" s="100" t="s">
         <v>256</v>
       </c>
-      <c r="N3" s="101" t="s">
+      <c r="N3" s="100" t="s">
         <v>257</v>
       </c>
-      <c r="O3" s="102" t="s">
+      <c r="O3" s="101" t="s">
         <v>258</v>
       </c>
-      <c r="P3" s="103" t="s">
+      <c r="P3" s="102" t="s">
         <v>256</v>
       </c>
-      <c r="Q3" s="104" t="s">
+      <c r="Q3" s="103" t="s">
         <v>257</v>
       </c>
-      <c r="R3" s="105" t="s">
+      <c r="R3" s="104" t="s">
         <v>259</v>
       </c>
-      <c r="S3" s="106" t="s">
+      <c r="S3" s="105" t="s">
         <v>260</v>
       </c>
-      <c r="T3" s="106" t="s">
+      <c r="T3" s="105" t="s">
         <v>256</v>
       </c>
-      <c r="U3" s="106" t="s">
+      <c r="U3" s="105" t="s">
         <v>257</v>
       </c>
-      <c r="V3" s="107" t="s">
+      <c r="V3" s="106" t="s">
         <v>256</v>
       </c>
-      <c r="W3" s="108" t="s">
+      <c r="W3" s="107" t="s">
         <v>261</v>
       </c>
-      <c r="X3" s="109" t="s">
+      <c r="X3" s="108" t="s">
         <v>262</v>
       </c>
     </row>
@@ -6050,7 +6047,7 @@
       <c r="J4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="110"/>
+      <c r="K4" s="109"/>
       <c r="L4" s="63"/>
       <c r="M4" s="63"/>
       <c r="N4" s="63"/>
@@ -6116,7 +6113,7 @@
       <c r="J5" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="110" t="s">
+      <c r="K5" s="109" t="s">
         <v>269</v>
       </c>
       <c r="L5" s="63" t="s">
@@ -6190,7 +6187,7 @@
       <c r="J6" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="110" t="s">
+      <c r="K6" s="109" t="s">
         <v>272</v>
       </c>
       <c r="L6" s="63" t="s">
@@ -6246,13 +6243,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00CF00B3-00BD-4795-8B4D-000B007C001E}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{007A0006-004B-4ECA-BE3B-0047009400FB}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>J4:J6 F4:F6 S4 U4:U6 W4:X6</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00BA005A-00AD-436E-B0FB-0008000A00DC}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00910010-0084-4272-87E8-00CF007D00EC}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>SUBSTAGES_FRECUENCY</xm:f>
           </x14:formula1>

--- a/packages/leemons-plugin-mvp-template/src/bulk/data.xlsx
+++ b/packages/leemons-plugin-mvp-template/src/bulk/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="ap_subject_types" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="ap_knowledges" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="ap_subjects" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="t_profiles" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="BOOLEAN_ANSWER">DB!$A$11:$A$12</definedName>
@@ -1802,13 +1803,13 @@
     <xf fontId="0" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf fontId="5" fillId="16" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf fontId="2" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2667,7 +2668,7 @@
       <c r="B3" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="C3" s="71" t="str">
+      <c r="C3" s="70" t="str">
         <f>ap_programs!$A$4</f>
         <v>programA</v>
       </c>
@@ -2685,7 +2686,7 @@
       <c r="B4" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="C4" s="71" t="str">
+      <c r="C4" s="70" t="str">
         <f>ap_programs!$A$5</f>
         <v>programB</v>
       </c>
@@ -2703,7 +2704,7 @@
       <c r="B5" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="C5" s="71" t="str">
+      <c r="C5" s="70" t="str">
         <f>ap_programs!$A$4</f>
         <v>programA</v>
       </c>
@@ -2721,7 +2722,7 @@
       <c r="B6" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="C6" s="71" t="str">
+      <c r="C6" s="70" t="str">
         <f>ap_programs!$A$6</f>
         <v>programC</v>
       </c>
@@ -2740,7 +2741,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00E200C8-0059-4422-A9C5-00CF001E00BC}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00AD009E-008C-4D2D-861F-00E40005008C}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
@@ -2834,7 +2835,7 @@
       <c r="E3" s="113" t="s">
         <v>293</v>
       </c>
-      <c r="F3" s="71" t="str">
+      <c r="F3" s="70" t="str">
         <f>ap_programs!$A$5</f>
         <v>programB</v>
       </c>
@@ -2858,7 +2859,7 @@
       <c r="E4" s="69" t="s">
         <v>298</v>
       </c>
-      <c r="F4" s="71" t="str">
+      <c r="F4" s="70" t="str">
         <f>ap_programs!$A$5</f>
         <v>programB</v>
       </c>
@@ -3008,7 +3009,7 @@
       <c r="B4" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="C4" s="71" t="str">
+      <c r="C4" s="70" t="str">
         <f>ap_programs!A4</f>
         <v>programA</v>
       </c>
@@ -3049,7 +3050,7 @@
       <c r="B5" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="C5" s="71" t="str">
+      <c r="C5" s="70" t="str">
         <f t="shared" ref="C5:C10" si="3">C4</f>
         <v>programA</v>
       </c>
@@ -3094,7 +3095,7 @@
       <c r="B6" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="C6" s="71" t="str">
+      <c r="C6" s="70" t="str">
         <f t="shared" si="3"/>
         <v>programA</v>
       </c>
@@ -3139,7 +3140,7 @@
       <c r="B7" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="C7" s="71" t="str">
+      <c r="C7" s="70" t="str">
         <f t="shared" si="3"/>
         <v>programA</v>
       </c>
@@ -3184,7 +3185,7 @@
       <c r="B8" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="C8" s="71" t="str">
+      <c r="C8" s="70" t="str">
         <f t="shared" si="3"/>
         <v>programA</v>
       </c>
@@ -3227,7 +3228,7 @@
       <c r="B9" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="C9" s="71" t="str">
+      <c r="C9" s="70" t="str">
         <f t="shared" si="3"/>
         <v>programA</v>
       </c>
@@ -3271,7 +3272,7 @@
       <c r="B10" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="C10" s="71" t="str">
+      <c r="C10" s="70" t="str">
         <f t="shared" si="3"/>
         <v>programA</v>
       </c>
@@ -3316,7 +3317,7 @@
       <c r="B11" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="C11" s="71" t="str">
+      <c r="C11" s="70" t="str">
         <f t="shared" ref="C11:C24" si="10">C10</f>
         <v>programA</v>
       </c>
@@ -3361,7 +3362,7 @@
       <c r="B12" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="C12" s="71" t="str">
+      <c r="C12" s="70" t="str">
         <f t="shared" si="10"/>
         <v>programA</v>
       </c>
@@ -3404,7 +3405,7 @@
       <c r="B13" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="C13" s="71" t="str">
+      <c r="C13" s="70" t="str">
         <f t="shared" si="10"/>
         <v>programA</v>
       </c>
@@ -3449,7 +3450,7 @@
       <c r="B14" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="C14" s="71" t="str">
+      <c r="C14" s="70" t="str">
         <f t="shared" si="10"/>
         <v>programA</v>
       </c>
@@ -3493,7 +3494,7 @@
       <c r="B15" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="C15" s="71" t="str">
+      <c r="C15" s="70" t="str">
         <f t="shared" si="10"/>
         <v>programA</v>
       </c>
@@ -3538,7 +3539,7 @@
       <c r="B16" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="C16" s="71" t="str">
+      <c r="C16" s="70" t="str">
         <f t="shared" si="10"/>
         <v>programA</v>
       </c>
@@ -3581,7 +3582,7 @@
       <c r="B17" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="C17" s="71" t="str">
+      <c r="C17" s="70" t="str">
         <f t="shared" si="10"/>
         <v>programA</v>
       </c>
@@ -3626,7 +3627,7 @@
       <c r="B18" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="C18" s="71" t="str">
+      <c r="C18" s="70" t="str">
         <f t="shared" si="10"/>
         <v>programA</v>
       </c>
@@ -3671,7 +3672,7 @@
       <c r="B19" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="C19" s="71" t="str">
+      <c r="C19" s="70" t="str">
         <f t="shared" si="10"/>
         <v>programA</v>
       </c>
@@ -3715,7 +3716,7 @@
       <c r="B20" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="C20" s="71" t="str">
+      <c r="C20" s="70" t="str">
         <f t="shared" si="10"/>
         <v>programA</v>
       </c>
@@ -3757,7 +3758,7 @@
       <c r="B21" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="C21" s="71" t="str">
+      <c r="C21" s="70" t="str">
         <f t="shared" si="10"/>
         <v>programA</v>
       </c>
@@ -3801,7 +3802,7 @@
       <c r="B22" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="C22" s="71" t="str">
+      <c r="C22" s="70" t="str">
         <f t="shared" si="10"/>
         <v>programA</v>
       </c>
@@ -3845,7 +3846,7 @@
       <c r="B23" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="C23" s="71" t="str">
+      <c r="C23" s="70" t="str">
         <f>ap_programs!A6</f>
         <v>programC</v>
       </c>
@@ -3886,7 +3887,7 @@
       <c r="B24" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="C24" s="71" t="str">
+      <c r="C24" s="70" t="str">
         <f t="shared" si="10"/>
         <v>programC</v>
       </c>
@@ -3929,6 +3930,65 @@
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+    <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="14.7109375"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" ht="21.75" customHeight="1">
+      <c r="A2" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="76" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" ht="19.5" customHeight="1">
+      <c r="A3" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="70" t="str">
+        <f>profiles!$A$8</f>
+        <v>teacher</v>
+      </c>
+    </row>
+    <row r="4" ht="19.5" customHeight="1">
+      <c r="A4" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" s="70" t="str">
+        <f>profiles!$A$9</f>
+        <v>student</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -5111,7 +5171,7 @@
       <c r="I6" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="J6" s="71" t="s">
+      <c r="J6" s="70" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5143,7 +5203,7 @@
       <c r="I7" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="J7" s="71" t="s">
+      <c r="J7" s="70" t="s">
         <v>160</v>
       </c>
     </row>
@@ -5175,7 +5235,7 @@
       <c r="I8" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="J8" s="71" t="s">
+      <c r="J8" s="70" t="s">
         <v>160</v>
       </c>
     </row>
@@ -5207,7 +5267,7 @@
       <c r="I9" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="J9" s="71" t="s">
+      <c r="J9" s="70" t="s">
         <v>169</v>
       </c>
     </row>
@@ -5227,7 +5287,7 @@
       <c r="E10" s="68">
         <v>38718</v>
       </c>
-      <c r="F10" s="72" t="s">
+      <c r="F10" s="71" t="s">
         <v>173</v>
       </c>
       <c r="G10" s="11" t="s">
@@ -5239,7 +5299,7 @@
       <c r="I10" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="J10" s="71" t="s">
+      <c r="J10" s="70" t="s">
         <v>174</v>
       </c>
     </row>
@@ -5259,7 +5319,7 @@
       <c r="E11" s="68">
         <v>38749</v>
       </c>
-      <c r="F11" s="72" t="s">
+      <c r="F11" s="71" t="s">
         <v>178</v>
       </c>
       <c r="G11" s="11" t="s">
@@ -5271,7 +5331,7 @@
       <c r="I11" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="J11" s="71" t="s">
+      <c r="J11" s="70" t="s">
         <v>174</v>
       </c>
     </row>
@@ -5291,7 +5351,7 @@
       <c r="E12" s="68">
         <v>38777</v>
       </c>
-      <c r="F12" s="72" t="s">
+      <c r="F12" s="71" t="s">
         <v>182</v>
       </c>
       <c r="G12" s="11" t="s">
@@ -5303,7 +5363,7 @@
       <c r="I12" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="J12" s="71" t="s">
+      <c r="J12" s="70" t="s">
         <v>174</v>
       </c>
     </row>
@@ -5323,7 +5383,7 @@
       <c r="E13" s="68">
         <v>38808</v>
       </c>
-      <c r="F13" s="72" t="s">
+      <c r="F13" s="71" t="s">
         <v>186</v>
       </c>
       <c r="G13" s="11" t="s">
@@ -5335,7 +5395,7 @@
       <c r="I13" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="J13" s="71" t="s">
+      <c r="J13" s="70" t="s">
         <v>174</v>
       </c>
     </row>
@@ -5355,7 +5415,7 @@
       <c r="E14" s="68">
         <v>38838</v>
       </c>
-      <c r="F14" s="72" t="s">
+      <c r="F14" s="71" t="s">
         <v>190</v>
       </c>
       <c r="G14" s="11" t="s">
@@ -5367,7 +5427,7 @@
       <c r="I14" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="J14" s="71" t="s">
+      <c r="J14" s="70" t="s">
         <v>174</v>
       </c>
     </row>
@@ -5387,7 +5447,7 @@
       <c r="E15" s="68">
         <v>38869</v>
       </c>
-      <c r="F15" s="72" t="s">
+      <c r="F15" s="71" t="s">
         <v>194</v>
       </c>
       <c r="G15" s="11" t="s">
@@ -5399,7 +5459,7 @@
       <c r="I15" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="J15" s="71" t="s">
+      <c r="J15" s="70" t="s">
         <v>174</v>
       </c>
     </row>
@@ -5424,7 +5484,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00930025-0041-4827-80E9-00F100810047}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{005400B5-003F-48E6-A533-0082008B00D2}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
@@ -5466,7 +5526,7 @@
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="72" t="s">
         <v>196</v>
       </c>
     </row>
@@ -5474,16 +5534,16 @@
       <c r="A3" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="71" t="str">
+      <c r="B3" s="70" t="str">
         <f>profiles!$A$10</f>
         <v>guardian</v>
       </c>
     </row>
     <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="73" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="71" t="str">
+      <c r="B4" s="70" t="str">
         <f>profiles!$A$9</f>
         <v>student</v>
       </c>
@@ -5543,7 +5603,7 @@
       <c r="C2" s="76" t="s">
         <v>200</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="72" t="s">
         <v>201</v>
       </c>
       <c r="E2" s="67" t="s">
@@ -5557,13 +5617,13 @@
       <c r="B3" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="70" t="s">
         <v>205</v>
       </c>
       <c r="D3" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="71" t="s">
+      <c r="E3" s="70" t="s">
         <v>206</v>
       </c>
     </row>
@@ -5575,7 +5635,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00730039-002A-483B-82A6-00D300DE0098}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00A90089-00F9-4BA2-8B38-0098000C0086}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GUARDIANS_RELATIONSHIPS</xm:f>
           </x14:formula1>
@@ -5660,7 +5720,7 @@
       <c r="B3" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="C3" s="71" t="str">
+      <c r="C3" s="70" t="str">
         <f>centers!$A$3</f>
         <v>centerA</v>
       </c>
@@ -5684,7 +5744,7 @@
       <c r="B4" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C4" s="71" t="str">
+      <c r="C4" s="70" t="str">
         <f>centers!$A$5</f>
         <v>centerC</v>
       </c>
@@ -5709,13 +5769,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00F700D7-00CB-4060-BE33-00DD00BC0037}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{000500B0-005C-47AD-984E-00A000A90066}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GRADES_TYPES</xm:f>
           </x14:formula1>
           <xm:sqref>D3:D4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00A900FF-00CF-4DF6-A121-006900A4004A}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00220015-0070-4689-BA77-00ED00E900A2}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
@@ -5764,7 +5824,7 @@
       <c r="A3" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="71" t="str">
+      <c r="B3" s="70" t="str">
         <f>profiles!$A$8</f>
         <v>teacher</v>
       </c>
@@ -5773,7 +5833,7 @@
       <c r="A4" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="71" t="str">
+      <c r="B4" s="70" t="str">
         <f>profiles!$A$9</f>
         <v>student</v>
       </c>
@@ -6243,13 +6303,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2" disablePrompts="0">
-        <x14:dataValidation xr:uid="{007A0006-004B-4ECA-BE3B-0047009400FB}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00B1004A-003F-4944-88D3-00DA005E0026}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>J4:J6 F4:F6 S4 U4:U6 W4:X6</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00910010-0084-4272-87E8-00CF007D00EC}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00CD007F-007B-40F4-9B3E-002B0051007F}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>SUBSTAGES_FRECUENCY</xm:f>
           </x14:formula1>

--- a/packages/leemons-plugin-mvp-template/src/bulk/data.xlsx
+++ b/packages/leemons-plugin-mvp-template/src/bulk/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" state="visible" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="356">
   <si>
     <t xml:space="preserve">Substages frecuency</t>
   </si>
@@ -936,6 +936,9 @@
     <t>seats</t>
   </si>
   <si>
+    <t>creator</t>
+  </si>
+  <si>
     <t>internalId</t>
   </si>
   <si>
@@ -961,6 +964,9 @@
   </si>
   <si>
     <t>Credits</t>
+  </si>
+  <si>
+    <t>Creator</t>
   </si>
   <si>
     <t>InternalID</t>
@@ -1598,7 +1604,7 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="123">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1797,9 +1803,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf fontId="11" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf fontId="0" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2644,19 +2647,19 @@
       </c>
     </row>
     <row r="2" ht="28.5">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="93" t="s">
         <v>276</v>
       </c>
-      <c r="D2" s="110" t="s">
+      <c r="D2" s="109" t="s">
         <v>250</v>
       </c>
-      <c r="E2" s="110" t="s">
+      <c r="E2" s="109" t="s">
         <v>277</v>
       </c>
     </row>
@@ -2667,7 +2670,7 @@
       <c r="B3" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="C3" s="71" t="str">
+      <c r="C3" s="70" t="str">
         <f>ap_programs!$A$4</f>
         <v>programA</v>
       </c>
@@ -2685,7 +2688,7 @@
       <c r="B4" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="C4" s="71" t="str">
+      <c r="C4" s="70" t="str">
         <f>ap_programs!$A$5</f>
         <v>programB</v>
       </c>
@@ -2703,7 +2706,7 @@
       <c r="B5" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="C5" s="71" t="str">
+      <c r="C5" s="70" t="str">
         <f>ap_programs!$A$4</f>
         <v>programA</v>
       </c>
@@ -2721,7 +2724,7 @@
       <c r="B6" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="C6" s="71" t="str">
+      <c r="C6" s="70" t="str">
         <f>ap_programs!$A$6</f>
         <v>programC</v>
       </c>
@@ -2740,7 +2743,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00E200C8-0059-4422-A9C5-00CF001E00BC}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00AB0053-00CD-4E33-AD8D-00ED00A600D0}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
@@ -2796,25 +2799,25 @@
       </c>
     </row>
     <row r="2" ht="28.5">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="77" t="s">
         <v>247</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="D2" s="77" t="s">
         <v>287</v>
       </c>
-      <c r="E2" s="78" t="s">
+      <c r="E2" s="77" t="s">
         <v>288</v>
       </c>
-      <c r="F2" s="79" t="s">
+      <c r="F2" s="78" t="s">
         <v>276</v>
       </c>
-      <c r="G2" s="112" t="s">
+      <c r="G2" s="111" t="s">
         <v>250</v>
       </c>
     </row>
@@ -2831,10 +2834,10 @@
       <c r="D3" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="E3" s="113" t="s">
+      <c r="E3" s="112" t="s">
         <v>293</v>
       </c>
-      <c r="F3" s="71" t="str">
+      <c r="F3" s="70" t="str">
         <f>ap_programs!$A$5</f>
         <v>programB</v>
       </c>
@@ -2858,7 +2861,7 @@
       <c r="E4" s="69" t="s">
         <v>298</v>
       </c>
-      <c r="F4" s="71" t="str">
+      <c r="F4" s="70" t="str">
         <f>ap_programs!$A$5</f>
         <v>programB</v>
       </c>
@@ -2896,13 +2899,13 @@
     <col customWidth="1" min="1" max="1" width="12.83203125"/>
     <col customWidth="1" min="2" max="2" width="31.421875"/>
     <col customWidth="1" min="3" max="3" width="12.83203125"/>
-    <col customWidth="1" min="7" max="7" width="10.5"/>
-    <col customWidth="1" min="8" max="8" width="13"/>
-    <col customWidth="1" min="9" max="9" width="10.83203125"/>
-    <col customWidth="1" min="10" max="10" width="11.83203125"/>
-    <col customWidth="1" min="11" max="11" width="10.1640625"/>
-    <col customWidth="1" min="12" max="12" width="23.33203125"/>
-    <col customWidth="1" min="13" max="13" width="3.5"/>
+    <col customWidth="1" min="8" max="8" width="10.5"/>
+    <col customWidth="1" min="9" max="9" width="13"/>
+    <col customWidth="1" min="10" max="10" width="10.83203125"/>
+    <col customWidth="1" min="11" max="11" width="11.83203125"/>
+    <col customWidth="1" min="12" max="12" width="10.1640625"/>
+    <col customWidth="1" min="13" max="13" width="23.33203125"/>
+    <col customWidth="1" min="14" max="14" width="3.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2931,18 +2934,21 @@
         <v>302</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>285</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>303</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="L1" s="114" t="s">
+      <c r="L1" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="M1" s="14"/>
+      <c r="M1" s="113" t="s">
+        <v>306</v>
+      </c>
+      <c r="N1" s="14"/>
     </row>
     <row r="2" ht="28.75" customHeight="1">
       <c r="A2" s="5"/>
@@ -2952,63 +2958,67 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="I2" s="1"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="1" t="s">
+        <v>307</v>
+      </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="14"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="14"/>
     </row>
     <row r="3" ht="31.75" customHeight="1">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="93" t="s">
         <v>276</v>
       </c>
-      <c r="D3" s="93" t="s">
-        <v>307</v>
-      </c>
-      <c r="E3" s="78" t="s">
+      <c r="D3" s="92" t="s">
         <v>308</v>
       </c>
-      <c r="F3" s="93" t="s">
+      <c r="E3" s="77" t="s">
         <v>309</v>
       </c>
-      <c r="G3" s="93" t="s">
+      <c r="F3" s="92" t="s">
         <v>310</v>
       </c>
-      <c r="H3" s="115" t="s">
+      <c r="G3" s="92" t="s">
         <v>311</v>
       </c>
-      <c r="I3" s="116" t="s">
+      <c r="H3" s="92" t="s">
+        <v>312</v>
+      </c>
+      <c r="I3" s="114" t="s">
+        <v>313</v>
+      </c>
+      <c r="J3" s="115" t="s">
         <v>287</v>
       </c>
-      <c r="J3" s="116" t="s">
-        <v>312</v>
-      </c>
-      <c r="K3" s="117" t="s">
-        <v>313</v>
-      </c>
-      <c r="L3" s="79" t="s">
+      <c r="K3" s="115" t="s">
         <v>314</v>
       </c>
-      <c r="M3" s="118"/>
+      <c r="L3" s="116" t="s">
+        <v>315</v>
+      </c>
+      <c r="M3" s="78" t="s">
+        <v>316</v>
+      </c>
+      <c r="N3" s="117"/>
     </row>
     <row r="4" s="9" customFormat="1" ht="30" customHeight="1">
       <c r="A4" s="10" t="str">
-        <f t="shared" ref="A4:A9" si="1">_xlfn.CONCAT("subject",IF(M4&lt;10,"0",""),M4)</f>
+        <f t="shared" ref="A4:A9" si="1">_xlfn.CONCAT("subject",IF(N4&lt;10,"0",""),N4)</f>
         <v>subject01</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="C4" s="71" t="str">
+        <v>317</v>
+      </c>
+      <c r="C4" s="70" t="str">
         <f>ap_programs!A4</f>
         <v>programA</v>
       </c>
@@ -3019,25 +3029,28 @@
         <v>20</v>
       </c>
       <c r="F4" s="63"/>
-      <c r="G4" s="63" t="str">
-        <f t="shared" ref="G4:G9" si="2">_xlfn.CONCAT("0",IF(M4&lt;10,"0",""),M4)</f>
+      <c r="G4" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="H4" s="63" t="str">
+        <f t="shared" ref="H4:H9" si="2">_xlfn.CONCAT("0",IF(N4&lt;10,"0",""),N4)</f>
         <v>001</v>
       </c>
-      <c r="H4" s="119" t="s">
-        <v>316</v>
-      </c>
-      <c r="I4" s="120" t="s">
-        <v>317</v>
-      </c>
-      <c r="J4" s="63"/>
-      <c r="K4" s="121" t="str">
+      <c r="I4" s="118" t="s">
+        <v>318</v>
+      </c>
+      <c r="J4" s="119" t="s">
+        <v>319</v>
+      </c>
+      <c r="K4" s="63"/>
+      <c r="L4" s="120" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L4" s="122" t="s">
-        <v>318</v>
-      </c>
-      <c r="M4" s="123">
+      <c r="M4" s="121" t="s">
+        <v>320</v>
+      </c>
+      <c r="N4" s="122">
         <v>1</v>
       </c>
     </row>
@@ -3047,9 +3060,9 @@
         <v>subject02</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="C5" s="71" t="str">
+        <v>321</v>
+      </c>
+      <c r="C5" s="70" t="str">
         <f t="shared" ref="C5:C10" si="3">C4</f>
         <v>programA</v>
       </c>
@@ -3060,29 +3073,32 @@
         <v>20</v>
       </c>
       <c r="F5" s="63"/>
-      <c r="G5" s="63" t="str">
+      <c r="G5" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="H5" s="63" t="str">
         <f t="shared" si="2"/>
         <v>002</v>
       </c>
-      <c r="H5" s="119" t="str">
-        <f t="shared" ref="H5:H10" si="4">H4</f>
+      <c r="I5" s="118" t="str">
+        <f t="shared" ref="I5:I10" si="4">I4</f>
         <v xml:space="preserve">Group A|G1A, Group B|G1B</v>
       </c>
-      <c r="I5" s="120" t="str">
-        <f t="shared" ref="I5:I10" si="5">I4</f>
+      <c r="J5" s="119" t="str">
+        <f t="shared" ref="J5:J10" si="5">J4</f>
         <v>#FFEB9C</v>
       </c>
-      <c r="J5" s="63"/>
-      <c r="K5" s="121" t="str">
+      <c r="K5" s="63"/>
+      <c r="L5" s="120" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L5" s="122" t="str">
-        <f t="shared" ref="L5:L10" si="6">L4</f>
+      <c r="M5" s="121" t="str">
+        <f t="shared" ref="M5:M10" si="6">M4</f>
         <v xml:space="preserve">teacher01|main@G1A, teacher01|main@G1B</v>
       </c>
-      <c r="M5" s="123">
-        <f t="shared" ref="M5:M10" si="7">M4+1</f>
+      <c r="N5" s="122">
+        <f t="shared" ref="N5:N10" si="7">N4+1</f>
         <v>2</v>
       </c>
     </row>
@@ -3092,9 +3108,9 @@
         <v>subject03</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="C6" s="71" t="str">
+        <v>322</v>
+      </c>
+      <c r="C6" s="70" t="str">
         <f t="shared" si="3"/>
         <v>programA</v>
       </c>
@@ -3105,28 +3121,31 @@
         <v>20</v>
       </c>
       <c r="F6" s="63"/>
-      <c r="G6" s="63" t="str">
+      <c r="G6" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="H6" s="63" t="str">
         <f t="shared" si="2"/>
         <v>003</v>
       </c>
-      <c r="H6" s="119" t="str">
+      <c r="I6" s="118" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">Group A|G1A, Group B|G1B</v>
       </c>
-      <c r="I6" s="120" t="str">
+      <c r="J6" s="119" t="str">
         <f t="shared" si="5"/>
         <v>#FFEB9C</v>
       </c>
-      <c r="J6" s="63"/>
-      <c r="K6" s="121" t="str">
+      <c r="K6" s="63"/>
+      <c r="L6" s="120" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L6" s="122" t="str">
+      <c r="M6" s="121" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">teacher01|main@G1A, teacher01|main@G1B</v>
       </c>
-      <c r="M6" s="123">
+      <c r="N6" s="122">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
@@ -3137,9 +3156,9 @@
         <v>subject04</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="C7" s="71" t="str">
+        <v>323</v>
+      </c>
+      <c r="C7" s="70" t="str">
         <f t="shared" si="3"/>
         <v>programA</v>
       </c>
@@ -3150,28 +3169,31 @@
         <v>20</v>
       </c>
       <c r="F7" s="63"/>
-      <c r="G7" s="63" t="str">
+      <c r="G7" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="H7" s="63" t="str">
         <f t="shared" si="2"/>
         <v>004</v>
       </c>
-      <c r="H7" s="119" t="str">
+      <c r="I7" s="118" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">Group A|G1A, Group B|G1B</v>
       </c>
-      <c r="I7" s="120" t="str">
+      <c r="J7" s="119" t="str">
         <f t="shared" si="5"/>
         <v>#FFEB9C</v>
       </c>
-      <c r="J7" s="63"/>
-      <c r="K7" s="121" t="str">
+      <c r="K7" s="63"/>
+      <c r="L7" s="120" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="L7" s="122" t="str">
+      <c r="M7" s="121" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">teacher01|main@G1A, teacher01|main@G1B</v>
       </c>
-      <c r="M7" s="123">
+      <c r="N7" s="122">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
@@ -3182,9 +3204,9 @@
         <v>subject05</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="C8" s="71" t="str">
+        <v>324</v>
+      </c>
+      <c r="C8" s="70" t="str">
         <f t="shared" si="3"/>
         <v>programA</v>
       </c>
@@ -3195,26 +3217,29 @@
         <v>20</v>
       </c>
       <c r="F8" s="63"/>
-      <c r="G8" s="63" t="str">
+      <c r="G8" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="H8" s="63" t="str">
         <f t="shared" si="2"/>
         <v>005</v>
       </c>
-      <c r="H8" s="119" t="s">
-        <v>323</v>
-      </c>
-      <c r="I8" s="120" t="str">
+      <c r="I8" s="118" t="s">
+        <v>325</v>
+      </c>
+      <c r="J8" s="119" t="str">
         <f t="shared" si="5"/>
         <v>#FFEB9C</v>
       </c>
-      <c r="J8" s="63"/>
-      <c r="K8" s="121" t="str">
+      <c r="K8" s="63"/>
+      <c r="L8" s="120" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L8" s="122" t="s">
-        <v>324</v>
-      </c>
-      <c r="M8" s="123">
+      <c r="M8" s="121" t="s">
+        <v>326</v>
+      </c>
+      <c r="N8" s="122">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
@@ -3225,9 +3250,9 @@
         <v>subject06</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="C9" s="71" t="str">
+        <v>327</v>
+      </c>
+      <c r="C9" s="70" t="str">
         <f t="shared" si="3"/>
         <v>programA</v>
       </c>
@@ -3238,40 +3263,43 @@
         <v>20</v>
       </c>
       <c r="F9" s="63"/>
-      <c r="G9" s="63" t="str">
+      <c r="G9" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="H9" s="63" t="str">
         <f t="shared" si="2"/>
         <v>006</v>
       </c>
-      <c r="H9" s="119" t="str">
+      <c r="I9" s="118" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">Group A|G2A, Group B|G2B</v>
       </c>
-      <c r="I9" s="120" t="s">
-        <v>326</v>
-      </c>
-      <c r="J9" s="63"/>
-      <c r="K9" s="121" t="str">
+      <c r="J9" s="119" t="s">
+        <v>328</v>
+      </c>
+      <c r="K9" s="63"/>
+      <c r="L9" s="120" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L9" s="122" t="str">
+      <c r="M9" s="121" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">teacher01|main@G2A, teacher01|main@G2B</v>
       </c>
-      <c r="M9" s="123">
+      <c r="N9" s="122">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
     <row r="10" ht="30" customHeight="1">
       <c r="A10" s="10" t="str">
-        <f t="shared" ref="A10:A22" si="8">_xlfn.CONCAT("subject",IF(M10&lt;10,"0",""),M10)</f>
+        <f t="shared" ref="A10:A22" si="8">_xlfn.CONCAT("subject",IF(N10&lt;10,"0",""),N10)</f>
         <v>subject07</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="C10" s="71" t="str">
+        <v>329</v>
+      </c>
+      <c r="C10" s="70" t="str">
         <f t="shared" si="3"/>
         <v>programA</v>
       </c>
@@ -3282,28 +3310,31 @@
         <v>20</v>
       </c>
       <c r="F10" s="63"/>
-      <c r="G10" s="63" t="str">
-        <f t="shared" ref="G10:G24" si="9">_xlfn.CONCAT("0",IF(M10&lt;10,"0",""),M10)</f>
+      <c r="G10" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="H10" s="63" t="str">
+        <f t="shared" ref="H10:H24" si="9">_xlfn.CONCAT("0",IF(N10&lt;10,"0",""),N10)</f>
         <v>007</v>
       </c>
-      <c r="H10" s="119" t="str">
+      <c r="I10" s="118" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve">Group A|G2A, Group B|G2B</v>
       </c>
-      <c r="I10" s="120" t="str">
+      <c r="J10" s="119" t="str">
         <f t="shared" si="5"/>
         <v>#FFC7CE</v>
       </c>
-      <c r="J10" s="63"/>
-      <c r="K10" s="121" t="str">
+      <c r="K10" s="63"/>
+      <c r="L10" s="120" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L10" s="122" t="str">
+      <c r="M10" s="121" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve">teacher01|main@G2A, teacher01|main@G2B</v>
       </c>
-      <c r="M10" s="123">
+      <c r="N10" s="122">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
@@ -3314,9 +3345,9 @@
         <v>subject08</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="C11" s="71" t="str">
+        <v>330</v>
+      </c>
+      <c r="C11" s="70" t="str">
         <f t="shared" ref="C11:C24" si="10">C10</f>
         <v>programA</v>
       </c>
@@ -3327,29 +3358,32 @@
         <v>20</v>
       </c>
       <c r="F11" s="63"/>
-      <c r="G11" s="63" t="str">
+      <c r="G11" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="H11" s="63" t="str">
         <f t="shared" si="9"/>
         <v>008</v>
       </c>
-      <c r="H11" s="119" t="str">
-        <f>H10</f>
+      <c r="I11" s="118" t="str">
+        <f>I10</f>
         <v xml:space="preserve">Group A|G2A, Group B|G2B</v>
       </c>
-      <c r="I11" s="120" t="str">
-        <f t="shared" ref="I11:I18" si="11">I10</f>
+      <c r="J11" s="119" t="str">
+        <f t="shared" ref="J11:J18" si="11">J10</f>
         <v>#FFC7CE</v>
       </c>
-      <c r="J11" s="63"/>
-      <c r="K11" s="121" t="str">
+      <c r="K11" s="63"/>
+      <c r="L11" s="120" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="L11" s="122" t="str">
-        <f>L10</f>
+      <c r="M11" s="121" t="str">
+        <f>M10</f>
         <v xml:space="preserve">teacher01|main@G2A, teacher01|main@G2B</v>
       </c>
-      <c r="M11" s="123">
-        <f t="shared" ref="M11:M24" si="12">M10+1</f>
+      <c r="N11" s="122">
+        <f t="shared" ref="N11:N24" si="12">N10+1</f>
         <v>8</v>
       </c>
     </row>
@@ -3359,9 +3393,9 @@
         <v>subject09</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="C12" s="71" t="str">
+        <v>331</v>
+      </c>
+      <c r="C12" s="70" t="str">
         <f t="shared" si="10"/>
         <v>programA</v>
       </c>
@@ -3372,26 +3406,29 @@
         <v>20</v>
       </c>
       <c r="F12" s="63"/>
-      <c r="G12" s="63" t="str">
+      <c r="G12" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="H12" s="63" t="str">
         <f t="shared" si="9"/>
         <v>009</v>
       </c>
-      <c r="H12" s="119" t="s">
-        <v>330</v>
-      </c>
-      <c r="I12" s="120" t="str">
+      <c r="I12" s="118" t="s">
+        <v>332</v>
+      </c>
+      <c r="J12" s="119" t="str">
         <f t="shared" si="11"/>
         <v>#FFC7CE</v>
       </c>
-      <c r="J12" s="63"/>
-      <c r="K12" s="121" t="str">
+      <c r="K12" s="63"/>
+      <c r="L12" s="120" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L12" s="122" t="s">
-        <v>331</v>
-      </c>
-      <c r="M12" s="123">
+      <c r="M12" s="121" t="s">
+        <v>333</v>
+      </c>
+      <c r="N12" s="122">
         <f t="shared" si="12"/>
         <v>9</v>
       </c>
@@ -3402,9 +3439,9 @@
         <v>subject10</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="C13" s="71" t="str">
+        <v>334</v>
+      </c>
+      <c r="C13" s="70" t="str">
         <f t="shared" si="10"/>
         <v>programA</v>
       </c>
@@ -3415,28 +3452,31 @@
         <v>20</v>
       </c>
       <c r="F13" s="63"/>
-      <c r="G13" s="63" t="str">
+      <c r="G13" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="H13" s="63" t="str">
         <f t="shared" si="9"/>
         <v>010</v>
       </c>
-      <c r="H13" s="119" t="str">
-        <f t="shared" ref="H13:H24" si="13">H12</f>
+      <c r="I13" s="118" t="str">
+        <f t="shared" ref="I13:I24" si="13">I12</f>
         <v xml:space="preserve">Group A|G3A, Group B|G3B</v>
       </c>
-      <c r="I13" s="120" t="str">
+      <c r="J13" s="119" t="str">
         <f t="shared" si="11"/>
         <v>#FFC7CE</v>
       </c>
-      <c r="J13" s="63"/>
-      <c r="K13" s="121" t="str">
+      <c r="K13" s="63"/>
+      <c r="L13" s="120" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L13" s="122" t="str">
-        <f t="shared" ref="L13:L24" si="14">L12</f>
+      <c r="M13" s="121" t="str">
+        <f t="shared" ref="M13:M24" si="14">M12</f>
         <v xml:space="preserve">teacher01|main@G3A, teacher01|main@G3B</v>
       </c>
-      <c r="M13" s="123">
+      <c r="N13" s="122">
         <f t="shared" si="12"/>
         <v>10</v>
       </c>
@@ -3447,9 +3487,9 @@
         <v>subject11</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="C14" s="71" t="str">
+        <v>335</v>
+      </c>
+      <c r="C14" s="70" t="str">
         <f t="shared" si="10"/>
         <v>programA</v>
       </c>
@@ -3460,27 +3500,30 @@
         <v>20</v>
       </c>
       <c r="F14" s="63"/>
-      <c r="G14" s="63" t="str">
+      <c r="G14" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="H14" s="63" t="str">
         <f t="shared" si="9"/>
         <v>011</v>
       </c>
-      <c r="H14" s="119" t="str">
+      <c r="I14" s="118" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">Group A|G3A, Group B|G3B</v>
       </c>
-      <c r="I14" s="120" t="s">
-        <v>334</v>
-      </c>
-      <c r="J14" s="63"/>
-      <c r="K14" s="121" t="str">
+      <c r="J14" s="119" t="s">
+        <v>336</v>
+      </c>
+      <c r="K14" s="63"/>
+      <c r="L14" s="120" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L14" s="122" t="str">
+      <c r="M14" s="121" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">teacher01|main@G3A, teacher01|main@G3B</v>
       </c>
-      <c r="M14" s="123">
+      <c r="N14" s="122">
         <f t="shared" si="12"/>
         <v>11</v>
       </c>
@@ -3491,9 +3534,9 @@
         <v>subject12</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="C15" s="71" t="str">
+        <v>337</v>
+      </c>
+      <c r="C15" s="70" t="str">
         <f t="shared" si="10"/>
         <v>programA</v>
       </c>
@@ -3504,28 +3547,31 @@
         <v>20</v>
       </c>
       <c r="F15" s="63"/>
-      <c r="G15" s="63" t="str">
+      <c r="G15" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="H15" s="63" t="str">
         <f t="shared" si="9"/>
         <v>012</v>
       </c>
-      <c r="H15" s="119" t="str">
+      <c r="I15" s="118" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">Group A|G3A, Group B|G3B</v>
       </c>
-      <c r="I15" s="120" t="str">
+      <c r="J15" s="119" t="str">
         <f t="shared" si="11"/>
         <v>#C6EFCD</v>
       </c>
-      <c r="J15" s="63"/>
-      <c r="K15" s="121" t="str">
+      <c r="K15" s="63"/>
+      <c r="L15" s="120" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="L15" s="122" t="str">
+      <c r="M15" s="121" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">teacher01|main@G3A, teacher01|main@G3B</v>
       </c>
-      <c r="M15" s="123">
+      <c r="N15" s="122">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
@@ -3536,9 +3582,9 @@
         <v>subject13</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="C16" s="71" t="str">
+        <v>338</v>
+      </c>
+      <c r="C16" s="70" t="str">
         <f t="shared" si="10"/>
         <v>programA</v>
       </c>
@@ -3549,26 +3595,29 @@
         <v>20</v>
       </c>
       <c r="F16" s="63"/>
-      <c r="G16" s="63" t="str">
+      <c r="G16" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="H16" s="63" t="str">
         <f t="shared" si="9"/>
         <v>013</v>
       </c>
-      <c r="H16" s="119" t="s">
-        <v>337</v>
-      </c>
-      <c r="I16" s="120" t="str">
+      <c r="I16" s="118" t="s">
+        <v>339</v>
+      </c>
+      <c r="J16" s="119" t="str">
         <f t="shared" si="11"/>
         <v>#C6EFCD</v>
       </c>
-      <c r="J16" s="63"/>
-      <c r="K16" s="121" t="str">
+      <c r="K16" s="63"/>
+      <c r="L16" s="120" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L16" s="122" t="s">
-        <v>338</v>
-      </c>
-      <c r="M16" s="123">
+      <c r="M16" s="121" t="s">
+        <v>340</v>
+      </c>
+      <c r="N16" s="122">
         <f t="shared" si="12"/>
         <v>13</v>
       </c>
@@ -3579,9 +3628,9 @@
         <v>subject14</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="C17" s="71" t="str">
+        <v>341</v>
+      </c>
+      <c r="C17" s="70" t="str">
         <f t="shared" si="10"/>
         <v>programA</v>
       </c>
@@ -3592,28 +3641,31 @@
         <v>20</v>
       </c>
       <c r="F17" s="63"/>
-      <c r="G17" s="63" t="str">
+      <c r="G17" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="H17" s="63" t="str">
         <f t="shared" si="9"/>
         <v>014</v>
       </c>
-      <c r="H17" s="119" t="str">
+      <c r="I17" s="118" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">Group A|G4A, Group B|G4B</v>
       </c>
-      <c r="I17" s="120" t="str">
+      <c r="J17" s="119" t="str">
         <f t="shared" si="11"/>
         <v>#C6EFCD</v>
       </c>
-      <c r="J17" s="63"/>
-      <c r="K17" s="121" t="str">
+      <c r="K17" s="63"/>
+      <c r="L17" s="120" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L17" s="122" t="str">
+      <c r="M17" s="121" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">teacher01|main@G4A, teacher01|main@G4B</v>
       </c>
-      <c r="M17" s="123">
+      <c r="N17" s="122">
         <f t="shared" si="12"/>
         <v>14</v>
       </c>
@@ -3624,9 +3676,9 @@
         <v>subject15</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="C18" s="71" t="str">
+        <v>342</v>
+      </c>
+      <c r="C18" s="70" t="str">
         <f t="shared" si="10"/>
         <v>programA</v>
       </c>
@@ -3637,28 +3689,31 @@
         <v>20</v>
       </c>
       <c r="F18" s="63"/>
-      <c r="G18" s="63" t="str">
+      <c r="G18" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="H18" s="63" t="str">
         <f t="shared" si="9"/>
         <v>015</v>
       </c>
-      <c r="H18" s="119" t="str">
+      <c r="I18" s="118" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">Group A|G4A, Group B|G4B</v>
       </c>
-      <c r="I18" s="120" t="str">
+      <c r="J18" s="119" t="str">
         <f t="shared" si="11"/>
         <v>#C6EFCD</v>
       </c>
-      <c r="J18" s="63"/>
-      <c r="K18" s="121" t="str">
+      <c r="K18" s="63"/>
+      <c r="L18" s="120" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L18" s="122" t="str">
+      <c r="M18" s="121" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">teacher01|main@G4A, teacher01|main@G4B</v>
       </c>
-      <c r="M18" s="123">
+      <c r="N18" s="122">
         <f t="shared" si="12"/>
         <v>15</v>
       </c>
@@ -3669,9 +3724,9 @@
         <v>subject16</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="C19" s="71" t="str">
+        <v>343</v>
+      </c>
+      <c r="C19" s="70" t="str">
         <f t="shared" si="10"/>
         <v>programA</v>
       </c>
@@ -3682,27 +3737,30 @@
         <v>20</v>
       </c>
       <c r="F19" s="63"/>
-      <c r="G19" s="63" t="str">
+      <c r="G19" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="H19" s="63" t="str">
         <f t="shared" si="9"/>
         <v>016</v>
       </c>
-      <c r="H19" s="119" t="str">
+      <c r="I19" s="118" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">Group A|G4A, Group B|G4B</v>
       </c>
-      <c r="I19" s="120" t="s">
-        <v>342</v>
-      </c>
-      <c r="J19" s="63"/>
-      <c r="K19" s="121" t="str">
+      <c r="J19" s="119" t="s">
+        <v>344</v>
+      </c>
+      <c r="K19" s="63"/>
+      <c r="L19" s="120" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="L19" s="122" t="str">
+      <c r="M19" s="121" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">teacher01|main@G4A, teacher01|main@G4B</v>
       </c>
-      <c r="M19" s="123">
+      <c r="N19" s="122">
         <f t="shared" si="12"/>
         <v>16</v>
       </c>
@@ -3713,9 +3771,9 @@
         <v>subject17</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="C20" s="71" t="str">
+        <v>345</v>
+      </c>
+      <c r="C20" s="70" t="str">
         <f t="shared" si="10"/>
         <v>programA</v>
       </c>
@@ -3726,25 +3784,28 @@
         <v>20</v>
       </c>
       <c r="F20" s="63"/>
-      <c r="G20" s="63" t="str">
+      <c r="G20" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="H20" s="63" t="str">
         <f t="shared" si="9"/>
         <v>017</v>
       </c>
-      <c r="H20" s="119" t="s">
+      <c r="I20" s="118" t="s">
+        <v>346</v>
+      </c>
+      <c r="J20" s="119" t="s">
         <v>344</v>
       </c>
-      <c r="I20" s="120" t="s">
-        <v>342</v>
-      </c>
-      <c r="J20" s="63"/>
-      <c r="K20" s="121" t="str">
+      <c r="K20" s="63"/>
+      <c r="L20" s="120" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L20" s="122" t="s">
-        <v>345</v>
-      </c>
-      <c r="M20" s="123">
+      <c r="M20" s="121" t="s">
+        <v>347</v>
+      </c>
+      <c r="N20" s="122">
         <f t="shared" si="12"/>
         <v>17</v>
       </c>
@@ -3755,9 +3816,9 @@
         <v>subject18</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="C21" s="71" t="str">
+        <v>348</v>
+      </c>
+      <c r="C21" s="70" t="str">
         <f t="shared" si="10"/>
         <v>programA</v>
       </c>
@@ -3768,27 +3829,30 @@
         <v>20</v>
       </c>
       <c r="F21" s="63"/>
-      <c r="G21" s="63" t="str">
+      <c r="G21" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="H21" s="63" t="str">
         <f t="shared" si="9"/>
         <v>018</v>
       </c>
-      <c r="H21" s="119" t="str">
+      <c r="I21" s="118" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">Group A|G5A, Group B|G5B</v>
       </c>
-      <c r="I21" s="120" t="s">
-        <v>342</v>
-      </c>
-      <c r="J21" s="63"/>
-      <c r="K21" s="121" t="str">
+      <c r="J21" s="119" t="s">
+        <v>344</v>
+      </c>
+      <c r="K21" s="63"/>
+      <c r="L21" s="120" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L21" s="122" t="str">
+      <c r="M21" s="121" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">teacher01|main@G5A, teacher01|main@G5B</v>
       </c>
-      <c r="M21" s="123">
+      <c r="N21" s="122">
         <f t="shared" si="12"/>
         <v>18</v>
       </c>
@@ -3799,9 +3863,9 @@
         <v>subject19</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="C22" s="71" t="str">
+        <v>349</v>
+      </c>
+      <c r="C22" s="70" t="str">
         <f t="shared" si="10"/>
         <v>programA</v>
       </c>
@@ -3812,40 +3876,43 @@
         <v>20</v>
       </c>
       <c r="F22" s="63"/>
-      <c r="G22" s="63" t="str">
+      <c r="G22" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="H22" s="63" t="str">
         <f t="shared" si="9"/>
         <v>019</v>
       </c>
-      <c r="H22" s="119" t="str">
+      <c r="I22" s="118" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">Group A|G5A, Group B|G5B</v>
       </c>
-      <c r="I22" s="120" t="s">
-        <v>342</v>
-      </c>
-      <c r="J22" s="63"/>
-      <c r="K22" s="121" t="str">
+      <c r="J22" s="119" t="s">
+        <v>344</v>
+      </c>
+      <c r="K22" s="63"/>
+      <c r="L22" s="120" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L22" s="122" t="str">
+      <c r="M22" s="121" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">teacher01|main@G5A, teacher01|main@G5B</v>
       </c>
-      <c r="M22" s="123">
+      <c r="N22" s="122">
         <f t="shared" si="12"/>
         <v>19</v>
       </c>
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="A23" s="10" t="str">
-        <f t="shared" ref="A23:A24" si="15">_xlfn.CONCAT("asignatura",IF(M23&lt;10,"0",""),M23)</f>
+        <f t="shared" ref="A23:A24" si="15">_xlfn.CONCAT("asignatura",IF(N23&lt;10,"0",""),N23)</f>
         <v>asignatura01</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="C23" s="71" t="str">
+        <v>350</v>
+      </c>
+      <c r="C23" s="70" t="str">
         <f>ap_programs!A6</f>
         <v>programC</v>
       </c>
@@ -3856,25 +3923,28 @@
         <v>20</v>
       </c>
       <c r="F23" s="63"/>
-      <c r="G23" s="63" t="str">
+      <c r="G23" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="H23" s="63" t="str">
         <f t="shared" si="9"/>
         <v>001</v>
       </c>
-      <c r="H23" s="119" t="s">
-        <v>349</v>
-      </c>
-      <c r="I23" s="120" t="s">
-        <v>350</v>
-      </c>
-      <c r="J23" s="63"/>
-      <c r="K23" s="121" t="str">
+      <c r="I23" s="118" t="s">
+        <v>351</v>
+      </c>
+      <c r="J23" s="119" t="s">
+        <v>352</v>
+      </c>
+      <c r="K23" s="63"/>
+      <c r="L23" s="120" t="str">
         <f>ap_subject_types!$A$6</f>
         <v>type04</v>
       </c>
-      <c r="L23" s="122" t="s">
-        <v>351</v>
-      </c>
-      <c r="M23" s="123">
+      <c r="M23" s="121" t="s">
+        <v>353</v>
+      </c>
+      <c r="N23" s="122">
         <v>1</v>
       </c>
     </row>
@@ -3884,9 +3954,9 @@
         <v>asignatura02</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="C24" s="71" t="str">
+        <v>354</v>
+      </c>
+      <c r="C24" s="70" t="str">
         <f t="shared" si="10"/>
         <v>programC</v>
       </c>
@@ -3897,34 +3967,37 @@
         <v>20</v>
       </c>
       <c r="F24" s="63"/>
-      <c r="G24" s="63" t="str">
+      <c r="G24" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="H24" s="63" t="str">
         <f t="shared" si="9"/>
         <v>002</v>
       </c>
-      <c r="H24" s="119" t="str">
+      <c r="I24" s="118" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve">2ºA|2ºA, 2ºB|2ºB</v>
       </c>
-      <c r="I24" s="120" t="s">
-        <v>353</v>
-      </c>
-      <c r="J24" s="63"/>
-      <c r="K24" s="121" t="str">
+      <c r="J24" s="119" t="s">
+        <v>355</v>
+      </c>
+      <c r="K24" s="63"/>
+      <c r="L24" s="120" t="str">
         <f>ap_subject_types!$A$6</f>
         <v>type04</v>
       </c>
-      <c r="L24" s="122" t="str">
+      <c r="M24" s="121" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve">teacher01|main@2ºA, teacher01|main@2ºB</v>
       </c>
-      <c r="M24" s="123">
+      <c r="N24" s="122">
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -5111,7 +5184,7 @@
       <c r="I6" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="J6" s="71" t="s">
+      <c r="J6" s="70" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5143,7 +5216,7 @@
       <c r="I7" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="J7" s="71" t="s">
+      <c r="J7" s="70" t="s">
         <v>160</v>
       </c>
     </row>
@@ -5175,7 +5248,7 @@
       <c r="I8" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="J8" s="71" t="s">
+      <c r="J8" s="70" t="s">
         <v>160</v>
       </c>
     </row>
@@ -5207,7 +5280,7 @@
       <c r="I9" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="J9" s="71" t="s">
+      <c r="J9" s="70" t="s">
         <v>169</v>
       </c>
     </row>
@@ -5227,7 +5300,7 @@
       <c r="E10" s="68">
         <v>38718</v>
       </c>
-      <c r="F10" s="72" t="s">
+      <c r="F10" s="71" t="s">
         <v>173</v>
       </c>
       <c r="G10" s="11" t="s">
@@ -5239,7 +5312,7 @@
       <c r="I10" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="J10" s="71" t="s">
+      <c r="J10" s="70" t="s">
         <v>174</v>
       </c>
     </row>
@@ -5259,7 +5332,7 @@
       <c r="E11" s="68">
         <v>38749</v>
       </c>
-      <c r="F11" s="72" t="s">
+      <c r="F11" s="71" t="s">
         <v>178</v>
       </c>
       <c r="G11" s="11" t="s">
@@ -5271,7 +5344,7 @@
       <c r="I11" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="J11" s="71" t="s">
+      <c r="J11" s="70" t="s">
         <v>174</v>
       </c>
     </row>
@@ -5291,7 +5364,7 @@
       <c r="E12" s="68">
         <v>38777</v>
       </c>
-      <c r="F12" s="72" t="s">
+      <c r="F12" s="71" t="s">
         <v>182</v>
       </c>
       <c r="G12" s="11" t="s">
@@ -5303,7 +5376,7 @@
       <c r="I12" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="J12" s="71" t="s">
+      <c r="J12" s="70" t="s">
         <v>174</v>
       </c>
     </row>
@@ -5323,7 +5396,7 @@
       <c r="E13" s="68">
         <v>38808</v>
       </c>
-      <c r="F13" s="72" t="s">
+      <c r="F13" s="71" t="s">
         <v>186</v>
       </c>
       <c r="G13" s="11" t="s">
@@ -5335,7 +5408,7 @@
       <c r="I13" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="J13" s="71" t="s">
+      <c r="J13" s="70" t="s">
         <v>174</v>
       </c>
     </row>
@@ -5355,7 +5428,7 @@
       <c r="E14" s="68">
         <v>38838</v>
       </c>
-      <c r="F14" s="72" t="s">
+      <c r="F14" s="71" t="s">
         <v>190</v>
       </c>
       <c r="G14" s="11" t="s">
@@ -5367,7 +5440,7 @@
       <c r="I14" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="J14" s="71" t="s">
+      <c r="J14" s="70" t="s">
         <v>174</v>
       </c>
     </row>
@@ -5387,7 +5460,7 @@
       <c r="E15" s="68">
         <v>38869</v>
       </c>
-      <c r="F15" s="72" t="s">
+      <c r="F15" s="71" t="s">
         <v>194</v>
       </c>
       <c r="G15" s="11" t="s">
@@ -5399,7 +5472,7 @@
       <c r="I15" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="J15" s="71" t="s">
+      <c r="J15" s="70" t="s">
         <v>174</v>
       </c>
     </row>
@@ -5424,7 +5497,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00930025-0041-4827-80E9-00F100810047}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{0010008A-002F-4BF6-BB6F-003E005A00F8}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
@@ -5466,7 +5539,7 @@
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="72" t="s">
         <v>196</v>
       </c>
     </row>
@@ -5474,7 +5547,7 @@
       <c r="A3" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="71" t="str">
+      <c r="B3" s="70" t="str">
         <f>profiles!$A$10</f>
         <v>guardian</v>
       </c>
@@ -5483,7 +5556,7 @@
       <c r="A4" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="71" t="str">
+      <c r="B4" s="70" t="str">
         <f>profiles!$A$9</f>
         <v>student</v>
       </c>
@@ -5534,16 +5607,16 @@
       </c>
     </row>
     <row r="2" ht="24.25" customHeight="1">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="75" t="s">
         <v>200</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="72" t="s">
         <v>201</v>
       </c>
       <c r="E2" s="67" t="s">
@@ -5557,13 +5630,13 @@
       <c r="B3" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="70" t="s">
         <v>205</v>
       </c>
-      <c r="D3" s="77" t="s">
+      <c r="D3" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="71" t="s">
+      <c r="E3" s="70" t="s">
         <v>206</v>
       </c>
     </row>
@@ -5575,7 +5648,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00730039-002A-483B-82A6-00D300DE0098}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00520059-00A6-4A17-AE84-0008000600DC}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GUARDIANS_RELATIONSHIPS</xm:f>
           </x14:formula1>
@@ -5631,25 +5704,25 @@
       </c>
     </row>
     <row r="2" ht="16">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="D2" s="77" t="s">
         <v>212</v>
       </c>
-      <c r="E2" s="78" t="s">
+      <c r="E2" s="77" t="s">
         <v>213</v>
       </c>
-      <c r="F2" s="78" t="s">
+      <c r="F2" s="77" t="s">
         <v>214</v>
       </c>
-      <c r="G2" s="78" t="s">
+      <c r="G2" s="77" t="s">
         <v>215</v>
       </c>
     </row>
@@ -5660,7 +5733,7 @@
       <c r="B3" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="C3" s="71" t="str">
+      <c r="C3" s="70" t="str">
         <f>centers!$A$3</f>
         <v>centerA</v>
       </c>
@@ -5670,10 +5743,10 @@
       <c r="E3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="80" t="s">
+      <c r="F3" s="79" t="s">
         <v>218</v>
       </c>
-      <c r="G3" s="81">
+      <c r="G3" s="80">
         <v>5</v>
       </c>
     </row>
@@ -5684,7 +5757,7 @@
       <c r="B4" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C4" s="71" t="str">
+      <c r="C4" s="70" t="str">
         <f>centers!$A$5</f>
         <v>centerC</v>
       </c>
@@ -5694,10 +5767,10 @@
       <c r="E4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="80" t="s">
+      <c r="F4" s="79" t="s">
         <v>218</v>
       </c>
-      <c r="G4" s="81">
+      <c r="G4" s="80">
         <v>5</v>
       </c>
     </row>
@@ -5709,13 +5782,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00F700D7-00CB-4060-BE33-00DD00BC0037}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00A000DB-00FC-437F-A1D1-00AC00410009}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GRADES_TYPES</xm:f>
           </x14:formula1>
           <xm:sqref>D3:D4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00A900FF-00CF-4DF6-A121-006900A4004A}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{005D001C-008B-47E5-83AD-007F0029009E}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
@@ -5753,10 +5826,10 @@
       </c>
     </row>
     <row r="2" ht="22" customHeight="1">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="75" t="s">
         <v>196</v>
       </c>
     </row>
@@ -5764,7 +5837,7 @@
       <c r="A3" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="71" t="str">
+      <c r="B3" s="70" t="str">
         <f>profiles!$A$8</f>
         <v>teacher</v>
       </c>
@@ -5773,7 +5846,7 @@
       <c r="A4" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="71" t="str">
+      <c r="B4" s="70" t="str">
         <f>profiles!$A$9</f>
         <v>student</v>
       </c>
@@ -5912,107 +5985,107 @@
       <c r="AN1" s="5"/>
     </row>
     <row r="2" s="9" customFormat="1" ht="23.5" customHeight="1">
-      <c r="F2" s="82" t="s">
+      <c r="F2" s="81" t="s">
         <v>242</v>
       </c>
-      <c r="G2" s="82"/>
-      <c r="H2" s="83" t="s">
+      <c r="G2" s="81"/>
+      <c r="H2" s="82" t="s">
         <v>243</v>
       </c>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="86" t="s">
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="85" t="s">
         <v>244</v>
       </c>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="87" t="s">
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="86" t="s">
         <v>245</v>
       </c>
-      <c r="S2" s="88"/>
-      <c r="T2" s="88"/>
-      <c r="U2" s="89"/>
-      <c r="V2" s="90" t="s">
+      <c r="S2" s="87"/>
+      <c r="T2" s="87"/>
+      <c r="U2" s="88"/>
+      <c r="V2" s="89" t="s">
         <v>246</v>
       </c>
-      <c r="W2" s="91"/>
-      <c r="X2" s="91"/>
+      <c r="W2" s="90"/>
+      <c r="X2" s="90"/>
     </row>
     <row r="3" ht="34" customHeight="1">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="93" t="s">
+      <c r="C3" s="92" t="s">
         <v>247</v>
       </c>
-      <c r="D3" s="94" t="s">
+      <c r="D3" s="93" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="95" t="s">
+      <c r="E3" s="94" t="s">
         <v>248</v>
       </c>
-      <c r="F3" s="96" t="s">
+      <c r="F3" s="95" t="s">
         <v>249</v>
       </c>
-      <c r="G3" s="97" t="s">
+      <c r="G3" s="96" t="s">
         <v>250</v>
       </c>
-      <c r="H3" s="98" t="s">
+      <c r="H3" s="97" t="s">
         <v>251</v>
       </c>
-      <c r="I3" s="99" t="s">
+      <c r="I3" s="98" t="s">
         <v>252</v>
       </c>
-      <c r="J3" s="100" t="s">
+      <c r="J3" s="99" t="s">
         <v>253</v>
       </c>
-      <c r="K3" s="100" t="s">
+      <c r="K3" s="99" t="s">
         <v>254</v>
       </c>
-      <c r="L3" s="100" t="s">
+      <c r="L3" s="99" t="s">
         <v>255</v>
       </c>
-      <c r="M3" s="100" t="s">
+      <c r="M3" s="99" t="s">
         <v>256</v>
       </c>
-      <c r="N3" s="100" t="s">
+      <c r="N3" s="99" t="s">
         <v>257</v>
       </c>
-      <c r="O3" s="101" t="s">
+      <c r="O3" s="100" t="s">
         <v>258</v>
       </c>
-      <c r="P3" s="102" t="s">
+      <c r="P3" s="101" t="s">
         <v>256</v>
       </c>
-      <c r="Q3" s="103" t="s">
+      <c r="Q3" s="102" t="s">
         <v>257</v>
       </c>
-      <c r="R3" s="104" t="s">
+      <c r="R3" s="103" t="s">
         <v>259</v>
       </c>
-      <c r="S3" s="105" t="s">
+      <c r="S3" s="104" t="s">
         <v>260</v>
       </c>
-      <c r="T3" s="105" t="s">
+      <c r="T3" s="104" t="s">
         <v>256</v>
       </c>
-      <c r="U3" s="105" t="s">
+      <c r="U3" s="104" t="s">
         <v>257</v>
       </c>
-      <c r="V3" s="106" t="s">
+      <c r="V3" s="105" t="s">
         <v>256</v>
       </c>
-      <c r="W3" s="107" t="s">
+      <c r="W3" s="106" t="s">
         <v>261</v>
       </c>
-      <c r="X3" s="108" t="s">
+      <c r="X3" s="107" t="s">
         <v>262</v>
       </c>
     </row>
@@ -6047,7 +6120,7 @@
       <c r="J4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="109"/>
+      <c r="K4" s="108"/>
       <c r="L4" s="63"/>
       <c r="M4" s="63"/>
       <c r="N4" s="63"/>
@@ -6113,7 +6186,7 @@
       <c r="J5" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="109" t="s">
+      <c r="K5" s="108" t="s">
         <v>269</v>
       </c>
       <c r="L5" s="63" t="s">
@@ -6187,7 +6260,7 @@
       <c r="J6" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="109" t="s">
+      <c r="K6" s="108" t="s">
         <v>272</v>
       </c>
       <c r="L6" s="63" t="s">
@@ -6243,13 +6316,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2" disablePrompts="0">
-        <x14:dataValidation xr:uid="{007A0006-004B-4ECA-BE3B-0047009400FB}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00AB0038-0056-4290-9B23-00E800E400BC}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>J4:J6 F4:F6 S4 U4:U6 W4:X6</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00910010-0084-4272-87E8-00CF007D00EC}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00120069-0084-44F2-9CF9-00DC00BB0020}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>SUBSTAGES_FRECUENCY</xm:f>
           </x14:formula1>

--- a/packages/leemons-plugin-mvp-template/src/bulk/data.xlsx
+++ b/packages/leemons-plugin-mvp-template/src/bulk/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="12"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" state="visible" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="355">
   <si>
     <t xml:space="preserve">Substages frecuency</t>
   </si>
@@ -935,6 +935,9 @@
   </si>
   <si>
     <t>seats</t>
+  </si>
+  <si>
+    <t>creator</t>
   </si>
   <si>
     <t>internalId</t>
@@ -1794,6 +1797,9 @@
     <xf fontId="2" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf fontId="0" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1807,9 +1813,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf fontId="5" fillId="16" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf fontId="2" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2668,7 +2671,7 @@
       <c r="B3" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="C3" s="70" t="str">
+      <c r="C3" s="71" t="str">
         <f>ap_programs!$A$4</f>
         <v>programA</v>
       </c>
@@ -2686,7 +2689,7 @@
       <c r="B4" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="C4" s="70" t="str">
+      <c r="C4" s="71" t="str">
         <f>ap_programs!$A$5</f>
         <v>programB</v>
       </c>
@@ -2704,7 +2707,7 @@
       <c r="B5" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="C5" s="70" t="str">
+      <c r="C5" s="71" t="str">
         <f>ap_programs!$A$4</f>
         <v>programA</v>
       </c>
@@ -2722,7 +2725,7 @@
       <c r="B6" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="C6" s="70" t="str">
+      <c r="C6" s="71" t="str">
         <f>ap_programs!$A$6</f>
         <v>programC</v>
       </c>
@@ -2741,7 +2744,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00AD009E-008C-4D2D-861F-00E40005008C}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{0060005F-0016-4CAA-97A8-0048009B001B}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
@@ -2835,7 +2838,7 @@
       <c r="E3" s="113" t="s">
         <v>293</v>
       </c>
-      <c r="F3" s="70" t="str">
+      <c r="F3" s="71" t="str">
         <f>ap_programs!$A$5</f>
         <v>programB</v>
       </c>
@@ -2856,10 +2859,10 @@
       <c r="D4" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="E4" s="69" t="s">
+      <c r="E4" s="70" t="s">
         <v>298</v>
       </c>
-      <c r="F4" s="70" t="str">
+      <c r="F4" s="71" t="str">
         <f>ap_programs!$A$5</f>
         <v>programB</v>
       </c>
@@ -2897,13 +2900,13 @@
     <col customWidth="1" min="1" max="1" width="12.83203125"/>
     <col customWidth="1" min="2" max="2" width="31.421875"/>
     <col customWidth="1" min="3" max="3" width="12.83203125"/>
-    <col customWidth="1" min="7" max="7" width="10.5"/>
-    <col customWidth="1" min="8" max="8" width="13"/>
-    <col customWidth="1" min="9" max="9" width="10.83203125"/>
-    <col customWidth="1" min="10" max="10" width="11.83203125"/>
-    <col customWidth="1" min="11" max="11" width="10.1640625"/>
-    <col customWidth="1" min="12" max="12" width="23.33203125"/>
-    <col customWidth="1" min="13" max="13" width="3.5"/>
+    <col customWidth="1" min="8" max="8" width="10.5"/>
+    <col customWidth="1" min="9" max="9" width="13"/>
+    <col customWidth="1" min="10" max="10" width="10.83203125"/>
+    <col customWidth="1" min="11" max="11" width="11.83203125"/>
+    <col customWidth="1" min="12" max="12" width="10.1640625"/>
+    <col customWidth="1" min="13" max="13" width="23.33203125"/>
+    <col customWidth="1" min="14" max="14" width="3.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2923,27 +2926,30 @@
         <v>300</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>224</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>301</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>302</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>285</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>303</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="L1" s="114" t="s">
+      <c r="L1" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="M1" s="14"/>
+      <c r="M1" s="114" t="s">
+        <v>306</v>
+      </c>
+      <c r="N1" s="14"/>
     </row>
     <row r="2" ht="28.75" customHeight="1">
       <c r="A2" s="5"/>
@@ -2953,14 +2959,15 @@
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="I2" s="1"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="1" t="s">
+        <v>307</v>
+      </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="14"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="14"/>
     </row>
     <row r="3" ht="31.75" customHeight="1">
       <c r="A3" s="111" t="s">
@@ -2973,43 +2980,46 @@
         <v>276</v>
       </c>
       <c r="D3" s="93" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E3" s="78" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F3" s="93" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G3" s="93" t="s">
         <v>310</v>
       </c>
-      <c r="H3" s="115" t="s">
+      <c r="H3" s="93" t="s">
         <v>311</v>
       </c>
-      <c r="I3" s="116" t="s">
+      <c r="I3" s="115" t="s">
+        <v>312</v>
+      </c>
+      <c r="J3" s="116" t="s">
         <v>287</v>
       </c>
-      <c r="J3" s="116" t="s">
-        <v>312</v>
-      </c>
-      <c r="K3" s="117" t="s">
+      <c r="K3" s="116" t="s">
         <v>313</v>
       </c>
-      <c r="L3" s="79" t="s">
+      <c r="L3" s="117" t="s">
         <v>314</v>
       </c>
-      <c r="M3" s="118"/>
+      <c r="M3" s="79" t="s">
+        <v>315</v>
+      </c>
+      <c r="N3" s="118"/>
     </row>
     <row r="4" s="9" customFormat="1" ht="30" customHeight="1">
       <c r="A4" s="10" t="str">
-        <f t="shared" ref="A4:A9" si="1">_xlfn.CONCAT("subject",IF(M4&lt;10,"0",""),M4)</f>
+        <f>_xlfn.CONCAT("subject",IF(N4&lt;10,"0",""),N4)</f>
         <v>subject01</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="C4" s="70" t="str">
+        <v>316</v>
+      </c>
+      <c r="C4" s="71" t="str">
         <f>ap_programs!A4</f>
         <v>programA</v>
       </c>
@@ -3019,39 +3029,42 @@
       <c r="E4" s="63">
         <v>20</v>
       </c>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63" t="str">
-        <f t="shared" ref="G4:G9" si="2">_xlfn.CONCAT("0",IF(M4&lt;10,"0",""),M4)</f>
+      <c r="F4" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63" t="str">
+        <f>_xlfn.CONCAT("0",IF(N4&lt;10,"0",""),N4)</f>
         <v>001</v>
       </c>
-      <c r="H4" s="119" t="s">
-        <v>316</v>
-      </c>
-      <c r="I4" s="120" t="s">
+      <c r="I4" s="119" t="s">
         <v>317</v>
       </c>
-      <c r="J4" s="63"/>
-      <c r="K4" s="121" t="str">
+      <c r="J4" s="120" t="s">
+        <v>318</v>
+      </c>
+      <c r="K4" s="63"/>
+      <c r="L4" s="121" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L4" s="122" t="s">
-        <v>318</v>
-      </c>
-      <c r="M4" s="123">
+      <c r="M4" s="122" t="s">
+        <v>319</v>
+      </c>
+      <c r="N4" s="123">
         <v>1</v>
       </c>
     </row>
     <row r="5" s="9" customFormat="1" ht="30" customHeight="1">
       <c r="A5" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT("subject",IF(N5&lt;10,"0",""),N5)</f>
         <v>subject02</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="C5" s="70" t="str">
-        <f t="shared" ref="C5:C10" si="3">C4</f>
+        <v>320</v>
+      </c>
+      <c r="C5" s="71" t="str">
+        <f t="shared" ref="C5:C10" si="1">C4</f>
         <v>programA</v>
       </c>
       <c r="D5" s="63">
@@ -3060,43 +3073,46 @@
       <c r="E5" s="63">
         <v>20</v>
       </c>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63" t="str">
-        <f t="shared" si="2"/>
+      <c r="F5" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63" t="str">
+        <f>_xlfn.CONCAT("0",IF(N5&lt;10,"0",""),N5)</f>
         <v>002</v>
       </c>
-      <c r="H5" s="119" t="str">
-        <f t="shared" ref="H5:H10" si="4">H4</f>
+      <c r="I5" s="119" t="str">
+        <f>I4</f>
         <v xml:space="preserve">Group A|G1A, Group B|G1B</v>
       </c>
-      <c r="I5" s="120" t="str">
-        <f t="shared" ref="I5:I10" si="5">I4</f>
+      <c r="J5" s="120" t="str">
+        <f>J4</f>
         <v>#FFEB9C</v>
       </c>
-      <c r="J5" s="63"/>
-      <c r="K5" s="121" t="str">
+      <c r="K5" s="63"/>
+      <c r="L5" s="121" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L5" s="122" t="str">
-        <f t="shared" ref="L5:L10" si="6">L4</f>
+      <c r="M5" s="122" t="str">
+        <f>M4</f>
         <v xml:space="preserve">teacher01|main@G1A, teacher01|main@G1B</v>
       </c>
-      <c r="M5" s="123">
-        <f t="shared" ref="M5:M10" si="7">M4+1</f>
+      <c r="N5" s="123">
+        <f>N4+1</f>
         <v>2</v>
       </c>
     </row>
     <row r="6" s="9" customFormat="1" ht="30" customHeight="1">
       <c r="A6" s="10" t="str">
+        <f>_xlfn.CONCAT("subject",IF(N6&lt;10,"0",""),N6)</f>
+        <v>subject03</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="C6" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>subject03</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="C6" s="70" t="str">
-        <f t="shared" si="3"/>
         <v>programA</v>
       </c>
       <c r="D6" s="63">
@@ -3105,43 +3121,46 @@
       <c r="E6" s="63">
         <v>20</v>
       </c>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63" t="str">
-        <f t="shared" si="2"/>
+      <c r="F6" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63" t="str">
+        <f>_xlfn.CONCAT("0",IF(N6&lt;10,"0",""),N6)</f>
         <v>003</v>
       </c>
-      <c r="H6" s="119" t="str">
-        <f t="shared" si="4"/>
+      <c r="I6" s="119" t="str">
+        <f>I5</f>
         <v xml:space="preserve">Group A|G1A, Group B|G1B</v>
       </c>
-      <c r="I6" s="120" t="str">
-        <f t="shared" si="5"/>
+      <c r="J6" s="120" t="str">
+        <f>J5</f>
         <v>#FFEB9C</v>
       </c>
-      <c r="J6" s="63"/>
-      <c r="K6" s="121" t="str">
+      <c r="K6" s="63"/>
+      <c r="L6" s="121" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L6" s="122" t="str">
-        <f t="shared" si="6"/>
+      <c r="M6" s="122" t="str">
+        <f>M5</f>
         <v xml:space="preserve">teacher01|main@G1A, teacher01|main@G1B</v>
       </c>
-      <c r="M6" s="123">
-        <f t="shared" si="7"/>
+      <c r="N6" s="123">
+        <f>N5+1</f>
         <v>3</v>
       </c>
     </row>
     <row r="7" s="9" customFormat="1" ht="30" customHeight="1">
       <c r="A7" s="10" t="str">
+        <f>_xlfn.CONCAT("subject",IF(N7&lt;10,"0",""),N7)</f>
+        <v>subject04</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="C7" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>subject04</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="C7" s="70" t="str">
-        <f t="shared" si="3"/>
         <v>programA</v>
       </c>
       <c r="D7" s="63">
@@ -3150,43 +3169,46 @@
       <c r="E7" s="63">
         <v>20</v>
       </c>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63" t="str">
-        <f t="shared" si="2"/>
+      <c r="F7" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63" t="str">
+        <f>_xlfn.CONCAT("0",IF(N7&lt;10,"0",""),N7)</f>
         <v>004</v>
       </c>
-      <c r="H7" s="119" t="str">
-        <f t="shared" si="4"/>
+      <c r="I7" s="119" t="str">
+        <f>I6</f>
         <v xml:space="preserve">Group A|G1A, Group B|G1B</v>
       </c>
-      <c r="I7" s="120" t="str">
-        <f t="shared" si="5"/>
+      <c r="J7" s="120" t="str">
+        <f>J6</f>
         <v>#FFEB9C</v>
       </c>
-      <c r="J7" s="63"/>
-      <c r="K7" s="121" t="str">
+      <c r="K7" s="63"/>
+      <c r="L7" s="121" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="L7" s="122" t="str">
-        <f t="shared" si="6"/>
+      <c r="M7" s="122" t="str">
+        <f>M6</f>
         <v xml:space="preserve">teacher01|main@G1A, teacher01|main@G1B</v>
       </c>
-      <c r="M7" s="123">
-        <f t="shared" si="7"/>
+      <c r="N7" s="123">
+        <f>N6+1</f>
         <v>4</v>
       </c>
     </row>
     <row r="8" ht="30" customHeight="1">
       <c r="A8" s="10" t="str">
+        <f>_xlfn.CONCAT("subject",IF(N8&lt;10,"0",""),N8)</f>
+        <v>subject05</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="C8" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>subject05</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="C8" s="70" t="str">
-        <f t="shared" si="3"/>
         <v>programA</v>
       </c>
       <c r="D8" s="63">
@@ -3195,41 +3217,44 @@
       <c r="E8" s="63">
         <v>20</v>
       </c>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63" t="str">
-        <f t="shared" si="2"/>
+      <c r="F8" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63" t="str">
+        <f>_xlfn.CONCAT("0",IF(N8&lt;10,"0",""),N8)</f>
         <v>005</v>
       </c>
-      <c r="H8" s="119" t="s">
-        <v>323</v>
-      </c>
-      <c r="I8" s="120" t="str">
-        <f t="shared" si="5"/>
+      <c r="I8" s="119" t="s">
+        <v>324</v>
+      </c>
+      <c r="J8" s="120" t="str">
+        <f>J7</f>
         <v>#FFEB9C</v>
       </c>
-      <c r="J8" s="63"/>
-      <c r="K8" s="121" t="str">
+      <c r="K8" s="63"/>
+      <c r="L8" s="121" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L8" s="122" t="s">
-        <v>324</v>
-      </c>
-      <c r="M8" s="123">
-        <f t="shared" si="7"/>
+      <c r="M8" s="122" t="s">
+        <v>325</v>
+      </c>
+      <c r="N8" s="123">
+        <f>N7+1</f>
         <v>5</v>
       </c>
     </row>
     <row r="9" ht="30" customHeight="1">
       <c r="A9" s="10" t="str">
+        <f>_xlfn.CONCAT("subject",IF(N9&lt;10,"0",""),N9)</f>
+        <v>subject06</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="C9" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>subject06</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="C9" s="70" t="str">
-        <f t="shared" si="3"/>
         <v>programA</v>
       </c>
       <c r="D9" s="63">
@@ -3238,42 +3263,45 @@
       <c r="E9" s="63">
         <v>20</v>
       </c>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63" t="str">
-        <f t="shared" si="2"/>
+      <c r="F9" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63" t="str">
+        <f>_xlfn.CONCAT("0",IF(N9&lt;10,"0",""),N9)</f>
         <v>006</v>
       </c>
-      <c r="H9" s="119" t="str">
-        <f t="shared" si="4"/>
+      <c r="I9" s="119" t="str">
+        <f>I8</f>
         <v xml:space="preserve">Group A|G2A, Group B|G2B</v>
       </c>
-      <c r="I9" s="120" t="s">
-        <v>326</v>
-      </c>
-      <c r="J9" s="63"/>
-      <c r="K9" s="121" t="str">
+      <c r="J9" s="120" t="s">
+        <v>327</v>
+      </c>
+      <c r="K9" s="63"/>
+      <c r="L9" s="121" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L9" s="122" t="str">
-        <f t="shared" si="6"/>
+      <c r="M9" s="122" t="str">
+        <f>M8</f>
         <v xml:space="preserve">teacher01|main@G2A, teacher01|main@G2B</v>
       </c>
-      <c r="M9" s="123">
-        <f t="shared" si="7"/>
+      <c r="N9" s="123">
+        <f>N8+1</f>
         <v>6</v>
       </c>
     </row>
     <row r="10" ht="30" customHeight="1">
       <c r="A10" s="10" t="str">
-        <f t="shared" ref="A10:A22" si="8">_xlfn.CONCAT("subject",IF(M10&lt;10,"0",""),M10)</f>
+        <f>_xlfn.CONCAT("subject",IF(N10&lt;10,"0",""),N10)</f>
         <v>subject07</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="C10" s="70" t="str">
-        <f t="shared" si="3"/>
+        <v>328</v>
+      </c>
+      <c r="C10" s="71" t="str">
+        <f t="shared" si="1"/>
         <v>programA</v>
       </c>
       <c r="D10" s="63">
@@ -3282,43 +3310,46 @@
       <c r="E10" s="63">
         <v>20</v>
       </c>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63" t="str">
-        <f t="shared" ref="G10:G24" si="9">_xlfn.CONCAT("0",IF(M10&lt;10,"0",""),M10)</f>
+      <c r="F10" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63" t="str">
+        <f>_xlfn.CONCAT("0",IF(N10&lt;10,"0",""),N10)</f>
         <v>007</v>
       </c>
-      <c r="H10" s="119" t="str">
-        <f t="shared" si="4"/>
+      <c r="I10" s="119" t="str">
+        <f>I9</f>
         <v xml:space="preserve">Group A|G2A, Group B|G2B</v>
       </c>
-      <c r="I10" s="120" t="str">
-        <f t="shared" si="5"/>
+      <c r="J10" s="120" t="str">
+        <f>J9</f>
         <v>#FFC7CE</v>
       </c>
-      <c r="J10" s="63"/>
-      <c r="K10" s="121" t="str">
+      <c r="K10" s="63"/>
+      <c r="L10" s="121" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L10" s="122" t="str">
-        <f t="shared" si="6"/>
+      <c r="M10" s="122" t="str">
+        <f>M9</f>
         <v xml:space="preserve">teacher01|main@G2A, teacher01|main@G2B</v>
       </c>
-      <c r="M10" s="123">
-        <f t="shared" si="7"/>
+      <c r="N10" s="123">
+        <f>N9+1</f>
         <v>7</v>
       </c>
     </row>
     <row r="11" ht="30" customHeight="1">
       <c r="A11" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f>_xlfn.CONCAT("subject",IF(N11&lt;10,"0",""),N11)</f>
         <v>subject08</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="C11" s="70" t="str">
-        <f t="shared" ref="C11:C24" si="10">C10</f>
+        <v>329</v>
+      </c>
+      <c r="C11" s="71" t="str">
+        <f t="shared" ref="C11:C24" si="2">C10</f>
         <v>programA</v>
       </c>
       <c r="D11" s="63">
@@ -3327,43 +3358,46 @@
       <c r="E11" s="63">
         <v>20</v>
       </c>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63" t="str">
-        <f t="shared" si="9"/>
+      <c r="F11" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63" t="str">
+        <f>_xlfn.CONCAT("0",IF(N11&lt;10,"0",""),N11)</f>
         <v>008</v>
       </c>
-      <c r="H11" s="119" t="str">
-        <f>H10</f>
+      <c r="I11" s="119" t="str">
+        <f>I10</f>
         <v xml:space="preserve">Group A|G2A, Group B|G2B</v>
       </c>
-      <c r="I11" s="120" t="str">
-        <f t="shared" ref="I11:I18" si="11">I10</f>
+      <c r="J11" s="120" t="str">
+        <f>J10</f>
         <v>#FFC7CE</v>
       </c>
-      <c r="J11" s="63"/>
-      <c r="K11" s="121" t="str">
+      <c r="K11" s="63"/>
+      <c r="L11" s="121" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="L11" s="122" t="str">
-        <f>L10</f>
+      <c r="M11" s="122" t="str">
+        <f>M10</f>
         <v xml:space="preserve">teacher01|main@G2A, teacher01|main@G2B</v>
       </c>
-      <c r="M11" s="123">
-        <f t="shared" ref="M11:M24" si="12">M10+1</f>
+      <c r="N11" s="123">
+        <f>N10+1</f>
         <v>8</v>
       </c>
     </row>
     <row r="12" ht="30" customHeight="1">
       <c r="A12" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f>_xlfn.CONCAT("subject",IF(N12&lt;10,"0",""),N12)</f>
         <v>subject09</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="C12" s="70" t="str">
-        <f t="shared" si="10"/>
+        <v>330</v>
+      </c>
+      <c r="C12" s="71" t="str">
+        <f t="shared" si="2"/>
         <v>programA</v>
       </c>
       <c r="D12" s="63">
@@ -3372,41 +3406,44 @@
       <c r="E12" s="63">
         <v>20</v>
       </c>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63" t="str">
-        <f t="shared" si="9"/>
+      <c r="F12" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63" t="str">
+        <f>_xlfn.CONCAT("0",IF(N12&lt;10,"0",""),N12)</f>
         <v>009</v>
       </c>
-      <c r="H12" s="119" t="s">
-        <v>330</v>
-      </c>
-      <c r="I12" s="120" t="str">
-        <f t="shared" si="11"/>
+      <c r="I12" s="119" t="s">
+        <v>331</v>
+      </c>
+      <c r="J12" s="120" t="str">
+        <f>J11</f>
         <v>#FFC7CE</v>
       </c>
-      <c r="J12" s="63"/>
-      <c r="K12" s="121" t="str">
+      <c r="K12" s="63"/>
+      <c r="L12" s="121" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L12" s="122" t="s">
-        <v>331</v>
-      </c>
-      <c r="M12" s="123">
-        <f t="shared" si="12"/>
+      <c r="M12" s="122" t="s">
+        <v>332</v>
+      </c>
+      <c r="N12" s="123">
+        <f>N11+1</f>
         <v>9</v>
       </c>
     </row>
     <row r="13" ht="30" customHeight="1">
       <c r="A13" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f>_xlfn.CONCAT("subject",IF(N13&lt;10,"0",""),N13)</f>
         <v>subject10</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="C13" s="70" t="str">
-        <f t="shared" si="10"/>
+        <v>333</v>
+      </c>
+      <c r="C13" s="71" t="str">
+        <f t="shared" si="2"/>
         <v>programA</v>
       </c>
       <c r="D13" s="63">
@@ -3415,43 +3452,46 @@
       <c r="E13" s="63">
         <v>20</v>
       </c>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63" t="str">
-        <f t="shared" si="9"/>
+      <c r="F13" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63" t="str">
+        <f>_xlfn.CONCAT("0",IF(N13&lt;10,"0",""),N13)</f>
         <v>010</v>
       </c>
-      <c r="H13" s="119" t="str">
-        <f t="shared" ref="H13:H24" si="13">H12</f>
+      <c r="I13" s="119" t="str">
+        <f>I12</f>
         <v xml:space="preserve">Group A|G3A, Group B|G3B</v>
       </c>
-      <c r="I13" s="120" t="str">
-        <f t="shared" si="11"/>
+      <c r="J13" s="120" t="str">
+        <f>J12</f>
         <v>#FFC7CE</v>
       </c>
-      <c r="J13" s="63"/>
-      <c r="K13" s="121" t="str">
+      <c r="K13" s="63"/>
+      <c r="L13" s="121" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L13" s="122" t="str">
-        <f t="shared" ref="L13:L24" si="14">L12</f>
+      <c r="M13" s="122" t="str">
+        <f>M12</f>
         <v xml:space="preserve">teacher01|main@G3A, teacher01|main@G3B</v>
       </c>
-      <c r="M13" s="123">
-        <f t="shared" si="12"/>
+      <c r="N13" s="123">
+        <f>N12+1</f>
         <v>10</v>
       </c>
     </row>
     <row r="14" ht="30" customHeight="1">
       <c r="A14" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f>_xlfn.CONCAT("subject",IF(N14&lt;10,"0",""),N14)</f>
         <v>subject11</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="C14" s="70" t="str">
-        <f t="shared" si="10"/>
+        <v>334</v>
+      </c>
+      <c r="C14" s="71" t="str">
+        <f t="shared" si="2"/>
         <v>programA</v>
       </c>
       <c r="D14" s="63">
@@ -3460,42 +3500,45 @@
       <c r="E14" s="63">
         <v>20</v>
       </c>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63" t="str">
-        <f t="shared" si="9"/>
+      <c r="F14" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63" t="str">
+        <f>_xlfn.CONCAT("0",IF(N14&lt;10,"0",""),N14)</f>
         <v>011</v>
       </c>
-      <c r="H14" s="119" t="str">
-        <f t="shared" si="13"/>
+      <c r="I14" s="119" t="str">
+        <f>I13</f>
         <v xml:space="preserve">Group A|G3A, Group B|G3B</v>
       </c>
-      <c r="I14" s="120" t="s">
-        <v>334</v>
-      </c>
-      <c r="J14" s="63"/>
-      <c r="K14" s="121" t="str">
+      <c r="J14" s="120" t="s">
+        <v>335</v>
+      </c>
+      <c r="K14" s="63"/>
+      <c r="L14" s="121" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L14" s="122" t="str">
-        <f t="shared" si="14"/>
+      <c r="M14" s="122" t="str">
+        <f>M13</f>
         <v xml:space="preserve">teacher01|main@G3A, teacher01|main@G3B</v>
       </c>
-      <c r="M14" s="123">
-        <f t="shared" si="12"/>
+      <c r="N14" s="123">
+        <f>N13+1</f>
         <v>11</v>
       </c>
     </row>
     <row r="15" ht="30" customHeight="1">
       <c r="A15" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f>_xlfn.CONCAT("subject",IF(N15&lt;10,"0",""),N15)</f>
         <v>subject12</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="C15" s="70" t="str">
-        <f t="shared" si="10"/>
+        <v>336</v>
+      </c>
+      <c r="C15" s="71" t="str">
+        <f t="shared" si="2"/>
         <v>programA</v>
       </c>
       <c r="D15" s="63">
@@ -3504,43 +3547,46 @@
       <c r="E15" s="63">
         <v>20</v>
       </c>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63" t="str">
-        <f t="shared" si="9"/>
+      <c r="F15" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63" t="str">
+        <f>_xlfn.CONCAT("0",IF(N15&lt;10,"0",""),N15)</f>
         <v>012</v>
       </c>
-      <c r="H15" s="119" t="str">
-        <f t="shared" si="13"/>
+      <c r="I15" s="119" t="str">
+        <f>I14</f>
         <v xml:space="preserve">Group A|G3A, Group B|G3B</v>
       </c>
-      <c r="I15" s="120" t="str">
-        <f t="shared" si="11"/>
+      <c r="J15" s="120" t="str">
+        <f>J14</f>
         <v>#C6EFCD</v>
       </c>
-      <c r="J15" s="63"/>
-      <c r="K15" s="121" t="str">
+      <c r="K15" s="63"/>
+      <c r="L15" s="121" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="L15" s="122" t="str">
-        <f t="shared" si="14"/>
+      <c r="M15" s="122" t="str">
+        <f>M14</f>
         <v xml:space="preserve">teacher01|main@G3A, teacher01|main@G3B</v>
       </c>
-      <c r="M15" s="123">
-        <f t="shared" si="12"/>
+      <c r="N15" s="123">
+        <f>N14+1</f>
         <v>12</v>
       </c>
     </row>
     <row r="16" ht="30" customHeight="1">
       <c r="A16" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f>_xlfn.CONCAT("subject",IF(N16&lt;10,"0",""),N16)</f>
         <v>subject13</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="C16" s="70" t="str">
-        <f t="shared" si="10"/>
+        <v>337</v>
+      </c>
+      <c r="C16" s="71" t="str">
+        <f t="shared" si="2"/>
         <v>programA</v>
       </c>
       <c r="D16" s="63">
@@ -3549,41 +3595,44 @@
       <c r="E16" s="63">
         <v>20</v>
       </c>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63" t="str">
-        <f t="shared" si="9"/>
+      <c r="F16" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63" t="str">
+        <f>_xlfn.CONCAT("0",IF(N16&lt;10,"0",""),N16)</f>
         <v>013</v>
       </c>
-      <c r="H16" s="119" t="s">
-        <v>337</v>
-      </c>
-      <c r="I16" s="120" t="str">
-        <f t="shared" si="11"/>
+      <c r="I16" s="119" t="s">
+        <v>338</v>
+      </c>
+      <c r="J16" s="120" t="str">
+        <f>J15</f>
         <v>#C6EFCD</v>
       </c>
-      <c r="J16" s="63"/>
-      <c r="K16" s="121" t="str">
+      <c r="K16" s="63"/>
+      <c r="L16" s="121" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L16" s="122" t="s">
-        <v>338</v>
-      </c>
-      <c r="M16" s="123">
-        <f t="shared" si="12"/>
+      <c r="M16" s="122" t="s">
+        <v>339</v>
+      </c>
+      <c r="N16" s="123">
+        <f>N15+1</f>
         <v>13</v>
       </c>
     </row>
     <row r="17" ht="30" customHeight="1">
       <c r="A17" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f>_xlfn.CONCAT("subject",IF(N17&lt;10,"0",""),N17)</f>
         <v>subject14</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="C17" s="70" t="str">
-        <f t="shared" si="10"/>
+        <v>340</v>
+      </c>
+      <c r="C17" s="71" t="str">
+        <f t="shared" si="2"/>
         <v>programA</v>
       </c>
       <c r="D17" s="63">
@@ -3592,43 +3641,46 @@
       <c r="E17" s="63">
         <v>20</v>
       </c>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63" t="str">
-        <f t="shared" si="9"/>
+      <c r="F17" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63" t="str">
+        <f>_xlfn.CONCAT("0",IF(N17&lt;10,"0",""),N17)</f>
         <v>014</v>
       </c>
-      <c r="H17" s="119" t="str">
-        <f t="shared" si="13"/>
+      <c r="I17" s="119" t="str">
+        <f>I16</f>
         <v xml:space="preserve">Group A|G4A, Group B|G4B</v>
       </c>
-      <c r="I17" s="120" t="str">
-        <f t="shared" si="11"/>
+      <c r="J17" s="120" t="str">
+        <f>J16</f>
         <v>#C6EFCD</v>
       </c>
-      <c r="J17" s="63"/>
-      <c r="K17" s="121" t="str">
+      <c r="K17" s="63"/>
+      <c r="L17" s="121" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L17" s="122" t="str">
-        <f t="shared" si="14"/>
+      <c r="M17" s="122" t="str">
+        <f>M16</f>
         <v xml:space="preserve">teacher01|main@G4A, teacher01|main@G4B</v>
       </c>
-      <c r="M17" s="123">
-        <f t="shared" si="12"/>
+      <c r="N17" s="123">
+        <f>N16+1</f>
         <v>14</v>
       </c>
     </row>
     <row r="18" ht="30" customHeight="1">
       <c r="A18" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f>_xlfn.CONCAT("subject",IF(N18&lt;10,"0",""),N18)</f>
         <v>subject15</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="C18" s="70" t="str">
-        <f t="shared" si="10"/>
+        <v>341</v>
+      </c>
+      <c r="C18" s="71" t="str">
+        <f t="shared" si="2"/>
         <v>programA</v>
       </c>
       <c r="D18" s="63">
@@ -3637,43 +3689,46 @@
       <c r="E18" s="63">
         <v>20</v>
       </c>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63" t="str">
-        <f t="shared" si="9"/>
+      <c r="F18" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63" t="str">
+        <f>_xlfn.CONCAT("0",IF(N18&lt;10,"0",""),N18)</f>
         <v>015</v>
       </c>
-      <c r="H18" s="119" t="str">
-        <f t="shared" si="13"/>
+      <c r="I18" s="119" t="str">
+        <f>I17</f>
         <v xml:space="preserve">Group A|G4A, Group B|G4B</v>
       </c>
-      <c r="I18" s="120" t="str">
-        <f t="shared" si="11"/>
+      <c r="J18" s="120" t="str">
+        <f>J17</f>
         <v>#C6EFCD</v>
       </c>
-      <c r="J18" s="63"/>
-      <c r="K18" s="121" t="str">
+      <c r="K18" s="63"/>
+      <c r="L18" s="121" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L18" s="122" t="str">
-        <f t="shared" si="14"/>
+      <c r="M18" s="122" t="str">
+        <f>M17</f>
         <v xml:space="preserve">teacher01|main@G4A, teacher01|main@G4B</v>
       </c>
-      <c r="M18" s="123">
-        <f t="shared" si="12"/>
+      <c r="N18" s="123">
+        <f>N17+1</f>
         <v>15</v>
       </c>
     </row>
     <row r="19" ht="30" customHeight="1">
       <c r="A19" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f>_xlfn.CONCAT("subject",IF(N19&lt;10,"0",""),N19)</f>
         <v>subject16</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="C19" s="70" t="str">
-        <f t="shared" si="10"/>
+        <v>342</v>
+      </c>
+      <c r="C19" s="71" t="str">
+        <f t="shared" si="2"/>
         <v>programA</v>
       </c>
       <c r="D19" s="63">
@@ -3682,42 +3737,45 @@
       <c r="E19" s="63">
         <v>20</v>
       </c>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63" t="str">
-        <f t="shared" si="9"/>
+      <c r="F19" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63" t="str">
+        <f>_xlfn.CONCAT("0",IF(N19&lt;10,"0",""),N19)</f>
         <v>016</v>
       </c>
-      <c r="H19" s="119" t="str">
-        <f t="shared" si="13"/>
+      <c r="I19" s="119" t="str">
+        <f>I18</f>
         <v xml:space="preserve">Group A|G4A, Group B|G4B</v>
       </c>
-      <c r="I19" s="120" t="s">
-        <v>342</v>
-      </c>
-      <c r="J19" s="63"/>
-      <c r="K19" s="121" t="str">
+      <c r="J19" s="120" t="s">
+        <v>343</v>
+      </c>
+      <c r="K19" s="63"/>
+      <c r="L19" s="121" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="L19" s="122" t="str">
-        <f t="shared" si="14"/>
+      <c r="M19" s="122" t="str">
+        <f>M18</f>
         <v xml:space="preserve">teacher01|main@G4A, teacher01|main@G4B</v>
       </c>
-      <c r="M19" s="123">
-        <f t="shared" si="12"/>
+      <c r="N19" s="123">
+        <f>N18+1</f>
         <v>16</v>
       </c>
     </row>
     <row r="20" ht="30" customHeight="1">
       <c r="A20" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f>_xlfn.CONCAT("subject",IF(N20&lt;10,"0",""),N20)</f>
         <v>subject17</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="C20" s="70" t="str">
-        <f t="shared" si="10"/>
+        <v>344</v>
+      </c>
+      <c r="C20" s="71" t="str">
+        <f t="shared" si="2"/>
         <v>programA</v>
       </c>
       <c r="D20" s="63">
@@ -3726,40 +3784,43 @@
       <c r="E20" s="63">
         <v>20</v>
       </c>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63" t="str">
-        <f t="shared" si="9"/>
+      <c r="F20" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63" t="str">
+        <f>_xlfn.CONCAT("0",IF(N20&lt;10,"0",""),N20)</f>
         <v>017</v>
       </c>
-      <c r="H20" s="119" t="s">
-        <v>344</v>
-      </c>
-      <c r="I20" s="120" t="s">
-        <v>342</v>
-      </c>
-      <c r="J20" s="63"/>
-      <c r="K20" s="121" t="str">
+      <c r="I20" s="119" t="s">
+        <v>345</v>
+      </c>
+      <c r="J20" s="120" t="s">
+        <v>343</v>
+      </c>
+      <c r="K20" s="63"/>
+      <c r="L20" s="121" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L20" s="122" t="s">
-        <v>345</v>
-      </c>
-      <c r="M20" s="123">
-        <f t="shared" si="12"/>
+      <c r="M20" s="122" t="s">
+        <v>346</v>
+      </c>
+      <c r="N20" s="123">
+        <f>N19+1</f>
         <v>17</v>
       </c>
     </row>
     <row r="21" ht="30" customHeight="1">
       <c r="A21" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f>_xlfn.CONCAT("subject",IF(N21&lt;10,"0",""),N21)</f>
         <v>subject18</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>346</v>
-      </c>
-      <c r="C21" s="70" t="str">
-        <f t="shared" si="10"/>
+        <v>347</v>
+      </c>
+      <c r="C21" s="71" t="str">
+        <f t="shared" si="2"/>
         <v>programA</v>
       </c>
       <c r="D21" s="63">
@@ -3768,42 +3829,45 @@
       <c r="E21" s="63">
         <v>20</v>
       </c>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63" t="str">
-        <f t="shared" si="9"/>
+      <c r="F21" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63" t="str">
+        <f>_xlfn.CONCAT("0",IF(N21&lt;10,"0",""),N21)</f>
         <v>018</v>
       </c>
-      <c r="H21" s="119" t="str">
-        <f t="shared" si="13"/>
+      <c r="I21" s="119" t="str">
+        <f>I20</f>
         <v xml:space="preserve">Group A|G5A, Group B|G5B</v>
       </c>
-      <c r="I21" s="120" t="s">
-        <v>342</v>
-      </c>
-      <c r="J21" s="63"/>
-      <c r="K21" s="121" t="str">
+      <c r="J21" s="120" t="s">
+        <v>343</v>
+      </c>
+      <c r="K21" s="63"/>
+      <c r="L21" s="121" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L21" s="122" t="str">
-        <f t="shared" si="14"/>
+      <c r="M21" s="122" t="str">
+        <f>M20</f>
         <v xml:space="preserve">teacher01|main@G5A, teacher01|main@G5B</v>
       </c>
-      <c r="M21" s="123">
-        <f t="shared" si="12"/>
+      <c r="N21" s="123">
+        <f>N20+1</f>
         <v>18</v>
       </c>
     </row>
     <row r="22" ht="30" customHeight="1">
       <c r="A22" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f>_xlfn.CONCAT("subject",IF(N22&lt;10,"0",""),N22)</f>
         <v>subject19</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="C22" s="70" t="str">
-        <f t="shared" si="10"/>
+        <v>348</v>
+      </c>
+      <c r="C22" s="71" t="str">
+        <f t="shared" si="2"/>
         <v>programA</v>
       </c>
       <c r="D22" s="63">
@@ -3812,41 +3876,44 @@
       <c r="E22" s="63">
         <v>20</v>
       </c>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63" t="str">
-        <f t="shared" si="9"/>
+      <c r="F22" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63" t="str">
+        <f>_xlfn.CONCAT("0",IF(N22&lt;10,"0",""),N22)</f>
         <v>019</v>
       </c>
-      <c r="H22" s="119" t="str">
-        <f t="shared" si="13"/>
+      <c r="I22" s="119" t="str">
+        <f>I21</f>
         <v xml:space="preserve">Group A|G5A, Group B|G5B</v>
       </c>
-      <c r="I22" s="120" t="s">
-        <v>342</v>
-      </c>
-      <c r="J22" s="63"/>
-      <c r="K22" s="121" t="str">
+      <c r="J22" s="120" t="s">
+        <v>343</v>
+      </c>
+      <c r="K22" s="63"/>
+      <c r="L22" s="121" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="L22" s="122" t="str">
-        <f t="shared" si="14"/>
+      <c r="M22" s="122" t="str">
+        <f>M21</f>
         <v xml:space="preserve">teacher01|main@G5A, teacher01|main@G5B</v>
       </c>
-      <c r="M22" s="123">
-        <f t="shared" si="12"/>
+      <c r="N22" s="123">
+        <f>N21+1</f>
         <v>19</v>
       </c>
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="A23" s="10" t="str">
-        <f t="shared" ref="A23:A24" si="15">_xlfn.CONCAT("asignatura",IF(M23&lt;10,"0",""),M23)</f>
+        <f>_xlfn.CONCAT("asignatura",IF(N23&lt;10,"0",""),N23)</f>
         <v>asignatura01</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="C23" s="70" t="str">
+        <v>349</v>
+      </c>
+      <c r="C23" s="71" t="str">
         <f>ap_programs!A6</f>
         <v>programC</v>
       </c>
@@ -3856,39 +3923,42 @@
       <c r="E23" s="63">
         <v>20</v>
       </c>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63" t="str">
-        <f t="shared" si="9"/>
+      <c r="F23" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63" t="str">
+        <f>_xlfn.CONCAT("0",IF(N23&lt;10,"0",""),N23)</f>
         <v>001</v>
       </c>
-      <c r="H23" s="119" t="s">
-        <v>349</v>
-      </c>
-      <c r="I23" s="120" t="s">
+      <c r="I23" s="119" t="s">
         <v>350</v>
       </c>
-      <c r="J23" s="63"/>
-      <c r="K23" s="121" t="str">
+      <c r="J23" s="120" t="s">
+        <v>351</v>
+      </c>
+      <c r="K23" s="63"/>
+      <c r="L23" s="121" t="str">
         <f>ap_subject_types!$A$6</f>
         <v>type04</v>
       </c>
-      <c r="L23" s="122" t="s">
-        <v>351</v>
-      </c>
-      <c r="M23" s="123">
+      <c r="M23" s="122" t="s">
+        <v>352</v>
+      </c>
+      <c r="N23" s="123">
         <v>1</v>
       </c>
     </row>
     <row r="24" ht="27">
       <c r="A24" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f>_xlfn.CONCAT("asignatura",IF(N24&lt;10,"0",""),N24)</f>
         <v>asignatura02</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="C24" s="70" t="str">
-        <f t="shared" si="10"/>
+        <v>353</v>
+      </c>
+      <c r="C24" s="71" t="str">
+        <f t="shared" si="2"/>
         <v>programC</v>
       </c>
       <c r="D24" s="63">
@@ -3897,35 +3967,41 @@
       <c r="E24" s="63">
         <v>20</v>
       </c>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63" t="str">
-        <f t="shared" si="9"/>
+      <c r="F24" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63" t="str">
+        <f>_xlfn.CONCAT("0",IF(N24&lt;10,"0",""),N24)</f>
         <v>002</v>
       </c>
-      <c r="H24" s="119" t="str">
-        <f t="shared" si="13"/>
+      <c r="I24" s="119" t="str">
+        <f>I23</f>
         <v xml:space="preserve">2ºA|2ºA, 2ºB|2ºB</v>
       </c>
-      <c r="I24" s="120" t="s">
-        <v>353</v>
-      </c>
-      <c r="J24" s="63"/>
-      <c r="K24" s="121" t="str">
+      <c r="J24" s="120" t="s">
+        <v>354</v>
+      </c>
+      <c r="K24" s="63"/>
+      <c r="L24" s="121" t="str">
         <f>ap_subject_types!$A$6</f>
         <v>type04</v>
       </c>
-      <c r="L24" s="122" t="str">
-        <f t="shared" si="14"/>
+      <c r="M24" s="122" t="str">
+        <f>M23</f>
         <v xml:space="preserve">teacher01|main@2ºA, teacher01|main@2ºB</v>
       </c>
-      <c r="M24" s="123">
-        <f t="shared" si="12"/>
+      <c r="N24" s="123">
+        <f>N23+1</f>
         <v>2</v>
       </c>
+    </row>
+    <row r="25" ht="14.25">
+      <c r="F25" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -3946,7 +4022,7 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="14.7109375"/>
   </cols>
@@ -3968,10 +4044,10 @@
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="70" t="str">
+      <c r="B3" s="71" t="str">
         <f>profiles!$A$8</f>
         <v>teacher</v>
       </c>
@@ -3980,7 +4056,7 @@
       <c r="A4" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="70" t="str">
+      <c r="B4" s="71" t="str">
         <f>profiles!$A$9</f>
         <v>student</v>
       </c>
@@ -3988,7 +4064,7 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -5048,7 +5124,7 @@
       </c>
     </row>
     <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="68" t="s">
         <v>136</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -5060,10 +5136,10 @@
       <c r="D3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="68">
+      <c r="E3" s="69">
         <v>36526</v>
       </c>
-      <c r="F3" s="69" t="s">
+      <c r="F3" s="70" t="s">
         <v>139</v>
       </c>
       <c r="G3" s="11" t="s">
@@ -5075,7 +5151,7 @@
       <c r="I3" s="63" t="s">
         <v>141</v>
       </c>
-      <c r="J3" s="70" t="s">
+      <c r="J3" s="71" t="s">
         <v>142</v>
       </c>
     </row>
@@ -5092,10 +5168,10 @@
       <c r="D4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="68">
+      <c r="E4" s="69">
         <v>34781</v>
       </c>
-      <c r="F4" s="69" t="s">
+      <c r="F4" s="70" t="s">
         <v>145</v>
       </c>
       <c r="G4" s="11" t="s">
@@ -5107,7 +5183,7 @@
       <c r="I4" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="J4" s="70" t="s">
+      <c r="J4" s="71" t="s">
         <v>147</v>
       </c>
     </row>
@@ -5124,10 +5200,10 @@
       <c r="D5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="68">
+      <c r="E5" s="69">
         <v>39205</v>
       </c>
-      <c r="F5" s="69" t="s">
+      <c r="F5" s="70" t="s">
         <v>150</v>
       </c>
       <c r="G5" s="11" t="s">
@@ -5139,7 +5215,7 @@
       <c r="I5" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="J5" s="70" t="s">
+      <c r="J5" s="71" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5156,10 +5232,10 @@
       <c r="D6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="68">
+      <c r="E6" s="69">
         <v>39156</v>
       </c>
-      <c r="F6" s="69" t="s">
+      <c r="F6" s="70" t="s">
         <v>156</v>
       </c>
       <c r="G6" s="11" t="s">
@@ -5171,7 +5247,7 @@
       <c r="I6" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="J6" s="70" t="s">
+      <c r="J6" s="71" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5188,10 +5264,10 @@
       <c r="D7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="68">
+      <c r="E7" s="69">
         <v>42171</v>
       </c>
-      <c r="F7" s="69" t="s">
+      <c r="F7" s="70" t="s">
         <v>159</v>
       </c>
       <c r="G7" s="11" t="s">
@@ -5203,7 +5279,7 @@
       <c r="I7" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="J7" s="70" t="s">
+      <c r="J7" s="71" t="s">
         <v>160</v>
       </c>
     </row>
@@ -5220,10 +5296,10 @@
       <c r="D8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="68">
+      <c r="E8" s="69">
         <v>42237</v>
       </c>
-      <c r="F8" s="69" t="s">
+      <c r="F8" s="70" t="s">
         <v>163</v>
       </c>
       <c r="G8" s="11" t="s">
@@ -5235,7 +5311,7 @@
       <c r="I8" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="J8" s="70" t="s">
+      <c r="J8" s="71" t="s">
         <v>160</v>
       </c>
     </row>
@@ -5252,10 +5328,10 @@
       <c r="D9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="68">
+      <c r="E9" s="69">
         <v>27791</v>
       </c>
-      <c r="F9" s="69" t="s">
+      <c r="F9" s="70" t="s">
         <v>167</v>
       </c>
       <c r="G9" s="11" t="s">
@@ -5267,7 +5343,7 @@
       <c r="I9" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="J9" s="70" t="s">
+      <c r="J9" s="71" t="s">
         <v>169</v>
       </c>
     </row>
@@ -5284,10 +5360,10 @@
       <c r="D10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="68">
+      <c r="E10" s="69">
         <v>38718</v>
       </c>
-      <c r="F10" s="71" t="s">
+      <c r="F10" s="72" t="s">
         <v>173</v>
       </c>
       <c r="G10" s="11" t="s">
@@ -5299,7 +5375,7 @@
       <c r="I10" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="J10" s="70" t="s">
+      <c r="J10" s="71" t="s">
         <v>174</v>
       </c>
     </row>
@@ -5316,10 +5392,10 @@
       <c r="D11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="68">
+      <c r="E11" s="69">
         <v>38749</v>
       </c>
-      <c r="F11" s="71" t="s">
+      <c r="F11" s="72" t="s">
         <v>178</v>
       </c>
       <c r="G11" s="11" t="s">
@@ -5331,7 +5407,7 @@
       <c r="I11" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="J11" s="70" t="s">
+      <c r="J11" s="71" t="s">
         <v>174</v>
       </c>
     </row>
@@ -5348,10 +5424,10 @@
       <c r="D12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="68">
+      <c r="E12" s="69">
         <v>38777</v>
       </c>
-      <c r="F12" s="71" t="s">
+      <c r="F12" s="72" t="s">
         <v>182</v>
       </c>
       <c r="G12" s="11" t="s">
@@ -5363,7 +5439,7 @@
       <c r="I12" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="J12" s="70" t="s">
+      <c r="J12" s="71" t="s">
         <v>174</v>
       </c>
     </row>
@@ -5380,10 +5456,10 @@
       <c r="D13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="68">
+      <c r="E13" s="69">
         <v>38808</v>
       </c>
-      <c r="F13" s="71" t="s">
+      <c r="F13" s="72" t="s">
         <v>186</v>
       </c>
       <c r="G13" s="11" t="s">
@@ -5395,7 +5471,7 @@
       <c r="I13" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="J13" s="70" t="s">
+      <c r="J13" s="71" t="s">
         <v>174</v>
       </c>
     </row>
@@ -5412,10 +5488,10 @@
       <c r="D14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="68">
+      <c r="E14" s="69">
         <v>38838</v>
       </c>
-      <c r="F14" s="71" t="s">
+      <c r="F14" s="72" t="s">
         <v>190</v>
       </c>
       <c r="G14" s="11" t="s">
@@ -5427,7 +5503,7 @@
       <c r="I14" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="J14" s="70" t="s">
+      <c r="J14" s="71" t="s">
         <v>174</v>
       </c>
     </row>
@@ -5444,10 +5520,10 @@
       <c r="D15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="68">
+      <c r="E15" s="69">
         <v>38869</v>
       </c>
-      <c r="F15" s="71" t="s">
+      <c r="F15" s="72" t="s">
         <v>194</v>
       </c>
       <c r="G15" s="11" t="s">
@@ -5459,7 +5535,7 @@
       <c r="I15" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="J15" s="70" t="s">
+      <c r="J15" s="71" t="s">
         <v>174</v>
       </c>
     </row>
@@ -5484,7 +5560,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1" disablePrompts="0">
-        <x14:dataValidation xr:uid="{005400B5-003F-48E6-A533-0082008B00D2}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{009C0056-00A3-403B-B033-00A1001D009F}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
@@ -5526,7 +5602,7 @@
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="73" t="s">
         <v>196</v>
       </c>
     </row>
@@ -5534,16 +5610,16 @@
       <c r="A3" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="70" t="str">
+      <c r="B3" s="71" t="str">
         <f>profiles!$A$10</f>
         <v>guardian</v>
       </c>
     </row>
     <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="70" t="str">
+      <c r="B4" s="71" t="str">
         <f>profiles!$A$9</f>
         <v>student</v>
       </c>
@@ -5603,7 +5679,7 @@
       <c r="C2" s="76" t="s">
         <v>200</v>
       </c>
-      <c r="D2" s="72" t="s">
+      <c r="D2" s="73" t="s">
         <v>201</v>
       </c>
       <c r="E2" s="67" t="s">
@@ -5617,13 +5693,13 @@
       <c r="B3" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="71" t="s">
         <v>205</v>
       </c>
       <c r="D3" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="70" t="s">
+      <c r="E3" s="71" t="s">
         <v>206</v>
       </c>
     </row>
@@ -5635,7 +5711,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00A90089-00F9-4BA2-8B38-0098000C0086}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00E200FC-00BF-4384-9744-00A9004700B2}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GUARDIANS_RELATIONSHIPS</xm:f>
           </x14:formula1>
@@ -5720,7 +5796,7 @@
       <c r="B3" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="C3" s="70" t="str">
+      <c r="C3" s="71" t="str">
         <f>centers!$A$3</f>
         <v>centerA</v>
       </c>
@@ -5744,7 +5820,7 @@
       <c r="B4" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C4" s="70" t="str">
+      <c r="C4" s="71" t="str">
         <f>centers!$A$5</f>
         <v>centerC</v>
       </c>
@@ -5769,13 +5845,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2" disablePrompts="0">
-        <x14:dataValidation xr:uid="{000500B0-005C-47AD-984E-00A000A90066}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00BE001B-00FF-47E6-8A95-0093005000DA}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GRADES_TYPES</xm:f>
           </x14:formula1>
           <xm:sqref>D3:D4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00220015-0070-4689-BA77-00ED00E900A2}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00650096-0083-4860-96A6-006C00670030}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
@@ -5824,7 +5900,7 @@
       <c r="A3" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="70" t="str">
+      <c r="B3" s="71" t="str">
         <f>profiles!$A$8</f>
         <v>teacher</v>
       </c>
@@ -5833,7 +5909,7 @@
       <c r="A4" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="70" t="str">
+      <c r="B4" s="71" t="str">
         <f>profiles!$A$9</f>
         <v>student</v>
       </c>
@@ -6303,13 +6379,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00B1004A-003F-4944-88D3-00DA005E0026}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{004D00A6-006A-4E4F-B1ED-00DD008700DE}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>J4:J6 F4:F6 S4 U4:U6 W4:X6</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00CD007F-007B-40F4-9B3E-002B0051007F}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00E500FB-00C8-4C71-AD65-001D00140069}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>SUBSTAGES_FRECUENCY</xm:f>
           </x14:formula1>

--- a/packages/leemons-plugin-mvp-template/src/bulk/data.xlsx
+++ b/packages/leemons-plugin-mvp-template/src/bulk/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="11"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" state="visible" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="356">
   <si>
     <t xml:space="preserve">Substages frecuency</t>
   </si>
@@ -697,6 +697,9 @@
     <t xml:space="preserve">ESO grades</t>
   </si>
   <si>
+    <t>creator</t>
+  </si>
+  <si>
     <t>abbreviation</t>
   </si>
   <si>
@@ -775,6 +778,9 @@
     <t xml:space="preserve">Subjects config</t>
   </si>
   <si>
+    <t>Creator</t>
+  </si>
+  <si>
     <t>Acronym</t>
   </si>
   <si>
@@ -935,9 +941,6 @@
   </si>
   <si>
     <t>seats</t>
-  </si>
-  <si>
-    <t>creator</t>
   </si>
   <si>
     <t>internalId</t>
@@ -1797,9 +1800,6 @@
     <xf fontId="2" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf fontId="0" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1919,6 +1919,9 @@
     </xf>
     <xf fontId="12" fillId="14" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2638,40 +2641,40 @@
         <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" ht="28.5">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="94" t="s">
-        <v>276</v>
+      <c r="C2" s="93" t="s">
+        <v>278</v>
       </c>
       <c r="D2" s="110" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E2" s="110" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="C3" s="71" t="str">
+        <v>281</v>
+      </c>
+      <c r="C3" s="70" t="str">
         <f>ap_programs!$A$4</f>
         <v>programA</v>
       </c>
@@ -2684,12 +2687,12 @@
     </row>
     <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="C4" s="71" t="str">
+        <v>281</v>
+      </c>
+      <c r="C4" s="70" t="str">
         <f>ap_programs!$A$5</f>
         <v>programB</v>
       </c>
@@ -2702,12 +2705,12 @@
     </row>
     <row r="5" ht="19.5" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="C5" s="71" t="str">
+        <v>284</v>
+      </c>
+      <c r="C5" s="70" t="str">
         <f>ap_programs!$A$4</f>
         <v>programA</v>
       </c>
@@ -2720,12 +2723,12 @@
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="C6" s="71" t="str">
+        <v>286</v>
+      </c>
+      <c r="C6" s="70" t="str">
         <f>ap_programs!$A$6</f>
         <v>programC</v>
       </c>
@@ -2744,7 +2747,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1" disablePrompts="0">
-        <x14:dataValidation xr:uid="{0060005F-0016-4CAA-97A8-0048009B001B}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{007000BE-00CB-47A3-889B-001100A300C0}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
@@ -2784,61 +2787,61 @@
         <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2" ht="28.5">
       <c r="A2" s="111" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="78" t="s">
-        <v>247</v>
-      </c>
-      <c r="D2" s="78" t="s">
-        <v>287</v>
-      </c>
-      <c r="E2" s="78" t="s">
-        <v>288</v>
-      </c>
-      <c r="F2" s="79" t="s">
-        <v>276</v>
+      <c r="C2" s="77" t="s">
+        <v>249</v>
+      </c>
+      <c r="D2" s="77" t="s">
+        <v>289</v>
+      </c>
+      <c r="E2" s="77" t="s">
+        <v>290</v>
+      </c>
+      <c r="F2" s="78" t="s">
+        <v>278</v>
       </c>
       <c r="G2" s="112" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E3" s="113" t="s">
-        <v>293</v>
-      </c>
-      <c r="F3" s="71" t="str">
+        <v>295</v>
+      </c>
+      <c r="F3" s="70" t="str">
         <f>ap_programs!$A$5</f>
         <v>programB</v>
       </c>
@@ -2848,21 +2851,21 @@
     </row>
     <row r="4" ht="19.5" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="E4" s="70" t="s">
-        <v>298</v>
-      </c>
-      <c r="F4" s="71" t="str">
+        <v>299</v>
+      </c>
+      <c r="E4" s="69" t="s">
+        <v>300</v>
+      </c>
+      <c r="F4" s="70" t="str">
         <f>ap_programs!$A$5</f>
         <v>programB</v>
       </c>
@@ -2917,37 +2920,37 @@
         <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M1" s="114" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N1" s="14"/>
     </row>
@@ -2961,7 +2964,7 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -2973,53 +2976,53 @@
       <c r="A3" s="111" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="94" t="s">
-        <v>276</v>
-      </c>
-      <c r="D3" s="93" t="s">
-        <v>308</v>
-      </c>
-      <c r="E3" s="78" t="s">
+      <c r="C3" s="93" t="s">
+        <v>278</v>
+      </c>
+      <c r="D3" s="92" t="s">
         <v>309</v>
       </c>
-      <c r="F3" s="93" t="s">
+      <c r="E3" s="77" t="s">
         <v>310</v>
       </c>
-      <c r="G3" s="93" t="s">
-        <v>310</v>
-      </c>
-      <c r="H3" s="93" t="s">
+      <c r="F3" s="92" t="s">
         <v>311</v>
       </c>
+      <c r="G3" s="92" t="s">
+        <v>311</v>
+      </c>
+      <c r="H3" s="92" t="s">
+        <v>312</v>
+      </c>
       <c r="I3" s="115" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="J3" s="116" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="K3" s="116" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L3" s="117" t="s">
-        <v>314</v>
-      </c>
-      <c r="M3" s="79" t="s">
         <v>315</v>
+      </c>
+      <c r="M3" s="78" t="s">
+        <v>316</v>
       </c>
       <c r="N3" s="118"/>
     </row>
     <row r="4" s="9" customFormat="1" ht="30" customHeight="1">
       <c r="A4" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(N4&lt;10,"0",""),N4)</f>
+        <f t="shared" ref="A4:A9" si="1">_xlfn.CONCAT("subject",IF(N4&lt;10,"0",""),N4)</f>
         <v>subject01</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="C4" s="71" t="str">
+        <v>317</v>
+      </c>
+      <c r="C4" s="70" t="str">
         <f>ap_programs!A4</f>
         <v>programA</v>
       </c>
@@ -3034,14 +3037,14 @@
       </c>
       <c r="G4" s="63"/>
       <c r="H4" s="63" t="str">
-        <f>_xlfn.CONCAT("0",IF(N4&lt;10,"0",""),N4)</f>
+        <f t="shared" ref="H4:H9" si="2">_xlfn.CONCAT("0",IF(N4&lt;10,"0",""),N4)</f>
         <v>001</v>
       </c>
       <c r="I4" s="119" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J4" s="120" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K4" s="63"/>
       <c r="L4" s="121" t="str">
@@ -3049,7 +3052,7 @@
         <v>type01</v>
       </c>
       <c r="M4" s="122" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N4" s="123">
         <v>1</v>
@@ -3057,14 +3060,14 @@
     </row>
     <row r="5" s="9" customFormat="1" ht="30" customHeight="1">
       <c r="A5" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(N5&lt;10,"0",""),N5)</f>
+        <f t="shared" si="1"/>
         <v>subject02</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="C5" s="71" t="str">
-        <f t="shared" ref="C5:C10" si="1">C4</f>
+        <v>321</v>
+      </c>
+      <c r="C5" s="70" t="str">
+        <f t="shared" ref="C5:C10" si="3">C4</f>
         <v>programA</v>
       </c>
       <c r="D5" s="63">
@@ -3078,15 +3081,15 @@
       </c>
       <c r="G5" s="63"/>
       <c r="H5" s="63" t="str">
-        <f>_xlfn.CONCAT("0",IF(N5&lt;10,"0",""),N5)</f>
+        <f t="shared" si="2"/>
         <v>002</v>
       </c>
       <c r="I5" s="119" t="str">
-        <f>I4</f>
+        <f t="shared" ref="I5:I10" si="4">I4</f>
         <v xml:space="preserve">Group A|G1A, Group B|G1B</v>
       </c>
       <c r="J5" s="120" t="str">
-        <f>J4</f>
+        <f t="shared" ref="J5:J10" si="5">J4</f>
         <v>#FFEB9C</v>
       </c>
       <c r="K5" s="63"/>
@@ -3095,24 +3098,24 @@
         <v>type01</v>
       </c>
       <c r="M5" s="122" t="str">
-        <f>M4</f>
+        <f t="shared" ref="M5:M10" si="6">M4</f>
         <v xml:space="preserve">teacher01|main@G1A, teacher01|main@G1B</v>
       </c>
       <c r="N5" s="123">
-        <f>N4+1</f>
+        <f t="shared" ref="N5:N10" si="7">N4+1</f>
         <v>2</v>
       </c>
     </row>
     <row r="6" s="9" customFormat="1" ht="30" customHeight="1">
       <c r="A6" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(N6&lt;10,"0",""),N6)</f>
+        <f t="shared" si="1"/>
         <v>subject03</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="C6" s="71" t="str">
-        <f t="shared" si="1"/>
+        <v>322</v>
+      </c>
+      <c r="C6" s="70" t="str">
+        <f t="shared" si="3"/>
         <v>programA</v>
       </c>
       <c r="D6" s="63">
@@ -3126,15 +3129,15 @@
       </c>
       <c r="G6" s="63"/>
       <c r="H6" s="63" t="str">
-        <f>_xlfn.CONCAT("0",IF(N6&lt;10,"0",""),N6)</f>
+        <f t="shared" si="2"/>
         <v>003</v>
       </c>
       <c r="I6" s="119" t="str">
-        <f>I5</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Group A|G1A, Group B|G1B</v>
       </c>
       <c r="J6" s="120" t="str">
-        <f>J5</f>
+        <f t="shared" si="5"/>
         <v>#FFEB9C</v>
       </c>
       <c r="K6" s="63"/>
@@ -3143,24 +3146,24 @@
         <v>type01</v>
       </c>
       <c r="M6" s="122" t="str">
-        <f>M5</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">teacher01|main@G1A, teacher01|main@G1B</v>
       </c>
       <c r="N6" s="123">
-        <f>N5+1</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
     </row>
     <row r="7" s="9" customFormat="1" ht="30" customHeight="1">
       <c r="A7" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(N7&lt;10,"0",""),N7)</f>
+        <f t="shared" si="1"/>
         <v>subject04</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="C7" s="71" t="str">
-        <f t="shared" si="1"/>
+        <v>323</v>
+      </c>
+      <c r="C7" s="70" t="str">
+        <f t="shared" si="3"/>
         <v>programA</v>
       </c>
       <c r="D7" s="63">
@@ -3174,15 +3177,15 @@
       </c>
       <c r="G7" s="63"/>
       <c r="H7" s="63" t="str">
-        <f>_xlfn.CONCAT("0",IF(N7&lt;10,"0",""),N7)</f>
+        <f t="shared" si="2"/>
         <v>004</v>
       </c>
       <c r="I7" s="119" t="str">
-        <f>I6</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Group A|G1A, Group B|G1B</v>
       </c>
       <c r="J7" s="120" t="str">
-        <f>J6</f>
+        <f t="shared" si="5"/>
         <v>#FFEB9C</v>
       </c>
       <c r="K7" s="63"/>
@@ -3191,24 +3194,24 @@
         <v>type03</v>
       </c>
       <c r="M7" s="122" t="str">
-        <f>M6</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">teacher01|main@G1A, teacher01|main@G1B</v>
       </c>
       <c r="N7" s="123">
-        <f>N6+1</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
     <row r="8" ht="30" customHeight="1">
       <c r="A8" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(N8&lt;10,"0",""),N8)</f>
+        <f t="shared" si="1"/>
         <v>subject05</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="C8" s="71" t="str">
-        <f t="shared" si="1"/>
+        <v>324</v>
+      </c>
+      <c r="C8" s="70" t="str">
+        <f t="shared" si="3"/>
         <v>programA</v>
       </c>
       <c r="D8" s="63">
@@ -3222,14 +3225,14 @@
       </c>
       <c r="G8" s="63"/>
       <c r="H8" s="63" t="str">
-        <f>_xlfn.CONCAT("0",IF(N8&lt;10,"0",""),N8)</f>
+        <f t="shared" si="2"/>
         <v>005</v>
       </c>
       <c r="I8" s="119" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J8" s="120" t="str">
-        <f>J7</f>
+        <f t="shared" si="5"/>
         <v>#FFEB9C</v>
       </c>
       <c r="K8" s="63"/>
@@ -3238,23 +3241,23 @@
         <v>type01</v>
       </c>
       <c r="M8" s="122" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N8" s="123">
-        <f>N7+1</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
     </row>
     <row r="9" ht="30" customHeight="1">
       <c r="A9" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(N9&lt;10,"0",""),N9)</f>
+        <f t="shared" si="1"/>
         <v>subject06</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="C9" s="71" t="str">
-        <f t="shared" si="1"/>
+        <v>327</v>
+      </c>
+      <c r="C9" s="70" t="str">
+        <f t="shared" si="3"/>
         <v>programA</v>
       </c>
       <c r="D9" s="63">
@@ -3268,15 +3271,15 @@
       </c>
       <c r="G9" s="63"/>
       <c r="H9" s="63" t="str">
-        <f>_xlfn.CONCAT("0",IF(N9&lt;10,"0",""),N9)</f>
+        <f t="shared" si="2"/>
         <v>006</v>
       </c>
       <c r="I9" s="119" t="str">
-        <f>I8</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Group A|G2A, Group B|G2B</v>
       </c>
       <c r="J9" s="120" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K9" s="63"/>
       <c r="L9" s="121" t="str">
@@ -3284,24 +3287,24 @@
         <v>type01</v>
       </c>
       <c r="M9" s="122" t="str">
-        <f>M8</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">teacher01|main@G2A, teacher01|main@G2B</v>
       </c>
       <c r="N9" s="123">
-        <f>N8+1</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
     <row r="10" ht="30" customHeight="1">
       <c r="A10" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(N10&lt;10,"0",""),N10)</f>
+        <f t="shared" ref="A10:A22" si="8">_xlfn.CONCAT("subject",IF(N10&lt;10,"0",""),N10)</f>
         <v>subject07</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="C10" s="71" t="str">
-        <f t="shared" si="1"/>
+        <v>329</v>
+      </c>
+      <c r="C10" s="70" t="str">
+        <f t="shared" si="3"/>
         <v>programA</v>
       </c>
       <c r="D10" s="63">
@@ -3315,15 +3318,15 @@
       </c>
       <c r="G10" s="63"/>
       <c r="H10" s="63" t="str">
-        <f>_xlfn.CONCAT("0",IF(N10&lt;10,"0",""),N10)</f>
+        <f t="shared" ref="H10:H24" si="9">_xlfn.CONCAT("0",IF(N10&lt;10,"0",""),N10)</f>
         <v>007</v>
       </c>
       <c r="I10" s="119" t="str">
-        <f>I9</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Group A|G2A, Group B|G2B</v>
       </c>
       <c r="J10" s="120" t="str">
-        <f>J9</f>
+        <f t="shared" si="5"/>
         <v>#FFC7CE</v>
       </c>
       <c r="K10" s="63"/>
@@ -3332,24 +3335,24 @@
         <v>type01</v>
       </c>
       <c r="M10" s="122" t="str">
-        <f>M9</f>
+        <f t="shared" si="6"/>
         <v xml:space="preserve">teacher01|main@G2A, teacher01|main@G2B</v>
       </c>
       <c r="N10" s="123">
-        <f>N9+1</f>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
     </row>
     <row r="11" ht="30" customHeight="1">
       <c r="A11" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(N11&lt;10,"0",""),N11)</f>
+        <f t="shared" si="8"/>
         <v>subject08</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="C11" s="71" t="str">
-        <f t="shared" ref="C11:C24" si="2">C10</f>
+        <v>330</v>
+      </c>
+      <c r="C11" s="70" t="str">
+        <f t="shared" ref="C11:C24" si="10">C10</f>
         <v>programA</v>
       </c>
       <c r="D11" s="63">
@@ -3363,7 +3366,7 @@
       </c>
       <c r="G11" s="63"/>
       <c r="H11" s="63" t="str">
-        <f>_xlfn.CONCAT("0",IF(N11&lt;10,"0",""),N11)</f>
+        <f t="shared" si="9"/>
         <v>008</v>
       </c>
       <c r="I11" s="119" t="str">
@@ -3371,7 +3374,7 @@
         <v xml:space="preserve">Group A|G2A, Group B|G2B</v>
       </c>
       <c r="J11" s="120" t="str">
-        <f>J10</f>
+        <f t="shared" ref="J11:J18" si="11">J10</f>
         <v>#FFC7CE</v>
       </c>
       <c r="K11" s="63"/>
@@ -3384,20 +3387,20 @@
         <v xml:space="preserve">teacher01|main@G2A, teacher01|main@G2B</v>
       </c>
       <c r="N11" s="123">
-        <f>N10+1</f>
+        <f t="shared" ref="N11:N24" si="12">N10+1</f>
         <v>8</v>
       </c>
     </row>
     <row r="12" ht="30" customHeight="1">
       <c r="A12" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(N12&lt;10,"0",""),N12)</f>
+        <f t="shared" si="8"/>
         <v>subject09</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>330</v>
-      </c>
-      <c r="C12" s="71" t="str">
-        <f t="shared" si="2"/>
+        <v>331</v>
+      </c>
+      <c r="C12" s="70" t="str">
+        <f t="shared" si="10"/>
         <v>programA</v>
       </c>
       <c r="D12" s="63">
@@ -3411,14 +3414,14 @@
       </c>
       <c r="G12" s="63"/>
       <c r="H12" s="63" t="str">
-        <f>_xlfn.CONCAT("0",IF(N12&lt;10,"0",""),N12)</f>
+        <f t="shared" si="9"/>
         <v>009</v>
       </c>
       <c r="I12" s="119" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="J12" s="120" t="str">
-        <f>J11</f>
+        <f t="shared" si="11"/>
         <v>#FFC7CE</v>
       </c>
       <c r="K12" s="63"/>
@@ -3427,23 +3430,23 @@
         <v>type01</v>
       </c>
       <c r="M12" s="122" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N12" s="123">
-        <f>N11+1</f>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
     </row>
     <row r="13" ht="30" customHeight="1">
       <c r="A13" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(N13&lt;10,"0",""),N13)</f>
+        <f t="shared" si="8"/>
         <v>subject10</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="C13" s="71" t="str">
-        <f t="shared" si="2"/>
+        <v>334</v>
+      </c>
+      <c r="C13" s="70" t="str">
+        <f t="shared" si="10"/>
         <v>programA</v>
       </c>
       <c r="D13" s="63">
@@ -3457,15 +3460,15 @@
       </c>
       <c r="G13" s="63"/>
       <c r="H13" s="63" t="str">
-        <f>_xlfn.CONCAT("0",IF(N13&lt;10,"0",""),N13)</f>
+        <f t="shared" si="9"/>
         <v>010</v>
       </c>
       <c r="I13" s="119" t="str">
-        <f>I12</f>
+        <f t="shared" ref="I13:I24" si="13">I12</f>
         <v xml:space="preserve">Group A|G3A, Group B|G3B</v>
       </c>
       <c r="J13" s="120" t="str">
-        <f>J12</f>
+        <f t="shared" si="11"/>
         <v>#FFC7CE</v>
       </c>
       <c r="K13" s="63"/>
@@ -3474,24 +3477,24 @@
         <v>type01</v>
       </c>
       <c r="M13" s="122" t="str">
-        <f>M12</f>
+        <f t="shared" ref="M13:M24" si="14">M12</f>
         <v xml:space="preserve">teacher01|main@G3A, teacher01|main@G3B</v>
       </c>
       <c r="N13" s="123">
-        <f>N12+1</f>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
     </row>
     <row r="14" ht="30" customHeight="1">
       <c r="A14" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(N14&lt;10,"0",""),N14)</f>
+        <f t="shared" si="8"/>
         <v>subject11</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="C14" s="71" t="str">
-        <f t="shared" si="2"/>
+        <v>335</v>
+      </c>
+      <c r="C14" s="70" t="str">
+        <f t="shared" si="10"/>
         <v>programA</v>
       </c>
       <c r="D14" s="63">
@@ -3505,15 +3508,15 @@
       </c>
       <c r="G14" s="63"/>
       <c r="H14" s="63" t="str">
-        <f>_xlfn.CONCAT("0",IF(N14&lt;10,"0",""),N14)</f>
+        <f t="shared" si="9"/>
         <v>011</v>
       </c>
       <c r="I14" s="119" t="str">
-        <f>I13</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">Group A|G3A, Group B|G3B</v>
       </c>
       <c r="J14" s="120" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K14" s="63"/>
       <c r="L14" s="121" t="str">
@@ -3521,24 +3524,24 @@
         <v>type01</v>
       </c>
       <c r="M14" s="122" t="str">
-        <f>M13</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">teacher01|main@G3A, teacher01|main@G3B</v>
       </c>
       <c r="N14" s="123">
-        <f>N13+1</f>
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
     </row>
     <row r="15" ht="30" customHeight="1">
       <c r="A15" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(N15&lt;10,"0",""),N15)</f>
+        <f t="shared" si="8"/>
         <v>subject12</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="C15" s="71" t="str">
-        <f t="shared" si="2"/>
+        <v>337</v>
+      </c>
+      <c r="C15" s="70" t="str">
+        <f t="shared" si="10"/>
         <v>programA</v>
       </c>
       <c r="D15" s="63">
@@ -3552,15 +3555,15 @@
       </c>
       <c r="G15" s="63"/>
       <c r="H15" s="63" t="str">
-        <f>_xlfn.CONCAT("0",IF(N15&lt;10,"0",""),N15)</f>
+        <f t="shared" si="9"/>
         <v>012</v>
       </c>
       <c r="I15" s="119" t="str">
-        <f>I14</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">Group A|G3A, Group B|G3B</v>
       </c>
       <c r="J15" s="120" t="str">
-        <f>J14</f>
+        <f t="shared" si="11"/>
         <v>#C6EFCD</v>
       </c>
       <c r="K15" s="63"/>
@@ -3569,24 +3572,24 @@
         <v>type03</v>
       </c>
       <c r="M15" s="122" t="str">
-        <f>M14</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">teacher01|main@G3A, teacher01|main@G3B</v>
       </c>
       <c r="N15" s="123">
-        <f>N14+1</f>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
     </row>
     <row r="16" ht="30" customHeight="1">
       <c r="A16" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(N16&lt;10,"0",""),N16)</f>
+        <f t="shared" si="8"/>
         <v>subject13</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="C16" s="71" t="str">
-        <f t="shared" si="2"/>
+        <v>338</v>
+      </c>
+      <c r="C16" s="70" t="str">
+        <f t="shared" si="10"/>
         <v>programA</v>
       </c>
       <c r="D16" s="63">
@@ -3600,14 +3603,14 @@
       </c>
       <c r="G16" s="63"/>
       <c r="H16" s="63" t="str">
-        <f>_xlfn.CONCAT("0",IF(N16&lt;10,"0",""),N16)</f>
+        <f t="shared" si="9"/>
         <v>013</v>
       </c>
       <c r="I16" s="119" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J16" s="120" t="str">
-        <f>J15</f>
+        <f t="shared" si="11"/>
         <v>#C6EFCD</v>
       </c>
       <c r="K16" s="63"/>
@@ -3616,23 +3619,23 @@
         <v>type01</v>
       </c>
       <c r="M16" s="122" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N16" s="123">
-        <f>N15+1</f>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
     </row>
     <row r="17" ht="30" customHeight="1">
       <c r="A17" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(N17&lt;10,"0",""),N17)</f>
+        <f t="shared" si="8"/>
         <v>subject14</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="C17" s="71" t="str">
-        <f t="shared" si="2"/>
+        <v>341</v>
+      </c>
+      <c r="C17" s="70" t="str">
+        <f t="shared" si="10"/>
         <v>programA</v>
       </c>
       <c r="D17" s="63">
@@ -3646,15 +3649,15 @@
       </c>
       <c r="G17" s="63"/>
       <c r="H17" s="63" t="str">
-        <f>_xlfn.CONCAT("0",IF(N17&lt;10,"0",""),N17)</f>
+        <f t="shared" si="9"/>
         <v>014</v>
       </c>
       <c r="I17" s="119" t="str">
-        <f>I16</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">Group A|G4A, Group B|G4B</v>
       </c>
       <c r="J17" s="120" t="str">
-        <f>J16</f>
+        <f t="shared" si="11"/>
         <v>#C6EFCD</v>
       </c>
       <c r="K17" s="63"/>
@@ -3663,24 +3666,24 @@
         <v>type01</v>
       </c>
       <c r="M17" s="122" t="str">
-        <f>M16</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">teacher01|main@G4A, teacher01|main@G4B</v>
       </c>
       <c r="N17" s="123">
-        <f>N16+1</f>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
     </row>
     <row r="18" ht="30" customHeight="1">
       <c r="A18" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(N18&lt;10,"0",""),N18)</f>
+        <f t="shared" si="8"/>
         <v>subject15</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="C18" s="71" t="str">
-        <f t="shared" si="2"/>
+        <v>342</v>
+      </c>
+      <c r="C18" s="70" t="str">
+        <f t="shared" si="10"/>
         <v>programA</v>
       </c>
       <c r="D18" s="63">
@@ -3694,15 +3697,15 @@
       </c>
       <c r="G18" s="63"/>
       <c r="H18" s="63" t="str">
-        <f>_xlfn.CONCAT("0",IF(N18&lt;10,"0",""),N18)</f>
+        <f t="shared" si="9"/>
         <v>015</v>
       </c>
       <c r="I18" s="119" t="str">
-        <f>I17</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">Group A|G4A, Group B|G4B</v>
       </c>
       <c r="J18" s="120" t="str">
-        <f>J17</f>
+        <f t="shared" si="11"/>
         <v>#C6EFCD</v>
       </c>
       <c r="K18" s="63"/>
@@ -3711,24 +3714,24 @@
         <v>type01</v>
       </c>
       <c r="M18" s="122" t="str">
-        <f>M17</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">teacher01|main@G4A, teacher01|main@G4B</v>
       </c>
       <c r="N18" s="123">
-        <f>N17+1</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
     </row>
     <row r="19" ht="30" customHeight="1">
       <c r="A19" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(N19&lt;10,"0",""),N19)</f>
+        <f t="shared" si="8"/>
         <v>subject16</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="C19" s="71" t="str">
-        <f t="shared" si="2"/>
+        <v>343</v>
+      </c>
+      <c r="C19" s="70" t="str">
+        <f t="shared" si="10"/>
         <v>programA</v>
       </c>
       <c r="D19" s="63">
@@ -3742,15 +3745,15 @@
       </c>
       <c r="G19" s="63"/>
       <c r="H19" s="63" t="str">
-        <f>_xlfn.CONCAT("0",IF(N19&lt;10,"0",""),N19)</f>
+        <f t="shared" si="9"/>
         <v>016</v>
       </c>
       <c r="I19" s="119" t="str">
-        <f>I18</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">Group A|G4A, Group B|G4B</v>
       </c>
       <c r="J19" s="120" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K19" s="63"/>
       <c r="L19" s="121" t="str">
@@ -3758,24 +3761,24 @@
         <v>type03</v>
       </c>
       <c r="M19" s="122" t="str">
-        <f>M18</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">teacher01|main@G4A, teacher01|main@G4B</v>
       </c>
       <c r="N19" s="123">
-        <f>N18+1</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
     </row>
     <row r="20" ht="30" customHeight="1">
       <c r="A20" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(N20&lt;10,"0",""),N20)</f>
+        <f t="shared" si="8"/>
         <v>subject17</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="C20" s="71" t="str">
-        <f t="shared" si="2"/>
+        <v>345</v>
+      </c>
+      <c r="C20" s="70" t="str">
+        <f t="shared" si="10"/>
         <v>programA</v>
       </c>
       <c r="D20" s="63">
@@ -3789,14 +3792,14 @@
       </c>
       <c r="G20" s="63"/>
       <c r="H20" s="63" t="str">
-        <f>_xlfn.CONCAT("0",IF(N20&lt;10,"0",""),N20)</f>
+        <f t="shared" si="9"/>
         <v>017</v>
       </c>
       <c r="I20" s="119" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J20" s="120" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K20" s="63"/>
       <c r="L20" s="121" t="str">
@@ -3804,23 +3807,23 @@
         <v>type01</v>
       </c>
       <c r="M20" s="122" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N20" s="123">
-        <f>N19+1</f>
+        <f t="shared" si="12"/>
         <v>17</v>
       </c>
     </row>
     <row r="21" ht="30" customHeight="1">
       <c r="A21" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(N21&lt;10,"0",""),N21)</f>
+        <f t="shared" si="8"/>
         <v>subject18</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="C21" s="71" t="str">
-        <f t="shared" si="2"/>
+        <v>348</v>
+      </c>
+      <c r="C21" s="70" t="str">
+        <f t="shared" si="10"/>
         <v>programA</v>
       </c>
       <c r="D21" s="63">
@@ -3834,15 +3837,15 @@
       </c>
       <c r="G21" s="63"/>
       <c r="H21" s="63" t="str">
-        <f>_xlfn.CONCAT("0",IF(N21&lt;10,"0",""),N21)</f>
+        <f t="shared" si="9"/>
         <v>018</v>
       </c>
       <c r="I21" s="119" t="str">
-        <f>I20</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">Group A|G5A, Group B|G5B</v>
       </c>
       <c r="J21" s="120" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K21" s="63"/>
       <c r="L21" s="121" t="str">
@@ -3850,24 +3853,24 @@
         <v>type01</v>
       </c>
       <c r="M21" s="122" t="str">
-        <f>M20</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">teacher01|main@G5A, teacher01|main@G5B</v>
       </c>
       <c r="N21" s="123">
-        <f>N20+1</f>
+        <f t="shared" si="12"/>
         <v>18</v>
       </c>
     </row>
     <row r="22" ht="30" customHeight="1">
       <c r="A22" s="10" t="str">
-        <f>_xlfn.CONCAT("subject",IF(N22&lt;10,"0",""),N22)</f>
+        <f t="shared" si="8"/>
         <v>subject19</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="C22" s="71" t="str">
-        <f t="shared" si="2"/>
+        <v>349</v>
+      </c>
+      <c r="C22" s="70" t="str">
+        <f t="shared" si="10"/>
         <v>programA</v>
       </c>
       <c r="D22" s="63">
@@ -3881,15 +3884,15 @@
       </c>
       <c r="G22" s="63"/>
       <c r="H22" s="63" t="str">
-        <f>_xlfn.CONCAT("0",IF(N22&lt;10,"0",""),N22)</f>
+        <f t="shared" si="9"/>
         <v>019</v>
       </c>
       <c r="I22" s="119" t="str">
-        <f>I21</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">Group A|G5A, Group B|G5B</v>
       </c>
       <c r="J22" s="120" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K22" s="63"/>
       <c r="L22" s="121" t="str">
@@ -3897,23 +3900,23 @@
         <v>type01</v>
       </c>
       <c r="M22" s="122" t="str">
-        <f>M21</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">teacher01|main@G5A, teacher01|main@G5B</v>
       </c>
       <c r="N22" s="123">
-        <f>N21+1</f>
+        <f t="shared" si="12"/>
         <v>19</v>
       </c>
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="A23" s="10" t="str">
-        <f>_xlfn.CONCAT("asignatura",IF(N23&lt;10,"0",""),N23)</f>
+        <f t="shared" ref="A23:A24" si="15">_xlfn.CONCAT("asignatura",IF(N23&lt;10,"0",""),N23)</f>
         <v>asignatura01</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="C23" s="71" t="str">
+        <v>350</v>
+      </c>
+      <c r="C23" s="70" t="str">
         <f>ap_programs!A6</f>
         <v>programC</v>
       </c>
@@ -3928,14 +3931,14 @@
       </c>
       <c r="G23" s="63"/>
       <c r="H23" s="63" t="str">
-        <f>_xlfn.CONCAT("0",IF(N23&lt;10,"0",""),N23)</f>
+        <f t="shared" si="9"/>
         <v>001</v>
       </c>
       <c r="I23" s="119" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="J23" s="120" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K23" s="63"/>
       <c r="L23" s="121" t="str">
@@ -3943,7 +3946,7 @@
         <v>type04</v>
       </c>
       <c r="M23" s="122" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N23" s="123">
         <v>1</v>
@@ -3951,14 +3954,14 @@
     </row>
     <row r="24" ht="27">
       <c r="A24" s="10" t="str">
-        <f>_xlfn.CONCAT("asignatura",IF(N24&lt;10,"0",""),N24)</f>
+        <f t="shared" si="15"/>
         <v>asignatura02</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="C24" s="71" t="str">
-        <f t="shared" si="2"/>
+        <v>354</v>
+      </c>
+      <c r="C24" s="70" t="str">
+        <f t="shared" si="10"/>
         <v>programC</v>
       </c>
       <c r="D24" s="63">
@@ -3972,15 +3975,15 @@
       </c>
       <c r="G24" s="63"/>
       <c r="H24" s="63" t="str">
-        <f>_xlfn.CONCAT("0",IF(N24&lt;10,"0",""),N24)</f>
+        <f t="shared" si="9"/>
         <v>002</v>
       </c>
       <c r="I24" s="119" t="str">
-        <f>I23</f>
+        <f t="shared" si="13"/>
         <v xml:space="preserve">2ºA|2ºA, 2ºB|2ºB</v>
       </c>
       <c r="J24" s="120" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K24" s="63"/>
       <c r="L24" s="121" t="str">
@@ -3988,11 +3991,11 @@
         <v>type04</v>
       </c>
       <c r="M24" s="122" t="str">
-        <f>M23</f>
+        <f t="shared" si="14"/>
         <v xml:space="preserve">teacher01|main@2ºA, teacher01|main@2ºB</v>
       </c>
       <c r="N24" s="123">
-        <f>N23+1</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
     </row>
@@ -4036,10 +4039,10 @@
       </c>
     </row>
     <row r="2" ht="21.75" customHeight="1">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="75" t="s">
         <v>196</v>
       </c>
     </row>
@@ -4047,7 +4050,7 @@
       <c r="A3" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="71" t="str">
+      <c r="B3" s="70" t="str">
         <f>profiles!$A$8</f>
         <v>teacher</v>
       </c>
@@ -4056,7 +4059,7 @@
       <c r="A4" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="71" t="str">
+      <c r="B4" s="70" t="str">
         <f>profiles!$A$9</f>
         <v>student</v>
       </c>
@@ -5124,7 +5127,7 @@
       </c>
     </row>
     <row r="3" s="9" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -5136,10 +5139,10 @@
       <c r="D3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="69">
+      <c r="E3" s="68">
         <v>36526</v>
       </c>
-      <c r="F3" s="70" t="s">
+      <c r="F3" s="69" t="s">
         <v>139</v>
       </c>
       <c r="G3" s="11" t="s">
@@ -5151,7 +5154,7 @@
       <c r="I3" s="63" t="s">
         <v>141</v>
       </c>
-      <c r="J3" s="71" t="s">
+      <c r="J3" s="70" t="s">
         <v>142</v>
       </c>
     </row>
@@ -5168,10 +5171,10 @@
       <c r="D4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="69">
+      <c r="E4" s="68">
         <v>34781</v>
       </c>
-      <c r="F4" s="70" t="s">
+      <c r="F4" s="69" t="s">
         <v>145</v>
       </c>
       <c r="G4" s="11" t="s">
@@ -5183,7 +5186,7 @@
       <c r="I4" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="J4" s="71" t="s">
+      <c r="J4" s="70" t="s">
         <v>147</v>
       </c>
     </row>
@@ -5200,10 +5203,10 @@
       <c r="D5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="69">
+      <c r="E5" s="68">
         <v>39205</v>
       </c>
-      <c r="F5" s="70" t="s">
+      <c r="F5" s="69" t="s">
         <v>150</v>
       </c>
       <c r="G5" s="11" t="s">
@@ -5215,7 +5218,7 @@
       <c r="I5" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="J5" s="71" t="s">
+      <c r="J5" s="70" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5232,10 +5235,10 @@
       <c r="D6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="69">
+      <c r="E6" s="68">
         <v>39156</v>
       </c>
-      <c r="F6" s="70" t="s">
+      <c r="F6" s="69" t="s">
         <v>156</v>
       </c>
       <c r="G6" s="11" t="s">
@@ -5247,7 +5250,7 @@
       <c r="I6" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="J6" s="71" t="s">
+      <c r="J6" s="70" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5264,10 +5267,10 @@
       <c r="D7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="69">
+      <c r="E7" s="68">
         <v>42171</v>
       </c>
-      <c r="F7" s="70" t="s">
+      <c r="F7" s="69" t="s">
         <v>159</v>
       </c>
       <c r="G7" s="11" t="s">
@@ -5279,7 +5282,7 @@
       <c r="I7" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="J7" s="71" t="s">
+      <c r="J7" s="70" t="s">
         <v>160</v>
       </c>
     </row>
@@ -5296,10 +5299,10 @@
       <c r="D8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="69">
+      <c r="E8" s="68">
         <v>42237</v>
       </c>
-      <c r="F8" s="70" t="s">
+      <c r="F8" s="69" t="s">
         <v>163</v>
       </c>
       <c r="G8" s="11" t="s">
@@ -5311,7 +5314,7 @@
       <c r="I8" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="J8" s="71" t="s">
+      <c r="J8" s="70" t="s">
         <v>160</v>
       </c>
     </row>
@@ -5328,10 +5331,10 @@
       <c r="D9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="69">
+      <c r="E9" s="68">
         <v>27791</v>
       </c>
-      <c r="F9" s="70" t="s">
+      <c r="F9" s="69" t="s">
         <v>167</v>
       </c>
       <c r="G9" s="11" t="s">
@@ -5343,7 +5346,7 @@
       <c r="I9" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="J9" s="71" t="s">
+      <c r="J9" s="70" t="s">
         <v>169</v>
       </c>
     </row>
@@ -5360,10 +5363,10 @@
       <c r="D10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="69">
+      <c r="E10" s="68">
         <v>38718</v>
       </c>
-      <c r="F10" s="72" t="s">
+      <c r="F10" s="71" t="s">
         <v>173</v>
       </c>
       <c r="G10" s="11" t="s">
@@ -5375,7 +5378,7 @@
       <c r="I10" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="J10" s="71" t="s">
+      <c r="J10" s="70" t="s">
         <v>174</v>
       </c>
     </row>
@@ -5392,10 +5395,10 @@
       <c r="D11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="69">
+      <c r="E11" s="68">
         <v>38749</v>
       </c>
-      <c r="F11" s="72" t="s">
+      <c r="F11" s="71" t="s">
         <v>178</v>
       </c>
       <c r="G11" s="11" t="s">
@@ -5407,7 +5410,7 @@
       <c r="I11" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="J11" s="71" t="s">
+      <c r="J11" s="70" t="s">
         <v>174</v>
       </c>
     </row>
@@ -5424,10 +5427,10 @@
       <c r="D12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="69">
+      <c r="E12" s="68">
         <v>38777</v>
       </c>
-      <c r="F12" s="72" t="s">
+      <c r="F12" s="71" t="s">
         <v>182</v>
       </c>
       <c r="G12" s="11" t="s">
@@ -5439,7 +5442,7 @@
       <c r="I12" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="J12" s="71" t="s">
+      <c r="J12" s="70" t="s">
         <v>174</v>
       </c>
     </row>
@@ -5456,10 +5459,10 @@
       <c r="D13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="69">
+      <c r="E13" s="68">
         <v>38808</v>
       </c>
-      <c r="F13" s="72" t="s">
+      <c r="F13" s="71" t="s">
         <v>186</v>
       </c>
       <c r="G13" s="11" t="s">
@@ -5471,7 +5474,7 @@
       <c r="I13" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="J13" s="71" t="s">
+      <c r="J13" s="70" t="s">
         <v>174</v>
       </c>
     </row>
@@ -5488,10 +5491,10 @@
       <c r="D14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="69">
+      <c r="E14" s="68">
         <v>38838</v>
       </c>
-      <c r="F14" s="72" t="s">
+      <c r="F14" s="71" t="s">
         <v>190</v>
       </c>
       <c r="G14" s="11" t="s">
@@ -5503,7 +5506,7 @@
       <c r="I14" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="J14" s="71" t="s">
+      <c r="J14" s="70" t="s">
         <v>174</v>
       </c>
     </row>
@@ -5520,10 +5523,10 @@
       <c r="D15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="69">
+      <c r="E15" s="68">
         <v>38869</v>
       </c>
-      <c r="F15" s="72" t="s">
+      <c r="F15" s="71" t="s">
         <v>194</v>
       </c>
       <c r="G15" s="11" t="s">
@@ -5535,7 +5538,7 @@
       <c r="I15" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="J15" s="71" t="s">
+      <c r="J15" s="70" t="s">
         <v>174</v>
       </c>
     </row>
@@ -5560,7 +5563,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1" disablePrompts="0">
-        <x14:dataValidation xr:uid="{009C0056-00A3-403B-B033-00A1001D009F}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{0029005A-0079-47C7-B86C-004200A000E7}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
@@ -5602,7 +5605,7 @@
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="72" t="s">
         <v>196</v>
       </c>
     </row>
@@ -5610,7 +5613,7 @@
       <c r="A3" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="71" t="str">
+      <c r="B3" s="70" t="str">
         <f>profiles!$A$10</f>
         <v>guardian</v>
       </c>
@@ -5619,7 +5622,7 @@
       <c r="A4" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="71" t="str">
+      <c r="B4" s="70" t="str">
         <f>profiles!$A$9</f>
         <v>student</v>
       </c>
@@ -5670,16 +5673,16 @@
       </c>
     </row>
     <row r="2" ht="24.25" customHeight="1">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="75" t="s">
         <v>200</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="72" t="s">
         <v>201</v>
       </c>
       <c r="E2" s="67" t="s">
@@ -5693,13 +5696,13 @@
       <c r="B3" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="70" t="s">
         <v>205</v>
       </c>
-      <c r="D3" s="77" t="s">
+      <c r="D3" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="71" t="s">
+      <c r="E3" s="70" t="s">
         <v>206</v>
       </c>
     </row>
@@ -5711,7 +5714,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00E200FC-00BF-4384-9744-00A9004700B2}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{0049009A-009C-47F6-B83E-00FF0084007F}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GUARDIANS_RELATIONSHIPS</xm:f>
           </x14:formula1>
@@ -5767,25 +5770,25 @@
       </c>
     </row>
     <row r="2" ht="16">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="D2" s="77" t="s">
         <v>212</v>
       </c>
-      <c r="E2" s="78" t="s">
+      <c r="E2" s="77" t="s">
         <v>213</v>
       </c>
-      <c r="F2" s="78" t="s">
+      <c r="F2" s="77" t="s">
         <v>214</v>
       </c>
-      <c r="G2" s="78" t="s">
+      <c r="G2" s="77" t="s">
         <v>215</v>
       </c>
     </row>
@@ -5796,7 +5799,7 @@
       <c r="B3" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="C3" s="71" t="str">
+      <c r="C3" s="70" t="str">
         <f>centers!$A$3</f>
         <v>centerA</v>
       </c>
@@ -5806,10 +5809,10 @@
       <c r="E3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="80" t="s">
+      <c r="F3" s="79" t="s">
         <v>218</v>
       </c>
-      <c r="G3" s="81">
+      <c r="G3" s="80">
         <v>5</v>
       </c>
     </row>
@@ -5820,7 +5823,7 @@
       <c r="B4" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C4" s="71" t="str">
+      <c r="C4" s="70" t="str">
         <f>centers!$A$5</f>
         <v>centerC</v>
       </c>
@@ -5830,10 +5833,10 @@
       <c r="E4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="80" t="s">
+      <c r="F4" s="79" t="s">
         <v>218</v>
       </c>
-      <c r="G4" s="81">
+      <c r="G4" s="80">
         <v>5</v>
       </c>
     </row>
@@ -5845,13 +5848,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00BE001B-00FF-47E6-8A95-0093005000DA}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{003100FE-00DB-4799-B572-001700D10015}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GRADES_TYPES</xm:f>
           </x14:formula1>
           <xm:sqref>D3:D4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00650096-0083-4860-96A6-006C00670030}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{0047006C-004D-4B39-9FA2-003F001D000D}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
@@ -5889,10 +5892,10 @@
       </c>
     </row>
     <row r="2" ht="22" customHeight="1">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="75" t="s">
         <v>196</v>
       </c>
     </row>
@@ -5900,7 +5903,7 @@
       <c r="A3" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="71" t="str">
+      <c r="B3" s="70" t="str">
         <f>profiles!$A$8</f>
         <v>teacher</v>
       </c>
@@ -5909,7 +5912,7 @@
       <c r="A4" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="71" t="str">
+      <c r="B4" s="70" t="str">
         <f>profiles!$A$9</f>
         <v>student</v>
       </c>
@@ -5930,31 +5933,31 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E1" workbookViewId="0" zoomScale="140">
+    <sheetView showGridLines="0" workbookViewId="0" zoomScale="140">
       <selection activeCell="K8" activeCellId="0" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="11"/>
-    <col customWidth="1" min="2" max="2" width="19.1640625"/>
-    <col customWidth="1" min="3" max="3" width="12"/>
-    <col customWidth="1" min="5" max="6" width="11.1640625"/>
-    <col customWidth="1" min="7" max="7" width="9.5"/>
-    <col customWidth="1" min="8" max="8" width="9"/>
-    <col customWidth="1" min="9" max="9" width="11.83203125"/>
-    <col customWidth="1" min="10" max="11" width="17"/>
-    <col customWidth="1" min="12" max="12" width="12.5"/>
-    <col customWidth="1" min="13" max="13" width="12.1640625"/>
-    <col customWidth="1" min="14" max="14" width="17"/>
-    <col customWidth="1" min="15" max="15" width="14.83203125"/>
-    <col customWidth="1" min="16" max="16" width="13"/>
-    <col customWidth="1" min="17" max="19" width="14.6640625"/>
-    <col customWidth="1" min="20" max="20" width="15.83203125"/>
-    <col customWidth="1" min="21" max="21" width="15.33203125"/>
-    <col customWidth="1" min="22" max="22" width="12.83203125"/>
-    <col customWidth="1" min="23" max="23" width="14.1640625"/>
-    <col customWidth="1" min="24" max="24" width="18.1640625"/>
+    <col customWidth="1" min="2" max="3" width="19.1640625"/>
+    <col customWidth="1" min="4" max="4" width="12"/>
+    <col customWidth="1" min="6" max="7" width="11.1640625"/>
+    <col customWidth="1" min="8" max="8" width="9.5"/>
+    <col customWidth="1" min="9" max="9" width="9"/>
+    <col customWidth="1" min="10" max="10" width="11.83203125"/>
+    <col customWidth="1" min="11" max="12" width="17"/>
+    <col customWidth="1" min="13" max="13" width="12.5"/>
+    <col customWidth="1" min="14" max="14" width="12.1640625"/>
+    <col customWidth="1" min="15" max="15" width="17"/>
+    <col customWidth="1" min="16" max="16" width="14.83203125"/>
+    <col customWidth="1" min="17" max="17" width="13"/>
+    <col customWidth="1" min="18" max="20" width="14.6640625"/>
+    <col customWidth="1" min="21" max="21" width="15.83203125"/>
+    <col customWidth="1" min="22" max="22" width="15.33203125"/>
+    <col customWidth="1" min="23" max="23" width="12.83203125"/>
+    <col customWidth="1" min="24" max="24" width="14.1640625"/>
+    <col customWidth="1" min="25" max="25" width="18.1640625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5968,10 +5971,10 @@
         <v>221</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>222</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>223</v>
@@ -6030,7 +6033,9 @@
       <c r="X1" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="Y1" s="5"/>
+      <c r="Y1" s="5" t="s">
+        <v>242</v>
+      </c>
       <c r="Z1" s="5"/>
       <c r="AA1" s="5"/>
       <c r="AB1" s="5"/>
@@ -6046,229 +6051,236 @@
       <c r="AL1" s="5"/>
       <c r="AM1" s="5"/>
       <c r="AN1" s="5"/>
+      <c r="AO1" s="5"/>
     </row>
     <row r="2" s="9" customFormat="1" ht="23.5" customHeight="1">
-      <c r="F2" s="82" t="s">
-        <v>242</v>
-      </c>
-      <c r="G2" s="82"/>
-      <c r="H2" s="83" t="s">
+      <c r="G2" s="81" t="s">
         <v>243</v>
       </c>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="86" t="s">
+      <c r="H2" s="81"/>
+      <c r="I2" s="82" t="s">
         <v>244</v>
       </c>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="87" t="s">
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="85" t="s">
         <v>245</v>
       </c>
-      <c r="S2" s="88"/>
-      <c r="T2" s="88"/>
-      <c r="U2" s="89"/>
-      <c r="V2" s="90" t="s">
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="86" t="s">
         <v>246</v>
       </c>
-      <c r="W2" s="91"/>
-      <c r="X2" s="91"/>
+      <c r="T2" s="87"/>
+      <c r="U2" s="87"/>
+      <c r="V2" s="88"/>
+      <c r="W2" s="89" t="s">
+        <v>247</v>
+      </c>
+      <c r="X2" s="90"/>
+      <c r="Y2" s="90"/>
     </row>
     <row r="3" ht="34" customHeight="1">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="93" t="s">
-        <v>247</v>
-      </c>
-      <c r="D3" s="94" t="s">
+      <c r="C3" s="92" t="s">
+        <v>248</v>
+      </c>
+      <c r="D3" s="92" t="s">
+        <v>249</v>
+      </c>
+      <c r="E3" s="93" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="95" t="s">
-        <v>248</v>
-      </c>
-      <c r="F3" s="96" t="s">
-        <v>249</v>
-      </c>
-      <c r="G3" s="97" t="s">
+      <c r="F3" s="94" t="s">
         <v>250</v>
       </c>
-      <c r="H3" s="98" t="s">
+      <c r="G3" s="95" t="s">
         <v>251</v>
       </c>
-      <c r="I3" s="99" t="s">
+      <c r="H3" s="96" t="s">
         <v>252</v>
       </c>
-      <c r="J3" s="100" t="s">
+      <c r="I3" s="97" t="s">
         <v>253</v>
       </c>
-      <c r="K3" s="100" t="s">
+      <c r="J3" s="98" t="s">
         <v>254</v>
       </c>
-      <c r="L3" s="100" t="s">
+      <c r="K3" s="99" t="s">
         <v>255</v>
       </c>
-      <c r="M3" s="100" t="s">
+      <c r="L3" s="99" t="s">
         <v>256</v>
       </c>
-      <c r="N3" s="100" t="s">
+      <c r="M3" s="99" t="s">
         <v>257</v>
       </c>
-      <c r="O3" s="101" t="s">
+      <c r="N3" s="99" t="s">
         <v>258</v>
       </c>
-      <c r="P3" s="102" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q3" s="103" t="s">
-        <v>257</v>
-      </c>
-      <c r="R3" s="104" t="s">
+      <c r="O3" s="99" t="s">
         <v>259</v>
       </c>
-      <c r="S3" s="105" t="s">
+      <c r="P3" s="100" t="s">
         <v>260</v>
       </c>
-      <c r="T3" s="105" t="s">
-        <v>256</v>
-      </c>
-      <c r="U3" s="105" t="s">
-        <v>257</v>
-      </c>
-      <c r="V3" s="106" t="s">
-        <v>256</v>
-      </c>
-      <c r="W3" s="107" t="s">
+      <c r="Q3" s="101" t="s">
+        <v>258</v>
+      </c>
+      <c r="R3" s="102" t="s">
+        <v>259</v>
+      </c>
+      <c r="S3" s="103" t="s">
         <v>261</v>
       </c>
-      <c r="X3" s="108" t="s">
+      <c r="T3" s="104" t="s">
         <v>262</v>
+      </c>
+      <c r="U3" s="104" t="s">
+        <v>258</v>
+      </c>
+      <c r="V3" s="104" t="s">
+        <v>259</v>
+      </c>
+      <c r="W3" s="105" t="s">
+        <v>258</v>
+      </c>
+      <c r="X3" s="106" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y3" s="107" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="4" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="D4" s="62" t="str">
+        <v>266</v>
+      </c>
+      <c r="C4" s="108" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E4" s="62" t="str">
         <f>centers!$A$3</f>
         <v>centerA</v>
       </c>
-      <c r="E4" s="62" t="str">
+      <c r="F4" s="62" t="str">
         <f>ar_evaluations!A3</f>
         <v>gradeA</v>
       </c>
-      <c r="F4" s="63" t="s">
+      <c r="G4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="63">
+      <c r="H4" s="63">
         <v>0</v>
       </c>
-      <c r="H4" s="63">
+      <c r="I4" s="63">
         <v>5</v>
       </c>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63" t="s">
+      <c r="J4" s="63"/>
+      <c r="K4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="109"/>
-      <c r="L4" s="63"/>
+      <c r="L4" s="109"/>
       <c r="M4" s="63"/>
       <c r="N4" s="63"/>
-      <c r="O4" s="63" t="s">
+      <c r="O4" s="63"/>
+      <c r="P4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="63" t="s">
-        <v>10</v>
-      </c>
+      <c r="Q4" s="63"/>
       <c r="R4" s="63" t="s">
         <v>10</v>
       </c>
       <c r="S4" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="T4" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="63">
+      <c r="U4" s="63">
         <v>3</v>
       </c>
-      <c r="U4" s="63" t="s">
+      <c r="V4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="V4" s="63">
+      <c r="W4" s="63">
         <v>3</v>
       </c>
-      <c r="W4" s="63" t="s">
+      <c r="X4" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="X4" s="63" t="s">
+      <c r="Y4" s="63" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" s="9" customFormat="1" ht="28.5">
       <c r="A5" s="10" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="D5" s="62" t="str">
+        <v>269</v>
+      </c>
+      <c r="C5" s="108" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E5" s="62" t="str">
         <f>centers!$A$4</f>
         <v>centerB</v>
       </c>
-      <c r="E5" s="62" t="str">
+      <c r="F5" s="62" t="str">
         <f>ar_evaluations!A3</f>
         <v>gradeA</v>
       </c>
-      <c r="F5" s="63" t="s">
+      <c r="G5" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="63">
+      <c r="H5" s="63">
         <v>240</v>
       </c>
-      <c r="H5" s="63">
+      <c r="I5" s="63">
         <v>4</v>
       </c>
-      <c r="I5" s="63">
+      <c r="J5" s="63">
         <v>60</v>
       </c>
-      <c r="J5" s="63" t="s">
+      <c r="K5" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="109" t="s">
-        <v>269</v>
-      </c>
-      <c r="L5" s="63" t="s">
+      <c r="L5" s="109" t="s">
+        <v>271</v>
+      </c>
+      <c r="M5" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="63">
+      <c r="N5" s="63">
         <v>4</v>
       </c>
-      <c r="N5" s="63" t="s">
+      <c r="O5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="63" t="s">
+      <c r="P5" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="63">
+      <c r="Q5" s="63">
         <v>4</v>
-      </c>
-      <c r="Q5" s="63" t="s">
-        <v>10</v>
       </c>
       <c r="R5" s="63" t="s">
         <v>10</v>
@@ -6276,101 +6288,107 @@
       <c r="S5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="T5" s="63">
+      <c r="T5" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="U5" s="63">
         <v>3</v>
       </c>
-      <c r="U5" s="63" t="s">
+      <c r="V5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="V5" s="63">
+      <c r="W5" s="63">
         <v>3</v>
-      </c>
-      <c r="W5" s="63" t="s">
-        <v>9</v>
       </c>
       <c r="X5" s="63" t="s">
         <v>9</v>
       </c>
+      <c r="Y5" s="63" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" s="9" customFormat="1" ht="28.5">
       <c r="A6" s="10" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="D6" s="62" t="str">
+        <v>273</v>
+      </c>
+      <c r="C6" s="108" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="E6" s="62" t="str">
         <f>centers!$A$5</f>
         <v>centerC</v>
       </c>
-      <c r="E6" s="62" t="str">
+      <c r="F6" s="62" t="str">
         <f>ar_evaluations!A4</f>
         <v>gradeC</v>
       </c>
-      <c r="F6" s="63" t="s">
+      <c r="G6" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="63">
+      <c r="H6" s="63">
         <v>0</v>
       </c>
-      <c r="H6" s="63">
+      <c r="I6" s="63">
         <v>4</v>
       </c>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63" t="s">
+      <c r="J6" s="63"/>
+      <c r="K6" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="109" t="s">
-        <v>272</v>
-      </c>
-      <c r="L6" s="63" t="s">
+      <c r="L6" s="109" t="s">
+        <v>274</v>
+      </c>
+      <c r="M6" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="M6" s="63">
+      <c r="N6" s="63">
         <v>4</v>
-      </c>
-      <c r="N6" s="63" t="s">
-        <v>10</v>
       </c>
       <c r="O6" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="63" t="s">
+      <c r="P6" s="63" t="s">
         <v>10</v>
       </c>
+      <c r="Q6" s="63"/>
       <c r="R6" s="63" t="s">
         <v>10</v>
       </c>
       <c r="S6" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="T6" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="T6" s="63">
+      <c r="U6" s="63">
         <v>3</v>
       </c>
-      <c r="U6" s="63" t="s">
+      <c r="V6" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="63">
+      <c r="W6" s="63">
         <v>3</v>
       </c>
-      <c r="W6" s="63" t="s">
+      <c r="X6" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="X6" s="63" t="s">
+      <c r="Y6" s="63" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:N2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="W2:Y2"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -6379,17 +6397,17 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2" disablePrompts="0">
-        <x14:dataValidation xr:uid="{004D00A6-006A-4E4F-B1ED-00DD008700DE}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{006B00F9-006B-4044-9E39-007D00F600EB}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
-          <xm:sqref>J4:J6 F4:F6 S4 U4:U6 W4:X6</xm:sqref>
+          <xm:sqref>K4:K6 G4:G6 T4 V4:V6 X4:Y6</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00E500FB-00C8-4C71-AD65-001D00140069}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00510083-0002-47C4-AA7F-00E600780043}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>SUBSTAGES_FRECUENCY</xm:f>
           </x14:formula1>
-          <xm:sqref>L4:L6</xm:sqref>
+          <xm:sqref>M4:M6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/packages/leemons-plugin-mvp-template/src/bulk/data.xlsx
+++ b/packages/leemons-plugin-mvp-template/src/bulk/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="8"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" state="visible" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="360">
   <si>
     <t xml:space="preserve">Substages frecuency</t>
   </si>
@@ -958,6 +958,9 @@
     <t>teachers</t>
   </si>
   <si>
+    <t>students</t>
+  </si>
+  <si>
     <t xml:space="preserve">Class config</t>
   </si>
   <si>
@@ -985,6 +988,9 @@
     <t>Teachers</t>
   </si>
   <si>
+    <t>Students</t>
+  </si>
+  <si>
     <t xml:space="preserve">Language I</t>
   </si>
   <si>
@@ -997,6 +1003,9 @@
     <t xml:space="preserve">teacher01|main@G1A, teacher01|main@G1B</t>
   </si>
   <si>
+    <t xml:space="preserve">studentB01@G1A, studentB02@G1A</t>
+  </si>
+  <si>
     <t xml:space="preserve">Math I</t>
   </si>
   <si>
@@ -1094,6 +1103,9 @@
   </si>
   <si>
     <t xml:space="preserve">teacher01|main@2ºA, teacher01|main@2ºB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">studentC01@2ºA, studentC02@2ºA, studentC03@2ºA, studentC04@2ºB, studentC05@2ºB, studentC06@2ºB</t>
   </si>
   <si>
     <t xml:space="preserve">Lengua Castellana y Literatura</t>
@@ -1921,9 +1933,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="5" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1967,6 +1976,9 @@
     </xf>
     <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2660,10 +2672,10 @@
       <c r="C2" s="93" t="s">
         <v>278</v>
       </c>
-      <c r="D2" s="110" t="s">
+      <c r="D2" s="109" t="s">
         <v>252</v>
       </c>
-      <c r="E2" s="110" t="s">
+      <c r="E2" s="109" t="s">
         <v>279</v>
       </c>
     </row>
@@ -2747,7 +2759,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1" disablePrompts="0">
-        <x14:dataValidation xr:uid="{007000BE-00CB-47A3-889B-001100A300C0}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{009100C1-00B2-404B-AD13-0059008D003B}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
@@ -2803,7 +2815,7 @@
       </c>
     </row>
     <row r="2" ht="28.5">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="110" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="77" t="s">
@@ -2821,7 +2833,7 @@
       <c r="F2" s="78" t="s">
         <v>278</v>
       </c>
-      <c r="G2" s="112" t="s">
+      <c r="G2" s="111" t="s">
         <v>252</v>
       </c>
     </row>
@@ -2838,7 +2850,7 @@
       <c r="D3" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="E3" s="113" t="s">
+      <c r="E3" s="112" t="s">
         <v>295</v>
       </c>
       <c r="F3" s="70" t="str">
@@ -2893,7 +2905,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A1" workbookViewId="0" zoomScale="160">
+    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0" zoomScale="160">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A4" ySplit="3"/>
       <selection activeCell="L23" activeCellId="0" sqref="L23"/>
     </sheetView>
@@ -2909,7 +2921,8 @@
     <col customWidth="1" min="11" max="11" width="11.83203125"/>
     <col customWidth="1" min="12" max="12" width="10.1640625"/>
     <col customWidth="1" min="13" max="13" width="23.33203125"/>
-    <col customWidth="1" min="14" max="14" width="3.5"/>
+    <col customWidth="1" min="14" max="14" width="55.140625"/>
+    <col customWidth="1" min="15" max="15" width="3.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2949,10 +2962,13 @@
       <c r="L1" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="M1" s="114" t="s">
+      <c r="M1" s="113" t="s">
         <v>307</v>
       </c>
-      <c r="N1" s="14"/>
+      <c r="N1" s="113" t="s">
+        <v>308</v>
+      </c>
+      <c r="O1" s="14"/>
     </row>
     <row r="2" ht="28.75" customHeight="1">
       <c r="A2" s="5"/>
@@ -2964,16 +2980,17 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="14"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="14"/>
     </row>
     <row r="3" ht="31.75" customHeight="1">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="110" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="77" t="s">
@@ -2983,44 +3000,47 @@
         <v>278</v>
       </c>
       <c r="D3" s="92" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E3" s="77" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F3" s="92" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G3" s="92" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H3" s="92" t="s">
-        <v>312</v>
-      </c>
-      <c r="I3" s="115" t="s">
         <v>313</v>
       </c>
-      <c r="J3" s="116" t="s">
+      <c r="I3" s="114" t="s">
+        <v>314</v>
+      </c>
+      <c r="J3" s="115" t="s">
         <v>289</v>
       </c>
-      <c r="K3" s="116" t="s">
-        <v>314</v>
-      </c>
-      <c r="L3" s="117" t="s">
+      <c r="K3" s="115" t="s">
         <v>315</v>
       </c>
+      <c r="L3" s="116" t="s">
+        <v>316</v>
+      </c>
       <c r="M3" s="78" t="s">
-        <v>316</v>
-      </c>
-      <c r="N3" s="118"/>
+        <v>317</v>
+      </c>
+      <c r="N3" s="78" t="s">
+        <v>318</v>
+      </c>
+      <c r="O3" s="117"/>
     </row>
     <row r="4" s="9" customFormat="1" ht="30" customHeight="1">
       <c r="A4" s="10" t="str">
-        <f t="shared" ref="A4:A9" si="1">_xlfn.CONCAT("subject",IF(N4&lt;10,"0",""),N4)</f>
+        <f>_xlfn.CONCAT("subject",IF(O4&lt;10,"0",""),O4)</f>
         <v>subject01</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C4" s="70" t="str">
         <f>ap_programs!A4</f>
@@ -3037,37 +3057,40 @@
       </c>
       <c r="G4" s="63"/>
       <c r="H4" s="63" t="str">
-        <f t="shared" ref="H4:H9" si="2">_xlfn.CONCAT("0",IF(N4&lt;10,"0",""),N4)</f>
+        <f>_xlfn.CONCAT("0",IF(O4&lt;10,"0",""),O4)</f>
         <v>001</v>
       </c>
-      <c r="I4" s="119" t="s">
-        <v>318</v>
-      </c>
-      <c r="J4" s="120" t="s">
-        <v>319</v>
+      <c r="I4" s="118" t="s">
+        <v>320</v>
+      </c>
+      <c r="J4" s="119" t="s">
+        <v>321</v>
       </c>
       <c r="K4" s="63"/>
-      <c r="L4" s="121" t="str">
+      <c r="L4" s="120" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="M4" s="122" t="s">
-        <v>320</v>
-      </c>
-      <c r="N4" s="123">
+      <c r="M4" s="121" t="s">
+        <v>322</v>
+      </c>
+      <c r="N4" s="121" t="s">
+        <v>323</v>
+      </c>
+      <c r="O4" s="122">
         <v>1</v>
       </c>
     </row>
     <row r="5" s="9" customFormat="1" ht="30" customHeight="1">
       <c r="A5" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT("subject",IF(O5&lt;10,"0",""),O5)</f>
         <v>subject02</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C5" s="70" t="str">
-        <f t="shared" ref="C5:C10" si="3">C4</f>
+        <f t="shared" ref="C5:C10" si="1">C4</f>
         <v>programA</v>
       </c>
       <c r="D5" s="63">
@@ -3081,41 +3104,45 @@
       </c>
       <c r="G5" s="63"/>
       <c r="H5" s="63" t="str">
-        <f t="shared" si="2"/>
+        <f>_xlfn.CONCAT("0",IF(O5&lt;10,"0",""),O5)</f>
         <v>002</v>
       </c>
-      <c r="I5" s="119" t="str">
-        <f t="shared" ref="I5:I10" si="4">I4</f>
+      <c r="I5" s="118" t="str">
+        <f t="shared" ref="I5:I10" si="2">I4</f>
         <v xml:space="preserve">Group A|G1A, Group B|G1B</v>
       </c>
-      <c r="J5" s="120" t="str">
-        <f t="shared" ref="J5:J10" si="5">J4</f>
+      <c r="J5" s="119" t="str">
+        <f t="shared" ref="J5:J10" si="3">J4</f>
         <v>#FFEB9C</v>
       </c>
       <c r="K5" s="63"/>
-      <c r="L5" s="121" t="str">
+      <c r="L5" s="120" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="M5" s="122" t="str">
-        <f t="shared" ref="M5:M10" si="6">M4</f>
+      <c r="M5" s="121" t="str">
+        <f t="shared" ref="M5:M10" si="4">M4</f>
         <v xml:space="preserve">teacher01|main@G1A, teacher01|main@G1B</v>
       </c>
-      <c r="N5" s="123">
-        <f t="shared" ref="N5:N10" si="7">N4+1</f>
+      <c r="N5" s="121" t="str">
+        <f>N4</f>
+        <v xml:space="preserve">studentB01@G1A, studentB02@G1A</v>
+      </c>
+      <c r="O5" s="122">
+        <f>O4+1</f>
         <v>2</v>
       </c>
     </row>
     <row r="6" s="9" customFormat="1" ht="30" customHeight="1">
       <c r="A6" s="10" t="str">
+        <f>_xlfn.CONCAT("subject",IF(O6&lt;10,"0",""),O6)</f>
+        <v>subject03</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="C6" s="70" t="str">
         <f t="shared" si="1"/>
-        <v>subject03</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="C6" s="70" t="str">
-        <f t="shared" si="3"/>
         <v>programA</v>
       </c>
       <c r="D6" s="63">
@@ -3129,41 +3156,45 @@
       </c>
       <c r="G6" s="63"/>
       <c r="H6" s="63" t="str">
+        <f>_xlfn.CONCAT("0",IF(O6&lt;10,"0",""),O6)</f>
+        <v>003</v>
+      </c>
+      <c r="I6" s="118" t="str">
         <f t="shared" si="2"/>
-        <v>003</v>
-      </c>
-      <c r="I6" s="119" t="str">
-        <f t="shared" si="4"/>
         <v xml:space="preserve">Group A|G1A, Group B|G1B</v>
       </c>
-      <c r="J6" s="120" t="str">
-        <f t="shared" si="5"/>
+      <c r="J6" s="119" t="str">
+        <f t="shared" si="3"/>
         <v>#FFEB9C</v>
       </c>
       <c r="K6" s="63"/>
-      <c r="L6" s="121" t="str">
+      <c r="L6" s="120" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="M6" s="122" t="str">
-        <f t="shared" si="6"/>
+      <c r="M6" s="121" t="str">
+        <f t="shared" si="4"/>
         <v xml:space="preserve">teacher01|main@G1A, teacher01|main@G1B</v>
       </c>
-      <c r="N6" s="123">
-        <f t="shared" si="7"/>
+      <c r="N6" s="121" t="str">
+        <f>N5</f>
+        <v xml:space="preserve">studentB01@G1A, studentB02@G1A</v>
+      </c>
+      <c r="O6" s="122">
+        <f>O5+1</f>
         <v>3</v>
       </c>
     </row>
     <row r="7" s="9" customFormat="1" ht="30" customHeight="1">
       <c r="A7" s="10" t="str">
+        <f>_xlfn.CONCAT("subject",IF(O7&lt;10,"0",""),O7)</f>
+        <v>subject04</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="C7" s="70" t="str">
         <f t="shared" si="1"/>
-        <v>subject04</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="C7" s="70" t="str">
-        <f t="shared" si="3"/>
         <v>programA</v>
       </c>
       <c r="D7" s="63">
@@ -3177,41 +3208,45 @@
       </c>
       <c r="G7" s="63"/>
       <c r="H7" s="63" t="str">
+        <f>_xlfn.CONCAT("0",IF(O7&lt;10,"0",""),O7)</f>
+        <v>004</v>
+      </c>
+      <c r="I7" s="118" t="str">
         <f t="shared" si="2"/>
-        <v>004</v>
-      </c>
-      <c r="I7" s="119" t="str">
-        <f t="shared" si="4"/>
         <v xml:space="preserve">Group A|G1A, Group B|G1B</v>
       </c>
-      <c r="J7" s="120" t="str">
-        <f t="shared" si="5"/>
+      <c r="J7" s="119" t="str">
+        <f t="shared" si="3"/>
         <v>#FFEB9C</v>
       </c>
       <c r="K7" s="63"/>
-      <c r="L7" s="121" t="str">
+      <c r="L7" s="120" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="M7" s="122" t="str">
-        <f t="shared" si="6"/>
+      <c r="M7" s="121" t="str">
+        <f t="shared" si="4"/>
         <v xml:space="preserve">teacher01|main@G1A, teacher01|main@G1B</v>
       </c>
-      <c r="N7" s="123">
-        <f t="shared" si="7"/>
+      <c r="N7" s="121" t="str">
+        <f>N6</f>
+        <v xml:space="preserve">studentB01@G1A, studentB02@G1A</v>
+      </c>
+      <c r="O7" s="122">
+        <f>O6+1</f>
         <v>4</v>
       </c>
     </row>
     <row r="8" ht="30" customHeight="1">
       <c r="A8" s="10" t="str">
+        <f>_xlfn.CONCAT("subject",IF(O8&lt;10,"0",""),O8)</f>
+        <v>subject05</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="C8" s="70" t="str">
         <f t="shared" si="1"/>
-        <v>subject05</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="C8" s="70" t="str">
-        <f t="shared" si="3"/>
         <v>programA</v>
       </c>
       <c r="D8" s="63">
@@ -3225,39 +3260,40 @@
       </c>
       <c r="G8" s="63"/>
       <c r="H8" s="63" t="str">
-        <f t="shared" si="2"/>
+        <f>_xlfn.CONCAT("0",IF(O8&lt;10,"0",""),O8)</f>
         <v>005</v>
       </c>
-      <c r="I8" s="119" t="s">
-        <v>325</v>
-      </c>
-      <c r="J8" s="120" t="str">
-        <f t="shared" si="5"/>
+      <c r="I8" s="118" t="s">
+        <v>328</v>
+      </c>
+      <c r="J8" s="119" t="str">
+        <f t="shared" si="3"/>
         <v>#FFEB9C</v>
       </c>
       <c r="K8" s="63"/>
-      <c r="L8" s="121" t="str">
+      <c r="L8" s="120" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="M8" s="122" t="s">
-        <v>326</v>
-      </c>
-      <c r="N8" s="123">
-        <f t="shared" si="7"/>
+      <c r="M8" s="121" t="s">
+        <v>329</v>
+      </c>
+      <c r="N8" s="121"/>
+      <c r="O8" s="122">
+        <f>O7+1</f>
         <v>5</v>
       </c>
     </row>
     <row r="9" ht="30" customHeight="1">
       <c r="A9" s="10" t="str">
+        <f>_xlfn.CONCAT("subject",IF(O9&lt;10,"0",""),O9)</f>
+        <v>subject06</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="C9" s="70" t="str">
         <f t="shared" si="1"/>
-        <v>subject06</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="C9" s="70" t="str">
-        <f t="shared" si="3"/>
         <v>programA</v>
       </c>
       <c r="D9" s="63">
@@ -3271,40 +3307,41 @@
       </c>
       <c r="G9" s="63"/>
       <c r="H9" s="63" t="str">
+        <f>_xlfn.CONCAT("0",IF(O9&lt;10,"0",""),O9)</f>
+        <v>006</v>
+      </c>
+      <c r="I9" s="118" t="str">
         <f t="shared" si="2"/>
-        <v>006</v>
-      </c>
-      <c r="I9" s="119" t="str">
-        <f t="shared" si="4"/>
         <v xml:space="preserve">Group A|G2A, Group B|G2B</v>
       </c>
-      <c r="J9" s="120" t="s">
-        <v>328</v>
+      <c r="J9" s="119" t="s">
+        <v>331</v>
       </c>
       <c r="K9" s="63"/>
-      <c r="L9" s="121" t="str">
+      <c r="L9" s="120" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="M9" s="122" t="str">
-        <f t="shared" si="6"/>
+      <c r="M9" s="121" t="str">
+        <f t="shared" si="4"/>
         <v xml:space="preserve">teacher01|main@G2A, teacher01|main@G2B</v>
       </c>
-      <c r="N9" s="123">
-        <f t="shared" si="7"/>
+      <c r="N9" s="121"/>
+      <c r="O9" s="122">
+        <f>O8+1</f>
         <v>6</v>
       </c>
     </row>
     <row r="10" ht="30" customHeight="1">
       <c r="A10" s="10" t="str">
-        <f t="shared" ref="A10:A22" si="8">_xlfn.CONCAT("subject",IF(N10&lt;10,"0",""),N10)</f>
+        <f>_xlfn.CONCAT("subject",IF(O10&lt;10,"0",""),O10)</f>
         <v>subject07</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C10" s="70" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>programA</v>
       </c>
       <c r="D10" s="63">
@@ -3318,41 +3355,42 @@
       </c>
       <c r="G10" s="63"/>
       <c r="H10" s="63" t="str">
-        <f t="shared" ref="H10:H24" si="9">_xlfn.CONCAT("0",IF(N10&lt;10,"0",""),N10)</f>
+        <f>_xlfn.CONCAT("0",IF(O10&lt;10,"0",""),O10)</f>
         <v>007</v>
       </c>
-      <c r="I10" s="119" t="str">
-        <f t="shared" si="4"/>
+      <c r="I10" s="118" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">Group A|G2A, Group B|G2B</v>
       </c>
-      <c r="J10" s="120" t="str">
-        <f t="shared" si="5"/>
+      <c r="J10" s="119" t="str">
+        <f t="shared" si="3"/>
         <v>#FFC7CE</v>
       </c>
       <c r="K10" s="63"/>
-      <c r="L10" s="121" t="str">
+      <c r="L10" s="120" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="M10" s="122" t="str">
-        <f t="shared" si="6"/>
+      <c r="M10" s="121" t="str">
+        <f t="shared" si="4"/>
         <v xml:space="preserve">teacher01|main@G2A, teacher01|main@G2B</v>
       </c>
-      <c r="N10" s="123">
-        <f t="shared" si="7"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="122">
+        <f>O9+1</f>
         <v>7</v>
       </c>
     </row>
     <row r="11" ht="30" customHeight="1">
       <c r="A11" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f>_xlfn.CONCAT("subject",IF(O11&lt;10,"0",""),O11)</f>
         <v>subject08</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C11" s="70" t="str">
-        <f t="shared" ref="C11:C24" si="10">C10</f>
+        <f t="shared" ref="C11:C24" si="5">C10</f>
         <v>programA</v>
       </c>
       <c r="D11" s="63">
@@ -3366,41 +3404,42 @@
       </c>
       <c r="G11" s="63"/>
       <c r="H11" s="63" t="str">
-        <f t="shared" si="9"/>
+        <f>_xlfn.CONCAT("0",IF(O11&lt;10,"0",""),O11)</f>
         <v>008</v>
       </c>
-      <c r="I11" s="119" t="str">
+      <c r="I11" s="118" t="str">
         <f>I10</f>
         <v xml:space="preserve">Group A|G2A, Group B|G2B</v>
       </c>
-      <c r="J11" s="120" t="str">
-        <f t="shared" ref="J11:J18" si="11">J10</f>
+      <c r="J11" s="119" t="str">
+        <f t="shared" ref="J11:J18" si="6">J10</f>
         <v>#FFC7CE</v>
       </c>
       <c r="K11" s="63"/>
-      <c r="L11" s="121" t="str">
+      <c r="L11" s="120" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="M11" s="122" t="str">
+      <c r="M11" s="121" t="str">
         <f>M10</f>
         <v xml:space="preserve">teacher01|main@G2A, teacher01|main@G2B</v>
       </c>
-      <c r="N11" s="123">
-        <f t="shared" ref="N11:N24" si="12">N10+1</f>
+      <c r="N11" s="121"/>
+      <c r="O11" s="122">
+        <f>O10+1</f>
         <v>8</v>
       </c>
     </row>
     <row r="12" ht="30" customHeight="1">
       <c r="A12" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f>_xlfn.CONCAT("subject",IF(O12&lt;10,"0",""),O12)</f>
         <v>subject09</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C12" s="70" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>programA</v>
       </c>
       <c r="D12" s="63">
@@ -3414,39 +3453,40 @@
       </c>
       <c r="G12" s="63"/>
       <c r="H12" s="63" t="str">
-        <f t="shared" si="9"/>
+        <f>_xlfn.CONCAT("0",IF(O12&lt;10,"0",""),O12)</f>
         <v>009</v>
       </c>
-      <c r="I12" s="119" t="s">
-        <v>332</v>
-      </c>
-      <c r="J12" s="120" t="str">
-        <f t="shared" si="11"/>
+      <c r="I12" s="118" t="s">
+        <v>335</v>
+      </c>
+      <c r="J12" s="119" t="str">
+        <f t="shared" si="6"/>
         <v>#FFC7CE</v>
       </c>
       <c r="K12" s="63"/>
-      <c r="L12" s="121" t="str">
+      <c r="L12" s="120" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="M12" s="122" t="s">
-        <v>333</v>
-      </c>
-      <c r="N12" s="123">
-        <f t="shared" si="12"/>
+      <c r="M12" s="121" t="s">
+        <v>336</v>
+      </c>
+      <c r="N12" s="121"/>
+      <c r="O12" s="122">
+        <f>O11+1</f>
         <v>9</v>
       </c>
     </row>
     <row r="13" ht="30" customHeight="1">
       <c r="A13" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f>_xlfn.CONCAT("subject",IF(O13&lt;10,"0",""),O13)</f>
         <v>subject10</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C13" s="70" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>programA</v>
       </c>
       <c r="D13" s="63">
@@ -3460,41 +3500,42 @@
       </c>
       <c r="G13" s="63"/>
       <c r="H13" s="63" t="str">
-        <f t="shared" si="9"/>
+        <f>_xlfn.CONCAT("0",IF(O13&lt;10,"0",""),O13)</f>
         <v>010</v>
       </c>
-      <c r="I13" s="119" t="str">
-        <f t="shared" ref="I13:I24" si="13">I12</f>
+      <c r="I13" s="118" t="str">
+        <f t="shared" ref="I13:I24" si="7">I12</f>
         <v xml:space="preserve">Group A|G3A, Group B|G3B</v>
       </c>
-      <c r="J13" s="120" t="str">
-        <f t="shared" si="11"/>
+      <c r="J13" s="119" t="str">
+        <f t="shared" si="6"/>
         <v>#FFC7CE</v>
       </c>
       <c r="K13" s="63"/>
-      <c r="L13" s="121" t="str">
+      <c r="L13" s="120" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="M13" s="122" t="str">
-        <f t="shared" ref="M13:M24" si="14">M12</f>
+      <c r="M13" s="121" t="str">
+        <f t="shared" ref="M13:M24" si="8">M12</f>
         <v xml:space="preserve">teacher01|main@G3A, teacher01|main@G3B</v>
       </c>
-      <c r="N13" s="123">
-        <f t="shared" si="12"/>
+      <c r="N13" s="121"/>
+      <c r="O13" s="122">
+        <f>O12+1</f>
         <v>10</v>
       </c>
     </row>
     <row r="14" ht="30" customHeight="1">
       <c r="A14" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f>_xlfn.CONCAT("subject",IF(O14&lt;10,"0",""),O14)</f>
         <v>subject11</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C14" s="70" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>programA</v>
       </c>
       <c r="D14" s="63">
@@ -3508,40 +3549,41 @@
       </c>
       <c r="G14" s="63"/>
       <c r="H14" s="63" t="str">
-        <f t="shared" si="9"/>
+        <f>_xlfn.CONCAT("0",IF(O14&lt;10,"0",""),O14)</f>
         <v>011</v>
       </c>
-      <c r="I14" s="119" t="str">
-        <f t="shared" si="13"/>
+      <c r="I14" s="118" t="str">
+        <f t="shared" si="7"/>
         <v xml:space="preserve">Group A|G3A, Group B|G3B</v>
       </c>
-      <c r="J14" s="120" t="s">
-        <v>336</v>
+      <c r="J14" s="119" t="s">
+        <v>339</v>
       </c>
       <c r="K14" s="63"/>
-      <c r="L14" s="121" t="str">
+      <c r="L14" s="120" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="M14" s="122" t="str">
-        <f t="shared" si="14"/>
+      <c r="M14" s="121" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">teacher01|main@G3A, teacher01|main@G3B</v>
       </c>
-      <c r="N14" s="123">
-        <f t="shared" si="12"/>
+      <c r="N14" s="121"/>
+      <c r="O14" s="122">
+        <f>O13+1</f>
         <v>11</v>
       </c>
     </row>
     <row r="15" ht="30" customHeight="1">
       <c r="A15" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f>_xlfn.CONCAT("subject",IF(O15&lt;10,"0",""),O15)</f>
         <v>subject12</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C15" s="70" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>programA</v>
       </c>
       <c r="D15" s="63">
@@ -3555,41 +3597,42 @@
       </c>
       <c r="G15" s="63"/>
       <c r="H15" s="63" t="str">
-        <f t="shared" si="9"/>
+        <f>_xlfn.CONCAT("0",IF(O15&lt;10,"0",""),O15)</f>
         <v>012</v>
       </c>
-      <c r="I15" s="119" t="str">
-        <f t="shared" si="13"/>
+      <c r="I15" s="118" t="str">
+        <f t="shared" si="7"/>
         <v xml:space="preserve">Group A|G3A, Group B|G3B</v>
       </c>
-      <c r="J15" s="120" t="str">
-        <f t="shared" si="11"/>
+      <c r="J15" s="119" t="str">
+        <f t="shared" si="6"/>
         <v>#C6EFCD</v>
       </c>
       <c r="K15" s="63"/>
-      <c r="L15" s="121" t="str">
+      <c r="L15" s="120" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="M15" s="122" t="str">
-        <f t="shared" si="14"/>
+      <c r="M15" s="121" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">teacher01|main@G3A, teacher01|main@G3B</v>
       </c>
-      <c r="N15" s="123">
-        <f t="shared" si="12"/>
+      <c r="N15" s="121"/>
+      <c r="O15" s="122">
+        <f>O14+1</f>
         <v>12</v>
       </c>
     </row>
     <row r="16" ht="30" customHeight="1">
       <c r="A16" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f>_xlfn.CONCAT("subject",IF(O16&lt;10,"0",""),O16)</f>
         <v>subject13</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C16" s="70" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>programA</v>
       </c>
       <c r="D16" s="63">
@@ -3603,39 +3646,40 @@
       </c>
       <c r="G16" s="63"/>
       <c r="H16" s="63" t="str">
-        <f t="shared" si="9"/>
+        <f>_xlfn.CONCAT("0",IF(O16&lt;10,"0",""),O16)</f>
         <v>013</v>
       </c>
-      <c r="I16" s="119" t="s">
-        <v>339</v>
-      </c>
-      <c r="J16" s="120" t="str">
-        <f t="shared" si="11"/>
+      <c r="I16" s="118" t="s">
+        <v>342</v>
+      </c>
+      <c r="J16" s="119" t="str">
+        <f t="shared" si="6"/>
         <v>#C6EFCD</v>
       </c>
       <c r="K16" s="63"/>
-      <c r="L16" s="121" t="str">
+      <c r="L16" s="120" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="M16" s="122" t="s">
-        <v>340</v>
-      </c>
-      <c r="N16" s="123">
-        <f t="shared" si="12"/>
+      <c r="M16" s="121" t="s">
+        <v>343</v>
+      </c>
+      <c r="N16" s="121"/>
+      <c r="O16" s="122">
+        <f>O15+1</f>
         <v>13</v>
       </c>
     </row>
     <row r="17" ht="30" customHeight="1">
       <c r="A17" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f>_xlfn.CONCAT("subject",IF(O17&lt;10,"0",""),O17)</f>
         <v>subject14</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C17" s="70" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>programA</v>
       </c>
       <c r="D17" s="63">
@@ -3649,41 +3693,42 @@
       </c>
       <c r="G17" s="63"/>
       <c r="H17" s="63" t="str">
-        <f t="shared" si="9"/>
+        <f>_xlfn.CONCAT("0",IF(O17&lt;10,"0",""),O17)</f>
         <v>014</v>
       </c>
-      <c r="I17" s="119" t="str">
-        <f t="shared" si="13"/>
+      <c r="I17" s="118" t="str">
+        <f t="shared" si="7"/>
         <v xml:space="preserve">Group A|G4A, Group B|G4B</v>
       </c>
-      <c r="J17" s="120" t="str">
-        <f t="shared" si="11"/>
+      <c r="J17" s="119" t="str">
+        <f t="shared" si="6"/>
         <v>#C6EFCD</v>
       </c>
       <c r="K17" s="63"/>
-      <c r="L17" s="121" t="str">
+      <c r="L17" s="120" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="M17" s="122" t="str">
-        <f t="shared" si="14"/>
+      <c r="M17" s="121" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">teacher01|main@G4A, teacher01|main@G4B</v>
       </c>
-      <c r="N17" s="123">
-        <f t="shared" si="12"/>
+      <c r="N17" s="121"/>
+      <c r="O17" s="122">
+        <f>O16+1</f>
         <v>14</v>
       </c>
     </row>
     <row r="18" ht="30" customHeight="1">
       <c r="A18" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f>_xlfn.CONCAT("subject",IF(O18&lt;10,"0",""),O18)</f>
         <v>subject15</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C18" s="70" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>programA</v>
       </c>
       <c r="D18" s="63">
@@ -3697,41 +3742,42 @@
       </c>
       <c r="G18" s="63"/>
       <c r="H18" s="63" t="str">
-        <f t="shared" si="9"/>
+        <f>_xlfn.CONCAT("0",IF(O18&lt;10,"0",""),O18)</f>
         <v>015</v>
       </c>
-      <c r="I18" s="119" t="str">
-        <f t="shared" si="13"/>
+      <c r="I18" s="118" t="str">
+        <f t="shared" si="7"/>
         <v xml:space="preserve">Group A|G4A, Group B|G4B</v>
       </c>
-      <c r="J18" s="120" t="str">
-        <f t="shared" si="11"/>
+      <c r="J18" s="119" t="str">
+        <f t="shared" si="6"/>
         <v>#C6EFCD</v>
       </c>
       <c r="K18" s="63"/>
-      <c r="L18" s="121" t="str">
+      <c r="L18" s="120" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="M18" s="122" t="str">
-        <f t="shared" si="14"/>
+      <c r="M18" s="121" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">teacher01|main@G4A, teacher01|main@G4B</v>
       </c>
-      <c r="N18" s="123">
-        <f t="shared" si="12"/>
+      <c r="N18" s="121"/>
+      <c r="O18" s="122">
+        <f>O17+1</f>
         <v>15</v>
       </c>
     </row>
     <row r="19" ht="30" customHeight="1">
       <c r="A19" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f>_xlfn.CONCAT("subject",IF(O19&lt;10,"0",""),O19)</f>
         <v>subject16</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C19" s="70" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>programA</v>
       </c>
       <c r="D19" s="63">
@@ -3745,40 +3791,41 @@
       </c>
       <c r="G19" s="63"/>
       <c r="H19" s="63" t="str">
-        <f t="shared" si="9"/>
+        <f>_xlfn.CONCAT("0",IF(O19&lt;10,"0",""),O19)</f>
         <v>016</v>
       </c>
-      <c r="I19" s="119" t="str">
-        <f t="shared" si="13"/>
+      <c r="I19" s="118" t="str">
+        <f t="shared" si="7"/>
         <v xml:space="preserve">Group A|G4A, Group B|G4B</v>
       </c>
-      <c r="J19" s="120" t="s">
-        <v>344</v>
+      <c r="J19" s="119" t="s">
+        <v>347</v>
       </c>
       <c r="K19" s="63"/>
-      <c r="L19" s="121" t="str">
+      <c r="L19" s="120" t="str">
         <f>ap_subject_types!$A$5</f>
         <v>type03</v>
       </c>
-      <c r="M19" s="122" t="str">
-        <f t="shared" si="14"/>
+      <c r="M19" s="121" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">teacher01|main@G4A, teacher01|main@G4B</v>
       </c>
-      <c r="N19" s="123">
-        <f t="shared" si="12"/>
+      <c r="N19" s="121"/>
+      <c r="O19" s="122">
+        <f>O18+1</f>
         <v>16</v>
       </c>
     </row>
     <row r="20" ht="30" customHeight="1">
       <c r="A20" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f>_xlfn.CONCAT("subject",IF(O20&lt;10,"0",""),O20)</f>
         <v>subject17</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C20" s="70" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>programA</v>
       </c>
       <c r="D20" s="63">
@@ -3792,38 +3839,39 @@
       </c>
       <c r="G20" s="63"/>
       <c r="H20" s="63" t="str">
-        <f t="shared" si="9"/>
+        <f>_xlfn.CONCAT("0",IF(O20&lt;10,"0",""),O20)</f>
         <v>017</v>
       </c>
-      <c r="I20" s="119" t="s">
-        <v>346</v>
-      </c>
-      <c r="J20" s="120" t="s">
-        <v>344</v>
+      <c r="I20" s="118" t="s">
+        <v>349</v>
+      </c>
+      <c r="J20" s="119" t="s">
+        <v>347</v>
       </c>
       <c r="K20" s="63"/>
-      <c r="L20" s="121" t="str">
+      <c r="L20" s="120" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="M20" s="122" t="s">
-        <v>347</v>
-      </c>
-      <c r="N20" s="123">
-        <f t="shared" si="12"/>
+      <c r="M20" s="121" t="s">
+        <v>350</v>
+      </c>
+      <c r="N20" s="121"/>
+      <c r="O20" s="122">
+        <f>O19+1</f>
         <v>17</v>
       </c>
     </row>
     <row r="21" ht="30" customHeight="1">
       <c r="A21" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f>_xlfn.CONCAT("subject",IF(O21&lt;10,"0",""),O21)</f>
         <v>subject18</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C21" s="70" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>programA</v>
       </c>
       <c r="D21" s="63">
@@ -3837,40 +3885,41 @@
       </c>
       <c r="G21" s="63"/>
       <c r="H21" s="63" t="str">
-        <f t="shared" si="9"/>
+        <f>_xlfn.CONCAT("0",IF(O21&lt;10,"0",""),O21)</f>
         <v>018</v>
       </c>
-      <c r="I21" s="119" t="str">
-        <f t="shared" si="13"/>
+      <c r="I21" s="118" t="str">
+        <f t="shared" si="7"/>
         <v xml:space="preserve">Group A|G5A, Group B|G5B</v>
       </c>
-      <c r="J21" s="120" t="s">
-        <v>344</v>
+      <c r="J21" s="119" t="s">
+        <v>347</v>
       </c>
       <c r="K21" s="63"/>
-      <c r="L21" s="121" t="str">
+      <c r="L21" s="120" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="M21" s="122" t="str">
-        <f t="shared" si="14"/>
+      <c r="M21" s="121" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">teacher01|main@G5A, teacher01|main@G5B</v>
       </c>
-      <c r="N21" s="123">
-        <f t="shared" si="12"/>
+      <c r="N21" s="121"/>
+      <c r="O21" s="122">
+        <f>O20+1</f>
         <v>18</v>
       </c>
     </row>
     <row r="22" ht="30" customHeight="1">
       <c r="A22" s="10" t="str">
-        <f t="shared" si="8"/>
+        <f>_xlfn.CONCAT("subject",IF(O22&lt;10,"0",""),O22)</f>
         <v>subject19</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C22" s="70" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>programA</v>
       </c>
       <c r="D22" s="63">
@@ -3884,37 +3933,38 @@
       </c>
       <c r="G22" s="63"/>
       <c r="H22" s="63" t="str">
-        <f t="shared" si="9"/>
+        <f>_xlfn.CONCAT("0",IF(O22&lt;10,"0",""),O22)</f>
         <v>019</v>
       </c>
-      <c r="I22" s="119" t="str">
-        <f t="shared" si="13"/>
+      <c r="I22" s="118" t="str">
+        <f t="shared" si="7"/>
         <v xml:space="preserve">Group A|G5A, Group B|G5B</v>
       </c>
-      <c r="J22" s="120" t="s">
-        <v>344</v>
+      <c r="J22" s="119" t="s">
+        <v>347</v>
       </c>
       <c r="K22" s="63"/>
-      <c r="L22" s="121" t="str">
+      <c r="L22" s="120" t="str">
         <f>ap_subject_types!$A$3</f>
         <v>type01</v>
       </c>
-      <c r="M22" s="122" t="str">
-        <f t="shared" si="14"/>
+      <c r="M22" s="121" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">teacher01|main@G5A, teacher01|main@G5B</v>
       </c>
-      <c r="N22" s="123">
-        <f t="shared" si="12"/>
+      <c r="N22" s="121"/>
+      <c r="O22" s="122">
+        <f>O21+1</f>
         <v>19</v>
       </c>
     </row>
     <row r="23" ht="30" customHeight="1">
       <c r="A23" s="10" t="str">
-        <f t="shared" ref="A23:A24" si="15">_xlfn.CONCAT("asignatura",IF(N23&lt;10,"0",""),N23)</f>
+        <f>_xlfn.CONCAT("asignatura",IF(O23&lt;10,"0",""),O23)</f>
         <v>asignatura01</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C23" s="70" t="str">
         <f>ap_programs!A6</f>
@@ -3931,37 +3981,40 @@
       </c>
       <c r="G23" s="63"/>
       <c r="H23" s="63" t="str">
-        <f t="shared" si="9"/>
+        <f>_xlfn.CONCAT("0",IF(O23&lt;10,"0",""),O23)</f>
         <v>001</v>
       </c>
-      <c r="I23" s="119" t="s">
-        <v>351</v>
-      </c>
-      <c r="J23" s="120" t="s">
-        <v>352</v>
+      <c r="I23" s="118" t="s">
+        <v>354</v>
+      </c>
+      <c r="J23" s="119" t="s">
+        <v>355</v>
       </c>
       <c r="K23" s="63"/>
-      <c r="L23" s="121" t="str">
+      <c r="L23" s="120" t="str">
         <f>ap_subject_types!$A$6</f>
         <v>type04</v>
       </c>
-      <c r="M23" s="122" t="s">
-        <v>353</v>
-      </c>
-      <c r="N23" s="123">
+      <c r="M23" s="121" t="s">
+        <v>356</v>
+      </c>
+      <c r="N23" s="121" t="s">
+        <v>357</v>
+      </c>
+      <c r="O23" s="122">
         <v>1</v>
       </c>
     </row>
-    <row r="24" ht="27">
+    <row r="24" ht="28.5">
       <c r="A24" s="10" t="str">
-        <f t="shared" si="15"/>
+        <f>_xlfn.CONCAT("asignatura",IF(O24&lt;10,"0",""),O24)</f>
         <v>asignatura02</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C24" s="70" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>programC</v>
       </c>
       <c r="D24" s="63">
@@ -3975,27 +4028,31 @@
       </c>
       <c r="G24" s="63"/>
       <c r="H24" s="63" t="str">
-        <f t="shared" si="9"/>
+        <f>_xlfn.CONCAT("0",IF(O24&lt;10,"0",""),O24)</f>
         <v>002</v>
       </c>
-      <c r="I24" s="119" t="str">
-        <f t="shared" si="13"/>
+      <c r="I24" s="118" t="str">
+        <f t="shared" si="7"/>
         <v xml:space="preserve">2ºA|2ºA, 2ºB|2ºB</v>
       </c>
-      <c r="J24" s="120" t="s">
-        <v>355</v>
+      <c r="J24" s="119" t="s">
+        <v>359</v>
       </c>
       <c r="K24" s="63"/>
-      <c r="L24" s="121" t="str">
+      <c r="L24" s="120" t="str">
         <f>ap_subject_types!$A$6</f>
         <v>type04</v>
       </c>
-      <c r="M24" s="122" t="str">
-        <f t="shared" si="14"/>
+      <c r="M24" s="121" t="str">
+        <f t="shared" si="8"/>
         <v xml:space="preserve">teacher01|main@2ºA, teacher01|main@2ºB</v>
       </c>
-      <c r="N24" s="123">
-        <f t="shared" si="12"/>
+      <c r="N24" s="123" t="str">
+        <f>N23</f>
+        <v xml:space="preserve">studentC01@2ºA, studentC02@2ºA, studentC03@2ºA, studentC04@2ºB, studentC05@2ºB, studentC06@2ºB</v>
+      </c>
+      <c r="O24" s="122">
+        <f>O23+1</f>
         <v>2</v>
       </c>
     </row>
@@ -5350,7 +5407,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" ht="19.5" customHeight="1">
       <c r="A10" s="10" t="s">
         <v>170</v>
       </c>
@@ -5382,7 +5439,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" ht="19.5" customHeight="1">
       <c r="A11" s="10" t="s">
         <v>175</v>
       </c>
@@ -5414,7 +5471,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" s="14" customFormat="1">
+    <row r="12" s="14" customFormat="1" ht="19.5" customHeight="1">
       <c r="A12" s="10" t="s">
         <v>179</v>
       </c>
@@ -5446,7 +5503,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" s="14" customFormat="1">
+    <row r="13" s="14" customFormat="1" ht="19.5" customHeight="1">
       <c r="A13" s="10" t="s">
         <v>183</v>
       </c>
@@ -5478,7 +5535,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="14" s="14" customFormat="1">
+    <row r="14" s="14" customFormat="1" ht="19.5" customHeight="1">
       <c r="A14" s="10" t="s">
         <v>187</v>
       </c>
@@ -5510,7 +5567,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="15" s="14" customFormat="1">
+    <row r="15" s="14" customFormat="1" ht="19.5" customHeight="1">
       <c r="A15" s="10" t="s">
         <v>191</v>
       </c>
@@ -5563,7 +5620,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1" disablePrompts="0">
-        <x14:dataValidation xr:uid="{0029005A-0079-47C7-B86C-004200A000E7}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00D400AB-0022-445E-8965-0036008000A4}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GENRE_ANSWER</xm:f>
           </x14:formula1>
@@ -5714,7 +5771,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1" disablePrompts="0">
-        <x14:dataValidation xr:uid="{0049009A-009C-47F6-B83E-00FF0084007F}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00080041-00F0-4985-B2FD-00D700AD009F}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GUARDIANS_RELATIONSHIPS</xm:f>
           </x14:formula1>
@@ -5848,13 +5905,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2" disablePrompts="0">
-        <x14:dataValidation xr:uid="{003100FE-00DB-4799-B572-001700D10015}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{006A0034-001D-4EE7-AC9C-009300110025}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>GRADES_TYPES</xm:f>
           </x14:formula1>
           <xm:sqref>D3:D4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{0047006C-004D-4B39-9FA2-003F001D000D}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{00E9004C-00B5-44E2-96B0-004D006F00E5}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
@@ -6168,7 +6225,7 @@
       <c r="B4" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="C4" s="108" t="s">
+      <c r="C4" s="11" t="s">
         <v>136</v>
       </c>
       <c r="D4" s="11" t="s">
@@ -6195,7 +6252,7 @@
       <c r="K4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="109"/>
+      <c r="L4" s="108"/>
       <c r="M4" s="63"/>
       <c r="N4" s="63"/>
       <c r="O4" s="63"/>
@@ -6235,7 +6292,7 @@
       <c r="B5" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="C5" s="108" t="s">
+      <c r="C5" s="11" t="s">
         <v>136</v>
       </c>
       <c r="D5" s="11" t="s">
@@ -6264,7 +6321,7 @@
       <c r="K5" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="109" t="s">
+      <c r="L5" s="108" t="s">
         <v>271</v>
       </c>
       <c r="M5" s="63" t="s">
@@ -6314,7 +6371,7 @@
       <c r="B6" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="C6" s="108" t="s">
+      <c r="C6" s="11" t="s">
         <v>136</v>
       </c>
       <c r="D6" s="11" t="s">
@@ -6341,7 +6398,7 @@
       <c r="K6" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="109" t="s">
+      <c r="L6" s="108" t="s">
         <v>274</v>
       </c>
       <c r="M6" s="63" t="s">
@@ -6397,13 +6454,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2" disablePrompts="0">
-        <x14:dataValidation xr:uid="{006B00F9-006B-4044-9E39-007D00F600EB}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{004900E4-00C9-42E5-8F3F-0055007B0003}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>BOOLEAN_ANSWER</xm:f>
           </x14:formula1>
           <xm:sqref>K4:K6 G4:G6 T4 V4:V6 X4:Y6</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation xr:uid="{00510083-0002-47C4-AA7F-00E600780043}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+        <x14:dataValidation xr:uid="{003600B4-0023-4287-AD21-0037006900FF}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>SUBSTAGES_FRECUENCY</xm:f>
           </x14:formula1>

--- a/packages/leemons-plugin-mvp-template/src/bulk/data.xlsx
+++ b/packages/leemons-plugin-mvp-template/src/bulk/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="11"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" state="visible" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="ap_knowledges" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="ap_subjects" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="t_profiles" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="te_qbanks" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="BOOLEAN_ANSWER">DB!$A$11:$A$12</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="384">
   <si>
     <t xml:space="preserve">Substages frecuency</t>
   </si>
@@ -157,6 +158,15 @@
     <t xml:space="preserve">Centro Educativo Padre Piquer</t>
   </si>
   <si>
+    <t>centerD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Down Demo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Down Demo Learning center</t>
+  </si>
+  <si>
     <t>accessTo</t>
   </si>
   <si>
@@ -460,7 +470,7 @@
     <t>Admin,Test</t>
   </si>
   <si>
-    <t xml:space="preserve">admin@centerA, admin@centerB, admin@centerC,student@centerB,teacher@centerA, teacher@centerB</t>
+    <t xml:space="preserve">admin@centerA, admin@centerB, admin@centerC,student@centerB,teacher@centerA, teacher@centerB, admin@centerD</t>
   </si>
   <si>
     <t>teacher01</t>
@@ -619,6 +629,42 @@
     <t>student+alvaro@leemons.io</t>
   </si>
   <si>
+    <t>teacher02</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Burgos</t>
+  </si>
+  <si>
+    <t>teacher+julia@leemons.io</t>
+  </si>
+  <si>
+    <t>teacher@centerD</t>
+  </si>
+  <si>
+    <t>studentD01</t>
+  </si>
+  <si>
+    <t>student+maria2@leemons.io</t>
+  </si>
+  <si>
+    <t>student@centerD</t>
+  </si>
+  <si>
+    <t>studentD02</t>
+  </si>
+  <si>
+    <t>student+paz2@leemons.io</t>
+  </si>
+  <si>
+    <t>studentD03</t>
+  </si>
+  <si>
+    <t>student+joaquin2@leemons.io</t>
+  </si>
+  <si>
     <t>profile</t>
   </si>
   <si>
@@ -1112,12 +1158,39 @@
   </si>
   <si>
     <t>#f56c42</t>
+  </si>
+  <si>
+    <t>tagline</t>
+  </si>
+  <si>
+    <t>cover</t>
+  </si>
+  <si>
+    <t>qbank01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mi primer question bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Cuánto sabes de los qbanks?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Echa un vistazo a las preguntas, y mira cuánto sabes de los qbanks de leemons.</t>
+  </si>
+  <si>
+    <t>#fabada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">primer, qbank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asignatura01, asignatura02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="160" formatCode="dd/mm/yyyy"/>
   </numFmts>
@@ -1617,7 +1690,7 @@
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="129">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="2" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1644,6 +1717,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf fontId="0" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1821,6 +1900,9 @@
     <xf fontId="0" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf fontId="0" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1845,140 +1927,146 @@
     <xf fontId="5" fillId="16" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="7" borderId="21" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="8" borderId="22" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="8" borderId="23" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="8" borderId="24" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="9" borderId="21" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="18" borderId="22" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="18" borderId="23" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="18" borderId="24" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="10" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="16" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="5" fillId="16" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="12" fillId="4" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="12" fillId="4" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="12" fillId="12" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </